--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD80B4-48F6-6E48-BECA-103E6A253AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EACA2A3-7AE5-4144-99B8-A9E85A04D568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Connexion a la DB, et installation Docker / Microsoft</t>
+  </si>
+  <si>
+    <t>Implementation du repository desgin pattern asp</t>
   </si>
 </sst>
 </file>
@@ -887,50 +890,8 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1139,10 +1100,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1223,11 +1180,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1701,2564 +1700,2561 @@
   </sheetPr>
   <dimension ref="B1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="15" customWidth="1"/>
-    <col min="5" max="6" width="8.1640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="16" customWidth="1"/>
-    <col min="10" max="11" width="9.33203125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="15" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="15" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="16" customWidth="1"/>
-    <col min="16" max="17" width="7" style="15" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="15" customWidth="1"/>
-    <col min="19" max="19" width="6.1640625" style="16" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="6.6640625" style="15" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="26" width="6.6640625" style="15" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="6.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="20.83203125" style="15" customWidth="1"/>
-    <col min="29" max="29" width="22.83203125" style="15" customWidth="1"/>
-    <col min="30" max="1025" width="10.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="26" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="6.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="20.83203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.83203125" style="1" customWidth="1"/>
+    <col min="30" max="1025" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="H1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="2:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="15" t="s">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:29" ht="24" x14ac:dyDescent="0.3">
-      <c r="C3" s="17"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="3"/>
+      <c r="E3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="15" t="s">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="21" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="15" t="s">
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="15" t="s">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="O6" s="22">
+      <c r="O6" s="8">
         <v>0.25</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="S6" s="22">
+      <c r="Q6" s="9"/>
+      <c r="S6" s="8">
         <v>0.5</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="8">
         <v>0.75</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="AA6" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="5" t="s">
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" s="107" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="25">
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="11">
         <v>43838</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="12">
         <f t="shared" ref="M8:AA8" si="0">L8+7</f>
         <v>43845</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="12">
         <f t="shared" si="0"/>
         <v>43852</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="12">
         <f t="shared" si="0"/>
         <v>43859</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="12">
         <f t="shared" si="0"/>
         <v>43866</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="12">
         <f t="shared" si="0"/>
         <v>43873</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="12">
         <f t="shared" si="0"/>
         <v>43880</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="12">
         <f t="shared" si="0"/>
         <v>43887</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="12">
         <f t="shared" si="0"/>
         <v>43894</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="12">
         <f t="shared" si="0"/>
         <v>43901</v>
       </c>
-      <c r="V8" s="26">
+      <c r="V8" s="12">
         <f t="shared" si="0"/>
         <v>43908</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="12">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="12">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
-      <c r="Y8" s="26">
+      <c r="Y8" s="12">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="Z8" s="26">
+      <c r="Z8" s="12">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="AA8" s="26">
+      <c r="AA8" s="12">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
     </row>
     <row r="9" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="38"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="24"/>
     </row>
     <row r="10" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="39">
+      <c r="B10" s="25">
         <v>1</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="27">
         <v>1.5</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="27">
         <v>1.5</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="27">
         <v>1.5</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="27">
         <v>1.5</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="16">
         <f>VLOOKUP(I10,Feuil2!A1:B3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="18">
         <v>6</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="18">
         <f t="shared" ref="K10:K20" si="1">D10+E10+G10+F10</f>
         <v>6</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="45">
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="31">
         <f>J10-K10</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="46"/>
+      <c r="AC10" s="32"/>
     </row>
     <row r="11" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="39">
-        <f t="shared" ref="B11:B27" si="2">B10+1</f>
+      <c r="B11" s="25">
+        <f t="shared" ref="B11:B26" si="2">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="27">
         <v>1.5</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="27">
         <v>1.5</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="27">
         <v>1.5</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="27">
         <v>1.5</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="16">
         <f>VLOOKUP(I11,Feuil2!A2:B4,2,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="18">
         <v>6</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="48">
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="34">
         <f>J11-K11</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="49"/>
+      <c r="AC11" s="35"/>
     </row>
     <row r="12" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="39">
+      <c r="B12" s="25">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="27">
         <v>3</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="27">
         <v>3</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="27">
         <v>3</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="27">
         <v>3</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="16">
         <f>VLOOKUP(I12,Feuil2!A3:B5,2,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="18">
         <v>6</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="42"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="50">
+      <c r="L12" s="29"/>
+      <c r="M12" s="28"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="36">
         <f>J12-K12</f>
         <v>-6</v>
       </c>
-      <c r="AC12" s="51"/>
+      <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="39">
+      <c r="B13" s="25">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="27">
         <v>2</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="27">
         <v>2</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="27">
         <v>2</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="27">
         <v>2</v>
       </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-      <c r="I13" s="31" t="s">
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="18">
         <v>2</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="48">
+      <c r="L13" s="29"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="34">
         <f>J13-K13</f>
         <v>-6</v>
       </c>
-      <c r="AC13" s="49"/>
+      <c r="AC13" s="35"/>
     </row>
     <row r="14" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="39">
+      <c r="B14" s="25">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="27">
         <v>3</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="27">
         <v>3</v>
       </c>
-      <c r="F14" s="41">
-        <v>0</v>
-      </c>
-      <c r="G14" s="41">
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27">
         <v>3</v>
       </c>
-      <c r="H14" s="30">
-        <v>0</v>
-      </c>
-      <c r="I14" s="31" t="s">
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="18">
         <v>9</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="49"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="35"/>
     </row>
     <row r="15" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="39">
+      <c r="B15" s="25">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="27">
         <v>2</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="27">
         <v>2</v>
       </c>
-      <c r="F15" s="41">
-        <v>0</v>
-      </c>
-      <c r="G15" s="41">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31" t="s">
+      <c r="F15" s="27">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="18">
         <v>5</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="49"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="35"/>
     </row>
     <row r="16" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="39">
+      <c r="B16" s="25">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="27">
         <v>2</v>
       </c>
-      <c r="E16" s="41">
-        <v>0</v>
-      </c>
-      <c r="F16" s="41">
-        <v>0</v>
-      </c>
-      <c r="G16" s="41">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
         <f>VLOOKUP(I16,Feuil2!A1:B3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="18">
         <v>5</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="48">
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="34">
         <f>J16-K16</f>
         <v>3</v>
       </c>
-      <c r="AC16" s="49"/>
+      <c r="AC16" s="35"/>
     </row>
     <row r="17" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="39">
+      <c r="B17" s="25">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="27">
         <v>2</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="27">
         <v>2</v>
       </c>
-      <c r="F17" s="41">
-        <v>0</v>
-      </c>
-      <c r="G17" s="41">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30">
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
         <f>VLOOKUP(I17,Feuil2!A1:B3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="18">
         <v>4</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="48">
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="34">
         <f>J17-K17</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="49"/>
+      <c r="AC17" s="35"/>
     </row>
     <row r="18" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="39">
+      <c r="B18" s="25">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="27">
         <v>2</v>
       </c>
-      <c r="E18" s="41">
-        <v>0</v>
-      </c>
-      <c r="F18" s="41">
-        <v>0</v>
-      </c>
-      <c r="G18" s="41">
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0</v>
+      </c>
+      <c r="G18" s="27">
         <v>2</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="16">
         <f>VLOOKUP(I18,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="18">
         <v>5</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="48">
+      <c r="L18" s="29"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="34">
         <f>J18-K18</f>
         <v>1</v>
       </c>
-      <c r="AC18" s="49"/>
+      <c r="AC18" s="35"/>
     </row>
     <row r="19" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="39">
+      <c r="B19" s="25">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="27">
         <v>1.5</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="27">
         <v>6</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="27">
         <v>3</v>
       </c>
-      <c r="G19" s="41">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30">
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
         <f>VLOOKUP(I19,Feuil2!A1:B3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="18">
         <v>12</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="18">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="48">
+      <c r="L19" s="29"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="34">
         <f>J19-K19</f>
         <v>1.5</v>
       </c>
-      <c r="AC19" s="49"/>
+      <c r="AC19" s="35"/>
     </row>
     <row r="20" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="39">
+      <c r="B20" s="25">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="41">
-        <v>0</v>
-      </c>
-      <c r="E20" s="41">
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27">
         <v>3</v>
       </c>
-      <c r="F20" s="41">
-        <v>0</v>
-      </c>
-      <c r="G20" s="41">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30">
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
         <f>VLOOKUP(I20,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="18">
         <v>10</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="48">
+      <c r="L20" s="29"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="34">
         <f>J20-K20</f>
         <v>7</v>
       </c>
-      <c r="AC20" s="49"/>
+      <c r="AC20" s="35"/>
     </row>
     <row r="21" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="39">
+      <c r="B21" s="25">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="27">
         <v>3</v>
       </c>
-      <c r="E21" s="41">
-        <v>0</v>
-      </c>
-      <c r="F21" s="41">
-        <v>0</v>
-      </c>
-      <c r="G21" s="41">
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27">
         <v>3</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="49"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="35"/>
     </row>
     <row r="22" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="39">
+      <c r="B22" s="25">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="27">
         <v>3</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="27">
         <v>3</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="27">
         <v>3</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="27">
         <v>3</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="16">
         <f>VLOOKUP(I22,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="18">
         <v>30</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="18">
         <f t="shared" ref="K22:K50" si="3">D22+E22+G22+F22</f>
         <v>12</v>
       </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="48">
+      <c r="L22" s="55"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="34">
         <f>J22-K22</f>
         <v>18</v>
       </c>
-      <c r="AC22" s="49"/>
+      <c r="AC22" s="35"/>
     </row>
     <row r="23" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="39">
+      <c r="B23" s="25">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="41">
-        <v>0</v>
-      </c>
-      <c r="E23" s="41">
+      <c r="D23" s="27">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27">
         <v>10</v>
       </c>
-      <c r="F23" s="41">
-        <v>0</v>
-      </c>
-      <c r="G23" s="41">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31" t="s">
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="18">
         <v>20</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="18">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L23" s="69"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="49"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="35"/>
     </row>
     <row r="24" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="39">
+      <c r="B24" s="25">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="27">
         <v>1</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="27">
         <v>7</v>
       </c>
-      <c r="F24" s="41">
-        <v>0</v>
-      </c>
-      <c r="G24" s="41">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31" t="s">
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="18">
         <v>20</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="18">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L24" s="69"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="48">
+      <c r="L24" s="55"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="34">
         <f>J24-K24</f>
         <v>12</v>
       </c>
-      <c r="AC24" s="49"/>
+      <c r="AC24" s="35"/>
     </row>
     <row r="25" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="39">
+      <c r="B25" s="25">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="27">
         <v>10</v>
       </c>
-      <c r="E25" s="41">
-        <v>0</v>
-      </c>
-      <c r="F25" s="41">
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
         <v>2</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="27">
         <v>15</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31" t="s">
+      <c r="H25" s="16"/>
+      <c r="I25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="18">
         <v>30</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="18">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="L25" s="69"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="49"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="35"/>
     </row>
     <row r="26" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="39">
+      <c r="B26" s="25">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="27">
         <v>2</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="27">
         <v>2</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="27">
         <v>2</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="27">
         <v>2</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="16">
         <f>VLOOKUP(I26,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="18">
         <v>13.5</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="18">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="48">
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="34">
         <f t="shared" ref="AB26:AB32" si="4">J26-K26</f>
         <v>5.5</v>
       </c>
-      <c r="AC26" s="49"/>
+      <c r="AC26" s="35"/>
     </row>
     <row r="27" spans="2:29" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="74">
-        <f t="shared" si="2"/>
+      <c r="B27" s="60">
+        <f>B26+1</f>
         <v>18</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="62">
         <v>3</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="62">
         <v>1</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="62">
         <v>1</v>
       </c>
-      <c r="G27" s="76">
-        <v>0</v>
-      </c>
-      <c r="H27" s="77">
+      <c r="G27" s="62">
+        <v>0</v>
+      </c>
+      <c r="H27" s="63">
         <f>VLOOKUP(I27,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I27" s="78" t="s">
+      <c r="I27" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="65">
         <v>21</v>
       </c>
-      <c r="K27" s="79">
+      <c r="K27" s="65">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="82">
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="68">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="AC27" s="83"/>
-    </row>
-    <row r="28" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="29">
-        <v>0</v>
-      </c>
-      <c r="E28" s="29">
-        <v>0</v>
-      </c>
-      <c r="F28" s="29">
-        <v>0</v>
-      </c>
-      <c r="G28" s="29">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30">
+      <c r="AC27" s="69"/>
+    </row>
+    <row r="28" spans="2:29" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="60">
+        <f>B27+1</f>
+        <v>19</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="15">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>4</v>
+      </c>
+      <c r="H28" s="16">
         <f>VLOOKUP(I28,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="18">
         <v>10</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="86">
+        <v>6</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="71">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="AC28" s="87"/>
-    </row>
-    <row r="29" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="88"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="41">
-        <v>0</v>
-      </c>
-      <c r="E29" s="41">
-        <v>0</v>
-      </c>
-      <c r="F29" s="41">
-        <v>0</v>
-      </c>
-      <c r="G29" s="41">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="72"/>
+    </row>
+    <row r="29" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="73"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
         <f>VLOOKUP(I29,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J29" s="18">
         <v>5</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K29" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="89">
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="74">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AC29" s="49"/>
-    </row>
-    <row r="30" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="88"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="41">
-        <v>0</v>
-      </c>
-      <c r="E30" s="41">
-        <v>0</v>
-      </c>
-      <c r="F30" s="41">
-        <v>0</v>
-      </c>
-      <c r="G30" s="41">
-        <v>0</v>
-      </c>
-      <c r="H30" s="30">
+      <c r="AC29" s="35"/>
+    </row>
+    <row r="30" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="73"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="27">
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
         <f>VLOOKUP(I30,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="18">
         <v>5</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="89">
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="74">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AC30" s="49"/>
-    </row>
-    <row r="31" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="88"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="41">
-        <v>0</v>
-      </c>
-      <c r="E31" s="41">
-        <v>0</v>
-      </c>
-      <c r="F31" s="41">
-        <v>0</v>
-      </c>
-      <c r="G31" s="41">
-        <v>0</v>
-      </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32">
+      <c r="AC30" s="35"/>
+    </row>
+    <row r="31" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="73"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="27">
+        <v>0</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18">
         <v>5</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K31" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="89">
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="74">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AC31" s="49"/>
-    </row>
-    <row r="32" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="88"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="41">
-        <v>0</v>
-      </c>
-      <c r="E32" s="41">
-        <v>0</v>
-      </c>
-      <c r="F32" s="41">
-        <v>0</v>
-      </c>
-      <c r="G32" s="41">
-        <v>0</v>
-      </c>
-      <c r="H32" s="30">
+      <c r="AC31" s="35"/>
+    </row>
+    <row r="32" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="73"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="27">
+        <v>0</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
         <f>VLOOKUP(I32,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="32">
+      <c r="J32" s="18">
         <v>12</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="91"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="89">
+      <c r="L32" s="29"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="74">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AC32" s="49"/>
-    </row>
-    <row r="33" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="88"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="41">
-        <v>0</v>
-      </c>
-      <c r="E33" s="41">
-        <v>0</v>
-      </c>
-      <c r="F33" s="41">
-        <v>0</v>
-      </c>
-      <c r="G33" s="41">
-        <v>0</v>
-      </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31" t="s">
+      <c r="AC32" s="35"/>
+    </row>
+    <row r="33" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="73"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="27">
+        <v>0</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="32">
+      <c r="J33" s="18">
         <v>5</v>
       </c>
-      <c r="K33" s="32">
+      <c r="K33" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="89"/>
-      <c r="AC33" s="49"/>
-    </row>
-    <row r="34" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="88"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="41">
-        <v>0</v>
-      </c>
-      <c r="E34" s="41">
-        <v>0</v>
-      </c>
-      <c r="F34" s="41">
-        <v>0</v>
-      </c>
-      <c r="G34" s="41">
-        <v>0</v>
-      </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31" t="s">
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="35"/>
+    </row>
+    <row r="34" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="73"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="27">
+        <v>0</v>
+      </c>
+      <c r="E34" s="27">
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
+        <v>0</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="18">
         <v>8</v>
       </c>
-      <c r="K34" s="32">
+      <c r="K34" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="89"/>
-      <c r="AC34" s="49"/>
-    </row>
-    <row r="35" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="88"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="41">
-        <v>0</v>
-      </c>
-      <c r="E35" s="41">
-        <v>0</v>
-      </c>
-      <c r="F35" s="41">
-        <v>0</v>
-      </c>
-      <c r="G35" s="41">
-        <v>0</v>
-      </c>
-      <c r="H35" s="30">
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="35"/>
+    </row>
+    <row r="35" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="73"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="27">
+        <v>0</v>
+      </c>
+      <c r="E35" s="27">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
         <f>VLOOKUP(I35,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J35" s="32">
+      <c r="J35" s="18">
         <v>50</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="91"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="89">
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="74">
         <f>J35-K35</f>
         <v>50</v>
       </c>
-      <c r="AC35" s="49"/>
-    </row>
-    <row r="36" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="88"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="41">
-        <v>0</v>
-      </c>
-      <c r="E36" s="41">
-        <v>0</v>
-      </c>
-      <c r="F36" s="41">
-        <v>0</v>
-      </c>
-      <c r="G36" s="41">
-        <v>0</v>
-      </c>
-      <c r="H36" s="30">
+      <c r="AC35" s="35"/>
+    </row>
+    <row r="36" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="73"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="27">
+        <v>0</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0</v>
+      </c>
+      <c r="G36" s="27">
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
         <f>VLOOKUP(I36,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J36" s="32">
+      <c r="J36" s="18">
         <v>20</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="91"/>
-      <c r="Y36" s="91"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="89">
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="74">
         <f>J36-K36</f>
         <v>20</v>
       </c>
-      <c r="AC36" s="49"/>
-    </row>
-    <row r="37" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="88"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="41">
-        <v>0</v>
-      </c>
-      <c r="E37" s="41">
-        <v>0</v>
-      </c>
-      <c r="F37" s="41">
-        <v>0</v>
-      </c>
-      <c r="G37" s="41">
-        <v>0</v>
-      </c>
-      <c r="H37" s="30">
+      <c r="AC36" s="35"/>
+    </row>
+    <row r="37" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="73"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="27">
+        <v>0</v>
+      </c>
+      <c r="E37" s="27">
+        <v>0</v>
+      </c>
+      <c r="F37" s="27">
+        <v>0</v>
+      </c>
+      <c r="G37" s="27">
+        <v>0</v>
+      </c>
+      <c r="H37" s="16">
         <f>VLOOKUP(I37,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="32">
+      <c r="J37" s="18">
         <v>5</v>
       </c>
-      <c r="K37" s="32">
+      <c r="K37" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="91"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="89">
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="74">
         <f>J37-K37</f>
         <v>5</v>
       </c>
-      <c r="AC37" s="49"/>
-    </row>
-    <row r="38" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="88"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="41">
-        <v>0</v>
-      </c>
-      <c r="E38" s="41">
-        <v>0</v>
-      </c>
-      <c r="F38" s="41">
-        <v>0</v>
-      </c>
-      <c r="G38" s="41">
-        <v>0</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31" t="s">
+      <c r="AC37" s="35"/>
+    </row>
+    <row r="38" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="73"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="27">
+        <v>0</v>
+      </c>
+      <c r="E38" s="27">
+        <v>0</v>
+      </c>
+      <c r="F38" s="27">
+        <v>0</v>
+      </c>
+      <c r="G38" s="27">
+        <v>0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="18">
         <v>1.5</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="91"/>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="91"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="89"/>
-      <c r="AC38" s="49"/>
-    </row>
-    <row r="39" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="88"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="41">
-        <v>0</v>
-      </c>
-      <c r="E39" s="41">
-        <v>0</v>
-      </c>
-      <c r="F39" s="41">
-        <v>0</v>
-      </c>
-      <c r="G39" s="41">
-        <v>0</v>
-      </c>
-      <c r="H39" s="30">
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="35"/>
+    </row>
+    <row r="39" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="73"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="27">
+        <v>0</v>
+      </c>
+      <c r="E39" s="27">
+        <v>0</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0</v>
+      </c>
+      <c r="G39" s="27">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
         <f>VLOOKUP(I39,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="I39" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J39" s="18">
         <v>30</v>
       </c>
-      <c r="K39" s="32">
+      <c r="K39" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="91"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="89">
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="76"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="74">
         <f>J39-K39</f>
         <v>30</v>
       </c>
-      <c r="AC39" s="49"/>
-    </row>
-    <row r="40" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="88"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="41">
-        <v>0</v>
-      </c>
-      <c r="E40" s="41">
-        <v>0</v>
-      </c>
-      <c r="F40" s="41">
-        <v>0</v>
-      </c>
-      <c r="G40" s="41">
-        <v>0</v>
-      </c>
-      <c r="H40" s="30">
+      <c r="AC39" s="35"/>
+    </row>
+    <row r="40" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="73"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="27">
+        <v>0</v>
+      </c>
+      <c r="E40" s="27">
+        <v>0</v>
+      </c>
+      <c r="F40" s="27">
+        <v>0</v>
+      </c>
+      <c r="G40" s="27">
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
         <f>VLOOKUP(I40,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="I40" s="31" t="s">
+      <c r="I40" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="32">
+      <c r="J40" s="18">
         <v>10</v>
       </c>
-      <c r="K40" s="32">
+      <c r="K40" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="91"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="91"/>
-      <c r="Y40" s="91"/>
-      <c r="Z40" s="91"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="89">
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="76"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="74">
         <f>J40-K40</f>
         <v>10</v>
       </c>
-      <c r="AC40" s="49"/>
-    </row>
-    <row r="41" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="88"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="41">
-        <v>0</v>
-      </c>
-      <c r="E41" s="41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="41">
-        <v>0</v>
-      </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31" t="s">
+      <c r="AC40" s="35"/>
+    </row>
+    <row r="41" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="73"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="27">
+        <v>0</v>
+      </c>
+      <c r="E41" s="27">
+        <v>0</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="32">
+      <c r="J41" s="18">
         <v>50</v>
       </c>
-      <c r="K41" s="32">
+      <c r="K41" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="91"/>
-      <c r="Z41" s="91"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="92"/>
-      <c r="AC41" s="93"/>
-    </row>
-    <row r="42" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="88"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="41">
-        <v>0</v>
-      </c>
-      <c r="E42" s="41">
-        <v>0</v>
-      </c>
-      <c r="F42" s="41">
-        <v>0</v>
-      </c>
-      <c r="G42" s="41">
-        <v>0</v>
-      </c>
-      <c r="H42" s="30">
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="77"/>
+      <c r="AC41" s="78"/>
+    </row>
+    <row r="42" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="73"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="27">
+        <v>0</v>
+      </c>
+      <c r="E42" s="27">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27">
+        <v>0</v>
+      </c>
+      <c r="G42" s="27">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
         <f>VLOOKUP(I42,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="I42" s="31" t="s">
+      <c r="I42" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="32">
+      <c r="J42" s="18">
         <v>20</v>
       </c>
-      <c r="K42" s="32">
+      <c r="K42" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="91"/>
-      <c r="Y42" s="91"/>
-      <c r="Z42" s="91"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="92">
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="76"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="77">
         <f t="shared" ref="AB42:AB50" si="5">J42-K42</f>
         <v>20</v>
       </c>
-      <c r="AC42" s="93"/>
-    </row>
-    <row r="43" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="88"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="41">
-        <v>0</v>
-      </c>
-      <c r="E43" s="41">
-        <v>0</v>
-      </c>
-      <c r="F43" s="41">
-        <v>0</v>
-      </c>
-      <c r="G43" s="41">
-        <v>0</v>
-      </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31" t="s">
+      <c r="AC42" s="78"/>
+    </row>
+    <row r="43" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="73"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="27">
+        <v>0</v>
+      </c>
+      <c r="E43" s="27">
+        <v>0</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0</v>
+      </c>
+      <c r="G43" s="27">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="32">
+      <c r="J43" s="18">
         <v>10</v>
       </c>
-      <c r="K43" s="32">
+      <c r="K43" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="91"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="91"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="92">
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="76"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="76"/>
+      <c r="Y43" s="76"/>
+      <c r="Z43" s="76"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="77">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AC43" s="93"/>
-    </row>
-    <row r="44" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="88"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="41">
-        <v>0</v>
-      </c>
-      <c r="E44" s="41">
-        <v>0</v>
-      </c>
-      <c r="F44" s="41">
-        <v>0</v>
-      </c>
-      <c r="G44" s="41">
-        <v>0</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31" t="s">
+      <c r="AC43" s="78"/>
+    </row>
+    <row r="44" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="73"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="27">
+        <v>0</v>
+      </c>
+      <c r="E44" s="27">
+        <v>0</v>
+      </c>
+      <c r="F44" s="27">
+        <v>0</v>
+      </c>
+      <c r="G44" s="27">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="32">
+      <c r="J44" s="18">
         <v>10</v>
       </c>
-      <c r="K44" s="32">
+      <c r="K44" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="91"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="91"/>
-      <c r="Y44" s="91"/>
-      <c r="Z44" s="91"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="92">
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="77">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AC44" s="93"/>
-    </row>
-    <row r="45" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="88"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="41">
-        <v>0</v>
-      </c>
-      <c r="E45" s="41">
-        <v>0</v>
-      </c>
-      <c r="F45" s="41">
-        <v>0</v>
-      </c>
-      <c r="G45" s="41">
-        <v>0</v>
-      </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31" t="s">
+      <c r="AC44" s="78"/>
+    </row>
+    <row r="45" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="73"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="27">
+        <v>0</v>
+      </c>
+      <c r="E45" s="27">
+        <v>0</v>
+      </c>
+      <c r="F45" s="27">
+        <v>0</v>
+      </c>
+      <c r="G45" s="27">
+        <v>0</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="32">
+      <c r="J45" s="18">
         <v>5</v>
       </c>
-      <c r="K45" s="32">
+      <c r="K45" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="91"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="91"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="91"/>
-      <c r="Y45" s="91"/>
-      <c r="Z45" s="91"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="92">
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="77">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC45" s="93"/>
-    </row>
-    <row r="46" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="88"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="41">
-        <v>0</v>
-      </c>
-      <c r="E46" s="41">
-        <v>0</v>
-      </c>
-      <c r="F46" s="41">
-        <v>0</v>
-      </c>
-      <c r="G46" s="41">
-        <v>0</v>
-      </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="31" t="s">
+      <c r="AC45" s="78"/>
+    </row>
+    <row r="46" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="73"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="27">
+        <v>0</v>
+      </c>
+      <c r="E46" s="27">
+        <v>0</v>
+      </c>
+      <c r="F46" s="27">
+        <v>0</v>
+      </c>
+      <c r="G46" s="27">
+        <v>0</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="32">
+      <c r="J46" s="18">
         <v>5</v>
       </c>
-      <c r="K46" s="32">
+      <c r="K46" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L46" s="91"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="91"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="91"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="91"/>
-      <c r="U46" s="91"/>
-      <c r="V46" s="91"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="91"/>
-      <c r="Y46" s="91"/>
-      <c r="Z46" s="91"/>
-      <c r="AA46" s="54"/>
-      <c r="AB46" s="92">
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="76"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="76"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="77">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC46" s="93"/>
-    </row>
-    <row r="47" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="88"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="41">
-        <v>0</v>
-      </c>
-      <c r="E47" s="41">
-        <v>0</v>
-      </c>
-      <c r="F47" s="41">
-        <v>0</v>
-      </c>
-      <c r="G47" s="41">
-        <v>0</v>
-      </c>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31" t="s">
+      <c r="AC46" s="78"/>
+    </row>
+    <row r="47" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="73"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="27">
+        <v>0</v>
+      </c>
+      <c r="E47" s="27">
+        <v>0</v>
+      </c>
+      <c r="F47" s="27">
+        <v>0</v>
+      </c>
+      <c r="G47" s="27">
+        <v>0</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="32">
+      <c r="J47" s="18">
         <v>10</v>
       </c>
-      <c r="K47" s="32">
+      <c r="K47" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="91"/>
-      <c r="Z47" s="91"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="92">
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="76"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="77">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AC47" s="93"/>
-    </row>
-    <row r="48" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="88"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="41">
-        <v>0</v>
-      </c>
-      <c r="E48" s="41">
-        <v>0</v>
-      </c>
-      <c r="F48" s="41">
-        <v>0</v>
-      </c>
-      <c r="G48" s="41">
-        <v>0</v>
-      </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31" t="s">
+      <c r="AC47" s="78"/>
+    </row>
+    <row r="48" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="73"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="27">
+        <v>0</v>
+      </c>
+      <c r="E48" s="27">
+        <v>0</v>
+      </c>
+      <c r="F48" s="27">
+        <v>0</v>
+      </c>
+      <c r="G48" s="27">
+        <v>0</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="32">
+      <c r="J48" s="18">
         <v>20</v>
       </c>
-      <c r="K48" s="32">
+      <c r="K48" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L48" s="91"/>
-      <c r="M48" s="91"/>
-      <c r="N48" s="91"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="91"/>
-      <c r="Q48" s="91"/>
-      <c r="R48" s="91"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="91"/>
-      <c r="U48" s="91"/>
-      <c r="V48" s="91"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="91"/>
-      <c r="Z48" s="91"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="92">
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="76"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="76"/>
+      <c r="U48" s="76"/>
+      <c r="V48" s="76"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="76"/>
+      <c r="Z48" s="76"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="77">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="AC48" s="93"/>
-    </row>
-    <row r="49" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="88"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="41">
-        <v>0</v>
-      </c>
-      <c r="E49" s="41">
-        <v>0</v>
-      </c>
-      <c r="F49" s="41">
-        <v>0</v>
-      </c>
-      <c r="G49" s="41">
-        <v>0</v>
-      </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31" t="s">
+      <c r="AC48" s="78"/>
+    </row>
+    <row r="49" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="73"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="27">
+        <v>0</v>
+      </c>
+      <c r="E49" s="27">
+        <v>0</v>
+      </c>
+      <c r="F49" s="27">
+        <v>0</v>
+      </c>
+      <c r="G49" s="27">
+        <v>0</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="32">
+      <c r="J49" s="18">
         <v>10</v>
       </c>
-      <c r="K49" s="32">
+      <c r="K49" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="91"/>
-      <c r="Q49" s="91"/>
-      <c r="R49" s="91"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="91"/>
-      <c r="U49" s="91"/>
-      <c r="V49" s="91"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="91"/>
-      <c r="Y49" s="43"/>
-      <c r="Z49" s="91"/>
-      <c r="AA49" s="54"/>
-      <c r="AB49" s="92">
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="76"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="76"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="76"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="77">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AC49" s="93"/>
-    </row>
-    <row r="50" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="88"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="41">
-        <v>0</v>
-      </c>
-      <c r="E50" s="41">
-        <v>0</v>
-      </c>
-      <c r="F50" s="41">
-        <v>0</v>
-      </c>
-      <c r="G50" s="41">
-        <v>0</v>
-      </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="31" t="s">
+      <c r="AC49" s="78"/>
+    </row>
+    <row r="50" spans="2:29" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="73"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="27">
+        <v>0</v>
+      </c>
+      <c r="E50" s="27">
+        <v>0</v>
+      </c>
+      <c r="F50" s="27">
+        <v>0</v>
+      </c>
+      <c r="G50" s="27">
+        <v>0</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J50" s="32">
+      <c r="J50" s="18">
         <v>20</v>
       </c>
-      <c r="K50" s="32">
+      <c r="K50" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="43"/>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="94">
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="79">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="AC50" s="93"/>
+      <c r="AC50" s="78"/>
     </row>
     <row r="51" spans="2:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="95">
+      <c r="C51" s="108"/>
+      <c r="D51" s="80">
         <f>SUM(D10:D50)</f>
-        <v>42.5</v>
-      </c>
-      <c r="E51" s="96">
+        <v>44.5</v>
+      </c>
+      <c r="E51" s="81">
         <f>SUM(E10:E50)</f>
         <v>47</v>
       </c>
-      <c r="F51" s="96">
+      <c r="F51" s="81">
         <f>SUM(F10:F50)</f>
         <v>19</v>
       </c>
-      <c r="G51" s="96">
+      <c r="G51" s="81">
         <f>SUM(G10:G50)</f>
-        <v>36</v>
-      </c>
-      <c r="H51" s="97"/>
-      <c r="I51" s="98"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="100"/>
-      <c r="AB51" s="101">
+        <v>40</v>
+      </c>
+      <c r="H51" s="82"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="85"/>
+      <c r="AB51" s="86">
         <f>SUM(AB10:AB50)</f>
-        <v>314</v>
-      </c>
-      <c r="AC51" s="102"/>
-    </row>
-    <row r="52" spans="2:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC51" s="87"/>
+    </row>
+    <row r="52" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="95">
+      <c r="C52" s="103"/>
+      <c r="D52" s="80">
         <f>135-D51</f>
-        <v>92.5</v>
-      </c>
-      <c r="E52" s="96">
+        <v>90.5</v>
+      </c>
+      <c r="E52" s="81">
         <f>135-E51</f>
         <v>88</v>
       </c>
-      <c r="F52" s="96">
+      <c r="F52" s="81">
         <f>135-F51</f>
         <v>116</v>
       </c>
-      <c r="G52" s="100">
+      <c r="G52" s="85">
         <f>135-G51</f>
-        <v>99</v>
-      </c>
-      <c r="H52" s="100"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="AB52" s="104"/>
-    </row>
-    <row r="53" spans="2:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" s="85"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="AB52" s="89"/>
+    </row>
+    <row r="53" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="AB53" s="104"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="AB53" s="89"/>
     </row>
     <row r="54" spans="2:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="106">
+      <c r="C54" s="103"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="91">
         <f>SUM(J10:J50)</f>
         <v>531</v>
       </c>
-      <c r="K54" s="100">
+      <c r="K54" s="85">
         <f>SUM(K10:K50)</f>
-        <v>138.5</v>
-      </c>
-      <c r="AB54" s="104"/>
+        <v>144.5</v>
+      </c>
+      <c r="AB54" s="89"/>
     </row>
     <row r="55" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="108"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="107"/>
-      <c r="AB55" s="104"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="AB55" s="89"/>
     </row>
     <row r="56" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="117" t="s">
+      <c r="B56" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="117"/>
-      <c r="D56" s="109">
+      <c r="C56" s="104"/>
+      <c r="D56" s="94">
         <f>135*3</f>
         <v>405</v>
       </c>
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="107"/>
-      <c r="K56" s="107"/>
-      <c r="AB56" s="104"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="AB56" s="89"/>
     </row>
     <row r="57" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="118"/>
-      <c r="D57" s="110">
+      <c r="C57" s="105"/>
+      <c r="D57" s="95">
         <f>D56-K54</f>
-        <v>266.5</v>
-      </c>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="107"/>
-      <c r="AB57" s="104"/>
+        <v>260.5</v>
+      </c>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="AB57" s="89"/>
     </row>
     <row r="58" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B58" s="111"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="107"/>
-      <c r="AB58" s="104"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="92"/>
+      <c r="AB58" s="89"/>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-    </row>
-    <row r="60" spans="2:29" s="113" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="B60" s="114"/>
-      <c r="I60" s="115"/>
-      <c r="O60" s="115"/>
-      <c r="S60" s="115"/>
-      <c r="W60" s="115"/>
-      <c r="AA60" s="115"/>
-    </row>
-    <row r="61" spans="2:29" s="113" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="I61" s="115"/>
-      <c r="O61" s="115"/>
-      <c r="S61" s="115"/>
-      <c r="W61" s="115"/>
-      <c r="AA61" s="115"/>
-    </row>
-    <row r="62" spans="2:29" s="113" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="I62" s="115"/>
-      <c r="O62" s="115"/>
-      <c r="S62" s="115"/>
-      <c r="W62" s="115"/>
-      <c r="AA62" s="115"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+    </row>
+    <row r="60" spans="2:29" s="98" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B60" s="99"/>
+      <c r="I60" s="100"/>
+      <c r="O60" s="100"/>
+      <c r="S60" s="100"/>
+      <c r="W60" s="100"/>
+      <c r="AA60" s="100"/>
+    </row>
+    <row r="61" spans="2:29" s="98" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="I61" s="100"/>
+      <c r="O61" s="100"/>
+      <c r="S61" s="100"/>
+      <c r="W61" s="100"/>
+      <c r="AA61" s="100"/>
+    </row>
+    <row r="62" spans="2:29" s="98" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="I62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="S62" s="100"/>
+      <c r="W62" s="100"/>
+      <c r="AA62" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="B7:B8"/>
@@ -4269,6 +4265,14 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:AA7"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="I19">
     <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="En cours">
@@ -4324,30 +4328,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1025" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="116">
+      <c r="B1" s="101">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4365,7 +4369,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1025" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EACA2A3-7AE5-4144-99B8-A9E85A04D568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5047DB9-4E8C-0744-BC7A-A96D91114FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,11 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -246,6 +245,15 @@
   <si>
     <t>Implementation du repository desgin pattern asp</t>
   </si>
+  <si>
+    <t xml:space="preserve">Template event view/Accueil/List/Myprofile </t>
+  </si>
+  <si>
+    <t>Creation de model Entreprise</t>
+  </si>
+  <si>
+    <t>Data seeding</t>
+  </si>
 </sst>
 </file>
 
@@ -446,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -736,62 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -873,6 +825,78 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -890,7 +914,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1065,41 +1089,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1115,7 +1104,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1123,14 +1112,14 @@
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1139,10 +1128,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,7 +1147,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1180,9 +1169,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1198,35 +1210,106 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1239,7 +1322,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1698,10 +1848,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AMK62"/>
+  <dimension ref="B1:AMK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1751,17 +1901,17 @@
     </row>
     <row r="3" spans="2:29" ht="24" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="1" t="s">
         <v>3</v>
@@ -1771,13 +1921,13 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="1" t="s">
         <v>6</v>
@@ -1808,58 +1958,58 @@
       </c>
     </row>
     <row r="7" spans="2:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="116" t="s">
+      <c r="I7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="117" t="s">
+      <c r="J7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="118" t="s">
+      <c r="L7" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="118"/>
-      <c r="AB7" s="106" t="s">
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="107" t="s">
+      <c r="AC7" s="105" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1872,10 +2022,10 @@
       <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="11">
         <v>43838</v>
       </c>
@@ -1939,8 +2089,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
     </row>
     <row r="9" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
@@ -2355,7 +2505,7 @@
       </c>
       <c r="AC16" s="35"/>
     </row>
-    <row r="17" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:1025" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2411,7 +2561,7 @@
       </c>
       <c r="AC17" s="35"/>
     </row>
-    <row r="18" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2467,7 +2617,7 @@
       </c>
       <c r="AC18" s="35"/>
     </row>
-    <row r="19" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:1025" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2523,7 +2673,7 @@
       </c>
       <c r="AC19" s="35"/>
     </row>
-    <row r="20" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:1025" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -2579,7 +2729,7 @@
       </c>
       <c r="AC20" s="35"/>
     </row>
-    <row r="21" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:1025" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -2624,7 +2774,7 @@
       <c r="AB21" s="34"/>
       <c r="AC21" s="35"/>
     </row>
-    <row r="22" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -2655,7 +2805,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="18">
-        <f t="shared" ref="K22:K50" si="3">D22+E22+G22+F22</f>
+        <f t="shared" ref="K22:K49" si="3">D22+E22+G22+F22</f>
         <v>12</v>
       </c>
       <c r="L22" s="55"/>
@@ -2680,7 +2830,7 @@
       </c>
       <c r="AC22" s="35"/>
     </row>
-    <row r="23" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="25">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2730,7 +2880,7 @@
       <c r="AB23" s="34"/>
       <c r="AC23" s="35"/>
     </row>
-    <row r="24" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2742,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F24" s="27">
         <v>0</v>
@@ -2759,7 +2909,7 @@
       </c>
       <c r="K24" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="47"/>
@@ -2779,11 +2929,11 @@
       <c r="AA24" s="30"/>
       <c r="AB24" s="34">
         <f>J24-K24</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC24" s="35"/>
     </row>
-    <row r="25" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="25">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2795,7 +2945,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="27">
         <v>2</v>
@@ -2812,7 +2962,7 @@
       </c>
       <c r="K25" s="18">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="47"/>
@@ -2833,124 +2983,1120 @@
       <c r="AB25" s="34"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="25">
+    <row r="26" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="115">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="109">
         <v>2</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="109">
         <v>2</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="109">
         <v>2</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="109">
         <v>2</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="110">
         <f>VLOOKUP(I26,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="112">
         <v>13.5</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="112">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="34">
-        <f t="shared" ref="AB26:AB32" si="4">J26-K26</f>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="117">
+        <f t="shared" ref="AB26:AB31" si="4">J26-K26</f>
         <v>5.5</v>
       </c>
-      <c r="AC26" s="35"/>
+      <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:29" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="60">
+    <row r="27" spans="2:1025" s="108" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="25">
         <f>B26+1</f>
         <v>18</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="27">
         <v>3</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="27">
         <v>1</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="27">
         <v>1</v>
       </c>
-      <c r="G27" s="62">
-        <v>0</v>
-      </c>
-      <c r="H27" s="63">
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="121">
         <f>VLOOKUP(I27,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="65">
+      <c r="J27" s="123">
         <v>21</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="123">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="68">
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="34">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="AC27" s="69"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="86"/>
+      <c r="AK27" s="86"/>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="86"/>
+      <c r="AO27" s="86"/>
+      <c r="AP27" s="86"/>
+      <c r="AQ27" s="86"/>
+      <c r="AR27" s="86"/>
+      <c r="AS27" s="86"/>
+      <c r="AT27" s="86"/>
+      <c r="AU27" s="86"/>
+      <c r="AV27" s="86"/>
+      <c r="AW27" s="86"/>
+      <c r="AX27" s="86"/>
+      <c r="AY27" s="86"/>
+      <c r="AZ27" s="86"/>
+      <c r="BA27" s="86"/>
+      <c r="BB27" s="86"/>
+      <c r="BC27" s="86"/>
+      <c r="BD27" s="86"/>
+      <c r="BE27" s="86"/>
+      <c r="BF27" s="86"/>
+      <c r="BG27" s="86"/>
+      <c r="BH27" s="86"/>
+      <c r="BI27" s="86"/>
+      <c r="BJ27" s="86"/>
+      <c r="BK27" s="86"/>
+      <c r="BL27" s="86"/>
+      <c r="BM27" s="86"/>
+      <c r="BN27" s="86"/>
+      <c r="BO27" s="86"/>
+      <c r="BP27" s="86"/>
+      <c r="BQ27" s="86"/>
+      <c r="BR27" s="86"/>
+      <c r="BS27" s="86"/>
+      <c r="BT27" s="86"/>
+      <c r="BU27" s="86"/>
+      <c r="BV27" s="86"/>
+      <c r="BW27" s="86"/>
+      <c r="BX27" s="86"/>
+      <c r="BY27" s="86"/>
+      <c r="BZ27" s="86"/>
+      <c r="CA27" s="86"/>
+      <c r="CB27" s="86"/>
+      <c r="CC27" s="86"/>
+      <c r="CD27" s="86"/>
+      <c r="CE27" s="86"/>
+      <c r="CF27" s="86"/>
+      <c r="CG27" s="86"/>
+      <c r="CH27" s="86"/>
+      <c r="CI27" s="86"/>
+      <c r="CJ27" s="86"/>
+      <c r="CK27" s="86"/>
+      <c r="CL27" s="86"/>
+      <c r="CM27" s="86"/>
+      <c r="CN27" s="86"/>
+      <c r="CO27" s="86"/>
+      <c r="CP27" s="86"/>
+      <c r="CQ27" s="86"/>
+      <c r="CR27" s="86"/>
+      <c r="CS27" s="86"/>
+      <c r="CT27" s="86"/>
+      <c r="CU27" s="86"/>
+      <c r="CV27" s="86"/>
+      <c r="CW27" s="86"/>
+      <c r="CX27" s="86"/>
+      <c r="CY27" s="86"/>
+      <c r="CZ27" s="86"/>
+      <c r="DA27" s="86"/>
+      <c r="DB27" s="86"/>
+      <c r="DC27" s="86"/>
+      <c r="DD27" s="86"/>
+      <c r="DE27" s="86"/>
+      <c r="DF27" s="86"/>
+      <c r="DG27" s="86"/>
+      <c r="DH27" s="86"/>
+      <c r="DI27" s="86"/>
+      <c r="DJ27" s="86"/>
+      <c r="DK27" s="86"/>
+      <c r="DL27" s="86"/>
+      <c r="DM27" s="86"/>
+      <c r="DN27" s="86"/>
+      <c r="DO27" s="86"/>
+      <c r="DP27" s="86"/>
+      <c r="DQ27" s="86"/>
+      <c r="DR27" s="86"/>
+      <c r="DS27" s="86"/>
+      <c r="DT27" s="86"/>
+      <c r="DU27" s="86"/>
+      <c r="DV27" s="86"/>
+      <c r="DW27" s="86"/>
+      <c r="DX27" s="86"/>
+      <c r="DY27" s="86"/>
+      <c r="DZ27" s="86"/>
+      <c r="EA27" s="86"/>
+      <c r="EB27" s="86"/>
+      <c r="EC27" s="86"/>
+      <c r="ED27" s="86"/>
+      <c r="EE27" s="86"/>
+      <c r="EF27" s="86"/>
+      <c r="EG27" s="86"/>
+      <c r="EH27" s="86"/>
+      <c r="EI27" s="86"/>
+      <c r="EJ27" s="86"/>
+      <c r="EK27" s="86"/>
+      <c r="EL27" s="86"/>
+      <c r="EM27" s="86"/>
+      <c r="EN27" s="86"/>
+      <c r="EO27" s="86"/>
+      <c r="EP27" s="86"/>
+      <c r="EQ27" s="86"/>
+      <c r="ER27" s="86"/>
+      <c r="ES27" s="86"/>
+      <c r="ET27" s="86"/>
+      <c r="EU27" s="86"/>
+      <c r="EV27" s="86"/>
+      <c r="EW27" s="86"/>
+      <c r="EX27" s="86"/>
+      <c r="EY27" s="86"/>
+      <c r="EZ27" s="86"/>
+      <c r="FA27" s="86"/>
+      <c r="FB27" s="86"/>
+      <c r="FC27" s="86"/>
+      <c r="FD27" s="86"/>
+      <c r="FE27" s="86"/>
+      <c r="FF27" s="86"/>
+      <c r="FG27" s="86"/>
+      <c r="FH27" s="86"/>
+      <c r="FI27" s="86"/>
+      <c r="FJ27" s="86"/>
+      <c r="FK27" s="86"/>
+      <c r="FL27" s="86"/>
+      <c r="FM27" s="86"/>
+      <c r="FN27" s="86"/>
+      <c r="FO27" s="86"/>
+      <c r="FP27" s="86"/>
+      <c r="FQ27" s="86"/>
+      <c r="FR27" s="86"/>
+      <c r="FS27" s="86"/>
+      <c r="FT27" s="86"/>
+      <c r="FU27" s="86"/>
+      <c r="FV27" s="86"/>
+      <c r="FW27" s="86"/>
+      <c r="FX27" s="86"/>
+      <c r="FY27" s="86"/>
+      <c r="FZ27" s="86"/>
+      <c r="GA27" s="86"/>
+      <c r="GB27" s="86"/>
+      <c r="GC27" s="86"/>
+      <c r="GD27" s="86"/>
+      <c r="GE27" s="86"/>
+      <c r="GF27" s="86"/>
+      <c r="GG27" s="86"/>
+      <c r="GH27" s="86"/>
+      <c r="GI27" s="86"/>
+      <c r="GJ27" s="86"/>
+      <c r="GK27" s="86"/>
+      <c r="GL27" s="86"/>
+      <c r="GM27" s="86"/>
+      <c r="GN27" s="86"/>
+      <c r="GO27" s="86"/>
+      <c r="GP27" s="86"/>
+      <c r="GQ27" s="86"/>
+      <c r="GR27" s="86"/>
+      <c r="GS27" s="86"/>
+      <c r="GT27" s="86"/>
+      <c r="GU27" s="86"/>
+      <c r="GV27" s="86"/>
+      <c r="GW27" s="86"/>
+      <c r="GX27" s="86"/>
+      <c r="GY27" s="86"/>
+      <c r="GZ27" s="86"/>
+      <c r="HA27" s="86"/>
+      <c r="HB27" s="86"/>
+      <c r="HC27" s="86"/>
+      <c r="HD27" s="86"/>
+      <c r="HE27" s="86"/>
+      <c r="HF27" s="86"/>
+      <c r="HG27" s="86"/>
+      <c r="HH27" s="86"/>
+      <c r="HI27" s="86"/>
+      <c r="HJ27" s="86"/>
+      <c r="HK27" s="86"/>
+      <c r="HL27" s="86"/>
+      <c r="HM27" s="86"/>
+      <c r="HN27" s="86"/>
+      <c r="HO27" s="86"/>
+      <c r="HP27" s="86"/>
+      <c r="HQ27" s="86"/>
+      <c r="HR27" s="86"/>
+      <c r="HS27" s="86"/>
+      <c r="HT27" s="86"/>
+      <c r="HU27" s="86"/>
+      <c r="HV27" s="86"/>
+      <c r="HW27" s="86"/>
+      <c r="HX27" s="86"/>
+      <c r="HY27" s="86"/>
+      <c r="HZ27" s="86"/>
+      <c r="IA27" s="86"/>
+      <c r="IB27" s="86"/>
+      <c r="IC27" s="86"/>
+      <c r="ID27" s="86"/>
+      <c r="IE27" s="86"/>
+      <c r="IF27" s="86"/>
+      <c r="IG27" s="86"/>
+      <c r="IH27" s="86"/>
+      <c r="II27" s="86"/>
+      <c r="IJ27" s="86"/>
+      <c r="IK27" s="86"/>
+      <c r="IL27" s="86"/>
+      <c r="IM27" s="86"/>
+      <c r="IN27" s="86"/>
+      <c r="IO27" s="86"/>
+      <c r="IP27" s="86"/>
+      <c r="IQ27" s="86"/>
+      <c r="IR27" s="86"/>
+      <c r="IS27" s="86"/>
+      <c r="IT27" s="86"/>
+      <c r="IU27" s="86"/>
+      <c r="IV27" s="86"/>
+      <c r="IW27" s="86"/>
+      <c r="IX27" s="86"/>
+      <c r="IY27" s="86"/>
+      <c r="IZ27" s="86"/>
+      <c r="JA27" s="86"/>
+      <c r="JB27" s="86"/>
+      <c r="JC27" s="86"/>
+      <c r="JD27" s="86"/>
+      <c r="JE27" s="86"/>
+      <c r="JF27" s="86"/>
+      <c r="JG27" s="86"/>
+      <c r="JH27" s="86"/>
+      <c r="JI27" s="86"/>
+      <c r="JJ27" s="86"/>
+      <c r="JK27" s="86"/>
+      <c r="JL27" s="86"/>
+      <c r="JM27" s="86"/>
+      <c r="JN27" s="86"/>
+      <c r="JO27" s="86"/>
+      <c r="JP27" s="86"/>
+      <c r="JQ27" s="86"/>
+      <c r="JR27" s="86"/>
+      <c r="JS27" s="86"/>
+      <c r="JT27" s="86"/>
+      <c r="JU27" s="86"/>
+      <c r="JV27" s="86"/>
+      <c r="JW27" s="86"/>
+      <c r="JX27" s="86"/>
+      <c r="JY27" s="86"/>
+      <c r="JZ27" s="86"/>
+      <c r="KA27" s="86"/>
+      <c r="KB27" s="86"/>
+      <c r="KC27" s="86"/>
+      <c r="KD27" s="86"/>
+      <c r="KE27" s="86"/>
+      <c r="KF27" s="86"/>
+      <c r="KG27" s="86"/>
+      <c r="KH27" s="86"/>
+      <c r="KI27" s="86"/>
+      <c r="KJ27" s="86"/>
+      <c r="KK27" s="86"/>
+      <c r="KL27" s="86"/>
+      <c r="KM27" s="86"/>
+      <c r="KN27" s="86"/>
+      <c r="KO27" s="86"/>
+      <c r="KP27" s="86"/>
+      <c r="KQ27" s="86"/>
+      <c r="KR27" s="86"/>
+      <c r="KS27" s="86"/>
+      <c r="KT27" s="86"/>
+      <c r="KU27" s="86"/>
+      <c r="KV27" s="86"/>
+      <c r="KW27" s="86"/>
+      <c r="KX27" s="86"/>
+      <c r="KY27" s="86"/>
+      <c r="KZ27" s="86"/>
+      <c r="LA27" s="86"/>
+      <c r="LB27" s="86"/>
+      <c r="LC27" s="86"/>
+      <c r="LD27" s="86"/>
+      <c r="LE27" s="86"/>
+      <c r="LF27" s="86"/>
+      <c r="LG27" s="86"/>
+      <c r="LH27" s="86"/>
+      <c r="LI27" s="86"/>
+      <c r="LJ27" s="86"/>
+      <c r="LK27" s="86"/>
+      <c r="LL27" s="86"/>
+      <c r="LM27" s="86"/>
+      <c r="LN27" s="86"/>
+      <c r="LO27" s="86"/>
+      <c r="LP27" s="86"/>
+      <c r="LQ27" s="86"/>
+      <c r="LR27" s="86"/>
+      <c r="LS27" s="86"/>
+      <c r="LT27" s="86"/>
+      <c r="LU27" s="86"/>
+      <c r="LV27" s="86"/>
+      <c r="LW27" s="86"/>
+      <c r="LX27" s="86"/>
+      <c r="LY27" s="86"/>
+      <c r="LZ27" s="86"/>
+      <c r="MA27" s="86"/>
+      <c r="MB27" s="86"/>
+      <c r="MC27" s="86"/>
+      <c r="MD27" s="86"/>
+      <c r="ME27" s="86"/>
+      <c r="MF27" s="86"/>
+      <c r="MG27" s="86"/>
+      <c r="MH27" s="86"/>
+      <c r="MI27" s="86"/>
+      <c r="MJ27" s="86"/>
+      <c r="MK27" s="86"/>
+      <c r="ML27" s="86"/>
+      <c r="MM27" s="86"/>
+      <c r="MN27" s="86"/>
+      <c r="MO27" s="86"/>
+      <c r="MP27" s="86"/>
+      <c r="MQ27" s="86"/>
+      <c r="MR27" s="86"/>
+      <c r="MS27" s="86"/>
+      <c r="MT27" s="86"/>
+      <c r="MU27" s="86"/>
+      <c r="MV27" s="86"/>
+      <c r="MW27" s="86"/>
+      <c r="MX27" s="86"/>
+      <c r="MY27" s="86"/>
+      <c r="MZ27" s="86"/>
+      <c r="NA27" s="86"/>
+      <c r="NB27" s="86"/>
+      <c r="NC27" s="86"/>
+      <c r="ND27" s="86"/>
+      <c r="NE27" s="86"/>
+      <c r="NF27" s="86"/>
+      <c r="NG27" s="86"/>
+      <c r="NH27" s="86"/>
+      <c r="NI27" s="86"/>
+      <c r="NJ27" s="86"/>
+      <c r="NK27" s="86"/>
+      <c r="NL27" s="86"/>
+      <c r="NM27" s="86"/>
+      <c r="NN27" s="86"/>
+      <c r="NO27" s="86"/>
+      <c r="NP27" s="86"/>
+      <c r="NQ27" s="86"/>
+      <c r="NR27" s="86"/>
+      <c r="NS27" s="86"/>
+      <c r="NT27" s="86"/>
+      <c r="NU27" s="86"/>
+      <c r="NV27" s="86"/>
+      <c r="NW27" s="86"/>
+      <c r="NX27" s="86"/>
+      <c r="NY27" s="86"/>
+      <c r="NZ27" s="86"/>
+      <c r="OA27" s="86"/>
+      <c r="OB27" s="86"/>
+      <c r="OC27" s="86"/>
+      <c r="OD27" s="86"/>
+      <c r="OE27" s="86"/>
+      <c r="OF27" s="86"/>
+      <c r="OG27" s="86"/>
+      <c r="OH27" s="86"/>
+      <c r="OI27" s="86"/>
+      <c r="OJ27" s="86"/>
+      <c r="OK27" s="86"/>
+      <c r="OL27" s="86"/>
+      <c r="OM27" s="86"/>
+      <c r="ON27" s="86"/>
+      <c r="OO27" s="86"/>
+      <c r="OP27" s="86"/>
+      <c r="OQ27" s="86"/>
+      <c r="OR27" s="86"/>
+      <c r="OS27" s="86"/>
+      <c r="OT27" s="86"/>
+      <c r="OU27" s="86"/>
+      <c r="OV27" s="86"/>
+      <c r="OW27" s="86"/>
+      <c r="OX27" s="86"/>
+      <c r="OY27" s="86"/>
+      <c r="OZ27" s="86"/>
+      <c r="PA27" s="86"/>
+      <c r="PB27" s="86"/>
+      <c r="PC27" s="86"/>
+      <c r="PD27" s="86"/>
+      <c r="PE27" s="86"/>
+      <c r="PF27" s="86"/>
+      <c r="PG27" s="86"/>
+      <c r="PH27" s="86"/>
+      <c r="PI27" s="86"/>
+      <c r="PJ27" s="86"/>
+      <c r="PK27" s="86"/>
+      <c r="PL27" s="86"/>
+      <c r="PM27" s="86"/>
+      <c r="PN27" s="86"/>
+      <c r="PO27" s="86"/>
+      <c r="PP27" s="86"/>
+      <c r="PQ27" s="86"/>
+      <c r="PR27" s="86"/>
+      <c r="PS27" s="86"/>
+      <c r="PT27" s="86"/>
+      <c r="PU27" s="86"/>
+      <c r="PV27" s="86"/>
+      <c r="PW27" s="86"/>
+      <c r="PX27" s="86"/>
+      <c r="PY27" s="86"/>
+      <c r="PZ27" s="86"/>
+      <c r="QA27" s="86"/>
+      <c r="QB27" s="86"/>
+      <c r="QC27" s="86"/>
+      <c r="QD27" s="86"/>
+      <c r="QE27" s="86"/>
+      <c r="QF27" s="86"/>
+      <c r="QG27" s="86"/>
+      <c r="QH27" s="86"/>
+      <c r="QI27" s="86"/>
+      <c r="QJ27" s="86"/>
+      <c r="QK27" s="86"/>
+      <c r="QL27" s="86"/>
+      <c r="QM27" s="86"/>
+      <c r="QN27" s="86"/>
+      <c r="QO27" s="86"/>
+      <c r="QP27" s="86"/>
+      <c r="QQ27" s="86"/>
+      <c r="QR27" s="86"/>
+      <c r="QS27" s="86"/>
+      <c r="QT27" s="86"/>
+      <c r="QU27" s="86"/>
+      <c r="QV27" s="86"/>
+      <c r="QW27" s="86"/>
+      <c r="QX27" s="86"/>
+      <c r="QY27" s="86"/>
+      <c r="QZ27" s="86"/>
+      <c r="RA27" s="86"/>
+      <c r="RB27" s="86"/>
+      <c r="RC27" s="86"/>
+      <c r="RD27" s="86"/>
+      <c r="RE27" s="86"/>
+      <c r="RF27" s="86"/>
+      <c r="RG27" s="86"/>
+      <c r="RH27" s="86"/>
+      <c r="RI27" s="86"/>
+      <c r="RJ27" s="86"/>
+      <c r="RK27" s="86"/>
+      <c r="RL27" s="86"/>
+      <c r="RM27" s="86"/>
+      <c r="RN27" s="86"/>
+      <c r="RO27" s="86"/>
+      <c r="RP27" s="86"/>
+      <c r="RQ27" s="86"/>
+      <c r="RR27" s="86"/>
+      <c r="RS27" s="86"/>
+      <c r="RT27" s="86"/>
+      <c r="RU27" s="86"/>
+      <c r="RV27" s="86"/>
+      <c r="RW27" s="86"/>
+      <c r="RX27" s="86"/>
+      <c r="RY27" s="86"/>
+      <c r="RZ27" s="86"/>
+      <c r="SA27" s="86"/>
+      <c r="SB27" s="86"/>
+      <c r="SC27" s="86"/>
+      <c r="SD27" s="86"/>
+      <c r="SE27" s="86"/>
+      <c r="SF27" s="86"/>
+      <c r="SG27" s="86"/>
+      <c r="SH27" s="86"/>
+      <c r="SI27" s="86"/>
+      <c r="SJ27" s="86"/>
+      <c r="SK27" s="86"/>
+      <c r="SL27" s="86"/>
+      <c r="SM27" s="86"/>
+      <c r="SN27" s="86"/>
+      <c r="SO27" s="86"/>
+      <c r="SP27" s="86"/>
+      <c r="SQ27" s="86"/>
+      <c r="SR27" s="86"/>
+      <c r="SS27" s="86"/>
+      <c r="ST27" s="86"/>
+      <c r="SU27" s="86"/>
+      <c r="SV27" s="86"/>
+      <c r="SW27" s="86"/>
+      <c r="SX27" s="86"/>
+      <c r="SY27" s="86"/>
+      <c r="SZ27" s="86"/>
+      <c r="TA27" s="86"/>
+      <c r="TB27" s="86"/>
+      <c r="TC27" s="86"/>
+      <c r="TD27" s="86"/>
+      <c r="TE27" s="86"/>
+      <c r="TF27" s="86"/>
+      <c r="TG27" s="86"/>
+      <c r="TH27" s="86"/>
+      <c r="TI27" s="86"/>
+      <c r="TJ27" s="86"/>
+      <c r="TK27" s="86"/>
+      <c r="TL27" s="86"/>
+      <c r="TM27" s="86"/>
+      <c r="TN27" s="86"/>
+      <c r="TO27" s="86"/>
+      <c r="TP27" s="86"/>
+      <c r="TQ27" s="86"/>
+      <c r="TR27" s="86"/>
+      <c r="TS27" s="86"/>
+      <c r="TT27" s="86"/>
+      <c r="TU27" s="86"/>
+      <c r="TV27" s="86"/>
+      <c r="TW27" s="86"/>
+      <c r="TX27" s="86"/>
+      <c r="TY27" s="86"/>
+      <c r="TZ27" s="86"/>
+      <c r="UA27" s="86"/>
+      <c r="UB27" s="86"/>
+      <c r="UC27" s="86"/>
+      <c r="UD27" s="86"/>
+      <c r="UE27" s="86"/>
+      <c r="UF27" s="86"/>
+      <c r="UG27" s="86"/>
+      <c r="UH27" s="86"/>
+      <c r="UI27" s="86"/>
+      <c r="UJ27" s="86"/>
+      <c r="UK27" s="86"/>
+      <c r="UL27" s="86"/>
+      <c r="UM27" s="86"/>
+      <c r="UN27" s="86"/>
+      <c r="UO27" s="86"/>
+      <c r="UP27" s="86"/>
+      <c r="UQ27" s="86"/>
+      <c r="UR27" s="86"/>
+      <c r="US27" s="86"/>
+      <c r="UT27" s="86"/>
+      <c r="UU27" s="86"/>
+      <c r="UV27" s="86"/>
+      <c r="UW27" s="86"/>
+      <c r="UX27" s="86"/>
+      <c r="UY27" s="86"/>
+      <c r="UZ27" s="86"/>
+      <c r="VA27" s="86"/>
+      <c r="VB27" s="86"/>
+      <c r="VC27" s="86"/>
+      <c r="VD27" s="86"/>
+      <c r="VE27" s="86"/>
+      <c r="VF27" s="86"/>
+      <c r="VG27" s="86"/>
+      <c r="VH27" s="86"/>
+      <c r="VI27" s="86"/>
+      <c r="VJ27" s="86"/>
+      <c r="VK27" s="86"/>
+      <c r="VL27" s="86"/>
+      <c r="VM27" s="86"/>
+      <c r="VN27" s="86"/>
+      <c r="VO27" s="86"/>
+      <c r="VP27" s="86"/>
+      <c r="VQ27" s="86"/>
+      <c r="VR27" s="86"/>
+      <c r="VS27" s="86"/>
+      <c r="VT27" s="86"/>
+      <c r="VU27" s="86"/>
+      <c r="VV27" s="86"/>
+      <c r="VW27" s="86"/>
+      <c r="VX27" s="86"/>
+      <c r="VY27" s="86"/>
+      <c r="VZ27" s="86"/>
+      <c r="WA27" s="86"/>
+      <c r="WB27" s="86"/>
+      <c r="WC27" s="86"/>
+      <c r="WD27" s="86"/>
+      <c r="WE27" s="86"/>
+      <c r="WF27" s="86"/>
+      <c r="WG27" s="86"/>
+      <c r="WH27" s="86"/>
+      <c r="WI27" s="86"/>
+      <c r="WJ27" s="86"/>
+      <c r="WK27" s="86"/>
+      <c r="WL27" s="86"/>
+      <c r="WM27" s="86"/>
+      <c r="WN27" s="86"/>
+      <c r="WO27" s="86"/>
+      <c r="WP27" s="86"/>
+      <c r="WQ27" s="86"/>
+      <c r="WR27" s="86"/>
+      <c r="WS27" s="86"/>
+      <c r="WT27" s="86"/>
+      <c r="WU27" s="86"/>
+      <c r="WV27" s="86"/>
+      <c r="WW27" s="86"/>
+      <c r="WX27" s="86"/>
+      <c r="WY27" s="86"/>
+      <c r="WZ27" s="86"/>
+      <c r="XA27" s="86"/>
+      <c r="XB27" s="86"/>
+      <c r="XC27" s="86"/>
+      <c r="XD27" s="86"/>
+      <c r="XE27" s="86"/>
+      <c r="XF27" s="86"/>
+      <c r="XG27" s="86"/>
+      <c r="XH27" s="86"/>
+      <c r="XI27" s="86"/>
+      <c r="XJ27" s="86"/>
+      <c r="XK27" s="86"/>
+      <c r="XL27" s="86"/>
+      <c r="XM27" s="86"/>
+      <c r="XN27" s="86"/>
+      <c r="XO27" s="86"/>
+      <c r="XP27" s="86"/>
+      <c r="XQ27" s="86"/>
+      <c r="XR27" s="86"/>
+      <c r="XS27" s="86"/>
+      <c r="XT27" s="86"/>
+      <c r="XU27" s="86"/>
+      <c r="XV27" s="86"/>
+      <c r="XW27" s="86"/>
+      <c r="XX27" s="86"/>
+      <c r="XY27" s="86"/>
+      <c r="XZ27" s="86"/>
+      <c r="YA27" s="86"/>
+      <c r="YB27" s="86"/>
+      <c r="YC27" s="86"/>
+      <c r="YD27" s="86"/>
+      <c r="YE27" s="86"/>
+      <c r="YF27" s="86"/>
+      <c r="YG27" s="86"/>
+      <c r="YH27" s="86"/>
+      <c r="YI27" s="86"/>
+      <c r="YJ27" s="86"/>
+      <c r="YK27" s="86"/>
+      <c r="YL27" s="86"/>
+      <c r="YM27" s="86"/>
+      <c r="YN27" s="86"/>
+      <c r="YO27" s="86"/>
+      <c r="YP27" s="86"/>
+      <c r="YQ27" s="86"/>
+      <c r="YR27" s="86"/>
+      <c r="YS27" s="86"/>
+      <c r="YT27" s="86"/>
+      <c r="YU27" s="86"/>
+      <c r="YV27" s="86"/>
+      <c r="YW27" s="86"/>
+      <c r="YX27" s="86"/>
+      <c r="YY27" s="86"/>
+      <c r="YZ27" s="86"/>
+      <c r="ZA27" s="86"/>
+      <c r="ZB27" s="86"/>
+      <c r="ZC27" s="86"/>
+      <c r="ZD27" s="86"/>
+      <c r="ZE27" s="86"/>
+      <c r="ZF27" s="86"/>
+      <c r="ZG27" s="86"/>
+      <c r="ZH27" s="86"/>
+      <c r="ZI27" s="86"/>
+      <c r="ZJ27" s="86"/>
+      <c r="ZK27" s="86"/>
+      <c r="ZL27" s="86"/>
+      <c r="ZM27" s="86"/>
+      <c r="ZN27" s="86"/>
+      <c r="ZO27" s="86"/>
+      <c r="ZP27" s="86"/>
+      <c r="ZQ27" s="86"/>
+      <c r="ZR27" s="86"/>
+      <c r="ZS27" s="86"/>
+      <c r="ZT27" s="86"/>
+      <c r="ZU27" s="86"/>
+      <c r="ZV27" s="86"/>
+      <c r="ZW27" s="86"/>
+      <c r="ZX27" s="86"/>
+      <c r="ZY27" s="86"/>
+      <c r="ZZ27" s="86"/>
+      <c r="AAA27" s="86"/>
+      <c r="AAB27" s="86"/>
+      <c r="AAC27" s="86"/>
+      <c r="AAD27" s="86"/>
+      <c r="AAE27" s="86"/>
+      <c r="AAF27" s="86"/>
+      <c r="AAG27" s="86"/>
+      <c r="AAH27" s="86"/>
+      <c r="AAI27" s="86"/>
+      <c r="AAJ27" s="86"/>
+      <c r="AAK27" s="86"/>
+      <c r="AAL27" s="86"/>
+      <c r="AAM27" s="86"/>
+      <c r="AAN27" s="86"/>
+      <c r="AAO27" s="86"/>
+      <c r="AAP27" s="86"/>
+      <c r="AAQ27" s="86"/>
+      <c r="AAR27" s="86"/>
+      <c r="AAS27" s="86"/>
+      <c r="AAT27" s="86"/>
+      <c r="AAU27" s="86"/>
+      <c r="AAV27" s="86"/>
+      <c r="AAW27" s="86"/>
+      <c r="AAX27" s="86"/>
+      <c r="AAY27" s="86"/>
+      <c r="AAZ27" s="86"/>
+      <c r="ABA27" s="86"/>
+      <c r="ABB27" s="86"/>
+      <c r="ABC27" s="86"/>
+      <c r="ABD27" s="86"/>
+      <c r="ABE27" s="86"/>
+      <c r="ABF27" s="86"/>
+      <c r="ABG27" s="86"/>
+      <c r="ABH27" s="86"/>
+      <c r="ABI27" s="86"/>
+      <c r="ABJ27" s="86"/>
+      <c r="ABK27" s="86"/>
+      <c r="ABL27" s="86"/>
+      <c r="ABM27" s="86"/>
+      <c r="ABN27" s="86"/>
+      <c r="ABO27" s="86"/>
+      <c r="ABP27" s="86"/>
+      <c r="ABQ27" s="86"/>
+      <c r="ABR27" s="86"/>
+      <c r="ABS27" s="86"/>
+      <c r="ABT27" s="86"/>
+      <c r="ABU27" s="86"/>
+      <c r="ABV27" s="86"/>
+      <c r="ABW27" s="86"/>
+      <c r="ABX27" s="86"/>
+      <c r="ABY27" s="86"/>
+      <c r="ABZ27" s="86"/>
+      <c r="ACA27" s="86"/>
+      <c r="ACB27" s="86"/>
+      <c r="ACC27" s="86"/>
+      <c r="ACD27" s="86"/>
+      <c r="ACE27" s="86"/>
+      <c r="ACF27" s="86"/>
+      <c r="ACG27" s="86"/>
+      <c r="ACH27" s="86"/>
+      <c r="ACI27" s="86"/>
+      <c r="ACJ27" s="86"/>
+      <c r="ACK27" s="86"/>
+      <c r="ACL27" s="86"/>
+      <c r="ACM27" s="86"/>
+      <c r="ACN27" s="86"/>
+      <c r="ACO27" s="86"/>
+      <c r="ACP27" s="86"/>
+      <c r="ACQ27" s="86"/>
+      <c r="ACR27" s="86"/>
+      <c r="ACS27" s="86"/>
+      <c r="ACT27" s="86"/>
+      <c r="ACU27" s="86"/>
+      <c r="ACV27" s="86"/>
+      <c r="ACW27" s="86"/>
+      <c r="ACX27" s="86"/>
+      <c r="ACY27" s="86"/>
+      <c r="ACZ27" s="86"/>
+      <c r="ADA27" s="86"/>
+      <c r="ADB27" s="86"/>
+      <c r="ADC27" s="86"/>
+      <c r="ADD27" s="86"/>
+      <c r="ADE27" s="86"/>
+      <c r="ADF27" s="86"/>
+      <c r="ADG27" s="86"/>
+      <c r="ADH27" s="86"/>
+      <c r="ADI27" s="86"/>
+      <c r="ADJ27" s="86"/>
+      <c r="ADK27" s="86"/>
+      <c r="ADL27" s="86"/>
+      <c r="ADM27" s="86"/>
+      <c r="ADN27" s="86"/>
+      <c r="ADO27" s="86"/>
+      <c r="ADP27" s="86"/>
+      <c r="ADQ27" s="86"/>
+      <c r="ADR27" s="86"/>
+      <c r="ADS27" s="86"/>
+      <c r="ADT27" s="86"/>
+      <c r="ADU27" s="86"/>
+      <c r="ADV27" s="86"/>
+      <c r="ADW27" s="86"/>
+      <c r="ADX27" s="86"/>
+      <c r="ADY27" s="86"/>
+      <c r="ADZ27" s="86"/>
+      <c r="AEA27" s="86"/>
+      <c r="AEB27" s="86"/>
+      <c r="AEC27" s="86"/>
+      <c r="AED27" s="86"/>
+      <c r="AEE27" s="86"/>
+      <c r="AEF27" s="86"/>
+      <c r="AEG27" s="86"/>
+      <c r="AEH27" s="86"/>
+      <c r="AEI27" s="86"/>
+      <c r="AEJ27" s="86"/>
+      <c r="AEK27" s="86"/>
+      <c r="AEL27" s="86"/>
+      <c r="AEM27" s="86"/>
+      <c r="AEN27" s="86"/>
+      <c r="AEO27" s="86"/>
+      <c r="AEP27" s="86"/>
+      <c r="AEQ27" s="86"/>
+      <c r="AER27" s="86"/>
+      <c r="AES27" s="86"/>
+      <c r="AET27" s="86"/>
+      <c r="AEU27" s="86"/>
+      <c r="AEV27" s="86"/>
+      <c r="AEW27" s="86"/>
+      <c r="AEX27" s="86"/>
+      <c r="AEY27" s="86"/>
+      <c r="AEZ27" s="86"/>
+      <c r="AFA27" s="86"/>
+      <c r="AFB27" s="86"/>
+      <c r="AFC27" s="86"/>
+      <c r="AFD27" s="86"/>
+      <c r="AFE27" s="86"/>
+      <c r="AFF27" s="86"/>
+      <c r="AFG27" s="86"/>
+      <c r="AFH27" s="86"/>
+      <c r="AFI27" s="86"/>
+      <c r="AFJ27" s="86"/>
+      <c r="AFK27" s="86"/>
+      <c r="AFL27" s="86"/>
+      <c r="AFM27" s="86"/>
+      <c r="AFN27" s="86"/>
+      <c r="AFO27" s="86"/>
+      <c r="AFP27" s="86"/>
+      <c r="AFQ27" s="86"/>
+      <c r="AFR27" s="86"/>
+      <c r="AFS27" s="86"/>
+      <c r="AFT27" s="86"/>
+      <c r="AFU27" s="86"/>
+      <c r="AFV27" s="86"/>
+      <c r="AFW27" s="86"/>
+      <c r="AFX27" s="86"/>
+      <c r="AFY27" s="86"/>
+      <c r="AFZ27" s="86"/>
+      <c r="AGA27" s="86"/>
+      <c r="AGB27" s="86"/>
+      <c r="AGC27" s="86"/>
+      <c r="AGD27" s="86"/>
+      <c r="AGE27" s="86"/>
+      <c r="AGF27" s="86"/>
+      <c r="AGG27" s="86"/>
+      <c r="AGH27" s="86"/>
+      <c r="AGI27" s="86"/>
+      <c r="AGJ27" s="86"/>
+      <c r="AGK27" s="86"/>
+      <c r="AGL27" s="86"/>
+      <c r="AGM27" s="86"/>
+      <c r="AGN27" s="86"/>
+      <c r="AGO27" s="86"/>
+      <c r="AGP27" s="86"/>
+      <c r="AGQ27" s="86"/>
+      <c r="AGR27" s="86"/>
+      <c r="AGS27" s="86"/>
+      <c r="AGT27" s="86"/>
+      <c r="AGU27" s="86"/>
+      <c r="AGV27" s="86"/>
+      <c r="AGW27" s="86"/>
+      <c r="AGX27" s="86"/>
+      <c r="AGY27" s="86"/>
+      <c r="AGZ27" s="86"/>
+      <c r="AHA27" s="86"/>
+      <c r="AHB27" s="86"/>
+      <c r="AHC27" s="86"/>
+      <c r="AHD27" s="86"/>
+      <c r="AHE27" s="86"/>
+      <c r="AHF27" s="86"/>
+      <c r="AHG27" s="86"/>
+      <c r="AHH27" s="86"/>
+      <c r="AHI27" s="86"/>
+      <c r="AHJ27" s="86"/>
+      <c r="AHK27" s="86"/>
+      <c r="AHL27" s="86"/>
+      <c r="AHM27" s="86"/>
+      <c r="AHN27" s="86"/>
+      <c r="AHO27" s="86"/>
+      <c r="AHP27" s="86"/>
+      <c r="AHQ27" s="86"/>
+      <c r="AHR27" s="86"/>
+      <c r="AHS27" s="86"/>
+      <c r="AHT27" s="86"/>
+      <c r="AHU27" s="86"/>
+      <c r="AHV27" s="86"/>
+      <c r="AHW27" s="86"/>
+      <c r="AHX27" s="86"/>
+      <c r="AHY27" s="86"/>
+      <c r="AHZ27" s="86"/>
+      <c r="AIA27" s="86"/>
+      <c r="AIB27" s="86"/>
+      <c r="AIC27" s="86"/>
+      <c r="AID27" s="86"/>
+      <c r="AIE27" s="86"/>
+      <c r="AIF27" s="86"/>
+      <c r="AIG27" s="86"/>
+      <c r="AIH27" s="86"/>
+      <c r="AII27" s="86"/>
+      <c r="AIJ27" s="86"/>
+      <c r="AIK27" s="86"/>
+      <c r="AIL27" s="86"/>
+      <c r="AIM27" s="86"/>
+      <c r="AIN27" s="86"/>
+      <c r="AIO27" s="86"/>
+      <c r="AIP27" s="86"/>
+      <c r="AIQ27" s="86"/>
+      <c r="AIR27" s="86"/>
+      <c r="AIS27" s="86"/>
+      <c r="AIT27" s="86"/>
+      <c r="AIU27" s="86"/>
+      <c r="AIV27" s="86"/>
+      <c r="AIW27" s="86"/>
+      <c r="AIX27" s="86"/>
+      <c r="AIY27" s="86"/>
+      <c r="AIZ27" s="86"/>
+      <c r="AJA27" s="86"/>
+      <c r="AJB27" s="86"/>
+      <c r="AJC27" s="86"/>
+      <c r="AJD27" s="86"/>
+      <c r="AJE27" s="86"/>
+      <c r="AJF27" s="86"/>
+      <c r="AJG27" s="86"/>
+      <c r="AJH27" s="86"/>
+      <c r="AJI27" s="86"/>
+      <c r="AJJ27" s="86"/>
+      <c r="AJK27" s="86"/>
+      <c r="AJL27" s="86"/>
+      <c r="AJM27" s="86"/>
+      <c r="AJN27" s="86"/>
+      <c r="AJO27" s="86"/>
+      <c r="AJP27" s="86"/>
+      <c r="AJQ27" s="86"/>
+      <c r="AJR27" s="86"/>
+      <c r="AJS27" s="86"/>
+      <c r="AJT27" s="86"/>
+      <c r="AJU27" s="86"/>
+      <c r="AJV27" s="86"/>
+      <c r="AJW27" s="86"/>
+      <c r="AJX27" s="86"/>
+      <c r="AJY27" s="86"/>
+      <c r="AJZ27" s="86"/>
+      <c r="AKA27" s="86"/>
+      <c r="AKB27" s="86"/>
+      <c r="AKC27" s="86"/>
+      <c r="AKD27" s="86"/>
+      <c r="AKE27" s="86"/>
+      <c r="AKF27" s="86"/>
+      <c r="AKG27" s="86"/>
+      <c r="AKH27" s="86"/>
+      <c r="AKI27" s="86"/>
+      <c r="AKJ27" s="86"/>
+      <c r="AKK27" s="86"/>
+      <c r="AKL27" s="86"/>
+      <c r="AKM27" s="86"/>
+      <c r="AKN27" s="86"/>
+      <c r="AKO27" s="86"/>
+      <c r="AKP27" s="86"/>
+      <c r="AKQ27" s="86"/>
+      <c r="AKR27" s="86"/>
+      <c r="AKS27" s="86"/>
+      <c r="AKT27" s="86"/>
+      <c r="AKU27" s="86"/>
+      <c r="AKV27" s="86"/>
+      <c r="AKW27" s="86"/>
+      <c r="AKX27" s="86"/>
+      <c r="AKY27" s="86"/>
+      <c r="AKZ27" s="86"/>
+      <c r="ALA27" s="86"/>
+      <c r="ALB27" s="86"/>
+      <c r="ALC27" s="86"/>
+      <c r="ALD27" s="86"/>
+      <c r="ALE27" s="86"/>
+      <c r="ALF27" s="86"/>
+      <c r="ALG27" s="86"/>
+      <c r="ALH27" s="86"/>
+      <c r="ALI27" s="86"/>
+      <c r="ALJ27" s="86"/>
+      <c r="ALK27" s="86"/>
+      <c r="ALL27" s="86"/>
+      <c r="ALM27" s="86"/>
+      <c r="ALN27" s="86"/>
+      <c r="ALO27" s="86"/>
+      <c r="ALP27" s="86"/>
+      <c r="ALQ27" s="86"/>
+      <c r="ALR27" s="86"/>
+      <c r="ALS27" s="86"/>
+      <c r="ALT27" s="86"/>
+      <c r="ALU27" s="86"/>
+      <c r="ALV27" s="86"/>
+      <c r="ALW27" s="86"/>
+      <c r="ALX27" s="86"/>
+      <c r="ALY27" s="86"/>
+      <c r="ALZ27" s="86"/>
+      <c r="AMA27" s="86"/>
+      <c r="AMB27" s="86"/>
+      <c r="AMC27" s="86"/>
+      <c r="AMD27" s="86"/>
+      <c r="AME27" s="86"/>
+      <c r="AMF27" s="86"/>
+      <c r="AMG27" s="86"/>
+      <c r="AMH27" s="86"/>
+      <c r="AMI27" s="86"/>
+      <c r="AMJ27" s="86"/>
+      <c r="AMK27" s="86"/>
     </row>
-    <row r="28" spans="2:29" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="60">
+    <row r="28" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="25">
         <f>B27+1</f>
         <v>19</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="60" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="15">
@@ -2984,7 +4130,7 @@
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
       <c r="P28" s="20"/>
-      <c r="Q28" s="56"/>
+      <c r="Q28" s="119"/>
       <c r="R28" s="20"/>
       <c r="S28" s="21"/>
       <c r="T28" s="20"/>
@@ -2995,17 +4141,21 @@
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="21"/>
-      <c r="AB28" s="71">
+      <c r="AB28" s="61">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AC28" s="72"/>
+      <c r="AC28" s="62"/>
     </row>
-    <row r="29" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="73"/>
-      <c r="C29" s="54"/>
+    <row r="29" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13">
+        <v>20</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>51</v>
+      </c>
       <c r="D29" s="27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" s="27">
         <v>0</v>
@@ -3014,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29" s="16">
         <f>VLOOKUP(I29,Feuil2!A1:B3,2,0)</f>
@@ -3028,14 +4178,14 @@
       </c>
       <c r="K29" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="30"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="Q29" s="119"/>
       <c r="R29" s="29"/>
       <c r="S29" s="30"/>
       <c r="T29" s="29"/>
@@ -3046,69 +4196,77 @@
       <c r="Y29" s="29"/>
       <c r="Z29" s="29"/>
       <c r="AA29" s="30"/>
-      <c r="AB29" s="74">
+      <c r="AB29" s="64">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="73"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="27">
-        <v>0</v>
-      </c>
-      <c r="E30" s="27">
-        <v>0</v>
-      </c>
-      <c r="F30" s="27">
-        <v>0</v>
-      </c>
-      <c r="G30" s="27">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
+    <row r="30" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="115">
+        <v>21</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="109">
+        <v>0</v>
+      </c>
+      <c r="E30" s="109">
+        <v>3</v>
+      </c>
+      <c r="F30" s="109">
+        <v>18.5</v>
+      </c>
+      <c r="G30" s="109">
+        <v>0</v>
+      </c>
+      <c r="H30" s="110">
         <f>VLOOKUP(I30,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="18">
+        <v>100</v>
+      </c>
+      <c r="I30" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="112">
         <v>5</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="74">
+        <v>21.5</v>
+      </c>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="67">
         <f t="shared" si="4"/>
+        <v>-16.5</v>
+      </c>
+      <c r="AC30" s="68"/>
+    </row>
+    <row r="31" spans="2:1025" s="108" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="25">
+        <v>22</v>
+      </c>
+      <c r="C31" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="27">
         <v>5</v>
       </c>
-      <c r="AC30" s="35"/>
-    </row>
-    <row r="31" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="73"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="27">
-        <v>0</v>
-      </c>
       <c r="E31" s="27">
         <v>0</v>
       </c>
@@ -3118,21 +4276,26 @@
       <c r="G31" s="27">
         <v>0</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18">
+      <c r="H31" s="121">
+        <f>VLOOKUP(I31,Feuil2!A1:B3,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="I31" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="123">
+        <v>12</v>
+      </c>
+      <c r="K31" s="123">
+        <f t="shared" si="3"/>
         <v>5</v>
-      </c>
-      <c r="K31" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
       <c r="O31" s="30"/>
       <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
+      <c r="Q31" s="56"/>
       <c r="R31" s="29"/>
       <c r="S31" s="30"/>
       <c r="T31" s="29"/>
@@ -3143,66 +4306,2037 @@
       <c r="Y31" s="29"/>
       <c r="Z31" s="29"/>
       <c r="AA31" s="30"/>
-      <c r="AB31" s="74">
+      <c r="AB31" s="34">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AC31" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="86"/>
+      <c r="AE31" s="86"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="86"/>
+      <c r="AJ31" s="86"/>
+      <c r="AK31" s="86"/>
+      <c r="AL31" s="86"/>
+      <c r="AM31" s="86"/>
+      <c r="AN31" s="86"/>
+      <c r="AO31" s="86"/>
+      <c r="AP31" s="86"/>
+      <c r="AQ31" s="86"/>
+      <c r="AR31" s="86"/>
+      <c r="AS31" s="86"/>
+      <c r="AT31" s="86"/>
+      <c r="AU31" s="86"/>
+      <c r="AV31" s="86"/>
+      <c r="AW31" s="86"/>
+      <c r="AX31" s="86"/>
+      <c r="AY31" s="86"/>
+      <c r="AZ31" s="86"/>
+      <c r="BA31" s="86"/>
+      <c r="BB31" s="86"/>
+      <c r="BC31" s="86"/>
+      <c r="BD31" s="86"/>
+      <c r="BE31" s="86"/>
+      <c r="BF31" s="86"/>
+      <c r="BG31" s="86"/>
+      <c r="BH31" s="86"/>
+      <c r="BI31" s="86"/>
+      <c r="BJ31" s="86"/>
+      <c r="BK31" s="86"/>
+      <c r="BL31" s="86"/>
+      <c r="BM31" s="86"/>
+      <c r="BN31" s="86"/>
+      <c r="BO31" s="86"/>
+      <c r="BP31" s="86"/>
+      <c r="BQ31" s="86"/>
+      <c r="BR31" s="86"/>
+      <c r="BS31" s="86"/>
+      <c r="BT31" s="86"/>
+      <c r="BU31" s="86"/>
+      <c r="BV31" s="86"/>
+      <c r="BW31" s="86"/>
+      <c r="BX31" s="86"/>
+      <c r="BY31" s="86"/>
+      <c r="BZ31" s="86"/>
+      <c r="CA31" s="86"/>
+      <c r="CB31" s="86"/>
+      <c r="CC31" s="86"/>
+      <c r="CD31" s="86"/>
+      <c r="CE31" s="86"/>
+      <c r="CF31" s="86"/>
+      <c r="CG31" s="86"/>
+      <c r="CH31" s="86"/>
+      <c r="CI31" s="86"/>
+      <c r="CJ31" s="86"/>
+      <c r="CK31" s="86"/>
+      <c r="CL31" s="86"/>
+      <c r="CM31" s="86"/>
+      <c r="CN31" s="86"/>
+      <c r="CO31" s="86"/>
+      <c r="CP31" s="86"/>
+      <c r="CQ31" s="86"/>
+      <c r="CR31" s="86"/>
+      <c r="CS31" s="86"/>
+      <c r="CT31" s="86"/>
+      <c r="CU31" s="86"/>
+      <c r="CV31" s="86"/>
+      <c r="CW31" s="86"/>
+      <c r="CX31" s="86"/>
+      <c r="CY31" s="86"/>
+      <c r="CZ31" s="86"/>
+      <c r="DA31" s="86"/>
+      <c r="DB31" s="86"/>
+      <c r="DC31" s="86"/>
+      <c r="DD31" s="86"/>
+      <c r="DE31" s="86"/>
+      <c r="DF31" s="86"/>
+      <c r="DG31" s="86"/>
+      <c r="DH31" s="86"/>
+      <c r="DI31" s="86"/>
+      <c r="DJ31" s="86"/>
+      <c r="DK31" s="86"/>
+      <c r="DL31" s="86"/>
+      <c r="DM31" s="86"/>
+      <c r="DN31" s="86"/>
+      <c r="DO31" s="86"/>
+      <c r="DP31" s="86"/>
+      <c r="DQ31" s="86"/>
+      <c r="DR31" s="86"/>
+      <c r="DS31" s="86"/>
+      <c r="DT31" s="86"/>
+      <c r="DU31" s="86"/>
+      <c r="DV31" s="86"/>
+      <c r="DW31" s="86"/>
+      <c r="DX31" s="86"/>
+      <c r="DY31" s="86"/>
+      <c r="DZ31" s="86"/>
+      <c r="EA31" s="86"/>
+      <c r="EB31" s="86"/>
+      <c r="EC31" s="86"/>
+      <c r="ED31" s="86"/>
+      <c r="EE31" s="86"/>
+      <c r="EF31" s="86"/>
+      <c r="EG31" s="86"/>
+      <c r="EH31" s="86"/>
+      <c r="EI31" s="86"/>
+      <c r="EJ31" s="86"/>
+      <c r="EK31" s="86"/>
+      <c r="EL31" s="86"/>
+      <c r="EM31" s="86"/>
+      <c r="EN31" s="86"/>
+      <c r="EO31" s="86"/>
+      <c r="EP31" s="86"/>
+      <c r="EQ31" s="86"/>
+      <c r="ER31" s="86"/>
+      <c r="ES31" s="86"/>
+      <c r="ET31" s="86"/>
+      <c r="EU31" s="86"/>
+      <c r="EV31" s="86"/>
+      <c r="EW31" s="86"/>
+      <c r="EX31" s="86"/>
+      <c r="EY31" s="86"/>
+      <c r="EZ31" s="86"/>
+      <c r="FA31" s="86"/>
+      <c r="FB31" s="86"/>
+      <c r="FC31" s="86"/>
+      <c r="FD31" s="86"/>
+      <c r="FE31" s="86"/>
+      <c r="FF31" s="86"/>
+      <c r="FG31" s="86"/>
+      <c r="FH31" s="86"/>
+      <c r="FI31" s="86"/>
+      <c r="FJ31" s="86"/>
+      <c r="FK31" s="86"/>
+      <c r="FL31" s="86"/>
+      <c r="FM31" s="86"/>
+      <c r="FN31" s="86"/>
+      <c r="FO31" s="86"/>
+      <c r="FP31" s="86"/>
+      <c r="FQ31" s="86"/>
+      <c r="FR31" s="86"/>
+      <c r="FS31" s="86"/>
+      <c r="FT31" s="86"/>
+      <c r="FU31" s="86"/>
+      <c r="FV31" s="86"/>
+      <c r="FW31" s="86"/>
+      <c r="FX31" s="86"/>
+      <c r="FY31" s="86"/>
+      <c r="FZ31" s="86"/>
+      <c r="GA31" s="86"/>
+      <c r="GB31" s="86"/>
+      <c r="GC31" s="86"/>
+      <c r="GD31" s="86"/>
+      <c r="GE31" s="86"/>
+      <c r="GF31" s="86"/>
+      <c r="GG31" s="86"/>
+      <c r="GH31" s="86"/>
+      <c r="GI31" s="86"/>
+      <c r="GJ31" s="86"/>
+      <c r="GK31" s="86"/>
+      <c r="GL31" s="86"/>
+      <c r="GM31" s="86"/>
+      <c r="GN31" s="86"/>
+      <c r="GO31" s="86"/>
+      <c r="GP31" s="86"/>
+      <c r="GQ31" s="86"/>
+      <c r="GR31" s="86"/>
+      <c r="GS31" s="86"/>
+      <c r="GT31" s="86"/>
+      <c r="GU31" s="86"/>
+      <c r="GV31" s="86"/>
+      <c r="GW31" s="86"/>
+      <c r="GX31" s="86"/>
+      <c r="GY31" s="86"/>
+      <c r="GZ31" s="86"/>
+      <c r="HA31" s="86"/>
+      <c r="HB31" s="86"/>
+      <c r="HC31" s="86"/>
+      <c r="HD31" s="86"/>
+      <c r="HE31" s="86"/>
+      <c r="HF31" s="86"/>
+      <c r="HG31" s="86"/>
+      <c r="HH31" s="86"/>
+      <c r="HI31" s="86"/>
+      <c r="HJ31" s="86"/>
+      <c r="HK31" s="86"/>
+      <c r="HL31" s="86"/>
+      <c r="HM31" s="86"/>
+      <c r="HN31" s="86"/>
+      <c r="HO31" s="86"/>
+      <c r="HP31" s="86"/>
+      <c r="HQ31" s="86"/>
+      <c r="HR31" s="86"/>
+      <c r="HS31" s="86"/>
+      <c r="HT31" s="86"/>
+      <c r="HU31" s="86"/>
+      <c r="HV31" s="86"/>
+      <c r="HW31" s="86"/>
+      <c r="HX31" s="86"/>
+      <c r="HY31" s="86"/>
+      <c r="HZ31" s="86"/>
+      <c r="IA31" s="86"/>
+      <c r="IB31" s="86"/>
+      <c r="IC31" s="86"/>
+      <c r="ID31" s="86"/>
+      <c r="IE31" s="86"/>
+      <c r="IF31" s="86"/>
+      <c r="IG31" s="86"/>
+      <c r="IH31" s="86"/>
+      <c r="II31" s="86"/>
+      <c r="IJ31" s="86"/>
+      <c r="IK31" s="86"/>
+      <c r="IL31" s="86"/>
+      <c r="IM31" s="86"/>
+      <c r="IN31" s="86"/>
+      <c r="IO31" s="86"/>
+      <c r="IP31" s="86"/>
+      <c r="IQ31" s="86"/>
+      <c r="IR31" s="86"/>
+      <c r="IS31" s="86"/>
+      <c r="IT31" s="86"/>
+      <c r="IU31" s="86"/>
+      <c r="IV31" s="86"/>
+      <c r="IW31" s="86"/>
+      <c r="IX31" s="86"/>
+      <c r="IY31" s="86"/>
+      <c r="IZ31" s="86"/>
+      <c r="JA31" s="86"/>
+      <c r="JB31" s="86"/>
+      <c r="JC31" s="86"/>
+      <c r="JD31" s="86"/>
+      <c r="JE31" s="86"/>
+      <c r="JF31" s="86"/>
+      <c r="JG31" s="86"/>
+      <c r="JH31" s="86"/>
+      <c r="JI31" s="86"/>
+      <c r="JJ31" s="86"/>
+      <c r="JK31" s="86"/>
+      <c r="JL31" s="86"/>
+      <c r="JM31" s="86"/>
+      <c r="JN31" s="86"/>
+      <c r="JO31" s="86"/>
+      <c r="JP31" s="86"/>
+      <c r="JQ31" s="86"/>
+      <c r="JR31" s="86"/>
+      <c r="JS31" s="86"/>
+      <c r="JT31" s="86"/>
+      <c r="JU31" s="86"/>
+      <c r="JV31" s="86"/>
+      <c r="JW31" s="86"/>
+      <c r="JX31" s="86"/>
+      <c r="JY31" s="86"/>
+      <c r="JZ31" s="86"/>
+      <c r="KA31" s="86"/>
+      <c r="KB31" s="86"/>
+      <c r="KC31" s="86"/>
+      <c r="KD31" s="86"/>
+      <c r="KE31" s="86"/>
+      <c r="KF31" s="86"/>
+      <c r="KG31" s="86"/>
+      <c r="KH31" s="86"/>
+      <c r="KI31" s="86"/>
+      <c r="KJ31" s="86"/>
+      <c r="KK31" s="86"/>
+      <c r="KL31" s="86"/>
+      <c r="KM31" s="86"/>
+      <c r="KN31" s="86"/>
+      <c r="KO31" s="86"/>
+      <c r="KP31" s="86"/>
+      <c r="KQ31" s="86"/>
+      <c r="KR31" s="86"/>
+      <c r="KS31" s="86"/>
+      <c r="KT31" s="86"/>
+      <c r="KU31" s="86"/>
+      <c r="KV31" s="86"/>
+      <c r="KW31" s="86"/>
+      <c r="KX31" s="86"/>
+      <c r="KY31" s="86"/>
+      <c r="KZ31" s="86"/>
+      <c r="LA31" s="86"/>
+      <c r="LB31" s="86"/>
+      <c r="LC31" s="86"/>
+      <c r="LD31" s="86"/>
+      <c r="LE31" s="86"/>
+      <c r="LF31" s="86"/>
+      <c r="LG31" s="86"/>
+      <c r="LH31" s="86"/>
+      <c r="LI31" s="86"/>
+      <c r="LJ31" s="86"/>
+      <c r="LK31" s="86"/>
+      <c r="LL31" s="86"/>
+      <c r="LM31" s="86"/>
+      <c r="LN31" s="86"/>
+      <c r="LO31" s="86"/>
+      <c r="LP31" s="86"/>
+      <c r="LQ31" s="86"/>
+      <c r="LR31" s="86"/>
+      <c r="LS31" s="86"/>
+      <c r="LT31" s="86"/>
+      <c r="LU31" s="86"/>
+      <c r="LV31" s="86"/>
+      <c r="LW31" s="86"/>
+      <c r="LX31" s="86"/>
+      <c r="LY31" s="86"/>
+      <c r="LZ31" s="86"/>
+      <c r="MA31" s="86"/>
+      <c r="MB31" s="86"/>
+      <c r="MC31" s="86"/>
+      <c r="MD31" s="86"/>
+      <c r="ME31" s="86"/>
+      <c r="MF31" s="86"/>
+      <c r="MG31" s="86"/>
+      <c r="MH31" s="86"/>
+      <c r="MI31" s="86"/>
+      <c r="MJ31" s="86"/>
+      <c r="MK31" s="86"/>
+      <c r="ML31" s="86"/>
+      <c r="MM31" s="86"/>
+      <c r="MN31" s="86"/>
+      <c r="MO31" s="86"/>
+      <c r="MP31" s="86"/>
+      <c r="MQ31" s="86"/>
+      <c r="MR31" s="86"/>
+      <c r="MS31" s="86"/>
+      <c r="MT31" s="86"/>
+      <c r="MU31" s="86"/>
+      <c r="MV31" s="86"/>
+      <c r="MW31" s="86"/>
+      <c r="MX31" s="86"/>
+      <c r="MY31" s="86"/>
+      <c r="MZ31" s="86"/>
+      <c r="NA31" s="86"/>
+      <c r="NB31" s="86"/>
+      <c r="NC31" s="86"/>
+      <c r="ND31" s="86"/>
+      <c r="NE31" s="86"/>
+      <c r="NF31" s="86"/>
+      <c r="NG31" s="86"/>
+      <c r="NH31" s="86"/>
+      <c r="NI31" s="86"/>
+      <c r="NJ31" s="86"/>
+      <c r="NK31" s="86"/>
+      <c r="NL31" s="86"/>
+      <c r="NM31" s="86"/>
+      <c r="NN31" s="86"/>
+      <c r="NO31" s="86"/>
+      <c r="NP31" s="86"/>
+      <c r="NQ31" s="86"/>
+      <c r="NR31" s="86"/>
+      <c r="NS31" s="86"/>
+      <c r="NT31" s="86"/>
+      <c r="NU31" s="86"/>
+      <c r="NV31" s="86"/>
+      <c r="NW31" s="86"/>
+      <c r="NX31" s="86"/>
+      <c r="NY31" s="86"/>
+      <c r="NZ31" s="86"/>
+      <c r="OA31" s="86"/>
+      <c r="OB31" s="86"/>
+      <c r="OC31" s="86"/>
+      <c r="OD31" s="86"/>
+      <c r="OE31" s="86"/>
+      <c r="OF31" s="86"/>
+      <c r="OG31" s="86"/>
+      <c r="OH31" s="86"/>
+      <c r="OI31" s="86"/>
+      <c r="OJ31" s="86"/>
+      <c r="OK31" s="86"/>
+      <c r="OL31" s="86"/>
+      <c r="OM31" s="86"/>
+      <c r="ON31" s="86"/>
+      <c r="OO31" s="86"/>
+      <c r="OP31" s="86"/>
+      <c r="OQ31" s="86"/>
+      <c r="OR31" s="86"/>
+      <c r="OS31" s="86"/>
+      <c r="OT31" s="86"/>
+      <c r="OU31" s="86"/>
+      <c r="OV31" s="86"/>
+      <c r="OW31" s="86"/>
+      <c r="OX31" s="86"/>
+      <c r="OY31" s="86"/>
+      <c r="OZ31" s="86"/>
+      <c r="PA31" s="86"/>
+      <c r="PB31" s="86"/>
+      <c r="PC31" s="86"/>
+      <c r="PD31" s="86"/>
+      <c r="PE31" s="86"/>
+      <c r="PF31" s="86"/>
+      <c r="PG31" s="86"/>
+      <c r="PH31" s="86"/>
+      <c r="PI31" s="86"/>
+      <c r="PJ31" s="86"/>
+      <c r="PK31" s="86"/>
+      <c r="PL31" s="86"/>
+      <c r="PM31" s="86"/>
+      <c r="PN31" s="86"/>
+      <c r="PO31" s="86"/>
+      <c r="PP31" s="86"/>
+      <c r="PQ31" s="86"/>
+      <c r="PR31" s="86"/>
+      <c r="PS31" s="86"/>
+      <c r="PT31" s="86"/>
+      <c r="PU31" s="86"/>
+      <c r="PV31" s="86"/>
+      <c r="PW31" s="86"/>
+      <c r="PX31" s="86"/>
+      <c r="PY31" s="86"/>
+      <c r="PZ31" s="86"/>
+      <c r="QA31" s="86"/>
+      <c r="QB31" s="86"/>
+      <c r="QC31" s="86"/>
+      <c r="QD31" s="86"/>
+      <c r="QE31" s="86"/>
+      <c r="QF31" s="86"/>
+      <c r="QG31" s="86"/>
+      <c r="QH31" s="86"/>
+      <c r="QI31" s="86"/>
+      <c r="QJ31" s="86"/>
+      <c r="QK31" s="86"/>
+      <c r="QL31" s="86"/>
+      <c r="QM31" s="86"/>
+      <c r="QN31" s="86"/>
+      <c r="QO31" s="86"/>
+      <c r="QP31" s="86"/>
+      <c r="QQ31" s="86"/>
+      <c r="QR31" s="86"/>
+      <c r="QS31" s="86"/>
+      <c r="QT31" s="86"/>
+      <c r="QU31" s="86"/>
+      <c r="QV31" s="86"/>
+      <c r="QW31" s="86"/>
+      <c r="QX31" s="86"/>
+      <c r="QY31" s="86"/>
+      <c r="QZ31" s="86"/>
+      <c r="RA31" s="86"/>
+      <c r="RB31" s="86"/>
+      <c r="RC31" s="86"/>
+      <c r="RD31" s="86"/>
+      <c r="RE31" s="86"/>
+      <c r="RF31" s="86"/>
+      <c r="RG31" s="86"/>
+      <c r="RH31" s="86"/>
+      <c r="RI31" s="86"/>
+      <c r="RJ31" s="86"/>
+      <c r="RK31" s="86"/>
+      <c r="RL31" s="86"/>
+      <c r="RM31" s="86"/>
+      <c r="RN31" s="86"/>
+      <c r="RO31" s="86"/>
+      <c r="RP31" s="86"/>
+      <c r="RQ31" s="86"/>
+      <c r="RR31" s="86"/>
+      <c r="RS31" s="86"/>
+      <c r="RT31" s="86"/>
+      <c r="RU31" s="86"/>
+      <c r="RV31" s="86"/>
+      <c r="RW31" s="86"/>
+      <c r="RX31" s="86"/>
+      <c r="RY31" s="86"/>
+      <c r="RZ31" s="86"/>
+      <c r="SA31" s="86"/>
+      <c r="SB31" s="86"/>
+      <c r="SC31" s="86"/>
+      <c r="SD31" s="86"/>
+      <c r="SE31" s="86"/>
+      <c r="SF31" s="86"/>
+      <c r="SG31" s="86"/>
+      <c r="SH31" s="86"/>
+      <c r="SI31" s="86"/>
+      <c r="SJ31" s="86"/>
+      <c r="SK31" s="86"/>
+      <c r="SL31" s="86"/>
+      <c r="SM31" s="86"/>
+      <c r="SN31" s="86"/>
+      <c r="SO31" s="86"/>
+      <c r="SP31" s="86"/>
+      <c r="SQ31" s="86"/>
+      <c r="SR31" s="86"/>
+      <c r="SS31" s="86"/>
+      <c r="ST31" s="86"/>
+      <c r="SU31" s="86"/>
+      <c r="SV31" s="86"/>
+      <c r="SW31" s="86"/>
+      <c r="SX31" s="86"/>
+      <c r="SY31" s="86"/>
+      <c r="SZ31" s="86"/>
+      <c r="TA31" s="86"/>
+      <c r="TB31" s="86"/>
+      <c r="TC31" s="86"/>
+      <c r="TD31" s="86"/>
+      <c r="TE31" s="86"/>
+      <c r="TF31" s="86"/>
+      <c r="TG31" s="86"/>
+      <c r="TH31" s="86"/>
+      <c r="TI31" s="86"/>
+      <c r="TJ31" s="86"/>
+      <c r="TK31" s="86"/>
+      <c r="TL31" s="86"/>
+      <c r="TM31" s="86"/>
+      <c r="TN31" s="86"/>
+      <c r="TO31" s="86"/>
+      <c r="TP31" s="86"/>
+      <c r="TQ31" s="86"/>
+      <c r="TR31" s="86"/>
+      <c r="TS31" s="86"/>
+      <c r="TT31" s="86"/>
+      <c r="TU31" s="86"/>
+      <c r="TV31" s="86"/>
+      <c r="TW31" s="86"/>
+      <c r="TX31" s="86"/>
+      <c r="TY31" s="86"/>
+      <c r="TZ31" s="86"/>
+      <c r="UA31" s="86"/>
+      <c r="UB31" s="86"/>
+      <c r="UC31" s="86"/>
+      <c r="UD31" s="86"/>
+      <c r="UE31" s="86"/>
+      <c r="UF31" s="86"/>
+      <c r="UG31" s="86"/>
+      <c r="UH31" s="86"/>
+      <c r="UI31" s="86"/>
+      <c r="UJ31" s="86"/>
+      <c r="UK31" s="86"/>
+      <c r="UL31" s="86"/>
+      <c r="UM31" s="86"/>
+      <c r="UN31" s="86"/>
+      <c r="UO31" s="86"/>
+      <c r="UP31" s="86"/>
+      <c r="UQ31" s="86"/>
+      <c r="UR31" s="86"/>
+      <c r="US31" s="86"/>
+      <c r="UT31" s="86"/>
+      <c r="UU31" s="86"/>
+      <c r="UV31" s="86"/>
+      <c r="UW31" s="86"/>
+      <c r="UX31" s="86"/>
+      <c r="UY31" s="86"/>
+      <c r="UZ31" s="86"/>
+      <c r="VA31" s="86"/>
+      <c r="VB31" s="86"/>
+      <c r="VC31" s="86"/>
+      <c r="VD31" s="86"/>
+      <c r="VE31" s="86"/>
+      <c r="VF31" s="86"/>
+      <c r="VG31" s="86"/>
+      <c r="VH31" s="86"/>
+      <c r="VI31" s="86"/>
+      <c r="VJ31" s="86"/>
+      <c r="VK31" s="86"/>
+      <c r="VL31" s="86"/>
+      <c r="VM31" s="86"/>
+      <c r="VN31" s="86"/>
+      <c r="VO31" s="86"/>
+      <c r="VP31" s="86"/>
+      <c r="VQ31" s="86"/>
+      <c r="VR31" s="86"/>
+      <c r="VS31" s="86"/>
+      <c r="VT31" s="86"/>
+      <c r="VU31" s="86"/>
+      <c r="VV31" s="86"/>
+      <c r="VW31" s="86"/>
+      <c r="VX31" s="86"/>
+      <c r="VY31" s="86"/>
+      <c r="VZ31" s="86"/>
+      <c r="WA31" s="86"/>
+      <c r="WB31" s="86"/>
+      <c r="WC31" s="86"/>
+      <c r="WD31" s="86"/>
+      <c r="WE31" s="86"/>
+      <c r="WF31" s="86"/>
+      <c r="WG31" s="86"/>
+      <c r="WH31" s="86"/>
+      <c r="WI31" s="86"/>
+      <c r="WJ31" s="86"/>
+      <c r="WK31" s="86"/>
+      <c r="WL31" s="86"/>
+      <c r="WM31" s="86"/>
+      <c r="WN31" s="86"/>
+      <c r="WO31" s="86"/>
+      <c r="WP31" s="86"/>
+      <c r="WQ31" s="86"/>
+      <c r="WR31" s="86"/>
+      <c r="WS31" s="86"/>
+      <c r="WT31" s="86"/>
+      <c r="WU31" s="86"/>
+      <c r="WV31" s="86"/>
+      <c r="WW31" s="86"/>
+      <c r="WX31" s="86"/>
+      <c r="WY31" s="86"/>
+      <c r="WZ31" s="86"/>
+      <c r="XA31" s="86"/>
+      <c r="XB31" s="86"/>
+      <c r="XC31" s="86"/>
+      <c r="XD31" s="86"/>
+      <c r="XE31" s="86"/>
+      <c r="XF31" s="86"/>
+      <c r="XG31" s="86"/>
+      <c r="XH31" s="86"/>
+      <c r="XI31" s="86"/>
+      <c r="XJ31" s="86"/>
+      <c r="XK31" s="86"/>
+      <c r="XL31" s="86"/>
+      <c r="XM31" s="86"/>
+      <c r="XN31" s="86"/>
+      <c r="XO31" s="86"/>
+      <c r="XP31" s="86"/>
+      <c r="XQ31" s="86"/>
+      <c r="XR31" s="86"/>
+      <c r="XS31" s="86"/>
+      <c r="XT31" s="86"/>
+      <c r="XU31" s="86"/>
+      <c r="XV31" s="86"/>
+      <c r="XW31" s="86"/>
+      <c r="XX31" s="86"/>
+      <c r="XY31" s="86"/>
+      <c r="XZ31" s="86"/>
+      <c r="YA31" s="86"/>
+      <c r="YB31" s="86"/>
+      <c r="YC31" s="86"/>
+      <c r="YD31" s="86"/>
+      <c r="YE31" s="86"/>
+      <c r="YF31" s="86"/>
+      <c r="YG31" s="86"/>
+      <c r="YH31" s="86"/>
+      <c r="YI31" s="86"/>
+      <c r="YJ31" s="86"/>
+      <c r="YK31" s="86"/>
+      <c r="YL31" s="86"/>
+      <c r="YM31" s="86"/>
+      <c r="YN31" s="86"/>
+      <c r="YO31" s="86"/>
+      <c r="YP31" s="86"/>
+      <c r="YQ31" s="86"/>
+      <c r="YR31" s="86"/>
+      <c r="YS31" s="86"/>
+      <c r="YT31" s="86"/>
+      <c r="YU31" s="86"/>
+      <c r="YV31" s="86"/>
+      <c r="YW31" s="86"/>
+      <c r="YX31" s="86"/>
+      <c r="YY31" s="86"/>
+      <c r="YZ31" s="86"/>
+      <c r="ZA31" s="86"/>
+      <c r="ZB31" s="86"/>
+      <c r="ZC31" s="86"/>
+      <c r="ZD31" s="86"/>
+      <c r="ZE31" s="86"/>
+      <c r="ZF31" s="86"/>
+      <c r="ZG31" s="86"/>
+      <c r="ZH31" s="86"/>
+      <c r="ZI31" s="86"/>
+      <c r="ZJ31" s="86"/>
+      <c r="ZK31" s="86"/>
+      <c r="ZL31" s="86"/>
+      <c r="ZM31" s="86"/>
+      <c r="ZN31" s="86"/>
+      <c r="ZO31" s="86"/>
+      <c r="ZP31" s="86"/>
+      <c r="ZQ31" s="86"/>
+      <c r="ZR31" s="86"/>
+      <c r="ZS31" s="86"/>
+      <c r="ZT31" s="86"/>
+      <c r="ZU31" s="86"/>
+      <c r="ZV31" s="86"/>
+      <c r="ZW31" s="86"/>
+      <c r="ZX31" s="86"/>
+      <c r="ZY31" s="86"/>
+      <c r="ZZ31" s="86"/>
+      <c r="AAA31" s="86"/>
+      <c r="AAB31" s="86"/>
+      <c r="AAC31" s="86"/>
+      <c r="AAD31" s="86"/>
+      <c r="AAE31" s="86"/>
+      <c r="AAF31" s="86"/>
+      <c r="AAG31" s="86"/>
+      <c r="AAH31" s="86"/>
+      <c r="AAI31" s="86"/>
+      <c r="AAJ31" s="86"/>
+      <c r="AAK31" s="86"/>
+      <c r="AAL31" s="86"/>
+      <c r="AAM31" s="86"/>
+      <c r="AAN31" s="86"/>
+      <c r="AAO31" s="86"/>
+      <c r="AAP31" s="86"/>
+      <c r="AAQ31" s="86"/>
+      <c r="AAR31" s="86"/>
+      <c r="AAS31" s="86"/>
+      <c r="AAT31" s="86"/>
+      <c r="AAU31" s="86"/>
+      <c r="AAV31" s="86"/>
+      <c r="AAW31" s="86"/>
+      <c r="AAX31" s="86"/>
+      <c r="AAY31" s="86"/>
+      <c r="AAZ31" s="86"/>
+      <c r="ABA31" s="86"/>
+      <c r="ABB31" s="86"/>
+      <c r="ABC31" s="86"/>
+      <c r="ABD31" s="86"/>
+      <c r="ABE31" s="86"/>
+      <c r="ABF31" s="86"/>
+      <c r="ABG31" s="86"/>
+      <c r="ABH31" s="86"/>
+      <c r="ABI31" s="86"/>
+      <c r="ABJ31" s="86"/>
+      <c r="ABK31" s="86"/>
+      <c r="ABL31" s="86"/>
+      <c r="ABM31" s="86"/>
+      <c r="ABN31" s="86"/>
+      <c r="ABO31" s="86"/>
+      <c r="ABP31" s="86"/>
+      <c r="ABQ31" s="86"/>
+      <c r="ABR31" s="86"/>
+      <c r="ABS31" s="86"/>
+      <c r="ABT31" s="86"/>
+      <c r="ABU31" s="86"/>
+      <c r="ABV31" s="86"/>
+      <c r="ABW31" s="86"/>
+      <c r="ABX31" s="86"/>
+      <c r="ABY31" s="86"/>
+      <c r="ABZ31" s="86"/>
+      <c r="ACA31" s="86"/>
+      <c r="ACB31" s="86"/>
+      <c r="ACC31" s="86"/>
+      <c r="ACD31" s="86"/>
+      <c r="ACE31" s="86"/>
+      <c r="ACF31" s="86"/>
+      <c r="ACG31" s="86"/>
+      <c r="ACH31" s="86"/>
+      <c r="ACI31" s="86"/>
+      <c r="ACJ31" s="86"/>
+      <c r="ACK31" s="86"/>
+      <c r="ACL31" s="86"/>
+      <c r="ACM31" s="86"/>
+      <c r="ACN31" s="86"/>
+      <c r="ACO31" s="86"/>
+      <c r="ACP31" s="86"/>
+      <c r="ACQ31" s="86"/>
+      <c r="ACR31" s="86"/>
+      <c r="ACS31" s="86"/>
+      <c r="ACT31" s="86"/>
+      <c r="ACU31" s="86"/>
+      <c r="ACV31" s="86"/>
+      <c r="ACW31" s="86"/>
+      <c r="ACX31" s="86"/>
+      <c r="ACY31" s="86"/>
+      <c r="ACZ31" s="86"/>
+      <c r="ADA31" s="86"/>
+      <c r="ADB31" s="86"/>
+      <c r="ADC31" s="86"/>
+      <c r="ADD31" s="86"/>
+      <c r="ADE31" s="86"/>
+      <c r="ADF31" s="86"/>
+      <c r="ADG31" s="86"/>
+      <c r="ADH31" s="86"/>
+      <c r="ADI31" s="86"/>
+      <c r="ADJ31" s="86"/>
+      <c r="ADK31" s="86"/>
+      <c r="ADL31" s="86"/>
+      <c r="ADM31" s="86"/>
+      <c r="ADN31" s="86"/>
+      <c r="ADO31" s="86"/>
+      <c r="ADP31" s="86"/>
+      <c r="ADQ31" s="86"/>
+      <c r="ADR31" s="86"/>
+      <c r="ADS31" s="86"/>
+      <c r="ADT31" s="86"/>
+      <c r="ADU31" s="86"/>
+      <c r="ADV31" s="86"/>
+      <c r="ADW31" s="86"/>
+      <c r="ADX31" s="86"/>
+      <c r="ADY31" s="86"/>
+      <c r="ADZ31" s="86"/>
+      <c r="AEA31" s="86"/>
+      <c r="AEB31" s="86"/>
+      <c r="AEC31" s="86"/>
+      <c r="AED31" s="86"/>
+      <c r="AEE31" s="86"/>
+      <c r="AEF31" s="86"/>
+      <c r="AEG31" s="86"/>
+      <c r="AEH31" s="86"/>
+      <c r="AEI31" s="86"/>
+      <c r="AEJ31" s="86"/>
+      <c r="AEK31" s="86"/>
+      <c r="AEL31" s="86"/>
+      <c r="AEM31" s="86"/>
+      <c r="AEN31" s="86"/>
+      <c r="AEO31" s="86"/>
+      <c r="AEP31" s="86"/>
+      <c r="AEQ31" s="86"/>
+      <c r="AER31" s="86"/>
+      <c r="AES31" s="86"/>
+      <c r="AET31" s="86"/>
+      <c r="AEU31" s="86"/>
+      <c r="AEV31" s="86"/>
+      <c r="AEW31" s="86"/>
+      <c r="AEX31" s="86"/>
+      <c r="AEY31" s="86"/>
+      <c r="AEZ31" s="86"/>
+      <c r="AFA31" s="86"/>
+      <c r="AFB31" s="86"/>
+      <c r="AFC31" s="86"/>
+      <c r="AFD31" s="86"/>
+      <c r="AFE31" s="86"/>
+      <c r="AFF31" s="86"/>
+      <c r="AFG31" s="86"/>
+      <c r="AFH31" s="86"/>
+      <c r="AFI31" s="86"/>
+      <c r="AFJ31" s="86"/>
+      <c r="AFK31" s="86"/>
+      <c r="AFL31" s="86"/>
+      <c r="AFM31" s="86"/>
+      <c r="AFN31" s="86"/>
+      <c r="AFO31" s="86"/>
+      <c r="AFP31" s="86"/>
+      <c r="AFQ31" s="86"/>
+      <c r="AFR31" s="86"/>
+      <c r="AFS31" s="86"/>
+      <c r="AFT31" s="86"/>
+      <c r="AFU31" s="86"/>
+      <c r="AFV31" s="86"/>
+      <c r="AFW31" s="86"/>
+      <c r="AFX31" s="86"/>
+      <c r="AFY31" s="86"/>
+      <c r="AFZ31" s="86"/>
+      <c r="AGA31" s="86"/>
+      <c r="AGB31" s="86"/>
+      <c r="AGC31" s="86"/>
+      <c r="AGD31" s="86"/>
+      <c r="AGE31" s="86"/>
+      <c r="AGF31" s="86"/>
+      <c r="AGG31" s="86"/>
+      <c r="AGH31" s="86"/>
+      <c r="AGI31" s="86"/>
+      <c r="AGJ31" s="86"/>
+      <c r="AGK31" s="86"/>
+      <c r="AGL31" s="86"/>
+      <c r="AGM31" s="86"/>
+      <c r="AGN31" s="86"/>
+      <c r="AGO31" s="86"/>
+      <c r="AGP31" s="86"/>
+      <c r="AGQ31" s="86"/>
+      <c r="AGR31" s="86"/>
+      <c r="AGS31" s="86"/>
+      <c r="AGT31" s="86"/>
+      <c r="AGU31" s="86"/>
+      <c r="AGV31" s="86"/>
+      <c r="AGW31" s="86"/>
+      <c r="AGX31" s="86"/>
+      <c r="AGY31" s="86"/>
+      <c r="AGZ31" s="86"/>
+      <c r="AHA31" s="86"/>
+      <c r="AHB31" s="86"/>
+      <c r="AHC31" s="86"/>
+      <c r="AHD31" s="86"/>
+      <c r="AHE31" s="86"/>
+      <c r="AHF31" s="86"/>
+      <c r="AHG31" s="86"/>
+      <c r="AHH31" s="86"/>
+      <c r="AHI31" s="86"/>
+      <c r="AHJ31" s="86"/>
+      <c r="AHK31" s="86"/>
+      <c r="AHL31" s="86"/>
+      <c r="AHM31" s="86"/>
+      <c r="AHN31" s="86"/>
+      <c r="AHO31" s="86"/>
+      <c r="AHP31" s="86"/>
+      <c r="AHQ31" s="86"/>
+      <c r="AHR31" s="86"/>
+      <c r="AHS31" s="86"/>
+      <c r="AHT31" s="86"/>
+      <c r="AHU31" s="86"/>
+      <c r="AHV31" s="86"/>
+      <c r="AHW31" s="86"/>
+      <c r="AHX31" s="86"/>
+      <c r="AHY31" s="86"/>
+      <c r="AHZ31" s="86"/>
+      <c r="AIA31" s="86"/>
+      <c r="AIB31" s="86"/>
+      <c r="AIC31" s="86"/>
+      <c r="AID31" s="86"/>
+      <c r="AIE31" s="86"/>
+      <c r="AIF31" s="86"/>
+      <c r="AIG31" s="86"/>
+      <c r="AIH31" s="86"/>
+      <c r="AII31" s="86"/>
+      <c r="AIJ31" s="86"/>
+      <c r="AIK31" s="86"/>
+      <c r="AIL31" s="86"/>
+      <c r="AIM31" s="86"/>
+      <c r="AIN31" s="86"/>
+      <c r="AIO31" s="86"/>
+      <c r="AIP31" s="86"/>
+      <c r="AIQ31" s="86"/>
+      <c r="AIR31" s="86"/>
+      <c r="AIS31" s="86"/>
+      <c r="AIT31" s="86"/>
+      <c r="AIU31" s="86"/>
+      <c r="AIV31" s="86"/>
+      <c r="AIW31" s="86"/>
+      <c r="AIX31" s="86"/>
+      <c r="AIY31" s="86"/>
+      <c r="AIZ31" s="86"/>
+      <c r="AJA31" s="86"/>
+      <c r="AJB31" s="86"/>
+      <c r="AJC31" s="86"/>
+      <c r="AJD31" s="86"/>
+      <c r="AJE31" s="86"/>
+      <c r="AJF31" s="86"/>
+      <c r="AJG31" s="86"/>
+      <c r="AJH31" s="86"/>
+      <c r="AJI31" s="86"/>
+      <c r="AJJ31" s="86"/>
+      <c r="AJK31" s="86"/>
+      <c r="AJL31" s="86"/>
+      <c r="AJM31" s="86"/>
+      <c r="AJN31" s="86"/>
+      <c r="AJO31" s="86"/>
+      <c r="AJP31" s="86"/>
+      <c r="AJQ31" s="86"/>
+      <c r="AJR31" s="86"/>
+      <c r="AJS31" s="86"/>
+      <c r="AJT31" s="86"/>
+      <c r="AJU31" s="86"/>
+      <c r="AJV31" s="86"/>
+      <c r="AJW31" s="86"/>
+      <c r="AJX31" s="86"/>
+      <c r="AJY31" s="86"/>
+      <c r="AJZ31" s="86"/>
+      <c r="AKA31" s="86"/>
+      <c r="AKB31" s="86"/>
+      <c r="AKC31" s="86"/>
+      <c r="AKD31" s="86"/>
+      <c r="AKE31" s="86"/>
+      <c r="AKF31" s="86"/>
+      <c r="AKG31" s="86"/>
+      <c r="AKH31" s="86"/>
+      <c r="AKI31" s="86"/>
+      <c r="AKJ31" s="86"/>
+      <c r="AKK31" s="86"/>
+      <c r="AKL31" s="86"/>
+      <c r="AKM31" s="86"/>
+      <c r="AKN31" s="86"/>
+      <c r="AKO31" s="86"/>
+      <c r="AKP31" s="86"/>
+      <c r="AKQ31" s="86"/>
+      <c r="AKR31" s="86"/>
+      <c r="AKS31" s="86"/>
+      <c r="AKT31" s="86"/>
+      <c r="AKU31" s="86"/>
+      <c r="AKV31" s="86"/>
+      <c r="AKW31" s="86"/>
+      <c r="AKX31" s="86"/>
+      <c r="AKY31" s="86"/>
+      <c r="AKZ31" s="86"/>
+      <c r="ALA31" s="86"/>
+      <c r="ALB31" s="86"/>
+      <c r="ALC31" s="86"/>
+      <c r="ALD31" s="86"/>
+      <c r="ALE31" s="86"/>
+      <c r="ALF31" s="86"/>
+      <c r="ALG31" s="86"/>
+      <c r="ALH31" s="86"/>
+      <c r="ALI31" s="86"/>
+      <c r="ALJ31" s="86"/>
+      <c r="ALK31" s="86"/>
+      <c r="ALL31" s="86"/>
+      <c r="ALM31" s="86"/>
+      <c r="ALN31" s="86"/>
+      <c r="ALO31" s="86"/>
+      <c r="ALP31" s="86"/>
+      <c r="ALQ31" s="86"/>
+      <c r="ALR31" s="86"/>
+      <c r="ALS31" s="86"/>
+      <c r="ALT31" s="86"/>
+      <c r="ALU31" s="86"/>
+      <c r="ALV31" s="86"/>
+      <c r="ALW31" s="86"/>
+      <c r="ALX31" s="86"/>
+      <c r="ALY31" s="86"/>
+      <c r="ALZ31" s="86"/>
+      <c r="AMA31" s="86"/>
+      <c r="AMB31" s="86"/>
+      <c r="AMC31" s="86"/>
+      <c r="AMD31" s="86"/>
+      <c r="AME31" s="86"/>
+      <c r="AMF31" s="86"/>
+      <c r="AMG31" s="86"/>
+      <c r="AMH31" s="86"/>
+      <c r="AMI31" s="86"/>
+      <c r="AMJ31" s="86"/>
+      <c r="AMK31" s="86"/>
     </row>
-    <row r="32" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="73"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="27">
-        <v>0</v>
-      </c>
-      <c r="E32" s="27">
-        <v>0</v>
-      </c>
-      <c r="F32" s="27">
-        <v>0</v>
-      </c>
-      <c r="G32" s="27">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16">
-        <f>VLOOKUP(I32,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="18">
-        <v>12</v>
-      </c>
-      <c r="K32" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="76"/>
-      <c r="Z32" s="76"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="74">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="AC32" s="35"/>
+    <row r="32" spans="2:1025" s="108" customFormat="1" ht="35" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="118"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="133"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="86"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="86"/>
+      <c r="AK32" s="86"/>
+      <c r="AL32" s="86"/>
+      <c r="AM32" s="86"/>
+      <c r="AN32" s="86"/>
+      <c r="AO32" s="86"/>
+      <c r="AP32" s="86"/>
+      <c r="AQ32" s="86"/>
+      <c r="AR32" s="86"/>
+      <c r="AS32" s="86"/>
+      <c r="AT32" s="86"/>
+      <c r="AU32" s="86"/>
+      <c r="AV32" s="86"/>
+      <c r="AW32" s="86"/>
+      <c r="AX32" s="86"/>
+      <c r="AY32" s="86"/>
+      <c r="AZ32" s="86"/>
+      <c r="BA32" s="86"/>
+      <c r="BB32" s="86"/>
+      <c r="BC32" s="86"/>
+      <c r="BD32" s="86"/>
+      <c r="BE32" s="86"/>
+      <c r="BF32" s="86"/>
+      <c r="BG32" s="86"/>
+      <c r="BH32" s="86"/>
+      <c r="BI32" s="86"/>
+      <c r="BJ32" s="86"/>
+      <c r="BK32" s="86"/>
+      <c r="BL32" s="86"/>
+      <c r="BM32" s="86"/>
+      <c r="BN32" s="86"/>
+      <c r="BO32" s="86"/>
+      <c r="BP32" s="86"/>
+      <c r="BQ32" s="86"/>
+      <c r="BR32" s="86"/>
+      <c r="BS32" s="86"/>
+      <c r="BT32" s="86"/>
+      <c r="BU32" s="86"/>
+      <c r="BV32" s="86"/>
+      <c r="BW32" s="86"/>
+      <c r="BX32" s="86"/>
+      <c r="BY32" s="86"/>
+      <c r="BZ32" s="86"/>
+      <c r="CA32" s="86"/>
+      <c r="CB32" s="86"/>
+      <c r="CC32" s="86"/>
+      <c r="CD32" s="86"/>
+      <c r="CE32" s="86"/>
+      <c r="CF32" s="86"/>
+      <c r="CG32" s="86"/>
+      <c r="CH32" s="86"/>
+      <c r="CI32" s="86"/>
+      <c r="CJ32" s="86"/>
+      <c r="CK32" s="86"/>
+      <c r="CL32" s="86"/>
+      <c r="CM32" s="86"/>
+      <c r="CN32" s="86"/>
+      <c r="CO32" s="86"/>
+      <c r="CP32" s="86"/>
+      <c r="CQ32" s="86"/>
+      <c r="CR32" s="86"/>
+      <c r="CS32" s="86"/>
+      <c r="CT32" s="86"/>
+      <c r="CU32" s="86"/>
+      <c r="CV32" s="86"/>
+      <c r="CW32" s="86"/>
+      <c r="CX32" s="86"/>
+      <c r="CY32" s="86"/>
+      <c r="CZ32" s="86"/>
+      <c r="DA32" s="86"/>
+      <c r="DB32" s="86"/>
+      <c r="DC32" s="86"/>
+      <c r="DD32" s="86"/>
+      <c r="DE32" s="86"/>
+      <c r="DF32" s="86"/>
+      <c r="DG32" s="86"/>
+      <c r="DH32" s="86"/>
+      <c r="DI32" s="86"/>
+      <c r="DJ32" s="86"/>
+      <c r="DK32" s="86"/>
+      <c r="DL32" s="86"/>
+      <c r="DM32" s="86"/>
+      <c r="DN32" s="86"/>
+      <c r="DO32" s="86"/>
+      <c r="DP32" s="86"/>
+      <c r="DQ32" s="86"/>
+      <c r="DR32" s="86"/>
+      <c r="DS32" s="86"/>
+      <c r="DT32" s="86"/>
+      <c r="DU32" s="86"/>
+      <c r="DV32" s="86"/>
+      <c r="DW32" s="86"/>
+      <c r="DX32" s="86"/>
+      <c r="DY32" s="86"/>
+      <c r="DZ32" s="86"/>
+      <c r="EA32" s="86"/>
+      <c r="EB32" s="86"/>
+      <c r="EC32" s="86"/>
+      <c r="ED32" s="86"/>
+      <c r="EE32" s="86"/>
+      <c r="EF32" s="86"/>
+      <c r="EG32" s="86"/>
+      <c r="EH32" s="86"/>
+      <c r="EI32" s="86"/>
+      <c r="EJ32" s="86"/>
+      <c r="EK32" s="86"/>
+      <c r="EL32" s="86"/>
+      <c r="EM32" s="86"/>
+      <c r="EN32" s="86"/>
+      <c r="EO32" s="86"/>
+      <c r="EP32" s="86"/>
+      <c r="EQ32" s="86"/>
+      <c r="ER32" s="86"/>
+      <c r="ES32" s="86"/>
+      <c r="ET32" s="86"/>
+      <c r="EU32" s="86"/>
+      <c r="EV32" s="86"/>
+      <c r="EW32" s="86"/>
+      <c r="EX32" s="86"/>
+      <c r="EY32" s="86"/>
+      <c r="EZ32" s="86"/>
+      <c r="FA32" s="86"/>
+      <c r="FB32" s="86"/>
+      <c r="FC32" s="86"/>
+      <c r="FD32" s="86"/>
+      <c r="FE32" s="86"/>
+      <c r="FF32" s="86"/>
+      <c r="FG32" s="86"/>
+      <c r="FH32" s="86"/>
+      <c r="FI32" s="86"/>
+      <c r="FJ32" s="86"/>
+      <c r="FK32" s="86"/>
+      <c r="FL32" s="86"/>
+      <c r="FM32" s="86"/>
+      <c r="FN32" s="86"/>
+      <c r="FO32" s="86"/>
+      <c r="FP32" s="86"/>
+      <c r="FQ32" s="86"/>
+      <c r="FR32" s="86"/>
+      <c r="FS32" s="86"/>
+      <c r="FT32" s="86"/>
+      <c r="FU32" s="86"/>
+      <c r="FV32" s="86"/>
+      <c r="FW32" s="86"/>
+      <c r="FX32" s="86"/>
+      <c r="FY32" s="86"/>
+      <c r="FZ32" s="86"/>
+      <c r="GA32" s="86"/>
+      <c r="GB32" s="86"/>
+      <c r="GC32" s="86"/>
+      <c r="GD32" s="86"/>
+      <c r="GE32" s="86"/>
+      <c r="GF32" s="86"/>
+      <c r="GG32" s="86"/>
+      <c r="GH32" s="86"/>
+      <c r="GI32" s="86"/>
+      <c r="GJ32" s="86"/>
+      <c r="GK32" s="86"/>
+      <c r="GL32" s="86"/>
+      <c r="GM32" s="86"/>
+      <c r="GN32" s="86"/>
+      <c r="GO32" s="86"/>
+      <c r="GP32" s="86"/>
+      <c r="GQ32" s="86"/>
+      <c r="GR32" s="86"/>
+      <c r="GS32" s="86"/>
+      <c r="GT32" s="86"/>
+      <c r="GU32" s="86"/>
+      <c r="GV32" s="86"/>
+      <c r="GW32" s="86"/>
+      <c r="GX32" s="86"/>
+      <c r="GY32" s="86"/>
+      <c r="GZ32" s="86"/>
+      <c r="HA32" s="86"/>
+      <c r="HB32" s="86"/>
+      <c r="HC32" s="86"/>
+      <c r="HD32" s="86"/>
+      <c r="HE32" s="86"/>
+      <c r="HF32" s="86"/>
+      <c r="HG32" s="86"/>
+      <c r="HH32" s="86"/>
+      <c r="HI32" s="86"/>
+      <c r="HJ32" s="86"/>
+      <c r="HK32" s="86"/>
+      <c r="HL32" s="86"/>
+      <c r="HM32" s="86"/>
+      <c r="HN32" s="86"/>
+      <c r="HO32" s="86"/>
+      <c r="HP32" s="86"/>
+      <c r="HQ32" s="86"/>
+      <c r="HR32" s="86"/>
+      <c r="HS32" s="86"/>
+      <c r="HT32" s="86"/>
+      <c r="HU32" s="86"/>
+      <c r="HV32" s="86"/>
+      <c r="HW32" s="86"/>
+      <c r="HX32" s="86"/>
+      <c r="HY32" s="86"/>
+      <c r="HZ32" s="86"/>
+      <c r="IA32" s="86"/>
+      <c r="IB32" s="86"/>
+      <c r="IC32" s="86"/>
+      <c r="ID32" s="86"/>
+      <c r="IE32" s="86"/>
+      <c r="IF32" s="86"/>
+      <c r="IG32" s="86"/>
+      <c r="IH32" s="86"/>
+      <c r="II32" s="86"/>
+      <c r="IJ32" s="86"/>
+      <c r="IK32" s="86"/>
+      <c r="IL32" s="86"/>
+      <c r="IM32" s="86"/>
+      <c r="IN32" s="86"/>
+      <c r="IO32" s="86"/>
+      <c r="IP32" s="86"/>
+      <c r="IQ32" s="86"/>
+      <c r="IR32" s="86"/>
+      <c r="IS32" s="86"/>
+      <c r="IT32" s="86"/>
+      <c r="IU32" s="86"/>
+      <c r="IV32" s="86"/>
+      <c r="IW32" s="86"/>
+      <c r="IX32" s="86"/>
+      <c r="IY32" s="86"/>
+      <c r="IZ32" s="86"/>
+      <c r="JA32" s="86"/>
+      <c r="JB32" s="86"/>
+      <c r="JC32" s="86"/>
+      <c r="JD32" s="86"/>
+      <c r="JE32" s="86"/>
+      <c r="JF32" s="86"/>
+      <c r="JG32" s="86"/>
+      <c r="JH32" s="86"/>
+      <c r="JI32" s="86"/>
+      <c r="JJ32" s="86"/>
+      <c r="JK32" s="86"/>
+      <c r="JL32" s="86"/>
+      <c r="JM32" s="86"/>
+      <c r="JN32" s="86"/>
+      <c r="JO32" s="86"/>
+      <c r="JP32" s="86"/>
+      <c r="JQ32" s="86"/>
+      <c r="JR32" s="86"/>
+      <c r="JS32" s="86"/>
+      <c r="JT32" s="86"/>
+      <c r="JU32" s="86"/>
+      <c r="JV32" s="86"/>
+      <c r="JW32" s="86"/>
+      <c r="JX32" s="86"/>
+      <c r="JY32" s="86"/>
+      <c r="JZ32" s="86"/>
+      <c r="KA32" s="86"/>
+      <c r="KB32" s="86"/>
+      <c r="KC32" s="86"/>
+      <c r="KD32" s="86"/>
+      <c r="KE32" s="86"/>
+      <c r="KF32" s="86"/>
+      <c r="KG32" s="86"/>
+      <c r="KH32" s="86"/>
+      <c r="KI32" s="86"/>
+      <c r="KJ32" s="86"/>
+      <c r="KK32" s="86"/>
+      <c r="KL32" s="86"/>
+      <c r="KM32" s="86"/>
+      <c r="KN32" s="86"/>
+      <c r="KO32" s="86"/>
+      <c r="KP32" s="86"/>
+      <c r="KQ32" s="86"/>
+      <c r="KR32" s="86"/>
+      <c r="KS32" s="86"/>
+      <c r="KT32" s="86"/>
+      <c r="KU32" s="86"/>
+      <c r="KV32" s="86"/>
+      <c r="KW32" s="86"/>
+      <c r="KX32" s="86"/>
+      <c r="KY32" s="86"/>
+      <c r="KZ32" s="86"/>
+      <c r="LA32" s="86"/>
+      <c r="LB32" s="86"/>
+      <c r="LC32" s="86"/>
+      <c r="LD32" s="86"/>
+      <c r="LE32" s="86"/>
+      <c r="LF32" s="86"/>
+      <c r="LG32" s="86"/>
+      <c r="LH32" s="86"/>
+      <c r="LI32" s="86"/>
+      <c r="LJ32" s="86"/>
+      <c r="LK32" s="86"/>
+      <c r="LL32" s="86"/>
+      <c r="LM32" s="86"/>
+      <c r="LN32" s="86"/>
+      <c r="LO32" s="86"/>
+      <c r="LP32" s="86"/>
+      <c r="LQ32" s="86"/>
+      <c r="LR32" s="86"/>
+      <c r="LS32" s="86"/>
+      <c r="LT32" s="86"/>
+      <c r="LU32" s="86"/>
+      <c r="LV32" s="86"/>
+      <c r="LW32" s="86"/>
+      <c r="LX32" s="86"/>
+      <c r="LY32" s="86"/>
+      <c r="LZ32" s="86"/>
+      <c r="MA32" s="86"/>
+      <c r="MB32" s="86"/>
+      <c r="MC32" s="86"/>
+      <c r="MD32" s="86"/>
+      <c r="ME32" s="86"/>
+      <c r="MF32" s="86"/>
+      <c r="MG32" s="86"/>
+      <c r="MH32" s="86"/>
+      <c r="MI32" s="86"/>
+      <c r="MJ32" s="86"/>
+      <c r="MK32" s="86"/>
+      <c r="ML32" s="86"/>
+      <c r="MM32" s="86"/>
+      <c r="MN32" s="86"/>
+      <c r="MO32" s="86"/>
+      <c r="MP32" s="86"/>
+      <c r="MQ32" s="86"/>
+      <c r="MR32" s="86"/>
+      <c r="MS32" s="86"/>
+      <c r="MT32" s="86"/>
+      <c r="MU32" s="86"/>
+      <c r="MV32" s="86"/>
+      <c r="MW32" s="86"/>
+      <c r="MX32" s="86"/>
+      <c r="MY32" s="86"/>
+      <c r="MZ32" s="86"/>
+      <c r="NA32" s="86"/>
+      <c r="NB32" s="86"/>
+      <c r="NC32" s="86"/>
+      <c r="ND32" s="86"/>
+      <c r="NE32" s="86"/>
+      <c r="NF32" s="86"/>
+      <c r="NG32" s="86"/>
+      <c r="NH32" s="86"/>
+      <c r="NI32" s="86"/>
+      <c r="NJ32" s="86"/>
+      <c r="NK32" s="86"/>
+      <c r="NL32" s="86"/>
+      <c r="NM32" s="86"/>
+      <c r="NN32" s="86"/>
+      <c r="NO32" s="86"/>
+      <c r="NP32" s="86"/>
+      <c r="NQ32" s="86"/>
+      <c r="NR32" s="86"/>
+      <c r="NS32" s="86"/>
+      <c r="NT32" s="86"/>
+      <c r="NU32" s="86"/>
+      <c r="NV32" s="86"/>
+      <c r="NW32" s="86"/>
+      <c r="NX32" s="86"/>
+      <c r="NY32" s="86"/>
+      <c r="NZ32" s="86"/>
+      <c r="OA32" s="86"/>
+      <c r="OB32" s="86"/>
+      <c r="OC32" s="86"/>
+      <c r="OD32" s="86"/>
+      <c r="OE32" s="86"/>
+      <c r="OF32" s="86"/>
+      <c r="OG32" s="86"/>
+      <c r="OH32" s="86"/>
+      <c r="OI32" s="86"/>
+      <c r="OJ32" s="86"/>
+      <c r="OK32" s="86"/>
+      <c r="OL32" s="86"/>
+      <c r="OM32" s="86"/>
+      <c r="ON32" s="86"/>
+      <c r="OO32" s="86"/>
+      <c r="OP32" s="86"/>
+      <c r="OQ32" s="86"/>
+      <c r="OR32" s="86"/>
+      <c r="OS32" s="86"/>
+      <c r="OT32" s="86"/>
+      <c r="OU32" s="86"/>
+      <c r="OV32" s="86"/>
+      <c r="OW32" s="86"/>
+      <c r="OX32" s="86"/>
+      <c r="OY32" s="86"/>
+      <c r="OZ32" s="86"/>
+      <c r="PA32" s="86"/>
+      <c r="PB32" s="86"/>
+      <c r="PC32" s="86"/>
+      <c r="PD32" s="86"/>
+      <c r="PE32" s="86"/>
+      <c r="PF32" s="86"/>
+      <c r="PG32" s="86"/>
+      <c r="PH32" s="86"/>
+      <c r="PI32" s="86"/>
+      <c r="PJ32" s="86"/>
+      <c r="PK32" s="86"/>
+      <c r="PL32" s="86"/>
+      <c r="PM32" s="86"/>
+      <c r="PN32" s="86"/>
+      <c r="PO32" s="86"/>
+      <c r="PP32" s="86"/>
+      <c r="PQ32" s="86"/>
+      <c r="PR32" s="86"/>
+      <c r="PS32" s="86"/>
+      <c r="PT32" s="86"/>
+      <c r="PU32" s="86"/>
+      <c r="PV32" s="86"/>
+      <c r="PW32" s="86"/>
+      <c r="PX32" s="86"/>
+      <c r="PY32" s="86"/>
+      <c r="PZ32" s="86"/>
+      <c r="QA32" s="86"/>
+      <c r="QB32" s="86"/>
+      <c r="QC32" s="86"/>
+      <c r="QD32" s="86"/>
+      <c r="QE32" s="86"/>
+      <c r="QF32" s="86"/>
+      <c r="QG32" s="86"/>
+      <c r="QH32" s="86"/>
+      <c r="QI32" s="86"/>
+      <c r="QJ32" s="86"/>
+      <c r="QK32" s="86"/>
+      <c r="QL32" s="86"/>
+      <c r="QM32" s="86"/>
+      <c r="QN32" s="86"/>
+      <c r="QO32" s="86"/>
+      <c r="QP32" s="86"/>
+      <c r="QQ32" s="86"/>
+      <c r="QR32" s="86"/>
+      <c r="QS32" s="86"/>
+      <c r="QT32" s="86"/>
+      <c r="QU32" s="86"/>
+      <c r="QV32" s="86"/>
+      <c r="QW32" s="86"/>
+      <c r="QX32" s="86"/>
+      <c r="QY32" s="86"/>
+      <c r="QZ32" s="86"/>
+      <c r="RA32" s="86"/>
+      <c r="RB32" s="86"/>
+      <c r="RC32" s="86"/>
+      <c r="RD32" s="86"/>
+      <c r="RE32" s="86"/>
+      <c r="RF32" s="86"/>
+      <c r="RG32" s="86"/>
+      <c r="RH32" s="86"/>
+      <c r="RI32" s="86"/>
+      <c r="RJ32" s="86"/>
+      <c r="RK32" s="86"/>
+      <c r="RL32" s="86"/>
+      <c r="RM32" s="86"/>
+      <c r="RN32" s="86"/>
+      <c r="RO32" s="86"/>
+      <c r="RP32" s="86"/>
+      <c r="RQ32" s="86"/>
+      <c r="RR32" s="86"/>
+      <c r="RS32" s="86"/>
+      <c r="RT32" s="86"/>
+      <c r="RU32" s="86"/>
+      <c r="RV32" s="86"/>
+      <c r="RW32" s="86"/>
+      <c r="RX32" s="86"/>
+      <c r="RY32" s="86"/>
+      <c r="RZ32" s="86"/>
+      <c r="SA32" s="86"/>
+      <c r="SB32" s="86"/>
+      <c r="SC32" s="86"/>
+      <c r="SD32" s="86"/>
+      <c r="SE32" s="86"/>
+      <c r="SF32" s="86"/>
+      <c r="SG32" s="86"/>
+      <c r="SH32" s="86"/>
+      <c r="SI32" s="86"/>
+      <c r="SJ32" s="86"/>
+      <c r="SK32" s="86"/>
+      <c r="SL32" s="86"/>
+      <c r="SM32" s="86"/>
+      <c r="SN32" s="86"/>
+      <c r="SO32" s="86"/>
+      <c r="SP32" s="86"/>
+      <c r="SQ32" s="86"/>
+      <c r="SR32" s="86"/>
+      <c r="SS32" s="86"/>
+      <c r="ST32" s="86"/>
+      <c r="SU32" s="86"/>
+      <c r="SV32" s="86"/>
+      <c r="SW32" s="86"/>
+      <c r="SX32" s="86"/>
+      <c r="SY32" s="86"/>
+      <c r="SZ32" s="86"/>
+      <c r="TA32" s="86"/>
+      <c r="TB32" s="86"/>
+      <c r="TC32" s="86"/>
+      <c r="TD32" s="86"/>
+      <c r="TE32" s="86"/>
+      <c r="TF32" s="86"/>
+      <c r="TG32" s="86"/>
+      <c r="TH32" s="86"/>
+      <c r="TI32" s="86"/>
+      <c r="TJ32" s="86"/>
+      <c r="TK32" s="86"/>
+      <c r="TL32" s="86"/>
+      <c r="TM32" s="86"/>
+      <c r="TN32" s="86"/>
+      <c r="TO32" s="86"/>
+      <c r="TP32" s="86"/>
+      <c r="TQ32" s="86"/>
+      <c r="TR32" s="86"/>
+      <c r="TS32" s="86"/>
+      <c r="TT32" s="86"/>
+      <c r="TU32" s="86"/>
+      <c r="TV32" s="86"/>
+      <c r="TW32" s="86"/>
+      <c r="TX32" s="86"/>
+      <c r="TY32" s="86"/>
+      <c r="TZ32" s="86"/>
+      <c r="UA32" s="86"/>
+      <c r="UB32" s="86"/>
+      <c r="UC32" s="86"/>
+      <c r="UD32" s="86"/>
+      <c r="UE32" s="86"/>
+      <c r="UF32" s="86"/>
+      <c r="UG32" s="86"/>
+      <c r="UH32" s="86"/>
+      <c r="UI32" s="86"/>
+      <c r="UJ32" s="86"/>
+      <c r="UK32" s="86"/>
+      <c r="UL32" s="86"/>
+      <c r="UM32" s="86"/>
+      <c r="UN32" s="86"/>
+      <c r="UO32" s="86"/>
+      <c r="UP32" s="86"/>
+      <c r="UQ32" s="86"/>
+      <c r="UR32" s="86"/>
+      <c r="US32" s="86"/>
+      <c r="UT32" s="86"/>
+      <c r="UU32" s="86"/>
+      <c r="UV32" s="86"/>
+      <c r="UW32" s="86"/>
+      <c r="UX32" s="86"/>
+      <c r="UY32" s="86"/>
+      <c r="UZ32" s="86"/>
+      <c r="VA32" s="86"/>
+      <c r="VB32" s="86"/>
+      <c r="VC32" s="86"/>
+      <c r="VD32" s="86"/>
+      <c r="VE32" s="86"/>
+      <c r="VF32" s="86"/>
+      <c r="VG32" s="86"/>
+      <c r="VH32" s="86"/>
+      <c r="VI32" s="86"/>
+      <c r="VJ32" s="86"/>
+      <c r="VK32" s="86"/>
+      <c r="VL32" s="86"/>
+      <c r="VM32" s="86"/>
+      <c r="VN32" s="86"/>
+      <c r="VO32" s="86"/>
+      <c r="VP32" s="86"/>
+      <c r="VQ32" s="86"/>
+      <c r="VR32" s="86"/>
+      <c r="VS32" s="86"/>
+      <c r="VT32" s="86"/>
+      <c r="VU32" s="86"/>
+      <c r="VV32" s="86"/>
+      <c r="VW32" s="86"/>
+      <c r="VX32" s="86"/>
+      <c r="VY32" s="86"/>
+      <c r="VZ32" s="86"/>
+      <c r="WA32" s="86"/>
+      <c r="WB32" s="86"/>
+      <c r="WC32" s="86"/>
+      <c r="WD32" s="86"/>
+      <c r="WE32" s="86"/>
+      <c r="WF32" s="86"/>
+      <c r="WG32" s="86"/>
+      <c r="WH32" s="86"/>
+      <c r="WI32" s="86"/>
+      <c r="WJ32" s="86"/>
+      <c r="WK32" s="86"/>
+      <c r="WL32" s="86"/>
+      <c r="WM32" s="86"/>
+      <c r="WN32" s="86"/>
+      <c r="WO32" s="86"/>
+      <c r="WP32" s="86"/>
+      <c r="WQ32" s="86"/>
+      <c r="WR32" s="86"/>
+      <c r="WS32" s="86"/>
+      <c r="WT32" s="86"/>
+      <c r="WU32" s="86"/>
+      <c r="WV32" s="86"/>
+      <c r="WW32" s="86"/>
+      <c r="WX32" s="86"/>
+      <c r="WY32" s="86"/>
+      <c r="WZ32" s="86"/>
+      <c r="XA32" s="86"/>
+      <c r="XB32" s="86"/>
+      <c r="XC32" s="86"/>
+      <c r="XD32" s="86"/>
+      <c r="XE32" s="86"/>
+      <c r="XF32" s="86"/>
+      <c r="XG32" s="86"/>
+      <c r="XH32" s="86"/>
+      <c r="XI32" s="86"/>
+      <c r="XJ32" s="86"/>
+      <c r="XK32" s="86"/>
+      <c r="XL32" s="86"/>
+      <c r="XM32" s="86"/>
+      <c r="XN32" s="86"/>
+      <c r="XO32" s="86"/>
+      <c r="XP32" s="86"/>
+      <c r="XQ32" s="86"/>
+      <c r="XR32" s="86"/>
+      <c r="XS32" s="86"/>
+      <c r="XT32" s="86"/>
+      <c r="XU32" s="86"/>
+      <c r="XV32" s="86"/>
+      <c r="XW32" s="86"/>
+      <c r="XX32" s="86"/>
+      <c r="XY32" s="86"/>
+      <c r="XZ32" s="86"/>
+      <c r="YA32" s="86"/>
+      <c r="YB32" s="86"/>
+      <c r="YC32" s="86"/>
+      <c r="YD32" s="86"/>
+      <c r="YE32" s="86"/>
+      <c r="YF32" s="86"/>
+      <c r="YG32" s="86"/>
+      <c r="YH32" s="86"/>
+      <c r="YI32" s="86"/>
+      <c r="YJ32" s="86"/>
+      <c r="YK32" s="86"/>
+      <c r="YL32" s="86"/>
+      <c r="YM32" s="86"/>
+      <c r="YN32" s="86"/>
+      <c r="YO32" s="86"/>
+      <c r="YP32" s="86"/>
+      <c r="YQ32" s="86"/>
+      <c r="YR32" s="86"/>
+      <c r="YS32" s="86"/>
+      <c r="YT32" s="86"/>
+      <c r="YU32" s="86"/>
+      <c r="YV32" s="86"/>
+      <c r="YW32" s="86"/>
+      <c r="YX32" s="86"/>
+      <c r="YY32" s="86"/>
+      <c r="YZ32" s="86"/>
+      <c r="ZA32" s="86"/>
+      <c r="ZB32" s="86"/>
+      <c r="ZC32" s="86"/>
+      <c r="ZD32" s="86"/>
+      <c r="ZE32" s="86"/>
+      <c r="ZF32" s="86"/>
+      <c r="ZG32" s="86"/>
+      <c r="ZH32" s="86"/>
+      <c r="ZI32" s="86"/>
+      <c r="ZJ32" s="86"/>
+      <c r="ZK32" s="86"/>
+      <c r="ZL32" s="86"/>
+      <c r="ZM32" s="86"/>
+      <c r="ZN32" s="86"/>
+      <c r="ZO32" s="86"/>
+      <c r="ZP32" s="86"/>
+      <c r="ZQ32" s="86"/>
+      <c r="ZR32" s="86"/>
+      <c r="ZS32" s="86"/>
+      <c r="ZT32" s="86"/>
+      <c r="ZU32" s="86"/>
+      <c r="ZV32" s="86"/>
+      <c r="ZW32" s="86"/>
+      <c r="ZX32" s="86"/>
+      <c r="ZY32" s="86"/>
+      <c r="ZZ32" s="86"/>
+      <c r="AAA32" s="86"/>
+      <c r="AAB32" s="86"/>
+      <c r="AAC32" s="86"/>
+      <c r="AAD32" s="86"/>
+      <c r="AAE32" s="86"/>
+      <c r="AAF32" s="86"/>
+      <c r="AAG32" s="86"/>
+      <c r="AAH32" s="86"/>
+      <c r="AAI32" s="86"/>
+      <c r="AAJ32" s="86"/>
+      <c r="AAK32" s="86"/>
+      <c r="AAL32" s="86"/>
+      <c r="AAM32" s="86"/>
+      <c r="AAN32" s="86"/>
+      <c r="AAO32" s="86"/>
+      <c r="AAP32" s="86"/>
+      <c r="AAQ32" s="86"/>
+      <c r="AAR32" s="86"/>
+      <c r="AAS32" s="86"/>
+      <c r="AAT32" s="86"/>
+      <c r="AAU32" s="86"/>
+      <c r="AAV32" s="86"/>
+      <c r="AAW32" s="86"/>
+      <c r="AAX32" s="86"/>
+      <c r="AAY32" s="86"/>
+      <c r="AAZ32" s="86"/>
+      <c r="ABA32" s="86"/>
+      <c r="ABB32" s="86"/>
+      <c r="ABC32" s="86"/>
+      <c r="ABD32" s="86"/>
+      <c r="ABE32" s="86"/>
+      <c r="ABF32" s="86"/>
+      <c r="ABG32" s="86"/>
+      <c r="ABH32" s="86"/>
+      <c r="ABI32" s="86"/>
+      <c r="ABJ32" s="86"/>
+      <c r="ABK32" s="86"/>
+      <c r="ABL32" s="86"/>
+      <c r="ABM32" s="86"/>
+      <c r="ABN32" s="86"/>
+      <c r="ABO32" s="86"/>
+      <c r="ABP32" s="86"/>
+      <c r="ABQ32" s="86"/>
+      <c r="ABR32" s="86"/>
+      <c r="ABS32" s="86"/>
+      <c r="ABT32" s="86"/>
+      <c r="ABU32" s="86"/>
+      <c r="ABV32" s="86"/>
+      <c r="ABW32" s="86"/>
+      <c r="ABX32" s="86"/>
+      <c r="ABY32" s="86"/>
+      <c r="ABZ32" s="86"/>
+      <c r="ACA32" s="86"/>
+      <c r="ACB32" s="86"/>
+      <c r="ACC32" s="86"/>
+      <c r="ACD32" s="86"/>
+      <c r="ACE32" s="86"/>
+      <c r="ACF32" s="86"/>
+      <c r="ACG32" s="86"/>
+      <c r="ACH32" s="86"/>
+      <c r="ACI32" s="86"/>
+      <c r="ACJ32" s="86"/>
+      <c r="ACK32" s="86"/>
+      <c r="ACL32" s="86"/>
+      <c r="ACM32" s="86"/>
+      <c r="ACN32" s="86"/>
+      <c r="ACO32" s="86"/>
+      <c r="ACP32" s="86"/>
+      <c r="ACQ32" s="86"/>
+      <c r="ACR32" s="86"/>
+      <c r="ACS32" s="86"/>
+      <c r="ACT32" s="86"/>
+      <c r="ACU32" s="86"/>
+      <c r="ACV32" s="86"/>
+      <c r="ACW32" s="86"/>
+      <c r="ACX32" s="86"/>
+      <c r="ACY32" s="86"/>
+      <c r="ACZ32" s="86"/>
+      <c r="ADA32" s="86"/>
+      <c r="ADB32" s="86"/>
+      <c r="ADC32" s="86"/>
+      <c r="ADD32" s="86"/>
+      <c r="ADE32" s="86"/>
+      <c r="ADF32" s="86"/>
+      <c r="ADG32" s="86"/>
+      <c r="ADH32" s="86"/>
+      <c r="ADI32" s="86"/>
+      <c r="ADJ32" s="86"/>
+      <c r="ADK32" s="86"/>
+      <c r="ADL32" s="86"/>
+      <c r="ADM32" s="86"/>
+      <c r="ADN32" s="86"/>
+      <c r="ADO32" s="86"/>
+      <c r="ADP32" s="86"/>
+      <c r="ADQ32" s="86"/>
+      <c r="ADR32" s="86"/>
+      <c r="ADS32" s="86"/>
+      <c r="ADT32" s="86"/>
+      <c r="ADU32" s="86"/>
+      <c r="ADV32" s="86"/>
+      <c r="ADW32" s="86"/>
+      <c r="ADX32" s="86"/>
+      <c r="ADY32" s="86"/>
+      <c r="ADZ32" s="86"/>
+      <c r="AEA32" s="86"/>
+      <c r="AEB32" s="86"/>
+      <c r="AEC32" s="86"/>
+      <c r="AED32" s="86"/>
+      <c r="AEE32" s="86"/>
+      <c r="AEF32" s="86"/>
+      <c r="AEG32" s="86"/>
+      <c r="AEH32" s="86"/>
+      <c r="AEI32" s="86"/>
+      <c r="AEJ32" s="86"/>
+      <c r="AEK32" s="86"/>
+      <c r="AEL32" s="86"/>
+      <c r="AEM32" s="86"/>
+      <c r="AEN32" s="86"/>
+      <c r="AEO32" s="86"/>
+      <c r="AEP32" s="86"/>
+      <c r="AEQ32" s="86"/>
+      <c r="AER32" s="86"/>
+      <c r="AES32" s="86"/>
+      <c r="AET32" s="86"/>
+      <c r="AEU32" s="86"/>
+      <c r="AEV32" s="86"/>
+      <c r="AEW32" s="86"/>
+      <c r="AEX32" s="86"/>
+      <c r="AEY32" s="86"/>
+      <c r="AEZ32" s="86"/>
+      <c r="AFA32" s="86"/>
+      <c r="AFB32" s="86"/>
+      <c r="AFC32" s="86"/>
+      <c r="AFD32" s="86"/>
+      <c r="AFE32" s="86"/>
+      <c r="AFF32" s="86"/>
+      <c r="AFG32" s="86"/>
+      <c r="AFH32" s="86"/>
+      <c r="AFI32" s="86"/>
+      <c r="AFJ32" s="86"/>
+      <c r="AFK32" s="86"/>
+      <c r="AFL32" s="86"/>
+      <c r="AFM32" s="86"/>
+      <c r="AFN32" s="86"/>
+      <c r="AFO32" s="86"/>
+      <c r="AFP32" s="86"/>
+      <c r="AFQ32" s="86"/>
+      <c r="AFR32" s="86"/>
+      <c r="AFS32" s="86"/>
+      <c r="AFT32" s="86"/>
+      <c r="AFU32" s="86"/>
+      <c r="AFV32" s="86"/>
+      <c r="AFW32" s="86"/>
+      <c r="AFX32" s="86"/>
+      <c r="AFY32" s="86"/>
+      <c r="AFZ32" s="86"/>
+      <c r="AGA32" s="86"/>
+      <c r="AGB32" s="86"/>
+      <c r="AGC32" s="86"/>
+      <c r="AGD32" s="86"/>
+      <c r="AGE32" s="86"/>
+      <c r="AGF32" s="86"/>
+      <c r="AGG32" s="86"/>
+      <c r="AGH32" s="86"/>
+      <c r="AGI32" s="86"/>
+      <c r="AGJ32" s="86"/>
+      <c r="AGK32" s="86"/>
+      <c r="AGL32" s="86"/>
+      <c r="AGM32" s="86"/>
+      <c r="AGN32" s="86"/>
+      <c r="AGO32" s="86"/>
+      <c r="AGP32" s="86"/>
+      <c r="AGQ32" s="86"/>
+      <c r="AGR32" s="86"/>
+      <c r="AGS32" s="86"/>
+      <c r="AGT32" s="86"/>
+      <c r="AGU32" s="86"/>
+      <c r="AGV32" s="86"/>
+      <c r="AGW32" s="86"/>
+      <c r="AGX32" s="86"/>
+      <c r="AGY32" s="86"/>
+      <c r="AGZ32" s="86"/>
+      <c r="AHA32" s="86"/>
+      <c r="AHB32" s="86"/>
+      <c r="AHC32" s="86"/>
+      <c r="AHD32" s="86"/>
+      <c r="AHE32" s="86"/>
+      <c r="AHF32" s="86"/>
+      <c r="AHG32" s="86"/>
+      <c r="AHH32" s="86"/>
+      <c r="AHI32" s="86"/>
+      <c r="AHJ32" s="86"/>
+      <c r="AHK32" s="86"/>
+      <c r="AHL32" s="86"/>
+      <c r="AHM32" s="86"/>
+      <c r="AHN32" s="86"/>
+      <c r="AHO32" s="86"/>
+      <c r="AHP32" s="86"/>
+      <c r="AHQ32" s="86"/>
+      <c r="AHR32" s="86"/>
+      <c r="AHS32" s="86"/>
+      <c r="AHT32" s="86"/>
+      <c r="AHU32" s="86"/>
+      <c r="AHV32" s="86"/>
+      <c r="AHW32" s="86"/>
+      <c r="AHX32" s="86"/>
+      <c r="AHY32" s="86"/>
+      <c r="AHZ32" s="86"/>
+      <c r="AIA32" s="86"/>
+      <c r="AIB32" s="86"/>
+      <c r="AIC32" s="86"/>
+      <c r="AID32" s="86"/>
+      <c r="AIE32" s="86"/>
+      <c r="AIF32" s="86"/>
+      <c r="AIG32" s="86"/>
+      <c r="AIH32" s="86"/>
+      <c r="AII32" s="86"/>
+      <c r="AIJ32" s="86"/>
+      <c r="AIK32" s="86"/>
+      <c r="AIL32" s="86"/>
+      <c r="AIM32" s="86"/>
+      <c r="AIN32" s="86"/>
+      <c r="AIO32" s="86"/>
+      <c r="AIP32" s="86"/>
+      <c r="AIQ32" s="86"/>
+      <c r="AIR32" s="86"/>
+      <c r="AIS32" s="86"/>
+      <c r="AIT32" s="86"/>
+      <c r="AIU32" s="86"/>
+      <c r="AIV32" s="86"/>
+      <c r="AIW32" s="86"/>
+      <c r="AIX32" s="86"/>
+      <c r="AIY32" s="86"/>
+      <c r="AIZ32" s="86"/>
+      <c r="AJA32" s="86"/>
+      <c r="AJB32" s="86"/>
+      <c r="AJC32" s="86"/>
+      <c r="AJD32" s="86"/>
+      <c r="AJE32" s="86"/>
+      <c r="AJF32" s="86"/>
+      <c r="AJG32" s="86"/>
+      <c r="AJH32" s="86"/>
+      <c r="AJI32" s="86"/>
+      <c r="AJJ32" s="86"/>
+      <c r="AJK32" s="86"/>
+      <c r="AJL32" s="86"/>
+      <c r="AJM32" s="86"/>
+      <c r="AJN32" s="86"/>
+      <c r="AJO32" s="86"/>
+      <c r="AJP32" s="86"/>
+      <c r="AJQ32" s="86"/>
+      <c r="AJR32" s="86"/>
+      <c r="AJS32" s="86"/>
+      <c r="AJT32" s="86"/>
+      <c r="AJU32" s="86"/>
+      <c r="AJV32" s="86"/>
+      <c r="AJW32" s="86"/>
+      <c r="AJX32" s="86"/>
+      <c r="AJY32" s="86"/>
+      <c r="AJZ32" s="86"/>
+      <c r="AKA32" s="86"/>
+      <c r="AKB32" s="86"/>
+      <c r="AKC32" s="86"/>
+      <c r="AKD32" s="86"/>
+      <c r="AKE32" s="86"/>
+      <c r="AKF32" s="86"/>
+      <c r="AKG32" s="86"/>
+      <c r="AKH32" s="86"/>
+      <c r="AKI32" s="86"/>
+      <c r="AKJ32" s="86"/>
+      <c r="AKK32" s="86"/>
+      <c r="AKL32" s="86"/>
+      <c r="AKM32" s="86"/>
+      <c r="AKN32" s="86"/>
+      <c r="AKO32" s="86"/>
+      <c r="AKP32" s="86"/>
+      <c r="AKQ32" s="86"/>
+      <c r="AKR32" s="86"/>
+      <c r="AKS32" s="86"/>
+      <c r="AKT32" s="86"/>
+      <c r="AKU32" s="86"/>
+      <c r="AKV32" s="86"/>
+      <c r="AKW32" s="86"/>
+      <c r="AKX32" s="86"/>
+      <c r="AKY32" s="86"/>
+      <c r="AKZ32" s="86"/>
+      <c r="ALA32" s="86"/>
+      <c r="ALB32" s="86"/>
+      <c r="ALC32" s="86"/>
+      <c r="ALD32" s="86"/>
+      <c r="ALE32" s="86"/>
+      <c r="ALF32" s="86"/>
+      <c r="ALG32" s="86"/>
+      <c r="ALH32" s="86"/>
+      <c r="ALI32" s="86"/>
+      <c r="ALJ32" s="86"/>
+      <c r="ALK32" s="86"/>
+      <c r="ALL32" s="86"/>
+      <c r="ALM32" s="86"/>
+      <c r="ALN32" s="86"/>
+      <c r="ALO32" s="86"/>
+      <c r="ALP32" s="86"/>
+      <c r="ALQ32" s="86"/>
+      <c r="ALR32" s="86"/>
+      <c r="ALS32" s="86"/>
+      <c r="ALT32" s="86"/>
+      <c r="ALU32" s="86"/>
+      <c r="ALV32" s="86"/>
+      <c r="ALW32" s="86"/>
+      <c r="ALX32" s="86"/>
+      <c r="ALY32" s="86"/>
+      <c r="ALZ32" s="86"/>
+      <c r="AMA32" s="86"/>
+      <c r="AMB32" s="86"/>
+      <c r="AMC32" s="86"/>
+      <c r="AMD32" s="86"/>
+      <c r="AME32" s="86"/>
+      <c r="AMF32" s="86"/>
+      <c r="AMG32" s="86"/>
+      <c r="AMH32" s="86"/>
+      <c r="AMI32" s="86"/>
+      <c r="AMJ32" s="86"/>
+      <c r="AMK32" s="86"/>
     </row>
-    <row r="33" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="73"/>
-      <c r="C33" s="54"/>
+    <row r="33" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="63"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="27">
         <v>0</v>
       </c>
@@ -3220,34 +6354,34 @@
         <v>3</v>
       </c>
       <c r="J33" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K33" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
       <c r="O33" s="40"/>
       <c r="P33" s="29"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
       <c r="S33" s="40"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
       <c r="W33" s="40"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
       <c r="AA33" s="40"/>
-      <c r="AB33" s="74"/>
+      <c r="AB33" s="64"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="73"/>
-      <c r="C34" s="75"/>
+    <row r="34" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="63"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="27">
         <v>0</v>
       </c>
@@ -3260,39 +6394,45 @@
       <c r="G34" s="27">
         <v>0</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="16">
+        <f>VLOOKUP(I34,Feuil2!A1:B3,2,0)</f>
+        <v>100</v>
+      </c>
       <c r="I34" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J34" s="18">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="K34" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
       <c r="O34" s="40"/>
       <c r="P34" s="29"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="66"/>
       <c r="S34" s="40"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="76"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
       <c r="W34" s="40"/>
-      <c r="X34" s="76"/>
-      <c r="Y34" s="76"/>
-      <c r="Z34" s="76"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
       <c r="AA34" s="40"/>
-      <c r="AB34" s="74"/>
+      <c r="AB34" s="64">
+        <f>J34-K34</f>
+        <v>50</v>
+      </c>
       <c r="AC34" s="35"/>
     </row>
-    <row r="35" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="73"/>
-      <c r="C35" s="75"/>
+    <row r="35" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="63"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="27">
         <v>0</v>
       </c>
@@ -3313,37 +6453,37 @@
         <v>3</v>
       </c>
       <c r="J35" s="18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K35" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
       <c r="O35" s="40"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="76"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="29"/>
       <c r="S35" s="40"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="76"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
       <c r="W35" s="40"/>
-      <c r="X35" s="76"/>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="76"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
       <c r="AA35" s="40"/>
-      <c r="AB35" s="74">
+      <c r="AB35" s="64">
         <f>J35-K35</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AC35" s="35"/>
     </row>
-    <row r="36" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="73"/>
-      <c r="C36" s="75"/>
+    <row r="36" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="63"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="27">
         <v>0</v>
       </c>
@@ -3364,37 +6504,37 @@
         <v>3</v>
       </c>
       <c r="J36" s="18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K36" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
       <c r="O36" s="40"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
       <c r="R36" s="29"/>
       <c r="S36" s="40"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
       <c r="W36" s="40"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
       <c r="AA36" s="40"/>
-      <c r="AB36" s="74">
+      <c r="AB36" s="64">
         <f>J36-K36</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AC36" s="35"/>
     </row>
-    <row r="37" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="73"/>
-      <c r="C37" s="75"/>
+    <row r="37" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="63"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="27">
         <v>0</v>
       </c>
@@ -3407,45 +6547,39 @@
       <c r="G37" s="27">
         <v>0</v>
       </c>
-      <c r="H37" s="16">
-        <f>VLOOKUP(I37,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
-      </c>
+      <c r="H37" s="16"/>
       <c r="I37" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J37" s="18">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="K37" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
       <c r="O37" s="40"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="29"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
       <c r="S37" s="40"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
       <c r="W37" s="40"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
       <c r="AA37" s="40"/>
-      <c r="AB37" s="74">
-        <f>J37-K37</f>
-        <v>5</v>
-      </c>
+      <c r="AB37" s="64"/>
       <c r="AC37" s="35"/>
     </row>
-    <row r="38" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="73"/>
-      <c r="C38" s="75"/>
+    <row r="38" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="63"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="27">
         <v>0</v>
       </c>
@@ -3458,39 +6592,45 @@
       <c r="G38" s="27">
         <v>0</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="16">
+        <f>VLOOKUP(I38,Feuil2!A1:B3,2,0)</f>
+        <v>75</v>
+      </c>
       <c r="I38" s="17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J38" s="18">
-        <v>1.5</v>
+        <v>30</v>
       </c>
       <c r="K38" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
       <c r="O38" s="40"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="76"/>
-      <c r="V38" s="76"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
       <c r="W38" s="40"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="76"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
       <c r="AA38" s="40"/>
-      <c r="AB38" s="74"/>
+      <c r="AB38" s="64">
+        <f>J38-K38</f>
+        <v>30</v>
+      </c>
       <c r="AC38" s="35"/>
     </row>
-    <row r="39" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="73"/>
-      <c r="C39" s="75"/>
+    <row r="39" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="63"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="27">
         <v>0</v>
       </c>
@@ -3511,37 +6651,37 @@
         <v>6</v>
       </c>
       <c r="J39" s="18">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K39" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
       <c r="O39" s="40"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="76"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="76"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
       <c r="W39" s="40"/>
-      <c r="X39" s="76"/>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="76"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
       <c r="AA39" s="40"/>
-      <c r="AB39" s="74">
+      <c r="AB39" s="64">
         <f>J39-K39</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AC39" s="35"/>
     </row>
-    <row r="40" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="73"/>
-      <c r="C40" s="75"/>
+    <row r="40" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="63"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="27">
         <v>0</v>
       </c>
@@ -3554,45 +6694,39 @@
       <c r="G40" s="27">
         <v>0</v>
       </c>
-      <c r="H40" s="16">
-        <f>VLOOKUP(I40,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
-      </c>
+      <c r="H40" s="16"/>
       <c r="I40" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J40" s="18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
       <c r="O40" s="40"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="76"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
       <c r="S40" s="40"/>
       <c r="T40" s="29"/>
-      <c r="U40" s="76"/>
-      <c r="V40" s="76"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="66"/>
       <c r="W40" s="40"/>
-      <c r="X40" s="76"/>
-      <c r="Y40" s="76"/>
-      <c r="Z40" s="76"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
       <c r="AA40" s="40"/>
-      <c r="AB40" s="74">
-        <f>J40-K40</f>
-        <v>10</v>
-      </c>
-      <c r="AC40" s="35"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="68"/>
     </row>
-    <row r="41" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="73"/>
-      <c r="C41" s="75"/>
+    <row r="41" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="63"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="27">
         <v>0</v>
       </c>
@@ -3605,39 +6739,45 @@
       <c r="G41" s="27">
         <v>0</v>
       </c>
-      <c r="H41" s="16"/>
+      <c r="H41" s="16">
+        <f>VLOOKUP(I41,Feuil2!A1:B3,2,0)</f>
+        <v>75</v>
+      </c>
       <c r="I41" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J41" s="18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K41" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
       <c r="O41" s="40"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
       <c r="S41" s="40"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="76"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="29"/>
       <c r="W41" s="40"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="76"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
       <c r="AA41" s="40"/>
-      <c r="AB41" s="77"/>
-      <c r="AC41" s="78"/>
+      <c r="AB41" s="67">
+        <f t="shared" ref="AB41:AB49" si="5">J41-K41</f>
+        <v>20</v>
+      </c>
+      <c r="AC41" s="68"/>
     </row>
-    <row r="42" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="73"/>
-      <c r="C42" s="75"/>
+    <row r="42" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="63"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="27">
         <v>0</v>
       </c>
@@ -3650,45 +6790,42 @@
       <c r="G42" s="27">
         <v>0</v>
       </c>
-      <c r="H42" s="16">
-        <f>VLOOKUP(I42,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
-      </c>
+      <c r="H42" s="16"/>
       <c r="I42" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J42" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K42" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
       <c r="O42" s="40"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
       <c r="S42" s="40"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
       <c r="V42" s="29"/>
       <c r="W42" s="40"/>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="76"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
       <c r="AA42" s="40"/>
-      <c r="AB42" s="77">
-        <f t="shared" ref="AB42:AB50" si="5">J42-K42</f>
-        <v>20</v>
-      </c>
-      <c r="AC42" s="78"/>
+      <c r="AB42" s="67">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AC42" s="68"/>
     </row>
-    <row r="43" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="73"/>
-      <c r="C43" s="75"/>
+    <row r="43" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="63"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="27">
         <v>0</v>
       </c>
@@ -3712,31 +6849,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
       <c r="O43" s="40"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="76"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
       <c r="S43" s="40"/>
-      <c r="T43" s="76"/>
-      <c r="U43" s="76"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="76"/>
-      <c r="Y43" s="76"/>
-      <c r="Z43" s="76"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
       <c r="AA43" s="40"/>
-      <c r="AB43" s="77">
+      <c r="AB43" s="67">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AC43" s="78"/>
+      <c r="AC43" s="68"/>
     </row>
-    <row r="44" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="73"/>
-      <c r="C44" s="75"/>
+    <row r="44" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="63"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="27">
         <v>0</v>
       </c>
@@ -3754,37 +6891,37 @@
         <v>6</v>
       </c>
       <c r="J44" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K44" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
       <c r="O44" s="40"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
       <c r="S44" s="40"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="76"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
       <c r="W44" s="30"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="76"/>
-      <c r="Z44" s="76"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
       <c r="AA44" s="40"/>
-      <c r="AB44" s="77">
+      <c r="AB44" s="67">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AC44" s="78"/>
+        <v>5</v>
+      </c>
+      <c r="AC44" s="68"/>
     </row>
-    <row r="45" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="73"/>
-      <c r="C45" s="75"/>
+    <row r="45" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="63"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="27">
         <v>0</v>
       </c>
@@ -3808,31 +6945,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
       <c r="O45" s="40"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
       <c r="S45" s="40"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="76"/>
-      <c r="V45" s="76"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
       <c r="W45" s="30"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="76"/>
-      <c r="Z45" s="76"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
       <c r="AA45" s="40"/>
-      <c r="AB45" s="77">
+      <c r="AB45" s="67">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC45" s="78"/>
+      <c r="AC45" s="68"/>
     </row>
-    <row r="46" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="73"/>
-      <c r="C46" s="75"/>
+    <row r="46" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="63"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="27">
         <v>0</v>
       </c>
@@ -3850,37 +6987,37 @@
         <v>6</v>
       </c>
       <c r="J46" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K46" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
       <c r="O46" s="40"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="66"/>
       <c r="S46" s="40"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="76"/>
-      <c r="V46" s="76"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="76"/>
-      <c r="Z46" s="76"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="66"/>
+      <c r="Z46" s="66"/>
       <c r="AA46" s="40"/>
-      <c r="AB46" s="77">
+      <c r="AB46" s="67">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AC46" s="78"/>
+        <v>10</v>
+      </c>
+      <c r="AC46" s="68"/>
     </row>
-    <row r="47" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="73"/>
-      <c r="C47" s="75"/>
+    <row r="47" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="63"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="27">
         <v>0</v>
       </c>
@@ -3898,37 +7035,37 @@
         <v>6</v>
       </c>
       <c r="J47" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K47" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
       <c r="O47" s="40"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="66"/>
       <c r="S47" s="40"/>
-      <c r="T47" s="76"/>
-      <c r="U47" s="76"/>
-      <c r="V47" s="76"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="66"/>
+      <c r="V47" s="66"/>
       <c r="W47" s="40"/>
       <c r="X47" s="29"/>
-      <c r="Y47" s="76"/>
-      <c r="Z47" s="76"/>
+      <c r="Y47" s="66"/>
+      <c r="Z47" s="66"/>
       <c r="AA47" s="40"/>
-      <c r="AB47" s="77">
+      <c r="AB47" s="67">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AC47" s="78"/>
+        <v>20</v>
+      </c>
+      <c r="AC47" s="68"/>
     </row>
-    <row r="48" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="73"/>
-      <c r="C48" s="75"/>
+    <row r="48" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="63"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="27">
         <v>0</v>
       </c>
@@ -3946,37 +7083,37 @@
         <v>6</v>
       </c>
       <c r="J48" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K48" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
       <c r="O48" s="40"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="76"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
       <c r="S48" s="40"/>
-      <c r="T48" s="76"/>
-      <c r="U48" s="76"/>
-      <c r="V48" s="76"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
       <c r="W48" s="40"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="76"/>
-      <c r="Z48" s="76"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="66"/>
       <c r="AA48" s="40"/>
-      <c r="AB48" s="77">
+      <c r="AB48" s="67">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="AC48" s="78"/>
+        <v>10</v>
+      </c>
+      <c r="AC48" s="68"/>
     </row>
-    <row r="49" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="73"/>
-      <c r="C49" s="75"/>
+    <row r="49" spans="2:29" ht="35" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="63"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="27">
         <v>0</v>
       </c>
@@ -3994,267 +7131,227 @@
         <v>6</v>
       </c>
       <c r="J49" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K49" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="76"/>
-      <c r="U49" s="76"/>
-      <c r="V49" s="76"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="76"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="29"/>
       <c r="Y49" s="29"/>
-      <c r="Z49" s="76"/>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="77">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AC49" s="78"/>
-    </row>
-    <row r="50" spans="2:29" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="73"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="27">
-        <v>0</v>
-      </c>
-      <c r="E50" s="27">
-        <v>0</v>
-      </c>
-      <c r="F50" s="27">
-        <v>0</v>
-      </c>
-      <c r="G50" s="27">
-        <v>0</v>
-      </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="18">
-        <v>20</v>
-      </c>
-      <c r="K50" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="79">
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="69">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="AC50" s="78"/>
+      <c r="AC49" s="68"/>
     </row>
-    <row r="51" spans="2:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="108" t="s">
+    <row r="50" spans="2:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="108"/>
-      <c r="D51" s="80">
-        <f>SUM(D10:D50)</f>
-        <v>44.5</v>
-      </c>
-      <c r="E51" s="81">
-        <f>SUM(E10:E50)</f>
-        <v>47</v>
-      </c>
-      <c r="F51" s="81">
-        <f>SUM(F10:F50)</f>
-        <v>19</v>
-      </c>
-      <c r="G51" s="81">
-        <f>SUM(G10:G50)</f>
-        <v>40</v>
-      </c>
-      <c r="H51" s="82"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="85"/>
-      <c r="AB51" s="86">
-        <f>SUM(AB10:AB50)</f>
-        <v>308</v>
-      </c>
-      <c r="AC51" s="87"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="70">
+        <f>SUM(D10:D49)</f>
+        <v>55.5</v>
+      </c>
+      <c r="E50" s="71">
+        <f>SUM(E10:E49)</f>
+        <v>56</v>
+      </c>
+      <c r="F50" s="71">
+        <f>SUM(F10:F49)</f>
+        <v>37.5</v>
+      </c>
+      <c r="G50" s="71">
+        <f>SUM(G10:G49)</f>
+        <v>50</v>
+      </c>
+      <c r="H50" s="72"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="75"/>
+      <c r="AB50" s="76">
+        <f>SUM(AB10:AB49)</f>
+        <v>257.5</v>
+      </c>
+      <c r="AC50" s="77"/>
+    </row>
+    <row r="51" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="101"/>
+      <c r="D51" s="70">
+        <f>135-D50</f>
+        <v>79.5</v>
+      </c>
+      <c r="E51" s="71">
+        <f>135-E50</f>
+        <v>79</v>
+      </c>
+      <c r="F51" s="71">
+        <f>135-F50</f>
+        <v>97.5</v>
+      </c>
+      <c r="G51" s="75">
+        <f>135-G50</f>
+        <v>85</v>
+      </c>
+      <c r="H51" s="75"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="AB51" s="79"/>
     </row>
     <row r="52" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="80">
-        <f>135-D51</f>
-        <v>90.5</v>
-      </c>
-      <c r="E52" s="81">
-        <f>135-E51</f>
-        <v>88</v>
-      </c>
-      <c r="F52" s="81">
-        <f>135-F51</f>
-        <v>116</v>
-      </c>
-      <c r="G52" s="85">
-        <f>135-G51</f>
-        <v>95</v>
-      </c>
-      <c r="H52" s="85"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="AB52" s="89"/>
+      <c r="B52" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="107"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="AB52" s="79"/>
     </row>
-    <row r="53" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="109"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="AB53" s="89"/>
+    <row r="53" spans="2:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="101"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="81">
+        <f>SUM(J10:J49)</f>
+        <v>521</v>
+      </c>
+      <c r="K53" s="75">
+        <f>SUM(K10:K49)</f>
+        <v>193</v>
+      </c>
+      <c r="AB53" s="79"/>
     </row>
-    <row r="54" spans="2:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="103"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="91">
-        <f>SUM(J10:J50)</f>
-        <v>531</v>
-      </c>
-      <c r="K54" s="85">
-        <f>SUM(K10:K50)</f>
-        <v>144.5</v>
-      </c>
-      <c r="AB54" s="89"/>
+    <row r="54" spans="2:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="AB54" s="79"/>
     </row>
     <row r="55" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="AB55" s="89"/>
+      <c r="B55" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="102"/>
+      <c r="D55" s="84">
+        <f>135*3</f>
+        <v>405</v>
+      </c>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="AB55" s="79"/>
     </row>
     <row r="56" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="94">
-        <f>135*3</f>
-        <v>405</v>
-      </c>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
-      <c r="AB56" s="89"/>
+      <c r="B56" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="103"/>
+      <c r="D56" s="85">
+        <f>D55-K53</f>
+        <v>212</v>
+      </c>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="AB56" s="79"/>
     </row>
     <row r="57" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B57" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="105"/>
-      <c r="D57" s="95">
-        <f>D56-K54</f>
-        <v>260.5</v>
-      </c>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="93"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="AB57" s="89"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="AB57" s="79"/>
     </row>
-    <row r="58" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B58" s="96"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="AB58" s="89"/>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
+    <row r="59" spans="2:29" s="88" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B59" s="89"/>
+      <c r="I59" s="90"/>
+      <c r="O59" s="90"/>
+      <c r="S59" s="90"/>
+      <c r="W59" s="90"/>
+      <c r="AA59" s="90"/>
     </row>
-    <row r="60" spans="2:29" s="98" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="B60" s="99"/>
-      <c r="I60" s="100"/>
-      <c r="O60" s="100"/>
-      <c r="S60" s="100"/>
-      <c r="W60" s="100"/>
-      <c r="AA60" s="100"/>
+    <row r="60" spans="2:29" s="88" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="I60" s="90"/>
+      <c r="O60" s="90"/>
+      <c r="S60" s="90"/>
+      <c r="W60" s="90"/>
+      <c r="AA60" s="90"/>
     </row>
-    <row r="61" spans="2:29" s="98" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="I61" s="100"/>
-      <c r="O61" s="100"/>
-      <c r="S61" s="100"/>
-      <c r="W61" s="100"/>
-      <c r="AA61" s="100"/>
-    </row>
-    <row r="62" spans="2:29" s="98" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="I62" s="100"/>
-      <c r="O62" s="100"/>
-      <c r="S62" s="100"/>
-      <c r="W62" s="100"/>
-      <c r="AA62" s="100"/>
+    <row r="61" spans="2:29" s="88" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="I61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="S61" s="90"/>
+      <c r="W61" s="90"/>
+      <c r="AA61" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="B7:B8"/>
@@ -4265,56 +7362,75 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:AA7"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I50">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="En attente">
+  <conditionalFormatting sqref="I9:I31 I33:I49">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:G50">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+  <conditionalFormatting sqref="D9:G31 D33:G49">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>$I9="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:G50">
-    <cfRule type="expression" dxfId="1" priority="8">
+  <conditionalFormatting sqref="D9:G31 D33:G49">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>$I9="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>$I9="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="En attente">
+      <formula>NOT(ISERROR(SEARCH("En attente",I32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",I32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",I32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:G32">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$I32="Terminé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:G32">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$I32="En cours"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$I32="En attente"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I9:I50" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I9:I49" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"En attente,En cours,Terminé"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31527777777777799" right="0.31527777777777799" top="0.74791666666666701" bottom="0.55138888888888904" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="47" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4332,10 +7448,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="91">
         <v>75</v>
       </c>
     </row>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5047DB9-4E8C-0744-BC7A-A96D91114FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6AE516-2E61-0A41-B2E3-1137899A42B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -254,6 +255,9 @@
   <si>
     <t>Data seeding</t>
   </si>
+  <si>
+    <t>Rencontre avec client ( 12 Fevrier )</t>
+  </si>
 </sst>
 </file>
 
@@ -1169,33 +1173,85 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1213,102 +1269,50 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1850,8 +1854,8 @@
   </sheetPr>
   <dimension ref="B1:AMK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1901,17 +1905,17 @@
     </row>
     <row r="3" spans="2:29" ht="24" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="1" t="s">
         <v>3</v>
@@ -1921,13 +1925,13 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="1" t="s">
         <v>6</v>
@@ -1958,58 +1962,58 @@
       </c>
     </row>
     <row r="7" spans="2:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="J7" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="100" t="s">
+      <c r="L7" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="104" t="s">
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="105" t="s">
+      <c r="AC7" s="119" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
@@ -2022,10 +2026,10 @@
       <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
       <c r="L8" s="11">
         <v>43838</v>
       </c>
@@ -2089,8 +2093,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
+      <c r="AB8" s="118"/>
+      <c r="AC8" s="118"/>
     </row>
     <row r="9" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
@@ -2984,36 +2988,36 @@
       <c r="AC25" s="35"/>
     </row>
     <row r="26" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="115">
+      <c r="B26" s="99">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C26" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="109">
+      <c r="D26" s="93">
         <v>2</v>
       </c>
-      <c r="E26" s="109">
+      <c r="E26" s="93">
         <v>2</v>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="93">
         <v>2</v>
       </c>
-      <c r="G26" s="109">
+      <c r="G26" s="93">
         <v>2</v>
       </c>
-      <c r="H26" s="110">
+      <c r="H26" s="94">
         <f>VLOOKUP(I26,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I26" s="111" t="s">
+      <c r="I26" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="112">
+      <c r="J26" s="96">
         <v>13.5</v>
       </c>
-      <c r="K26" s="112">
+      <c r="K26" s="96">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -3021,30 +3025,30 @@
       <c r="M26" s="66"/>
       <c r="N26" s="66"/>
       <c r="O26" s="40"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
       <c r="V26" s="66"/>
       <c r="W26" s="40"/>
       <c r="X26" s="66"/>
       <c r="Y26" s="66"/>
       <c r="Z26" s="66"/>
       <c r="AA26" s="40"/>
-      <c r="AB26" s="117">
+      <c r="AB26" s="101">
         <f t="shared" ref="AB26:AB31" si="4">J26-K26</f>
         <v>5.5</v>
       </c>
       <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:1025" s="108" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:1025" s="92" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="25">
         <f>B26+1</f>
         <v>18</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="104" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="27">
@@ -3059,17 +3063,17 @@
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="121">
+      <c r="H27" s="105">
         <f>VLOOKUP(I27,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I27" s="122" t="s">
+      <c r="I27" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="123">
+      <c r="J27" s="107">
         <v>21</v>
       </c>
-      <c r="K27" s="123">
+      <c r="K27" s="107">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -4130,7 +4134,7 @@
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
       <c r="P28" s="20"/>
-      <c r="Q28" s="119"/>
+      <c r="Q28" s="103"/>
       <c r="R28" s="20"/>
       <c r="S28" s="21"/>
       <c r="T28" s="20"/>
@@ -4185,7 +4189,7 @@
       <c r="N29" s="29"/>
       <c r="O29" s="30"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="119"/>
+      <c r="Q29" s="103"/>
       <c r="R29" s="29"/>
       <c r="S29" s="30"/>
       <c r="T29" s="29"/>
@@ -4203,35 +4207,35 @@
       <c r="AC29" s="35"/>
     </row>
     <row r="30" spans="2:1025" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="115">
+      <c r="B30" s="99">
         <v>21</v>
       </c>
       <c r="C30" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="109">
-        <v>0</v>
-      </c>
-      <c r="E30" s="109">
+      <c r="D30" s="93">
+        <v>0</v>
+      </c>
+      <c r="E30" s="93">
         <v>3</v>
       </c>
-      <c r="F30" s="109">
+      <c r="F30" s="93">
         <v>18.5</v>
       </c>
-      <c r="G30" s="109">
-        <v>0</v>
-      </c>
-      <c r="H30" s="110">
+      <c r="G30" s="93">
+        <v>0</v>
+      </c>
+      <c r="H30" s="94">
         <f>VLOOKUP(I30,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I30" s="111" t="s">
+      <c r="I30" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="J30" s="112">
+      <c r="J30" s="96">
         <v>5</v>
       </c>
-      <c r="K30" s="112">
+      <c r="K30" s="96">
         <f t="shared" si="3"/>
         <v>21.5</v>
       </c>
@@ -4240,7 +4244,7 @@
       <c r="N30" s="66"/>
       <c r="O30" s="40"/>
       <c r="P30" s="66"/>
-      <c r="Q30" s="125"/>
+      <c r="Q30" s="109"/>
       <c r="R30" s="66"/>
       <c r="S30" s="40"/>
       <c r="T30" s="66"/>
@@ -4257,11 +4261,11 @@
       </c>
       <c r="AC30" s="68"/>
     </row>
-    <row r="31" spans="2:1025" s="108" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:1025" s="92" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="25">
         <v>22</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="104" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="27">
@@ -4276,17 +4280,17 @@
       <c r="G31" s="27">
         <v>0</v>
       </c>
-      <c r="H31" s="121">
+      <c r="H31" s="105">
         <f>VLOOKUP(I31,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="I31" s="122" t="s">
+      <c r="I31" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="J31" s="123">
+      <c r="J31" s="107">
         <v>12</v>
       </c>
-      <c r="K31" s="123">
+      <c r="K31" s="107">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -4310,7 +4314,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AC31" s="124"/>
+      <c r="AC31" s="108"/>
       <c r="AD31" s="86"/>
       <c r="AE31" s="86"/>
       <c r="AF31" s="86"/>
@@ -5308,35 +5312,57 @@
       <c r="AMJ31" s="86"/>
       <c r="AMK31" s="86"/>
     </row>
-    <row r="32" spans="2:1025" s="108" customFormat="1" ht="35" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="118"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="131"/>
+    <row r="32" spans="2:1025" s="92" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="102">
+        <v>23</v>
+      </c>
+      <c r="C32" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="131">
+        <v>3</v>
+      </c>
+      <c r="E32" s="131">
+        <v>3</v>
+      </c>
+      <c r="F32" s="131">
+        <v>3</v>
+      </c>
+      <c r="G32" s="131">
+        <v>3</v>
+      </c>
+      <c r="H32" s="132">
+        <f>VLOOKUP(I32,Feuil2!A2:B4,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="134">
+        <v>13</v>
+      </c>
+      <c r="K32" s="134">
+        <f t="shared" ref="K32" si="5">D32+E32+G32+F32</f>
+        <v>12</v>
+      </c>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="111"/>
       <c r="Q32" s="135"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="133"/>
-      <c r="AC32" s="134"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="114"/>
       <c r="AD32" s="86"/>
       <c r="AE32" s="86"/>
       <c r="AF32" s="86"/>
@@ -6337,16 +6363,16 @@
     <row r="33" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="63"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="27">
-        <v>0</v>
-      </c>
-      <c r="E33" s="27">
-        <v>0</v>
-      </c>
-      <c r="F33" s="27">
-        <v>0</v>
-      </c>
-      <c r="G33" s="27">
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
         <v>0</v>
       </c>
       <c r="H33" s="16"/>
@@ -6365,7 +6391,7 @@
       <c r="N33" s="66"/>
       <c r="O33" s="40"/>
       <c r="P33" s="29"/>
-      <c r="Q33" s="66"/>
+      <c r="Q33" s="97"/>
       <c r="R33" s="66"/>
       <c r="S33" s="40"/>
       <c r="T33" s="66"/>
@@ -6770,7 +6796,7 @@
       <c r="Z41" s="66"/>
       <c r="AA41" s="40"/>
       <c r="AB41" s="67">
-        <f t="shared" ref="AB41:AB49" si="5">J41-K41</f>
+        <f t="shared" ref="AB41:AB49" si="6">J41-K41</f>
         <v>20</v>
       </c>
       <c r="AC41" s="68"/>
@@ -6818,7 +6844,7 @@
       <c r="Z42" s="66"/>
       <c r="AA42" s="40"/>
       <c r="AB42" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AC42" s="68"/>
@@ -6866,7 +6892,7 @@
       <c r="Z43" s="66"/>
       <c r="AA43" s="40"/>
       <c r="AB43" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AC43" s="68"/>
@@ -6914,7 +6940,7 @@
       <c r="Z44" s="66"/>
       <c r="AA44" s="40"/>
       <c r="AB44" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AC44" s="68"/>
@@ -6962,7 +6988,7 @@
       <c r="Z45" s="66"/>
       <c r="AA45" s="40"/>
       <c r="AB45" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AC45" s="68"/>
@@ -7010,7 +7036,7 @@
       <c r="Z46" s="66"/>
       <c r="AA46" s="40"/>
       <c r="AB46" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AC46" s="68"/>
@@ -7058,7 +7084,7 @@
       <c r="Z47" s="66"/>
       <c r="AA47" s="40"/>
       <c r="AB47" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AC47" s="68"/>
@@ -7106,7 +7132,7 @@
       <c r="Z48" s="66"/>
       <c r="AA48" s="40"/>
       <c r="AB48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AC48" s="68"/>
@@ -7154,31 +7180,31 @@
       <c r="Z49" s="29"/>
       <c r="AA49" s="30"/>
       <c r="AB49" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AC49" s="68"/>
     </row>
     <row r="50" spans="2:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="106"/>
+      <c r="C50" s="120"/>
       <c r="D50" s="70">
         <f>SUM(D10:D49)</f>
-        <v>55.5</v>
+        <v>58.5</v>
       </c>
       <c r="E50" s="71">
         <f>SUM(E10:E49)</f>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F50" s="71">
         <f>SUM(F10:F49)</f>
-        <v>37.5</v>
+        <v>40.5</v>
       </c>
       <c r="G50" s="71">
         <f>SUM(G10:G49)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H50" s="72"/>
       <c r="I50" s="73"/>
@@ -7191,25 +7217,25 @@
       <c r="AC50" s="77"/>
     </row>
     <row r="51" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="101"/>
+      <c r="C51" s="115"/>
       <c r="D51" s="70">
         <f>135-D50</f>
-        <v>79.5</v>
+        <v>76.5</v>
       </c>
       <c r="E51" s="71">
         <f>135-E50</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F51" s="71">
         <f>135-F50</f>
-        <v>97.5</v>
+        <v>94.5</v>
       </c>
       <c r="G51" s="75">
         <f>135-G50</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H51" s="75"/>
       <c r="I51" s="78"/>
@@ -7218,10 +7244,10 @@
       <c r="AB51" s="79"/>
     </row>
     <row r="52" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="107"/>
+      <c r="C52" s="121"/>
       <c r="D52" s="75"/>
       <c r="E52" s="75"/>
       <c r="F52" s="75"/>
@@ -7233,10 +7259,10 @@
       <c r="AB52" s="79"/>
     </row>
     <row r="53" spans="2:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="101"/>
+      <c r="C53" s="115"/>
       <c r="D53" s="75"/>
       <c r="E53" s="75"/>
       <c r="F53" s="80"/>
@@ -7245,11 +7271,11 @@
       <c r="I53" s="78"/>
       <c r="J53" s="81">
         <f>SUM(J10:J49)</f>
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="K53" s="75">
         <f>SUM(K10:K49)</f>
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AB53" s="79"/>
     </row>
@@ -7267,10 +7293,10 @@
       <c r="AB54" s="79"/>
     </row>
     <row r="55" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="102"/>
+      <c r="C55" s="116"/>
       <c r="D55" s="84">
         <f>135*3</f>
         <v>405</v>
@@ -7285,13 +7311,13 @@
       <c r="AB55" s="79"/>
     </row>
     <row r="56" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="103" t="s">
+      <c r="B56" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="103"/>
+      <c r="C56" s="117"/>
       <c r="D56" s="85">
         <f>D55-K53</f>
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E56" s="82"/>
       <c r="F56" s="82"/>
@@ -7344,14 +7370,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="B7:B8"/>
@@ -7362,13 +7380,21 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:AA7"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <conditionalFormatting sqref="I19">
     <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I31 I33:I49">
+  <conditionalFormatting sqref="I9:I49">
     <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",I9)))</formula>
     </cfRule>
@@ -7379,7 +7405,7 @@
       <formula>NOT(ISERROR(SEARCH("Terminé",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:G31 D33:G49">
+  <conditionalFormatting sqref="D9:G49">
     <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -7387,39 +7413,12 @@
       <formula>$I9="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:G31 D33:G49">
+  <conditionalFormatting sqref="D9:G49">
     <cfRule type="expression" dxfId="8" priority="15">
       <formula>$I9="En cours"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="16">
       <formula>$I9="En attente"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",I32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",I32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",I32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:G32">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$I32="Terminé"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:G32">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$I32="En cours"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$I32="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7473,7 +7472,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -7489,6 +7488,6 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F01A6-2364-4CE2-8285-FFBEF1198D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289E67B7-38AB-41A3-A718-7F7AF83E414B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,9 +229,6 @@
     <t>Modifications apportées au semainier</t>
   </si>
   <si>
-    <t>Rédiger le rapport de sprint</t>
-  </si>
-  <si>
     <r>
       <t>Nombre d'heures</t>
     </r>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>Nombre d'heures total à accorder au projet (4 * 135 heures)</t>
+  </si>
+  <si>
+    <t>Rédiger le rapport de sprint 1</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1315,6 +1315,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1330,9 +1351,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1358,23 +1376,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1849,8 +1856,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,40 +1885,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="D1" s="141" t="s">
+      <c r="B1" s="130"/>
+      <c r="D1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1024" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="145"/>
+      <c r="B2" s="130"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
       <c r="P2" s="4"/>
@@ -1951,72 +1958,72 @@
       </c>
     </row>
     <row r="6" spans="1:1024" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="144"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="129"/>
       <c r="V6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:1024" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="136" t="s">
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="138" t="s">
+      <c r="J7" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="140" t="s">
+      <c r="K7" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140"/>
-      <c r="R7" s="140"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="140"/>
-      <c r="U7" s="140"/>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="140"/>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="128" t="s">
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="129" t="s">
+      <c r="AB7" s="136" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1024" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="35" t="s">
         <v>18</v>
       </c>
@@ -2029,10 +2036,10 @@
       <c r="F8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
       <c r="K8" s="30">
         <v>43838</v>
       </c>
@@ -2096,8 +2103,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="130"/>
+      <c r="AA8" s="135"/>
+      <c r="AB8" s="137"/>
     </row>
     <row r="9" spans="1:1024" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
@@ -26302,7 +26309,7 @@
       <c r="AMI32" s="109"/>
       <c r="AMJ32" s="109"/>
     </row>
-    <row r="33" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1024" s="69" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="57">
         <v>24</v>
       </c>
@@ -26316,7 +26323,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="112">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" s="112">
         <v>0</v>
@@ -26333,15 +26340,15 @@
       </c>
       <c r="J33" s="62">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K33" s="103"/>
       <c r="L33" s="103"/>
       <c r="M33" s="103"/>
       <c r="N33" s="104"/>
       <c r="O33" s="113"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="64"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="149"/>
       <c r="R33" s="120"/>
       <c r="S33" s="103"/>
       <c r="T33" s="103"/>
@@ -26353,7 +26360,7 @@
       <c r="Z33" s="104"/>
       <c r="AA33" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AB33" s="71"/>
       <c r="AC33" s="68"/>
@@ -27392,7 +27399,7 @@
       <c r="N34" s="75"/>
       <c r="O34" s="64"/>
       <c r="P34" s="64"/>
-      <c r="Q34" s="101"/>
+      <c r="Q34" s="147"/>
       <c r="R34" s="75"/>
       <c r="S34" s="101"/>
       <c r="T34" s="101"/>
@@ -28409,7 +28416,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C35" s="59">
         <v>0</v>
@@ -44112,10 +44119,10 @@
       <c r="AMJ49" s="68"/>
     </row>
     <row r="50" spans="1:1024" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="131" t="s">
+      <c r="A50" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="131"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="47">
         <f>SUM(C10:C49)</f>
         <v>58.5</v>
@@ -44126,7 +44133,7 @@
       </c>
       <c r="E50" s="47">
         <f>SUM(E10:E49)</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F50" s="47">
         <f>SUM(F10:F49)</f>
@@ -44137,7 +44144,7 @@
       <c r="I50" s="50"/>
       <c r="J50" s="47">
         <f>SUM(C50:F50)</f>
-        <v>218.5</v>
+        <v>223.5</v>
       </c>
       <c r="K50" s="51"/>
       <c r="L50" s="51"/>
@@ -44157,15 +44164,15 @@
       <c r="Z50" s="51"/>
       <c r="AA50" s="47">
         <f>SUM(AA10:AA49)</f>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB50" s="52"/>
     </row>
     <row r="51" spans="1:1024" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="132" t="s">
+      <c r="A51" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="132"/>
+      <c r="B51" s="131"/>
       <c r="C51" s="47">
         <f>135-C50</f>
         <v>76.5</v>
@@ -44176,7 +44183,7 @@
       </c>
       <c r="E51" s="47">
         <f>135-E50</f>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F51" s="47">
         <f>135-F50</f>
@@ -44187,7 +44194,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="47">
         <f>SUM(C51:F51)</f>
-        <v>321.5</v>
+        <v>316.5</v>
       </c>
       <c r="K51" s="51"/>
       <c r="L51" s="51"/>
@@ -44209,10 +44216,10 @@
       <c r="AB51" s="51"/>
     </row>
     <row r="52" spans="1:1024" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="126"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
       <c r="E52" s="47"/>
@@ -44244,10 +44251,10 @@
       <c r="AB52" s="51"/>
     </row>
     <row r="53" spans="1:1024" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="132"/>
+      <c r="A53" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="131"/>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
       <c r="E53" s="54"/>
@@ -44260,7 +44267,7 @@
       </c>
       <c r="J53" s="47">
         <f>SUM(J10:J49)</f>
-        <v>218.5</v>
+        <v>223.5</v>
       </c>
       <c r="K53" s="51"/>
       <c r="L53" s="51"/>
@@ -44312,10 +44319,10 @@
       <c r="AB54" s="51"/>
     </row>
     <row r="55" spans="1:1024" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="126"/>
+      <c r="A55" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="133"/>
       <c r="C55" s="47">
         <f>135*4</f>
         <v>540</v>
@@ -44347,13 +44354,13 @@
       <c r="AB55" s="51"/>
     </row>
     <row r="56" spans="1:1024" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="127"/>
+      <c r="A56" s="134" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="134"/>
       <c r="C56" s="47">
         <f>C55-J53</f>
-        <v>321.5</v>
+        <v>316.5</v>
       </c>
       <c r="D56" s="56"/>
       <c r="E56" s="56"/>
@@ -44444,12 +44451,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F2:J2"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="AA7:AA8"/>
@@ -44465,6 +44466,12 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289E67B7-38AB-41A3-A718-7F7AF83E414B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C231F6-63FA-AB4D-9755-55CA56435E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -264,16 +262,28 @@
   <si>
     <t>Rédiger le rapport de sprint 1</t>
   </si>
+  <si>
+    <t>Schema design pattern</t>
+  </si>
+  <si>
+    <t>Travail sur Controlleur : Account, admin,error,event</t>
+  </si>
+  <si>
+    <t>Diagrammes de comprehension au membres</t>
+  </si>
+  <si>
+    <t>Account management settings. Front end/ back, Asp Razor Pages implentation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0\ %"/>
-    <numFmt numFmtId="165" formatCode="[$-C0C]dd/mmm"/>
-    <numFmt numFmtId="166" formatCode="\\;;;"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0\ %"/>
+    <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
+    <numFmt numFmtId="167" formatCode="\\;;;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -960,7 +970,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -972,7 +982,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -987,19 +997,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1018,19 +1028,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1073,28 +1083,28 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="33" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="33" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1119,19 +1129,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1139,7 +1149,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1152,7 +1162,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1164,21 +1174,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="21" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="21" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="22" fillId="6" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="6" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="24" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="24" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1195,7 +1205,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1203,14 +1213,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1230,7 +1240,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1238,11 +1248,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1269,11 +1279,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1303,44 +1313,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1351,6 +1347,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,22 +1375,33 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="4" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="4" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="Comma" xfId="8" builtinId="3"/>
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Milliers" xfId="8" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
@@ -1555,7 +1565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1856,69 +1866,69 @@
   </sheetPr>
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" style="23" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="32" customWidth="1"/>
     <col min="9" max="10" width="9.33203125" style="39" customWidth="1"/>
-    <col min="11" max="13" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="6.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="23" max="25" width="6.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="6.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="20.77734375" style="25" customWidth="1"/>
-    <col min="28" max="28" width="22.77734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.83203125" style="25" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" customWidth="1"/>
     <col min="29" max="1024" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:1024" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="D1" s="126" t="s">
+      <c r="B1" s="148"/>
+      <c r="D1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="130" t="s">
+    <row r="2" spans="1:1024" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="130"/>
+      <c r="B2" s="148"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
       <c r="P2" s="4"/>
@@ -1926,13 +1936,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
       <c r="P3" s="5"/>
       <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
       <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1941,7 +1951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N5" s="7">
         <v>0.25</v>
       </c>
@@ -1957,73 +1967,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K6" s="127" t="s">
+    <row r="6" spans="1:1024" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="129"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="147"/>
       <c r="V6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:1024" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="139" t="s">
+    <row r="7" spans="1:1024" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="142" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="143" t="s">
+      <c r="H7" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="144" t="s">
+      <c r="J7" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="146" t="s">
+      <c r="K7" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="135" t="s">
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="136" t="s">
+      <c r="AB7" s="132" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
+    <row r="8" spans="1:1024" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="35" t="s">
         <v>18</v>
       </c>
@@ -2036,10 +2046,10 @@
       <c r="F8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="142"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
       <c r="K8" s="30">
         <v>43838</v>
       </c>
@@ -2103,10 +2113,10 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="135"/>
-      <c r="AB8" s="137"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="133"/>
     </row>
-    <row r="9" spans="1:1024" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>22</v>
@@ -2138,7 +2148,7 @@
       <c r="AA9" s="26"/>
       <c r="AB9" s="16"/>
     </row>
-    <row r="10" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57">
         <v>1</v>
       </c>
@@ -3189,7 +3199,7 @@
       <c r="AMI10" s="68"/>
       <c r="AMJ10" s="68"/>
     </row>
-    <row r="11" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="57">
         <v>2</v>
       </c>
@@ -4240,7 +4250,7 @@
       <c r="AMI11" s="68"/>
       <c r="AMJ11" s="68"/>
     </row>
-    <row r="12" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57">
         <v>3</v>
       </c>
@@ -5291,7 +5301,7 @@
       <c r="AMI12" s="68"/>
       <c r="AMJ12" s="68"/>
     </row>
-    <row r="13" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="57">
         <v>4</v>
       </c>
@@ -6342,7 +6352,7 @@
       <c r="AMI13" s="68"/>
       <c r="AMJ13" s="68"/>
     </row>
-    <row r="14" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="57">
         <v>5</v>
       </c>
@@ -7393,7 +7403,7 @@
       <c r="AMI14" s="68"/>
       <c r="AMJ14" s="68"/>
     </row>
-    <row r="15" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="57">
         <v>6</v>
       </c>
@@ -8444,7 +8454,7 @@
       <c r="AMI15" s="68"/>
       <c r="AMJ15" s="68"/>
     </row>
-    <row r="16" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="57">
         <v>7</v>
       </c>
@@ -9495,7 +9505,7 @@
       <c r="AMI16" s="68"/>
       <c r="AMJ16" s="68"/>
     </row>
-    <row r="17" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="57">
         <v>8</v>
       </c>
@@ -10546,7 +10556,7 @@
       <c r="AMI17" s="68"/>
       <c r="AMJ17" s="68"/>
     </row>
-    <row r="18" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="57">
         <v>9</v>
       </c>
@@ -11597,7 +11607,7 @@
       <c r="AMI18" s="68"/>
       <c r="AMJ18" s="68"/>
     </row>
-    <row r="19" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="57">
         <v>10</v>
       </c>
@@ -12648,7 +12658,7 @@
       <c r="AMI19" s="68"/>
       <c r="AMJ19" s="68"/>
     </row>
-    <row r="20" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="57">
         <v>11</v>
       </c>
@@ -13699,7 +13709,7 @@
       <c r="AMI20" s="68"/>
       <c r="AMJ20" s="68"/>
     </row>
-    <row r="21" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="57">
         <v>12</v>
       </c>
@@ -14748,7 +14758,7 @@
       <c r="AMI21" s="68"/>
       <c r="AMJ21" s="68"/>
     </row>
-    <row r="22" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="57">
         <v>13</v>
       </c>
@@ -15799,7 +15809,7 @@
       <c r="AMI22" s="68"/>
       <c r="AMJ22" s="68"/>
     </row>
-    <row r="23" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="57">
         <v>14</v>
       </c>
@@ -16850,7 +16860,7 @@
       <c r="AMI23" s="68"/>
       <c r="AMJ23" s="68"/>
     </row>
-    <row r="24" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="57">
         <v>15</v>
       </c>
@@ -17901,7 +17911,7 @@
       <c r="AMI24" s="68"/>
       <c r="AMJ24" s="68"/>
     </row>
-    <row r="25" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="57">
         <v>16</v>
       </c>
@@ -18952,7 +18962,7 @@
       <c r="AMI25" s="68"/>
       <c r="AMJ25" s="68"/>
     </row>
-    <row r="26" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="57">
         <v>17</v>
       </c>
@@ -20003,7 +20013,7 @@
       <c r="AMI26" s="68"/>
       <c r="AMJ26" s="68"/>
     </row>
-    <row r="27" spans="1:1024" s="110" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1024" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="57">
         <v>18</v>
       </c>
@@ -20024,10 +20034,10 @@
       </c>
       <c r="G27" s="60">
         <f>VLOOKUP(H27,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="107" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="108">
         <v>21</v>
@@ -21054,7 +21064,7 @@
       <c r="AMI27" s="109"/>
       <c r="AMJ27" s="109"/>
     </row>
-    <row r="28" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="57">
         <v>19</v>
       </c>
@@ -21075,10 +21085,10 @@
       </c>
       <c r="G28" s="60">
         <f>VLOOKUP(H28,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="62">
         <v>10</v>
@@ -22105,7 +22115,7 @@
       <c r="AMI28" s="68"/>
       <c r="AMJ28" s="68"/>
     </row>
-    <row r="29" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="57">
         <v>20</v>
       </c>
@@ -22126,10 +22136,10 @@
       </c>
       <c r="G29" s="60">
         <f>VLOOKUP(H29,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="62">
         <v>5</v>
@@ -23156,7 +23166,7 @@
       <c r="AMI29" s="68"/>
       <c r="AMJ29" s="68"/>
     </row>
-    <row r="30" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="57">
         <v>21</v>
       </c>
@@ -24207,7 +24217,7 @@
       <c r="AMI30" s="68"/>
       <c r="AMJ30" s="68"/>
     </row>
-    <row r="31" spans="1:1024" s="110" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1024" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="57">
         <v>22</v>
       </c>
@@ -24228,10 +24238,10 @@
       </c>
       <c r="G31" s="60">
         <f>VLOOKUP(H31,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H31" s="107" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="108">
         <v>12</v>
@@ -25258,7 +25268,7 @@
       <c r="AMI31" s="109"/>
       <c r="AMJ31" s="109"/>
     </row>
-    <row r="32" spans="1:1024" s="110" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1024" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="57">
         <v>23</v>
       </c>
@@ -26309,7 +26319,7 @@
       <c r="AMI32" s="109"/>
       <c r="AMJ32" s="109"/>
     </row>
-    <row r="33" spans="1:1024" s="69" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="57">
         <v>24</v>
       </c>
@@ -26347,8 +26357,8 @@
       <c r="M33" s="103"/>
       <c r="N33" s="104"/>
       <c r="O33" s="113"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="149"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="128"/>
       <c r="R33" s="120"/>
       <c r="S33" s="103"/>
       <c r="T33" s="103"/>
@@ -27360,7 +27370,7 @@
       <c r="AMI33" s="68"/>
       <c r="AMJ33" s="68"/>
     </row>
-    <row r="34" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="57">
         <v>25</v>
       </c>
@@ -27399,7 +27409,7 @@
       <c r="N34" s="75"/>
       <c r="O34" s="64"/>
       <c r="P34" s="64"/>
-      <c r="Q34" s="147"/>
+      <c r="Q34" s="126"/>
       <c r="R34" s="75"/>
       <c r="S34" s="101"/>
       <c r="T34" s="101"/>
@@ -28411,7 +28421,7 @@
       <c r="AMI34" s="68"/>
       <c r="AMJ34" s="68"/>
     </row>
-    <row r="35" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="57">
         <v>26</v>
       </c>
@@ -29460,11 +29470,13 @@
       <c r="AMI35" s="68"/>
       <c r="AMJ35" s="68"/>
     </row>
-    <row r="36" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="57">
         <v>27</v>
       </c>
-      <c r="B36" s="97"/>
+      <c r="B36" s="97" t="s">
+        <v>57</v>
+      </c>
       <c r="C36" s="59">
         <v>0</v>
       </c>
@@ -29475,19 +29487,19 @@
         <v>0</v>
       </c>
       <c r="F36" s="59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="60">
         <f>VLOOKUP(H36,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I36" s="62"/>
       <c r="J36" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="101"/>
       <c r="L36" s="101"/>
@@ -29495,7 +29507,7 @@
       <c r="N36" s="75"/>
       <c r="O36" s="101"/>
       <c r="P36" s="101"/>
-      <c r="Q36" s="64"/>
+      <c r="Q36" s="128"/>
       <c r="R36" s="75"/>
       <c r="S36" s="101"/>
       <c r="T36" s="101"/>
@@ -29507,7 +29519,7 @@
       <c r="Z36" s="75"/>
       <c r="AA36" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB36" s="71"/>
       <c r="AC36" s="68"/>
@@ -30507,13 +30519,15 @@
       <c r="AMI36" s="68"/>
       <c r="AMJ36" s="68"/>
     </row>
-    <row r="37" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="57">
         <v>28</v>
       </c>
-      <c r="B37" s="97"/>
+      <c r="B37" s="97" t="s">
+        <v>58</v>
+      </c>
       <c r="C37" s="59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="59">
         <v>0</v>
@@ -30522,19 +30536,19 @@
         <v>0</v>
       </c>
       <c r="F37" s="59">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G37" s="60">
         <f>VLOOKUP(H37,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37" s="62"/>
       <c r="J37" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K37" s="101"/>
       <c r="L37" s="101"/>
@@ -30542,7 +30556,7 @@
       <c r="N37" s="75"/>
       <c r="O37" s="101"/>
       <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
+      <c r="Q37" s="128"/>
       <c r="R37" s="75"/>
       <c r="S37" s="101"/>
       <c r="T37" s="101"/>
@@ -30554,7 +30568,7 @@
       <c r="Z37" s="75"/>
       <c r="AA37" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AB37" s="71"/>
       <c r="AC37" s="68"/>
@@ -31554,11 +31568,13 @@
       <c r="AMI37" s="68"/>
       <c r="AMJ37" s="68"/>
     </row>
-    <row r="38" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="57">
         <v>29</v>
       </c>
-      <c r="B38" s="97"/>
+      <c r="B38" s="97" t="s">
+        <v>59</v>
+      </c>
       <c r="C38" s="59">
         <v>0</v>
       </c>
@@ -31569,19 +31585,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" s="60">
         <f>VLOOKUP(H38,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I38" s="62"/>
       <c r="J38" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K38" s="101"/>
       <c r="L38" s="101"/>
@@ -31589,7 +31605,7 @@
       <c r="N38" s="75"/>
       <c r="O38" s="101"/>
       <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
+      <c r="Q38" s="128"/>
       <c r="R38" s="65"/>
       <c r="S38" s="101"/>
       <c r="T38" s="101"/>
@@ -31601,7 +31617,7 @@
       <c r="Z38" s="75"/>
       <c r="AA38" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AB38" s="71"/>
       <c r="AC38" s="68"/>
@@ -32601,13 +32617,15 @@
       <c r="AMI38" s="68"/>
       <c r="AMJ38" s="68"/>
     </row>
-    <row r="39" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1024" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="57">
         <v>30</v>
       </c>
-      <c r="B39" s="97"/>
+      <c r="B39" s="97" t="s">
+        <v>60</v>
+      </c>
       <c r="C39" s="59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D39" s="59">
         <v>0</v>
@@ -32620,15 +32638,15 @@
       </c>
       <c r="G39" s="60">
         <f>VLOOKUP(H39,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39" s="62"/>
       <c r="J39" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K39" s="101"/>
       <c r="L39" s="101"/>
@@ -32636,7 +32654,7 @@
       <c r="N39" s="75"/>
       <c r="O39" s="101"/>
       <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
+      <c r="Q39" s="128"/>
       <c r="R39" s="75"/>
       <c r="S39" s="64"/>
       <c r="T39" s="101"/>
@@ -32648,7 +32666,7 @@
       <c r="Z39" s="75"/>
       <c r="AA39" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AB39" s="71"/>
       <c r="AC39" s="68"/>
@@ -33648,7 +33666,7 @@
       <c r="AMI39" s="68"/>
       <c r="AMJ39" s="68"/>
     </row>
-    <row r="40" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="57">
         <v>31</v>
       </c>
@@ -34695,7 +34713,7 @@
       <c r="AMI40" s="68"/>
       <c r="AMJ40" s="68"/>
     </row>
-    <row r="41" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="57">
         <v>32</v>
       </c>
@@ -35742,7 +35760,7 @@
       <c r="AMI41" s="68"/>
       <c r="AMJ41" s="68"/>
     </row>
-    <row r="42" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="57">
         <v>33</v>
       </c>
@@ -36789,7 +36807,7 @@
       <c r="AMI42" s="68"/>
       <c r="AMJ42" s="68"/>
     </row>
-    <row r="43" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="57">
         <v>34</v>
       </c>
@@ -37836,7 +37854,7 @@
       <c r="AMI43" s="68"/>
       <c r="AMJ43" s="68"/>
     </row>
-    <row r="44" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="57">
         <v>35</v>
       </c>
@@ -38883,7 +38901,7 @@
       <c r="AMI44" s="68"/>
       <c r="AMJ44" s="68"/>
     </row>
-    <row r="45" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="57">
         <v>36</v>
       </c>
@@ -39930,7 +39948,7 @@
       <c r="AMI45" s="68"/>
       <c r="AMJ45" s="68"/>
     </row>
-    <row r="46" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="57">
         <v>37</v>
       </c>
@@ -40977,7 +40995,7 @@
       <c r="AMI46" s="68"/>
       <c r="AMJ46" s="68"/>
     </row>
-    <row r="47" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="57">
         <v>38</v>
       </c>
@@ -42024,7 +42042,7 @@
       <c r="AMI47" s="68"/>
       <c r="AMJ47" s="68"/>
     </row>
-    <row r="48" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1024" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="57">
         <v>39</v>
       </c>
@@ -43071,7 +43089,7 @@
       <c r="AMI48" s="68"/>
       <c r="AMJ48" s="68"/>
     </row>
-    <row r="49" spans="1:1024" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1024" s="69" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
         <v>40</v>
       </c>
@@ -44118,14 +44136,14 @@
       <c r="AMI49" s="68"/>
       <c r="AMJ49" s="68"/>
     </row>
-    <row r="50" spans="1:1024" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="138" t="s">
+    <row r="50" spans="1:1024" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="138"/>
+      <c r="B50" s="134"/>
       <c r="C50" s="47">
         <f>SUM(C10:C49)</f>
-        <v>58.5</v>
+        <v>65.5</v>
       </c>
       <c r="D50" s="47">
         <f>SUM(D10:D49)</f>
@@ -44137,14 +44155,14 @@
       </c>
       <c r="F50" s="47">
         <f>SUM(F10:F49)</f>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G50" s="48"/>
       <c r="H50" s="49"/>
       <c r="I50" s="50"/>
       <c r="J50" s="47">
         <f>SUM(C50:F50)</f>
-        <v>223.5</v>
+        <v>245.5</v>
       </c>
       <c r="K50" s="51"/>
       <c r="L50" s="51"/>
@@ -44164,18 +44182,18 @@
       <c r="Z50" s="51"/>
       <c r="AA50" s="47">
         <f>SUM(AA10:AA49)</f>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="AB50" s="52"/>
     </row>
-    <row r="51" spans="1:1024" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="131" t="s">
+    <row r="51" spans="1:1024" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="131"/>
+      <c r="B51" s="135"/>
       <c r="C51" s="47">
         <f>135-C50</f>
-        <v>76.5</v>
+        <v>69.5</v>
       </c>
       <c r="D51" s="47">
         <f>135-D50</f>
@@ -44187,14 +44205,14 @@
       </c>
       <c r="F51" s="47">
         <f>135-F50</f>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G51" s="48"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
       <c r="J51" s="47">
         <f>SUM(C51:F51)</f>
-        <v>316.5</v>
+        <v>294.5</v>
       </c>
       <c r="K51" s="51"/>
       <c r="L51" s="51"/>
@@ -44215,11 +44233,11 @@
       <c r="AA51" s="53"/>
       <c r="AB51" s="51"/>
     </row>
-    <row r="52" spans="1:1024" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="133" t="s">
+    <row r="52" spans="1:1024" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="133"/>
+      <c r="B52" s="129"/>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
       <c r="E52" s="47"/>
@@ -44250,11 +44268,11 @@
       <c r="AA52" s="53"/>
       <c r="AB52" s="51"/>
     </row>
-    <row r="53" spans="1:1024" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="131" t="s">
+    <row r="53" spans="1:1024" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="131"/>
+      <c r="B53" s="135"/>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
       <c r="E53" s="54"/>
@@ -44267,7 +44285,7 @@
       </c>
       <c r="J53" s="47">
         <f>SUM(J10:J49)</f>
-        <v>223.5</v>
+        <v>245.5</v>
       </c>
       <c r="K53" s="51"/>
       <c r="L53" s="51"/>
@@ -44288,7 +44306,7 @@
       <c r="AA53" s="53"/>
       <c r="AB53" s="51"/>
     </row>
-    <row r="54" spans="1:1024" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="56"/>
@@ -44318,11 +44336,11 @@
       <c r="AA54" s="53"/>
       <c r="AB54" s="51"/>
     </row>
-    <row r="55" spans="1:1024" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="133" t="s">
+    <row r="55" spans="1:1024" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="133"/>
+      <c r="B55" s="129"/>
       <c r="C55" s="47">
         <f>135*4</f>
         <v>540</v>
@@ -44353,14 +44371,14 @@
       <c r="AA55" s="53"/>
       <c r="AB55" s="51"/>
     </row>
-    <row r="56" spans="1:1024" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="134" t="s">
+    <row r="56" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="134"/>
+      <c r="B56" s="130"/>
       <c r="C56" s="47">
         <f>C55-J53</f>
-        <v>316.5</v>
+        <v>294.5</v>
       </c>
       <c r="D56" s="56"/>
       <c r="E56" s="56"/>
@@ -44388,7 +44406,7 @@
       <c r="AA56" s="53"/>
       <c r="AB56" s="51"/>
     </row>
-    <row r="57" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
       <c r="B57" s="17"/>
       <c r="C57" s="37"/>
@@ -44401,12 +44419,12 @@
       <c r="J57" s="41"/>
       <c r="AA57" s="27"/>
     </row>
-    <row r="58" spans="1:1024" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="D58" s="38"/>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:1024" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1024" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -44421,7 +44439,7 @@
       <c r="Z59" s="21"/>
       <c r="AA59" s="28"/>
     </row>
-    <row r="60" spans="1:1024" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1024" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -44435,7 +44453,7 @@
       <c r="Z60" s="21"/>
       <c r="AA60" s="28"/>
     </row>
-    <row r="61" spans="1:1024" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1024" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
@@ -44451,6 +44469,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="F2:J2"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="AA7:AA8"/>
@@ -44466,12 +44490,6 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="En cours">
@@ -44528,12 +44546,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
@@ -44541,7 +44559,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -44549,7 +44567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -44569,7 +44587,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1" customWidth="1"/>
   </cols>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933F24A-20F3-D044-A537-5FADB4C7EC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB1231-6A42-3B41-AE4C-8AC715159DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1297,26 +1297,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1333,6 +1317,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1358,10 +1345,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1837,7 +1837,7 @@
   <dimension ref="A1:AMJ59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F34" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1865,40 +1865,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="D1" s="118" t="s">
+      <c r="B1" s="140"/>
+      <c r="D1" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1024" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="122"/>
+      <c r="B2" s="140"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
       <c r="P2" s="4"/>
@@ -1938,72 +1938,72 @@
       </c>
     </row>
     <row r="6" spans="1:1024" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K6" s="119" t="s">
+      <c r="K6" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="121"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="139"/>
       <c r="V6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:1024" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="134" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="135" t="s">
+      <c r="H7" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="136" t="s">
+      <c r="J7" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="138" t="s">
+      <c r="K7" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="127" t="s">
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="128" t="s">
+      <c r="AB7" s="124" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1024" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="131"/>
-      <c r="B8" s="132"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="35" t="s">
         <v>18</v>
       </c>
@@ -2016,10 +2016,10 @@
       <c r="F8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="30">
         <v>43838</v>
       </c>
@@ -2083,8 +2083,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="129"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="125"/>
     </row>
     <row r="9" spans="1:1024" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -18951,7 +18951,7 @@
       <c r="F26" s="95">
         <v>2</v>
       </c>
-      <c r="G26" s="141">
+      <c r="G26" s="120">
         <f>VLOOKUP(H26,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -18969,7 +18969,7 @@
       <c r="L26" s="97"/>
       <c r="M26" s="97"/>
       <c r="N26" s="73"/>
-      <c r="O26" s="139"/>
+      <c r="O26" s="118"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="62"/>
       <c r="R26" s="99"/>
@@ -20002,7 +20002,7 @@
       <c r="F27" s="58">
         <v>0</v>
       </c>
-      <c r="G27" s="141">
+      <c r="G27" s="120">
         <f>VLOOKUP(H27,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -20020,7 +20020,7 @@
       <c r="L27" s="62"/>
       <c r="M27" s="62"/>
       <c r="N27" s="63"/>
-      <c r="O27" s="139"/>
+      <c r="O27" s="118"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="63"/>
@@ -21053,7 +21053,7 @@
       <c r="F28" s="106">
         <v>4</v>
       </c>
-      <c r="G28" s="141">
+      <c r="G28" s="120">
         <f>VLOOKUP(H28,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -21072,7 +21072,7 @@
       <c r="M28" s="107"/>
       <c r="N28" s="108"/>
       <c r="O28" s="62"/>
-      <c r="P28" s="139"/>
+      <c r="P28" s="118"/>
       <c r="Q28" s="62"/>
       <c r="R28" s="108"/>
       <c r="S28" s="107"/>
@@ -22104,7 +22104,7 @@
       <c r="F29" s="58">
         <v>10</v>
       </c>
-      <c r="G29" s="141">
+      <c r="G29" s="120">
         <f>VLOOKUP(H29,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
@@ -23155,7 +23155,7 @@
       <c r="F30" s="95">
         <v>0</v>
       </c>
-      <c r="G30" s="141">
+      <c r="G30" s="120">
         <f>VLOOKUP(H30,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -23174,7 +23174,7 @@
       <c r="M30" s="97"/>
       <c r="N30" s="73"/>
       <c r="O30" s="62"/>
-      <c r="P30" s="139"/>
+      <c r="P30" s="118"/>
       <c r="Q30" s="62"/>
       <c r="R30" s="79"/>
       <c r="S30" s="97"/>
@@ -24206,7 +24206,7 @@
       <c r="F31" s="58">
         <v>0</v>
       </c>
-      <c r="G31" s="141">
+      <c r="G31" s="120">
         <f>VLOOKUP(H31,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -24225,7 +24225,7 @@
       <c r="M31" s="62"/>
       <c r="N31" s="63"/>
       <c r="O31" s="62"/>
-      <c r="P31" s="139"/>
+      <c r="P31" s="118"/>
       <c r="Q31" s="62"/>
       <c r="R31" s="63"/>
       <c r="S31" s="62"/>
@@ -25257,7 +25257,7 @@
       <c r="F32" s="58">
         <v>3</v>
       </c>
-      <c r="G32" s="141">
+      <c r="G32" s="120">
         <f>VLOOKUP(H32,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -25276,7 +25276,7 @@
       <c r="M32" s="62"/>
       <c r="N32" s="63"/>
       <c r="O32" s="62"/>
-      <c r="P32" s="139"/>
+      <c r="P32" s="118"/>
       <c r="Q32" s="62"/>
       <c r="R32" s="63"/>
       <c r="S32" s="62"/>
@@ -26308,7 +26308,7 @@
       <c r="F33" s="106">
         <v>0</v>
       </c>
-      <c r="G33" s="141">
+      <c r="G33" s="120">
         <f>VLOOKUP(H33,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -26327,8 +26327,8 @@
       <c r="M33" s="98"/>
       <c r="N33" s="99"/>
       <c r="O33" s="62"/>
-      <c r="P33" s="139"/>
-      <c r="Q33" s="139"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
       <c r="R33" s="112"/>
       <c r="S33" s="98"/>
       <c r="T33" s="98"/>
@@ -27359,7 +27359,7 @@
       <c r="F34" s="58">
         <v>0</v>
       </c>
-      <c r="G34" s="141">
+      <c r="G34" s="120">
         <f>VLOOKUP(H34,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -27379,7 +27379,7 @@
       <c r="N34" s="73"/>
       <c r="O34" s="62"/>
       <c r="P34" s="62"/>
-      <c r="Q34" s="140"/>
+      <c r="Q34" s="119"/>
       <c r="R34" s="73"/>
       <c r="S34" s="97"/>
       <c r="T34" s="97"/>
@@ -28410,7 +28410,7 @@
       <c r="F35" s="58">
         <v>3</v>
       </c>
-      <c r="G35" s="141">
+      <c r="G35" s="120">
         <f>VLOOKUP(H35,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -28428,7 +28428,7 @@
       <c r="N35" s="73"/>
       <c r="O35" s="97"/>
       <c r="P35" s="97"/>
-      <c r="Q35" s="140"/>
+      <c r="Q35" s="119"/>
       <c r="R35" s="73"/>
       <c r="S35" s="97"/>
       <c r="T35" s="97"/>
@@ -29459,7 +29459,7 @@
       <c r="F36" s="58">
         <v>8</v>
       </c>
-      <c r="G36" s="141">
+      <c r="G36" s="120">
         <f>VLOOKUP(H36,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -29477,7 +29477,7 @@
       <c r="N36" s="73"/>
       <c r="O36" s="97"/>
       <c r="P36" s="97"/>
-      <c r="Q36" s="140"/>
+      <c r="Q36" s="119"/>
       <c r="R36" s="73"/>
       <c r="S36" s="97"/>
       <c r="T36" s="97"/>
@@ -30508,7 +30508,7 @@
       <c r="F37" s="58">
         <v>4</v>
       </c>
-      <c r="G37" s="141">
+      <c r="G37" s="120">
         <f>VLOOKUP(H37,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -30526,7 +30526,7 @@
       <c r="N37" s="73"/>
       <c r="O37" s="97"/>
       <c r="P37" s="97"/>
-      <c r="Q37" s="140"/>
+      <c r="Q37" s="119"/>
       <c r="R37" s="63"/>
       <c r="S37" s="97"/>
       <c r="T37" s="97"/>
@@ -31557,7 +31557,7 @@
       <c r="F38" s="58">
         <v>0</v>
       </c>
-      <c r="G38" s="141">
+      <c r="G38" s="120">
         <f>VLOOKUP(H38,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -31575,7 +31575,7 @@
       <c r="N38" s="73"/>
       <c r="O38" s="97"/>
       <c r="P38" s="97"/>
-      <c r="Q38" s="140"/>
+      <c r="Q38" s="119"/>
       <c r="R38" s="73"/>
       <c r="S38" s="62"/>
       <c r="T38" s="97"/>
@@ -32606,7 +32606,7 @@
       <c r="F39" s="58">
         <v>4</v>
       </c>
-      <c r="G39" s="141">
+      <c r="G39" s="120">
         <f>VLOOKUP(H39,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -32625,7 +32625,7 @@
       <c r="O39" s="97"/>
       <c r="P39" s="97"/>
       <c r="Q39" s="97"/>
-      <c r="R39" s="140"/>
+      <c r="R39" s="119"/>
       <c r="S39" s="62"/>
       <c r="T39" s="62"/>
       <c r="U39" s="97"/>
@@ -33655,7 +33655,7 @@
       <c r="F40" s="58">
         <v>6</v>
       </c>
-      <c r="G40" s="141">
+      <c r="G40" s="120">
         <f>VLOOKUP(H40,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -33674,7 +33674,7 @@
       <c r="O40" s="97"/>
       <c r="P40" s="97"/>
       <c r="Q40" s="97"/>
-      <c r="R40" s="140"/>
+      <c r="R40" s="119"/>
       <c r="S40" s="97"/>
       <c r="T40" s="97"/>
       <c r="U40" s="62"/>
@@ -34685,7 +34685,7 @@
       <c r="AMI40" s="66"/>
       <c r="AMJ40" s="66"/>
     </row>
-    <row r="41" spans="1:1024" s="67" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="56">
         <v>26</v>
       </c>
@@ -34693,7 +34693,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="58">
         <v>0</v>
@@ -34702,9 +34702,9 @@
         <v>0</v>
       </c>
       <c r="F41" s="58">
-        <v>0</v>
-      </c>
-      <c r="G41" s="141">
+        <v>2</v>
+      </c>
+      <c r="G41" s="120">
         <f>VLOOKUP(H41,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
@@ -34714,7 +34714,7 @@
       <c r="I41" s="60"/>
       <c r="J41" s="60">
         <f>SUM(C41:F41)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K41" s="97"/>
       <c r="L41" s="97"/>
@@ -34734,7 +34734,7 @@
       <c r="Z41" s="73"/>
       <c r="AA41" s="64">
         <f>I41-J41</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AB41" s="69"/>
       <c r="AC41" s="66"/>
@@ -35753,7 +35753,7 @@
       <c r="F42" s="58">
         <v>0</v>
       </c>
-      <c r="G42" s="141">
+      <c r="G42" s="120">
         <f>VLOOKUP(H42,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
@@ -36800,7 +36800,7 @@
       <c r="F43" s="58">
         <v>0</v>
       </c>
-      <c r="G43" s="141">
+      <c r="G43" s="120">
         <f>VLOOKUP(H43,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
@@ -37847,7 +37847,7 @@
       <c r="F44" s="58">
         <v>0</v>
       </c>
-      <c r="G44" s="141">
+      <c r="G44" s="120">
         <f>VLOOKUP(H44,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
@@ -38894,7 +38894,7 @@
       <c r="F45" s="58">
         <v>0</v>
       </c>
-      <c r="G45" s="141">
+      <c r="G45" s="120">
         <f>VLOOKUP(H45,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
@@ -39941,7 +39941,7 @@
       <c r="F46" s="58">
         <v>0</v>
       </c>
-      <c r="G46" s="141">
+      <c r="G46" s="120">
         <f>VLOOKUP(H46,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
@@ -40988,7 +40988,7 @@
       <c r="F47" s="58">
         <v>0</v>
       </c>
-      <c r="G47" s="141">
+      <c r="G47" s="120">
         <f>VLOOKUP(H47,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
@@ -42019,13 +42019,13 @@
       <c r="AMJ47" s="66"/>
     </row>
     <row r="48" spans="1:1024" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="130" t="s">
+      <c r="A48" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="130"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="47">
         <f>SUM(C10:C47)</f>
-        <v>65.5</v>
+        <v>67.5</v>
       </c>
       <c r="D48" s="47">
         <f>SUM(D10:D47)</f>
@@ -42037,14 +42037,14 @@
       </c>
       <c r="F48" s="47">
         <f>SUM(F10:F47)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G48" s="48"/>
       <c r="H48" s="55"/>
       <c r="I48" s="49"/>
       <c r="J48" s="47">
         <f>SUM(C48:F48)</f>
-        <v>255.5</v>
+        <v>259.5</v>
       </c>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
@@ -42064,18 +42064,18 @@
       <c r="Z48" s="50"/>
       <c r="AA48" s="47">
         <f>SUM(AA10:AA47)</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AB48" s="51"/>
     </row>
     <row r="49" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="123" t="s">
+      <c r="A49" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="123"/>
+      <c r="B49" s="127"/>
       <c r="C49" s="47">
         <f>135-C48</f>
-        <v>69.5</v>
+        <v>67.5</v>
       </c>
       <c r="D49" s="47">
         <f>135-D48</f>
@@ -42087,14 +42087,14 @@
       </c>
       <c r="F49" s="47">
         <f>135-F48</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G49" s="48"/>
       <c r="H49" s="47"/>
       <c r="I49" s="47"/>
       <c r="J49" s="47">
         <f>SUM(C49:F49)</f>
-        <v>284.5</v>
+        <v>280.5</v>
       </c>
       <c r="K49" s="50"/>
       <c r="L49" s="50"/>
@@ -42116,10 +42116,10 @@
       <c r="AB49" s="50"/>
     </row>
     <row r="50" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="125" t="s">
+      <c r="A50" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="125"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
       <c r="E50" s="47"/>
@@ -42151,10 +42151,10 @@
       <c r="AB50" s="50"/>
     </row>
     <row r="51" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="123"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
       <c r="E51" s="53"/>
@@ -42167,7 +42167,7 @@
       </c>
       <c r="J51" s="47">
         <f>SUM(J10:J47)</f>
-        <v>255.5</v>
+        <v>259.5</v>
       </c>
       <c r="K51" s="50"/>
       <c r="L51" s="50"/>
@@ -42219,10 +42219,10 @@
       <c r="AB52" s="50"/>
     </row>
     <row r="53" spans="1:28" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="125" t="s">
+      <c r="A53" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="125"/>
+      <c r="B53" s="121"/>
       <c r="C53" s="47">
         <f>135*4</f>
         <v>540</v>
@@ -42254,13 +42254,13 @@
       <c r="AB53" s="50"/>
     </row>
     <row r="54" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="126"/>
+      <c r="B54" s="122"/>
       <c r="C54" s="47">
         <f>C53-J51</f>
-        <v>284.5</v>
+        <v>280.5</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -42351,6 +42351,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F2:J2"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="AA7:AA8"/>
@@ -42366,12 +42372,6 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB1231-6A42-3B41-AE4C-8AC715159DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B2071-F165-4C73-B0A2-85C55E6E7FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -283,16 +285,19 @@
   <si>
     <t>Conceptualiser le schema relationnel de la Base de donnée</t>
   </si>
+  <si>
+    <t>Template user-view</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0\ %"/>
-    <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
-    <numFmt numFmtId="167" formatCode="\\;;;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0\ %"/>
+    <numFmt numFmtId="165" formatCode="[$-C0C]dd/mmm"/>
+    <numFmt numFmtId="166" formatCode="\\;;;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -970,9 +975,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -982,7 +987,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -997,19 +1002,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1028,19 +1033,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1083,25 +1088,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="32" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="32" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1122,19 +1127,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,7 +1147,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1155,7 +1160,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1167,21 +1172,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="21" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="21" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="22" fillId="6" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="6" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="24" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="24" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1197,7 +1202,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1205,14 +1210,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1228,15 +1233,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1259,11 +1264,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1285,15 +1290,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1302,11 +1307,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1317,9 +1343,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1345,33 +1368,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma" xfId="8" builtinId="3"/>
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Milliers" xfId="8" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
@@ -1535,7 +1543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1836,69 +1844,69 @@
   </sheetPr>
   <dimension ref="A1:AMJ59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="23" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="23" customWidth="1"/>
+    <col min="4" max="5" width="8.109375" style="23" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="32" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="32" customWidth="1"/>
     <col min="9" max="10" width="9.33203125" style="39" customWidth="1"/>
-    <col min="11" max="13" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="6.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="23" max="25" width="6.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="6.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="20.83203125" style="25" customWidth="1"/>
-    <col min="28" max="28" width="22.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.77734375" style="25" customWidth="1"/>
+    <col min="28" max="28" width="22.77734375" style="1" customWidth="1"/>
     <col min="29" max="1024" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:1024" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="D1" s="136" t="s">
+      <c r="B1" s="125"/>
+      <c r="D1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+    <row r="2" spans="1:1024" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="140"/>
+      <c r="B2" s="125"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
       <c r="P2" s="4"/>
@@ -1906,13 +1914,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
       <c r="P3" s="5"/>
       <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" ht="15.6" x14ac:dyDescent="0.3">
       <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1921,7 +1929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N5" s="7">
         <v>0.25</v>
       </c>
@@ -1937,73 +1945,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K6" s="137" t="s">
+    <row r="6" spans="1:1024" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="139"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="124"/>
       <c r="V6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:1024" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+    <row r="7" spans="1:1024" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131" t="s">
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="135" t="s">
+      <c r="K7" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="135"/>
-      <c r="U7" s="135"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="135"/>
-      <c r="Y7" s="135"/>
-      <c r="Z7" s="135"/>
-      <c r="AA7" s="123" t="s">
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
+      <c r="Y7" s="141"/>
+      <c r="Z7" s="141"/>
+      <c r="AA7" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="124" t="s">
+      <c r="AB7" s="131" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
+    <row r="8" spans="1:1024" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="134"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="35" t="s">
         <v>18</v>
       </c>
@@ -2016,10 +2024,10 @@
       <c r="F8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="30">
         <v>43838</v>
       </c>
@@ -2083,10 +2091,10 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="125"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="132"/>
     </row>
-    <row r="9" spans="1:1024" ht="19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>22</v>
@@ -2118,7 +2126,7 @@
       <c r="AA9" s="26"/>
       <c r="AB9" s="16"/>
     </row>
-    <row r="10" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56">
         <v>1</v>
       </c>
@@ -3169,7 +3177,7 @@
       <c r="AMI10" s="66"/>
       <c r="AMJ10" s="66"/>
     </row>
-    <row r="11" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56">
         <v>2</v>
       </c>
@@ -4220,7 +4228,7 @@
       <c r="AMI11" s="66"/>
       <c r="AMJ11" s="66"/>
     </row>
-    <row r="12" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56">
         <v>3</v>
       </c>
@@ -5271,7 +5279,7 @@
       <c r="AMI12" s="66"/>
       <c r="AMJ12" s="66"/>
     </row>
-    <row r="13" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56">
         <v>4</v>
       </c>
@@ -6322,7 +6330,7 @@
       <c r="AMI13" s="66"/>
       <c r="AMJ13" s="66"/>
     </row>
-    <row r="14" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56">
         <v>5</v>
       </c>
@@ -7373,7 +7381,7 @@
       <c r="AMI14" s="66"/>
       <c r="AMJ14" s="66"/>
     </row>
-    <row r="15" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56">
         <v>6</v>
       </c>
@@ -8424,7 +8432,7 @@
       <c r="AMI15" s="66"/>
       <c r="AMJ15" s="66"/>
     </row>
-    <row r="16" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56">
         <v>7</v>
       </c>
@@ -9475,7 +9483,7 @@
       <c r="AMI16" s="66"/>
       <c r="AMJ16" s="66"/>
     </row>
-    <row r="17" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56">
         <v>8</v>
       </c>
@@ -10526,7 +10534,7 @@
       <c r="AMI17" s="66"/>
       <c r="AMJ17" s="66"/>
     </row>
-    <row r="18" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56">
         <v>9</v>
       </c>
@@ -11577,7 +11585,7 @@
       <c r="AMI18" s="66"/>
       <c r="AMJ18" s="66"/>
     </row>
-    <row r="19" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56">
         <v>10</v>
       </c>
@@ -12628,7 +12636,7 @@
       <c r="AMI19" s="66"/>
       <c r="AMJ19" s="66"/>
     </row>
-    <row r="20" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56">
         <v>11</v>
       </c>
@@ -13679,7 +13687,7 @@
       <c r="AMI20" s="66"/>
       <c r="AMJ20" s="66"/>
     </row>
-    <row r="21" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56">
         <v>12</v>
       </c>
@@ -14728,7 +14736,7 @@
       <c r="AMI21" s="66"/>
       <c r="AMJ21" s="66"/>
     </row>
-    <row r="22" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56">
         <v>13</v>
       </c>
@@ -15779,7 +15787,7 @@
       <c r="AMI22" s="66"/>
       <c r="AMJ22" s="66"/>
     </row>
-    <row r="23" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56">
         <v>14</v>
       </c>
@@ -16830,7 +16838,7 @@
       <c r="AMI23" s="66"/>
       <c r="AMJ23" s="66"/>
     </row>
-    <row r="24" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="56">
         <v>15</v>
       </c>
@@ -16844,7 +16852,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="58">
         <v>0</v>
@@ -16861,7 +16869,7 @@
       </c>
       <c r="J24" s="60">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K24" s="89"/>
       <c r="L24" s="81"/>
@@ -16869,7 +16877,7 @@
       <c r="N24" s="90"/>
       <c r="O24" s="90"/>
       <c r="P24" s="92"/>
-      <c r="Q24" s="91"/>
+      <c r="Q24" s="142"/>
       <c r="R24" s="77"/>
       <c r="S24" s="76"/>
       <c r="T24" s="76"/>
@@ -16881,7 +16889,7 @@
       <c r="Z24" s="63"/>
       <c r="AA24" s="64">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB24" s="69"/>
       <c r="AC24" s="66"/>
@@ -17881,7 +17889,7 @@
       <c r="AMI24" s="66"/>
       <c r="AMJ24" s="66"/>
     </row>
-    <row r="25" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56">
         <v>16</v>
       </c>
@@ -18932,7 +18940,7 @@
       <c r="AMI25" s="66"/>
       <c r="AMJ25" s="66"/>
     </row>
-    <row r="26" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="56">
         <v>17</v>
       </c>
@@ -19983,7 +19991,7 @@
       <c r="AMI26" s="66"/>
       <c r="AMJ26" s="66"/>
     </row>
-    <row r="27" spans="1:1024" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" s="104" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="56">
         <v>18</v>
       </c>
@@ -21034,7 +21042,7 @@
       <c r="AMI27" s="103"/>
       <c r="AMJ27" s="103"/>
     </row>
-    <row r="28" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="56">
         <v>19</v>
       </c>
@@ -22085,7 +22093,7 @@
       <c r="AMI28" s="66"/>
       <c r="AMJ28" s="66"/>
     </row>
-    <row r="29" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56">
         <v>20</v>
       </c>
@@ -22095,10 +22103,10 @@
       <c r="C29" s="58">
         <v>6</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="106">
         <v>0</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="106">
         <v>0</v>
       </c>
       <c r="F29" s="58">
@@ -23136,7 +23144,7 @@
       <c r="AMI29" s="66"/>
       <c r="AMJ29" s="66"/>
     </row>
-    <row r="30" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1024" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="56">
         <v>21</v>
       </c>
@@ -24187,7 +24195,7 @@
       <c r="AMI30" s="66"/>
       <c r="AMJ30" s="66"/>
     </row>
-    <row r="31" spans="1:1024" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" s="104" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="56">
         <v>22</v>
       </c>
@@ -25238,7 +25246,7 @@
       <c r="AMI31" s="103"/>
       <c r="AMJ31" s="103"/>
     </row>
-    <row r="32" spans="1:1024" s="104" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" s="104" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="56">
         <v>23</v>
       </c>
@@ -26289,7 +26297,7 @@
       <c r="AMI32" s="103"/>
       <c r="AMJ32" s="103"/>
     </row>
-    <row r="33" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="56">
         <v>24</v>
       </c>
@@ -27340,7 +27348,7 @@
       <c r="AMI33" s="66"/>
       <c r="AMJ33" s="66"/>
     </row>
-    <row r="34" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>25</v>
       </c>
@@ -28391,7 +28399,7 @@
       <c r="AMI34" s="66"/>
       <c r="AMJ34" s="66"/>
     </row>
-    <row r="35" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>27</v>
       </c>
@@ -29440,7 +29448,7 @@
       <c r="AMI35" s="66"/>
       <c r="AMJ35" s="66"/>
     </row>
-    <row r="36" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56">
         <v>28</v>
       </c>
@@ -30489,7 +30497,7 @@
       <c r="AMI36" s="66"/>
       <c r="AMJ36" s="66"/>
     </row>
-    <row r="37" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56">
         <v>29</v>
       </c>
@@ -31538,7 +31546,7 @@
       <c r="AMI37" s="66"/>
       <c r="AMJ37" s="66"/>
     </row>
-    <row r="38" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1024" s="67" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="56">
         <v>30</v>
       </c>
@@ -32587,7 +32595,7 @@
       <c r="AMI38" s="66"/>
       <c r="AMJ38" s="66"/>
     </row>
-    <row r="39" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="56">
         <v>31</v>
       </c>
@@ -33636,7 +33644,7 @@
       <c r="AMI39" s="66"/>
       <c r="AMJ39" s="66"/>
     </row>
-    <row r="40" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56">
         <v>33</v>
       </c>
@@ -34685,7 +34693,7 @@
       <c r="AMI40" s="66"/>
       <c r="AMJ40" s="66"/>
     </row>
-    <row r="41" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="56">
         <v>26</v>
       </c>
@@ -35734,7 +35742,7 @@
       <c r="AMI41" s="66"/>
       <c r="AMJ41" s="66"/>
     </row>
-    <row r="42" spans="1:1024" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="56">
         <v>35</v>
       </c>
@@ -36783,11 +36791,13 @@
       <c r="AMI42" s="66"/>
       <c r="AMJ42" s="66"/>
     </row>
-    <row r="43" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1024" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>36</v>
       </c>
-      <c r="B43" s="94"/>
+      <c r="B43" s="94" t="s">
+        <v>64</v>
+      </c>
       <c r="C43" s="58">
         <v>0</v>
       </c>
@@ -36795,22 +36805,24 @@
         <v>0</v>
       </c>
       <c r="E43" s="58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43" s="58">
         <v>0</v>
       </c>
       <c r="G43" s="120">
         <f>VLOOKUP(H43,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H43" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="60"/>
+        <v>3</v>
+      </c>
+      <c r="I43" s="60">
+        <v>4</v>
+      </c>
       <c r="J43" s="60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" s="97"/>
       <c r="L43" s="97"/>
@@ -36818,7 +36830,7 @@
       <c r="N43" s="73"/>
       <c r="O43" s="97"/>
       <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
+      <c r="Q43" s="142"/>
       <c r="R43" s="73"/>
       <c r="S43" s="97"/>
       <c r="T43" s="97"/>
@@ -36830,7 +36842,7 @@
       <c r="Z43" s="73"/>
       <c r="AA43" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="69"/>
       <c r="AC43" s="66"/>
@@ -37830,7 +37842,7 @@
       <c r="AMI43" s="66"/>
       <c r="AMJ43" s="66"/>
     </row>
-    <row r="44" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="56">
         <v>37</v>
       </c>
@@ -38877,7 +38889,7 @@
       <c r="AMI44" s="66"/>
       <c r="AMJ44" s="66"/>
     </row>
-    <row r="45" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56">
         <v>38</v>
       </c>
@@ -39924,7 +39936,7 @@
       <c r="AMI45" s="66"/>
       <c r="AMJ45" s="66"/>
     </row>
-    <row r="46" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="56">
         <v>39</v>
       </c>
@@ -40971,7 +40983,7 @@
       <c r="AMI46" s="66"/>
       <c r="AMJ46" s="66"/>
     </row>
-    <row r="47" spans="1:1024" s="67" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1024" s="67" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="56">
         <v>40</v>
       </c>
@@ -42018,11 +42030,11 @@
       <c r="AMI47" s="66"/>
       <c r="AMJ47" s="66"/>
     </row>
-    <row r="48" spans="1:1024" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="126" t="s">
+    <row r="48" spans="1:1024" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="126"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="47">
         <f>SUM(C10:C47)</f>
         <v>67.5</v>
@@ -42033,7 +42045,7 @@
       </c>
       <c r="E48" s="47">
         <f>SUM(E10:E47)</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F48" s="47">
         <f>SUM(F10:F47)</f>
@@ -42044,7 +42056,7 @@
       <c r="I48" s="49"/>
       <c r="J48" s="47">
         <f>SUM(C48:F48)</f>
-        <v>259.5</v>
+        <v>263.5</v>
       </c>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
@@ -42068,11 +42080,11 @@
       </c>
       <c r="AB48" s="51"/>
     </row>
-    <row r="49" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="127" t="s">
+    <row r="49" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="127"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="47">
         <f>135-C48</f>
         <v>67.5</v>
@@ -42083,7 +42095,7 @@
       </c>
       <c r="E49" s="47">
         <f>135-E48</f>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F49" s="47">
         <f>135-F48</f>
@@ -42094,7 +42106,7 @@
       <c r="I49" s="47"/>
       <c r="J49" s="47">
         <f>SUM(C49:F49)</f>
-        <v>280.5</v>
+        <v>276.5</v>
       </c>
       <c r="K49" s="50"/>
       <c r="L49" s="50"/>
@@ -42115,11 +42127,11 @@
       <c r="AA49" s="52"/>
       <c r="AB49" s="50"/>
     </row>
-    <row r="50" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121" t="s">
+    <row r="50" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="121"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
       <c r="E50" s="47"/>
@@ -42150,11 +42162,11 @@
       <c r="AA50" s="52"/>
       <c r="AB50" s="50"/>
     </row>
-    <row r="51" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="127" t="s">
+    <row r="51" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="127"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
       <c r="E51" s="53"/>
@@ -42163,11 +42175,11 @@
       <c r="H51" s="47"/>
       <c r="I51" s="54">
         <f>SUM(I10:I47)</f>
-        <v>254.5</v>
+        <v>258.5</v>
       </c>
       <c r="J51" s="47">
         <f>SUM(J10:J47)</f>
-        <v>259.5</v>
+        <v>263.5</v>
       </c>
       <c r="K51" s="50"/>
       <c r="L51" s="50"/>
@@ -42188,7 +42200,7 @@
       <c r="AA51" s="52"/>
       <c r="AB51" s="50"/>
     </row>
-    <row r="52" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="55"/>
@@ -42218,11 +42230,11 @@
       <c r="AA52" s="52"/>
       <c r="AB52" s="50"/>
     </row>
-    <row r="53" spans="1:28" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="121" t="s">
+    <row r="53" spans="1:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="121"/>
+      <c r="B53" s="128"/>
       <c r="C53" s="47">
         <f>135*4</f>
         <v>540</v>
@@ -42253,14 +42265,14 @@
       <c r="AA53" s="52"/>
       <c r="AB53" s="50"/>
     </row>
-    <row r="54" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="122" t="s">
+    <row r="54" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="122"/>
+      <c r="B54" s="129"/>
       <c r="C54" s="47">
         <f>C53-J51</f>
-        <v>280.5</v>
+        <v>276.5</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -42288,7 +42300,7 @@
       <c r="AA54" s="52"/>
       <c r="AB54" s="50"/>
     </row>
-    <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="17"/>
       <c r="C55" s="37"/>
@@ -42301,12 +42313,12 @@
       <c r="J55" s="41"/>
       <c r="AA55" s="27"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:28" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -42321,7 +42333,7 @@
       <c r="Z57" s="21"/>
       <c r="AA57" s="28"/>
     </row>
-    <row r="58" spans="1:28" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
@@ -42335,7 +42347,7 @@
       <c r="Z58" s="21"/>
       <c r="AA58" s="28"/>
     </row>
-    <row r="59" spans="1:28" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
@@ -42351,12 +42363,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="F2:J2"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="AA7:AA8"/>
@@ -42372,6 +42378,12 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="En cours">
@@ -42428,12 +42440,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
@@ -42441,7 +42453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -42449,7 +42461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -42469,7 +42481,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1" customWidth="1"/>
   </cols>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8CD6AA-81F7-C546-8DEA-9E9DE8DA6934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3E1FD-6F4A-46A0-B83C-5938BA5B8DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -300,6 +302,12 @@
       <t>à accorder au projet</t>
     </r>
   </si>
+  <si>
+    <t>Appliquer un style uniforme à la plateforme</t>
+  </si>
+  <si>
+    <t>Réunion 2019-02-24</t>
+  </si>
 </sst>
 </file>
 
@@ -311,7 +319,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
     <numFmt numFmtId="167" formatCode="\\;;;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -458,6 +466,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -916,50 +930,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -1018,9 +990,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1247,14 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1317,19 +1278,73 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="5" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
@@ -1493,7 +1508,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1792,2745 +1807,3208 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK59"/>
+  <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="66.1640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="16" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10" style="15" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="18" customWidth="1"/>
-    <col min="11" max="13" width="8" style="15" customWidth="1"/>
-    <col min="14" max="14" width="8" style="19" customWidth="1"/>
-    <col min="15" max="16" width="7.83203125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" style="15" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="19" customWidth="1"/>
-    <col min="19" max="21" width="6.6640625" style="15" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="19" hidden="1" customWidth="1"/>
-    <col min="23" max="25" width="6.6640625" style="15" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" style="19" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="20.83203125" style="20" customWidth="1"/>
-    <col min="28" max="28" width="22.83203125" style="15" customWidth="1"/>
-    <col min="29" max="1025" width="10.6640625" style="15"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
+    <col min="11" max="13" width="8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="5" customWidth="1"/>
+    <col min="15" max="16" width="7.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.77734375" style="6" customWidth="1"/>
+    <col min="28" max="28" width="22.77734375" style="1" customWidth="1"/>
+    <col min="29" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="22" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="13" t="s">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="N1" s="17"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="24"/>
-    </row>
-    <row r="2" spans="1:28" s="22" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="10"/>
+    </row>
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="N2" s="17"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="22" t="s">
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="24"/>
-    </row>
-    <row r="3" spans="1:28" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="N3" s="17"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="22" t="s">
+      <c r="R2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="24"/>
-    </row>
-    <row r="4" spans="1:28" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="N4" s="17" t="s">
+      <c r="R3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="N4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="22" t="s">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="24"/>
-    </row>
-    <row r="5" spans="1:28" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="N5" s="31">
+      <c r="R4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="N5" s="17">
         <v>0.25</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="31">
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="17">
         <v>0.5</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="17">
         <v>0.75</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="17">
         <v>1</v>
       </c>
-      <c r="AA5" s="24"/>
-    </row>
-    <row r="6" spans="1:28" s="22" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="12" t="s">
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="V6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="24"/>
-    </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="V6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="4" t="s">
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB7" s="135" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="34" t="s">
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="35">
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="21">
         <v>43838</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="22">
         <f t="shared" ref="L8:Z8" si="0">K8+7</f>
         <v>43845</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="22">
         <f t="shared" si="0"/>
         <v>43852</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="22">
         <f t="shared" si="0"/>
         <v>43859</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="22">
         <f t="shared" si="0"/>
         <v>43866</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="22">
         <f t="shared" si="0"/>
         <v>43873</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="22">
         <f t="shared" si="0"/>
         <v>43880</v>
       </c>
-      <c r="R8" s="36">
+      <c r="R8" s="123">
         <f t="shared" si="0"/>
         <v>43887</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="123">
         <f t="shared" si="0"/>
         <v>43894</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="123">
         <f t="shared" si="0"/>
         <v>43901</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="123">
         <f t="shared" si="0"/>
         <v>43908</v>
       </c>
-      <c r="V8" s="37">
+      <c r="V8" s="123">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
-      <c r="W8" s="37">
+      <c r="W8" s="123">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
-      <c r="X8" s="37">
+      <c r="X8" s="123">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="Y8" s="37">
+      <c r="Y8" s="123">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="Z8" s="37">
+      <c r="Z8" s="123">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="3"/>
-    </row>
-    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39" t="s">
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="135"/>
+    </row>
+    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="49"/>
-    </row>
-    <row r="10" spans="1:28" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="34"/>
+    </row>
+    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
         <v>1</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="37">
         <v>1.5</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="37">
         <v>1.5</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="37">
         <v>1.5</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="37">
         <v>1.5</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="38">
         <f>VLOOKUP(H10,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="55">
+      <c r="H10" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="40">
         <v>6</v>
       </c>
-      <c r="J10" s="55">
-        <f t="shared" ref="J10:J49" si="1">SUM(C10:F10)</f>
+      <c r="J10" s="40">
+        <f t="shared" ref="J10:J62" si="1">SUM(C10:F10)</f>
         <v>6</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="59">
-        <f t="shared" ref="AA10:AA47" si="2">I10-J10</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="60"/>
-    </row>
-    <row r="11" spans="1:28" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50">
-        <v>2</v>
-      </c>
-      <c r="B11" s="51" t="s">
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="44">
+        <f t="shared" ref="AA10:AA60" si="2">I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="45"/>
+    </row>
+    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
+        <v>2</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="37">
         <v>1.5</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="37">
         <v>1.5</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="37">
         <v>1.5</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="37">
         <v>1.5</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="38">
         <f>VLOOKUP(H11,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="55">
+      <c r="H11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="40">
         <v>6</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="59">
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="63"/>
-    </row>
-    <row r="12" spans="1:28" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50">
+      <c r="AB11" s="48"/>
+    </row>
+    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
         <v>3</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="37">
         <v>3</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="37">
         <v>3</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="37">
         <v>3</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="37">
         <v>3</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="38">
         <f>VLOOKUP(H12,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="55">
+      <c r="H12" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="40">
         <v>12</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="40">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="56"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="59">
+      <c r="K12" s="42"/>
+      <c r="L12" s="41"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="64"/>
-    </row>
-    <row r="13" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="50">
+      <c r="AB12" s="49"/>
+    </row>
+    <row r="13" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35">
         <v>4</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="52">
-        <v>2</v>
-      </c>
-      <c r="D13" s="52">
-        <v>2</v>
-      </c>
-      <c r="E13" s="52">
-        <v>2</v>
-      </c>
-      <c r="F13" s="52">
-        <v>2</v>
-      </c>
-      <c r="G13" s="53">
+      <c r="C13" s="37">
+        <v>2</v>
+      </c>
+      <c r="D13" s="37">
+        <v>2</v>
+      </c>
+      <c r="E13" s="37">
+        <v>2</v>
+      </c>
+      <c r="F13" s="37">
+        <v>2</v>
+      </c>
+      <c r="G13" s="38">
         <f>VLOOKUP(H13,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="55">
+      <c r="H13" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="40">
         <v>8</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="59">
+      <c r="K13" s="42"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="63"/>
-    </row>
-    <row r="14" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="50">
+      <c r="AB13" s="48"/>
+    </row>
+    <row r="14" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35">
         <v>5</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="37">
         <v>3</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="37">
         <v>3</v>
       </c>
-      <c r="E14" s="52">
-        <v>0</v>
-      </c>
-      <c r="F14" s="52">
+      <c r="E14" s="37">
+        <v>0</v>
+      </c>
+      <c r="F14" s="37">
         <v>3</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="38">
         <f>VLOOKUP(H14,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="55">
+      <c r="H14" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="40">
         <v>9</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="40">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="59">
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="63"/>
-    </row>
-    <row r="15" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="50">
+      <c r="AB14" s="48"/>
+    </row>
+    <row r="15" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35">
         <v>6</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="52">
-        <v>2</v>
-      </c>
-      <c r="D15" s="52">
-        <v>2</v>
-      </c>
-      <c r="E15" s="52">
-        <v>0</v>
-      </c>
-      <c r="F15" s="52">
-        <v>0</v>
-      </c>
-      <c r="G15" s="53">
+      <c r="C15" s="37">
+        <v>2</v>
+      </c>
+      <c r="D15" s="37">
+        <v>2</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0</v>
+      </c>
+      <c r="G15" s="38">
         <f>VLOOKUP(H15,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="55">
+      <c r="H15" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="40">
         <v>4</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59">
+      <c r="K15" s="42"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="63"/>
-    </row>
-    <row r="16" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="50">
+      <c r="AB15" s="48"/>
+    </row>
+    <row r="16" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35">
         <v>7</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="52">
-        <v>2</v>
-      </c>
-      <c r="D16" s="52">
-        <v>0</v>
-      </c>
-      <c r="E16" s="52">
-        <v>0</v>
-      </c>
-      <c r="F16" s="52">
-        <v>0</v>
-      </c>
-      <c r="G16" s="53">
+      <c r="C16" s="37">
+        <v>2</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0</v>
+      </c>
+      <c r="G16" s="38">
         <f>VLOOKUP(H16,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="55">
+      <c r="H16" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="40">
         <v>5</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="59">
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="44">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AB16" s="63"/>
-    </row>
-    <row r="17" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="50">
+      <c r="AB16" s="48"/>
+    </row>
+    <row r="17" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35">
         <v>8</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="52">
-        <v>2</v>
-      </c>
-      <c r="D17" s="52">
-        <v>2</v>
-      </c>
-      <c r="E17" s="52">
-        <v>0</v>
-      </c>
-      <c r="F17" s="52">
-        <v>0</v>
-      </c>
-      <c r="G17" s="53">
+      <c r="C17" s="37">
+        <v>2</v>
+      </c>
+      <c r="D17" s="37">
+        <v>2</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0</v>
+      </c>
+      <c r="G17" s="38">
         <f>VLOOKUP(H17,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="55">
+      <c r="H17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="40">
         <v>4</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="59">
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="63"/>
-    </row>
-    <row r="18" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="50">
+      <c r="AB17" s="48"/>
+    </row>
+    <row r="18" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35">
         <v>9</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="52">
-        <v>2</v>
-      </c>
-      <c r="D18" s="52">
-        <v>0</v>
-      </c>
-      <c r="E18" s="52">
-        <v>0</v>
-      </c>
-      <c r="F18" s="52">
-        <v>2</v>
-      </c>
-      <c r="G18" s="53">
+      <c r="C18" s="37">
+        <v>2</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0</v>
+      </c>
+      <c r="F18" s="37">
+        <v>2</v>
+      </c>
+      <c r="G18" s="38">
         <f>VLOOKUP(H18,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="55">
+      <c r="H18" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="40">
         <v>5</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="59">
+      <c r="K18" s="42"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB18" s="63"/>
-    </row>
-    <row r="19" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="50">
+      <c r="AB18" s="48"/>
+    </row>
+    <row r="19" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35">
         <v>10</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="37">
         <v>1.5</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="37">
         <v>6</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="37">
         <v>3</v>
       </c>
-      <c r="F19" s="52">
-        <v>0</v>
-      </c>
-      <c r="G19" s="53">
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="38">
         <f>VLOOKUP(H19,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="55">
+      <c r="H19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="40">
         <v>12</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="40">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="59">
+      <c r="K19" s="42"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="44">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="AB19" s="63"/>
-    </row>
-    <row r="20" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="50">
+      <c r="AB19" s="48"/>
+    </row>
+    <row r="20" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35">
         <v>11</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="52">
-        <v>0</v>
-      </c>
-      <c r="D20" s="52">
+      <c r="C20" s="37">
+        <v>0</v>
+      </c>
+      <c r="D20" s="37">
         <v>3</v>
       </c>
-      <c r="E20" s="52">
-        <v>0</v>
-      </c>
-      <c r="F20" s="52">
-        <v>0</v>
-      </c>
-      <c r="G20" s="53">
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="38">
         <f>VLOOKUP(H20,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="55">
+      <c r="H20" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="40">
         <v>10</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="59">
+      <c r="K20" s="42"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="44">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB20" s="63"/>
-    </row>
-    <row r="21" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="50">
+      <c r="AB20" s="48"/>
+    </row>
+    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35">
         <v>12</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="37">
         <v>3</v>
       </c>
-      <c r="D21" s="52">
-        <v>0</v>
-      </c>
-      <c r="E21" s="52">
-        <v>0</v>
-      </c>
-      <c r="F21" s="52">
+      <c r="D21" s="37">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37">
         <v>3</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="38">
         <f>VLOOKUP(H21,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="55">
+      <c r="H21" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="40">
         <v>6</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="59">
+      <c r="K21" s="42"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="63"/>
-    </row>
-    <row r="22" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="50">
+      <c r="AB21" s="48"/>
+    </row>
+    <row r="22" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35">
         <v>13</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="37">
         <v>3</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="37">
         <v>3</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="37">
         <v>3</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="37">
         <v>3</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="38">
         <f>VLOOKUP(H22,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="55">
+      <c r="H22" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="40">
         <v>30</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="40">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K22" s="83"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="59">
+      <c r="K22" s="68"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="44">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AB22" s="63"/>
-    </row>
-    <row r="23" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="50">
+      <c r="AB22" s="48"/>
+    </row>
+    <row r="23" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35">
         <v>14</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="52">
-        <v>0</v>
-      </c>
-      <c r="D23" s="52">
+      <c r="C23" s="37">
+        <v>0</v>
+      </c>
+      <c r="D23" s="37">
         <v>10</v>
       </c>
-      <c r="E23" s="52">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52">
-        <v>0</v>
-      </c>
-      <c r="G23" s="53">
+      <c r="E23" s="37">
+        <v>0</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0</v>
+      </c>
+      <c r="G23" s="38">
         <f>VLOOKUP(H23,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="40">
         <v>20</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K23" s="83"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="59">
+      <c r="K23" s="68"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="44">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB23" s="63"/>
-    </row>
-    <row r="24" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="50">
+      <c r="AB23" s="48"/>
+    </row>
+    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35">
         <v>15</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="37">
         <v>1</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="37">
         <v>10</v>
       </c>
-      <c r="E24" s="52">
-        <v>2</v>
-      </c>
-      <c r="F24" s="52">
-        <v>0</v>
-      </c>
-      <c r="G24" s="53">
+      <c r="E24" s="37">
+        <v>2</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0</v>
+      </c>
+      <c r="G24" s="38">
         <f>VLOOKUP(H24,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="55">
+      <c r="H24" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="40">
         <v>20</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="40">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K24" s="83"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="59">
+      <c r="K24" s="68"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="44">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB24" s="63"/>
-    </row>
-    <row r="25" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="50">
+      <c r="AB24" s="48"/>
+    </row>
+    <row r="25" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35">
         <v>16</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="37">
         <v>10</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="37">
         <v>10</v>
       </c>
-      <c r="E25" s="52">
-        <v>2</v>
-      </c>
-      <c r="F25" s="52">
+      <c r="E25" s="37">
+        <v>2</v>
+      </c>
+      <c r="F25" s="37">
         <v>15</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="38">
         <f>VLOOKUP(H25,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="40">
         <v>30</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="40">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="59">
+      <c r="K25" s="68"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44">
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-      <c r="AB25" s="63"/>
-    </row>
-    <row r="26" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="50">
+      <c r="AB25" s="48"/>
+    </row>
+    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35">
         <v>17</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="91">
-        <v>2</v>
-      </c>
-      <c r="D26" s="91">
-        <v>2</v>
-      </c>
-      <c r="E26" s="91">
-        <v>2</v>
-      </c>
-      <c r="F26" s="91">
-        <v>2</v>
-      </c>
-      <c r="G26" s="92">
+      <c r="C26" s="76">
+        <v>2</v>
+      </c>
+      <c r="D26" s="76">
+        <v>2</v>
+      </c>
+      <c r="E26" s="76">
+        <v>2</v>
+      </c>
+      <c r="F26" s="76">
+        <v>2</v>
+      </c>
+      <c r="G26" s="77">
         <f>VLOOKUP(H26,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="93">
+      <c r="H26" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="78">
         <v>8</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="59">
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="97"/>
-    </row>
-    <row r="27" spans="1:28" s="100" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="50">
+      <c r="AB26" s="82"/>
+    </row>
+    <row r="27" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="35">
         <v>18</v>
       </c>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="37">
         <v>3</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="37">
         <v>1</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="37">
         <v>1</v>
       </c>
-      <c r="F27" s="52">
-        <v>0</v>
-      </c>
-      <c r="G27" s="92">
+      <c r="F27" s="37">
+        <v>0</v>
+      </c>
+      <c r="G27" s="77">
         <f>VLOOKUP(H27,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="99">
+      <c r="H27" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="84">
         <v>21</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="59">
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="44">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="AB27" s="63"/>
-    </row>
-    <row r="28" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="50">
+      <c r="AB27" s="48"/>
+    </row>
+    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="35">
         <v>19</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="102">
-        <v>2</v>
-      </c>
-      <c r="D28" s="102">
-        <v>0</v>
-      </c>
-      <c r="E28" s="102">
-        <v>0</v>
-      </c>
-      <c r="F28" s="102">
+      <c r="C28" s="87">
+        <v>2</v>
+      </c>
+      <c r="D28" s="87">
+        <v>0</v>
+      </c>
+      <c r="E28" s="87">
+        <v>0</v>
+      </c>
+      <c r="F28" s="87">
         <v>4</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="77">
         <f>VLOOKUP(H28,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="55">
+      <c r="H28" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="40">
         <v>10</v>
       </c>
-      <c r="J28" s="55">
+      <c r="J28" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="59">
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="44">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AB28" s="63"/>
-    </row>
-    <row r="29" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="50">
+      <c r="AB28" s="48"/>
+    </row>
+    <row r="29" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35">
         <v>20</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="37">
         <v>6</v>
       </c>
-      <c r="D29" s="52">
-        <v>0</v>
-      </c>
-      <c r="E29" s="52">
-        <v>0</v>
-      </c>
-      <c r="F29" s="52">
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37">
         <v>10</v>
       </c>
-      <c r="G29" s="92">
+      <c r="G29" s="77">
         <f>VLOOKUP(H29,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="55">
+      <c r="I29" s="40">
         <v>5</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="40">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="59">
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="44">
         <f t="shared" si="2"/>
         <v>-11</v>
       </c>
-      <c r="AB29" s="63"/>
-    </row>
-    <row r="30" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="50">
+      <c r="AB29" s="48"/>
+    </row>
+    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="35">
         <v>21</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="91">
-        <v>0</v>
-      </c>
-      <c r="D30" s="91">
+      <c r="C30" s="76">
+        <v>0</v>
+      </c>
+      <c r="D30" s="76">
         <v>9</v>
       </c>
-      <c r="E30" s="91">
+      <c r="E30" s="76">
         <v>18.5</v>
       </c>
-      <c r="F30" s="91">
-        <v>0</v>
-      </c>
-      <c r="G30" s="92">
+      <c r="F30" s="76">
+        <v>0</v>
+      </c>
+      <c r="G30" s="77">
         <f>VLOOKUP(H30,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="93">
+      <c r="H30" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="78">
         <v>25</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="40">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="59">
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="44">
         <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
-      <c r="AB30" s="63"/>
-    </row>
-    <row r="31" spans="1:28" s="100" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="50">
+      <c r="AB30" s="48"/>
+    </row>
+    <row r="31" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35">
         <v>22</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="37">
         <v>5</v>
       </c>
-      <c r="D31" s="52">
-        <v>0</v>
-      </c>
-      <c r="E31" s="52">
-        <v>0</v>
-      </c>
-      <c r="F31" s="52">
-        <v>0</v>
-      </c>
-      <c r="G31" s="92">
+      <c r="D31" s="37">
+        <v>0</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0</v>
+      </c>
+      <c r="G31" s="77">
         <f>VLOOKUP(H31,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="99">
+      <c r="H31" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="84">
         <v>12</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="59">
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="44">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB31" s="63"/>
-    </row>
-    <row r="32" spans="1:28" s="100" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="50">
+      <c r="AB31" s="48"/>
+    </row>
+    <row r="32" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="35">
         <v>23</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="37">
         <v>3</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="37">
         <v>3</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="37">
         <v>3</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="37">
         <v>3</v>
       </c>
-      <c r="G32" s="92">
+      <c r="G32" s="77">
         <f>VLOOKUP(H32,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="99">
+      <c r="H32" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="84">
         <v>12</v>
       </c>
-      <c r="J32" s="99">
+      <c r="J32" s="84">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="59">
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="63"/>
-    </row>
-    <row r="33" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="50">
+      <c r="AB32" s="48"/>
+    </row>
+    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="35">
         <v>24</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="102">
-        <v>0</v>
-      </c>
-      <c r="D33" s="102">
-        <v>0</v>
-      </c>
-      <c r="E33" s="102">
+      <c r="C33" s="87">
+        <v>0</v>
+      </c>
+      <c r="D33" s="87">
+        <v>0</v>
+      </c>
+      <c r="E33" s="87">
         <v>10</v>
       </c>
-      <c r="F33" s="102">
-        <v>0</v>
-      </c>
-      <c r="G33" s="92">
+      <c r="F33" s="87">
+        <v>0</v>
+      </c>
+      <c r="G33" s="77">
         <f>VLOOKUP(H33,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="55">
+      <c r="H33" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="40">
         <v>10</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="59">
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="81"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="63"/>
-    </row>
-    <row r="34" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="50">
+      <c r="AB33" s="48"/>
+    </row>
+    <row r="34" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35">
         <v>25</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="52">
-        <v>0</v>
-      </c>
-      <c r="D34" s="52">
-        <v>0</v>
-      </c>
-      <c r="E34" s="52">
+      <c r="C34" s="37">
+        <v>0</v>
+      </c>
+      <c r="D34" s="37">
+        <v>0</v>
+      </c>
+      <c r="E34" s="37">
         <v>0.5</v>
       </c>
-      <c r="F34" s="52">
-        <v>0</v>
-      </c>
-      <c r="G34" s="92">
+      <c r="F34" s="37">
+        <v>0</v>
+      </c>
+      <c r="G34" s="77">
         <f>VLOOKUP(H34,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" s="55">
-        <v>0</v>
-      </c>
-      <c r="J34" s="55">
+      <c r="H34" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="40">
+        <v>0</v>
+      </c>
+      <c r="J34" s="40">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="59">
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="44">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="AB34" s="63"/>
-    </row>
-    <row r="35" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="50">
+      <c r="AB34" s="48"/>
+    </row>
+    <row r="35" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35">
         <v>27</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="52">
-        <v>0</v>
-      </c>
-      <c r="D35" s="52">
-        <v>0</v>
-      </c>
-      <c r="E35" s="52">
-        <v>0</v>
-      </c>
-      <c r="F35" s="52">
+      <c r="C35" s="37">
+        <v>0</v>
+      </c>
+      <c r="D35" s="37">
+        <v>0</v>
+      </c>
+      <c r="E35" s="37">
+        <v>0</v>
+      </c>
+      <c r="F35" s="37">
         <v>3</v>
       </c>
-      <c r="G35" s="92">
+      <c r="G35" s="77">
         <f>VLOOKUP(H35,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55">
+      <c r="H35" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="59">
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="44">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="AB35" s="63"/>
-    </row>
-    <row r="36" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="50">
+      <c r="AB35" s="48"/>
+    </row>
+    <row r="36" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35">
         <v>28</v>
       </c>
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="52">
-        <v>2</v>
-      </c>
-      <c r="D36" s="52">
-        <v>0</v>
-      </c>
-      <c r="E36" s="52">
-        <v>0</v>
-      </c>
-      <c r="F36" s="52">
+      <c r="C36" s="37">
+        <v>2</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0</v>
+      </c>
+      <c r="E36" s="37">
+        <v>0</v>
+      </c>
+      <c r="F36" s="37">
         <v>8</v>
       </c>
-      <c r="G36" s="92">
+      <c r="G36" s="77">
         <f>VLOOKUP(H36,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55">
+      <c r="H36" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="59">
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="44">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="AB36" s="63"/>
-    </row>
-    <row r="37" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="50">
+      <c r="AB36" s="48"/>
+    </row>
+    <row r="37" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35">
         <v>29</v>
       </c>
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="52">
-        <v>0</v>
-      </c>
-      <c r="D37" s="52">
-        <v>0</v>
-      </c>
-      <c r="E37" s="52">
-        <v>0</v>
-      </c>
-      <c r="F37" s="52">
+      <c r="C37" s="37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="37">
         <v>4</v>
       </c>
-      <c r="G37" s="92">
+      <c r="G37" s="77">
         <f>VLOOKUP(H37,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55">
+      <c r="H37" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="59">
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="44">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="AB37" s="63"/>
-    </row>
-    <row r="38" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="50">
+      <c r="AB37" s="48"/>
+    </row>
+    <row r="38" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35">
         <v>30</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="37">
         <v>5</v>
       </c>
-      <c r="D38" s="52">
-        <v>0</v>
-      </c>
-      <c r="E38" s="52">
-        <v>0</v>
-      </c>
-      <c r="F38" s="52">
-        <v>0</v>
-      </c>
-      <c r="G38" s="92">
+      <c r="D38" s="37">
+        <v>0</v>
+      </c>
+      <c r="E38" s="37">
+        <v>0</v>
+      </c>
+      <c r="F38" s="37">
+        <v>0</v>
+      </c>
+      <c r="G38" s="77">
         <f>VLOOKUP(H38,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55">
+      <c r="H38" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="94"/>
-      <c r="X38" s="94"/>
-      <c r="Y38" s="94"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="59">
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="44">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="AB38" s="63"/>
-    </row>
-    <row r="39" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="50">
+      <c r="AB38" s="48"/>
+    </row>
+    <row r="39" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35">
         <v>31</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="52">
-        <v>0</v>
-      </c>
-      <c r="D39" s="52">
-        <v>0</v>
-      </c>
-      <c r="E39" s="52">
-        <v>0</v>
-      </c>
-      <c r="F39" s="52">
+      <c r="C39" s="37">
+        <v>0</v>
+      </c>
+      <c r="D39" s="37">
+        <v>0</v>
+      </c>
+      <c r="E39" s="37">
+        <v>0</v>
+      </c>
+      <c r="F39" s="37">
         <v>4</v>
       </c>
-      <c r="G39" s="92">
+      <c r="G39" s="77">
         <f>VLOOKUP(H39,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55">
+      <c r="H39" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="94"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="59">
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="44">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="AB39" s="63"/>
-    </row>
-    <row r="40" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="50">
+      <c r="AB39" s="48"/>
+    </row>
+    <row r="40" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35">
         <v>32</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="52">
-        <v>0</v>
-      </c>
-      <c r="D40" s="52">
-        <v>0</v>
-      </c>
-      <c r="E40" s="52">
-        <v>0</v>
-      </c>
-      <c r="F40" s="52">
+      <c r="C40" s="37">
+        <v>0</v>
+      </c>
+      <c r="D40" s="37">
+        <v>0</v>
+      </c>
+      <c r="E40" s="37">
+        <v>0</v>
+      </c>
+      <c r="F40" s="37">
         <v>6</v>
       </c>
-      <c r="G40" s="92">
+      <c r="G40" s="77">
         <f>VLOOKUP(H40,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55">
+      <c r="H40" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="59">
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="44">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="AB40" s="63"/>
-    </row>
-    <row r="41" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="50">
+      <c r="AB40" s="48"/>
+    </row>
+    <row r="41" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35">
         <v>33</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="52">
-        <v>2</v>
-      </c>
-      <c r="D41" s="52">
+      <c r="C41" s="37">
+        <v>2</v>
+      </c>
+      <c r="D41" s="37">
         <v>1</v>
       </c>
-      <c r="E41" s="52">
-        <v>2</v>
-      </c>
-      <c r="F41" s="52">
-        <v>2</v>
-      </c>
-      <c r="G41" s="92">
+      <c r="E41" s="37">
+        <v>2</v>
+      </c>
+      <c r="F41" s="37">
+        <v>2</v>
+      </c>
+      <c r="G41" s="77">
         <f>VLOOKUP(H41,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" s="55">
+      <c r="H41" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="40">
         <v>8</v>
       </c>
-      <c r="J41" s="55">
+      <c r="J41" s="40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="94"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="59">
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="79"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB41" s="63"/>
-    </row>
-    <row r="42" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="50">
+      <c r="AB41" s="48"/>
+    </row>
+    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35">
         <v>34</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="52">
-        <v>0</v>
-      </c>
-      <c r="D42" s="52">
-        <v>0</v>
-      </c>
-      <c r="E42" s="52">
-        <v>0</v>
-      </c>
-      <c r="F42" s="52">
-        <v>0</v>
-      </c>
-      <c r="G42" s="92">
+      <c r="C42" s="37">
+        <v>0</v>
+      </c>
+      <c r="D42" s="37">
+        <v>0</v>
+      </c>
+      <c r="E42" s="37">
+        <v>0</v>
+      </c>
+      <c r="F42" s="37">
+        <v>0</v>
+      </c>
+      <c r="G42" s="77">
         <f>VLOOKUP(H42,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55">
+      <c r="I42" s="40"/>
+      <c r="J42" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="59">
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="79"/>
+      <c r="U42" s="79"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="79"/>
+      <c r="X42" s="79"/>
+      <c r="Y42" s="79"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="63"/>
-    </row>
-    <row r="43" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="50">
+      <c r="AB42" s="48"/>
+    </row>
+    <row r="43" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35">
         <v>35</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="52">
-        <v>0</v>
-      </c>
-      <c r="D43" s="52">
+      <c r="C43" s="37">
+        <v>0</v>
+      </c>
+      <c r="D43" s="37">
         <v>1</v>
       </c>
-      <c r="E43" s="52">
-        <v>0</v>
-      </c>
-      <c r="F43" s="52">
-        <v>0</v>
-      </c>
-      <c r="G43" s="92">
+      <c r="E43" s="37">
+        <v>0</v>
+      </c>
+      <c r="F43" s="37">
+        <v>0</v>
+      </c>
+      <c r="G43" s="77">
         <f>VLOOKUP(H43,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="55">
-        <v>2</v>
-      </c>
-      <c r="J43" s="55">
+      <c r="H43" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="40">
+        <v>2</v>
+      </c>
+      <c r="J43" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="94"/>
-      <c r="X43" s="94"/>
-      <c r="Y43" s="94"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="59">
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="79"/>
+      <c r="U43" s="79"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="79"/>
+      <c r="X43" s="79"/>
+      <c r="Y43" s="79"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB43" s="63"/>
-    </row>
-    <row r="44" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
+      <c r="AB43" s="48"/>
+    </row>
+    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="35">
         <v>36</v>
       </c>
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="52">
-        <v>0</v>
-      </c>
-      <c r="D44" s="52">
-        <v>0</v>
-      </c>
-      <c r="E44" s="52">
+      <c r="C44" s="37">
+        <v>0</v>
+      </c>
+      <c r="D44" s="37">
+        <v>0</v>
+      </c>
+      <c r="E44" s="37">
         <v>4</v>
       </c>
-      <c r="F44" s="52">
-        <v>0</v>
-      </c>
-      <c r="G44" s="92">
+      <c r="F44" s="37">
+        <v>0</v>
+      </c>
+      <c r="G44" s="77">
         <f>VLOOKUP(H44,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H44" s="54" t="s">
+      <c r="H44" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="55">
+      <c r="I44" s="40">
         <v>5</v>
       </c>
-      <c r="J44" s="55">
+      <c r="J44" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="67"/>
-      <c r="AA44" s="59">
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="79"/>
+      <c r="U44" s="79"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="79"/>
+      <c r="Y44" s="79"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB44" s="63"/>
-    </row>
-    <row r="45" spans="1:28" s="61" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="50">
+      <c r="AB44" s="48"/>
+    </row>
+    <row r="45" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="35">
         <v>37</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="37">
         <v>7</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="37">
         <v>1</v>
       </c>
-      <c r="E45" s="52">
-        <v>0</v>
-      </c>
-      <c r="F45" s="52">
-        <v>0</v>
-      </c>
-      <c r="G45" s="92">
+      <c r="E45" s="37">
+        <v>0</v>
+      </c>
+      <c r="F45" s="37">
+        <v>0</v>
+      </c>
+      <c r="G45" s="77">
         <f>VLOOKUP(H45,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55">
+      <c r="H45" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="107"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-      <c r="Z45" s="67"/>
-      <c r="AA45" s="59">
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
+      <c r="Q45" s="79"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="79"/>
+      <c r="U45" s="79"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="79"/>
+      <c r="Y45" s="79"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="44">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="AB45" s="63"/>
-    </row>
-    <row r="46" spans="1:28" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50">
+      <c r="AB45" s="48"/>
+    </row>
+    <row r="46" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="35">
         <v>38</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="52">
-        <v>0</v>
-      </c>
-      <c r="D46" s="52">
-        <v>0</v>
-      </c>
-      <c r="E46" s="52">
-        <v>0</v>
-      </c>
-      <c r="F46" s="52">
-        <v>0</v>
-      </c>
-      <c r="G46" s="92">
+      <c r="B46" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="37">
+        <v>0</v>
+      </c>
+      <c r="D46" s="37">
+        <v>0</v>
+      </c>
+      <c r="E46" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="F46" s="37">
+        <v>0</v>
+      </c>
+      <c r="G46" s="77">
         <f>VLOOKUP(H46,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="40">
+        <v>7</v>
+      </c>
+      <c r="J46" s="40">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="79"/>
+      <c r="T46" s="79"/>
+      <c r="U46" s="79"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="44">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="AB46" s="48"/>
+    </row>
+    <row r="47" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="35">
+        <v>39</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="37">
+        <v>0</v>
+      </c>
+      <c r="D47" s="37">
+        <v>0</v>
+      </c>
+      <c r="E47" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="F47" s="37">
+        <v>0</v>
+      </c>
+      <c r="G47" s="77">
+        <f>VLOOKUP(H47,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="40">
+        <v>8</v>
+      </c>
+      <c r="J47" s="40">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="122"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="79"/>
+      <c r="U47" s="79"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="79"/>
+      <c r="X47" s="79"/>
+      <c r="Y47" s="79"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="121"/>
+      <c r="AB47" s="82"/>
+    </row>
+    <row r="48" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="35">
+        <v>40</v>
+      </c>
+      <c r="B48" s="75"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
+      <c r="Q48" s="79"/>
+      <c r="R48" s="122"/>
+      <c r="S48" s="79"/>
+      <c r="T48" s="79"/>
+      <c r="U48" s="79"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="79"/>
+      <c r="X48" s="79"/>
+      <c r="Y48" s="79"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="121"/>
+      <c r="AB48" s="82"/>
+    </row>
+    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="35">
+        <v>41</v>
+      </c>
+      <c r="B49" s="75"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="122"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="79"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="79"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="121"/>
+      <c r="AB49" s="82"/>
+    </row>
+    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="35">
+        <v>42</v>
+      </c>
+      <c r="B50" s="75"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="79"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="79"/>
+      <c r="U50" s="79"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="79"/>
+      <c r="X50" s="79"/>
+      <c r="Y50" s="79"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="121"/>
+      <c r="AB50" s="82"/>
+    </row>
+    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
+        <v>43</v>
+      </c>
+      <c r="B51" s="75"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="79"/>
+      <c r="T51" s="79"/>
+      <c r="U51" s="79"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="79"/>
+      <c r="X51" s="79"/>
+      <c r="Y51" s="79"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="121"/>
+      <c r="AB51" s="82"/>
+    </row>
+    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
+        <v>44</v>
+      </c>
+      <c r="B52" s="75"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="79"/>
+      <c r="Q52" s="79"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="79"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79"/>
+      <c r="Y52" s="79"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="121"/>
+      <c r="AB52" s="82"/>
+    </row>
+    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="35">
+        <v>45</v>
+      </c>
+      <c r="B53" s="75"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="79"/>
+      <c r="X53" s="79"/>
+      <c r="Y53" s="79"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="121"/>
+      <c r="AB53" s="82"/>
+    </row>
+    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>46</v>
+      </c>
+      <c r="B54" s="75"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="79"/>
+      <c r="X54" s="79"/>
+      <c r="Y54" s="79"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="121"/>
+      <c r="AB54" s="82"/>
+    </row>
+    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>47</v>
+      </c>
+      <c r="B55" s="75"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="79"/>
+      <c r="X55" s="79"/>
+      <c r="Y55" s="79"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="121"/>
+      <c r="AB55" s="82"/>
+    </row>
+    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="35">
+        <v>48</v>
+      </c>
+      <c r="B56" s="75"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="79"/>
+      <c r="P56" s="79"/>
+      <c r="Q56" s="79"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="79"/>
+      <c r="T56" s="79"/>
+      <c r="U56" s="79"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="79"/>
+      <c r="X56" s="79"/>
+      <c r="Y56" s="79"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="121"/>
+      <c r="AB56" s="82"/>
+    </row>
+    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
+        <v>49</v>
+      </c>
+      <c r="B57" s="75"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="79"/>
+      <c r="U57" s="79"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="121"/>
+      <c r="AB57" s="82"/>
+    </row>
+    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
+        <v>50</v>
+      </c>
+      <c r="B58" s="75"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="79"/>
+      <c r="T58" s="79"/>
+      <c r="U58" s="79"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="79"/>
+      <c r="Y58" s="79"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="121"/>
+      <c r="AB58" s="82"/>
+    </row>
+    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="35">
+        <v>51</v>
+      </c>
+      <c r="B59" s="75"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="79"/>
+      <c r="R59" s="122"/>
+      <c r="S59" s="79"/>
+      <c r="T59" s="79"/>
+      <c r="U59" s="79"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="79"/>
+      <c r="X59" s="79"/>
+      <c r="Y59" s="79"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="121"/>
+      <c r="AB59" s="82"/>
+    </row>
+    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35">
+        <v>52</v>
+      </c>
+      <c r="B60" s="75"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="94"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="95"/>
+      <c r="S60" s="94"/>
+      <c r="T60" s="94"/>
+      <c r="U60" s="94"/>
+      <c r="V60" s="95"/>
+      <c r="W60" s="94"/>
+      <c r="X60" s="94"/>
+      <c r="Y60" s="94"/>
+      <c r="Z60" s="95"/>
+      <c r="AA60" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="97"/>
+    </row>
+    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="137"/>
+      <c r="C61" s="98">
+        <f>SUM(C10:C60)</f>
+        <v>74.5</v>
+      </c>
+      <c r="D61" s="98">
+        <f>SUM(D10:D60)</f>
         <v>75</v>
       </c>
-      <c r="H46" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55">
+      <c r="E61" s="98">
+        <f>SUM(E10:E60)</f>
+        <v>65</v>
+      </c>
+      <c r="F61" s="98">
+        <f>SUM(F10:F60)</f>
+        <v>80</v>
+      </c>
+      <c r="G61" s="99"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="63"/>
-    </row>
-    <row r="47" spans="1:28" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
-        <v>39</v>
-      </c>
-      <c r="B47" s="90"/>
-      <c r="C47" s="52">
-        <v>0</v>
-      </c>
-      <c r="D47" s="52">
-        <v>0</v>
-      </c>
-      <c r="E47" s="52">
-        <v>0</v>
-      </c>
-      <c r="F47" s="52">
-        <v>0</v>
-      </c>
-      <c r="G47" s="92">
-        <f>VLOOKUP(H47,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>75</v>
-      </c>
-      <c r="H47" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="55"/>
-      <c r="J47" s="110">
+        <v>294.5</v>
+      </c>
+      <c r="K61" s="101"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="101"/>
+      <c r="N61" s="101"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="101"/>
+      <c r="Q61" s="101"/>
+      <c r="R61" s="101"/>
+      <c r="S61" s="101"/>
+      <c r="T61" s="101"/>
+      <c r="U61" s="101"/>
+      <c r="V61" s="101"/>
+      <c r="W61" s="101"/>
+      <c r="X61" s="101"/>
+      <c r="Y61" s="101"/>
+      <c r="Z61" s="101"/>
+      <c r="AA61" s="98">
+        <f>SUM(AA10:AA60)</f>
+        <v>20</v>
+      </c>
+      <c r="AB61" s="102"/>
+    </row>
+    <row r="62" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="138"/>
+      <c r="C62" s="98">
+        <f>135-C61</f>
+        <v>60.5</v>
+      </c>
+      <c r="D62" s="98">
+        <f>135-D61</f>
+        <v>60</v>
+      </c>
+      <c r="E62" s="98">
+        <f>135-E61</f>
+        <v>70</v>
+      </c>
+      <c r="F62" s="98">
+        <f>135-F61</f>
+        <v>55</v>
+      </c>
+      <c r="G62" s="99"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="111"/>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="112"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111"/>
-      <c r="U47" s="111"/>
-      <c r="V47" s="112"/>
-      <c r="W47" s="111"/>
-      <c r="X47" s="111"/>
-      <c r="Y47" s="111"/>
-      <c r="Z47" s="112"/>
-      <c r="AA47" s="113">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="114"/>
-    </row>
-    <row r="48" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="115">
-        <f>SUM(C10:C47)</f>
-        <v>74.5</v>
-      </c>
-      <c r="D48" s="115">
-        <f>SUM(D10:D47)</f>
-        <v>75</v>
-      </c>
-      <c r="E48" s="115">
-        <f>SUM(E10:E47)</f>
-        <v>59</v>
-      </c>
-      <c r="F48" s="115">
-        <f>SUM(F10:F47)</f>
-        <v>80</v>
-      </c>
-      <c r="G48" s="116"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="115">
-        <f t="shared" si="1"/>
-        <v>288.5</v>
-      </c>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="118"/>
-      <c r="S48" s="118"/>
-      <c r="T48" s="118"/>
-      <c r="U48" s="118"/>
-      <c r="V48" s="118"/>
-      <c r="W48" s="118"/>
-      <c r="X48" s="118"/>
-      <c r="Y48" s="118"/>
-      <c r="Z48" s="118"/>
-      <c r="AA48" s="115">
-        <f>SUM(AA10:AA47)</f>
-        <v>16.5</v>
-      </c>
-      <c r="AB48" s="119"/>
-    </row>
-    <row r="49" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="115">
-        <f>135-C48</f>
-        <v>60.5</v>
-      </c>
-      <c r="D49" s="115">
-        <f>135-D48</f>
-        <v>60</v>
-      </c>
-      <c r="E49" s="115">
-        <f>135-E48</f>
-        <v>76</v>
-      </c>
-      <c r="F49" s="115">
-        <f>135-F48</f>
-        <v>55</v>
-      </c>
-      <c r="G49" s="116"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115">
-        <f t="shared" si="1"/>
-        <v>251.5</v>
-      </c>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="118"/>
-      <c r="S49" s="118"/>
-      <c r="T49" s="118"/>
-      <c r="U49" s="118"/>
-      <c r="V49" s="118"/>
-      <c r="W49" s="118"/>
-      <c r="X49" s="118"/>
-      <c r="Y49" s="118"/>
-      <c r="Z49" s="118"/>
-      <c r="AA49" s="118"/>
-      <c r="AB49" s="118"/>
-    </row>
-    <row r="50" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="137" t="s">
+        <v>245.5</v>
+      </c>
+      <c r="K62" s="101"/>
+      <c r="L62" s="101"/>
+      <c r="M62" s="101"/>
+      <c r="N62" s="101"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="101"/>
+      <c r="Q62" s="101"/>
+      <c r="R62" s="101"/>
+      <c r="S62" s="101"/>
+      <c r="T62" s="101"/>
+      <c r="U62" s="101"/>
+      <c r="V62" s="101"/>
+      <c r="W62" s="101"/>
+      <c r="X62" s="101"/>
+      <c r="Y62" s="101"/>
+      <c r="Z62" s="101"/>
+      <c r="AA62" s="101"/>
+      <c r="AB62" s="101"/>
+    </row>
+    <row r="63" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="137"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115">
-        <f>C50+D50+F50+E50</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="118"/>
-      <c r="Q50" s="118"/>
-      <c r="R50" s="118"/>
-      <c r="S50" s="118"/>
-      <c r="T50" s="118"/>
-      <c r="U50" s="118"/>
-      <c r="V50" s="118"/>
-      <c r="W50" s="118"/>
-      <c r="X50" s="118"/>
-      <c r="Y50" s="118"/>
-      <c r="Z50" s="118"/>
-      <c r="AA50" s="118"/>
-      <c r="AB50" s="118"/>
-    </row>
-    <row r="51" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B63" s="139"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98">
+        <f>C63+D63+F63+E63</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="101"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="101"/>
+      <c r="Q63" s="101"/>
+      <c r="R63" s="101"/>
+      <c r="S63" s="101"/>
+      <c r="T63" s="101"/>
+      <c r="U63" s="101"/>
+      <c r="V63" s="101"/>
+      <c r="W63" s="101"/>
+      <c r="X63" s="101"/>
+      <c r="Y63" s="101"/>
+      <c r="Z63" s="101"/>
+      <c r="AA63" s="101"/>
+      <c r="AB63" s="101"/>
+    </row>
+    <row r="64" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="121">
-        <f>SUM(I10:I47)</f>
-        <v>305</v>
-      </c>
-      <c r="J51" s="115">
-        <f>SUM(J10:J47)</f>
-        <v>288.5</v>
-      </c>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
-      <c r="P51" s="118"/>
-      <c r="Q51" s="118"/>
-      <c r="R51" s="118"/>
-      <c r="S51" s="118"/>
-      <c r="T51" s="118"/>
-      <c r="U51" s="118"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="118"/>
-      <c r="X51" s="118"/>
-      <c r="Y51" s="118"/>
-      <c r="Z51" s="118"/>
-      <c r="AA51" s="118"/>
-      <c r="AB51" s="118"/>
-    </row>
-    <row r="52" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="122"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="118"/>
-      <c r="AB52" s="118"/>
-    </row>
-    <row r="53" spans="1:28" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="137" t="s">
+      <c r="B64" s="138"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="104">
+        <f>SUM(I10:I60)</f>
+        <v>320</v>
+      </c>
+      <c r="J64" s="98">
+        <f>SUM(J10:J60)</f>
+        <v>294.5</v>
+      </c>
+      <c r="K64" s="101"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="101"/>
+      <c r="O64" s="101"/>
+      <c r="P64" s="101"/>
+      <c r="Q64" s="101"/>
+      <c r="R64" s="101"/>
+      <c r="S64" s="101"/>
+      <c r="T64" s="101"/>
+      <c r="U64" s="101"/>
+      <c r="V64" s="101"/>
+      <c r="W64" s="101"/>
+      <c r="X64" s="101"/>
+      <c r="Y64" s="101"/>
+      <c r="Z64" s="101"/>
+      <c r="AA64" s="101"/>
+      <c r="AB64" s="101"/>
+    </row>
+    <row r="65" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="105"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="101"/>
+      <c r="L65" s="101"/>
+      <c r="M65" s="101"/>
+      <c r="N65" s="101"/>
+      <c r="O65" s="101"/>
+      <c r="P65" s="101"/>
+      <c r="Q65" s="101"/>
+      <c r="R65" s="101"/>
+      <c r="S65" s="101"/>
+      <c r="T65" s="101"/>
+      <c r="U65" s="101"/>
+      <c r="V65" s="101"/>
+      <c r="W65" s="101"/>
+      <c r="X65" s="101"/>
+      <c r="Y65" s="101"/>
+      <c r="Z65" s="101"/>
+      <c r="AA65" s="101"/>
+      <c r="AB65" s="101"/>
+    </row>
+    <row r="66" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="137"/>
-      <c r="C53" s="115">
+      <c r="B66" s="139"/>
+      <c r="C66" s="98">
         <f>135*4</f>
         <v>540</v>
       </c>
-      <c r="D53" s="123"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="123"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="118"/>
-      <c r="M53" s="118"/>
-      <c r="N53" s="118"/>
-      <c r="O53" s="118"/>
-      <c r="P53" s="118"/>
-      <c r="Q53" s="118"/>
-      <c r="R53" s="118"/>
-      <c r="S53" s="118"/>
-      <c r="T53" s="118"/>
-      <c r="U53" s="118"/>
-      <c r="V53" s="118"/>
-      <c r="W53" s="118"/>
-      <c r="X53" s="118"/>
-      <c r="Y53" s="118"/>
-      <c r="Z53" s="118"/>
-      <c r="AA53" s="118"/>
-      <c r="AB53" s="118"/>
-    </row>
-    <row r="54" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="138" t="s">
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="101"/>
+      <c r="L66" s="101"/>
+      <c r="M66" s="101"/>
+      <c r="N66" s="101"/>
+      <c r="O66" s="101"/>
+      <c r="P66" s="101"/>
+      <c r="Q66" s="101"/>
+      <c r="R66" s="101"/>
+      <c r="S66" s="101"/>
+      <c r="T66" s="101"/>
+      <c r="U66" s="101"/>
+      <c r="V66" s="101"/>
+      <c r="W66" s="101"/>
+      <c r="X66" s="101"/>
+      <c r="Y66" s="101"/>
+      <c r="Z66" s="101"/>
+      <c r="AA66" s="101"/>
+      <c r="AB66" s="101"/>
+    </row>
+    <row r="67" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="115">
-        <f>C53-J51</f>
-        <v>251.5</v>
-      </c>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="118"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="118"/>
-      <c r="Q54" s="118"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="118"/>
-      <c r="T54" s="118"/>
-      <c r="U54" s="118"/>
-      <c r="V54" s="118"/>
-      <c r="W54" s="118"/>
-      <c r="X54" s="118"/>
-      <c r="Y54" s="118"/>
-      <c r="Z54" s="118"/>
-      <c r="AA54" s="118"/>
-      <c r="AB54" s="118"/>
-    </row>
-    <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="124"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="AA55" s="118"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-    </row>
-    <row r="57" spans="1:28" s="130" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="129"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="133"/>
-      <c r="N57" s="134"/>
-      <c r="R57" s="134"/>
-      <c r="V57" s="134"/>
-      <c r="Z57" s="134"/>
-      <c r="AA57" s="135"/>
-    </row>
-    <row r="58" spans="1:28" s="130" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="133"/>
-      <c r="N58" s="134"/>
-      <c r="R58" s="134"/>
-      <c r="V58" s="134"/>
-      <c r="Z58" s="134"/>
-      <c r="AA58" s="135"/>
-    </row>
-    <row r="59" spans="1:28" s="130" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="133"/>
-      <c r="N59" s="134"/>
-      <c r="R59" s="134"/>
-      <c r="V59" s="134"/>
-      <c r="Z59" s="134"/>
-      <c r="AA59" s="135"/>
+      <c r="B67" s="136"/>
+      <c r="C67" s="98">
+        <f>C66-J64</f>
+        <v>245.5</v>
+      </c>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="106"/>
+      <c r="K67" s="101"/>
+      <c r="L67" s="101"/>
+      <c r="M67" s="101"/>
+      <c r="N67" s="101"/>
+      <c r="O67" s="101"/>
+      <c r="P67" s="101"/>
+      <c r="Q67" s="101"/>
+      <c r="R67" s="101"/>
+      <c r="S67" s="101"/>
+      <c r="T67" s="101"/>
+      <c r="U67" s="101"/>
+      <c r="V67" s="101"/>
+      <c r="W67" s="101"/>
+      <c r="X67" s="101"/>
+      <c r="Y67" s="101"/>
+      <c r="Z67" s="101"/>
+      <c r="AA67" s="101"/>
+      <c r="AB67" s="101"/>
+    </row>
+    <row r="68" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="107"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="109"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="110"/>
+      <c r="AA68" s="101"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+    </row>
+    <row r="70" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="112"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="H70" s="115"/>
+      <c r="I70" s="116"/>
+      <c r="J70" s="116"/>
+      <c r="N70" s="117"/>
+      <c r="R70" s="117"/>
+      <c r="V70" s="117"/>
+      <c r="Z70" s="117"/>
+      <c r="AA70" s="118"/>
+    </row>
+    <row r="71" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="H71" s="115"/>
+      <c r="I71" s="116"/>
+      <c r="J71" s="116"/>
+      <c r="N71" s="117"/>
+      <c r="R71" s="117"/>
+      <c r="V71" s="117"/>
+      <c r="Z71" s="117"/>
+      <c r="AA71" s="118"/>
+    </row>
+    <row r="72" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C72" s="114"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="H72" s="115"/>
+      <c r="I72" s="116"/>
+      <c r="J72" s="116"/>
+      <c r="N72" s="117"/>
+      <c r="R72" s="117"/>
+      <c r="V72" s="117"/>
+      <c r="Z72" s="117"/>
+      <c r="AA72" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
@@ -4552,7 +5030,7 @@
       <formula>NOT(ISERROR(SEARCH("En cours",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H47">
+  <conditionalFormatting sqref="H9:H60">
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H9)))</formula>
     </cfRule>
@@ -4563,7 +5041,7 @@
       <formula>NOT(ISERROR(SEARCH("Terminé",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F47">
+  <conditionalFormatting sqref="C9:F60">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4571,7 +5049,7 @@
       <formula>$H9="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F47">
+  <conditionalFormatting sqref="C9:F60">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>$H9="En cours"</formula>
     </cfRule>
@@ -4580,14 +5058,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H47" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H60" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"En attente,En cours,Terminé"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31527777777777799" right="0.31527777777777799" top="0.74791666666666701" bottom="0.55138888888888904" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J10:J60" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4599,32 +5080,32 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="15"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="136">
+      <c r="B1" s="119">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4640,9 +5121,9 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="15"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abourdeau\source\repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3E1FD-6F4A-46A0-B83C-5938BA5B8DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6E32C-DDC7-4076-9D1C-16DB44D2D3E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1809,35 +1809,35 @@
   </sheetPr>
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="4" customWidth="1"/>
     <col min="11" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="16" width="7.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.77734375" style="6" customWidth="1"/>
-    <col min="28" max="28" width="22.77734375" style="1" customWidth="1"/>
-    <col min="29" max="1025" width="10.6640625" style="1"/>
+    <col min="15" max="16" width="7.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="6" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" style="1" customWidth="1"/>
+    <col min="29" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="124" t="s">
         <v>3</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1909,7 +1909,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1929,7 +1929,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1975,7 +1975,7 @@
       <c r="Z6" s="17"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="127" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="127"/>
       <c r="B8" s="128"/>
       <c r="C8" s="20" t="s">
@@ -2110,7 +2110,7 @@
       <c r="AA8" s="134"/>
       <c r="AB8" s="135"/>
     </row>
-    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>24</v>
@@ -2142,7 +2142,7 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>1</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="AB10" s="45"/>
     </row>
-    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>2</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="AB11" s="48"/>
     </row>
-    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>3</v>
       </c>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AB12" s="49"/>
     </row>
-    <row r="13" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>4</v>
       </c>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="AB13" s="48"/>
     </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>5</v>
       </c>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="AB14" s="48"/>
     </row>
-    <row r="15" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>6</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AB15" s="48"/>
     </row>
-    <row r="16" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>7</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="AB16" s="48"/>
     </row>
-    <row r="17" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>8</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="AB17" s="48"/>
     </row>
-    <row r="18" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>9</v>
       </c>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="AB18" s="48"/>
     </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>10</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="AB19" s="48"/>
     </row>
-    <row r="20" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>11</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="AB20" s="48"/>
     </row>
-    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>12</v>
       </c>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="AB21" s="48"/>
     </row>
-    <row r="22" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>13</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="AB22" s="48"/>
     </row>
-    <row r="23" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>14</v>
       </c>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AB23" s="48"/>
     </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>15</v>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AB24" s="48"/>
     </row>
-    <row r="25" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>16</v>
       </c>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="AB25" s="48"/>
     </row>
-    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>17</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="AB26" s="82"/>
     </row>
-    <row r="27" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>18</v>
       </c>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="AB27" s="48"/>
     </row>
-    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>19</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="AB28" s="48"/>
     </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>20</v>
       </c>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="AB29" s="48"/>
     </row>
-    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>21</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="AB30" s="48"/>
     </row>
-    <row r="31" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>22</v>
       </c>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="AB31" s="48"/>
     </row>
-    <row r="32" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>23</v>
       </c>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="AB32" s="48"/>
     </row>
-    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>24</v>
       </c>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="AB33" s="48"/>
     </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>25</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB34" s="48"/>
     </row>
-    <row r="35" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>27</v>
       </c>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="AB35" s="48"/>
     </row>
-    <row r="36" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <v>28</v>
       </c>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="AB36" s="48"/>
     </row>
-    <row r="37" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>29</v>
       </c>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="AB37" s="48"/>
     </row>
-    <row r="38" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="35">
         <v>30</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="AB38" s="48"/>
     </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>31</v>
       </c>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="AB39" s="48"/>
     </row>
-    <row r="40" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
         <v>32</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="AB40" s="48"/>
     </row>
-    <row r="41" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>33</v>
       </c>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="AB41" s="48"/>
     </row>
-    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <v>34</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="AB42" s="48"/>
     </row>
-    <row r="43" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>35</v>
       </c>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="AB43" s="48"/>
     </row>
-    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>36</v>
       </c>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="AB44" s="48"/>
     </row>
-    <row r="45" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>37</v>
       </c>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="AB45" s="48"/>
     </row>
-    <row r="46" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>38</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="37">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="F46" s="37">
         <v>0</v>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="J46" s="40">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="K46" s="79"/>
       <c r="L46" s="79"/>
@@ -4156,11 +4156,11 @@
       <c r="Z46" s="52"/>
       <c r="AA46" s="44">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB46" s="48"/>
     </row>
-    <row r="47" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>39</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="AA47" s="121"/>
       <c r="AB47" s="82"/>
     </row>
-    <row r="48" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>40</v>
       </c>
@@ -4247,7 +4247,7 @@
       <c r="AA48" s="121"/>
       <c r="AB48" s="82"/>
     </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>41</v>
       </c>
@@ -4282,7 +4282,7 @@
       <c r="AA49" s="121"/>
       <c r="AB49" s="82"/>
     </row>
-    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>42</v>
       </c>
@@ -4317,7 +4317,7 @@
       <c r="AA50" s="121"/>
       <c r="AB50" s="82"/>
     </row>
-    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>43</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="AA51" s="121"/>
       <c r="AB51" s="82"/>
     </row>
-    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>44</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="AA52" s="121"/>
       <c r="AB52" s="82"/>
     </row>
-    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>45</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="AA53" s="121"/>
       <c r="AB53" s="82"/>
     </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>46</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="AA54" s="121"/>
       <c r="AB54" s="82"/>
     </row>
-    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>47</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="AA55" s="121"/>
       <c r="AB55" s="82"/>
     </row>
-    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>48</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="AA56" s="121"/>
       <c r="AB56" s="82"/>
     </row>
-    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>49</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="AA57" s="121"/>
       <c r="AB57" s="82"/>
     </row>
-    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <v>50</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="AA58" s="121"/>
       <c r="AB58" s="82"/>
     </row>
-    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>51</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="AA59" s="121"/>
       <c r="AB59" s="82"/>
     </row>
-    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
         <v>52</v>
       </c>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="AB60" s="97"/>
     </row>
-    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="137" t="s">
         <v>61</v>
       </c>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="E61" s="98">
         <f>SUM(E10:E60)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F61" s="98">
         <f>SUM(F10:F60)</f>
@@ -4696,7 +4696,7 @@
       <c r="I61" s="100"/>
       <c r="J61" s="98">
         <f t="shared" si="1"/>
-        <v>294.5</v>
+        <v>297.5</v>
       </c>
       <c r="K61" s="101"/>
       <c r="L61" s="101"/>
@@ -4716,11 +4716,11 @@
       <c r="Z61" s="101"/>
       <c r="AA61" s="98">
         <f>SUM(AA10:AA60)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB61" s="102"/>
     </row>
-    <row r="62" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="138" t="s">
         <v>62</v>
       </c>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="E62" s="98">
         <f>135-E61</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F62" s="98">
         <f>135-F61</f>
@@ -4746,7 +4746,7 @@
       <c r="I62" s="98"/>
       <c r="J62" s="98">
         <f t="shared" si="1"/>
-        <v>245.5</v>
+        <v>242.5</v>
       </c>
       <c r="K62" s="101"/>
       <c r="L62" s="101"/>
@@ -4767,7 +4767,7 @@
       <c r="AA62" s="101"/>
       <c r="AB62" s="101"/>
     </row>
-    <row r="63" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="139" t="s">
         <v>63</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="AA63" s="101"/>
       <c r="AB63" s="101"/>
     </row>
-    <row r="64" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="138" t="s">
         <v>64</v>
       </c>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="J64" s="98">
         <f>SUM(J10:J60)</f>
-        <v>294.5</v>
+        <v>297.5</v>
       </c>
       <c r="K64" s="101"/>
       <c r="L64" s="101"/>
@@ -4840,7 +4840,7 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="101"/>
     </row>
-    <row r="65" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="105"/>
       <c r="B65" s="105"/>
       <c r="C65" s="106"/>
@@ -4870,7 +4870,7 @@
       <c r="AA65" s="101"/>
       <c r="AB65" s="101"/>
     </row>
-    <row r="66" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="139" t="s">
         <v>65</v>
       </c>
@@ -4905,14 +4905,14 @@
       <c r="AA66" s="101"/>
       <c r="AB66" s="101"/>
     </row>
-    <row r="67" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="136" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="136"/>
       <c r="C67" s="98">
         <f>C66-J64</f>
-        <v>245.5</v>
+        <v>242.5</v>
       </c>
       <c r="D67" s="106"/>
       <c r="E67" s="106"/>
@@ -4940,7 +4940,7 @@
       <c r="AA67" s="101"/>
       <c r="AB67" s="101"/>
     </row>
-    <row r="68" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="107"/>
       <c r="B68" s="105"/>
       <c r="C68" s="108"/>
@@ -4953,12 +4953,12 @@
       <c r="J68" s="110"/>
       <c r="AA68" s="101"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D69" s="111"/>
       <c r="E69" s="111"/>
       <c r="F69" s="111"/>
     </row>
-    <row r="70" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="112"/>
       <c r="C70" s="114"/>
       <c r="D70" s="114"/>
@@ -4973,7 +4973,7 @@
       <c r="Z70" s="117"/>
       <c r="AA70" s="118"/>
     </row>
-    <row r="71" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="114"/>
       <c r="D71" s="114"/>
       <c r="E71" s="114"/>
@@ -4987,7 +4987,7 @@
       <c r="Z71" s="117"/>
       <c r="AA71" s="118"/>
     </row>
-    <row r="72" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="114"/>
       <c r="D72" s="114"/>
       <c r="E72" s="114"/>
@@ -5080,12 +5080,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="1"/>
+    <col min="1" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>6</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5121,9 +5121,9 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="1"/>
+    <col min="1" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abourdeau\source\repos\mrjrdg\marque-sans-nom\Semainiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6E32C-DDC7-4076-9D1C-16DB44D2D3E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BD590-7B98-4DA2-BD10-B26D60920ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1290,42 +1290,6 @@
     <xf numFmtId="166" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1335,6 +1299,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1809,51 +1809,51 @@
   </sheetPr>
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
     <col min="11" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="16" width="7.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" style="6" customWidth="1"/>
-    <col min="28" max="28" width="22.7109375" style="1" customWidth="1"/>
-    <col min="29" max="1025" width="10.7109375" style="1"/>
+    <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.6640625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" style="1" customWidth="1"/>
+    <col min="29" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -1864,21 +1864,21 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="124"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -1891,7 +1891,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1909,7 +1909,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1929,7 +1929,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1961,73 +1961,73 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="126" t="s">
+      <c r="K6" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
       <c r="V6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="131" t="s">
+      <c r="H7" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="132" t="s">
+      <c r="J7" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="133" t="s">
+      <c r="K7" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="133"/>
-      <c r="V7" s="133"/>
-      <c r="W7" s="133"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="134" t="s">
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="135" t="s">
+      <c r="AB7" s="131" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128"/>
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
@@ -2040,10 +2040,10 @@
       <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
@@ -2107,10 +2107,10 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="135"/>
-    </row>
-    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="131"/>
+    </row>
+    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>24</v>
@@ -2142,7 +2142,7 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>1</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="AB10" s="45"/>
     </row>
-    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>2</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="AB11" s="48"/>
     </row>
-    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>3</v>
       </c>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AB12" s="49"/>
     </row>
-    <row r="13" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>4</v>
       </c>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="AB13" s="48"/>
     </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>5</v>
       </c>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="AB14" s="48"/>
     </row>
-    <row r="15" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
         <v>6</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AB15" s="48"/>
     </row>
-    <row r="16" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>7</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="AB16" s="48"/>
     </row>
-    <row r="17" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>8</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="AB17" s="48"/>
     </row>
-    <row r="18" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>9</v>
       </c>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="AB18" s="48"/>
     </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>10</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="AB19" s="48"/>
     </row>
-    <row r="20" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>11</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="AB20" s="48"/>
     </row>
-    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35">
         <v>12</v>
       </c>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="AB21" s="48"/>
     </row>
-    <row r="22" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>13</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="AB22" s="48"/>
     </row>
-    <row r="23" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35">
         <v>14</v>
       </c>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AB23" s="48"/>
     </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>15</v>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AB24" s="48"/>
     </row>
-    <row r="25" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35">
         <v>16</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="37">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F25" s="37">
         <v>15</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="J25" s="40">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="K25" s="68"/>
       <c r="L25" s="60"/>
@@ -3017,11 +3017,11 @@
       <c r="Z25" s="43"/>
       <c r="AA25" s="44">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>-8.5</v>
       </c>
       <c r="AB25" s="48"/>
     </row>
-    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
         <v>17</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="AB26" s="82"/>
     </row>
-    <row r="27" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="35">
         <v>18</v>
       </c>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="AB27" s="48"/>
     </row>
-    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35">
         <v>19</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="AB28" s="48"/>
     </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="35">
         <v>20</v>
       </c>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="AB29" s="48"/>
     </row>
-    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
         <v>21</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="AB30" s="48"/>
     </row>
-    <row r="31" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>22</v>
       </c>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="AB31" s="48"/>
     </row>
-    <row r="32" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="35">
         <v>23</v>
       </c>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="AB32" s="48"/>
     </row>
-    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="35">
         <v>24</v>
       </c>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="AB33" s="48"/>
     </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="35">
         <v>25</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AB34" s="48"/>
     </row>
-    <row r="35" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35">
         <v>27</v>
       </c>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="AB35" s="48"/>
     </row>
-    <row r="36" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35">
         <v>28</v>
       </c>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="AB36" s="48"/>
     </row>
-    <row r="37" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35">
         <v>29</v>
       </c>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="AB37" s="48"/>
     </row>
-    <row r="38" spans="1:28" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="35">
         <v>30</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="AB38" s="48"/>
     </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="35">
         <v>31</v>
       </c>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="AB39" s="48"/>
     </row>
-    <row r="40" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="35">
         <v>32</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="AB40" s="48"/>
     </row>
-    <row r="41" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="35">
         <v>33</v>
       </c>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="AB41" s="48"/>
     </row>
-    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35">
         <v>34</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="AB42" s="48"/>
     </row>
-    <row r="43" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35">
         <v>35</v>
       </c>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="AB43" s="48"/>
     </row>
-    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35">
         <v>36</v>
       </c>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="AB44" s="48"/>
     </row>
-    <row r="45" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35">
         <v>37</v>
       </c>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="AB45" s="48"/>
     </row>
-    <row r="46" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="35">
         <v>38</v>
       </c>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="AB46" s="48"/>
     </row>
-    <row r="47" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="35">
         <v>39</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="AA47" s="121"/>
       <c r="AB47" s="82"/>
     </row>
-    <row r="48" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="35">
         <v>40</v>
       </c>
@@ -4247,7 +4247,7 @@
       <c r="AA48" s="121"/>
       <c r="AB48" s="82"/>
     </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="35">
         <v>41</v>
       </c>
@@ -4282,7 +4282,7 @@
       <c r="AA49" s="121"/>
       <c r="AB49" s="82"/>
     </row>
-    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="35">
         <v>42</v>
       </c>
@@ -4317,7 +4317,7 @@
       <c r="AA50" s="121"/>
       <c r="AB50" s="82"/>
     </row>
-    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
         <v>43</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="AA51" s="121"/>
       <c r="AB51" s="82"/>
     </row>
-    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
         <v>44</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="AA52" s="121"/>
       <c r="AB52" s="82"/>
     </row>
-    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="35">
         <v>45</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="AA53" s="121"/>
       <c r="AB53" s="82"/>
     </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
         <v>46</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="AA54" s="121"/>
       <c r="AB54" s="82"/>
     </row>
-    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
         <v>47</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="AA55" s="121"/>
       <c r="AB55" s="82"/>
     </row>
-    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
         <v>48</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="AA56" s="121"/>
       <c r="AB56" s="82"/>
     </row>
-    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>49</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="AA57" s="121"/>
       <c r="AB57" s="82"/>
     </row>
-    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="35">
         <v>50</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="AA58" s="121"/>
       <c r="AB58" s="82"/>
     </row>
-    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="35">
         <v>51</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="AA59" s="121"/>
       <c r="AB59" s="82"/>
     </row>
-    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="35">
         <v>52</v>
       </c>
@@ -4670,11 +4670,11 @@
       </c>
       <c r="AB60" s="97"/>
     </row>
-    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="137" t="s">
+    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="137"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="98">
         <f>SUM(C10:C60)</f>
         <v>74.5</v>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="E61" s="98">
         <f>SUM(E10:E60)</f>
-        <v>68</v>
+        <v>69.5</v>
       </c>
       <c r="F61" s="98">
         <f>SUM(F10:F60)</f>
@@ -4696,7 +4696,7 @@
       <c r="I61" s="100"/>
       <c r="J61" s="98">
         <f t="shared" si="1"/>
-        <v>297.5</v>
+        <v>299</v>
       </c>
       <c r="K61" s="101"/>
       <c r="L61" s="101"/>
@@ -4716,15 +4716,15 @@
       <c r="Z61" s="101"/>
       <c r="AA61" s="98">
         <f>SUM(AA10:AA60)</f>
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AB61" s="102"/>
     </row>
-    <row r="62" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="138" t="s">
+    <row r="62" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="138"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="98">
         <f>135-C61</f>
         <v>60.5</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="E62" s="98">
         <f>135-E61</f>
-        <v>67</v>
+        <v>65.5</v>
       </c>
       <c r="F62" s="98">
         <f>135-F61</f>
@@ -4746,7 +4746,7 @@
       <c r="I62" s="98"/>
       <c r="J62" s="98">
         <f t="shared" si="1"/>
-        <v>242.5</v>
+        <v>241</v>
       </c>
       <c r="K62" s="101"/>
       <c r="L62" s="101"/>
@@ -4767,11 +4767,11 @@
       <c r="AA62" s="101"/>
       <c r="AB62" s="101"/>
     </row>
-    <row r="63" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="139" t="s">
+    <row r="63" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="139"/>
+      <c r="B63" s="127"/>
       <c r="C63" s="98"/>
       <c r="D63" s="98"/>
       <c r="E63" s="98"/>
@@ -4802,11 +4802,11 @@
       <c r="AA63" s="101"/>
       <c r="AB63" s="101"/>
     </row>
-    <row r="64" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="138" t="s">
+    <row r="64" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="138"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="98"/>
       <c r="D64" s="98"/>
       <c r="E64" s="103"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="J64" s="98">
         <f>SUM(J10:J60)</f>
-        <v>297.5</v>
+        <v>299</v>
       </c>
       <c r="K64" s="101"/>
       <c r="L64" s="101"/>
@@ -4840,7 +4840,7 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="101"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="105"/>
       <c r="B65" s="105"/>
       <c r="C65" s="106"/>
@@ -4870,11 +4870,11 @@
       <c r="AA65" s="101"/>
       <c r="AB65" s="101"/>
     </row>
-    <row r="66" spans="1:28" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="139" t="s">
+    <row r="66" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="139"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="98">
         <f>135*4</f>
         <v>540</v>
@@ -4905,14 +4905,14 @@
       <c r="AA66" s="101"/>
       <c r="AB66" s="101"/>
     </row>
-    <row r="67" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="136" t="s">
+    <row r="67" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="136"/>
+      <c r="B67" s="124"/>
       <c r="C67" s="98">
         <f>C66-J64</f>
-        <v>242.5</v>
+        <v>241</v>
       </c>
       <c r="D67" s="106"/>
       <c r="E67" s="106"/>
@@ -4940,7 +4940,7 @@
       <c r="AA67" s="101"/>
       <c r="AB67" s="101"/>
     </row>
-    <row r="68" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="107"/>
       <c r="B68" s="105"/>
       <c r="C68" s="108"/>
@@ -4953,12 +4953,12 @@
       <c r="J68" s="110"/>
       <c r="AA68" s="101"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D69" s="111"/>
       <c r="E69" s="111"/>
       <c r="F69" s="111"/>
     </row>
-    <row r="70" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="112"/>
       <c r="C70" s="114"/>
       <c r="D70" s="114"/>
@@ -4973,7 +4973,7 @@
       <c r="Z70" s="117"/>
       <c r="AA70" s="118"/>
     </row>
-    <row r="71" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C71" s="114"/>
       <c r="D71" s="114"/>
       <c r="E71" s="114"/>
@@ -4987,7 +4987,7 @@
       <c r="Z71" s="117"/>
       <c r="AA71" s="118"/>
     </row>
-    <row r="72" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C72" s="114"/>
       <c r="D72" s="114"/>
       <c r="E72" s="114"/>
@@ -5003,27 +5003,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:Z7"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="En cours">
@@ -5080,12 +5080,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375" style="1"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
         <v>6</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5121,9 +5121,9 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375" style="1"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abourdeau\source\repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BD590-7B98-4DA2-BD10-B26D60920ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F0580F-F029-4162-B85E-A9F0D0B1B540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1290,6 +1288,42 @@
     <xf numFmtId="166" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1299,42 +1333,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1809,51 +1807,51 @@
   </sheetPr>
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="4" customWidth="1"/>
     <col min="11" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.6640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" style="1" customWidth="1"/>
-    <col min="29" max="1025" width="10.6640625" style="1"/>
+    <col min="15" max="16" width="7.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="6" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" style="1" customWidth="1"/>
+    <col min="29" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="137"/>
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -1864,21 +1862,21 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="124"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -1891,7 +1889,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1909,7 +1907,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1929,7 +1927,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1953,7 +1951,7 @@
       </c>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1961,73 +1959,73 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
       <c r="V6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132" t="s">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135" t="s">
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="128" t="s">
+      <c r="J7" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="129" t="s">
+      <c r="K7" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="130" t="s">
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="131" t="s">
+      <c r="AB7" s="135" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="127"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
@@ -2040,10 +2038,10 @@
       <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
@@ -2107,10 +2105,10 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="131"/>
-    </row>
-    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="135"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>24</v>
@@ -2142,7 +2140,7 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>1</v>
       </c>
@@ -2197,7 +2195,7 @@
       </c>
       <c r="AB10" s="45"/>
     </row>
-    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>2</v>
       </c>
@@ -2252,7 +2250,7 @@
       </c>
       <c r="AB11" s="48"/>
     </row>
-    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>3</v>
       </c>
@@ -2306,7 +2304,7 @@
       </c>
       <c r="AB12" s="49"/>
     </row>
-    <row r="13" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>4</v>
       </c>
@@ -2361,7 +2359,7 @@
       </c>
       <c r="AB13" s="48"/>
     </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>5</v>
       </c>
@@ -2416,7 +2414,7 @@
       </c>
       <c r="AB14" s="48"/>
     </row>
-    <row r="15" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>6</v>
       </c>
@@ -2471,7 +2469,7 @@
       </c>
       <c r="AB15" s="48"/>
     </row>
-    <row r="16" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>7</v>
       </c>
@@ -2526,7 +2524,7 @@
       </c>
       <c r="AB16" s="48"/>
     </row>
-    <row r="17" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>8</v>
       </c>
@@ -2581,7 +2579,7 @@
       </c>
       <c r="AB17" s="48"/>
     </row>
-    <row r="18" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>9</v>
       </c>
@@ -2636,7 +2634,7 @@
       </c>
       <c r="AB18" s="48"/>
     </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>10</v>
       </c>
@@ -2691,7 +2689,7 @@
       </c>
       <c r="AB19" s="48"/>
     </row>
-    <row r="20" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>11</v>
       </c>
@@ -2746,7 +2744,7 @@
       </c>
       <c r="AB20" s="48"/>
     </row>
-    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>12</v>
       </c>
@@ -2801,7 +2799,7 @@
       </c>
       <c r="AB21" s="48"/>
     </row>
-    <row r="22" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>13</v>
       </c>
@@ -2856,7 +2854,7 @@
       </c>
       <c r="AB22" s="48"/>
     </row>
-    <row r="23" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>14</v>
       </c>
@@ -2911,7 +2909,7 @@
       </c>
       <c r="AB23" s="48"/>
     </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>15</v>
       </c>
@@ -2966,7 +2964,7 @@
       </c>
       <c r="AB24" s="48"/>
     </row>
-    <row r="25" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>16</v>
       </c>
@@ -3021,7 +3019,7 @@
       </c>
       <c r="AB25" s="48"/>
     </row>
-    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>17</v>
       </c>
@@ -3076,7 +3074,7 @@
       </c>
       <c r="AB26" s="82"/>
     </row>
-    <row r="27" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>18</v>
       </c>
@@ -3131,7 +3129,7 @@
       </c>
       <c r="AB27" s="48"/>
     </row>
-    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>19</v>
       </c>
@@ -3186,7 +3184,7 @@
       </c>
       <c r="AB28" s="48"/>
     </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>20</v>
       </c>
@@ -3241,7 +3239,7 @@
       </c>
       <c r="AB29" s="48"/>
     </row>
-    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>21</v>
       </c>
@@ -3296,7 +3294,7 @@
       </c>
       <c r="AB30" s="48"/>
     </row>
-    <row r="31" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>22</v>
       </c>
@@ -3351,7 +3349,7 @@
       </c>
       <c r="AB31" s="48"/>
     </row>
-    <row r="32" spans="1:28" s="85" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>23</v>
       </c>
@@ -3406,7 +3404,7 @@
       </c>
       <c r="AB32" s="48"/>
     </row>
-    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>24</v>
       </c>
@@ -3461,7 +3459,7 @@
       </c>
       <c r="AB33" s="48"/>
     </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>25</v>
       </c>
@@ -3516,7 +3514,7 @@
       </c>
       <c r="AB34" s="48"/>
     </row>
-    <row r="35" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>27</v>
       </c>
@@ -3569,7 +3567,7 @@
       </c>
       <c r="AB35" s="48"/>
     </row>
-    <row r="36" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <v>28</v>
       </c>
@@ -3622,7 +3620,7 @@
       </c>
       <c r="AB36" s="48"/>
     </row>
-    <row r="37" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>29</v>
       </c>
@@ -3675,7 +3673,7 @@
       </c>
       <c r="AB37" s="48"/>
     </row>
-    <row r="38" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="35">
         <v>30</v>
       </c>
@@ -3728,7 +3726,7 @@
       </c>
       <c r="AB38" s="48"/>
     </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>31</v>
       </c>
@@ -3781,7 +3779,7 @@
       </c>
       <c r="AB39" s="48"/>
     </row>
-    <row r="40" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
         <v>32</v>
       </c>
@@ -3834,7 +3832,7 @@
       </c>
       <c r="AB40" s="48"/>
     </row>
-    <row r="41" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>33</v>
       </c>
@@ -3889,7 +3887,7 @@
       </c>
       <c r="AB41" s="48"/>
     </row>
-    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <v>34</v>
       </c>
@@ -3942,7 +3940,7 @@
       </c>
       <c r="AB42" s="48"/>
     </row>
-    <row r="43" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>35</v>
       </c>
@@ -3997,7 +3995,7 @@
       </c>
       <c r="AB43" s="48"/>
     </row>
-    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>36</v>
       </c>
@@ -4052,7 +4050,7 @@
       </c>
       <c r="AB44" s="48"/>
     </row>
-    <row r="45" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>37</v>
       </c>
@@ -4105,7 +4103,7 @@
       </c>
       <c r="AB45" s="48"/>
     </row>
-    <row r="46" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>38</v>
       </c>
@@ -4119,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="37">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="F46" s="37">
         <v>0</v>
@@ -4136,7 +4134,7 @@
       </c>
       <c r="J46" s="40">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="K46" s="79"/>
       <c r="L46" s="79"/>
@@ -4156,11 +4154,11 @@
       <c r="Z46" s="52"/>
       <c r="AA46" s="44">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="AB46" s="48"/>
     </row>
-    <row r="47" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>39</v>
       </c>
@@ -4212,7 +4210,7 @@
       <c r="AA47" s="121"/>
       <c r="AB47" s="82"/>
     </row>
-    <row r="48" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>40</v>
       </c>
@@ -4247,7 +4245,7 @@
       <c r="AA48" s="121"/>
       <c r="AB48" s="82"/>
     </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>41</v>
       </c>
@@ -4282,7 +4280,7 @@
       <c r="AA49" s="121"/>
       <c r="AB49" s="82"/>
     </row>
-    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>42</v>
       </c>
@@ -4317,7 +4315,7 @@
       <c r="AA50" s="121"/>
       <c r="AB50" s="82"/>
     </row>
-    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>43</v>
       </c>
@@ -4352,7 +4350,7 @@
       <c r="AA51" s="121"/>
       <c r="AB51" s="82"/>
     </row>
-    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>44</v>
       </c>
@@ -4387,7 +4385,7 @@
       <c r="AA52" s="121"/>
       <c r="AB52" s="82"/>
     </row>
-    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>45</v>
       </c>
@@ -4422,7 +4420,7 @@
       <c r="AA53" s="121"/>
       <c r="AB53" s="82"/>
     </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>46</v>
       </c>
@@ -4457,7 +4455,7 @@
       <c r="AA54" s="121"/>
       <c r="AB54" s="82"/>
     </row>
-    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>47</v>
       </c>
@@ -4492,7 +4490,7 @@
       <c r="AA55" s="121"/>
       <c r="AB55" s="82"/>
     </row>
-    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>48</v>
       </c>
@@ -4527,7 +4525,7 @@
       <c r="AA56" s="121"/>
       <c r="AB56" s="82"/>
     </row>
-    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>49</v>
       </c>
@@ -4562,7 +4560,7 @@
       <c r="AA57" s="121"/>
       <c r="AB57" s="82"/>
     </row>
-    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <v>50</v>
       </c>
@@ -4597,7 +4595,7 @@
       <c r="AA58" s="121"/>
       <c r="AB58" s="82"/>
     </row>
-    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>51</v>
       </c>
@@ -4632,7 +4630,7 @@
       <c r="AA59" s="121"/>
       <c r="AB59" s="82"/>
     </row>
-    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
         <v>52</v>
       </c>
@@ -4670,11 +4668,11 @@
       </c>
       <c r="AB60" s="97"/>
     </row>
-    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="125" t="s">
+    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="125"/>
+      <c r="B61" s="137"/>
       <c r="C61" s="98">
         <f>SUM(C10:C60)</f>
         <v>74.5</v>
@@ -4685,7 +4683,7 @@
       </c>
       <c r="E61" s="98">
         <f>SUM(E10:E60)</f>
-        <v>69.5</v>
+        <v>71.75</v>
       </c>
       <c r="F61" s="98">
         <f>SUM(F10:F60)</f>
@@ -4696,7 +4694,7 @@
       <c r="I61" s="100"/>
       <c r="J61" s="98">
         <f t="shared" si="1"/>
-        <v>299</v>
+        <v>301.25</v>
       </c>
       <c r="K61" s="101"/>
       <c r="L61" s="101"/>
@@ -4716,15 +4714,15 @@
       <c r="Z61" s="101"/>
       <c r="AA61" s="98">
         <f>SUM(AA10:AA60)</f>
-        <v>15.5</v>
+        <v>13.25</v>
       </c>
       <c r="AB61" s="102"/>
     </row>
-    <row r="62" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="126" t="s">
+    <row r="62" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="126"/>
+      <c r="B62" s="138"/>
       <c r="C62" s="98">
         <f>135-C61</f>
         <v>60.5</v>
@@ -4735,7 +4733,7 @@
       </c>
       <c r="E62" s="98">
         <f>135-E61</f>
-        <v>65.5</v>
+        <v>63.25</v>
       </c>
       <c r="F62" s="98">
         <f>135-F61</f>
@@ -4746,7 +4744,7 @@
       <c r="I62" s="98"/>
       <c r="J62" s="98">
         <f t="shared" si="1"/>
-        <v>241</v>
+        <v>238.75</v>
       </c>
       <c r="K62" s="101"/>
       <c r="L62" s="101"/>
@@ -4767,11 +4765,11 @@
       <c r="AA62" s="101"/>
       <c r="AB62" s="101"/>
     </row>
-    <row r="63" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="127" t="s">
+    <row r="63" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="127"/>
+      <c r="B63" s="139"/>
       <c r="C63" s="98"/>
       <c r="D63" s="98"/>
       <c r="E63" s="98"/>
@@ -4802,11 +4800,11 @@
       <c r="AA63" s="101"/>
       <c r="AB63" s="101"/>
     </row>
-    <row r="64" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="126" t="s">
+    <row r="64" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="126"/>
+      <c r="B64" s="138"/>
       <c r="C64" s="98"/>
       <c r="D64" s="98"/>
       <c r="E64" s="103"/>
@@ -4819,7 +4817,7 @@
       </c>
       <c r="J64" s="98">
         <f>SUM(J10:J60)</f>
-        <v>299</v>
+        <v>301.25</v>
       </c>
       <c r="K64" s="101"/>
       <c r="L64" s="101"/>
@@ -4840,7 +4838,7 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="101"/>
     </row>
-    <row r="65" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="105"/>
       <c r="B65" s="105"/>
       <c r="C65" s="106"/>
@@ -4870,11 +4868,11 @@
       <c r="AA65" s="101"/>
       <c r="AB65" s="101"/>
     </row>
-    <row r="66" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="127" t="s">
+    <row r="66" spans="1:28" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="127"/>
+      <c r="B66" s="139"/>
       <c r="C66" s="98">
         <f>135*4</f>
         <v>540</v>
@@ -4905,14 +4903,14 @@
       <c r="AA66" s="101"/>
       <c r="AB66" s="101"/>
     </row>
-    <row r="67" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="124" t="s">
+    <row r="67" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="124"/>
+      <c r="B67" s="136"/>
       <c r="C67" s="98">
         <f>C66-J64</f>
-        <v>241</v>
+        <v>238.75</v>
       </c>
       <c r="D67" s="106"/>
       <c r="E67" s="106"/>
@@ -4940,7 +4938,7 @@
       <c r="AA67" s="101"/>
       <c r="AB67" s="101"/>
     </row>
-    <row r="68" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="107"/>
       <c r="B68" s="105"/>
       <c r="C68" s="108"/>
@@ -4953,12 +4951,12 @@
       <c r="J68" s="110"/>
       <c r="AA68" s="101"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D69" s="111"/>
       <c r="E69" s="111"/>
       <c r="F69" s="111"/>
     </row>
-    <row r="70" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="112"/>
       <c r="C70" s="114"/>
       <c r="D70" s="114"/>
@@ -4973,7 +4971,7 @@
       <c r="Z70" s="117"/>
       <c r="AA70" s="118"/>
     </row>
-    <row r="71" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="114"/>
       <c r="D71" s="114"/>
       <c r="E71" s="114"/>
@@ -4987,7 +4985,7 @@
       <c r="Z71" s="117"/>
       <c r="AA71" s="118"/>
     </row>
-    <row r="72" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="114"/>
       <c r="D72" s="114"/>
       <c r="E72" s="114"/>
@@ -5003,27 +5001,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A66:B66"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:Z7"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="En cours">
@@ -5080,12 +5078,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="1"/>
+    <col min="1" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>6</v>
       </c>
@@ -5093,7 +5091,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5121,9 +5119,9 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="1"/>
+    <col min="1" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abourdeau\source\repos\mrjrdg\marque-sans-nom\Semainiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F0580F-F029-4162-B85E-A9F0D0B1B540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D3CC7-15B0-B442-93A0-DE1E3A7477A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Commentaires</t>
-  </si>
-  <si>
-    <t>Alex</t>
   </si>
   <si>
     <t>Philippe</t>
@@ -305,6 +302,30 @@
   </si>
   <si>
     <t>Réunion 2019-02-24</t>
+  </si>
+  <si>
+    <t>DEUXIEME SPRINT</t>
+  </si>
+  <si>
+    <t>Pages administration et gestion par GUI</t>
+  </si>
+  <si>
+    <t>Pages gestion d'entreprises (Create,Edit)</t>
+  </si>
+  <si>
+    <t>Pages gestion d'evenement (Create,Edit,Delete)</t>
+  </si>
+  <si>
+    <t>Messageries entre utilisateur</t>
+  </si>
+  <si>
+    <t>Babillards de commentaires</t>
+  </si>
+  <si>
+    <t>Alex . D</t>
+  </si>
+  <si>
+    <t>Page Contact</t>
   </si>
 </sst>
 </file>
@@ -515,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -914,6 +935,17 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -928,7 +960,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1136,17 +1168,6 @@
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1209,13 +1230,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
@@ -1276,9 +1291,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="5" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1286,42 +1298,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
@@ -1334,19 +1310,281 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1506,7 +1744,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1807,51 +2045,51 @@
   </sheetPr>
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
     <col min="11" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="16" width="7.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" style="6" customWidth="1"/>
-    <col min="28" max="28" width="22.7109375" style="1" customWidth="1"/>
-    <col min="29" max="1025" width="10.7109375" style="1"/>
+    <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.6640625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" style="1" customWidth="1"/>
+    <col min="29" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -1862,21 +2100,21 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="124"/>
+      <c r="B2" s="131"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -1889,7 +2127,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1907,7 +2145,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1927,7 +2165,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1951,7 +2189,7 @@
       </c>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1959,89 +2197,89 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="126" t="s">
+      <c r="K6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
       <c r="V6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130" t="s">
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="131" t="s">
+      <c r="H7" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="132" t="s">
+      <c r="J7" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="133" t="s">
+      <c r="K7" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="133"/>
-      <c r="V7" s="133"/>
-      <c r="W7" s="133"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="134" t="s">
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="135" t="s">
+      <c r="AB7" s="125" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128"/>
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="126"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="E8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
@@ -2069,49 +2307,49 @@
         <f t="shared" si="0"/>
         <v>43880</v>
       </c>
-      <c r="R8" s="123">
+      <c r="R8" s="117">
         <f t="shared" si="0"/>
         <v>43887</v>
       </c>
-      <c r="S8" s="123">
+      <c r="S8" s="117">
         <f t="shared" si="0"/>
         <v>43894</v>
       </c>
-      <c r="T8" s="123">
+      <c r="T8" s="117">
         <f t="shared" si="0"/>
         <v>43901</v>
       </c>
-      <c r="U8" s="123">
+      <c r="U8" s="117">
         <f t="shared" si="0"/>
         <v>43908</v>
       </c>
-      <c r="V8" s="123">
+      <c r="V8" s="117">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
-      <c r="W8" s="123">
+      <c r="W8" s="117">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
-      <c r="X8" s="123">
+      <c r="X8" s="117">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="Y8" s="123">
+      <c r="Y8" s="117">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="Z8" s="123">
+      <c r="Z8" s="117">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="135"/>
-    </row>
-    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="125"/>
+    </row>
+    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2140,12 +2378,12 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>1</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="37">
         <v>1.5</v>
@@ -2195,12 +2433,12 @@
       </c>
       <c r="AB10" s="45"/>
     </row>
-    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <v>2</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="37">
         <v>1.5</v>
@@ -2250,12 +2488,12 @@
       </c>
       <c r="AB11" s="48"/>
     </row>
-    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>3</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="37">
         <v>3</v>
@@ -2304,12 +2542,12 @@
       </c>
       <c r="AB12" s="49"/>
     </row>
-    <row r="13" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>4</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="37">
         <v>2</v>
@@ -2359,12 +2597,12 @@
       </c>
       <c r="AB13" s="48"/>
     </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>5</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="37">
         <v>3</v>
@@ -2414,12 +2652,12 @@
       </c>
       <c r="AB14" s="48"/>
     </row>
-    <row r="15" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>6</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="37">
         <v>2</v>
@@ -2469,12 +2707,12 @@
       </c>
       <c r="AB15" s="48"/>
     </row>
-    <row r="16" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>7</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="37">
         <v>2</v>
@@ -2524,12 +2762,12 @@
       </c>
       <c r="AB16" s="48"/>
     </row>
-    <row r="17" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>8</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="37">
         <v>2</v>
@@ -2579,12 +2817,12 @@
       </c>
       <c r="AB17" s="48"/>
     </row>
-    <row r="18" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>9</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="37">
         <v>2</v>
@@ -2634,12 +2872,12 @@
       </c>
       <c r="AB18" s="48"/>
     </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>10</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="37">
         <v>1.5</v>
@@ -2689,12 +2927,12 @@
       </c>
       <c r="AB19" s="48"/>
     </row>
-    <row r="20" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>11</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="37">
         <v>0</v>
@@ -2744,12 +2982,12 @@
       </c>
       <c r="AB20" s="48"/>
     </row>
-    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>12</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="37">
         <v>3</v>
@@ -2799,12 +3037,12 @@
       </c>
       <c r="AB21" s="48"/>
     </row>
-    <row r="22" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>13</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="37">
         <v>3</v>
@@ -2854,12 +3092,12 @@
       </c>
       <c r="AB22" s="48"/>
     </row>
-    <row r="23" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>14</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>
@@ -2875,10 +3113,10 @@
       </c>
       <c r="G23" s="38">
         <f>VLOOKUP(H23,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="40">
         <v>20</v>
@@ -2889,12 +3127,12 @@
       </c>
       <c r="K23" s="68"/>
       <c r="L23" s="60"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="71"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="68"/>
       <c r="P23" s="68"/>
       <c r="Q23" s="69"/>
-      <c r="R23" s="65"/>
+      <c r="R23" s="56"/>
       <c r="S23" s="66"/>
       <c r="T23" s="66"/>
       <c r="U23" s="57"/>
@@ -2909,12 +3147,12 @@
       </c>
       <c r="AB23" s="48"/>
     </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>15</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="37">
         <v>1</v>
@@ -2944,12 +3182,12 @@
       </c>
       <c r="K24" s="68"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="73"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="70"/>
       <c r="S24" s="55"/>
       <c r="T24" s="55"/>
       <c r="U24" s="57"/>
@@ -2964,12 +3202,12 @@
       </c>
       <c r="AB24" s="48"/>
     </row>
-    <row r="25" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>16</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="37">
         <v>10</v>
@@ -2999,12 +3237,12 @@
       </c>
       <c r="K25" s="68"/>
       <c r="L25" s="60"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="134"/>
       <c r="S25" s="55"/>
       <c r="T25" s="55"/>
       <c r="U25" s="57"/>
@@ -3019,67 +3257,67 @@
       </c>
       <c r="AB25" s="48"/>
     </row>
-    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>17</v>
       </c>
-      <c r="B26" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="76">
-        <v>2</v>
-      </c>
-      <c r="D26" s="76">
-        <v>2</v>
-      </c>
-      <c r="E26" s="76">
-        <v>2</v>
-      </c>
-      <c r="F26" s="76">
-        <v>2</v>
-      </c>
-      <c r="G26" s="77">
+      <c r="B26" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="73">
+        <v>2</v>
+      </c>
+      <c r="D26" s="73">
+        <v>2</v>
+      </c>
+      <c r="E26" s="73">
+        <v>2</v>
+      </c>
+      <c r="F26" s="73">
+        <v>2</v>
+      </c>
+      <c r="G26" s="74">
         <f>VLOOKUP(H26,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="75">
         <v>8</v>
       </c>
       <c r="J26" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
       <c r="N26" s="52"/>
-      <c r="O26" s="73"/>
+      <c r="O26" s="70"/>
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="79"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="76"/>
       <c r="V26" s="52"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
       <c r="Z26" s="52"/>
       <c r="AA26" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="82"/>
-    </row>
-    <row r="27" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AB26" s="79"/>
+    </row>
+    <row r="27" spans="1:28" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <v>18</v>
       </c>
-      <c r="B27" s="83" t="s">
-        <v>42</v>
+      <c r="B27" s="80" t="s">
+        <v>41</v>
       </c>
       <c r="C27" s="37">
         <v>3</v>
@@ -3093,14 +3331,14 @@
       <c r="F27" s="37">
         <v>0</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="74">
         <f>VLOOKUP(H27,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="84">
+      <c r="I27" s="81">
         <v>21</v>
       </c>
       <c r="J27" s="40">
@@ -3111,7 +3349,7 @@
       <c r="L27" s="42"/>
       <c r="M27" s="42"/>
       <c r="N27" s="43"/>
-      <c r="O27" s="73"/>
+      <c r="O27" s="70"/>
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="43"/>
@@ -3129,26 +3367,26 @@
       </c>
       <c r="AB27" s="48"/>
     </row>
-    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>19</v>
       </c>
-      <c r="B28" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="87">
-        <v>2</v>
-      </c>
-      <c r="D28" s="87">
-        <v>0</v>
-      </c>
-      <c r="E28" s="87">
-        <v>0</v>
-      </c>
-      <c r="F28" s="87">
+      <c r="B28" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="84">
+        <v>2</v>
+      </c>
+      <c r="D28" s="84">
+        <v>0</v>
+      </c>
+      <c r="E28" s="84">
+        <v>0</v>
+      </c>
+      <c r="F28" s="84">
         <v>4</v>
       </c>
-      <c r="G28" s="77">
+      <c r="G28" s="74">
         <f>VLOOKUP(H28,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3162,34 +3400,34 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="89"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="86"/>
       <c r="O28" s="42"/>
-      <c r="P28" s="73"/>
+      <c r="P28" s="70"/>
       <c r="Q28" s="42"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="89"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="86"/>
       <c r="AA28" s="44">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB28" s="48"/>
     </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
         <v>20</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="37">
         <v>6</v>
@@ -3203,12 +3441,12 @@
       <c r="F29" s="37">
         <v>10</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="74">
         <f>VLOOKUP(H29,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29" s="40">
         <v>5</v>
@@ -3222,7 +3460,7 @@
       <c r="M29" s="42"/>
       <c r="N29" s="43"/>
       <c r="O29" s="42"/>
-      <c r="P29" s="71"/>
+      <c r="P29" s="41"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="43"/>
       <c r="S29" s="42"/>
@@ -3239,54 +3477,54 @@
       </c>
       <c r="AB29" s="48"/>
     </row>
-    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>21</v>
       </c>
-      <c r="B30" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="76">
-        <v>0</v>
-      </c>
-      <c r="D30" s="76">
+      <c r="B30" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="73">
+        <v>0</v>
+      </c>
+      <c r="D30" s="73">
         <v>9</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="73">
         <v>18.5</v>
       </c>
-      <c r="F30" s="76">
-        <v>0</v>
-      </c>
-      <c r="G30" s="77">
+      <c r="F30" s="73">
+        <v>0</v>
+      </c>
+      <c r="G30" s="74">
         <f>VLOOKUP(H30,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="78">
+      <c r="I30" s="75">
         <v>25</v>
       </c>
       <c r="J30" s="40">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
       <c r="N30" s="52"/>
       <c r="O30" s="42"/>
-      <c r="P30" s="73"/>
+      <c r="P30" s="70"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="61"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
       <c r="V30" s="52"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
       <c r="Z30" s="52"/>
       <c r="AA30" s="44">
         <f t="shared" si="2"/>
@@ -3294,12 +3532,12 @@
       </c>
       <c r="AB30" s="48"/>
     </row>
-    <row r="31" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>22</v>
       </c>
-      <c r="B31" s="83" t="s">
-        <v>46</v>
+      <c r="B31" s="80" t="s">
+        <v>45</v>
       </c>
       <c r="C31" s="37">
         <v>5</v>
@@ -3313,14 +3551,14 @@
       <c r="F31" s="37">
         <v>0</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="74">
         <f>VLOOKUP(H31,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="84">
+      <c r="I31" s="81">
         <v>12</v>
       </c>
       <c r="J31" s="40">
@@ -3332,7 +3570,7 @@
       <c r="M31" s="42"/>
       <c r="N31" s="43"/>
       <c r="O31" s="42"/>
-      <c r="P31" s="73"/>
+      <c r="P31" s="70"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="43"/>
       <c r="S31" s="42"/>
@@ -3349,12 +3587,12 @@
       </c>
       <c r="AB31" s="48"/>
     </row>
-    <row r="32" spans="1:28" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>23</v>
       </c>
-      <c r="B32" s="83" t="s">
-        <v>47</v>
+      <c r="B32" s="80" t="s">
+        <v>46</v>
       </c>
       <c r="C32" s="37">
         <v>3</v>
@@ -3368,17 +3606,17 @@
       <c r="F32" s="37">
         <v>3</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="74">
         <f>VLOOKUP(H32,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="84">
+      <c r="I32" s="81">
         <v>12</v>
       </c>
-      <c r="J32" s="84">
+      <c r="J32" s="81">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -3387,7 +3625,7 @@
       <c r="M32" s="42"/>
       <c r="N32" s="43"/>
       <c r="O32" s="42"/>
-      <c r="P32" s="73"/>
+      <c r="P32" s="70"/>
       <c r="Q32" s="42"/>
       <c r="R32" s="43"/>
       <c r="S32" s="42"/>
@@ -3404,26 +3642,26 @@
       </c>
       <c r="AB32" s="48"/>
     </row>
-    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="35">
         <v>24</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="87">
-        <v>0</v>
-      </c>
-      <c r="D33" s="87">
-        <v>0</v>
-      </c>
-      <c r="E33" s="87">
+      <c r="B33" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="84">
+        <v>0</v>
+      </c>
+      <c r="D33" s="84">
+        <v>0</v>
+      </c>
+      <c r="E33" s="84">
         <v>10</v>
       </c>
-      <c r="F33" s="87">
-        <v>0</v>
-      </c>
-      <c r="G33" s="77">
+      <c r="F33" s="84">
+        <v>0</v>
+      </c>
+      <c r="G33" s="74">
         <f>VLOOKUP(H33,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3437,34 +3675,34 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="80"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="77"/>
       <c r="O33" s="42"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="81"/>
-      <c r="T33" s="81"/>
-      <c r="U33" s="81"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="81"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="80"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="77"/>
       <c r="AA33" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB33" s="48"/>
     </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>25</v>
       </c>
-      <c r="B34" s="75" t="s">
-        <v>49</v>
+      <c r="B34" s="72" t="s">
+        <v>48</v>
       </c>
       <c r="C34" s="37">
         <v>0</v>
@@ -3478,7 +3716,7 @@
       <c r="F34" s="37">
         <v>0</v>
       </c>
-      <c r="G34" s="77">
+      <c r="G34" s="74">
         <f>VLOOKUP(H34,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3492,21 +3730,21 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
       <c r="N34" s="52"/>
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
-      <c r="Q34" s="92"/>
+      <c r="Q34" s="88"/>
       <c r="R34" s="52"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="79"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
       <c r="V34" s="52"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="76"/>
       <c r="Z34" s="52"/>
       <c r="AA34" s="44">
         <f t="shared" si="2"/>
@@ -3514,12 +3752,12 @@
       </c>
       <c r="AB34" s="48"/>
     </row>
-    <row r="35" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="35">
         <v>27</v>
       </c>
-      <c r="B35" s="75" t="s">
-        <v>50</v>
+      <c r="B35" s="72" t="s">
+        <v>49</v>
       </c>
       <c r="C35" s="37">
         <v>0</v>
@@ -3533,7 +3771,7 @@
       <c r="F35" s="37">
         <v>3</v>
       </c>
-      <c r="G35" s="77">
+      <c r="G35" s="74">
         <f>VLOOKUP(H35,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3545,21 +3783,21 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
       <c r="N35" s="52"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="92"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="88"/>
       <c r="R35" s="52"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
       <c r="V35" s="52"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="79"/>
-      <c r="Y35" s="79"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
       <c r="Z35" s="52"/>
       <c r="AA35" s="44">
         <f t="shared" si="2"/>
@@ -3567,12 +3805,12 @@
       </c>
       <c r="AB35" s="48"/>
     </row>
-    <row r="36" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="35">
         <v>28</v>
       </c>
-      <c r="B36" s="75" t="s">
-        <v>51</v>
+      <c r="B36" s="72" t="s">
+        <v>50</v>
       </c>
       <c r="C36" s="37">
         <v>2</v>
@@ -3586,7 +3824,7 @@
       <c r="F36" s="37">
         <v>8</v>
       </c>
-      <c r="G36" s="77">
+      <c r="G36" s="74">
         <f>VLOOKUP(H36,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3598,21 +3836,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
       <c r="N36" s="52"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="92"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="88"/>
       <c r="R36" s="52"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
       <c r="V36" s="52"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
       <c r="Z36" s="52"/>
       <c r="AA36" s="44">
         <f t="shared" si="2"/>
@@ -3620,12 +3858,12 @@
       </c>
       <c r="AB36" s="48"/>
     </row>
-    <row r="37" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
         <v>29</v>
       </c>
-      <c r="B37" s="75" t="s">
-        <v>52</v>
+      <c r="B37" s="72" t="s">
+        <v>51</v>
       </c>
       <c r="C37" s="37">
         <v>0</v>
@@ -3639,7 +3877,7 @@
       <c r="F37" s="37">
         <v>4</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="74">
         <f>VLOOKUP(H37,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3651,21 +3889,21 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
       <c r="N37" s="52"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="92"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="88"/>
       <c r="R37" s="43"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
       <c r="V37" s="52"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
       <c r="Z37" s="52"/>
       <c r="AA37" s="44">
         <f t="shared" si="2"/>
@@ -3673,12 +3911,12 @@
       </c>
       <c r="AB37" s="48"/>
     </row>
-    <row r="38" spans="1:28" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="35">
         <v>30</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>53</v>
+      <c r="B38" s="72" t="s">
+        <v>52</v>
       </c>
       <c r="C38" s="37">
         <v>5</v>
@@ -3692,7 +3930,7 @@
       <c r="F38" s="37">
         <v>0</v>
       </c>
-      <c r="G38" s="77">
+      <c r="G38" s="74">
         <f>VLOOKUP(H38,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3704,21 +3942,21 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
       <c r="N38" s="52"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="92"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="88"/>
       <c r="R38" s="52"/>
       <c r="S38" s="42"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
       <c r="V38" s="52"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
       <c r="Z38" s="52"/>
       <c r="AA38" s="44">
         <f t="shared" si="2"/>
@@ -3726,12 +3964,12 @@
       </c>
       <c r="AB38" s="48"/>
     </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="35">
         <v>31</v>
       </c>
-      <c r="B39" s="75" t="s">
-        <v>54</v>
+      <c r="B39" s="72" t="s">
+        <v>53</v>
       </c>
       <c r="C39" s="37">
         <v>0</v>
@@ -3745,7 +3983,7 @@
       <c r="F39" s="37">
         <v>4</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="74">
         <f>VLOOKUP(H39,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3757,21 +3995,21 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
       <c r="N39" s="52"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="92"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="88"/>
       <c r="S39" s="42"/>
       <c r="T39" s="42"/>
-      <c r="U39" s="79"/>
+      <c r="U39" s="76"/>
       <c r="V39" s="52"/>
-      <c r="W39" s="79"/>
-      <c r="X39" s="79"/>
-      <c r="Y39" s="79"/>
+      <c r="W39" s="76"/>
+      <c r="X39" s="76"/>
+      <c r="Y39" s="76"/>
       <c r="Z39" s="52"/>
       <c r="AA39" s="44">
         <f t="shared" si="2"/>
@@ -3779,12 +4017,12 @@
       </c>
       <c r="AB39" s="48"/>
     </row>
-    <row r="40" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="35">
         <v>32</v>
       </c>
-      <c r="B40" s="75" t="s">
-        <v>55</v>
+      <c r="B40" s="72" t="s">
+        <v>54</v>
       </c>
       <c r="C40" s="37">
         <v>0</v>
@@ -3798,7 +4036,7 @@
       <c r="F40" s="37">
         <v>6</v>
       </c>
-      <c r="G40" s="77">
+      <c r="G40" s="74">
         <f>VLOOKUP(H40,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3810,21 +4048,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
       <c r="N40" s="52"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
       <c r="U40" s="42"/>
       <c r="V40" s="52"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="79"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
       <c r="Z40" s="52"/>
       <c r="AA40" s="44">
         <f t="shared" si="2"/>
@@ -3832,12 +4070,12 @@
       </c>
       <c r="AB40" s="48"/>
     </row>
-    <row r="41" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="35">
         <v>33</v>
       </c>
-      <c r="B41" s="75" t="s">
-        <v>56</v>
+      <c r="B41" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="C41" s="37">
         <v>2</v>
@@ -3851,7 +4089,7 @@
       <c r="F41" s="37">
         <v>2</v>
       </c>
-      <c r="G41" s="77">
+      <c r="G41" s="74">
         <f>VLOOKUP(H41,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3865,21 +4103,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
       <c r="N41" s="52"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
       <c r="Q41" s="42"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
       <c r="V41" s="52"/>
-      <c r="W41" s="79"/>
-      <c r="X41" s="79"/>
-      <c r="Y41" s="79"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
       <c r="Z41" s="52"/>
       <c r="AA41" s="44">
         <f t="shared" si="2"/>
@@ -3887,12 +4125,12 @@
       </c>
       <c r="AB41" s="48"/>
     </row>
-    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="35">
         <v>34</v>
       </c>
-      <c r="B42" s="75" t="s">
-        <v>57</v>
+      <c r="B42" s="72" t="s">
+        <v>56</v>
       </c>
       <c r="C42" s="37">
         <v>0</v>
@@ -3906,33 +4144,33 @@
       <c r="F42" s="37">
         <v>0</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="74">
         <f>VLOOKUP(H42,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
       <c r="N42" s="52"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="79"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
       <c r="R42" s="52"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="79"/>
-      <c r="U42" s="79"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
       <c r="V42" s="43"/>
-      <c r="W42" s="79"/>
-      <c r="X42" s="79"/>
-      <c r="Y42" s="79"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="76"/>
       <c r="Z42" s="52"/>
       <c r="AA42" s="44">
         <f t="shared" si="2"/>
@@ -3940,12 +4178,12 @@
       </c>
       <c r="AB42" s="48"/>
     </row>
-    <row r="43" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="35">
         <v>35</v>
       </c>
-      <c r="B43" s="75" t="s">
-        <v>58</v>
+      <c r="B43" s="72" t="s">
+        <v>57</v>
       </c>
       <c r="C43" s="37">
         <v>0</v>
@@ -3959,7 +4197,7 @@
       <c r="F43" s="37">
         <v>0</v>
       </c>
-      <c r="G43" s="77">
+      <c r="G43" s="74">
         <f>VLOOKUP(H43,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3973,21 +4211,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
       <c r="N43" s="52"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="79"/>
-      <c r="U43" s="79"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
       <c r="V43" s="43"/>
-      <c r="W43" s="79"/>
-      <c r="X43" s="79"/>
-      <c r="Y43" s="79"/>
+      <c r="W43" s="76"/>
+      <c r="X43" s="76"/>
+      <c r="Y43" s="76"/>
       <c r="Z43" s="52"/>
       <c r="AA43" s="44">
         <f t="shared" si="2"/>
@@ -3995,12 +4233,12 @@
       </c>
       <c r="AB43" s="48"/>
     </row>
-    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="35">
         <v>36</v>
       </c>
-      <c r="B44" s="75" t="s">
-        <v>59</v>
+      <c r="B44" s="72" t="s">
+        <v>58</v>
       </c>
       <c r="C44" s="37">
         <v>0</v>
@@ -4014,12 +4252,12 @@
       <c r="F44" s="37">
         <v>0</v>
       </c>
-      <c r="G44" s="77">
+      <c r="G44" s="74">
         <f>VLOOKUP(H44,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I44" s="40">
         <v>5</v>
@@ -4028,21 +4266,21 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
       <c r="N44" s="52"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
       <c r="R44" s="52"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="79"/>
-      <c r="U44" s="79"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
       <c r="V44" s="52"/>
       <c r="W44" s="42"/>
-      <c r="X44" s="79"/>
-      <c r="Y44" s="79"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
       <c r="Z44" s="52"/>
       <c r="AA44" s="44">
         <f t="shared" si="2"/>
@@ -4050,12 +4288,12 @@
       </c>
       <c r="AB44" s="48"/>
     </row>
-    <row r="45" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="35">
         <v>37</v>
       </c>
-      <c r="B45" s="75" t="s">
-        <v>60</v>
+      <c r="B45" s="72" t="s">
+        <v>59</v>
       </c>
       <c r="C45" s="37">
         <v>7</v>
@@ -4069,7 +4307,7 @@
       <c r="F45" s="37">
         <v>0</v>
       </c>
-      <c r="G45" s="77">
+      <c r="G45" s="74">
         <f>VLOOKUP(H45,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -4081,21 +4319,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
       <c r="N45" s="52"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="79"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
       <c r="V45" s="52"/>
       <c r="W45" s="42"/>
-      <c r="X45" s="79"/>
-      <c r="Y45" s="79"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
       <c r="Z45" s="52"/>
       <c r="AA45" s="44">
         <f t="shared" si="2"/>
@@ -4103,11 +4341,11 @@
       </c>
       <c r="AB45" s="48"/>
     </row>
-    <row r="46" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="141" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="35">
-        <v>38</v>
-      </c>
-      <c r="B46" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="67" t="s">
         <v>67</v>
       </c>
       <c r="C46" s="37">
@@ -4117,389 +4355,507 @@
         <v>0</v>
       </c>
       <c r="E46" s="37">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="F46" s="37">
         <v>0</v>
       </c>
-      <c r="G46" s="77">
+      <c r="G46" s="74">
         <f>VLOOKUP(H46,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I46" s="40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J46" s="40">
-        <f t="shared" si="1"/>
-        <v>8.75</v>
-      </c>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="79"/>
-      <c r="T46" s="79"/>
-      <c r="U46" s="79"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="79"/>
+        <f t="shared" ref="J46" si="3">SUM(C46:F46)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="140"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="42"/>
       <c r="X46" s="42"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="44">
-        <f t="shared" si="2"/>
-        <v>-1.75</v>
-      </c>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="44"/>
       <c r="AB46" s="48"/>
     </row>
-    <row r="47" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="141" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="35">
-        <v>39</v>
-      </c>
-      <c r="B47" s="75" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="B47" s="67" t="s">
+        <v>75</v>
       </c>
       <c r="C47" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="37">
         <v>0</v>
       </c>
       <c r="E47" s="37">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F47" s="37">
         <v>0</v>
       </c>
-      <c r="G47" s="77">
+      <c r="G47" s="74">
         <f>VLOOKUP(H47,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I47" s="40">
         <v>8</v>
       </c>
       <c r="J47" s="40">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K47" s="42"/>
       <c r="L47" s="42"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="79"/>
-      <c r="R47" s="122"/>
-      <c r="S47" s="79"/>
-      <c r="T47" s="79"/>
-      <c r="U47" s="79"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="79"/>
-      <c r="X47" s="79"/>
-      <c r="Y47" s="79"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="121"/>
-      <c r="AB47" s="82"/>
-    </row>
-    <row r="48" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
-        <v>40</v>
-      </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="39"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="140"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="48"/>
+    </row>
+    <row r="48" spans="1:28" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A48" s="135"/>
+      <c r="B48" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="136"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="122"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
-      <c r="U48" s="79"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="79"/>
-      <c r="X48" s="79"/>
-      <c r="Y48" s="79"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="121"/>
-      <c r="AB48" s="82"/>
-    </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J48" si="4">SUM(C48:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="137"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="78"/>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="138"/>
+      <c r="AB48" s="139"/>
+    </row>
+    <row r="49" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="35">
-        <v>41</v>
-      </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="37">
+        <v>0</v>
+      </c>
+      <c r="D49" s="37">
+        <v>0</v>
+      </c>
+      <c r="E49" s="37">
+        <v>8.75</v>
+      </c>
+      <c r="F49" s="37">
+        <v>0</v>
+      </c>
+      <c r="G49" s="74">
+        <f>VLOOKUP(H49,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="40">
+        <v>7</v>
+      </c>
       <c r="J49" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="79"/>
+        <f>SUM(C49:F49)</f>
+        <v>8.75</v>
+      </c>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
       <c r="N49" s="52"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="79"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="79"/>
-      <c r="T49" s="79"/>
-      <c r="U49" s="79"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="79"/>
-      <c r="X49" s="79"/>
-      <c r="Y49" s="79"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="134"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="142"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="76"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="76"/>
       <c r="Z49" s="52"/>
-      <c r="AA49" s="121"/>
-      <c r="AB49" s="82"/>
-    </row>
-    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA49" s="44">
+        <f>I49-J49</f>
+        <v>-1.75</v>
+      </c>
+      <c r="AB49" s="48"/>
+    </row>
+    <row r="50" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="35">
-        <v>42</v>
-      </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="B50" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="37">
+        <v>0</v>
+      </c>
+      <c r="D50" s="37">
+        <v>0</v>
+      </c>
+      <c r="E50" s="37">
+        <v>0</v>
+      </c>
+      <c r="F50" s="37">
+        <v>5</v>
+      </c>
+      <c r="G50" s="74">
+        <f>VLOOKUP(H50,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>5</v>
+      </c>
       <c r="I50" s="40"/>
       <c r="J50" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="79"/>
+        <f t="shared" ref="J50" si="5">SUM(C50:F50)</f>
+        <v>5</v>
+      </c>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
       <c r="N50" s="52"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="79"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="79"/>
-      <c r="T50" s="79"/>
-      <c r="U50" s="79"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="79"/>
-      <c r="X50" s="79"/>
-      <c r="Y50" s="79"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="134"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="142"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="76"/>
+      <c r="X50" s="76"/>
+      <c r="Y50" s="76"/>
       <c r="Z50" s="52"/>
-      <c r="AA50" s="121"/>
-      <c r="AB50" s="82"/>
-    </row>
-    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA50" s="44">
+        <f t="shared" ref="AA50" si="6">I50-J50</f>
+        <v>-5</v>
+      </c>
+      <c r="AB50" s="48"/>
+    </row>
+    <row r="51" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="35">
-        <v>43</v>
-      </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="37">
+        <v>7</v>
+      </c>
+      <c r="D51" s="37">
+        <v>0</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0</v>
+      </c>
+      <c r="G51" s="74">
+        <f>VLOOKUP(H51,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>5</v>
+      </c>
       <c r="I51" s="40"/>
       <c r="J51" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K51" s="42"/>
       <c r="L51" s="42"/>
-      <c r="M51" s="79"/>
+      <c r="M51" s="76"/>
       <c r="N51" s="52"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="79"/>
-      <c r="T51" s="79"/>
-      <c r="U51" s="79"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="79"/>
-      <c r="X51" s="79"/>
-      <c r="Y51" s="79"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="116"/>
+      <c r="S51" s="134"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="142"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="76"/>
+      <c r="X51" s="76"/>
+      <c r="Y51" s="76"/>
       <c r="Z51" s="52"/>
-      <c r="AA51" s="121"/>
-      <c r="AB51" s="82"/>
-    </row>
-    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA51" s="115"/>
+      <c r="AB51" s="79"/>
+    </row>
+    <row r="52" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="35">
-        <v>44</v>
-      </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="37">
+        <v>0</v>
+      </c>
+      <c r="D52" s="37">
+        <v>0</v>
+      </c>
+      <c r="E52" s="37">
+        <v>0</v>
+      </c>
+      <c r="F52" s="37">
+        <v>0</v>
+      </c>
+      <c r="G52" s="74">
+        <f>VLOOKUP(H52,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>75</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="40">
+        <v>8</v>
+      </c>
       <c r="J52" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K52" s="42"/>
       <c r="L52" s="42"/>
-      <c r="M52" s="79"/>
+      <c r="M52" s="76"/>
       <c r="N52" s="52"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="79"/>
-      <c r="U52" s="79"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="79"/>
-      <c r="Y52" s="79"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="116"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="142"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="76"/>
+      <c r="Y52" s="76"/>
       <c r="Z52" s="52"/>
-      <c r="AA52" s="121"/>
-      <c r="AB52" s="82"/>
-    </row>
-    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA52" s="115"/>
+      <c r="AB52" s="79"/>
+    </row>
+    <row r="53" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="35">
-        <v>45</v>
-      </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="40"/>
+        <v>5</v>
+      </c>
+      <c r="B53" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="37">
+        <v>0</v>
+      </c>
+      <c r="D53" s="37">
+        <v>0</v>
+      </c>
+      <c r="E53" s="37">
+        <v>0</v>
+      </c>
+      <c r="F53" s="37">
+        <v>0</v>
+      </c>
+      <c r="G53" s="74">
+        <f>VLOOKUP(H53,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>75</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="40">
+        <v>16</v>
+      </c>
       <c r="J53" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K53" s="42"/>
       <c r="L53" s="42"/>
-      <c r="M53" s="79"/>
+      <c r="M53" s="76"/>
       <c r="N53" s="52"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="79"/>
-      <c r="Y53" s="79"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="76"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="142"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="76"/>
+      <c r="X53" s="76"/>
+      <c r="Y53" s="76"/>
       <c r="Z53" s="52"/>
-      <c r="AA53" s="121"/>
-      <c r="AB53" s="82"/>
-    </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA53" s="115"/>
+      <c r="AB53" s="79"/>
+    </row>
+    <row r="54" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="35">
-        <v>46</v>
-      </c>
-      <c r="B54" s="75"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="40"/>
+        <v>6</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="37">
+        <v>0</v>
+      </c>
+      <c r="D54" s="37">
+        <v>0</v>
+      </c>
+      <c r="E54" s="37">
+        <v>0</v>
+      </c>
+      <c r="F54" s="37">
+        <v>0</v>
+      </c>
+      <c r="G54" s="74">
+        <f>VLOOKUP(H54,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>75</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="40">
+        <v>8</v>
+      </c>
       <c r="J54" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K54" s="42"/>
       <c r="L54" s="42"/>
-      <c r="M54" s="79"/>
+      <c r="M54" s="76"/>
       <c r="N54" s="52"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="79"/>
-      <c r="X54" s="79"/>
-      <c r="Y54" s="79"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="116"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="142"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="76"/>
+      <c r="X54" s="76"/>
+      <c r="Y54" s="76"/>
       <c r="Z54" s="52"/>
-      <c r="AA54" s="121"/>
-      <c r="AB54" s="82"/>
-    </row>
-    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA54" s="115"/>
+      <c r="AB54" s="79"/>
+    </row>
+    <row r="55" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="35">
-        <v>47</v>
-      </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="40"/>
+        <v>7</v>
+      </c>
+      <c r="B55" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="37">
+        <v>0</v>
+      </c>
+      <c r="D55" s="37">
+        <v>0</v>
+      </c>
+      <c r="E55" s="37">
+        <v>0</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0</v>
+      </c>
+      <c r="G55" s="74">
+        <f>VLOOKUP(H55,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>75</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="40">
+        <v>8</v>
+      </c>
       <c r="J55" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K55" s="42"/>
       <c r="L55" s="42"/>
-      <c r="M55" s="79"/>
+      <c r="M55" s="76"/>
       <c r="N55" s="52"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="79"/>
-      <c r="X55" s="79"/>
-      <c r="Y55" s="79"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="116"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="142"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="76"/>
+      <c r="X55" s="76"/>
+      <c r="Y55" s="76"/>
       <c r="Z55" s="52"/>
-      <c r="AA55" s="121"/>
-      <c r="AB55" s="82"/>
-    </row>
-    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA55" s="115"/>
+      <c r="AB55" s="79"/>
+    </row>
+    <row r="56" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="35">
-        <v>48</v>
-      </c>
-      <c r="B56" s="75"/>
+        <v>8</v>
+      </c>
+      <c r="B56" s="72"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
-      <c r="G56" s="77"/>
+      <c r="G56" s="74"/>
       <c r="H56" s="39"/>
       <c r="I56" s="40"/>
       <c r="J56" s="40">
@@ -4508,33 +4864,33 @@
       </c>
       <c r="K56" s="42"/>
       <c r="L56" s="42"/>
-      <c r="M56" s="79"/>
+      <c r="M56" s="76"/>
       <c r="N56" s="52"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="79"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="79"/>
-      <c r="T56" s="79"/>
-      <c r="U56" s="79"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="116"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="76"/>
       <c r="V56" s="52"/>
-      <c r="W56" s="79"/>
-      <c r="X56" s="79"/>
-      <c r="Y56" s="79"/>
+      <c r="W56" s="76"/>
+      <c r="X56" s="76"/>
+      <c r="Y56" s="76"/>
       <c r="Z56" s="52"/>
-      <c r="AA56" s="121"/>
-      <c r="AB56" s="82"/>
-    </row>
-    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA56" s="115"/>
+      <c r="AB56" s="79"/>
+    </row>
+    <row r="57" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="35">
-        <v>49</v>
-      </c>
-      <c r="B57" s="75"/>
+        <v>9</v>
+      </c>
+      <c r="B57" s="72"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
-      <c r="G57" s="77"/>
+      <c r="G57" s="74"/>
       <c r="H57" s="39"/>
       <c r="I57" s="40"/>
       <c r="J57" s="40">
@@ -4543,33 +4899,33 @@
       </c>
       <c r="K57" s="42"/>
       <c r="L57" s="42"/>
-      <c r="M57" s="79"/>
+      <c r="M57" s="76"/>
       <c r="N57" s="52"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="79"/>
-      <c r="T57" s="79"/>
-      <c r="U57" s="79"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="116"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="76"/>
       <c r="V57" s="52"/>
-      <c r="W57" s="79"/>
-      <c r="X57" s="79"/>
-      <c r="Y57" s="79"/>
+      <c r="W57" s="76"/>
+      <c r="X57" s="76"/>
+      <c r="Y57" s="76"/>
       <c r="Z57" s="52"/>
-      <c r="AA57" s="121"/>
-      <c r="AB57" s="82"/>
-    </row>
-    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA57" s="115"/>
+      <c r="AB57" s="79"/>
+    </row>
+    <row r="58" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="35">
-        <v>50</v>
-      </c>
-      <c r="B58" s="75"/>
+        <v>10</v>
+      </c>
+      <c r="B58" s="72"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
-      <c r="G58" s="77"/>
+      <c r="G58" s="74"/>
       <c r="H58" s="39"/>
       <c r="I58" s="40"/>
       <c r="J58" s="40">
@@ -4578,33 +4934,33 @@
       </c>
       <c r="K58" s="42"/>
       <c r="L58" s="42"/>
-      <c r="M58" s="79"/>
+      <c r="M58" s="76"/>
       <c r="N58" s="52"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="116"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="76"/>
       <c r="V58" s="52"/>
-      <c r="W58" s="79"/>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="79"/>
+      <c r="W58" s="76"/>
+      <c r="X58" s="76"/>
+      <c r="Y58" s="76"/>
       <c r="Z58" s="52"/>
-      <c r="AA58" s="121"/>
-      <c r="AB58" s="82"/>
-    </row>
-    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA58" s="115"/>
+      <c r="AB58" s="79"/>
+    </row>
+    <row r="59" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="35">
-        <v>51</v>
-      </c>
-      <c r="B59" s="75"/>
+        <v>11</v>
+      </c>
+      <c r="B59" s="72"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
-      <c r="G59" s="77"/>
+      <c r="G59" s="74"/>
       <c r="H59" s="39"/>
       <c r="I59" s="40"/>
       <c r="J59" s="40">
@@ -4613,446 +4969,527 @@
       </c>
       <c r="K59" s="42"/>
       <c r="L59" s="42"/>
-      <c r="M59" s="79"/>
+      <c r="M59" s="76"/>
       <c r="N59" s="52"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="122"/>
-      <c r="S59" s="79"/>
-      <c r="T59" s="79"/>
-      <c r="U59" s="79"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="116"/>
+      <c r="S59" s="76"/>
+      <c r="T59" s="76"/>
+      <c r="U59" s="76"/>
       <c r="V59" s="52"/>
-      <c r="W59" s="79"/>
-      <c r="X59" s="79"/>
-      <c r="Y59" s="79"/>
+      <c r="W59" s="76"/>
+      <c r="X59" s="76"/>
+      <c r="Y59" s="76"/>
       <c r="Z59" s="52"/>
-      <c r="AA59" s="121"/>
-      <c r="AB59" s="82"/>
-    </row>
-    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA59" s="115"/>
+      <c r="AB59" s="79"/>
+    </row>
+    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35">
-        <v>52</v>
-      </c>
-      <c r="B60" s="75"/>
+        <v>12</v>
+      </c>
+      <c r="B60" s="72"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
-      <c r="G60" s="77"/>
+      <c r="G60" s="74"/>
       <c r="H60" s="39"/>
       <c r="I60" s="40"/>
       <c r="J60" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="95"/>
-      <c r="O60" s="94"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="94"/>
-      <c r="R60" s="95"/>
-      <c r="S60" s="94"/>
-      <c r="T60" s="94"/>
-      <c r="U60" s="94"/>
-      <c r="V60" s="95"/>
-      <c r="W60" s="94"/>
-      <c r="X60" s="94"/>
-      <c r="Y60" s="94"/>
-      <c r="Z60" s="95"/>
-      <c r="AA60" s="96">
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="90"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="89"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="90"/>
+      <c r="S60" s="89"/>
+      <c r="T60" s="89"/>
+      <c r="U60" s="89"/>
+      <c r="V60" s="90"/>
+      <c r="W60" s="89"/>
+      <c r="X60" s="89"/>
+      <c r="Y60" s="89"/>
+      <c r="Z60" s="90"/>
+      <c r="AA60" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB60" s="97"/>
-    </row>
-    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="137"/>
-      <c r="C61" s="98">
+      <c r="AB60" s="92"/>
+    </row>
+    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="119"/>
+      <c r="C61" s="93">
         <f>SUM(C10:C60)</f>
-        <v>74.5</v>
-      </c>
-      <c r="D61" s="98">
+        <v>83.5</v>
+      </c>
+      <c r="D61" s="93">
         <f>SUM(D10:D60)</f>
         <v>75</v>
       </c>
-      <c r="E61" s="98">
+      <c r="E61" s="93">
         <f>SUM(E10:E60)</f>
         <v>71.75</v>
       </c>
-      <c r="F61" s="98">
+      <c r="F61" s="93">
         <f>SUM(F10:F60)</f>
-        <v>80</v>
-      </c>
-      <c r="G61" s="99"/>
-      <c r="H61" s="98"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="98">
+        <v>85</v>
+      </c>
+      <c r="G61" s="94"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="93">
         <f t="shared" si="1"/>
-        <v>301.25</v>
-      </c>
-      <c r="K61" s="101"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="101"/>
-      <c r="N61" s="101"/>
-      <c r="O61" s="101"/>
-      <c r="P61" s="101"/>
-      <c r="Q61" s="101"/>
-      <c r="R61" s="101"/>
-      <c r="S61" s="101"/>
-      <c r="T61" s="101"/>
-      <c r="U61" s="101"/>
-      <c r="V61" s="101"/>
-      <c r="W61" s="101"/>
-      <c r="X61" s="101"/>
-      <c r="Y61" s="101"/>
-      <c r="Z61" s="101"/>
-      <c r="AA61" s="98">
+        <v>315.25</v>
+      </c>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="96"/>
+      <c r="S61" s="96"/>
+      <c r="T61" s="96"/>
+      <c r="U61" s="96"/>
+      <c r="V61" s="96"/>
+      <c r="W61" s="96"/>
+      <c r="X61" s="96"/>
+      <c r="Y61" s="96"/>
+      <c r="Z61" s="96"/>
+      <c r="AA61" s="93">
         <f>SUM(AA10:AA60)</f>
-        <v>13.25</v>
-      </c>
-      <c r="AB61" s="102"/>
-    </row>
-    <row r="62" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="138" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="138"/>
-      <c r="C62" s="98">
+        <v>8.25</v>
+      </c>
+      <c r="AB61" s="97"/>
+    </row>
+    <row r="62" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="120"/>
+      <c r="C62" s="93">
         <f>135-C61</f>
-        <v>60.5</v>
-      </c>
-      <c r="D62" s="98">
+        <v>51.5</v>
+      </c>
+      <c r="D62" s="93">
         <f>135-D61</f>
         <v>60</v>
       </c>
-      <c r="E62" s="98">
+      <c r="E62" s="93">
         <f>135-E61</f>
         <v>63.25</v>
       </c>
-      <c r="F62" s="98">
+      <c r="F62" s="93">
         <f>135-F61</f>
-        <v>55</v>
-      </c>
-      <c r="G62" s="99"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="98">
+        <v>50</v>
+      </c>
+      <c r="G62" s="94"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93">
         <f t="shared" si="1"/>
-        <v>238.75</v>
-      </c>
-      <c r="K62" s="101"/>
-      <c r="L62" s="101"/>
-      <c r="M62" s="101"/>
-      <c r="N62" s="101"/>
-      <c r="O62" s="101"/>
-      <c r="P62" s="101"/>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="101"/>
-      <c r="S62" s="101"/>
-      <c r="T62" s="101"/>
-      <c r="U62" s="101"/>
-      <c r="V62" s="101"/>
-      <c r="W62" s="101"/>
-      <c r="X62" s="101"/>
-      <c r="Y62" s="101"/>
-      <c r="Z62" s="101"/>
-      <c r="AA62" s="101"/>
-      <c r="AB62" s="101"/>
-    </row>
-    <row r="63" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="139" t="s">
+        <v>224.75</v>
+      </c>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="96"/>
+      <c r="V62" s="96"/>
+      <c r="W62" s="96"/>
+      <c r="X62" s="96"/>
+      <c r="Y62" s="96"/>
+      <c r="Z62" s="96"/>
+      <c r="AA62" s="96"/>
+      <c r="AB62" s="96"/>
+    </row>
+    <row r="63" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="121"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93">
+        <f>C63+D63+F63+E63</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="96"/>
+      <c r="O63" s="96"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="96"/>
+      <c r="S63" s="96"/>
+      <c r="T63" s="96"/>
+      <c r="U63" s="96"/>
+      <c r="V63" s="96"/>
+      <c r="W63" s="96"/>
+      <c r="X63" s="96"/>
+      <c r="Y63" s="96"/>
+      <c r="Z63" s="96"/>
+      <c r="AA63" s="96"/>
+      <c r="AB63" s="96"/>
+    </row>
+    <row r="64" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="139"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98">
-        <f>C63+D63+F63+E63</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
-      <c r="M63" s="101"/>
-      <c r="N63" s="101"/>
-      <c r="O63" s="101"/>
-      <c r="P63" s="101"/>
-      <c r="Q63" s="101"/>
-      <c r="R63" s="101"/>
-      <c r="S63" s="101"/>
-      <c r="T63" s="101"/>
-      <c r="U63" s="101"/>
-      <c r="V63" s="101"/>
-      <c r="W63" s="101"/>
-      <c r="X63" s="101"/>
-      <c r="Y63" s="101"/>
-      <c r="Z63" s="101"/>
-      <c r="AA63" s="101"/>
-      <c r="AB63" s="101"/>
-    </row>
-    <row r="64" spans="1:28" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="138" t="s">
+      <c r="B64" s="120"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="99">
+        <f>SUM(I10:I60)</f>
+        <v>368</v>
+      </c>
+      <c r="J64" s="93">
+        <f>SUM(J10:J60)</f>
+        <v>315.25</v>
+      </c>
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="96"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="96"/>
+      <c r="S64" s="96"/>
+      <c r="T64" s="96"/>
+      <c r="U64" s="96"/>
+      <c r="V64" s="96"/>
+      <c r="W64" s="96"/>
+      <c r="X64" s="96"/>
+      <c r="Y64" s="96"/>
+      <c r="Z64" s="96"/>
+      <c r="AA64" s="96"/>
+      <c r="AB64" s="96"/>
+    </row>
+    <row r="65" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="96"/>
+      <c r="O65" s="96"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="96"/>
+      <c r="S65" s="96"/>
+      <c r="T65" s="96"/>
+      <c r="U65" s="96"/>
+      <c r="V65" s="96"/>
+      <c r="W65" s="96"/>
+      <c r="X65" s="96"/>
+      <c r="Y65" s="96"/>
+      <c r="Z65" s="96"/>
+      <c r="AA65" s="96"/>
+      <c r="AB65" s="96"/>
+    </row>
+    <row r="66" spans="1:28" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="138"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="98"/>
-      <c r="I64" s="104">
-        <f>SUM(I10:I60)</f>
-        <v>320</v>
-      </c>
-      <c r="J64" s="98">
-        <f>SUM(J10:J60)</f>
-        <v>301.25</v>
-      </c>
-      <c r="K64" s="101"/>
-      <c r="L64" s="101"/>
-      <c r="M64" s="101"/>
-      <c r="N64" s="101"/>
-      <c r="O64" s="101"/>
-      <c r="P64" s="101"/>
-      <c r="Q64" s="101"/>
-      <c r="R64" s="101"/>
-      <c r="S64" s="101"/>
-      <c r="T64" s="101"/>
-      <c r="U64" s="101"/>
-      <c r="V64" s="101"/>
-      <c r="W64" s="101"/>
-      <c r="X64" s="101"/>
-      <c r="Y64" s="101"/>
-      <c r="Z64" s="101"/>
-      <c r="AA64" s="101"/>
-      <c r="AB64" s="101"/>
-    </row>
-    <row r="65" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="105"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="106"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="106"/>
-      <c r="K65" s="101"/>
-      <c r="L65" s="101"/>
-      <c r="M65" s="101"/>
-      <c r="N65" s="101"/>
-      <c r="O65" s="101"/>
-      <c r="P65" s="101"/>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="101"/>
-      <c r="S65" s="101"/>
-      <c r="T65" s="101"/>
-      <c r="U65" s="101"/>
-      <c r="V65" s="101"/>
-      <c r="W65" s="101"/>
-      <c r="X65" s="101"/>
-      <c r="Y65" s="101"/>
-      <c r="Z65" s="101"/>
-      <c r="AA65" s="101"/>
-      <c r="AB65" s="101"/>
-    </row>
-    <row r="66" spans="1:28" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="139" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="139"/>
-      <c r="C66" s="98">
+      <c r="B66" s="121"/>
+      <c r="C66" s="93">
         <f>135*4</f>
         <v>540</v>
       </c>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="106"/>
-      <c r="K66" s="101"/>
-      <c r="L66" s="101"/>
-      <c r="M66" s="101"/>
-      <c r="N66" s="101"/>
-      <c r="O66" s="101"/>
-      <c r="P66" s="101"/>
-      <c r="Q66" s="101"/>
-      <c r="R66" s="101"/>
-      <c r="S66" s="101"/>
-      <c r="T66" s="101"/>
-      <c r="U66" s="101"/>
-      <c r="V66" s="101"/>
-      <c r="W66" s="101"/>
-      <c r="X66" s="101"/>
-      <c r="Y66" s="101"/>
-      <c r="Z66" s="101"/>
-      <c r="AA66" s="101"/>
-      <c r="AB66" s="101"/>
-    </row>
-    <row r="67" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="136" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="136"/>
-      <c r="C67" s="98">
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="96"/>
+      <c r="S66" s="96"/>
+      <c r="T66" s="96"/>
+      <c r="U66" s="96"/>
+      <c r="V66" s="96"/>
+      <c r="W66" s="96"/>
+      <c r="X66" s="96"/>
+      <c r="Y66" s="96"/>
+      <c r="Z66" s="96"/>
+      <c r="AA66" s="96"/>
+      <c r="AB66" s="96"/>
+    </row>
+    <row r="67" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="118"/>
+      <c r="C67" s="93">
         <f>C66-J64</f>
-        <v>238.75</v>
-      </c>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="106"/>
-      <c r="K67" s="101"/>
-      <c r="L67" s="101"/>
-      <c r="M67" s="101"/>
-      <c r="N67" s="101"/>
-      <c r="O67" s="101"/>
-      <c r="P67" s="101"/>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="101"/>
-      <c r="S67" s="101"/>
-      <c r="T67" s="101"/>
-      <c r="U67" s="101"/>
-      <c r="V67" s="101"/>
-      <c r="W67" s="101"/>
-      <c r="X67" s="101"/>
-      <c r="Y67" s="101"/>
-      <c r="Z67" s="101"/>
-      <c r="AA67" s="101"/>
-      <c r="AB67" s="101"/>
-    </row>
-    <row r="68" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="107"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="108"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="109"/>
-      <c r="I68" s="110"/>
-      <c r="J68" s="110"/>
-      <c r="AA68" s="101"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D69" s="111"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="111"/>
-    </row>
-    <row r="70" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="112"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="H70" s="115"/>
-      <c r="I70" s="116"/>
-      <c r="J70" s="116"/>
-      <c r="N70" s="117"/>
-      <c r="R70" s="117"/>
-      <c r="V70" s="117"/>
-      <c r="Z70" s="117"/>
-      <c r="AA70" s="118"/>
-    </row>
-    <row r="71" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="H71" s="115"/>
-      <c r="I71" s="116"/>
-      <c r="J71" s="116"/>
-      <c r="N71" s="117"/>
-      <c r="R71" s="117"/>
-      <c r="V71" s="117"/>
-      <c r="Z71" s="117"/>
-      <c r="AA71" s="118"/>
-    </row>
-    <row r="72" spans="1:28" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="H72" s="115"/>
-      <c r="I72" s="116"/>
-      <c r="J72" s="116"/>
-      <c r="N72" s="117"/>
-      <c r="R72" s="117"/>
-      <c r="V72" s="117"/>
-      <c r="Z72" s="117"/>
-      <c r="AA72" s="118"/>
+        <v>224.75</v>
+      </c>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
+      <c r="J67" s="101"/>
+      <c r="K67" s="96"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="96"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="96"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="96"/>
+      <c r="S67" s="96"/>
+      <c r="T67" s="96"/>
+      <c r="U67" s="96"/>
+      <c r="V67" s="96"/>
+      <c r="W67" s="96"/>
+      <c r="X67" s="96"/>
+      <c r="Y67" s="96"/>
+      <c r="Z67" s="96"/>
+      <c r="AA67" s="96"/>
+      <c r="AB67" s="96"/>
+    </row>
+    <row r="68" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="102"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
+      <c r="AA68" s="96"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+    </row>
+    <row r="70" spans="1:28" s="108" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A70" s="107"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="111"/>
+      <c r="N70" s="112"/>
+      <c r="R70" s="112"/>
+      <c r="V70" s="112"/>
+      <c r="Z70" s="112"/>
+      <c r="AA70" s="113"/>
+    </row>
+    <row r="71" spans="1:28" s="108" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="C71" s="109"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="H71" s="110"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="111"/>
+      <c r="N71" s="112"/>
+      <c r="R71" s="112"/>
+      <c r="V71" s="112"/>
+      <c r="Z71" s="112"/>
+      <c r="AA71" s="113"/>
+    </row>
+    <row r="72" spans="1:28" s="108" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="C72" s="109"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="H72" s="110"/>
+      <c r="I72" s="111"/>
+      <c r="J72" s="111"/>
+      <c r="N72" s="112"/>
+      <c r="R72" s="112"/>
+      <c r="V72" s="112"/>
+      <c r="Z72" s="112"/>
+      <c r="AA72" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:Z7"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H60">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="En attente">
+  <conditionalFormatting sqref="H9:H45 H49 H56:H60 H47">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F60">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+  <conditionalFormatting sqref="C9:F45 C49:F49 C56:F60 C47:F47">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>$H9="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F60">
-    <cfRule type="expression" dxfId="1" priority="8">
+  <conditionalFormatting sqref="C9:F45 C49:F49 C56:F60 C47:F47">
+    <cfRule type="expression" dxfId="22" priority="29">
       <formula>$H9="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>$H9="En attente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="En attente">
+      <formula>NOT(ISERROR(SEARCH("En attente",H48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",H48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",H48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:F48">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>$H48="Terminé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:F48">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>$H48="En cours"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>$H48="En attente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H55">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="En attente">
+      <formula>NOT(ISERROR(SEARCH("En attente",H50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",H50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",H50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:F55">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$H50="Terminé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:F55">
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>$H50="En cours"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>$H50="En attente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="En attente">
+      <formula>NOT(ISERROR(SEARCH("En attente",H46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",H46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",H46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:F46">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$H46="Terminé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:F46">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$H46="En cours"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$H46="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5065,7 +5502,7 @@
   <pageMargins left="0.31527777777777799" right="0.31527777777777799" top="0.74791666666666701" bottom="0.55138888888888904" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J10:J60" unlockedFormula="1"/>
+    <ignoredError sqref="J10:J45 J47 J51:J60" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5078,20 +5515,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375" style="1"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="119">
+      <c r="B1" s="114">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5099,7 +5536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5119,9 +5556,9 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375" style="1"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abourdeau\source\repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D3CC7-15B0-B442-93A0-DE1E3A7477A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B80EA8-BD2F-4DCC-8EC0-0E12E04660BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -97,9 +99,6 @@
   </si>
   <si>
     <t>Philippe</t>
-  </si>
-  <si>
-    <t>Alex. H</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -322,10 +321,16 @@
     <t>Babillards de commentaires</t>
   </si>
   <si>
-    <t>Alex . D</t>
-  </si>
-  <si>
     <t>Page Contact</t>
+  </si>
+  <si>
+    <t>Alex D.</t>
+  </si>
+  <si>
+    <t>Alex B.</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
   </si>
 </sst>
 </file>
@@ -338,7 +343,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
     <numFmt numFmtId="167" formatCode="\\;;;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -491,8 +496,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,8 +547,14 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -946,6 +964,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -960,7 +1002,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1089,10 +1131,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
@@ -1125,10 +1163,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1137,19 +1171,14 @@
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="14" fillId="7" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,7 +1197,6 @@
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
@@ -1230,7 +1258,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="8" applyBorder="1"/>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
@@ -1300,6 +1327,67 @@
     <xf numFmtId="166" fontId="20" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1310,76 +1398,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
@@ -1744,7 +1790,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2045,51 +2091,51 @@
   </sheetPr>
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="4" customWidth="1"/>
     <col min="11" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.6640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" style="1" customWidth="1"/>
-    <col min="29" max="1025" width="10.6640625" style="1"/>
+    <col min="15" max="16" width="7.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="6" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" style="1" customWidth="1"/>
+    <col min="29" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="131"/>
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -2100,21 +2146,21 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="131"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -2127,7 +2173,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2145,7 +2191,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2165,7 +2211,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -2189,7 +2235,7 @@
       </c>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2197,73 +2243,78 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="V6" s="17"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="143"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="129" t="s">
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="122" t="s">
+      <c r="J7" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="123" t="s">
+      <c r="K7" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="124" t="s">
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="125" t="s">
+      <c r="AB7" s="130" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="122"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="20" t="s">
         <v>74</v>
       </c>
@@ -2271,15 +2322,15 @@
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="129"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
@@ -2307,49 +2358,49 @@
         <f t="shared" si="0"/>
         <v>43880</v>
       </c>
-      <c r="R8" s="117">
+      <c r="R8" s="109">
         <f t="shared" si="0"/>
         <v>43887</v>
       </c>
-      <c r="S8" s="117">
+      <c r="S8" s="109">
         <f t="shared" si="0"/>
         <v>43894</v>
       </c>
-      <c r="T8" s="117">
+      <c r="T8" s="109">
         <f t="shared" si="0"/>
         <v>43901</v>
       </c>
-      <c r="U8" s="117">
+      <c r="U8" s="109">
         <f t="shared" si="0"/>
         <v>43908</v>
       </c>
-      <c r="V8" s="117">
+      <c r="V8" s="109">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
-      <c r="W8" s="117">
+      <c r="W8" s="109">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
-      <c r="X8" s="117">
+      <c r="X8" s="109">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="Y8" s="117">
+      <c r="Y8" s="109">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="Z8" s="117">
+      <c r="Z8" s="109">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="125"/>
-    </row>
-    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.2">
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="130"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2378,12 +2429,12 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>1</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="37">
         <v>1.5</v>
@@ -2411,34 +2462,34 @@
         <f t="shared" ref="J10:J62" si="1">SUM(C10:F10)</f>
         <v>6</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="44">
+      <c r="K10" s="135"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="43">
         <f t="shared" ref="AA10:AA60" si="2">I10-J10</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="45"/>
-    </row>
-    <row r="11" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB10" s="44"/>
+    </row>
+    <row r="11" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>2</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="37">
         <v>1.5</v>
@@ -2466,34 +2517,34 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="44">
+      <c r="K11" s="135"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="48"/>
-    </row>
-    <row r="12" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB11" s="47"/>
+    </row>
+    <row r="12" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>3</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="37">
         <v>3</v>
@@ -2521,33 +2572,33 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="41"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="44">
+      <c r="K12" s="41"/>
+      <c r="L12" s="135"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="49"/>
-    </row>
-    <row r="13" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB12" s="48"/>
+    </row>
+    <row r="13" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>4</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>27</v>
+      <c r="B13" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="37">
         <v>2</v>
@@ -2575,34 +2626,34 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="44">
+      <c r="K13" s="41"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="48"/>
-    </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB13" s="47"/>
+    </row>
+    <row r="14" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <v>5</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>28</v>
+      <c r="B14" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="37">
         <v>3</v>
@@ -2630,34 +2681,34 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="44">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="48"/>
-    </row>
-    <row r="15" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB14" s="47"/>
+    </row>
+    <row r="15" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>6</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>29</v>
+      <c r="B15" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="37">
         <v>2</v>
@@ -2685,34 +2736,34 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="44">
+      <c r="K15" s="41"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="48"/>
-    </row>
-    <row r="16" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB15" s="47"/>
+    </row>
+    <row r="16" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>7</v>
       </c>
-      <c r="B16" s="50" t="s">
-        <v>30</v>
+      <c r="B16" s="49" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="37">
         <v>2</v>
@@ -2740,34 +2791,34 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="44">
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="43">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AB16" s="48"/>
-    </row>
-    <row r="17" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB16" s="47"/>
+    </row>
+    <row r="17" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>8</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>31</v>
+      <c r="B17" s="49" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="37">
         <v>2</v>
@@ -2795,34 +2846,34 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="44">
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="48"/>
-    </row>
-    <row r="18" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB17" s="47"/>
+    </row>
+    <row r="18" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>9</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>32</v>
+      <c r="B18" s="49" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="37">
         <v>2</v>
@@ -2850,34 +2901,34 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="44">
+      <c r="K18" s="41"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="43">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB18" s="48"/>
-    </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB18" s="47"/>
+    </row>
+    <row r="19" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>10</v>
       </c>
-      <c r="B19" s="50" t="s">
-        <v>33</v>
+      <c r="B19" s="49" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="37">
         <v>1.5</v>
@@ -2905,34 +2956,34 @@
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="44">
+      <c r="K19" s="41"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="43">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="AB19" s="48"/>
-    </row>
-    <row r="20" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB19" s="47"/>
+    </row>
+    <row r="20" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>11</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>34</v>
+      <c r="B20" s="49" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="37">
         <v>0</v>
@@ -2960,34 +3011,34 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="44">
+      <c r="K20" s="41"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="43">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB20" s="48"/>
-    </row>
-    <row r="21" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB20" s="47"/>
+    </row>
+    <row r="21" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <v>12</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>35</v>
+      <c r="B21" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="37">
         <v>3</v>
@@ -3015,34 +3066,34 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="44">
+      <c r="K21" s="41"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="48"/>
-    </row>
-    <row r="22" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB21" s="47"/>
+    </row>
+    <row r="22" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>13</v>
       </c>
-      <c r="B22" s="67" t="s">
-        <v>36</v>
+      <c r="B22" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="37">
         <v>3</v>
@@ -3070,34 +3121,34 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K22" s="68"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="44">
+      <c r="K22" s="62"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="43">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AB22" s="48"/>
-    </row>
-    <row r="23" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB22" s="47"/>
+    </row>
+    <row r="23" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>14</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>37</v>
+      <c r="B23" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>
@@ -3125,34 +3176,34 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="44">
+      <c r="K23" s="62"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="43">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB23" s="48"/>
-    </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB23" s="47"/>
+    </row>
+    <row r="24" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>15</v>
       </c>
-      <c r="B24" s="67" t="s">
-        <v>38</v>
+      <c r="B24" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="37">
         <v>1</v>
@@ -3180,34 +3231,34 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K24" s="68"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="44">
+      <c r="K24" s="62"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="136"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="43">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB24" s="48"/>
-    </row>
-    <row r="25" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB24" s="47"/>
+    </row>
+    <row r="25" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>16</v>
       </c>
-      <c r="B25" s="67" t="s">
-        <v>39</v>
+      <c r="B25" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="37">
         <v>10</v>
@@ -3235,89 +3286,89 @@
         <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
-      <c r="K25" s="68"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="134"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="44">
+      <c r="K25" s="62"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="135"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="43">
         <f t="shared" si="2"/>
         <v>-8.5</v>
       </c>
-      <c r="AB25" s="48"/>
-    </row>
-    <row r="26" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB25" s="47"/>
+    </row>
+    <row r="26" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>17</v>
       </c>
-      <c r="B26" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="73">
-        <v>2</v>
-      </c>
-      <c r="D26" s="73">
-        <v>2</v>
-      </c>
-      <c r="E26" s="73">
-        <v>2</v>
-      </c>
-      <c r="F26" s="73">
-        <v>2</v>
-      </c>
-      <c r="G26" s="74">
+      <c r="B26" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="66">
+        <v>2</v>
+      </c>
+      <c r="D26" s="66">
+        <v>2</v>
+      </c>
+      <c r="E26" s="66">
+        <v>2</v>
+      </c>
+      <c r="F26" s="66">
+        <v>2</v>
+      </c>
+      <c r="G26" s="67">
         <f>VLOOKUP(H26,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="68">
         <v>8</v>
       </c>
       <c r="J26" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="44">
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="79"/>
-    </row>
-    <row r="27" spans="1:28" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB26" s="72"/>
+    </row>
+    <row r="27" spans="1:28" s="75" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>18</v>
       </c>
-      <c r="B27" s="80" t="s">
-        <v>41</v>
+      <c r="B27" s="73" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="37">
         <v>3</v>
@@ -3331,62 +3382,62 @@
       <c r="F27" s="37">
         <v>0</v>
       </c>
-      <c r="G27" s="74">
+      <c r="G27" s="67">
         <f>VLOOKUP(H27,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="81">
+      <c r="I27" s="74">
         <v>21</v>
       </c>
       <c r="J27" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="44">
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="AB27" s="48"/>
-    </row>
-    <row r="28" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB27" s="47"/>
+    </row>
+    <row r="28" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>19</v>
       </c>
-      <c r="B28" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="84">
-        <v>2</v>
-      </c>
-      <c r="D28" s="84">
-        <v>0</v>
-      </c>
-      <c r="E28" s="84">
-        <v>0</v>
-      </c>
-      <c r="F28" s="84">
+      <c r="B28" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="77">
+        <v>2</v>
+      </c>
+      <c r="D28" s="77">
+        <v>0</v>
+      </c>
+      <c r="E28" s="77">
+        <v>0</v>
+      </c>
+      <c r="F28" s="77">
         <v>4</v>
       </c>
-      <c r="G28" s="74">
+      <c r="G28" s="67">
         <f>VLOOKUP(H28,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3400,34 +3451,34 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="44">
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="43">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AB28" s="48"/>
-    </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB28" s="47"/>
+    </row>
+    <row r="29" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>20</v>
       </c>
-      <c r="B29" s="67" t="s">
-        <v>43</v>
+      <c r="B29" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="C29" s="37">
         <v>6</v>
@@ -3441,7 +3492,7 @@
       <c r="F29" s="37">
         <v>10</v>
       </c>
-      <c r="G29" s="74">
+      <c r="G29" s="67">
         <f>VLOOKUP(H29,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3455,89 +3506,89 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="44">
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="43">
         <f t="shared" si="2"/>
         <v>-11</v>
       </c>
-      <c r="AB29" s="48"/>
-    </row>
-    <row r="30" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB29" s="47"/>
+    </row>
+    <row r="30" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>21</v>
       </c>
-      <c r="B30" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="73">
-        <v>0</v>
-      </c>
-      <c r="D30" s="73">
+      <c r="B30" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="66">
+        <v>0</v>
+      </c>
+      <c r="D30" s="66">
         <v>9</v>
       </c>
-      <c r="E30" s="73">
+      <c r="E30" s="66">
         <v>18.5</v>
       </c>
-      <c r="F30" s="73">
-        <v>0</v>
-      </c>
-      <c r="G30" s="74">
+      <c r="F30" s="66">
+        <v>0</v>
+      </c>
+      <c r="G30" s="67">
         <f>VLOOKUP(H30,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="75">
+      <c r="I30" s="68">
         <v>25</v>
       </c>
       <c r="J30" s="40">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="44">
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="43">
         <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
-      <c r="AB30" s="48"/>
-    </row>
-    <row r="31" spans="1:28" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB30" s="47"/>
+    </row>
+    <row r="31" spans="1:28" s="75" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>22</v>
       </c>
-      <c r="B31" s="80" t="s">
-        <v>45</v>
+      <c r="B31" s="73" t="s">
+        <v>44</v>
       </c>
       <c r="C31" s="37">
         <v>5</v>
@@ -3551,48 +3602,48 @@
       <c r="F31" s="37">
         <v>0</v>
       </c>
-      <c r="G31" s="74">
+      <c r="G31" s="67">
         <f>VLOOKUP(H31,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="81">
+      <c r="I31" s="74">
         <v>12</v>
       </c>
       <c r="J31" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="44">
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="43">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB31" s="48"/>
-    </row>
-    <row r="32" spans="1:28" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB31" s="47"/>
+    </row>
+    <row r="32" spans="1:28" s="75" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>23</v>
       </c>
-      <c r="B32" s="80" t="s">
-        <v>46</v>
+      <c r="B32" s="73" t="s">
+        <v>45</v>
       </c>
       <c r="C32" s="37">
         <v>3</v>
@@ -3606,62 +3657,62 @@
       <c r="F32" s="37">
         <v>3</v>
       </c>
-      <c r="G32" s="74">
+      <c r="G32" s="67">
         <f>VLOOKUP(H32,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="81">
+      <c r="I32" s="74">
         <v>12</v>
       </c>
-      <c r="J32" s="81">
+      <c r="J32" s="74">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="44">
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="48"/>
-    </row>
-    <row r="33" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB32" s="47"/>
+    </row>
+    <row r="33" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>24</v>
       </c>
-      <c r="B33" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="84">
-        <v>0</v>
-      </c>
-      <c r="D33" s="84">
-        <v>0</v>
-      </c>
-      <c r="E33" s="84">
+      <c r="B33" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="77">
+        <v>0</v>
+      </c>
+      <c r="D33" s="77">
+        <v>0</v>
+      </c>
+      <c r="E33" s="77">
         <v>10</v>
       </c>
-      <c r="F33" s="84">
-        <v>0</v>
-      </c>
-      <c r="G33" s="74">
+      <c r="F33" s="77">
+        <v>0</v>
+      </c>
+      <c r="G33" s="67">
         <f>VLOOKUP(H33,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3675,34 +3726,34 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="44">
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="48"/>
-    </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB33" s="47"/>
+    </row>
+    <row r="34" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>25</v>
       </c>
-      <c r="B34" s="72" t="s">
-        <v>48</v>
+      <c r="B34" s="65" t="s">
+        <v>47</v>
       </c>
       <c r="C34" s="37">
         <v>0</v>
@@ -3716,7 +3767,7 @@
       <c r="F34" s="37">
         <v>0</v>
       </c>
-      <c r="G34" s="74">
+      <c r="G34" s="67">
         <f>VLOOKUP(H34,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3730,34 +3781,34 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="76"/>
-      <c r="Y34" s="76"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="44">
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="43">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="AB34" s="48"/>
-    </row>
-    <row r="35" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB34" s="47"/>
+    </row>
+    <row r="35" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>27</v>
       </c>
-      <c r="B35" s="72" t="s">
-        <v>49</v>
+      <c r="B35" s="65" t="s">
+        <v>48</v>
       </c>
       <c r="C35" s="37">
         <v>0</v>
@@ -3771,7 +3822,7 @@
       <c r="F35" s="37">
         <v>3</v>
       </c>
-      <c r="G35" s="74">
+      <c r="G35" s="67">
         <f>VLOOKUP(H35,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3783,34 +3834,34 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="76"/>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="44">
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="139"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="43">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="AB35" s="48"/>
-    </row>
-    <row r="36" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB35" s="47"/>
+    </row>
+    <row r="36" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <v>28</v>
       </c>
-      <c r="B36" s="72" t="s">
-        <v>50</v>
+      <c r="B36" s="65" t="s">
+        <v>49</v>
       </c>
       <c r="C36" s="37">
         <v>2</v>
@@ -3824,7 +3875,7 @@
       <c r="F36" s="37">
         <v>8</v>
       </c>
-      <c r="G36" s="74">
+      <c r="G36" s="67">
         <f>VLOOKUP(H36,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3836,34 +3887,34 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="44">
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="139"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="43">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="AB36" s="48"/>
-    </row>
-    <row r="37" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB36" s="47"/>
+    </row>
+    <row r="37" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <v>29</v>
       </c>
-      <c r="B37" s="72" t="s">
-        <v>51</v>
+      <c r="B37" s="65" t="s">
+        <v>50</v>
       </c>
       <c r="C37" s="37">
         <v>0</v>
@@ -3877,7 +3928,7 @@
       <c r="F37" s="37">
         <v>4</v>
       </c>
-      <c r="G37" s="74">
+      <c r="G37" s="67">
         <f>VLOOKUP(H37,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3889,34 +3940,34 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="44">
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="139"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="43">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="AB37" s="48"/>
-    </row>
-    <row r="38" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB37" s="47"/>
+    </row>
+    <row r="38" spans="1:28" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="35">
         <v>30</v>
       </c>
-      <c r="B38" s="72" t="s">
-        <v>52</v>
+      <c r="B38" s="65" t="s">
+        <v>51</v>
       </c>
       <c r="C38" s="37">
         <v>5</v>
@@ -3930,7 +3981,7 @@
       <c r="F38" s="37">
         <v>0</v>
       </c>
-      <c r="G38" s="74">
+      <c r="G38" s="67">
         <f>VLOOKUP(H38,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3942,34 +3993,34 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="76"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="44">
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="139"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="69"/>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="43">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="AB38" s="48"/>
-    </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB38" s="47"/>
+    </row>
+    <row r="39" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>31</v>
       </c>
-      <c r="B39" s="72" t="s">
-        <v>53</v>
+      <c r="B39" s="65" t="s">
+        <v>52</v>
       </c>
       <c r="C39" s="37">
         <v>0</v>
@@ -3983,7 +4034,7 @@
       <c r="F39" s="37">
         <v>4</v>
       </c>
-      <c r="G39" s="74">
+      <c r="G39" s="67">
         <f>VLOOKUP(H39,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -3995,34 +4046,34 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="76"/>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="44">
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="139"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="43">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="AB39" s="48"/>
-    </row>
-    <row r="40" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB39" s="47"/>
+    </row>
+    <row r="40" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
         <v>32</v>
       </c>
-      <c r="B40" s="72" t="s">
-        <v>54</v>
+      <c r="B40" s="65" t="s">
+        <v>53</v>
       </c>
       <c r="C40" s="37">
         <v>0</v>
@@ -4036,7 +4087,7 @@
       <c r="F40" s="37">
         <v>6</v>
       </c>
-      <c r="G40" s="74">
+      <c r="G40" s="67">
         <f>VLOOKUP(H40,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -4048,34 +4099,34 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="76"/>
-      <c r="X40" s="76"/>
-      <c r="Y40" s="76"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="44">
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="139"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="69"/>
+      <c r="X40" s="69"/>
+      <c r="Y40" s="69"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="43">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="AB40" s="48"/>
-    </row>
-    <row r="41" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB40" s="47"/>
+    </row>
+    <row r="41" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <v>33</v>
       </c>
-      <c r="B41" s="72" t="s">
-        <v>55</v>
+      <c r="B41" s="65" t="s">
+        <v>54</v>
       </c>
       <c r="C41" s="37">
         <v>2</v>
@@ -4089,7 +4140,7 @@
       <c r="F41" s="37">
         <v>2</v>
       </c>
-      <c r="G41" s="74">
+      <c r="G41" s="67">
         <f>VLOOKUP(H41,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -4103,34 +4154,34 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="76"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="44">
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="136"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="43">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB41" s="48"/>
-    </row>
-    <row r="42" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB41" s="47"/>
+    </row>
+    <row r="42" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <v>34</v>
       </c>
-      <c r="B42" s="72" t="s">
-        <v>56</v>
+      <c r="B42" s="65" t="s">
+        <v>55</v>
       </c>
       <c r="C42" s="37">
         <v>0</v>
@@ -4144,7 +4195,7 @@
       <c r="F42" s="37">
         <v>0</v>
       </c>
-      <c r="G42" s="74">
+      <c r="G42" s="67">
         <f>VLOOKUP(H42,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -4156,34 +4207,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="76"/>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="44">
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="69"/>
+      <c r="X42" s="69"/>
+      <c r="Y42" s="69"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="48"/>
-    </row>
-    <row r="43" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB42" s="47"/>
+    </row>
+    <row r="43" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>35</v>
       </c>
-      <c r="B43" s="72" t="s">
-        <v>57</v>
+      <c r="B43" s="65" t="s">
+        <v>56</v>
       </c>
       <c r="C43" s="37">
         <v>0</v>
@@ -4197,7 +4248,7 @@
       <c r="F43" s="37">
         <v>0</v>
       </c>
-      <c r="G43" s="74">
+      <c r="G43" s="67">
         <f>VLOOKUP(H43,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -4211,34 +4262,34 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="76"/>
-      <c r="T43" s="76"/>
-      <c r="U43" s="76"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="76"/>
-      <c r="X43" s="76"/>
-      <c r="Y43" s="76"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="44">
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="69"/>
+      <c r="R43" s="139"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="69"/>
+      <c r="X43" s="69"/>
+      <c r="Y43" s="69"/>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="43">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB43" s="48"/>
-    </row>
-    <row r="44" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB43" s="47"/>
+    </row>
+    <row r="44" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>36</v>
       </c>
-      <c r="B44" s="72" t="s">
-        <v>58</v>
+      <c r="B44" s="65" t="s">
+        <v>57</v>
       </c>
       <c r="C44" s="37">
         <v>0</v>
@@ -4252,7 +4303,7 @@
       <c r="F44" s="37">
         <v>0</v>
       </c>
-      <c r="G44" s="74">
+      <c r="G44" s="67">
         <f>VLOOKUP(H44,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -4266,34 +4317,34 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="76"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="44">
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="51"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="43">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB44" s="48"/>
-    </row>
-    <row r="45" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB44" s="47"/>
+    </row>
+    <row r="45" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>37</v>
       </c>
-      <c r="B45" s="72" t="s">
-        <v>59</v>
+      <c r="B45" s="65" t="s">
+        <v>58</v>
       </c>
       <c r="C45" s="37">
         <v>7</v>
@@ -4307,7 +4358,7 @@
       <c r="F45" s="37">
         <v>0</v>
       </c>
-      <c r="G45" s="74">
+      <c r="G45" s="67">
         <f>VLOOKUP(H45,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -4319,34 +4370,34 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="76"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="76"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="44">
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="139"/>
+      <c r="S45" s="69"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="69"/>
+      <c r="Y45" s="69"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="43">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="AB45" s="48"/>
-    </row>
-    <row r="46" spans="1:28" s="141" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB45" s="47"/>
+    </row>
+    <row r="46" spans="1:28" s="117" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>39</v>
       </c>
-      <c r="B46" s="67" t="s">
-        <v>67</v>
+      <c r="B46" s="61" t="s">
+        <v>66</v>
       </c>
       <c r="C46" s="37">
         <v>0</v>
@@ -4360,7 +4411,7 @@
       <c r="F46" s="37">
         <v>0</v>
       </c>
-      <c r="G46" s="74">
+      <c r="G46" s="67">
         <f>VLOOKUP(H46,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -4374,31 +4425,31 @@
         <f t="shared" ref="J46" si="3">SUM(C46:F46)</f>
         <v>2.5</v>
       </c>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="140"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="48"/>
-    </row>
-    <row r="47" spans="1:28" s="141" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="43"/>
+      <c r="AB46" s="47"/>
+    </row>
+    <row r="47" spans="1:28" s="117" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>40</v>
       </c>
-      <c r="B47" s="67" t="s">
-        <v>75</v>
+      <c r="B47" s="61" t="s">
+        <v>73</v>
       </c>
       <c r="C47" s="37">
         <v>2</v>
@@ -4412,7 +4463,7 @@
       <c r="F47" s="37">
         <v>0</v>
       </c>
-      <c r="G47" s="74">
+      <c r="G47" s="67">
         <f>VLOOKUP(H47,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
@@ -4426,66 +4477,63 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="140"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="44"/>
-      <c r="AB47" s="48"/>
-    </row>
-    <row r="48" spans="1:28" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="135"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="116"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="43"/>
+      <c r="AB47" s="47"/>
+    </row>
+    <row r="48" spans="1:28" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="111"/>
       <c r="B48" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="136"/>
+        <v>67</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="112"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="40">
-        <f t="shared" ref="J48" si="4">SUM(C48:F48)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="137"/>
-      <c r="S48" s="78"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="78"/>
-      <c r="X48" s="78"/>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="77"/>
-      <c r="AA48" s="138"/>
-      <c r="AB48" s="139"/>
-    </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="J48" s="40"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="70"/>
+      <c r="AA48" s="114"/>
+      <c r="AB48" s="115"/>
+    </row>
+    <row r="49" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>1</v>
       </c>
-      <c r="B49" s="72" t="s">
-        <v>66</v>
+      <c r="B49" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="C49" s="37">
         <v>0</v>
@@ -4499,7 +4547,7 @@
       <c r="F49" s="37">
         <v>0</v>
       </c>
-      <c r="G49" s="74">
+      <c r="G49" s="67">
         <f>VLOOKUP(H49,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
@@ -4513,34 +4561,34 @@
         <f>SUM(C49:F49)</f>
         <v>8.75</v>
       </c>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="70"/>
-      <c r="S49" s="134"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="142"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="76"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="76"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="44">
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="136"/>
+      <c r="S49" s="110"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="140"/>
+      <c r="V49" s="118"/>
+      <c r="W49" s="69"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="69"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="43">
         <f>I49-J49</f>
         <v>-1.75</v>
       </c>
-      <c r="AB49" s="48"/>
-    </row>
-    <row r="50" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB49" s="47"/>
+    </row>
+    <row r="50" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>2</v>
       </c>
-      <c r="B50" s="72" t="s">
-        <v>54</v>
+      <c r="B50" s="65" t="s">
+        <v>53</v>
       </c>
       <c r="C50" s="37">
         <v>0</v>
@@ -4554,7 +4602,7 @@
       <c r="F50" s="37">
         <v>5</v>
       </c>
-      <c r="G50" s="74">
+      <c r="G50" s="67">
         <f>VLOOKUP(H50,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
@@ -4563,37 +4611,37 @@
       </c>
       <c r="I50" s="40"/>
       <c r="J50" s="40">
-        <f t="shared" ref="J50" si="5">SUM(C50:F50)</f>
+        <f t="shared" ref="J50" si="4">SUM(C50:F50)</f>
         <v>5</v>
       </c>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="134"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="142"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="76"/>
-      <c r="Y50" s="76"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="44">
-        <f t="shared" ref="AA50" si="6">I50-J50</f>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="139"/>
+      <c r="S50" s="110"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="140"/>
+      <c r="V50" s="118"/>
+      <c r="W50" s="69"/>
+      <c r="X50" s="69"/>
+      <c r="Y50" s="69"/>
+      <c r="Z50" s="51"/>
+      <c r="AA50" s="43">
+        <f t="shared" ref="AA50" si="5">I50-J50</f>
         <v>-5</v>
       </c>
-      <c r="AB50" s="48"/>
-    </row>
-    <row r="51" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB50" s="47"/>
+    </row>
+    <row r="51" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>3</v>
       </c>
-      <c r="B51" s="72" t="s">
-        <v>69</v>
+      <c r="B51" s="65" t="s">
+        <v>68</v>
       </c>
       <c r="C51" s="37">
         <v>7</v>
@@ -4607,7 +4655,7 @@
       <c r="F51" s="37">
         <v>0</v>
       </c>
-      <c r="G51" s="74">
+      <c r="G51" s="67">
         <f>VLOOKUP(H51,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
@@ -4619,31 +4667,31 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="76"/>
-      <c r="R51" s="116"/>
-      <c r="S51" s="134"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="142"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="76"/>
-      <c r="X51" s="76"/>
-      <c r="Y51" s="76"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="115"/>
-      <c r="AB51" s="79"/>
-    </row>
-    <row r="52" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="110"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="140"/>
+      <c r="V51" s="118"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="107"/>
+      <c r="AB51" s="72"/>
+    </row>
+    <row r="52" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>4</v>
       </c>
-      <c r="B52" s="72" t="s">
-        <v>70</v>
+      <c r="B52" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="C52" s="37">
         <v>0</v>
@@ -4657,7 +4705,7 @@
       <c r="F52" s="37">
         <v>0</v>
       </c>
-      <c r="G52" s="74">
+      <c r="G52" s="67">
         <f>VLOOKUP(H52,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
@@ -4671,31 +4719,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="116"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="142"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="115"/>
-      <c r="AB52" s="79"/>
-    </row>
-    <row r="53" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="140"/>
+      <c r="V52" s="118"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="69"/>
+      <c r="Y52" s="69"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="107"/>
+      <c r="AB52" s="72"/>
+    </row>
+    <row r="53" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>5</v>
       </c>
-      <c r="B53" s="72" t="s">
-        <v>71</v>
+      <c r="B53" s="65" t="s">
+        <v>70</v>
       </c>
       <c r="C53" s="37">
         <v>0</v>
@@ -4709,7 +4757,7 @@
       <c r="F53" s="37">
         <v>0</v>
       </c>
-      <c r="G53" s="74">
+      <c r="G53" s="67">
         <f>VLOOKUP(H53,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
@@ -4723,31 +4771,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="116"/>
-      <c r="S53" s="76"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="142"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="76"/>
-      <c r="X53" s="76"/>
-      <c r="Y53" s="76"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="115"/>
-      <c r="AB53" s="79"/>
-    </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="108"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="140"/>
+      <c r="V53" s="118"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+      <c r="Y53" s="69"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="107"/>
+      <c r="AB53" s="72"/>
+    </row>
+    <row r="54" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>6</v>
       </c>
-      <c r="B54" s="72" t="s">
-        <v>72</v>
+      <c r="B54" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="C54" s="37">
         <v>0</v>
@@ -4761,7 +4809,7 @@
       <c r="F54" s="37">
         <v>0</v>
       </c>
-      <c r="G54" s="74">
+      <c r="G54" s="67">
         <f>VLOOKUP(H54,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
@@ -4775,31 +4823,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="116"/>
-      <c r="S54" s="76"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="142"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="76"/>
-      <c r="X54" s="76"/>
-      <c r="Y54" s="76"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="115"/>
-      <c r="AB54" s="79"/>
-    </row>
-    <row r="55" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="140"/>
+      <c r="V54" s="118"/>
+      <c r="W54" s="69"/>
+      <c r="X54" s="69"/>
+      <c r="Y54" s="69"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="107"/>
+      <c r="AB54" s="72"/>
+    </row>
+    <row r="55" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>7</v>
       </c>
-      <c r="B55" s="72" t="s">
-        <v>73</v>
+      <c r="B55" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="C55" s="37">
         <v>0</v>
@@ -4813,7 +4861,7 @@
       <c r="F55" s="37">
         <v>0</v>
       </c>
-      <c r="G55" s="74">
+      <c r="G55" s="67">
         <f>VLOOKUP(H55,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
@@ -4827,557 +4875,558 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="116"/>
-      <c r="S55" s="76"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="142"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="76"/>
-      <c r="X55" s="76"/>
-      <c r="Y55" s="76"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="115"/>
-      <c r="AB55" s="79"/>
-    </row>
-    <row r="56" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="108"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="140"/>
+      <c r="V55" s="118"/>
+      <c r="W55" s="69"/>
+      <c r="X55" s="69"/>
+      <c r="Y55" s="69"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="107"/>
+      <c r="AB55" s="72"/>
+    </row>
+    <row r="56" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>8</v>
       </c>
-      <c r="B56" s="72"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
-      <c r="G56" s="74"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="39"/>
       <c r="I56" s="40"/>
       <c r="J56" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="116"/>
-      <c r="S56" s="76"/>
-      <c r="T56" s="76"/>
-      <c r="U56" s="76"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="76"/>
-      <c r="X56" s="76"/>
-      <c r="Y56" s="76"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="115"/>
-      <c r="AB56" s="79"/>
-    </row>
-    <row r="57" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="69"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="69"/>
+      <c r="X56" s="69"/>
+      <c r="Y56" s="69"/>
+      <c r="Z56" s="51"/>
+      <c r="AA56" s="107"/>
+      <c r="AB56" s="72"/>
+    </row>
+    <row r="57" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>9</v>
       </c>
-      <c r="B57" s="72"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
-      <c r="G57" s="74"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="39"/>
       <c r="I57" s="40"/>
       <c r="J57" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="116"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="76"/>
-      <c r="Y57" s="76"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="115"/>
-      <c r="AB57" s="79"/>
-    </row>
-    <row r="58" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="108"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="69"/>
+      <c r="X57" s="69"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="51"/>
+      <c r="AA57" s="107"/>
+      <c r="AB57" s="72"/>
+    </row>
+    <row r="58" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <v>10</v>
       </c>
-      <c r="B58" s="72"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
-      <c r="G58" s="74"/>
+      <c r="G58" s="67"/>
       <c r="H58" s="39"/>
       <c r="I58" s="40"/>
       <c r="J58" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="116"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="76"/>
-      <c r="U58" s="76"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="76"/>
-      <c r="X58" s="76"/>
-      <c r="Y58" s="76"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="115"/>
-      <c r="AB58" s="79"/>
-    </row>
-    <row r="59" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69"/>
+      <c r="R58" s="108"/>
+      <c r="S58" s="69"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="69"/>
+      <c r="V58" s="51"/>
+      <c r="W58" s="69"/>
+      <c r="X58" s="69"/>
+      <c r="Y58" s="69"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="107"/>
+      <c r="AB58" s="72"/>
+    </row>
+    <row r="59" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>11</v>
       </c>
-      <c r="B59" s="72"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
-      <c r="G59" s="74"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="39"/>
       <c r="I59" s="40"/>
       <c r="J59" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="116"/>
-      <c r="S59" s="76"/>
-      <c r="T59" s="76"/>
-      <c r="U59" s="76"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="76"/>
-      <c r="X59" s="76"/>
-      <c r="Y59" s="76"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="115"/>
-      <c r="AB59" s="79"/>
-    </row>
-    <row r="60" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="108"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="69"/>
+      <c r="X59" s="69"/>
+      <c r="Y59" s="69"/>
+      <c r="Z59" s="51"/>
+      <c r="AA59" s="107"/>
+      <c r="AB59" s="72"/>
+    </row>
+    <row r="60" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
         <v>12</v>
       </c>
-      <c r="B60" s="72"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
-      <c r="G60" s="74"/>
+      <c r="G60" s="67"/>
       <c r="H60" s="39"/>
       <c r="I60" s="40"/>
       <c r="J60" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
-      <c r="M60" s="89"/>
-      <c r="N60" s="90"/>
-      <c r="O60" s="89"/>
-      <c r="P60" s="89"/>
-      <c r="Q60" s="89"/>
-      <c r="R60" s="90"/>
-      <c r="S60" s="89"/>
-      <c r="T60" s="89"/>
-      <c r="U60" s="89"/>
-      <c r="V60" s="90"/>
-      <c r="W60" s="89"/>
-      <c r="X60" s="89"/>
-      <c r="Y60" s="89"/>
-      <c r="Z60" s="90"/>
-      <c r="AA60" s="91">
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="81"/>
+      <c r="T60" s="81"/>
+      <c r="U60" s="81"/>
+      <c r="V60" s="82"/>
+      <c r="W60" s="81"/>
+      <c r="X60" s="81"/>
+      <c r="Y60" s="81"/>
+      <c r="Z60" s="82"/>
+      <c r="AA60" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB60" s="92"/>
-    </row>
-    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="119"/>
-      <c r="C61" s="93">
+      <c r="AB60" s="84"/>
+    </row>
+    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="132" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="132"/>
+      <c r="C61" s="85">
         <f>SUM(C10:C60)</f>
         <v>83.5</v>
       </c>
-      <c r="D61" s="93">
+      <c r="D61" s="85">
         <f>SUM(D10:D60)</f>
         <v>75</v>
       </c>
-      <c r="E61" s="93">
+      <c r="E61" s="85">
         <f>SUM(E10:E60)</f>
         <v>71.75</v>
       </c>
-      <c r="F61" s="93">
+      <c r="F61" s="85">
         <f>SUM(F10:F60)</f>
         <v>85</v>
       </c>
-      <c r="G61" s="94"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="95"/>
-      <c r="J61" s="93">
+      <c r="G61" s="86"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="85">
         <f t="shared" si="1"/>
         <v>315.25</v>
       </c>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="96"/>
-      <c r="U61" s="96"/>
-      <c r="V61" s="96"/>
-      <c r="W61" s="96"/>
-      <c r="X61" s="96"/>
-      <c r="Y61" s="96"/>
-      <c r="Z61" s="96"/>
-      <c r="AA61" s="93">
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="85">
         <f>SUM(AA10:AA60)</f>
         <v>8.25</v>
       </c>
-      <c r="AB61" s="97"/>
-    </row>
-    <row r="62" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="120"/>
-      <c r="C62" s="93">
+      <c r="AB61" s="89"/>
+    </row>
+    <row r="62" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="133"/>
+      <c r="C62" s="85">
         <f>135-C61</f>
         <v>51.5</v>
       </c>
-      <c r="D62" s="93">
+      <c r="D62" s="85">
         <f>135-D61</f>
         <v>60</v>
       </c>
-      <c r="E62" s="93">
+      <c r="E62" s="85">
         <f>135-E61</f>
         <v>63.25</v>
       </c>
-      <c r="F62" s="93">
+      <c r="F62" s="85">
         <f>135-F61</f>
         <v>50</v>
       </c>
-      <c r="G62" s="94"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93">
+      <c r="G62" s="86"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="85">
         <f t="shared" si="1"/>
         <v>224.75</v>
       </c>
-      <c r="K62" s="96"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="96"/>
-      <c r="P62" s="96"/>
-      <c r="Q62" s="96"/>
-      <c r="R62" s="96"/>
-      <c r="S62" s="96"/>
-      <c r="T62" s="96"/>
-      <c r="U62" s="96"/>
-      <c r="V62" s="96"/>
-      <c r="W62" s="96"/>
-      <c r="X62" s="96"/>
-      <c r="Y62" s="96"/>
-      <c r="Z62" s="96"/>
-      <c r="AA62" s="96"/>
-      <c r="AB62" s="96"/>
-    </row>
-    <row r="63" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="121" t="s">
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
+    </row>
+    <row r="63" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="134"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85">
+        <f>C63+D63+F63+E63</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
+    </row>
+    <row r="64" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="121"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="93"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="93"/>
-      <c r="J63" s="93">
-        <f>C63+D63+F63+E63</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="96"/>
-      <c r="P63" s="96"/>
-      <c r="Q63" s="96"/>
-      <c r="R63" s="96"/>
-      <c r="S63" s="96"/>
-      <c r="T63" s="96"/>
-      <c r="U63" s="96"/>
-      <c r="V63" s="96"/>
-      <c r="W63" s="96"/>
-      <c r="X63" s="96"/>
-      <c r="Y63" s="96"/>
-      <c r="Z63" s="96"/>
-      <c r="AA63" s="96"/>
-      <c r="AB63" s="96"/>
-    </row>
-    <row r="64" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="120"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="99">
+      <c r="B64" s="133"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="91">
         <f>SUM(I10:I60)</f>
         <v>368</v>
       </c>
-      <c r="J64" s="93">
+      <c r="J64" s="85">
         <f>SUM(J10:J60)</f>
         <v>315.25</v>
       </c>
-      <c r="K64" s="96"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="96"/>
-      <c r="O64" s="96"/>
-      <c r="P64" s="96"/>
-      <c r="Q64" s="96"/>
-      <c r="R64" s="96"/>
-      <c r="S64" s="96"/>
-      <c r="T64" s="96"/>
-      <c r="U64" s="96"/>
-      <c r="V64" s="96"/>
-      <c r="W64" s="96"/>
-      <c r="X64" s="96"/>
-      <c r="Y64" s="96"/>
-      <c r="Z64" s="96"/>
-      <c r="AA64" s="96"/>
-      <c r="AB64" s="96"/>
-    </row>
-    <row r="65" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="101"/>
-      <c r="J65" s="101"/>
-      <c r="K65" s="96"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="96"/>
-      <c r="Q65" s="96"/>
-      <c r="R65" s="96"/>
-      <c r="S65" s="96"/>
-      <c r="T65" s="96"/>
-      <c r="U65" s="96"/>
-      <c r="V65" s="96"/>
-      <c r="W65" s="96"/>
-      <c r="X65" s="96"/>
-      <c r="Y65" s="96"/>
-      <c r="Z65" s="96"/>
-      <c r="AA65" s="96"/>
-      <c r="AB65" s="96"/>
-    </row>
-    <row r="66" spans="1:28" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="121"/>
-      <c r="C66" s="93">
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="88"/>
+    </row>
+    <row r="65" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
+      <c r="AA65" s="88"/>
+      <c r="AB65" s="88"/>
+    </row>
+    <row r="66" spans="1:28" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="134"/>
+      <c r="C66" s="85">
         <f>135*4</f>
         <v>540</v>
       </c>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="101"/>
-      <c r="J66" s="101"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="96"/>
-      <c r="O66" s="96"/>
-      <c r="P66" s="96"/>
-      <c r="Q66" s="96"/>
-      <c r="R66" s="96"/>
-      <c r="S66" s="96"/>
-      <c r="T66" s="96"/>
-      <c r="U66" s="96"/>
-      <c r="V66" s="96"/>
-      <c r="W66" s="96"/>
-      <c r="X66" s="96"/>
-      <c r="Y66" s="96"/>
-      <c r="Z66" s="96"/>
-      <c r="AA66" s="96"/>
-      <c r="AB66" s="96"/>
-    </row>
-    <row r="67" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="118"/>
-      <c r="C67" s="93">
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="88"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="88"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="88"/>
+      <c r="W66" s="88"/>
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="88"/>
+      <c r="AA66" s="88"/>
+      <c r="AB66" s="88"/>
+    </row>
+    <row r="67" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="131" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="131"/>
+      <c r="C67" s="85">
         <f>C66-J64</f>
         <v>224.75</v>
       </c>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="101"/>
-      <c r="K67" s="96"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="96"/>
-      <c r="P67" s="96"/>
-      <c r="Q67" s="96"/>
-      <c r="R67" s="96"/>
-      <c r="S67" s="96"/>
-      <c r="T67" s="96"/>
-      <c r="U67" s="96"/>
-      <c r="V67" s="96"/>
-      <c r="W67" s="96"/>
-      <c r="X67" s="96"/>
-      <c r="Y67" s="96"/>
-      <c r="Z67" s="96"/>
-      <c r="AA67" s="96"/>
-      <c r="AB67" s="96"/>
-    </row>
-    <row r="68" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="102"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="105"/>
-      <c r="AA68" s="96"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-    </row>
-    <row r="70" spans="1:28" s="108" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="107"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="H70" s="110"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
-      <c r="N70" s="112"/>
-      <c r="R70" s="112"/>
-      <c r="V70" s="112"/>
-      <c r="Z70" s="112"/>
-      <c r="AA70" s="113"/>
-    </row>
-    <row r="71" spans="1:28" s="108" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="C71" s="109"/>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
-      <c r="H71" s="110"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="111"/>
-      <c r="N71" s="112"/>
-      <c r="R71" s="112"/>
-      <c r="V71" s="112"/>
-      <c r="Z71" s="112"/>
-      <c r="AA71" s="113"/>
-    </row>
-    <row r="72" spans="1:28" s="108" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="C72" s="109"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="109"/>
-      <c r="H72" s="110"/>
-      <c r="I72" s="111"/>
-      <c r="J72" s="111"/>
-      <c r="N72" s="112"/>
-      <c r="R72" s="112"/>
-      <c r="V72" s="112"/>
-      <c r="Z72" s="112"/>
-      <c r="AA72" s="113"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
+      <c r="AA67" s="88"/>
+      <c r="AB67" s="88"/>
+    </row>
+    <row r="68" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="94"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="AA68" s="88"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D69" s="98"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+    </row>
+    <row r="70" spans="1:28" s="100" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="99"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="103"/>
+      <c r="N70" s="104"/>
+      <c r="R70" s="104"/>
+      <c r="V70" s="104"/>
+      <c r="Z70" s="104"/>
+      <c r="AA70" s="105"/>
+    </row>
+    <row r="71" spans="1:28" s="100" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="103"/>
+      <c r="N71" s="104"/>
+      <c r="R71" s="104"/>
+      <c r="V71" s="104"/>
+      <c r="Z71" s="104"/>
+      <c r="AA71" s="105"/>
+    </row>
+    <row r="72" spans="1:28" s="100" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="H72" s="102"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="103"/>
+      <c r="N72" s="104"/>
+      <c r="R72" s="104"/>
+      <c r="V72" s="104"/>
+      <c r="Z72" s="104"/>
+      <c r="AA72" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
+  <mergeCells count="22">
+    <mergeCell ref="S6:V6"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A66:B66"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:Z7"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="En cours">
@@ -5515,20 +5564,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="1"/>
+    <col min="1" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="114">
+      <c r="B1" s="106">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5536,7 +5585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5556,9 +5605,9 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="1"/>
+    <col min="1" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abourdeau\source\repos\mrjrdg\marque-sans-nom\Semainiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B80EA8-BD2F-4DCC-8EC0-0E12E04660BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1EB6F3-9CFC-CB4E-B0EC-8D2732FE16C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1352,52 +1350,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1417,15 +1369,61 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
@@ -1790,7 +1788,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2091,51 +2089,51 @@
   </sheetPr>
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W49" sqref="W49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
     <col min="11" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="16" width="7.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" style="6" customWidth="1"/>
-    <col min="28" max="28" width="22.7109375" style="1" customWidth="1"/>
-    <col min="29" max="1025" width="10.7109375" style="1"/>
+    <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.6640625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" style="1" customWidth="1"/>
+    <col min="29" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119"/>
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="141"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -2146,21 +2144,21 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -2173,7 +2171,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2191,7 +2189,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2211,7 +2209,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -2235,7 +2233,7 @@
       </c>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2243,78 +2241,78 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="121" t="s">
+      <c r="K6" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="141" t="s">
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="143"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="127"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="122" t="s">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="125" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="126" t="s">
+      <c r="H7" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="128" t="s">
+      <c r="K7" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="129" t="s">
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="130" t="s">
+      <c r="AB7" s="135" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="123"/>
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="20" t="s">
         <v>74</v>
       </c>
@@ -2327,10 +2325,10 @@
       <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
@@ -2394,10 +2392,10 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="130"/>
-    </row>
-    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="135"/>
+    </row>
+    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>22</v>
@@ -2429,7 +2427,7 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>1</v>
       </c>
@@ -2462,7 +2460,7 @@
         <f t="shared" ref="J10:J62" si="1">SUM(C10:F10)</f>
         <v>6</v>
       </c>
-      <c r="K10" s="135"/>
+      <c r="K10" s="119"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="42"/>
@@ -2484,7 +2482,7 @@
       </c>
       <c r="AB10" s="44"/>
     </row>
-    <row r="11" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <v>2</v>
       </c>
@@ -2517,7 +2515,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K11" s="135"/>
+      <c r="K11" s="119"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
       <c r="N11" s="42"/>
@@ -2539,7 +2537,7 @@
       </c>
       <c r="AB11" s="47"/>
     </row>
-    <row r="12" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>3</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="K12" s="41"/>
-      <c r="L12" s="135"/>
+      <c r="L12" s="119"/>
       <c r="N12" s="42"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
@@ -2593,7 +2591,7 @@
       </c>
       <c r="AB12" s="48"/>
     </row>
-    <row r="13" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>4</v>
       </c>
@@ -2627,8 +2625,8 @@
         <v>8</v>
       </c>
       <c r="K13" s="41"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
       <c r="N13" s="42"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
@@ -2648,7 +2646,7 @@
       </c>
       <c r="AB13" s="47"/>
     </row>
-    <row r="14" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>5</v>
       </c>
@@ -2683,7 +2681,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="135"/>
+      <c r="M14" s="119"/>
       <c r="N14" s="42"/>
       <c r="O14" s="41"/>
       <c r="P14" s="41"/>
@@ -2703,7 +2701,7 @@
       </c>
       <c r="AB14" s="47"/>
     </row>
-    <row r="15" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>6</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="L15" s="135"/>
+      <c r="L15" s="119"/>
       <c r="M15" s="50"/>
       <c r="N15" s="51"/>
       <c r="O15" s="41"/>
@@ -2758,7 +2756,7 @@
       </c>
       <c r="AB15" s="47"/>
     </row>
-    <row r="16" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>7</v>
       </c>
@@ -2793,8 +2791,8 @@
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
       <c r="O16" s="52"/>
       <c r="P16" s="52"/>
       <c r="Q16" s="52"/>
@@ -2813,7 +2811,7 @@
       </c>
       <c r="AB16" s="47"/>
     </row>
-    <row r="17" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>8</v>
       </c>
@@ -2848,7 +2846,7 @@
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
-      <c r="M17" s="136"/>
+      <c r="M17" s="120"/>
       <c r="N17" s="46"/>
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
@@ -2868,7 +2866,7 @@
       </c>
       <c r="AB17" s="47"/>
     </row>
-    <row r="18" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>9</v>
       </c>
@@ -2903,12 +2901,12 @@
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="56"/>
-      <c r="M18" s="138"/>
+      <c r="M18" s="122"/>
       <c r="N18" s="57"/>
       <c r="O18" s="52"/>
       <c r="P18" s="52"/>
       <c r="Q18" s="52"/>
-      <c r="R18" s="138"/>
+      <c r="R18" s="122"/>
       <c r="S18" s="52"/>
       <c r="T18" s="52"/>
       <c r="U18" s="54"/>
@@ -2923,7 +2921,7 @@
       </c>
       <c r="AB18" s="47"/>
     </row>
-    <row r="19" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>10</v>
       </c>
@@ -2958,8 +2956,8 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="56"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="137"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="121"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="58"/>
@@ -2978,7 +2976,7 @@
       </c>
       <c r="AB19" s="47"/>
     </row>
-    <row r="20" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>11</v>
       </c>
@@ -3018,7 +3016,7 @@
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="52"/>
-      <c r="R20" s="138"/>
+      <c r="R20" s="122"/>
       <c r="S20" s="52"/>
       <c r="T20" s="52"/>
       <c r="U20" s="54"/>
@@ -3033,7 +3031,7 @@
       </c>
       <c r="AB20" s="47"/>
     </row>
-    <row r="21" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>12</v>
       </c>
@@ -3088,7 +3086,7 @@
       </c>
       <c r="AB21" s="47"/>
     </row>
-    <row r="22" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>13</v>
       </c>
@@ -3123,8 +3121,8 @@
       </c>
       <c r="K22" s="62"/>
       <c r="L22" s="56"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="137"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="121"/>
       <c r="O22" s="62"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="63"/>
@@ -3143,7 +3141,7 @@
       </c>
       <c r="AB22" s="47"/>
     </row>
-    <row r="23" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>14</v>
       </c>
@@ -3178,8 +3176,8 @@
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="56"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
       <c r="O23" s="62"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="63"/>
@@ -3198,7 +3196,7 @@
       </c>
       <c r="AB23" s="47"/>
     </row>
-    <row r="24" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>15</v>
       </c>
@@ -3233,12 +3231,12 @@
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="56"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="136"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="120"/>
       <c r="S24" s="52"/>
       <c r="T24" s="52"/>
       <c r="U24" s="54"/>
@@ -3253,7 +3251,7 @@
       </c>
       <c r="AB24" s="47"/>
     </row>
-    <row r="25" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>16</v>
       </c>
@@ -3288,11 +3286,11 @@
       </c>
       <c r="K25" s="62"/>
       <c r="L25" s="56"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
       <c r="P25" s="64"/>
-      <c r="Q25" s="135"/>
+      <c r="Q25" s="119"/>
       <c r="R25" s="110"/>
       <c r="S25" s="52"/>
       <c r="T25" s="52"/>
@@ -3308,7 +3306,7 @@
       </c>
       <c r="AB25" s="47"/>
     </row>
-    <row r="26" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>17</v>
       </c>
@@ -3345,7 +3343,7 @@
       <c r="L26" s="69"/>
       <c r="M26" s="69"/>
       <c r="N26" s="51"/>
-      <c r="O26" s="136"/>
+      <c r="O26" s="120"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="70"/>
@@ -3363,7 +3361,7 @@
       </c>
       <c r="AB26" s="72"/>
     </row>
-    <row r="27" spans="1:28" s="75" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="75" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <v>18</v>
       </c>
@@ -3400,7 +3398,7 @@
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
       <c r="N27" s="42"/>
-      <c r="O27" s="136"/>
+      <c r="O27" s="120"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="42"/>
@@ -3418,7 +3416,7 @@
       </c>
       <c r="AB27" s="47"/>
     </row>
-    <row r="28" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>19</v>
       </c>
@@ -3456,7 +3454,7 @@
       <c r="M28" s="78"/>
       <c r="N28" s="79"/>
       <c r="O28" s="41"/>
-      <c r="P28" s="136"/>
+      <c r="P28" s="120"/>
       <c r="Q28" s="41"/>
       <c r="R28" s="79"/>
       <c r="S28" s="78"/>
@@ -3473,7 +3471,7 @@
       </c>
       <c r="AB28" s="47"/>
     </row>
-    <row r="29" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
         <v>20</v>
       </c>
@@ -3511,7 +3509,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="42"/>
       <c r="O29" s="41"/>
-      <c r="P29" s="135"/>
+      <c r="P29" s="119"/>
       <c r="Q29" s="41"/>
       <c r="R29" s="42"/>
       <c r="S29" s="41"/>
@@ -3528,7 +3526,7 @@
       </c>
       <c r="AB29" s="47"/>
     </row>
-    <row r="30" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>21</v>
       </c>
@@ -3566,9 +3564,9 @@
       <c r="M30" s="69"/>
       <c r="N30" s="51"/>
       <c r="O30" s="41"/>
-      <c r="P30" s="136"/>
+      <c r="P30" s="120"/>
       <c r="Q30" s="41"/>
-      <c r="R30" s="138"/>
+      <c r="R30" s="122"/>
       <c r="S30" s="69"/>
       <c r="T30" s="69"/>
       <c r="U30" s="69"/>
@@ -3583,7 +3581,7 @@
       </c>
       <c r="AB30" s="47"/>
     </row>
-    <row r="31" spans="1:28" s="75" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" s="75" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>22</v>
       </c>
@@ -3621,7 +3619,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="42"/>
       <c r="O31" s="41"/>
-      <c r="P31" s="136"/>
+      <c r="P31" s="120"/>
       <c r="Q31" s="41"/>
       <c r="R31" s="42"/>
       <c r="S31" s="41"/>
@@ -3638,7 +3636,7 @@
       </c>
       <c r="AB31" s="47"/>
     </row>
-    <row r="32" spans="1:28" s="75" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" s="75" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>23</v>
       </c>
@@ -3676,7 +3674,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="42"/>
       <c r="O32" s="41"/>
-      <c r="P32" s="136"/>
+      <c r="P32" s="120"/>
       <c r="Q32" s="41"/>
       <c r="R32" s="42"/>
       <c r="S32" s="41"/>
@@ -3693,7 +3691,7 @@
       </c>
       <c r="AB32" s="47"/>
     </row>
-    <row r="33" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="35">
         <v>24</v>
       </c>
@@ -3731,9 +3729,9 @@
       <c r="M33" s="71"/>
       <c r="N33" s="70"/>
       <c r="O33" s="41"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="136"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
       <c r="U33" s="71"/>
@@ -3748,7 +3746,7 @@
       </c>
       <c r="AB33" s="47"/>
     </row>
-    <row r="34" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>25</v>
       </c>
@@ -3787,7 +3785,7 @@
       <c r="N34" s="51"/>
       <c r="O34" s="41"/>
       <c r="P34" s="41"/>
-      <c r="Q34" s="139"/>
+      <c r="Q34" s="123"/>
       <c r="R34" s="51"/>
       <c r="S34" s="69"/>
       <c r="T34" s="69"/>
@@ -3803,7 +3801,7 @@
       </c>
       <c r="AB34" s="47"/>
     </row>
-    <row r="35" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="35">
         <v>27</v>
       </c>
@@ -3840,7 +3838,7 @@
       <c r="N35" s="51"/>
       <c r="O35" s="69"/>
       <c r="P35" s="69"/>
-      <c r="Q35" s="139"/>
+      <c r="Q35" s="123"/>
       <c r="R35" s="51"/>
       <c r="S35" s="69"/>
       <c r="T35" s="69"/>
@@ -3856,7 +3854,7 @@
       </c>
       <c r="AB35" s="47"/>
     </row>
-    <row r="36" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="35">
         <v>28</v>
       </c>
@@ -3893,7 +3891,7 @@
       <c r="N36" s="51"/>
       <c r="O36" s="69"/>
       <c r="P36" s="69"/>
-      <c r="Q36" s="139"/>
+      <c r="Q36" s="123"/>
       <c r="R36" s="51"/>
       <c r="S36" s="69"/>
       <c r="T36" s="69"/>
@@ -3909,7 +3907,7 @@
       </c>
       <c r="AB36" s="47"/>
     </row>
-    <row r="37" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
         <v>29</v>
       </c>
@@ -3946,7 +3944,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="69"/>
       <c r="P37" s="69"/>
-      <c r="Q37" s="139"/>
+      <c r="Q37" s="123"/>
       <c r="R37" s="42"/>
       <c r="S37" s="69"/>
       <c r="T37" s="69"/>
@@ -3962,7 +3960,7 @@
       </c>
       <c r="AB37" s="47"/>
     </row>
-    <row r="38" spans="1:28" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="35">
         <v>30</v>
       </c>
@@ -3999,7 +3997,7 @@
       <c r="N38" s="51"/>
       <c r="O38" s="69"/>
       <c r="P38" s="69"/>
-      <c r="Q38" s="139"/>
+      <c r="Q38" s="123"/>
       <c r="R38" s="51"/>
       <c r="S38" s="41"/>
       <c r="T38" s="69"/>
@@ -4015,7 +4013,7 @@
       </c>
       <c r="AB38" s="47"/>
     </row>
-    <row r="39" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="35">
         <v>31</v>
       </c>
@@ -4053,7 +4051,7 @@
       <c r="O39" s="69"/>
       <c r="P39" s="69"/>
       <c r="Q39" s="69"/>
-      <c r="R39" s="139"/>
+      <c r="R39" s="123"/>
       <c r="S39" s="41"/>
       <c r="T39" s="41"/>
       <c r="U39" s="69"/>
@@ -4068,7 +4066,7 @@
       </c>
       <c r="AB39" s="47"/>
     </row>
-    <row r="40" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="35">
         <v>32</v>
       </c>
@@ -4106,7 +4104,7 @@
       <c r="O40" s="69"/>
       <c r="P40" s="69"/>
       <c r="Q40" s="69"/>
-      <c r="R40" s="139"/>
+      <c r="R40" s="123"/>
       <c r="S40" s="69"/>
       <c r="T40" s="69"/>
       <c r="U40" s="41"/>
@@ -4121,7 +4119,7 @@
       </c>
       <c r="AB40" s="47"/>
     </row>
-    <row r="41" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="35">
         <v>33</v>
       </c>
@@ -4161,7 +4159,7 @@
       <c r="O41" s="69"/>
       <c r="P41" s="69"/>
       <c r="Q41" s="41"/>
-      <c r="R41" s="136"/>
+      <c r="R41" s="120"/>
       <c r="S41" s="69"/>
       <c r="T41" s="69"/>
       <c r="U41" s="69"/>
@@ -4176,7 +4174,7 @@
       </c>
       <c r="AB41" s="47"/>
     </row>
-    <row r="42" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="35">
         <v>34</v>
       </c>
@@ -4229,7 +4227,7 @@
       </c>
       <c r="AB42" s="47"/>
     </row>
-    <row r="43" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="35">
         <v>35</v>
       </c>
@@ -4269,7 +4267,7 @@
       <c r="O43" s="69"/>
       <c r="P43" s="69"/>
       <c r="Q43" s="69"/>
-      <c r="R43" s="139"/>
+      <c r="R43" s="123"/>
       <c r="S43" s="69"/>
       <c r="T43" s="69"/>
       <c r="U43" s="69"/>
@@ -4284,7 +4282,7 @@
       </c>
       <c r="AB43" s="47"/>
     </row>
-    <row r="44" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="35">
         <v>36</v>
       </c>
@@ -4339,7 +4337,7 @@
       </c>
       <c r="AB44" s="47"/>
     </row>
-    <row r="45" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="35">
         <v>37</v>
       </c>
@@ -4377,7 +4375,7 @@
       <c r="O45" s="69"/>
       <c r="P45" s="69"/>
       <c r="Q45" s="69"/>
-      <c r="R45" s="139"/>
+      <c r="R45" s="123"/>
       <c r="S45" s="69"/>
       <c r="T45" s="69"/>
       <c r="U45" s="69"/>
@@ -4392,7 +4390,7 @@
       </c>
       <c r="AB45" s="47"/>
     </row>
-    <row r="46" spans="1:28" s="117" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="117" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="35">
         <v>39</v>
       </c>
@@ -4444,7 +4442,7 @@
       <c r="AA46" s="43"/>
       <c r="AB46" s="47"/>
     </row>
-    <row r="47" spans="1:28" s="117" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="117" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="35">
         <v>40</v>
       </c>
@@ -4496,7 +4494,7 @@
       <c r="AA47" s="43"/>
       <c r="AB47" s="47"/>
     </row>
-    <row r="48" spans="1:28" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="111"/>
       <c r="B48" s="24" t="s">
         <v>67</v>
@@ -4528,7 +4526,7 @@
       <c r="AA48" s="114"/>
       <c r="AB48" s="115"/>
     </row>
-    <row r="49" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="35">
         <v>1</v>
       </c>
@@ -4568,10 +4566,10 @@
       <c r="O49" s="69"/>
       <c r="P49" s="69"/>
       <c r="Q49" s="69"/>
-      <c r="R49" s="136"/>
+      <c r="R49" s="120"/>
       <c r="S49" s="110"/>
       <c r="T49" s="41"/>
-      <c r="U49" s="140"/>
+      <c r="U49" s="124"/>
       <c r="V49" s="118"/>
       <c r="W49" s="69"/>
       <c r="X49" s="41"/>
@@ -4583,7 +4581,7 @@
       </c>
       <c r="AB49" s="47"/>
     </row>
-    <row r="50" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="35">
         <v>2</v>
       </c>
@@ -4604,10 +4602,10 @@
       </c>
       <c r="G50" s="67">
         <f>VLOOKUP(H50,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I50" s="40"/>
       <c r="J50" s="40">
@@ -4621,10 +4619,10 @@
       <c r="O50" s="69"/>
       <c r="P50" s="69"/>
       <c r="Q50" s="69"/>
-      <c r="R50" s="139"/>
+      <c r="R50" s="123"/>
       <c r="S50" s="110"/>
       <c r="T50" s="41"/>
-      <c r="U50" s="140"/>
+      <c r="U50" s="124"/>
       <c r="V50" s="118"/>
       <c r="W50" s="69"/>
       <c r="X50" s="69"/>
@@ -4636,7 +4634,7 @@
       </c>
       <c r="AB50" s="47"/>
     </row>
-    <row r="51" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="35">
         <v>3</v>
       </c>
@@ -4657,10 +4655,10 @@
       </c>
       <c r="G51" s="67">
         <f>VLOOKUP(H51,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I51" s="40"/>
       <c r="J51" s="40">
@@ -4677,7 +4675,7 @@
       <c r="R51" s="108"/>
       <c r="S51" s="110"/>
       <c r="T51" s="41"/>
-      <c r="U51" s="140"/>
+      <c r="U51" s="124"/>
       <c r="V51" s="118"/>
       <c r="W51" s="69"/>
       <c r="X51" s="69"/>
@@ -4686,7 +4684,7 @@
       <c r="AA51" s="107"/>
       <c r="AB51" s="72"/>
     </row>
-    <row r="52" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="35">
         <v>4</v>
       </c>
@@ -4694,7 +4692,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" s="37">
         <v>0</v>
@@ -4707,17 +4705,17 @@
       </c>
       <c r="G52" s="67">
         <f>VLOOKUP(H52,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I52" s="40">
         <v>8</v>
       </c>
       <c r="J52" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="41"/>
@@ -4729,7 +4727,7 @@
       <c r="R52" s="108"/>
       <c r="S52" s="69"/>
       <c r="T52" s="41"/>
-      <c r="U52" s="140"/>
+      <c r="U52" s="124"/>
       <c r="V52" s="118"/>
       <c r="W52" s="69"/>
       <c r="X52" s="69"/>
@@ -4738,7 +4736,7 @@
       <c r="AA52" s="107"/>
       <c r="AB52" s="72"/>
     </row>
-    <row r="53" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="35">
         <v>5</v>
       </c>
@@ -4746,7 +4744,7 @@
         <v>70</v>
       </c>
       <c r="C53" s="37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D53" s="37">
         <v>0</v>
@@ -4759,17 +4757,17 @@
       </c>
       <c r="G53" s="67">
         <f>VLOOKUP(H53,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I53" s="40">
         <v>16</v>
       </c>
       <c r="J53" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K53" s="41"/>
       <c r="L53" s="41"/>
@@ -4781,7 +4779,7 @@
       <c r="R53" s="108"/>
       <c r="S53" s="69"/>
       <c r="T53" s="41"/>
-      <c r="U53" s="140"/>
+      <c r="U53" s="124"/>
       <c r="V53" s="118"/>
       <c r="W53" s="69"/>
       <c r="X53" s="69"/>
@@ -4790,7 +4788,7 @@
       <c r="AA53" s="107"/>
       <c r="AB53" s="72"/>
     </row>
-    <row r="54" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="35">
         <v>6</v>
       </c>
@@ -4807,21 +4805,21 @@
         <v>0</v>
       </c>
       <c r="F54" s="37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G54" s="67">
         <f>VLOOKUP(H54,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H54" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I54" s="40">
         <v>8</v>
       </c>
       <c r="J54" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K54" s="41"/>
       <c r="L54" s="41"/>
@@ -4833,7 +4831,7 @@
       <c r="R54" s="108"/>
       <c r="S54" s="69"/>
       <c r="T54" s="41"/>
-      <c r="U54" s="140"/>
+      <c r="U54" s="124"/>
       <c r="V54" s="118"/>
       <c r="W54" s="69"/>
       <c r="X54" s="69"/>
@@ -4842,7 +4840,7 @@
       <c r="AA54" s="107"/>
       <c r="AB54" s="72"/>
     </row>
-    <row r="55" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="35">
         <v>7</v>
       </c>
@@ -4885,7 +4883,7 @@
       <c r="R55" s="108"/>
       <c r="S55" s="69"/>
       <c r="T55" s="41"/>
-      <c r="U55" s="140"/>
+      <c r="U55" s="124"/>
       <c r="V55" s="118"/>
       <c r="W55" s="69"/>
       <c r="X55" s="69"/>
@@ -4894,7 +4892,7 @@
       <c r="AA55" s="107"/>
       <c r="AB55" s="72"/>
     </row>
-    <row r="56" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="35">
         <v>8</v>
       </c>
@@ -4929,7 +4927,7 @@
       <c r="AA56" s="107"/>
       <c r="AB56" s="72"/>
     </row>
-    <row r="57" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="35">
         <v>9</v>
       </c>
@@ -4964,7 +4962,7 @@
       <c r="AA57" s="107"/>
       <c r="AB57" s="72"/>
     </row>
-    <row r="58" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="35">
         <v>10</v>
       </c>
@@ -4999,7 +4997,7 @@
       <c r="AA58" s="107"/>
       <c r="AB58" s="72"/>
     </row>
-    <row r="59" spans="1:28" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="35">
         <v>11</v>
       </c>
@@ -5034,7 +5032,7 @@
       <c r="AA59" s="107"/>
       <c r="AB59" s="72"/>
     </row>
-    <row r="60" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35">
         <v>12</v>
       </c>
@@ -5072,14 +5070,14 @@
       </c>
       <c r="AB60" s="84"/>
     </row>
-    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="132" t="s">
+    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="132"/>
+      <c r="B61" s="129"/>
       <c r="C61" s="85">
         <f>SUM(C10:C60)</f>
-        <v>83.5</v>
+        <v>94.5</v>
       </c>
       <c r="D61" s="85">
         <f>SUM(D10:D60)</f>
@@ -5091,14 +5089,14 @@
       </c>
       <c r="F61" s="85">
         <f>SUM(F10:F60)</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G61" s="86"/>
       <c r="H61" s="85"/>
       <c r="I61" s="87"/>
       <c r="J61" s="85">
         <f t="shared" si="1"/>
-        <v>315.25</v>
+        <v>336.25</v>
       </c>
       <c r="K61" s="88"/>
       <c r="L61" s="88"/>
@@ -5122,14 +5120,14 @@
       </c>
       <c r="AB61" s="89"/>
     </row>
-    <row r="62" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="133" t="s">
+    <row r="62" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="133"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="85">
         <f>135-C61</f>
-        <v>51.5</v>
+        <v>40.5</v>
       </c>
       <c r="D62" s="85">
         <f>135-D61</f>
@@ -5141,14 +5139,14 @@
       </c>
       <c r="F62" s="85">
         <f>135-F61</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G62" s="86"/>
       <c r="H62" s="85"/>
       <c r="I62" s="85"/>
       <c r="J62" s="85">
         <f t="shared" si="1"/>
-        <v>224.75</v>
+        <v>203.75</v>
       </c>
       <c r="K62" s="88"/>
       <c r="L62" s="88"/>
@@ -5169,11 +5167,11 @@
       <c r="AA62" s="88"/>
       <c r="AB62" s="88"/>
     </row>
-    <row r="63" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="134" t="s">
+    <row r="63" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="134"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="85"/>
       <c r="D63" s="85"/>
       <c r="E63" s="85"/>
@@ -5204,11 +5202,11 @@
       <c r="AA63" s="88"/>
       <c r="AB63" s="88"/>
     </row>
-    <row r="64" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="133" t="s">
+    <row r="64" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="133"/>
+      <c r="B64" s="130"/>
       <c r="C64" s="85"/>
       <c r="D64" s="85"/>
       <c r="E64" s="90"/>
@@ -5221,7 +5219,7 @@
       </c>
       <c r="J64" s="85">
         <f>SUM(J10:J60)</f>
-        <v>315.25</v>
+        <v>336.25</v>
       </c>
       <c r="K64" s="88"/>
       <c r="L64" s="88"/>
@@ -5242,7 +5240,7 @@
       <c r="AA64" s="88"/>
       <c r="AB64" s="88"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="92"/>
       <c r="B65" s="92"/>
       <c r="C65" s="93"/>
@@ -5272,11 +5270,11 @@
       <c r="AA65" s="88"/>
       <c r="AB65" s="88"/>
     </row>
-    <row r="66" spans="1:28" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="134" t="s">
+    <row r="66" spans="1:28" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="134"/>
+      <c r="B66" s="131"/>
       <c r="C66" s="85">
         <f>135*4</f>
         <v>540</v>
@@ -5307,14 +5305,14 @@
       <c r="AA66" s="88"/>
       <c r="AB66" s="88"/>
     </row>
-    <row r="67" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="131" t="s">
+    <row r="67" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="131"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="85">
         <f>C66-J64</f>
-        <v>224.75</v>
+        <v>203.75</v>
       </c>
       <c r="D67" s="93"/>
       <c r="E67" s="93"/>
@@ -5342,7 +5340,7 @@
       <c r="AA67" s="88"/>
       <c r="AB67" s="88"/>
     </row>
-    <row r="68" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="94"/>
       <c r="B68" s="92"/>
       <c r="C68" s="95"/>
@@ -5355,12 +5353,12 @@
       <c r="J68" s="97"/>
       <c r="AA68" s="88"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D69" s="98"/>
       <c r="E69" s="98"/>
       <c r="F69" s="98"/>
     </row>
-    <row r="70" spans="1:28" s="100" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" s="100" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="99"/>
       <c r="C70" s="101"/>
       <c r="D70" s="101"/>
@@ -5375,7 +5373,7 @@
       <c r="Z70" s="104"/>
       <c r="AA70" s="105"/>
     </row>
-    <row r="71" spans="1:28" s="100" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" s="100" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="C71" s="101"/>
       <c r="D71" s="101"/>
       <c r="E71" s="101"/>
@@ -5389,7 +5387,7 @@
       <c r="Z71" s="104"/>
       <c r="AA71" s="105"/>
     </row>
-    <row r="72" spans="1:28" s="100" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" s="100" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="C72" s="101"/>
       <c r="D72" s="101"/>
       <c r="E72" s="101"/>
@@ -5405,6 +5403,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A61:B61"/>
@@ -5415,18 +5425,6 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="En cours">
@@ -5564,12 +5562,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375" style="1"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
         <v>6</v>
       </c>
@@ -5577,7 +5575,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5585,7 +5583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5605,9 +5603,9 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375" style="1"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1739,14 +1739,14 @@
   </sheetPr>
   <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="7.67"/>
@@ -1762,9 +1762,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="5" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="23" style="1" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="5" width="7.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="6" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="6" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="22.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="29" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="29" style="1" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4345,7 +4345,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>0</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="J52" s="51" t="n">
         <f aca="false">SUM(C52:F52)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" s="53"/>
       <c r="L52" s="53"/>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="D61" s="112" t="n">
         <f aca="false">SUM(D10:D60)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61" s="112" t="n">
         <f aca="false">SUM(E10:E60)</f>
@@ -4746,7 +4746,7 @@
       <c r="I61" s="114"/>
       <c r="J61" s="112" t="n">
         <f aca="false">SUM(C61:F61)</f>
-        <v>345.25</v>
+        <v>346.25</v>
       </c>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="D62" s="112" t="n">
         <f aca="false">135-D61</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E62" s="112" t="n">
         <f aca="false">135-E61</f>
@@ -4796,7 +4796,7 @@
       <c r="I62" s="112"/>
       <c r="J62" s="112" t="n">
         <f aca="false">SUM(C62:F62)</f>
-        <v>194.75</v>
+        <v>193.75</v>
       </c>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J64" s="112" t="n">
         <f aca="false">SUM(J10:J60)</f>
-        <v>345.25</v>
+        <v>346.25</v>
       </c>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
@@ -4962,7 +4962,7 @@
       <c r="B67" s="123"/>
       <c r="C67" s="112" t="n">
         <f aca="false">C66-J64</f>
-        <v>194.75</v>
+        <v>193.75</v>
       </c>
       <c r="D67" s="122"/>
       <c r="E67" s="122"/>
@@ -5216,9 +5216,9 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,9 +5267,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="10.65"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD90C25A-1828-6F48-8E00-10F91934DD82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D4E6D-847E-40D1-8719-CBA7FB201F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -335,6 +337,9 @@
   </si>
   <si>
     <t>Messageries entre utilisateur (Creation messageries front end/BD)</t>
+  </si>
+  <si>
+    <t>Régler un problème d'affichage (event-list)</t>
   </si>
 </sst>
 </file>
@@ -969,50 +974,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -1295,9 +1258,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1366,19 +1326,71 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="7" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="7" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
@@ -1877,7 +1889,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2176,3364 +2188,3597 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK72"/>
+  <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="66.1640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="16" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="15" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="18" customWidth="1"/>
-    <col min="11" max="13" width="8" style="15" customWidth="1"/>
-    <col min="14" max="14" width="8" style="19" customWidth="1"/>
-    <col min="15" max="16" width="7.6640625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="19" customWidth="1"/>
-    <col min="19" max="21" width="8.33203125" style="15" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" style="19" customWidth="1"/>
-    <col min="23" max="25" width="7.33203125" style="15" customWidth="1"/>
-    <col min="26" max="26" width="7.33203125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="20.6640625" style="20" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" style="15" customWidth="1"/>
-    <col min="29" max="1025" width="10.6640625" style="15"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
+    <col min="11" max="13" width="8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="5" customWidth="1"/>
+    <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="5" customWidth="1"/>
+    <col min="19" max="21" width="8.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="5" customWidth="1"/>
+    <col min="23" max="25" width="7.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="5" customWidth="1"/>
+    <col min="27" max="27" width="20.6640625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" style="1" customWidth="1"/>
+    <col min="29" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="22" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="13" t="s">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="N1" s="17"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="24"/>
-    </row>
-    <row r="2" spans="1:28" s="22" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="10"/>
+    </row>
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="N2" s="17"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="22" t="s">
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="24"/>
-    </row>
-    <row r="3" spans="1:28" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="N3" s="17"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="22" t="s">
+      <c r="R2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="24"/>
-    </row>
-    <row r="4" spans="1:28" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="N4" s="17" t="s">
+      <c r="R3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="N4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="22" t="s">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="24"/>
-    </row>
-    <row r="5" spans="1:28" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="N5" s="31">
+      <c r="R4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="N5" s="17">
         <v>0.25</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="31">
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="17">
         <v>0.5</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="17">
         <v>0.75</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="17">
         <v>1</v>
       </c>
-      <c r="AA5" s="24"/>
-    </row>
-    <row r="6" spans="1:28" s="22" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="12" t="s">
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="s">
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="24"/>
-    </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="4" t="s">
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="134"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB7" s="125" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="34" t="s">
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="35">
+      <c r="G8" s="131"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="21">
         <v>43838</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="22">
         <f t="shared" ref="L8:Z8" si="0">K8+7</f>
         <v>43845</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="22">
         <f t="shared" si="0"/>
         <v>43852</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="22">
         <f t="shared" si="0"/>
         <v>43859</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="22">
         <f t="shared" si="0"/>
         <v>43866</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="22">
         <f t="shared" si="0"/>
         <v>43873</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="22">
         <f t="shared" si="0"/>
         <v>43880</v>
       </c>
-      <c r="R8" s="36">
+      <c r="R8" s="22">
         <f t="shared" si="0"/>
         <v>43887</v>
       </c>
-      <c r="S8" s="36">
+      <c r="S8" s="22">
         <f t="shared" si="0"/>
         <v>43894</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="22">
         <f t="shared" si="0"/>
         <v>43901</v>
       </c>
-      <c r="U8" s="36">
+      <c r="U8" s="22">
         <f t="shared" si="0"/>
         <v>43908</v>
       </c>
-      <c r="V8" s="36">
+      <c r="V8" s="22">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
-      <c r="W8" s="36">
+      <c r="W8" s="22">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
-      <c r="X8" s="36">
+      <c r="X8" s="22">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="Y8" s="36">
+      <c r="Y8" s="22">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="Z8" s="36">
+      <c r="Z8" s="22">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="3"/>
-    </row>
-    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="125"/>
+    </row>
+    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="48"/>
-    </row>
-    <row r="10" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="49">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="34"/>
+    </row>
+    <row r="10" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
         <v>1</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="37">
         <v>1.5</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="37">
         <v>1.5</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="37">
         <v>1.5</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="37">
         <v>1.5</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="38">
         <f>VLOOKUP(H10,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="54">
+      <c r="H10" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="40">
         <v>6</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="40">
         <f t="shared" ref="J10:J47" si="1">SUM(C10:F10)</f>
         <v>6</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58">
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="44">
         <f t="shared" ref="AA10:AA45" si="2">I10-J10</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="59"/>
-    </row>
-    <row r="11" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
-        <v>2</v>
-      </c>
-      <c r="B11" s="50" t="s">
+      <c r="AB10" s="45"/>
+    </row>
+    <row r="11" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
+        <v>2</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="37">
         <v>1.5</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="37">
         <v>1.5</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="37">
         <v>1.5</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="37">
         <v>1.5</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="38">
         <f>VLOOKUP(H11,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="54">
+      <c r="H11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="40">
         <v>6</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="58">
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="62"/>
-    </row>
-    <row r="12" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
+      <c r="AB11" s="48"/>
+    </row>
+    <row r="12" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
         <v>3</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="37">
         <v>3</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="37">
         <v>3</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="37">
         <v>3</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="37">
         <v>3</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="38">
         <f>VLOOKUP(H12,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="54">
+      <c r="H12" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="40">
         <v>12</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="40">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="55"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58">
+      <c r="K12" s="42"/>
+      <c r="L12" s="41"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="63"/>
-    </row>
-    <row r="13" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="49">
+      <c r="AB12" s="49"/>
+    </row>
+    <row r="13" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="35">
         <v>4</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="51">
-        <v>2</v>
-      </c>
-      <c r="D13" s="51">
-        <v>2</v>
-      </c>
-      <c r="E13" s="51">
-        <v>2</v>
-      </c>
-      <c r="F13" s="51">
-        <v>2</v>
-      </c>
-      <c r="G13" s="52">
+      <c r="C13" s="37">
+        <v>2</v>
+      </c>
+      <c r="D13" s="37">
+        <v>2</v>
+      </c>
+      <c r="E13" s="37">
+        <v>2</v>
+      </c>
+      <c r="F13" s="37">
+        <v>2</v>
+      </c>
+      <c r="G13" s="38">
         <f>VLOOKUP(H13,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="54">
+      <c r="H13" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="40">
         <v>8</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58">
+      <c r="K13" s="42"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="62"/>
-    </row>
-    <row r="14" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="49">
+      <c r="AB13" s="48"/>
+    </row>
+    <row r="14" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="35">
         <v>5</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="37">
         <v>3</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="37">
         <v>3</v>
       </c>
-      <c r="E14" s="51">
-        <v>0</v>
-      </c>
-      <c r="F14" s="51">
+      <c r="E14" s="37">
+        <v>0</v>
+      </c>
+      <c r="F14" s="37">
         <v>3</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="38">
         <f>VLOOKUP(H14,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="54">
+      <c r="H14" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="40">
         <v>9</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="40">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58">
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="62"/>
-    </row>
-    <row r="15" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
+      <c r="AB14" s="48"/>
+    </row>
+    <row r="15" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="35">
         <v>6</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="51">
-        <v>2</v>
-      </c>
-      <c r="D15" s="51">
-        <v>2</v>
-      </c>
-      <c r="E15" s="51">
-        <v>0</v>
-      </c>
-      <c r="F15" s="51">
-        <v>0</v>
-      </c>
-      <c r="G15" s="52">
+      <c r="C15" s="37">
+        <v>2</v>
+      </c>
+      <c r="D15" s="37">
+        <v>2</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0</v>
+      </c>
+      <c r="G15" s="38">
         <f>VLOOKUP(H15,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="54">
+      <c r="H15" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="40">
         <v>4</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K15" s="56"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58">
+      <c r="K15" s="42"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="62"/>
-    </row>
-    <row r="16" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="49">
+      <c r="AB15" s="48"/>
+    </row>
+    <row r="16" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="35">
         <v>7</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="51">
-        <v>2</v>
-      </c>
-      <c r="D16" s="51">
-        <v>0</v>
-      </c>
-      <c r="E16" s="51">
-        <v>0</v>
-      </c>
-      <c r="F16" s="51">
-        <v>0</v>
-      </c>
-      <c r="G16" s="52">
+      <c r="C16" s="37">
+        <v>2</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0</v>
+      </c>
+      <c r="G16" s="38">
         <f>VLOOKUP(H16,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="54">
+      <c r="H16" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="40">
         <v>5</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58">
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="44">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AB16" s="62"/>
-    </row>
-    <row r="17" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="49">
+      <c r="AB16" s="48"/>
+    </row>
+    <row r="17" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="35">
         <v>8</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="51">
-        <v>2</v>
-      </c>
-      <c r="D17" s="51">
-        <v>2</v>
-      </c>
-      <c r="E17" s="51">
-        <v>0</v>
-      </c>
-      <c r="F17" s="51">
-        <v>0</v>
-      </c>
-      <c r="G17" s="52">
+      <c r="C17" s="37">
+        <v>2</v>
+      </c>
+      <c r="D17" s="37">
+        <v>2</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0</v>
+      </c>
+      <c r="G17" s="38">
         <f>VLOOKUP(H17,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="54">
+      <c r="H17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="40">
         <v>4</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="58">
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="62"/>
-    </row>
-    <row r="18" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="49">
+      <c r="AB17" s="48"/>
+    </row>
+    <row r="18" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="35">
         <v>9</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="51">
-        <v>2</v>
-      </c>
-      <c r="D18" s="51">
-        <v>0</v>
-      </c>
-      <c r="E18" s="51">
-        <v>0</v>
-      </c>
-      <c r="F18" s="51">
-        <v>2</v>
-      </c>
-      <c r="G18" s="52">
+      <c r="C18" s="37">
+        <v>2</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0</v>
+      </c>
+      <c r="F18" s="37">
+        <v>2</v>
+      </c>
+      <c r="G18" s="38">
         <f>VLOOKUP(H18,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="54">
+      <c r="H18" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="40">
         <v>5</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K18" s="56"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58">
+      <c r="K18" s="42"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB18" s="62"/>
-    </row>
-    <row r="19" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="49">
+      <c r="AB18" s="48"/>
+    </row>
+    <row r="19" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35">
         <v>10</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="37">
         <v>1.5</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="37">
         <v>6</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="37">
         <v>3</v>
       </c>
-      <c r="F19" s="51">
-        <v>0</v>
-      </c>
-      <c r="G19" s="52">
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="38">
         <f>VLOOKUP(H19,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="54">
+      <c r="H19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="40">
         <v>12</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="40">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58">
+      <c r="K19" s="42"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="44">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="AB19" s="62"/>
-    </row>
-    <row r="20" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="49">
+      <c r="AB19" s="48"/>
+    </row>
+    <row r="20" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="35">
         <v>11</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="51">
-        <v>0</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="C20" s="37">
+        <v>0</v>
+      </c>
+      <c r="D20" s="37">
         <v>3</v>
       </c>
-      <c r="E20" s="51">
-        <v>0</v>
-      </c>
-      <c r="F20" s="51">
-        <v>0</v>
-      </c>
-      <c r="G20" s="52">
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="38">
         <f>VLOOKUP(H20,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="54">
+      <c r="H20" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="40">
         <v>10</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58">
+      <c r="K20" s="42"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="44">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB20" s="62"/>
-    </row>
-    <row r="21" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="49">
+      <c r="AB20" s="48"/>
+    </row>
+    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35">
         <v>12</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="37">
         <v>3</v>
       </c>
-      <c r="D21" s="51">
-        <v>0</v>
-      </c>
-      <c r="E21" s="51">
-        <v>0</v>
-      </c>
-      <c r="F21" s="51">
+      <c r="D21" s="37">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37">
         <v>3</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="38">
         <f>VLOOKUP(H21,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="54">
+      <c r="H21" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="40">
         <v>6</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58">
+      <c r="K21" s="42"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="62"/>
-    </row>
-    <row r="22" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
+      <c r="AB21" s="48"/>
+    </row>
+    <row r="22" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="35">
         <v>13</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="37">
         <v>3</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="37">
         <v>3</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="37">
         <v>3</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="37">
         <v>3</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="38">
         <f>VLOOKUP(H22,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="54">
+      <c r="H22" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="40">
         <v>30</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="40">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58">
+      <c r="K22" s="65"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="44">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AB22" s="62"/>
-    </row>
-    <row r="23" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="49">
+      <c r="AB22" s="48"/>
+    </row>
+    <row r="23" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35">
         <v>14</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51">
-        <v>0</v>
-      </c>
-      <c r="D23" s="51">
+      <c r="C23" s="37">
+        <v>0</v>
+      </c>
+      <c r="D23" s="37">
         <v>10</v>
       </c>
-      <c r="E23" s="51">
-        <v>0</v>
-      </c>
-      <c r="F23" s="51">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52">
+      <c r="E23" s="37">
+        <v>0</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0</v>
+      </c>
+      <c r="G23" s="38">
         <f>VLOOKUP(H23,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="54">
+      <c r="H23" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="40">
         <v>20</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58">
+      <c r="K23" s="65"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="44">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB23" s="62"/>
-    </row>
-    <row r="24" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="49">
+      <c r="AB23" s="48"/>
+    </row>
+    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35">
         <v>15</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="37">
         <v>1</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="37">
         <v>10</v>
       </c>
-      <c r="E24" s="51">
-        <v>2</v>
-      </c>
-      <c r="F24" s="51">
-        <v>0</v>
-      </c>
-      <c r="G24" s="52">
+      <c r="E24" s="37">
+        <v>2</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0</v>
+      </c>
+      <c r="G24" s="38">
         <f>VLOOKUP(H24,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="54">
+      <c r="H24" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="40">
         <v>20</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="40">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58">
+      <c r="K24" s="65"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="44">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB24" s="62"/>
-    </row>
-    <row r="25" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="49">
+      <c r="AB24" s="48"/>
+    </row>
+    <row r="25" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35">
         <v>16</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="37">
         <v>10</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="37">
         <v>18</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="37">
         <v>3.5</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="37">
         <v>15</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="38">
         <f>VLOOKUP(H25,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="40">
         <v>30</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="40">
         <f t="shared" si="1"/>
         <v>46.5</v>
       </c>
-      <c r="K25" s="79"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58">
+      <c r="K25" s="65"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44">
         <f t="shared" si="2"/>
         <v>-16.5</v>
       </c>
-      <c r="AB25" s="62"/>
-    </row>
-    <row r="26" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="49">
+      <c r="AB25" s="48"/>
+    </row>
+    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35">
         <v>17</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="84">
-        <v>2</v>
-      </c>
-      <c r="D26" s="84">
-        <v>2</v>
-      </c>
-      <c r="E26" s="84">
-        <v>2</v>
-      </c>
-      <c r="F26" s="84">
-        <v>2</v>
-      </c>
-      <c r="G26" s="85">
+      <c r="C26" s="70">
+        <v>2</v>
+      </c>
+      <c r="D26" s="70">
+        <v>2</v>
+      </c>
+      <c r="E26" s="70">
+        <v>2</v>
+      </c>
+      <c r="F26" s="70">
+        <v>2</v>
+      </c>
+      <c r="G26" s="71">
         <f>VLOOKUP(H26,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="86">
+      <c r="H26" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="72">
         <v>8</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="58">
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="90"/>
-    </row>
-    <row r="27" spans="1:28" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
+      <c r="AB26" s="76"/>
+    </row>
+    <row r="27" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="35">
         <v>18</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="37">
         <v>3</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="37">
         <v>1</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="37">
         <v>1</v>
       </c>
-      <c r="F27" s="51">
-        <v>0</v>
-      </c>
-      <c r="G27" s="85">
+      <c r="F27" s="37">
+        <v>0</v>
+      </c>
+      <c r="G27" s="71">
         <f>VLOOKUP(H27,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="92">
+      <c r="H27" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="78">
         <v>21</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58">
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="44">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="AB27" s="62"/>
-    </row>
-    <row r="28" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="49">
+      <c r="AB27" s="48"/>
+    </row>
+    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="35">
         <v>19</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="95">
-        <v>2</v>
-      </c>
-      <c r="D28" s="95">
-        <v>0</v>
-      </c>
-      <c r="E28" s="95">
-        <v>0</v>
-      </c>
-      <c r="F28" s="95">
+      <c r="C28" s="81">
+        <v>2</v>
+      </c>
+      <c r="D28" s="81">
+        <v>0</v>
+      </c>
+      <c r="E28" s="81">
+        <v>0</v>
+      </c>
+      <c r="F28" s="81">
         <v>4</v>
       </c>
-      <c r="G28" s="85">
+      <c r="G28" s="71">
         <f>VLOOKUP(H28,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="54">
+      <c r="H28" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="40">
         <v>10</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="58">
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="44">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AB28" s="62"/>
-    </row>
-    <row r="29" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="49">
+      <c r="AB28" s="48"/>
+    </row>
+    <row r="29" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="35">
         <v>20</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="37">
         <v>6</v>
       </c>
-      <c r="D29" s="51">
-        <v>0</v>
-      </c>
-      <c r="E29" s="51">
-        <v>0</v>
-      </c>
-      <c r="F29" s="51">
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37">
         <v>10</v>
       </c>
-      <c r="G29" s="85">
+      <c r="G29" s="71">
         <f>VLOOKUP(H29,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="54">
+      <c r="H29" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="40">
         <v>5</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="40">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="58">
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="44">
         <f t="shared" si="2"/>
         <v>-11</v>
       </c>
-      <c r="AB29" s="62"/>
-    </row>
-    <row r="30" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="49">
+      <c r="AB29" s="48"/>
+    </row>
+    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="35">
         <v>21</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="84">
-        <v>0</v>
-      </c>
-      <c r="D30" s="84">
+      <c r="C30" s="70">
+        <v>0</v>
+      </c>
+      <c r="D30" s="70">
         <v>9</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="70">
         <v>18.5</v>
       </c>
-      <c r="F30" s="84">
-        <v>0</v>
-      </c>
-      <c r="G30" s="85">
+      <c r="F30" s="70">
+        <v>0</v>
+      </c>
+      <c r="G30" s="71">
         <f>VLOOKUP(H30,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="86">
+      <c r="H30" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="72">
         <v>25</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="40">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="58">
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="44">
         <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
-      <c r="AB30" s="62"/>
-    </row>
-    <row r="31" spans="1:28" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="49">
+      <c r="AB30" s="48"/>
+    </row>
+    <row r="31" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35">
         <v>22</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="37">
         <v>5</v>
       </c>
-      <c r="D31" s="51">
-        <v>0</v>
-      </c>
-      <c r="E31" s="51">
-        <v>0</v>
-      </c>
-      <c r="F31" s="51">
-        <v>0</v>
-      </c>
-      <c r="G31" s="85">
+      <c r="D31" s="37">
+        <v>0</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0</v>
+      </c>
+      <c r="G31" s="71">
         <f>VLOOKUP(H31,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="92">
+      <c r="H31" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="78">
         <v>12</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="58">
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="44">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB31" s="62"/>
-    </row>
-    <row r="32" spans="1:28" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="49">
+      <c r="AB31" s="48"/>
+    </row>
+    <row r="32" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="35">
         <v>23</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="37">
         <v>3</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="37">
         <v>3</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="37">
         <v>3</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="37">
         <v>3</v>
       </c>
-      <c r="G32" s="85">
+      <c r="G32" s="71">
         <f>VLOOKUP(H32,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="92">
+      <c r="H32" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="78">
         <v>12</v>
       </c>
-      <c r="J32" s="92">
+      <c r="J32" s="78">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="58">
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="62"/>
-    </row>
-    <row r="33" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="49">
+      <c r="AB32" s="48"/>
+    </row>
+    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="35">
         <v>24</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="95">
-        <v>0</v>
-      </c>
-      <c r="D33" s="95">
-        <v>0</v>
-      </c>
-      <c r="E33" s="95">
+      <c r="C33" s="81">
+        <v>0</v>
+      </c>
+      <c r="D33" s="81">
+        <v>0</v>
+      </c>
+      <c r="E33" s="81">
         <v>10</v>
       </c>
-      <c r="F33" s="95">
-        <v>0</v>
-      </c>
-      <c r="G33" s="85">
+      <c r="F33" s="81">
+        <v>0</v>
+      </c>
+      <c r="G33" s="71">
         <f>VLOOKUP(H33,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="54">
+      <c r="H33" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="40">
         <v>10</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="58">
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="62"/>
-    </row>
-    <row r="34" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="49">
+      <c r="AB33" s="48"/>
+    </row>
+    <row r="34" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="35">
         <v>25</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="51">
-        <v>0</v>
-      </c>
-      <c r="D34" s="51">
-        <v>0</v>
-      </c>
-      <c r="E34" s="51">
+      <c r="C34" s="37">
+        <v>0</v>
+      </c>
+      <c r="D34" s="37">
+        <v>0</v>
+      </c>
+      <c r="E34" s="37">
         <v>0.5</v>
       </c>
-      <c r="F34" s="51">
-        <v>0</v>
-      </c>
-      <c r="G34" s="85">
+      <c r="F34" s="37">
+        <v>0</v>
+      </c>
+      <c r="G34" s="71">
         <f>VLOOKUP(H34,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" s="54">
-        <v>0</v>
-      </c>
-      <c r="J34" s="54">
+      <c r="H34" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="40">
+        <v>0</v>
+      </c>
+      <c r="J34" s="40">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="58">
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="44">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="AB34" s="62"/>
-    </row>
-    <row r="35" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="49">
+      <c r="AB34" s="48"/>
+    </row>
+    <row r="35" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="35">
         <v>27</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="51">
-        <v>0</v>
-      </c>
-      <c r="D35" s="51">
-        <v>0</v>
-      </c>
-      <c r="E35" s="51">
-        <v>0</v>
-      </c>
-      <c r="F35" s="51">
+      <c r="C35" s="37">
+        <v>0</v>
+      </c>
+      <c r="D35" s="37">
+        <v>0</v>
+      </c>
+      <c r="E35" s="37">
+        <v>0</v>
+      </c>
+      <c r="F35" s="37">
         <v>3</v>
       </c>
-      <c r="G35" s="85">
+      <c r="G35" s="71">
         <f>VLOOKUP(H35,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54">
+      <c r="H35" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="58">
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="44">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="AB35" s="62"/>
-    </row>
-    <row r="36" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="49">
+      <c r="AB35" s="48"/>
+    </row>
+    <row r="36" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="35">
         <v>28</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="51">
-        <v>2</v>
-      </c>
-      <c r="D36" s="51">
-        <v>0</v>
-      </c>
-      <c r="E36" s="51">
-        <v>0</v>
-      </c>
-      <c r="F36" s="51">
+      <c r="C36" s="37">
+        <v>2</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0</v>
+      </c>
+      <c r="E36" s="37">
+        <v>0</v>
+      </c>
+      <c r="F36" s="37">
         <v>8</v>
       </c>
-      <c r="G36" s="85">
+      <c r="G36" s="71">
         <f>VLOOKUP(H36,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54">
+      <c r="H36" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="87"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="58">
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="44">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="AB36" s="62"/>
-    </row>
-    <row r="37" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="49">
+      <c r="AB36" s="48"/>
+    </row>
+    <row r="37" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="35">
         <v>29</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="51">
-        <v>0</v>
-      </c>
-      <c r="D37" s="51">
-        <v>0</v>
-      </c>
-      <c r="E37" s="51">
-        <v>0</v>
-      </c>
-      <c r="F37" s="51">
+      <c r="C37" s="37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="37">
         <v>4</v>
       </c>
-      <c r="G37" s="85">
+      <c r="G37" s="71">
         <f>VLOOKUP(H37,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54">
+      <c r="H37" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="58">
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="44">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="AB37" s="62"/>
-    </row>
-    <row r="38" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="49">
+      <c r="AB37" s="48"/>
+    </row>
+    <row r="38" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="35">
         <v>30</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="37">
         <v>5</v>
       </c>
-      <c r="D38" s="51">
-        <v>0</v>
-      </c>
-      <c r="E38" s="51">
-        <v>0</v>
-      </c>
-      <c r="F38" s="51">
-        <v>0</v>
-      </c>
-      <c r="G38" s="85">
+      <c r="D38" s="37">
+        <v>0</v>
+      </c>
+      <c r="E38" s="37">
+        <v>0</v>
+      </c>
+      <c r="F38" s="37">
+        <v>0</v>
+      </c>
+      <c r="G38" s="71">
         <f>VLOOKUP(H38,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54">
+      <c r="H38" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="87"/>
-      <c r="X38" s="87"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="58">
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="44">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="AB38" s="62"/>
-    </row>
-    <row r="39" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="49">
+      <c r="AB38" s="48"/>
+    </row>
+    <row r="39" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="35">
         <v>31</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="51">
-        <v>0</v>
-      </c>
-      <c r="D39" s="51">
-        <v>0</v>
-      </c>
-      <c r="E39" s="51">
-        <v>0</v>
-      </c>
-      <c r="F39" s="51">
+      <c r="C39" s="37">
+        <v>0</v>
+      </c>
+      <c r="D39" s="37">
+        <v>0</v>
+      </c>
+      <c r="E39" s="37">
+        <v>0</v>
+      </c>
+      <c r="F39" s="37">
         <v>4</v>
       </c>
-      <c r="G39" s="85">
+      <c r="G39" s="71">
         <f>VLOOKUP(H39,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54">
+      <c r="H39" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="58">
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="44">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="AB39" s="62"/>
-    </row>
-    <row r="40" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="49">
+      <c r="AB39" s="48"/>
+    </row>
+    <row r="40" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="35">
         <v>32</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="51">
-        <v>0</v>
-      </c>
-      <c r="D40" s="51">
-        <v>0</v>
-      </c>
-      <c r="E40" s="51">
-        <v>0</v>
-      </c>
-      <c r="F40" s="51">
+      <c r="C40" s="37">
+        <v>0</v>
+      </c>
+      <c r="D40" s="37">
+        <v>0</v>
+      </c>
+      <c r="E40" s="37">
+        <v>0</v>
+      </c>
+      <c r="F40" s="37">
         <v>6</v>
       </c>
-      <c r="G40" s="85">
+      <c r="G40" s="71">
         <f>VLOOKUP(H40,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54">
+      <c r="H40" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="87"/>
-      <c r="X40" s="87"/>
-      <c r="Y40" s="87"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="58">
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="44">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="AB40" s="62"/>
-    </row>
-    <row r="41" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="49">
+      <c r="AB40" s="48"/>
+    </row>
+    <row r="41" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="35">
         <v>33</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="51">
-        <v>2</v>
-      </c>
-      <c r="D41" s="51">
+      <c r="C41" s="37">
+        <v>2</v>
+      </c>
+      <c r="D41" s="37">
         <v>1</v>
       </c>
-      <c r="E41" s="51">
-        <v>2</v>
-      </c>
-      <c r="F41" s="51">
-        <v>2</v>
-      </c>
-      <c r="G41" s="85">
+      <c r="E41" s="37">
+        <v>2</v>
+      </c>
+      <c r="F41" s="37">
+        <v>2</v>
+      </c>
+      <c r="G41" s="71">
         <f>VLOOKUP(H41,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" s="54">
+      <c r="H41" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="40">
         <v>8</v>
       </c>
-      <c r="J41" s="54">
+      <c r="J41" s="40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="87"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="87"/>
-      <c r="X41" s="87"/>
-      <c r="Y41" s="87"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="58">
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB41" s="62"/>
-    </row>
-    <row r="42" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="49">
+      <c r="AB41" s="48"/>
+    </row>
+    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35">
         <v>34</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="51">
-        <v>0</v>
-      </c>
-      <c r="D42" s="51">
-        <v>0</v>
-      </c>
-      <c r="E42" s="51">
-        <v>0</v>
-      </c>
-      <c r="F42" s="51">
-        <v>0</v>
-      </c>
-      <c r="G42" s="85">
+      <c r="C42" s="37">
+        <v>0</v>
+      </c>
+      <c r="D42" s="37">
+        <v>0</v>
+      </c>
+      <c r="E42" s="37">
+        <v>0</v>
+      </c>
+      <c r="F42" s="37">
+        <v>0</v>
+      </c>
+      <c r="G42" s="71">
         <f>VLOOKUP(H42,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54">
+      <c r="H42" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="87"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="58">
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="62"/>
-    </row>
-    <row r="43" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="49">
+      <c r="AB42" s="48"/>
+    </row>
+    <row r="43" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="35">
         <v>35</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="51">
-        <v>0</v>
-      </c>
-      <c r="D43" s="51">
+      <c r="C43" s="37">
+        <v>0</v>
+      </c>
+      <c r="D43" s="37">
         <v>1</v>
       </c>
-      <c r="E43" s="51">
-        <v>0</v>
-      </c>
-      <c r="F43" s="51">
-        <v>0</v>
-      </c>
-      <c r="G43" s="85">
+      <c r="E43" s="37">
+        <v>0</v>
+      </c>
+      <c r="F43" s="37">
+        <v>0</v>
+      </c>
+      <c r="G43" s="71">
         <f>VLOOKUP(H43,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="54">
-        <v>2</v>
-      </c>
-      <c r="J43" s="54">
+      <c r="H43" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="40">
+        <v>2</v>
+      </c>
+      <c r="J43" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="58">
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB43" s="62"/>
-    </row>
-    <row r="44" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="49">
+      <c r="AB43" s="48"/>
+    </row>
+    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="35">
         <v>36</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="51">
-        <v>0</v>
-      </c>
-      <c r="D44" s="51">
-        <v>0</v>
-      </c>
-      <c r="E44" s="51">
+      <c r="C44" s="37">
+        <v>0</v>
+      </c>
+      <c r="D44" s="37">
+        <v>0</v>
+      </c>
+      <c r="E44" s="37">
         <v>4</v>
       </c>
-      <c r="F44" s="51">
-        <v>0</v>
-      </c>
-      <c r="G44" s="85">
+      <c r="F44" s="37">
+        <v>0</v>
+      </c>
+      <c r="G44" s="71">
         <f>VLOOKUP(H44,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="54">
+      <c r="H44" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="40">
         <v>5</v>
       </c>
-      <c r="J44" s="54">
+      <c r="J44" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="87"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="58">
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB44" s="62"/>
-    </row>
-    <row r="45" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="49">
+      <c r="AB44" s="48"/>
+    </row>
+    <row r="45" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="35">
         <v>37</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="37">
         <v>7</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="37">
         <v>1</v>
       </c>
-      <c r="E45" s="51">
-        <v>0</v>
-      </c>
-      <c r="F45" s="51">
-        <v>0</v>
-      </c>
-      <c r="G45" s="85">
+      <c r="E45" s="37">
+        <v>0</v>
+      </c>
+      <c r="F45" s="37">
+        <v>0</v>
+      </c>
+      <c r="G45" s="71">
         <f>VLOOKUP(H45,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54">
+      <c r="H45" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="87"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="58">
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="44">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="AB45" s="62"/>
-    </row>
-    <row r="46" spans="1:28" s="100" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="49">
+      <c r="AB45" s="48"/>
+    </row>
+    <row r="46" spans="1:28" s="86" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="35">
         <v>39</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="51">
-        <v>0</v>
-      </c>
-      <c r="D46" s="51">
-        <v>0</v>
-      </c>
-      <c r="E46" s="51">
+      <c r="C46" s="37">
+        <v>0</v>
+      </c>
+      <c r="D46" s="37">
+        <v>0</v>
+      </c>
+      <c r="E46" s="37">
         <v>2.5</v>
       </c>
-      <c r="F46" s="51">
-        <v>0</v>
-      </c>
-      <c r="G46" s="85">
+      <c r="F46" s="37">
+        <v>0</v>
+      </c>
+      <c r="G46" s="71">
         <f>VLOOKUP(H46,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="54">
+      <c r="H46" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="40">
         <v>8</v>
       </c>
-      <c r="J46" s="54">
+      <c r="J46" s="40">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="99"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="62"/>
-    </row>
-    <row r="47" spans="1:28" s="100" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="49">
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="48"/>
+    </row>
+    <row r="47" spans="1:28" s="86" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="35">
         <v>40</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="51">
-        <v>2</v>
-      </c>
-      <c r="D47" s="51">
-        <v>0</v>
-      </c>
-      <c r="E47" s="51">
-        <v>0</v>
-      </c>
-      <c r="F47" s="51">
-        <v>0</v>
-      </c>
-      <c r="G47" s="85">
+      <c r="C47" s="37">
+        <v>2</v>
+      </c>
+      <c r="D47" s="37">
+        <v>0</v>
+      </c>
+      <c r="E47" s="37">
+        <v>0</v>
+      </c>
+      <c r="F47" s="37">
+        <v>0</v>
+      </c>
+      <c r="G47" s="71">
         <f>VLOOKUP(H47,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I47" s="54">
+      <c r="H47" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="40">
         <v>8</v>
       </c>
-      <c r="J47" s="54">
+      <c r="J47" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="57"/>
-      <c r="AA47" s="58"/>
-      <c r="AB47" s="62"/>
-    </row>
-    <row r="48" spans="1:28" s="60" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="101"/>
-      <c r="B48" s="38" t="s">
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="85"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="48"/>
+    </row>
+    <row r="48" spans="1:28" s="46" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="87"/>
+      <c r="B48" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="103"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="89"/>
-      <c r="X48" s="89"/>
-      <c r="Y48" s="89"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="104"/>
-      <c r="AB48" s="105"/>
-    </row>
-    <row r="49" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="75"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="75"/>
+      <c r="X48" s="75"/>
+      <c r="Y48" s="75"/>
+      <c r="Z48" s="74"/>
+      <c r="AA48" s="90"/>
+      <c r="AB48" s="91"/>
+    </row>
+    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="35">
         <v>1</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="51">
-        <v>0</v>
-      </c>
-      <c r="D49" s="51">
-        <v>0</v>
-      </c>
-      <c r="E49" s="51">
+      <c r="C49" s="37">
+        <v>0</v>
+      </c>
+      <c r="D49" s="37">
+        <v>0</v>
+      </c>
+      <c r="E49" s="37">
         <v>8.75</v>
       </c>
-      <c r="F49" s="51">
-        <v>0</v>
-      </c>
-      <c r="G49" s="85">
+      <c r="F49" s="37">
+        <v>0</v>
+      </c>
+      <c r="G49" s="71">
         <f>VLOOKUP(H49,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="54">
+      <c r="I49" s="40">
         <v>7</v>
       </c>
-      <c r="J49" s="54">
-        <f t="shared" ref="J49:J62" si="3">SUM(C49:F49)</f>
+      <c r="J49" s="40">
+        <f t="shared" ref="J49:J68" si="3">SUM(C49:F49)</f>
         <v>8.75</v>
       </c>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="106"/>
-      <c r="V49" s="107"/>
-      <c r="W49" s="87"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="87"/>
-      <c r="Z49" s="66"/>
-      <c r="AA49" s="58">
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="92"/>
+      <c r="V49" s="139"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="137"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="44">
         <f>I49-J49</f>
         <v>-1.75</v>
       </c>
-      <c r="AB49" s="62"/>
-    </row>
-    <row r="50" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="49">
-        <v>2</v>
-      </c>
-      <c r="B50" s="83" t="s">
+      <c r="AB49" s="48"/>
+    </row>
+    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="35">
+        <v>2</v>
+      </c>
+      <c r="B50" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="51">
-        <v>0</v>
-      </c>
-      <c r="D50" s="51">
-        <v>0</v>
-      </c>
-      <c r="E50" s="51">
-        <v>0</v>
-      </c>
-      <c r="F50" s="51">
+      <c r="C50" s="37">
+        <v>0</v>
+      </c>
+      <c r="D50" s="37">
+        <v>0</v>
+      </c>
+      <c r="E50" s="37">
+        <v>0</v>
+      </c>
+      <c r="F50" s="37">
         <v>5</v>
       </c>
-      <c r="G50" s="85">
+      <c r="G50" s="71">
         <f>VLOOKUP(H50,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54">
+      <c r="H50" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="106"/>
-      <c r="V50" s="107"/>
-      <c r="W50" s="87"/>
-      <c r="X50" s="87"/>
-      <c r="Y50" s="87"/>
-      <c r="Z50" s="66"/>
-      <c r="AA50" s="58">
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="92"/>
+      <c r="V50" s="139"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="138"/>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="44">
         <f>I50-J50</f>
         <v>-5</v>
       </c>
-      <c r="AB50" s="62"/>
-    </row>
-    <row r="51" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="49">
+      <c r="AB50" s="48"/>
+    </row>
+    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
         <v>3</v>
       </c>
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="37">
         <v>7</v>
       </c>
-      <c r="D51" s="51">
-        <v>0</v>
-      </c>
-      <c r="E51" s="51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="85">
+      <c r="D51" s="37">
+        <v>0</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0</v>
+      </c>
+      <c r="G51" s="71">
         <f>VLOOKUP(H51,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54">
+      <c r="H51" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="108"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="106"/>
-      <c r="V51" s="107"/>
-      <c r="W51" s="87"/>
-      <c r="X51" s="87"/>
-      <c r="Y51" s="87"/>
-      <c r="Z51" s="66"/>
-      <c r="AA51" s="109"/>
-      <c r="AB51" s="90"/>
-    </row>
-    <row r="52" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="49">
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="92"/>
+      <c r="V51" s="139"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="138"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="94"/>
+      <c r="AB51" s="76"/>
+    </row>
+    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="35">
         <v>4</v>
       </c>
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="37">
         <v>3</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="37">
         <v>1</v>
       </c>
-      <c r="E52" s="51">
-        <v>0</v>
-      </c>
-      <c r="F52" s="51">
-        <v>0</v>
-      </c>
-      <c r="G52" s="85">
+      <c r="E52" s="37">
+        <v>0</v>
+      </c>
+      <c r="F52" s="37">
+        <v>0</v>
+      </c>
+      <c r="G52" s="71">
         <f>VLOOKUP(H52,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H52" s="53" t="s">
+      <c r="H52" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="54">
+      <c r="I52" s="40">
         <v>8</v>
       </c>
-      <c r="J52" s="54">
+      <c r="J52" s="40">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="87"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="106"/>
-      <c r="V52" s="107"/>
-      <c r="W52" s="87"/>
-      <c r="X52" s="87"/>
-      <c r="Y52" s="87"/>
-      <c r="Z52" s="66"/>
-      <c r="AA52" s="109"/>
-      <c r="AB52" s="90"/>
-    </row>
-    <row r="53" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="49">
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="92"/>
+      <c r="V52" s="139"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="138"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="94"/>
+      <c r="AB52" s="76"/>
+    </row>
+    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="35">
         <v>5</v>
       </c>
-      <c r="B53" s="83" t="s">
+      <c r="B53" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="37">
         <v>8</v>
       </c>
-      <c r="D53" s="51">
-        <v>0</v>
-      </c>
-      <c r="E53" s="51">
-        <v>0</v>
-      </c>
-      <c r="F53" s="51">
-        <v>0</v>
-      </c>
-      <c r="G53" s="85">
+      <c r="D53" s="37">
+        <v>0</v>
+      </c>
+      <c r="E53" s="37">
+        <v>0</v>
+      </c>
+      <c r="F53" s="37">
+        <v>0</v>
+      </c>
+      <c r="G53" s="71">
         <f>VLOOKUP(H53,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H53" s="53" t="s">
+      <c r="H53" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="54">
+      <c r="I53" s="40">
         <v>16</v>
       </c>
-      <c r="J53" s="54">
+      <c r="J53" s="40">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="87"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="106"/>
-      <c r="V53" s="107"/>
-      <c r="W53" s="87"/>
-      <c r="X53" s="87"/>
-      <c r="Y53" s="87"/>
-      <c r="Z53" s="66"/>
-      <c r="AA53" s="109"/>
-      <c r="AB53" s="90"/>
-    </row>
-    <row r="54" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="49">
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="92"/>
+      <c r="V53" s="139"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="138"/>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="94"/>
+      <c r="AB53" s="76"/>
+    </row>
+    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
         <v>6</v>
       </c>
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="51">
-        <v>0</v>
-      </c>
-      <c r="D54" s="51">
-        <v>0</v>
-      </c>
-      <c r="E54" s="51">
-        <v>0</v>
-      </c>
-      <c r="F54" s="51">
+      <c r="C54" s="37">
+        <v>0</v>
+      </c>
+      <c r="D54" s="37">
+        <v>0</v>
+      </c>
+      <c r="E54" s="37">
+        <v>0</v>
+      </c>
+      <c r="F54" s="37">
         <v>10</v>
       </c>
-      <c r="G54" s="85">
+      <c r="G54" s="71">
         <f>VLOOKUP(H54,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H54" s="53" t="s">
+      <c r="H54" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="54">
+      <c r="I54" s="40">
         <v>8</v>
       </c>
-      <c r="J54" s="54">
+      <c r="J54" s="40">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="87"/>
-      <c r="P54" s="87"/>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="108"/>
-      <c r="S54" s="87"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="106"/>
-      <c r="V54" s="107"/>
-      <c r="W54" s="87"/>
-      <c r="X54" s="87"/>
-      <c r="Y54" s="87"/>
-      <c r="Z54" s="66"/>
-      <c r="AA54" s="109"/>
-      <c r="AB54" s="90"/>
-    </row>
-    <row r="55" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="49">
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="93"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="92"/>
+      <c r="V54" s="139"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="138"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="94"/>
+      <c r="AB54" s="76"/>
+    </row>
+    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
         <v>7</v>
       </c>
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="51">
-        <v>0</v>
-      </c>
-      <c r="D55" s="51">
-        <v>0</v>
-      </c>
-      <c r="E55" s="51">
-        <v>0</v>
-      </c>
-      <c r="F55" s="51">
-        <v>0</v>
-      </c>
-      <c r="G55" s="85">
+      <c r="C55" s="37">
+        <v>0</v>
+      </c>
+      <c r="D55" s="37">
+        <v>0</v>
+      </c>
+      <c r="E55" s="37">
+        <v>0</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0</v>
+      </c>
+      <c r="G55" s="71">
         <f>VLOOKUP(H55,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="H55" s="53" t="s">
+      <c r="H55" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="54">
+      <c r="I55" s="40">
         <v>8</v>
       </c>
-      <c r="J55" s="54">
+      <c r="J55" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="108"/>
-      <c r="S55" s="87"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="106"/>
-      <c r="V55" s="107"/>
-      <c r="W55" s="87"/>
-      <c r="X55" s="87"/>
-      <c r="Y55" s="87"/>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="109"/>
-      <c r="AB55" s="90"/>
-    </row>
-    <row r="56" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="49">
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="93"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="92"/>
+      <c r="V55" s="139"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="138"/>
+      <c r="Y55" s="73"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="94"/>
+      <c r="AB55" s="76"/>
+    </row>
+    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="35">
         <v>8</v>
       </c>
-      <c r="B56" s="83" t="s">
+      <c r="B56" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="37">
         <v>5</v>
       </c>
-      <c r="D56" s="51">
-        <v>0</v>
-      </c>
-      <c r="E56" s="51">
-        <v>0</v>
-      </c>
-      <c r="F56" s="51">
-        <v>0</v>
-      </c>
-      <c r="G56" s="85">
+      <c r="D56" s="37">
+        <v>0</v>
+      </c>
+      <c r="E56" s="37">
+        <v>0</v>
+      </c>
+      <c r="F56" s="37">
+        <v>0</v>
+      </c>
+      <c r="G56" s="71">
         <f>VLOOKUP(H56,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H56" s="53" t="s">
+      <c r="H56" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="54">
+      <c r="I56" s="40">
         <v>8</v>
       </c>
-      <c r="J56" s="54">
-        <f t="shared" ref="J56:J57" si="4">SUM(C56:F56)</f>
+      <c r="J56" s="40">
+        <f t="shared" ref="J56:J58" si="4">SUM(C56:F56)</f>
         <v>5</v>
       </c>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="66"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="87"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="87"/>
-      <c r="T56" s="87"/>
-      <c r="U56" s="87"/>
-      <c r="V56" s="66"/>
-      <c r="W56" s="87"/>
-      <c r="X56" s="87"/>
-      <c r="Y56" s="87"/>
-      <c r="Z56" s="66"/>
-      <c r="AA56" s="109"/>
-      <c r="AB56" s="90"/>
-    </row>
-    <row r="57" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="49">
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="93"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="73"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="94"/>
+      <c r="AB56" s="76"/>
+    </row>
+    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
         <v>9</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="51">
-        <v>0</v>
-      </c>
-      <c r="D57" s="51">
-        <v>0</v>
-      </c>
-      <c r="E57" s="51">
-        <v>0</v>
-      </c>
-      <c r="F57" s="51">
+      <c r="C57" s="37">
+        <v>0</v>
+      </c>
+      <c r="D57" s="37">
+        <v>0</v>
+      </c>
+      <c r="E57" s="37">
+        <v>0</v>
+      </c>
+      <c r="F57" s="37">
         <v>8</v>
       </c>
-      <c r="G57" s="85">
+      <c r="G57" s="71">
         <f>VLOOKUP(H57,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I57" s="54">
+      <c r="H57" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="40">
         <v>8</v>
       </c>
-      <c r="J57" s="54">
+      <c r="J57" s="40">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="66"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="108"/>
-      <c r="S57" s="87"/>
-      <c r="T57" s="87"/>
-      <c r="U57" s="87"/>
-      <c r="V57" s="66"/>
-      <c r="W57" s="87"/>
-      <c r="X57" s="87"/>
-      <c r="Y57" s="87"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="109"/>
-      <c r="AB57" s="90"/>
-    </row>
-    <row r="58" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="49">
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="93"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="73"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="73"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="94"/>
+      <c r="AB57" s="76"/>
+    </row>
+    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>10</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54">
+      <c r="B58" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="37">
+        <v>0</v>
+      </c>
+      <c r="D58" s="37">
+        <v>0</v>
+      </c>
+      <c r="E58" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="F58" s="37">
+        <v>0</v>
+      </c>
+      <c r="G58" s="71">
+        <f>VLOOKUP(H58,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="J58" s="40">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="93"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="140"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="73"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="94"/>
+      <c r="AB58" s="76"/>
+    </row>
+    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="35">
+        <v>11</v>
+      </c>
+      <c r="B59" s="69"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="71" t="e">
+        <f>VLOOKUP(H59,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="93"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="73"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="94"/>
+      <c r="AB59" s="76"/>
+    </row>
+    <row r="60" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="35">
+        <v>12</v>
+      </c>
+      <c r="B60" s="69"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="71" t="e">
+        <f>VLOOKUP(H60,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="93"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="73"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="73"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="94"/>
+      <c r="AB60" s="76"/>
+    </row>
+    <row r="61" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="35">
+        <v>13</v>
+      </c>
+      <c r="B61" s="69"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="71" t="e">
+        <f>VLOOKUP(H61,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="93"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="73"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="94"/>
+      <c r="AB61" s="76"/>
+    </row>
+    <row r="62" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="35">
+        <v>14</v>
+      </c>
+      <c r="B62" s="69"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="71" t="e">
+        <f>VLOOKUP(H62,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="52"/>
+      <c r="W62" s="73"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="73"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="94"/>
+      <c r="AB62" s="76"/>
+    </row>
+    <row r="63" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="35">
+        <v>15</v>
+      </c>
+      <c r="B63" s="69"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="71" t="e">
+        <f>VLOOKUP(H63,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="93"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
+      <c r="V63" s="52"/>
+      <c r="W63" s="73"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="73"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="94"/>
+      <c r="AB63" s="76"/>
+    </row>
+    <row r="64" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="35">
+        <v>16</v>
+      </c>
+      <c r="B64" s="69"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="71" t="e">
+        <f>VLOOKUP(H64,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="66"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="108"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="87"/>
-      <c r="U58" s="87"/>
-      <c r="V58" s="66"/>
-      <c r="W58" s="87"/>
-      <c r="X58" s="87"/>
-      <c r="Y58" s="87"/>
-      <c r="Z58" s="66"/>
-      <c r="AA58" s="109"/>
-      <c r="AB58" s="90"/>
-    </row>
-    <row r="59" spans="1:28" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="49">
-        <v>11</v>
-      </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54">
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="93"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="73"/>
+      <c r="U64" s="73"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="73"/>
+      <c r="X64" s="73"/>
+      <c r="Y64" s="73"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="94"/>
+      <c r="AB64" s="76"/>
+    </row>
+    <row r="65" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="35">
+        <v>17</v>
+      </c>
+      <c r="B65" s="69"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="71" t="e">
+        <f>VLOOKUP(H65,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="108"/>
-      <c r="S59" s="87"/>
-      <c r="T59" s="87"/>
-      <c r="U59" s="87"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="87"/>
-      <c r="X59" s="87"/>
-      <c r="Y59" s="87"/>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="109"/>
-      <c r="AB59" s="90"/>
-    </row>
-    <row r="60" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="49">
-        <v>12</v>
-      </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54">
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="93"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="73"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="73"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="94"/>
+      <c r="AB65" s="76"/>
+    </row>
+    <row r="66" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="35">
+        <v>19</v>
+      </c>
+      <c r="B66" s="69"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="71" t="e">
+        <f>VLOOKUP(H66,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K60" s="110"/>
-      <c r="L60" s="110"/>
-      <c r="M60" s="110"/>
-      <c r="N60" s="111"/>
-      <c r="O60" s="110"/>
-      <c r="P60" s="110"/>
-      <c r="Q60" s="110"/>
-      <c r="R60" s="111"/>
-      <c r="S60" s="110"/>
-      <c r="T60" s="110"/>
-      <c r="U60" s="110"/>
-      <c r="V60" s="111"/>
-      <c r="W60" s="110"/>
-      <c r="X60" s="110"/>
-      <c r="Y60" s="110"/>
-      <c r="Z60" s="111"/>
-      <c r="AA60" s="112">
-        <f>I60-J60</f>
-        <v>0</v>
-      </c>
-      <c r="AB60" s="113"/>
-    </row>
-    <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="95"/>
+      <c r="P66" s="95"/>
+      <c r="Q66" s="95"/>
+      <c r="R66" s="96"/>
+      <c r="S66" s="95"/>
+      <c r="T66" s="95"/>
+      <c r="U66" s="95"/>
+      <c r="V66" s="96"/>
+      <c r="W66" s="95"/>
+      <c r="X66" s="95"/>
+      <c r="Y66" s="95"/>
+      <c r="Z66" s="96"/>
+      <c r="AA66" s="97">
+        <f>I66-J66</f>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="98"/>
+    </row>
+    <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="114">
-        <f>SUM(C10:C60)</f>
+      <c r="B67" s="126"/>
+      <c r="C67" s="99">
+        <f>SUM(C10:C66)</f>
         <v>99.5</v>
       </c>
-      <c r="D61" s="114">
-        <f>SUM(D10:D60)</f>
+      <c r="D67" s="99">
+        <f>SUM(D10:D66)</f>
         <v>84</v>
       </c>
-      <c r="E61" s="114">
-        <f>SUM(E10:E60)</f>
-        <v>71.75</v>
-      </c>
-      <c r="F61" s="114">
-        <f>SUM(F10:F60)</f>
+      <c r="E67" s="99">
+        <f>SUM(E10:E66)</f>
+        <v>73.25</v>
+      </c>
+      <c r="F67" s="99">
+        <f>SUM(F10:F66)</f>
         <v>103</v>
       </c>
-      <c r="G61" s="115"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="114">
+      <c r="G67" s="100"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="101"/>
+      <c r="J67" s="99">
         <f t="shared" si="3"/>
-        <v>358.25</v>
-      </c>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="117"/>
-      <c r="N61" s="117"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="117"/>
-      <c r="Q61" s="117"/>
-      <c r="R61" s="117"/>
-      <c r="S61" s="117"/>
-      <c r="T61" s="117"/>
-      <c r="U61" s="117"/>
-      <c r="V61" s="117"/>
-      <c r="W61" s="117"/>
-      <c r="X61" s="117"/>
-      <c r="Y61" s="117"/>
-      <c r="Z61" s="117"/>
-      <c r="AA61" s="114">
-        <f>SUM(AA10:AA60)</f>
+        <v>359.75</v>
+      </c>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="102"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="102"/>
+      <c r="V67" s="102"/>
+      <c r="W67" s="102"/>
+      <c r="X67" s="102"/>
+      <c r="Y67" s="102"/>
+      <c r="Z67" s="102"/>
+      <c r="AA67" s="99">
+        <f>SUM(AA10:AA66)</f>
         <v>0.25</v>
       </c>
-      <c r="AB61" s="118"/>
-    </row>
-    <row r="62" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="AB67" s="103"/>
+    </row>
+    <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="114">
-        <f>135-C61</f>
+      <c r="B68" s="121"/>
+      <c r="C68" s="99">
+        <f>135-C67</f>
         <v>35.5</v>
       </c>
-      <c r="D62" s="114">
-        <f>135-D61</f>
+      <c r="D68" s="99">
+        <f>135-D67</f>
         <v>51</v>
       </c>
-      <c r="E62" s="114">
-        <f>135-E61</f>
-        <v>63.25</v>
-      </c>
-      <c r="F62" s="114">
-        <f>135-F61</f>
+      <c r="E68" s="99">
+        <f>135-E67</f>
+        <v>61.75</v>
+      </c>
+      <c r="F68" s="99">
+        <f>135-F67</f>
         <v>32</v>
       </c>
-      <c r="G62" s="115"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114">
+      <c r="G68" s="100"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="99">
         <f t="shared" si="3"/>
-        <v>181.75</v>
-      </c>
-      <c r="K62" s="117"/>
-      <c r="L62" s="117"/>
-      <c r="M62" s="117"/>
-      <c r="N62" s="117"/>
-      <c r="O62" s="117"/>
-      <c r="P62" s="117"/>
-      <c r="Q62" s="117"/>
-      <c r="R62" s="117"/>
-      <c r="S62" s="117"/>
-      <c r="T62" s="117"/>
-      <c r="U62" s="117"/>
-      <c r="V62" s="117"/>
-      <c r="W62" s="117"/>
-      <c r="X62" s="117"/>
-      <c r="Y62" s="117"/>
-      <c r="Z62" s="117"/>
-      <c r="AA62" s="117"/>
-      <c r="AB62" s="117"/>
-    </row>
-    <row r="63" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="136" t="s">
+        <v>180.25</v>
+      </c>
+      <c r="K68" s="102"/>
+      <c r="L68" s="102"/>
+      <c r="M68" s="102"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="102"/>
+      <c r="P68" s="102"/>
+      <c r="Q68" s="102"/>
+      <c r="R68" s="102"/>
+      <c r="S68" s="102"/>
+      <c r="T68" s="102"/>
+      <c r="U68" s="102"/>
+      <c r="V68" s="102"/>
+      <c r="W68" s="102"/>
+      <c r="X68" s="102"/>
+      <c r="Y68" s="102"/>
+      <c r="Z68" s="102"/>
+      <c r="AA68" s="102"/>
+      <c r="AB68" s="102"/>
+    </row>
+    <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="136"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114">
-        <f>C63+D63+F63+E63</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="117"/>
-      <c r="L63" s="117"/>
-      <c r="M63" s="117"/>
-      <c r="N63" s="117"/>
-      <c r="O63" s="117"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="117"/>
-      <c r="S63" s="117"/>
-      <c r="T63" s="117"/>
-      <c r="U63" s="117"/>
-      <c r="V63" s="117"/>
-      <c r="W63" s="117"/>
-      <c r="X63" s="117"/>
-      <c r="Y63" s="117"/>
-      <c r="Z63" s="117"/>
-      <c r="AA63" s="117"/>
-      <c r="AB63" s="117"/>
-    </row>
-    <row r="64" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="B69" s="122"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="99"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="99">
+        <f>C69+D69+F69+E69</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="102"/>
+      <c r="L69" s="102"/>
+      <c r="M69" s="102"/>
+      <c r="N69" s="102"/>
+      <c r="O69" s="102"/>
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="102"/>
+      <c r="S69" s="102"/>
+      <c r="T69" s="102"/>
+      <c r="U69" s="102"/>
+      <c r="V69" s="102"/>
+      <c r="W69" s="102"/>
+      <c r="X69" s="102"/>
+      <c r="Y69" s="102"/>
+      <c r="Z69" s="102"/>
+      <c r="AA69" s="102"/>
+      <c r="AB69" s="102"/>
+    </row>
+    <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="120">
-        <f>SUM(I10:I60)</f>
-        <v>384</v>
-      </c>
-      <c r="J64" s="114">
-        <f>SUM(J10:J60)</f>
-        <v>358.25</v>
-      </c>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="117"/>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="117"/>
-      <c r="S64" s="117"/>
-      <c r="T64" s="117"/>
-      <c r="U64" s="117"/>
-      <c r="V64" s="117"/>
-      <c r="W64" s="117"/>
-      <c r="X64" s="117"/>
-      <c r="Y64" s="117"/>
-      <c r="Z64" s="117"/>
-      <c r="AA64" s="117"/>
-      <c r="AB64" s="117"/>
-    </row>
-    <row r="65" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="121"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="117"/>
-      <c r="L65" s="117"/>
-      <c r="M65" s="117"/>
-      <c r="N65" s="117"/>
-      <c r="O65" s="117"/>
-      <c r="P65" s="117"/>
-      <c r="Q65" s="117"/>
-      <c r="R65" s="117"/>
-      <c r="S65" s="117"/>
-      <c r="T65" s="117"/>
-      <c r="U65" s="117"/>
-      <c r="V65" s="117"/>
-      <c r="W65" s="117"/>
-      <c r="X65" s="117"/>
-      <c r="Y65" s="117"/>
-      <c r="Z65" s="117"/>
-      <c r="AA65" s="117"/>
-      <c r="AB65" s="117"/>
-    </row>
-    <row r="66" spans="1:28" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="136" t="s">
+      <c r="B70" s="121"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="105">
+        <f>SUM(I10:I66)</f>
+        <v>385.5</v>
+      </c>
+      <c r="J70" s="99">
+        <f>SUM(J10:J66)</f>
+        <v>359.75</v>
+      </c>
+      <c r="K70" s="102"/>
+      <c r="L70" s="102"/>
+      <c r="M70" s="102"/>
+      <c r="N70" s="102"/>
+      <c r="O70" s="102"/>
+      <c r="P70" s="102"/>
+      <c r="Q70" s="102"/>
+      <c r="R70" s="102"/>
+      <c r="S70" s="102"/>
+      <c r="T70" s="102"/>
+      <c r="U70" s="102"/>
+      <c r="V70" s="102"/>
+      <c r="W70" s="102"/>
+      <c r="X70" s="102"/>
+      <c r="Y70" s="102"/>
+      <c r="Z70" s="102"/>
+      <c r="AA70" s="102"/>
+      <c r="AB70" s="102"/>
+    </row>
+    <row r="71" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="106"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="102"/>
+      <c r="L71" s="102"/>
+      <c r="M71" s="102"/>
+      <c r="N71" s="102"/>
+      <c r="O71" s="102"/>
+      <c r="P71" s="102"/>
+      <c r="Q71" s="102"/>
+      <c r="R71" s="102"/>
+      <c r="S71" s="102"/>
+      <c r="T71" s="102"/>
+      <c r="U71" s="102"/>
+      <c r="V71" s="102"/>
+      <c r="W71" s="102"/>
+      <c r="X71" s="102"/>
+      <c r="Y71" s="102"/>
+      <c r="Z71" s="102"/>
+      <c r="AA71" s="102"/>
+      <c r="AB71" s="102"/>
+    </row>
+    <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="136"/>
-      <c r="C66" s="114">
+      <c r="B72" s="122"/>
+      <c r="C72" s="99">
         <f>135*4</f>
         <v>540</v>
       </c>
-      <c r="D66" s="122"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="122"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="117"/>
-      <c r="L66" s="117"/>
-      <c r="M66" s="117"/>
-      <c r="N66" s="117"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="117"/>
-      <c r="R66" s="117"/>
-      <c r="S66" s="117"/>
-      <c r="T66" s="117"/>
-      <c r="U66" s="117"/>
-      <c r="V66" s="117"/>
-      <c r="W66" s="117"/>
-      <c r="X66" s="117"/>
-      <c r="Y66" s="117"/>
-      <c r="Z66" s="117"/>
-      <c r="AA66" s="117"/>
-      <c r="AB66" s="117"/>
-    </row>
-    <row r="67" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="137" t="s">
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="107"/>
+      <c r="K72" s="102"/>
+      <c r="L72" s="102"/>
+      <c r="M72" s="102"/>
+      <c r="N72" s="102"/>
+      <c r="O72" s="102"/>
+      <c r="P72" s="102"/>
+      <c r="Q72" s="102"/>
+      <c r="R72" s="102"/>
+      <c r="S72" s="102"/>
+      <c r="T72" s="102"/>
+      <c r="U72" s="102"/>
+      <c r="V72" s="102"/>
+      <c r="W72" s="102"/>
+      <c r="X72" s="102"/>
+      <c r="Y72" s="102"/>
+      <c r="Z72" s="102"/>
+      <c r="AA72" s="102"/>
+      <c r="AB72" s="102"/>
+    </row>
+    <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="137"/>
-      <c r="C67" s="114">
-        <f>C66-J64</f>
-        <v>181.75</v>
-      </c>
-      <c r="D67" s="122"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="122"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="117"/>
-      <c r="L67" s="117"/>
-      <c r="M67" s="117"/>
-      <c r="N67" s="117"/>
-      <c r="O67" s="117"/>
-      <c r="P67" s="117"/>
-      <c r="Q67" s="117"/>
-      <c r="R67" s="117"/>
-      <c r="S67" s="117"/>
-      <c r="T67" s="117"/>
-      <c r="U67" s="117"/>
-      <c r="V67" s="117"/>
-      <c r="W67" s="117"/>
-      <c r="X67" s="117"/>
-      <c r="Y67" s="117"/>
-      <c r="Z67" s="117"/>
-      <c r="AA67" s="117"/>
-      <c r="AB67" s="117"/>
-    </row>
-    <row r="68" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="123"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="124"/>
-      <c r="D68" s="124"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="AA68" s="117"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D69" s="127"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="127"/>
-    </row>
-    <row r="70" spans="1:28" s="129" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="128"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
-      <c r="H70" s="131"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="N70" s="133"/>
-      <c r="R70" s="133"/>
-      <c r="V70" s="133"/>
-      <c r="Z70" s="133"/>
-      <c r="AA70" s="134"/>
-    </row>
-    <row r="71" spans="1:28" s="129" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
-      <c r="H71" s="131"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="132"/>
-      <c r="N71" s="133"/>
-      <c r="R71" s="133"/>
-      <c r="V71" s="133"/>
-      <c r="Z71" s="133"/>
-      <c r="AA71" s="134"/>
-    </row>
-    <row r="72" spans="1:28" s="129" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="C72" s="130"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="130"/>
-      <c r="F72" s="130"/>
-      <c r="H72" s="131"/>
-      <c r="I72" s="132"/>
-      <c r="J72" s="132"/>
-      <c r="N72" s="133"/>
-      <c r="R72" s="133"/>
-      <c r="V72" s="133"/>
-      <c r="Z72" s="133"/>
-      <c r="AA72" s="134"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="99">
+        <f>C72-J70</f>
+        <v>180.25</v>
+      </c>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="102"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="102"/>
+      <c r="O73" s="102"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="102"/>
+      <c r="R73" s="102"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="102"/>
+      <c r="U73" s="102"/>
+      <c r="V73" s="102"/>
+      <c r="W73" s="102"/>
+      <c r="X73" s="102"/>
+      <c r="Y73" s="102"/>
+      <c r="Z73" s="102"/>
+      <c r="AA73" s="102"/>
+      <c r="AB73" s="102"/>
+    </row>
+    <row r="74" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="108"/>
+      <c r="B74" s="106"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="109"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="106"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="111"/>
+      <c r="AA74" s="102"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D75" s="112"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
+    </row>
+    <row r="76" spans="1:28" s="114" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="113"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="117"/>
+      <c r="J76" s="117"/>
+      <c r="N76" s="118"/>
+      <c r="R76" s="118"/>
+      <c r="V76" s="118"/>
+      <c r="Z76" s="118"/>
+      <c r="AA76" s="119"/>
+    </row>
+    <row r="77" spans="1:28" s="114" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
+      <c r="H77" s="116"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="N77" s="118"/>
+      <c r="R77" s="118"/>
+      <c r="V77" s="118"/>
+      <c r="Z77" s="118"/>
+      <c r="AA77" s="119"/>
+    </row>
+    <row r="78" spans="1:28" s="114" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="115"/>
+      <c r="H78" s="116"/>
+      <c r="I78" s="117"/>
+      <c r="J78" s="117"/>
+      <c r="N78" s="118"/>
+      <c r="R78" s="118"/>
+      <c r="V78" s="118"/>
+      <c r="Z78" s="118"/>
+      <c r="AA78" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5543,18 +5788,21 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H45 H49 H58:H60 H47">
+  <conditionalFormatting sqref="H9:H45 H49 H64:H66 H47">
     <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H9)))</formula>
     </cfRule>
@@ -5565,7 +5813,7 @@
       <formula>NOT(ISERROR(SEARCH("Terminé",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F45 C49:F49 C58:F60 C47:F47">
+  <conditionalFormatting sqref="C9:F45 C49:F49 C64:F66 C47:F47">
     <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5573,7 +5821,7 @@
       <formula>$H9="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F45 C49:F49 C58:F60 C47:F47">
+  <conditionalFormatting sqref="C9:F45 C49:F49 C64:F66 C47:F47">
     <cfRule type="expression" dxfId="36" priority="22">
       <formula>$H9="En cours"</formula>
     </cfRule>
@@ -5689,7 +5937,7 @@
       <formula>$H56="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H57:H63">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H57)))</formula>
     </cfRule>
@@ -5700,7 +5948,7 @@
       <formula>NOT(ISERROR(SEARCH("Terminé",H57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:F57">
+  <conditionalFormatting sqref="C57:F63">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5708,7 +5956,7 @@
       <formula>$H57="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:F57">
+  <conditionalFormatting sqref="C57:F63">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>$H57="En cours"</formula>
     </cfRule>
@@ -5717,7 +5965,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H60" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H66" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"En attente,En cours,Terminé"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5736,32 +5984,32 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="15"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="135">
+      <c r="B1" s="120">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5777,9 +6025,9 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="15"/>
+    <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D4E6D-847E-40D1-8719-CBA7FB201F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6097CDD4-13DB-4092-9E09-4F09F0133DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Régler un problème d'affichage (event-list)</t>
+  </si>
+  <si>
+    <t>Régler un problème d'affichage (user-list)</t>
   </si>
 </sst>
 </file>
@@ -974,7 +977,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1326,6 +1329,46 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="7" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="7" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1342,46 +1385,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="7" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="7" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="8" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -2190,8 +2194,8 @@
   </sheetPr>
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,22 +2223,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="135"/>
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -2246,20 +2250,20 @@
       <c r="AA1" s="10"/>
     </row>
     <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="135"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -2404,10 +2408,10 @@
       <c r="X7" s="134"/>
       <c r="Y7" s="134"/>
       <c r="Z7" s="134"/>
-      <c r="AA7" s="124" t="s">
+      <c r="AA7" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="125" t="s">
+      <c r="AB7" s="139" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2493,8 +2497,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="125"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="139"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
@@ -4671,9 +4675,9 @@
       <c r="S49" s="68"/>
       <c r="T49" s="42"/>
       <c r="U49" s="92"/>
-      <c r="V49" s="139"/>
+      <c r="V49" s="123"/>
       <c r="W49" s="73"/>
-      <c r="X49" s="137"/>
+      <c r="X49" s="121"/>
       <c r="Y49" s="73"/>
       <c r="Z49" s="52"/>
       <c r="AA49" s="44">
@@ -4724,9 +4728,9 @@
       <c r="S50" s="68"/>
       <c r="T50" s="42"/>
       <c r="U50" s="92"/>
-      <c r="V50" s="139"/>
+      <c r="V50" s="123"/>
       <c r="W50" s="73"/>
-      <c r="X50" s="138"/>
+      <c r="X50" s="122"/>
       <c r="Y50" s="73"/>
       <c r="Z50" s="52"/>
       <c r="AA50" s="44">
@@ -4777,9 +4781,9 @@
       <c r="S51" s="68"/>
       <c r="T51" s="42"/>
       <c r="U51" s="92"/>
-      <c r="V51" s="139"/>
+      <c r="V51" s="123"/>
       <c r="W51" s="73"/>
-      <c r="X51" s="138"/>
+      <c r="X51" s="122"/>
       <c r="Y51" s="73"/>
       <c r="Z51" s="52"/>
       <c r="AA51" s="94"/>
@@ -4829,9 +4833,9 @@
       <c r="S52" s="73"/>
       <c r="T52" s="68"/>
       <c r="U52" s="92"/>
-      <c r="V52" s="139"/>
+      <c r="V52" s="123"/>
       <c r="W52" s="73"/>
-      <c r="X52" s="138"/>
+      <c r="X52" s="122"/>
       <c r="Y52" s="73"/>
       <c r="Z52" s="52"/>
       <c r="AA52" s="94"/>
@@ -4881,9 +4885,9 @@
       <c r="S53" s="73"/>
       <c r="T53" s="42"/>
       <c r="U53" s="92"/>
-      <c r="V53" s="139"/>
+      <c r="V53" s="123"/>
       <c r="W53" s="73"/>
-      <c r="X53" s="138"/>
+      <c r="X53" s="122"/>
       <c r="Y53" s="73"/>
       <c r="Z53" s="52"/>
       <c r="AA53" s="94"/>
@@ -4933,9 +4937,9 @@
       <c r="S54" s="73"/>
       <c r="T54" s="42"/>
       <c r="U54" s="92"/>
-      <c r="V54" s="139"/>
+      <c r="V54" s="123"/>
       <c r="W54" s="73"/>
-      <c r="X54" s="138"/>
+      <c r="X54" s="122"/>
       <c r="Y54" s="73"/>
       <c r="Z54" s="52"/>
       <c r="AA54" s="94"/>
@@ -4985,9 +4989,9 @@
       <c r="S55" s="73"/>
       <c r="T55" s="42"/>
       <c r="U55" s="92"/>
-      <c r="V55" s="139"/>
+      <c r="V55" s="123"/>
       <c r="W55" s="73"/>
-      <c r="X55" s="138"/>
+      <c r="X55" s="122"/>
       <c r="Y55" s="73"/>
       <c r="Z55" s="52"/>
       <c r="AA55" s="94"/>
@@ -5023,7 +5027,7 @@
         <v>8</v>
       </c>
       <c r="J56" s="40">
-        <f t="shared" ref="J56:J58" si="4">SUM(C56:F56)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K56" s="42"/>
@@ -5075,7 +5079,7 @@
         <v>8</v>
       </c>
       <c r="J57" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K57" s="42"/>
@@ -5127,7 +5131,7 @@
         <v>1.5</v>
       </c>
       <c r="J58" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K58" s="42"/>
@@ -5142,7 +5146,7 @@
       <c r="T58" s="73"/>
       <c r="U58" s="73"/>
       <c r="V58" s="52"/>
-      <c r="W58" s="140"/>
+      <c r="W58" s="141"/>
       <c r="X58" s="73"/>
       <c r="Y58" s="73"/>
       <c r="Z58" s="52"/>
@@ -5153,18 +5157,35 @@
       <c r="A59" s="35">
         <v>11</v>
       </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="71" t="e">
+      <c r="B59" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="37">
+        <v>0</v>
+      </c>
+      <c r="D59" s="37">
+        <v>0</v>
+      </c>
+      <c r="E59" s="37">
+        <v>1.25</v>
+      </c>
+      <c r="F59" s="37">
+        <v>0</v>
+      </c>
+      <c r="G59" s="71">
         <f>VLOOKUP(H59,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H59" s="39"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="40">
+        <v>1</v>
+      </c>
+      <c r="J59" s="40">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
       <c r="K59" s="42"/>
       <c r="L59" s="42"/>
       <c r="M59" s="73"/>
@@ -5177,7 +5198,7 @@
       <c r="T59" s="73"/>
       <c r="U59" s="73"/>
       <c r="V59" s="52"/>
-      <c r="W59" s="73"/>
+      <c r="W59" s="124"/>
       <c r="X59" s="73"/>
       <c r="Y59" s="73"/>
       <c r="Z59" s="52"/>
@@ -5199,7 +5220,10 @@
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
+      <c r="J60" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K60" s="42"/>
       <c r="L60" s="42"/>
       <c r="M60" s="73"/>
@@ -5234,7 +5258,10 @@
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
+      <c r="J61" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K61" s="42"/>
       <c r="L61" s="42"/>
       <c r="M61" s="73"/>
@@ -5269,7 +5296,10 @@
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
+      <c r="J62" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K62" s="42"/>
       <c r="L62" s="42"/>
       <c r="M62" s="73"/>
@@ -5304,7 +5334,10 @@
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
+      <c r="J63" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K63" s="42"/>
       <c r="L63" s="42"/>
       <c r="M63" s="73"/>
@@ -5442,10 +5475,10 @@
       <c r="AB66" s="98"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="126" t="s">
+      <c r="A67" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="126"/>
+      <c r="B67" s="140"/>
       <c r="C67" s="99">
         <f>SUM(C10:C66)</f>
         <v>99.5</v>
@@ -5456,7 +5489,7 @@
       </c>
       <c r="E67" s="99">
         <f>SUM(E10:E66)</f>
-        <v>73.25</v>
+        <v>74.5</v>
       </c>
       <c r="F67" s="99">
         <f>SUM(F10:F66)</f>
@@ -5467,7 +5500,7 @@
       <c r="I67" s="101"/>
       <c r="J67" s="99">
         <f t="shared" si="3"/>
-        <v>359.75</v>
+        <v>361</v>
       </c>
       <c r="K67" s="102"/>
       <c r="L67" s="102"/>
@@ -5492,10 +5525,10 @@
       <c r="AB67" s="103"/>
     </row>
     <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="121" t="s">
+      <c r="A68" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="121"/>
+      <c r="B68" s="135"/>
       <c r="C68" s="99">
         <f>135-C67</f>
         <v>35.5</v>
@@ -5506,7 +5539,7 @@
       </c>
       <c r="E68" s="99">
         <f>135-E67</f>
-        <v>61.75</v>
+        <v>60.5</v>
       </c>
       <c r="F68" s="99">
         <f>135-F67</f>
@@ -5517,7 +5550,7 @@
       <c r="I68" s="99"/>
       <c r="J68" s="99">
         <f t="shared" si="3"/>
-        <v>180.25</v>
+        <v>179</v>
       </c>
       <c r="K68" s="102"/>
       <c r="L68" s="102"/>
@@ -5539,10 +5572,10 @@
       <c r="AB68" s="102"/>
     </row>
     <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="122" t="s">
+      <c r="A69" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="122"/>
+      <c r="B69" s="136"/>
       <c r="C69" s="99"/>
       <c r="D69" s="99"/>
       <c r="E69" s="99"/>
@@ -5574,10 +5607,10 @@
       <c r="AB69" s="102"/>
     </row>
     <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="121" t="s">
+      <c r="A70" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="121"/>
+      <c r="B70" s="135"/>
       <c r="C70" s="99"/>
       <c r="D70" s="99"/>
       <c r="E70" s="104"/>
@@ -5586,11 +5619,11 @@
       <c r="H70" s="99"/>
       <c r="I70" s="105">
         <f>SUM(I10:I66)</f>
-        <v>385.5</v>
+        <v>386.5</v>
       </c>
       <c r="J70" s="99">
         <f>SUM(J10:J66)</f>
-        <v>359.75</v>
+        <v>361</v>
       </c>
       <c r="K70" s="102"/>
       <c r="L70" s="102"/>
@@ -5642,10 +5675,10 @@
       <c r="AB71" s="102"/>
     </row>
     <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="122" t="s">
+      <c r="A72" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="122"/>
+      <c r="B72" s="136"/>
       <c r="C72" s="99">
         <f>135*4</f>
         <v>540</v>
@@ -5677,13 +5710,13 @@
       <c r="AB72" s="102"/>
     </row>
     <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="123" t="s">
+      <c r="A73" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="123"/>
+      <c r="B73" s="137"/>
       <c r="C73" s="99">
         <f>C72-J70</f>
-        <v>180.25</v>
+        <v>179</v>
       </c>
       <c r="D73" s="107"/>
       <c r="E73" s="107"/>
@@ -5774,11 +5807,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5788,14 +5824,11 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6097CDD4-13DB-4092-9E09-4F09F0133DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F185482A-C514-4461-91E4-603F876D9AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -344,6 +344,9 @@
   <si>
     <t>Régler un problème d'affichage (user-list)</t>
   </si>
+  <si>
+    <t>Améliorer le visuel du pied de page</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +358,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
     <numFmt numFmtId="167" formatCode="\\;;;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -441,13 +444,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -966,19 +962,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -1066,15 +1062,15 @@
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1109,11 +1105,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1124,7 +1120,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1137,7 +1133,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1146,21 +1142,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="7" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1169,15 +1165,15 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1199,15 +1195,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1229,11 +1225,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1269,11 +1265,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1295,7 +1291,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1315,7 +1311,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1338,37 +1334,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1385,13 +1350,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Excel Built-in Good 1" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -2200,3621 +2197,3632 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11" max="13" width="8" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="5" customWidth="1"/>
-    <col min="19" max="21" width="8.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" style="5" customWidth="1"/>
-    <col min="23" max="25" width="7.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7.33203125" style="5" customWidth="1"/>
-    <col min="27" max="27" width="20.6640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" style="1" customWidth="1"/>
-    <col min="29" max="1025" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="10.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="5" customWidth="1"/>
+    <col min="11" max="13" width="8" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8" style="6" customWidth="1"/>
+    <col min="15" max="16" width="7.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="8.33203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="6" customWidth="1"/>
+    <col min="23" max="25" width="7.33203125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="20.6640625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" style="2" customWidth="1"/>
+    <col min="29" max="1025" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="126" t="s">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="N1" s="3"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="10"/>
-    </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="N1" s="4"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="11"/>
+    </row>
+    <row r="2" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="125" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="8" t="s">
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="N2" s="4"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="10"/>
-    </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="N3" s="3"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="8" t="s">
+      <c r="R2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="N4" s="3" t="s">
+      <c r="R3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="N4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="8" t="s">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="10"/>
-    </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="N5" s="17">
+      <c r="R4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="N5" s="18">
         <v>0.25</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="17">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="18">
         <v>0.5</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="18">
         <v>0.75</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="Z5" s="18">
         <v>1</v>
       </c>
-      <c r="AA5" s="10"/>
-    </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="127" t="s">
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127" t="s">
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="10"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="134" t="s">
+      <c r="K7" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="134"/>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="138" t="s">
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="139" t="s">
+      <c r="AB7" s="129" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="20" t="s">
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="21">
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="22">
         <v>43838</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="23">
         <f t="shared" ref="L8:Z8" si="0">K8+7</f>
         <v>43845</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="23">
         <f t="shared" si="0"/>
         <v>43852</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="23">
         <f t="shared" si="0"/>
         <v>43859</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="23">
         <f t="shared" si="0"/>
         <v>43866</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="23">
         <f t="shared" si="0"/>
         <v>43873</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="23">
         <f t="shared" si="0"/>
         <v>43880</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="23">
         <f t="shared" si="0"/>
         <v>43887</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="23">
         <f t="shared" si="0"/>
         <v>43894</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="23">
         <f t="shared" si="0"/>
         <v>43901</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="23">
         <f t="shared" si="0"/>
         <v>43908</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="23">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="23">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="23">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8" s="23">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="23">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="139"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="129"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="34"/>
-    </row>
-    <row r="10" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="35"/>
+    </row>
+    <row r="10" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="38">
         <v>1.5</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="38">
         <v>1.5</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="38">
         <v>1.5</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="38">
         <v>1.5</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="39">
         <f>VLOOKUP(H10,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="40">
+      <c r="H10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="41">
         <v>6</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="41">
         <f t="shared" ref="J10:J47" si="1">SUM(C10:F10)</f>
         <v>6</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="44">
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="45">
         <f t="shared" ref="AA10:AA45" si="2">I10-J10</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="45"/>
-    </row>
-    <row r="11" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
-        <v>2</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="AB10" s="46"/>
+    </row>
+    <row r="11" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="38">
         <v>1.5</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="38">
         <v>1.5</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="38">
         <v>1.5</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="38">
         <v>1.5</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="39">
         <f>VLOOKUP(H11,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="40">
+      <c r="H11" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="41">
         <v>6</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="44">
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="48"/>
-    </row>
-    <row r="12" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="AB11" s="49"/>
+    </row>
+    <row r="12" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="36">
         <v>3</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="38">
         <v>3</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="38">
         <v>3</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="38">
         <v>3</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="38">
         <v>3</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="39">
         <f>VLOOKUP(H12,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="40">
+      <c r="H12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="41">
         <v>12</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="41">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="41"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="44">
+      <c r="K12" s="43"/>
+      <c r="L12" s="42"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="49"/>
-    </row>
-    <row r="13" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="AB12" s="50"/>
+    </row>
+    <row r="13" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="37">
-        <v>2</v>
-      </c>
-      <c r="D13" s="37">
-        <v>2</v>
-      </c>
-      <c r="E13" s="37">
-        <v>2</v>
-      </c>
-      <c r="F13" s="37">
-        <v>2</v>
-      </c>
-      <c r="G13" s="38">
+      <c r="C13" s="38">
+        <v>2</v>
+      </c>
+      <c r="D13" s="38">
+        <v>2</v>
+      </c>
+      <c r="E13" s="38">
+        <v>2</v>
+      </c>
+      <c r="F13" s="38">
+        <v>2</v>
+      </c>
+      <c r="G13" s="39">
         <f>VLOOKUP(H13,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="40">
+      <c r="H13" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="41">
         <v>8</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="41">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="44">
+      <c r="K13" s="43"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="48"/>
-    </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
+      <c r="AB13" s="49"/>
+    </row>
+    <row r="14" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="38">
         <v>3</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="38">
         <v>3</v>
       </c>
-      <c r="E14" s="37">
-        <v>0</v>
-      </c>
-      <c r="F14" s="37">
+      <c r="E14" s="38">
+        <v>0</v>
+      </c>
+      <c r="F14" s="38">
         <v>3</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="39">
         <f>VLOOKUP(H14,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="40">
+      <c r="H14" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="41">
         <v>9</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="41">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="44">
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="48"/>
-    </row>
-    <row r="15" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+      <c r="AB14" s="49"/>
+    </row>
+    <row r="15" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="36">
         <v>6</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37">
-        <v>2</v>
-      </c>
-      <c r="D15" s="37">
-        <v>2</v>
-      </c>
-      <c r="E15" s="37">
-        <v>0</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0</v>
-      </c>
-      <c r="G15" s="38">
+      <c r="C15" s="38">
+        <v>2</v>
+      </c>
+      <c r="D15" s="38">
+        <v>2</v>
+      </c>
+      <c r="E15" s="38">
+        <v>0</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0</v>
+      </c>
+      <c r="G15" s="39">
         <f>VLOOKUP(H15,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="40">
+      <c r="H15" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="41">
         <v>4</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="44">
+      <c r="K15" s="43"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="48"/>
-    </row>
-    <row r="16" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="AB15" s="49"/>
+    </row>
+    <row r="16" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="37">
-        <v>2</v>
-      </c>
-      <c r="D16" s="37">
-        <v>0</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0</v>
-      </c>
-      <c r="G16" s="38">
+      <c r="C16" s="38">
+        <v>2</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0</v>
+      </c>
+      <c r="F16" s="38">
+        <v>0</v>
+      </c>
+      <c r="G16" s="39">
         <f>VLOOKUP(H16,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="40">
+      <c r="H16" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="41">
         <v>5</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="41">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="44">
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AB16" s="48"/>
-    </row>
-    <row r="17" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="AB16" s="49"/>
+    </row>
+    <row r="17" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="36">
         <v>8</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="37">
-        <v>2</v>
-      </c>
-      <c r="D17" s="37">
-        <v>2</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0</v>
-      </c>
-      <c r="G17" s="38">
+      <c r="C17" s="38">
+        <v>2</v>
+      </c>
+      <c r="D17" s="38">
+        <v>2</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0</v>
+      </c>
+      <c r="G17" s="39">
         <f>VLOOKUP(H17,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="40">
+      <c r="H17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="41">
         <v>4</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="44">
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="48"/>
-    </row>
-    <row r="18" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="AB17" s="49"/>
+    </row>
+    <row r="18" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="36">
         <v>9</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="37">
-        <v>2</v>
-      </c>
-      <c r="D18" s="37">
-        <v>0</v>
-      </c>
-      <c r="E18" s="37">
-        <v>0</v>
-      </c>
-      <c r="F18" s="37">
-        <v>2</v>
-      </c>
-      <c r="G18" s="38">
+      <c r="C18" s="38">
+        <v>2</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0</v>
+      </c>
+      <c r="F18" s="38">
+        <v>2</v>
+      </c>
+      <c r="G18" s="39">
         <f>VLOOKUP(H18,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="40">
+      <c r="H18" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="41">
         <v>5</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="44">
+      <c r="K18" s="43"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="45">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB18" s="48"/>
-    </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+      <c r="AB18" s="49"/>
+    </row>
+    <row r="19" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
         <v>10</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="38">
         <v>1.5</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="38">
         <v>6</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="38">
         <v>3</v>
       </c>
-      <c r="F19" s="37">
-        <v>0</v>
-      </c>
-      <c r="G19" s="38">
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="G19" s="39">
         <f>VLOOKUP(H19,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="40">
+      <c r="H19" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="41">
         <v>12</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="41">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="44">
+      <c r="K19" s="43"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="45">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="AB19" s="48"/>
-    </row>
-    <row r="20" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+      <c r="AB19" s="49"/>
+    </row>
+    <row r="20" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="36">
         <v>11</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="37">
-        <v>0</v>
-      </c>
-      <c r="D20" s="37">
+      <c r="C20" s="38">
+        <v>0</v>
+      </c>
+      <c r="D20" s="38">
         <v>3</v>
       </c>
-      <c r="E20" s="37">
-        <v>0</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0</v>
-      </c>
-      <c r="G20" s="38">
+      <c r="E20" s="38">
+        <v>0</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0</v>
+      </c>
+      <c r="G20" s="39">
         <f>VLOOKUP(H20,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="40">
+      <c r="H20" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="41">
         <v>10</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="41">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="44">
+      <c r="K20" s="43"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB20" s="48"/>
-    </row>
-    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="AB20" s="49"/>
+    </row>
+    <row r="21" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36">
         <v>12</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="38">
         <v>3</v>
       </c>
-      <c r="D21" s="37">
-        <v>0</v>
-      </c>
-      <c r="E21" s="37">
-        <v>0</v>
-      </c>
-      <c r="F21" s="37">
+      <c r="D21" s="38">
+        <v>0</v>
+      </c>
+      <c r="E21" s="38">
+        <v>0</v>
+      </c>
+      <c r="F21" s="38">
         <v>3</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="39">
         <f>VLOOKUP(H21,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="40">
+      <c r="H21" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="41">
         <v>6</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="44">
+      <c r="K21" s="43"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="48"/>
-    </row>
-    <row r="22" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
+      <c r="AB21" s="49"/>
+    </row>
+    <row r="22" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="36">
         <v>13</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="38">
         <v>3</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="38">
         <v>3</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="38">
         <v>3</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="38">
         <v>3</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="39">
         <f>VLOOKUP(H22,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="40">
+      <c r="H22" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="41">
         <v>30</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="41">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="44">
+      <c r="K22" s="66"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="45">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AB22" s="48"/>
-    </row>
-    <row r="23" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+      <c r="AB22" s="49"/>
+    </row>
+    <row r="23" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="36">
         <v>14</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="37">
-        <v>0</v>
-      </c>
-      <c r="D23" s="37">
+      <c r="C23" s="38">
+        <v>0</v>
+      </c>
+      <c r="D23" s="38">
         <v>10</v>
       </c>
-      <c r="E23" s="37">
-        <v>0</v>
-      </c>
-      <c r="F23" s="37">
-        <v>0</v>
-      </c>
-      <c r="G23" s="38">
+      <c r="E23" s="38">
+        <v>0</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0</v>
+      </c>
+      <c r="G23" s="39">
         <f>VLOOKUP(H23,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="40">
+      <c r="H23" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="41">
         <v>20</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="41">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K23" s="65"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="44">
+      <c r="K23" s="66"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="45">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB23" s="48"/>
-    </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
+      <c r="AB23" s="49"/>
+    </row>
+    <row r="24" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
         <v>15</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="38">
         <v>1</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="38">
         <v>10</v>
       </c>
-      <c r="E24" s="37">
-        <v>2</v>
-      </c>
-      <c r="F24" s="37">
-        <v>0</v>
-      </c>
-      <c r="G24" s="38">
+      <c r="E24" s="38">
+        <v>2</v>
+      </c>
+      <c r="F24" s="38">
+        <v>0</v>
+      </c>
+      <c r="G24" s="39">
         <f>VLOOKUP(H24,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="40">
+      <c r="H24" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="41">
         <v>20</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="41">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="44">
+      <c r="K24" s="66"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB24" s="48"/>
-    </row>
-    <row r="25" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+      <c r="AB24" s="49"/>
+    </row>
+    <row r="25" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="36">
         <v>16</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="38">
         <v>10</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="38">
         <v>18</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="38">
         <v>3.5</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="38">
         <v>15</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="39">
         <f>VLOOKUP(H25,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="41">
         <v>30</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="41">
         <f t="shared" si="1"/>
         <v>46.5</v>
       </c>
-      <c r="K25" s="65"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="44">
+      <c r="K25" s="66"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="45">
         <f t="shared" si="2"/>
         <v>-16.5</v>
       </c>
-      <c r="AB25" s="48"/>
-    </row>
-    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+      <c r="AB25" s="49"/>
+    </row>
+    <row r="26" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="36">
         <v>17</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="70">
-        <v>2</v>
-      </c>
-      <c r="D26" s="70">
-        <v>2</v>
-      </c>
-      <c r="E26" s="70">
-        <v>2</v>
-      </c>
-      <c r="F26" s="70">
-        <v>2</v>
-      </c>
-      <c r="G26" s="71">
+      <c r="C26" s="71">
+        <v>2</v>
+      </c>
+      <c r="D26" s="71">
+        <v>2</v>
+      </c>
+      <c r="E26" s="71">
+        <v>2</v>
+      </c>
+      <c r="F26" s="71">
+        <v>2</v>
+      </c>
+      <c r="G26" s="72">
         <f>VLOOKUP(H26,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="72">
+      <c r="H26" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="73">
         <v>8</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="41">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="44">
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="76"/>
-    </row>
-    <row r="27" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
+      <c r="AB26" s="77"/>
+    </row>
+    <row r="27" spans="1:28" s="80" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="36">
         <v>18</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="38">
         <v>3</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="38">
         <v>1</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="38">
         <v>1</v>
       </c>
-      <c r="F27" s="37">
-        <v>0</v>
-      </c>
-      <c r="G27" s="71">
+      <c r="F27" s="38">
+        <v>0</v>
+      </c>
+      <c r="G27" s="72">
         <f>VLOOKUP(H27,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="78">
+      <c r="H27" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="79">
         <v>21</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="41">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="44">
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="45">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="AB27" s="48"/>
-    </row>
-    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="AB27" s="49"/>
+    </row>
+    <row r="28" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="36">
         <v>19</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="81">
-        <v>2</v>
-      </c>
-      <c r="D28" s="81">
-        <v>0</v>
-      </c>
-      <c r="E28" s="81">
-        <v>0</v>
-      </c>
-      <c r="F28" s="81">
+      <c r="C28" s="82">
+        <v>2</v>
+      </c>
+      <c r="D28" s="82">
+        <v>0</v>
+      </c>
+      <c r="E28" s="82">
+        <v>0</v>
+      </c>
+      <c r="F28" s="82">
         <v>4</v>
       </c>
-      <c r="G28" s="71">
+      <c r="G28" s="72">
         <f>VLOOKUP(H28,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="40">
+      <c r="H28" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="41">
         <v>10</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="44">
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="45">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AB28" s="48"/>
-    </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
+      <c r="AB28" s="49"/>
+    </row>
+    <row r="29" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="36">
         <v>20</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="38">
         <v>6</v>
       </c>
-      <c r="D29" s="37">
-        <v>0</v>
-      </c>
-      <c r="E29" s="37">
-        <v>0</v>
-      </c>
-      <c r="F29" s="37">
+      <c r="D29" s="38">
+        <v>0</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0</v>
+      </c>
+      <c r="F29" s="38">
         <v>10</v>
       </c>
-      <c r="G29" s="71">
+      <c r="G29" s="72">
         <f>VLOOKUP(H29,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="40">
+      <c r="H29" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="41">
         <v>5</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="41">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="44">
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="45">
         <f t="shared" si="2"/>
         <v>-11</v>
       </c>
-      <c r="AB29" s="48"/>
-    </row>
-    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="35">
+      <c r="AB29" s="49"/>
+    </row>
+    <row r="30" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="36">
         <v>21</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="70">
-        <v>0</v>
-      </c>
-      <c r="D30" s="70">
+      <c r="C30" s="71">
+        <v>0</v>
+      </c>
+      <c r="D30" s="71">
         <v>9</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="71">
         <v>18.5</v>
       </c>
-      <c r="F30" s="70">
-        <v>0</v>
-      </c>
-      <c r="G30" s="71">
+      <c r="F30" s="71">
+        <v>0</v>
+      </c>
+      <c r="G30" s="72">
         <f>VLOOKUP(H30,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="72">
+      <c r="H30" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="73">
         <v>25</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="41">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="44">
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="45">
         <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
-      <c r="AB30" s="48"/>
-    </row>
-    <row r="31" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="AB30" s="49"/>
+    </row>
+    <row r="31" spans="1:28" s="80" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="36">
         <v>22</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="38">
         <v>5</v>
       </c>
-      <c r="D31" s="37">
-        <v>0</v>
-      </c>
-      <c r="E31" s="37">
-        <v>0</v>
-      </c>
-      <c r="F31" s="37">
-        <v>0</v>
-      </c>
-      <c r="G31" s="71">
+      <c r="D31" s="38">
+        <v>0</v>
+      </c>
+      <c r="E31" s="38">
+        <v>0</v>
+      </c>
+      <c r="F31" s="38">
+        <v>0</v>
+      </c>
+      <c r="G31" s="72">
         <f>VLOOKUP(H31,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="78">
+      <c r="H31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="79">
         <v>12</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="41">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="44">
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AB31" s="48"/>
-    </row>
-    <row r="32" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
+      <c r="AB31" s="49"/>
+    </row>
+    <row r="32" spans="1:28" s="80" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="36">
         <v>23</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="38">
         <v>3</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="38">
         <v>3</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="38">
         <v>3</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="38">
         <v>3</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="72">
         <f>VLOOKUP(H32,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="78">
+      <c r="H32" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="79">
         <v>12</v>
       </c>
-      <c r="J32" s="78">
+      <c r="J32" s="79">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="44">
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="48"/>
-    </row>
-    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+      <c r="AB32" s="49"/>
+    </row>
+    <row r="33" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="36">
         <v>24</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="81">
-        <v>0</v>
-      </c>
-      <c r="D33" s="81">
-        <v>0</v>
-      </c>
-      <c r="E33" s="81">
+      <c r="C33" s="82">
+        <v>0</v>
+      </c>
+      <c r="D33" s="82">
+        <v>0</v>
+      </c>
+      <c r="E33" s="82">
         <v>10</v>
       </c>
-      <c r="F33" s="81">
-        <v>0</v>
-      </c>
-      <c r="G33" s="71">
+      <c r="F33" s="82">
+        <v>0</v>
+      </c>
+      <c r="G33" s="72">
         <f>VLOOKUP(H33,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="40">
+      <c r="H33" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="41">
         <v>10</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="41">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="75"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="75"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="44">
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="48"/>
-    </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
+      <c r="AB33" s="49"/>
+    </row>
+    <row r="34" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="36">
         <v>25</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="37">
-        <v>0</v>
-      </c>
-      <c r="D34" s="37">
-        <v>0</v>
-      </c>
-      <c r="E34" s="37">
+      <c r="C34" s="38">
+        <v>0</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0</v>
+      </c>
+      <c r="E34" s="38">
         <v>0.5</v>
       </c>
-      <c r="F34" s="37">
-        <v>0</v>
-      </c>
-      <c r="G34" s="71">
+      <c r="F34" s="38">
+        <v>0</v>
+      </c>
+      <c r="G34" s="72">
         <f>VLOOKUP(H34,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" s="40">
-        <v>0</v>
-      </c>
-      <c r="J34" s="40">
+      <c r="H34" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="41">
+        <v>0</v>
+      </c>
+      <c r="J34" s="41">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="44">
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="45">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="AB34" s="48"/>
-    </row>
-    <row r="35" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="35">
+      <c r="AB34" s="49"/>
+    </row>
+    <row r="35" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="36">
         <v>27</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="37">
-        <v>0</v>
-      </c>
-      <c r="D35" s="37">
-        <v>0</v>
-      </c>
-      <c r="E35" s="37">
-        <v>0</v>
-      </c>
-      <c r="F35" s="37">
+      <c r="C35" s="38">
+        <v>0</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0</v>
+      </c>
+      <c r="E35" s="38">
+        <v>0</v>
+      </c>
+      <c r="F35" s="38">
         <v>3</v>
       </c>
-      <c r="G35" s="71">
+      <c r="G35" s="72">
         <f>VLOOKUP(H35,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40">
+      <c r="H35" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="44">
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="45">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="AB35" s="48"/>
-    </row>
-    <row r="36" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="35">
+      <c r="AB35" s="49"/>
+    </row>
+    <row r="36" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="36">
         <v>28</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="37">
-        <v>2</v>
-      </c>
-      <c r="D36" s="37">
-        <v>0</v>
-      </c>
-      <c r="E36" s="37">
-        <v>0</v>
-      </c>
-      <c r="F36" s="37">
+      <c r="C36" s="38">
+        <v>2</v>
+      </c>
+      <c r="D36" s="38">
+        <v>0</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0</v>
+      </c>
+      <c r="F36" s="38">
         <v>8</v>
       </c>
-      <c r="G36" s="71">
+      <c r="G36" s="72">
         <f>VLOOKUP(H36,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40">
+      <c r="H36" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="44">
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="45">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="AB36" s="48"/>
-    </row>
-    <row r="37" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="35">
+      <c r="AB36" s="49"/>
+    </row>
+    <row r="37" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="36">
         <v>29</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="37">
-        <v>0</v>
-      </c>
-      <c r="D37" s="37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="37">
+      <c r="C37" s="38">
+        <v>0</v>
+      </c>
+      <c r="D37" s="38">
+        <v>0</v>
+      </c>
+      <c r="E37" s="38">
+        <v>0</v>
+      </c>
+      <c r="F37" s="38">
         <v>4</v>
       </c>
-      <c r="G37" s="71">
+      <c r="G37" s="72">
         <f>VLOOKUP(H37,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40">
+      <c r="H37" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="44">
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="45">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="AB37" s="48"/>
-    </row>
-    <row r="38" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="35">
+      <c r="AB37" s="49"/>
+    </row>
+    <row r="38" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="36">
         <v>30</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="38">
         <v>5</v>
       </c>
-      <c r="D38" s="37">
-        <v>0</v>
-      </c>
-      <c r="E38" s="37">
-        <v>0</v>
-      </c>
-      <c r="F38" s="37">
-        <v>0</v>
-      </c>
-      <c r="G38" s="71">
+      <c r="D38" s="38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="72">
         <f>VLOOKUP(H38,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40">
+      <c r="H38" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="44">
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="45">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="AB38" s="48"/>
-    </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="35">
+      <c r="AB38" s="49"/>
+    </row>
+    <row r="39" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="36">
         <v>31</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="37">
-        <v>0</v>
-      </c>
-      <c r="D39" s="37">
-        <v>0</v>
-      </c>
-      <c r="E39" s="37">
-        <v>0</v>
-      </c>
-      <c r="F39" s="37">
+      <c r="C39" s="38">
+        <v>0</v>
+      </c>
+      <c r="D39" s="38">
+        <v>0</v>
+      </c>
+      <c r="E39" s="38">
+        <v>0</v>
+      </c>
+      <c r="F39" s="38">
         <v>4</v>
       </c>
-      <c r="G39" s="71">
+      <c r="G39" s="72">
         <f>VLOOKUP(H39,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40">
+      <c r="H39" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="73"/>
-      <c r="Y39" s="73"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="44">
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="45">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="AB39" s="48"/>
-    </row>
-    <row r="40" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="35">
+      <c r="AB39" s="49"/>
+    </row>
+    <row r="40" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="36">
         <v>32</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="37">
-        <v>0</v>
-      </c>
-      <c r="D40" s="37">
-        <v>0</v>
-      </c>
-      <c r="E40" s="37">
-        <v>0</v>
-      </c>
-      <c r="F40" s="37">
+      <c r="C40" s="38">
+        <v>0</v>
+      </c>
+      <c r="D40" s="38">
+        <v>0</v>
+      </c>
+      <c r="E40" s="38">
+        <v>0</v>
+      </c>
+      <c r="F40" s="38">
         <v>6</v>
       </c>
-      <c r="G40" s="71">
+      <c r="G40" s="72">
         <f>VLOOKUP(H40,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40">
+      <c r="H40" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="44">
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="74"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="45">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="AB40" s="48"/>
-    </row>
-    <row r="41" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="35">
+      <c r="AB40" s="49"/>
+    </row>
+    <row r="41" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="36">
         <v>33</v>
       </c>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="37">
-        <v>2</v>
-      </c>
-      <c r="D41" s="37">
+      <c r="C41" s="38">
+        <v>2</v>
+      </c>
+      <c r="D41" s="38">
         <v>1</v>
       </c>
-      <c r="E41" s="37">
-        <v>2</v>
-      </c>
-      <c r="F41" s="37">
-        <v>2</v>
-      </c>
-      <c r="G41" s="71">
+      <c r="E41" s="38">
+        <v>2</v>
+      </c>
+      <c r="F41" s="38">
+        <v>2</v>
+      </c>
+      <c r="G41" s="72">
         <f>VLOOKUP(H41,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" s="40">
+      <c r="H41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="41">
         <v>8</v>
       </c>
-      <c r="J41" s="40">
+      <c r="J41" s="41">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="44">
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="45">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB41" s="48"/>
-    </row>
-    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35">
+      <c r="AB41" s="49"/>
+    </row>
+    <row r="42" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36">
         <v>34</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="37">
-        <v>0</v>
-      </c>
-      <c r="D42" s="37">
-        <v>0</v>
-      </c>
-      <c r="E42" s="37">
-        <v>0</v>
-      </c>
-      <c r="F42" s="37">
-        <v>0</v>
-      </c>
-      <c r="G42" s="71">
+      <c r="C42" s="38">
+        <v>0</v>
+      </c>
+      <c r="D42" s="38">
+        <v>0</v>
+      </c>
+      <c r="E42" s="38">
+        <v>0</v>
+      </c>
+      <c r="F42" s="38">
+        <v>0</v>
+      </c>
+      <c r="G42" s="72">
         <f>VLOOKUP(H42,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40">
+      <c r="H42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="44">
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="74"/>
+      <c r="U42" s="74"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="48"/>
-    </row>
-    <row r="43" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="35">
+      <c r="AB42" s="49"/>
+    </row>
+    <row r="43" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="36">
         <v>35</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="37">
-        <v>0</v>
-      </c>
-      <c r="D43" s="37">
+      <c r="C43" s="38">
+        <v>0</v>
+      </c>
+      <c r="D43" s="38">
         <v>1</v>
       </c>
-      <c r="E43" s="37">
-        <v>0</v>
-      </c>
-      <c r="F43" s="37">
-        <v>0</v>
-      </c>
-      <c r="G43" s="71">
+      <c r="E43" s="38">
+        <v>0</v>
+      </c>
+      <c r="F43" s="38">
+        <v>0</v>
+      </c>
+      <c r="G43" s="72">
         <f>VLOOKUP(H43,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="40">
-        <v>2</v>
-      </c>
-      <c r="J43" s="40">
+      <c r="H43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="41">
+        <v>2</v>
+      </c>
+      <c r="J43" s="41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="44">
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="45">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB43" s="48"/>
-    </row>
-    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35">
+      <c r="AB43" s="49"/>
+    </row>
+    <row r="44" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36">
         <v>36</v>
       </c>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="37">
-        <v>0</v>
-      </c>
-      <c r="D44" s="37">
-        <v>0</v>
-      </c>
-      <c r="E44" s="37">
+      <c r="C44" s="38">
+        <v>0</v>
+      </c>
+      <c r="D44" s="38">
+        <v>0</v>
+      </c>
+      <c r="E44" s="38">
         <v>4</v>
       </c>
-      <c r="F44" s="37">
-        <v>0</v>
-      </c>
-      <c r="G44" s="71">
+      <c r="F44" s="38">
+        <v>0</v>
+      </c>
+      <c r="G44" s="72">
         <f>VLOOKUP(H44,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="40">
+      <c r="H44" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="41">
         <v>5</v>
       </c>
-      <c r="J44" s="40">
+      <c r="J44" s="41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="73"/>
-      <c r="T44" s="73"/>
-      <c r="U44" s="73"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="73"/>
-      <c r="Y44" s="73"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="44">
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="45">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB44" s="48"/>
-    </row>
-    <row r="45" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="35">
+      <c r="AB44" s="49"/>
+    </row>
+    <row r="45" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="36">
         <v>37</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="38">
         <v>7</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="38">
         <v>1</v>
       </c>
-      <c r="E45" s="37">
-        <v>0</v>
-      </c>
-      <c r="F45" s="37">
-        <v>0</v>
-      </c>
-      <c r="G45" s="71">
+      <c r="E45" s="38">
+        <v>0</v>
+      </c>
+      <c r="F45" s="38">
+        <v>0</v>
+      </c>
+      <c r="G45" s="72">
         <f>VLOOKUP(H45,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40">
+      <c r="H45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="73"/>
-      <c r="U45" s="73"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="44">
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="74"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="45">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="AB45" s="48"/>
-    </row>
-    <row r="46" spans="1:28" s="86" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="35">
+      <c r="AB45" s="49"/>
+    </row>
+    <row r="46" spans="1:28" s="87" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="36">
         <v>39</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="37">
-        <v>0</v>
-      </c>
-      <c r="D46" s="37">
-        <v>0</v>
-      </c>
-      <c r="E46" s="37">
+      <c r="C46" s="38">
+        <v>0</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0</v>
+      </c>
+      <c r="E46" s="38">
         <v>2.5</v>
       </c>
-      <c r="F46" s="37">
-        <v>0</v>
-      </c>
-      <c r="G46" s="71">
+      <c r="F46" s="38">
+        <v>0</v>
+      </c>
+      <c r="G46" s="72">
         <f>VLOOKUP(H46,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="40">
+      <c r="H46" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="41">
         <v>8</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="41">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="48"/>
-    </row>
-    <row r="47" spans="1:28" s="86" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="35">
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="49"/>
+    </row>
+    <row r="47" spans="1:28" s="87" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="36">
         <v>40</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="37">
-        <v>2</v>
-      </c>
-      <c r="D47" s="37">
-        <v>0</v>
-      </c>
-      <c r="E47" s="37">
-        <v>0</v>
-      </c>
-      <c r="F47" s="37">
-        <v>0</v>
-      </c>
-      <c r="G47" s="71">
+      <c r="C47" s="38">
+        <v>2</v>
+      </c>
+      <c r="D47" s="38">
+        <v>0</v>
+      </c>
+      <c r="E47" s="38">
+        <v>0</v>
+      </c>
+      <c r="F47" s="38">
+        <v>0</v>
+      </c>
+      <c r="G47" s="72">
         <f>VLOOKUP(H47,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I47" s="40">
+      <c r="H47" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="41">
         <v>8</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="41">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="85"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="44"/>
-      <c r="AB47" s="48"/>
-    </row>
-    <row r="48" spans="1:28" s="46" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
-      <c r="B48" s="24" t="s">
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="49"/>
+    </row>
+    <row r="48" spans="1:28" s="47" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="88"/>
+      <c r="B48" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="75"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="75"/>
-      <c r="X48" s="75"/>
-      <c r="Y48" s="75"/>
-      <c r="Z48" s="74"/>
-      <c r="AA48" s="90"/>
-      <c r="AB48" s="91"/>
-    </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="90"/>
+      <c r="S48" s="76"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="76"/>
+      <c r="X48" s="76"/>
+      <c r="Y48" s="76"/>
+      <c r="Z48" s="75"/>
+      <c r="AA48" s="91"/>
+      <c r="AB48" s="92"/>
+    </row>
+    <row r="49" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="36">
         <v>1</v>
       </c>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="37">
-        <v>0</v>
-      </c>
-      <c r="D49" s="37">
-        <v>0</v>
-      </c>
-      <c r="E49" s="37">
+      <c r="C49" s="38">
+        <v>0</v>
+      </c>
+      <c r="D49" s="38">
+        <v>0</v>
+      </c>
+      <c r="E49" s="38">
         <v>8.75</v>
       </c>
-      <c r="F49" s="37">
-        <v>0</v>
-      </c>
-      <c r="G49" s="71">
+      <c r="F49" s="38">
+        <v>0</v>
+      </c>
+      <c r="G49" s="72">
         <f>VLOOKUP(H49,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="41">
         <v>7</v>
       </c>
-      <c r="J49" s="40">
+      <c r="J49" s="41">
         <f t="shared" ref="J49:J68" si="3">SUM(C49:F49)</f>
         <v>8.75</v>
       </c>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="92"/>
-      <c r="V49" s="123"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="121"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="44">
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="69"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="124"/>
+      <c r="W49" s="74"/>
+      <c r="X49" s="122"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="45">
         <f>I49-J49</f>
         <v>-1.75</v>
       </c>
-      <c r="AB49" s="48"/>
-    </row>
-    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
-        <v>2</v>
-      </c>
-      <c r="B50" s="69" t="s">
+      <c r="AB49" s="49"/>
+    </row>
+    <row r="50" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="36">
+        <v>2</v>
+      </c>
+      <c r="B50" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="37">
-        <v>0</v>
-      </c>
-      <c r="D50" s="37">
-        <v>0</v>
-      </c>
-      <c r="E50" s="37">
-        <v>0</v>
-      </c>
-      <c r="F50" s="37">
+      <c r="C50" s="38">
+        <v>0</v>
+      </c>
+      <c r="D50" s="38">
+        <v>0</v>
+      </c>
+      <c r="E50" s="38">
+        <v>0</v>
+      </c>
+      <c r="F50" s="38">
         <v>5</v>
       </c>
-      <c r="G50" s="71">
+      <c r="G50" s="72">
         <f>VLOOKUP(H50,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40">
+      <c r="H50" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="92"/>
-      <c r="V50" s="123"/>
-      <c r="W50" s="73"/>
-      <c r="X50" s="122"/>
-      <c r="Y50" s="73"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="44">
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="124"/>
+      <c r="W50" s="74"/>
+      <c r="X50" s="123"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="45">
         <f>I50-J50</f>
         <v>-5</v>
       </c>
-      <c r="AB50" s="48"/>
-    </row>
-    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
+      <c r="AB50" s="49"/>
+    </row>
+    <row r="51" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="36">
         <v>3</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="38">
         <v>7</v>
       </c>
-      <c r="D51" s="37">
-        <v>0</v>
-      </c>
-      <c r="E51" s="37">
-        <v>0</v>
-      </c>
-      <c r="F51" s="37">
-        <v>0</v>
-      </c>
-      <c r="G51" s="71">
+      <c r="D51" s="38">
+        <v>0</v>
+      </c>
+      <c r="E51" s="38">
+        <v>0</v>
+      </c>
+      <c r="F51" s="38">
+        <v>0</v>
+      </c>
+      <c r="G51" s="72">
         <f>VLOOKUP(H51,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40">
+      <c r="H51" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="93"/>
-      <c r="S51" s="68"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="92"/>
-      <c r="V51" s="123"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="122"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="94"/>
-      <c r="AB51" s="76"/>
-    </row>
-    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="124"/>
+      <c r="W51" s="74"/>
+      <c r="X51" s="123"/>
+      <c r="Y51" s="74"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="95"/>
+      <c r="AB51" s="77"/>
+    </row>
+    <row r="52" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="36">
         <v>4</v>
       </c>
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="38">
         <v>3</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="38">
         <v>1</v>
       </c>
-      <c r="E52" s="37">
-        <v>0</v>
-      </c>
-      <c r="F52" s="37">
-        <v>0</v>
-      </c>
-      <c r="G52" s="71">
+      <c r="E52" s="38">
+        <v>0</v>
+      </c>
+      <c r="F52" s="38">
+        <v>0</v>
+      </c>
+      <c r="G52" s="72">
         <f>VLOOKUP(H52,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="40">
+      <c r="I52" s="41">
         <v>8</v>
       </c>
-      <c r="J52" s="40">
+      <c r="J52" s="41">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="68"/>
-      <c r="U52" s="92"/>
-      <c r="V52" s="123"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="122"/>
-      <c r="Y52" s="73"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="94"/>
-      <c r="AB52" s="76"/>
-    </row>
-    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="74"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="124"/>
+      <c r="W52" s="74"/>
+      <c r="X52" s="123"/>
+      <c r="Y52" s="74"/>
+      <c r="Z52" s="53"/>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="77"/>
+    </row>
+    <row r="53" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="36">
         <v>5</v>
       </c>
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="38">
         <v>8</v>
       </c>
-      <c r="D53" s="37">
-        <v>0</v>
-      </c>
-      <c r="E53" s="37">
-        <v>0</v>
-      </c>
-      <c r="F53" s="37">
-        <v>0</v>
-      </c>
-      <c r="G53" s="71">
+      <c r="D53" s="38">
+        <v>0</v>
+      </c>
+      <c r="E53" s="38">
+        <v>0</v>
+      </c>
+      <c r="F53" s="38">
+        <v>0</v>
+      </c>
+      <c r="G53" s="72">
         <f>VLOOKUP(H53,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H53" s="39" t="s">
+      <c r="H53" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="40">
+      <c r="I53" s="41">
         <v>16</v>
       </c>
-      <c r="J53" s="40">
+      <c r="J53" s="41">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="93"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="92"/>
-      <c r="V53" s="123"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="122"/>
-      <c r="Y53" s="73"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="94"/>
-      <c r="AB53" s="76"/>
-    </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="35">
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="74"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="93"/>
+      <c r="V53" s="124"/>
+      <c r="W53" s="74"/>
+      <c r="X53" s="123"/>
+      <c r="Y53" s="74"/>
+      <c r="Z53" s="53"/>
+      <c r="AA53" s="95"/>
+      <c r="AB53" s="77"/>
+    </row>
+    <row r="54" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="36">
         <v>6</v>
       </c>
-      <c r="B54" s="69" t="s">
+      <c r="B54" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="37">
-        <v>0</v>
-      </c>
-      <c r="D54" s="37">
-        <v>0</v>
-      </c>
-      <c r="E54" s="37">
-        <v>0</v>
-      </c>
-      <c r="F54" s="37">
+      <c r="C54" s="38">
+        <v>0</v>
+      </c>
+      <c r="D54" s="38">
+        <v>0</v>
+      </c>
+      <c r="E54" s="38">
+        <v>0</v>
+      </c>
+      <c r="F54" s="38">
         <v>10</v>
       </c>
-      <c r="G54" s="71">
+      <c r="G54" s="72">
         <f>VLOOKUP(H54,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H54" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="40">
+      <c r="I54" s="41">
         <v>8</v>
       </c>
-      <c r="J54" s="40">
+      <c r="J54" s="41">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="92"/>
-      <c r="V54" s="123"/>
-      <c r="W54" s="73"/>
-      <c r="X54" s="122"/>
-      <c r="Y54" s="73"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="94"/>
-      <c r="AB54" s="76"/>
-    </row>
-    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="35">
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="93"/>
+      <c r="V54" s="124"/>
+      <c r="W54" s="74"/>
+      <c r="X54" s="123"/>
+      <c r="Y54" s="74"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="77"/>
+    </row>
+    <row r="55" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="36">
         <v>7</v>
       </c>
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="37">
-        <v>0</v>
-      </c>
-      <c r="D55" s="37">
-        <v>0</v>
-      </c>
-      <c r="E55" s="37">
-        <v>0</v>
-      </c>
-      <c r="F55" s="37">
-        <v>0</v>
-      </c>
-      <c r="G55" s="71">
+      <c r="C55" s="38">
+        <v>0</v>
+      </c>
+      <c r="D55" s="38">
+        <v>0</v>
+      </c>
+      <c r="E55" s="38">
+        <v>0</v>
+      </c>
+      <c r="F55" s="38">
+        <v>0</v>
+      </c>
+      <c r="G55" s="72">
         <f>VLOOKUP(H55,Feuil2!$A$1:$B$3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="H55" s="39" t="s">
+      <c r="H55" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I55" s="41">
         <v>8</v>
       </c>
-      <c r="J55" s="40">
+      <c r="J55" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="93"/>
-      <c r="S55" s="73"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="92"/>
-      <c r="V55" s="123"/>
-      <c r="W55" s="73"/>
-      <c r="X55" s="122"/>
-      <c r="Y55" s="73"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="94"/>
-      <c r="AB55" s="76"/>
-    </row>
-    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="35">
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="94"/>
+      <c r="S55" s="74"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="93"/>
+      <c r="V55" s="124"/>
+      <c r="W55" s="74"/>
+      <c r="X55" s="123"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="53"/>
+      <c r="AA55" s="95"/>
+      <c r="AB55" s="77"/>
+    </row>
+    <row r="56" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="36">
         <v>8</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="38">
         <v>5</v>
       </c>
-      <c r="D56" s="37">
-        <v>0</v>
-      </c>
-      <c r="E56" s="37">
-        <v>0</v>
-      </c>
-      <c r="F56" s="37">
-        <v>0</v>
-      </c>
-      <c r="G56" s="71">
+      <c r="D56" s="38">
+        <v>0</v>
+      </c>
+      <c r="E56" s="38">
+        <v>0</v>
+      </c>
+      <c r="F56" s="38">
+        <v>0</v>
+      </c>
+      <c r="G56" s="72">
         <f>VLOOKUP(H56,Feuil2!$A$1:$B$3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H56" s="39" t="s">
+      <c r="H56" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="40">
+      <c r="I56" s="41">
         <v>8</v>
       </c>
-      <c r="J56" s="40">
+      <c r="J56" s="41">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="93"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="94"/>
-      <c r="AB56" s="76"/>
-    </row>
-    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="35">
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="74"/>
+      <c r="U56" s="74"/>
+      <c r="V56" s="53"/>
+      <c r="W56" s="74"/>
+      <c r="X56" s="74"/>
+      <c r="Y56" s="74"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="95"/>
+      <c r="AB56" s="77"/>
+    </row>
+    <row r="57" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="36">
         <v>9</v>
       </c>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="37">
-        <v>0</v>
-      </c>
-      <c r="D57" s="37">
-        <v>0</v>
-      </c>
-      <c r="E57" s="37">
-        <v>0</v>
-      </c>
-      <c r="F57" s="37">
+      <c r="C57" s="38">
+        <v>0</v>
+      </c>
+      <c r="D57" s="38">
+        <v>0</v>
+      </c>
+      <c r="E57" s="38">
+        <v>0</v>
+      </c>
+      <c r="F57" s="38">
         <v>8</v>
       </c>
-      <c r="G57" s="71">
+      <c r="G57" s="72">
         <f>VLOOKUP(H57,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I57" s="40">
+      <c r="H57" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="41">
         <v>8</v>
       </c>
-      <c r="J57" s="40">
+      <c r="J57" s="41">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="93"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="73"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="73"/>
-      <c r="X57" s="73"/>
-      <c r="Y57" s="73"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="94"/>
-      <c r="AB57" s="76"/>
-    </row>
-    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="35">
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="74"/>
+      <c r="T57" s="74"/>
+      <c r="U57" s="74"/>
+      <c r="V57" s="142"/>
+      <c r="W57" s="74"/>
+      <c r="X57" s="74"/>
+      <c r="Y57" s="74"/>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="95"/>
+      <c r="AB57" s="77"/>
+    </row>
+    <row r="58" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="36">
         <v>10</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="37">
-        <v>0</v>
-      </c>
-      <c r="D58" s="37">
-        <v>0</v>
-      </c>
-      <c r="E58" s="37">
+      <c r="C58" s="38">
+        <v>0</v>
+      </c>
+      <c r="D58" s="38">
+        <v>0</v>
+      </c>
+      <c r="E58" s="38">
         <v>1.5</v>
       </c>
-      <c r="F58" s="37">
-        <v>0</v>
-      </c>
-      <c r="G58" s="71">
+      <c r="F58" s="38">
+        <v>0</v>
+      </c>
+      <c r="G58" s="72">
         <f>VLOOKUP(H58,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I58" s="40">
+      <c r="H58" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="41">
         <v>1.5</v>
       </c>
-      <c r="J58" s="40">
+      <c r="J58" s="41">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="93"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="141"/>
-      <c r="X58" s="73"/>
-      <c r="Y58" s="73"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="94"/>
-      <c r="AB58" s="76"/>
-    </row>
-    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="35">
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="74"/>
+      <c r="U58" s="74"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="74"/>
+      <c r="Y58" s="74"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="95"/>
+      <c r="AB58" s="77"/>
+    </row>
+    <row r="59" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="36">
         <v>11</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="37">
-        <v>0</v>
-      </c>
-      <c r="D59" s="37">
-        <v>0</v>
-      </c>
-      <c r="E59" s="37">
+      <c r="C59" s="38">
+        <v>0</v>
+      </c>
+      <c r="D59" s="38">
+        <v>0</v>
+      </c>
+      <c r="E59" s="38">
         <v>1.25</v>
       </c>
-      <c r="F59" s="37">
-        <v>0</v>
-      </c>
-      <c r="G59" s="71">
+      <c r="F59" s="38">
+        <v>0</v>
+      </c>
+      <c r="G59" s="72">
         <f>VLOOKUP(H59,Feuil2!$A$1:$B$3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I59" s="40">
+      <c r="H59" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="41">
         <v>1</v>
       </c>
-      <c r="J59" s="40">
+      <c r="J59" s="41">
         <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="93"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="124"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="73"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="94"/>
-      <c r="AB59" s="76"/>
-    </row>
-    <row r="60" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="35">
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="141"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="95"/>
+      <c r="AB59" s="77"/>
+    </row>
+    <row r="60" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="36">
         <v>12</v>
       </c>
-      <c r="B60" s="69"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="71" t="e">
+      <c r="B60" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="38">
+        <v>0</v>
+      </c>
+      <c r="D60" s="38">
+        <v>0</v>
+      </c>
+      <c r="E60" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F60" s="38">
+        <v>0</v>
+      </c>
+      <c r="G60" s="72">
         <f>VLOOKUP(H60,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40">
+        <v>0</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="J60" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="93"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="73"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="94"/>
-      <c r="AB60" s="76"/>
-    </row>
-    <row r="61" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="74"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="142"/>
+      <c r="X60" s="74"/>
+      <c r="Y60" s="74"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="95"/>
+      <c r="AB60" s="77"/>
+    </row>
+    <row r="61" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="36">
         <v>13</v>
       </c>
-      <c r="B61" s="69"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="71" t="e">
+      <c r="B61" s="70"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="72" t="e">
         <f>VLOOKUP(H61,Feuil2!$A$1:$B$3,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40">
+      <c r="H61" s="40"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="73"/>
-      <c r="R61" s="93"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="73"/>
-      <c r="U61" s="73"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="73"/>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
-      <c r="Z61" s="52"/>
-      <c r="AA61" s="94"/>
-      <c r="AB61" s="76"/>
-    </row>
-    <row r="62" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="35">
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="94"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="74"/>
+      <c r="X61" s="74"/>
+      <c r="Y61" s="74"/>
+      <c r="Z61" s="53"/>
+      <c r="AA61" s="95"/>
+      <c r="AB61" s="77"/>
+    </row>
+    <row r="62" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="36">
         <v>14</v>
       </c>
-      <c r="B62" s="69"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="71" t="e">
+      <c r="B62" s="70"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="72" t="e">
         <f>VLOOKUP(H62,Feuil2!$A$1:$B$3,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H62" s="39"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40">
+      <c r="H62" s="40"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="73"/>
-      <c r="R62" s="93"/>
-      <c r="S62" s="73"/>
-      <c r="T62" s="73"/>
-      <c r="U62" s="73"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="73"/>
-      <c r="X62" s="73"/>
-      <c r="Y62" s="73"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="94"/>
-      <c r="AB62" s="76"/>
-    </row>
-    <row r="63" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="35">
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="74"/>
+      <c r="P62" s="74"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="74"/>
+      <c r="T62" s="74"/>
+      <c r="U62" s="74"/>
+      <c r="V62" s="53"/>
+      <c r="W62" s="74"/>
+      <c r="X62" s="74"/>
+      <c r="Y62" s="74"/>
+      <c r="Z62" s="53"/>
+      <c r="AA62" s="95"/>
+      <c r="AB62" s="77"/>
+    </row>
+    <row r="63" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="36">
         <v>15</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="71" t="e">
+      <c r="B63" s="70"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="72" t="e">
         <f>VLOOKUP(H63,Feuil2!$A$1:$B$3,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H63" s="39"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40">
+      <c r="H63" s="40"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="73"/>
-      <c r="P63" s="73"/>
-      <c r="Q63" s="73"/>
-      <c r="R63" s="93"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="73"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="73"/>
-      <c r="X63" s="73"/>
-      <c r="Y63" s="73"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="94"/>
-      <c r="AB63" s="76"/>
-    </row>
-    <row r="64" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="35">
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="74"/>
+      <c r="Q63" s="74"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="74"/>
+      <c r="T63" s="74"/>
+      <c r="U63" s="74"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="74"/>
+      <c r="X63" s="74"/>
+      <c r="Y63" s="74"/>
+      <c r="Z63" s="53"/>
+      <c r="AA63" s="95"/>
+      <c r="AB63" s="77"/>
+    </row>
+    <row r="64" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="36">
         <v>16</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="71" t="e">
+      <c r="B64" s="70"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="72" t="e">
         <f>VLOOKUP(H64,Feuil2!$A$1:$B$3,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H64" s="39"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40">
+      <c r="H64" s="40"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="73"/>
-      <c r="P64" s="73"/>
-      <c r="Q64" s="73"/>
-      <c r="R64" s="93"/>
-      <c r="S64" s="73"/>
-      <c r="T64" s="73"/>
-      <c r="U64" s="73"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="73"/>
-      <c r="X64" s="73"/>
-      <c r="Y64" s="73"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="94"/>
-      <c r="AB64" s="76"/>
-    </row>
-    <row r="65" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="35">
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="74"/>
+      <c r="P64" s="74"/>
+      <c r="Q64" s="74"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="74"/>
+      <c r="T64" s="74"/>
+      <c r="U64" s="74"/>
+      <c r="V64" s="53"/>
+      <c r="W64" s="74"/>
+      <c r="X64" s="74"/>
+      <c r="Y64" s="74"/>
+      <c r="Z64" s="53"/>
+      <c r="AA64" s="95"/>
+      <c r="AB64" s="77"/>
+    </row>
+    <row r="65" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="36">
         <v>17</v>
       </c>
-      <c r="B65" s="69"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="71" t="e">
+      <c r="B65" s="70"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="72" t="e">
         <f>VLOOKUP(H65,Feuil2!$A$1:$B$3,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H65" s="39"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40">
+      <c r="H65" s="40"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="73"/>
-      <c r="R65" s="93"/>
-      <c r="S65" s="73"/>
-      <c r="T65" s="73"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="73"/>
-      <c r="X65" s="73"/>
-      <c r="Y65" s="73"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="94"/>
-      <c r="AB65" s="76"/>
-    </row>
-    <row r="66" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="35">
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="74"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="74"/>
+      <c r="P65" s="74"/>
+      <c r="Q65" s="74"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="74"/>
+      <c r="T65" s="74"/>
+      <c r="U65" s="74"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="74"/>
+      <c r="X65" s="74"/>
+      <c r="Y65" s="74"/>
+      <c r="Z65" s="53"/>
+      <c r="AA65" s="95"/>
+      <c r="AB65" s="77"/>
+    </row>
+    <row r="66" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="36">
         <v>19</v>
       </c>
-      <c r="B66" s="69"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="71" t="e">
+      <c r="B66" s="70"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="72" t="e">
         <f>VLOOKUP(H66,Feuil2!$A$1:$B$3,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40">
+      <c r="H66" s="40"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="96"/>
-      <c r="O66" s="95"/>
-      <c r="P66" s="95"/>
-      <c r="Q66" s="95"/>
-      <c r="R66" s="96"/>
-      <c r="S66" s="95"/>
-      <c r="T66" s="95"/>
-      <c r="U66" s="95"/>
-      <c r="V66" s="96"/>
-      <c r="W66" s="95"/>
-      <c r="X66" s="95"/>
-      <c r="Y66" s="95"/>
-      <c r="Z66" s="96"/>
-      <c r="AA66" s="97">
+      <c r="K66" s="96"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="97"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="97"/>
+      <c r="S66" s="96"/>
+      <c r="T66" s="96"/>
+      <c r="U66" s="96"/>
+      <c r="V66" s="97"/>
+      <c r="W66" s="96"/>
+      <c r="X66" s="96"/>
+      <c r="Y66" s="96"/>
+      <c r="Z66" s="97"/>
+      <c r="AA66" s="98">
         <f>I66-J66</f>
         <v>0</v>
       </c>
-      <c r="AB66" s="98"/>
+      <c r="AB66" s="99"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="140" t="s">
+      <c r="A67" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="140"/>
-      <c r="C67" s="99">
+      <c r="B67" s="130"/>
+      <c r="C67" s="100">
         <f>SUM(C10:C66)</f>
         <v>99.5</v>
       </c>
-      <c r="D67" s="99">
+      <c r="D67" s="100">
         <f>SUM(D10:D66)</f>
         <v>84</v>
       </c>
-      <c r="E67" s="99">
+      <c r="E67" s="100">
         <f>SUM(E10:E66)</f>
-        <v>74.5</v>
-      </c>
-      <c r="F67" s="99">
+        <v>74.75</v>
+      </c>
+      <c r="F67" s="100">
         <f>SUM(F10:F66)</f>
         <v>103</v>
       </c>
-      <c r="G67" s="100"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="99">
+      <c r="G67" s="101"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="100">
         <f t="shared" si="3"/>
-        <v>361</v>
-      </c>
-      <c r="K67" s="102"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="102"/>
-      <c r="N67" s="102"/>
-      <c r="O67" s="102"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="102"/>
-      <c r="S67" s="102"/>
-      <c r="T67" s="102"/>
-      <c r="U67" s="102"/>
-      <c r="V67" s="102"/>
-      <c r="W67" s="102"/>
-      <c r="X67" s="102"/>
-      <c r="Y67" s="102"/>
-      <c r="Z67" s="102"/>
-      <c r="AA67" s="99">
+        <v>361.25</v>
+      </c>
+      <c r="K67" s="103"/>
+      <c r="L67" s="103"/>
+      <c r="M67" s="103"/>
+      <c r="N67" s="103"/>
+      <c r="O67" s="103"/>
+      <c r="P67" s="103"/>
+      <c r="Q67" s="103"/>
+      <c r="R67" s="103"/>
+      <c r="S67" s="103"/>
+      <c r="T67" s="103"/>
+      <c r="U67" s="103"/>
+      <c r="V67" s="103"/>
+      <c r="W67" s="103"/>
+      <c r="X67" s="103"/>
+      <c r="Y67" s="103"/>
+      <c r="Z67" s="103"/>
+      <c r="AA67" s="100">
         <f>SUM(AA10:AA66)</f>
         <v>0.25</v>
       </c>
-      <c r="AB67" s="103"/>
+      <c r="AB67" s="104"/>
     </row>
     <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="135" t="s">
+      <c r="A68" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="135"/>
-      <c r="C68" s="99">
+      <c r="B68" s="125"/>
+      <c r="C68" s="100">
         <f>135-C67</f>
         <v>35.5</v>
       </c>
-      <c r="D68" s="99">
+      <c r="D68" s="100">
         <f>135-D67</f>
         <v>51</v>
       </c>
-      <c r="E68" s="99">
+      <c r="E68" s="100">
         <f>135-E67</f>
-        <v>60.5</v>
-      </c>
-      <c r="F68" s="99">
+        <v>60.25</v>
+      </c>
+      <c r="F68" s="100">
         <f>135-F67</f>
         <v>32</v>
       </c>
-      <c r="G68" s="100"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="99">
+      <c r="G68" s="101"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="100">
         <f t="shared" si="3"/>
-        <v>179</v>
-      </c>
-      <c r="K68" s="102"/>
-      <c r="L68" s="102"/>
-      <c r="M68" s="102"/>
-      <c r="N68" s="102"/>
-      <c r="O68" s="102"/>
-      <c r="P68" s="102"/>
-      <c r="Q68" s="102"/>
-      <c r="R68" s="102"/>
-      <c r="S68" s="102"/>
-      <c r="T68" s="102"/>
-      <c r="U68" s="102"/>
-      <c r="V68" s="102"/>
-      <c r="W68" s="102"/>
-      <c r="X68" s="102"/>
-      <c r="Y68" s="102"/>
-      <c r="Z68" s="102"/>
-      <c r="AA68" s="102"/>
-      <c r="AB68" s="102"/>
+        <v>178.75</v>
+      </c>
+      <c r="K68" s="103"/>
+      <c r="L68" s="103"/>
+      <c r="M68" s="103"/>
+      <c r="N68" s="103"/>
+      <c r="O68" s="103"/>
+      <c r="P68" s="103"/>
+      <c r="Q68" s="103"/>
+      <c r="R68" s="103"/>
+      <c r="S68" s="103"/>
+      <c r="T68" s="103"/>
+      <c r="U68" s="103"/>
+      <c r="V68" s="103"/>
+      <c r="W68" s="103"/>
+      <c r="X68" s="103"/>
+      <c r="Y68" s="103"/>
+      <c r="Z68" s="103"/>
+      <c r="AA68" s="103"/>
+      <c r="AB68" s="103"/>
     </row>
     <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="136" t="s">
+      <c r="A69" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="136"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="99"/>
-      <c r="I69" s="99"/>
-      <c r="J69" s="99">
+      <c r="B69" s="126"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="100"/>
+      <c r="J69" s="100">
         <f>C69+D69+F69+E69</f>
         <v>0</v>
       </c>
-      <c r="K69" s="102"/>
-      <c r="L69" s="102"/>
-      <c r="M69" s="102"/>
-      <c r="N69" s="102"/>
-      <c r="O69" s="102"/>
-      <c r="P69" s="102"/>
-      <c r="Q69" s="102"/>
-      <c r="R69" s="102"/>
-      <c r="S69" s="102"/>
-      <c r="T69" s="102"/>
-      <c r="U69" s="102"/>
-      <c r="V69" s="102"/>
-      <c r="W69" s="102"/>
-      <c r="X69" s="102"/>
-      <c r="Y69" s="102"/>
-      <c r="Z69" s="102"/>
-      <c r="AA69" s="102"/>
-      <c r="AB69" s="102"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="103"/>
+      <c r="M69" s="103"/>
+      <c r="N69" s="103"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="103"/>
+      <c r="R69" s="103"/>
+      <c r="S69" s="103"/>
+      <c r="T69" s="103"/>
+      <c r="U69" s="103"/>
+      <c r="V69" s="103"/>
+      <c r="W69" s="103"/>
+      <c r="X69" s="103"/>
+      <c r="Y69" s="103"/>
+      <c r="Z69" s="103"/>
+      <c r="AA69" s="103"/>
+      <c r="AB69" s="103"/>
     </row>
     <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="135" t="s">
+      <c r="A70" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="135"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="104"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="105">
+      <c r="B70" s="125"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="106">
         <f>SUM(I10:I66)</f>
-        <v>386.5</v>
-      </c>
-      <c r="J70" s="99">
+        <v>386.75</v>
+      </c>
+      <c r="J70" s="100">
         <f>SUM(J10:J66)</f>
-        <v>361</v>
-      </c>
-      <c r="K70" s="102"/>
-      <c r="L70" s="102"/>
-      <c r="M70" s="102"/>
-      <c r="N70" s="102"/>
-      <c r="O70" s="102"/>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="102"/>
-      <c r="R70" s="102"/>
-      <c r="S70" s="102"/>
-      <c r="T70" s="102"/>
-      <c r="U70" s="102"/>
-      <c r="V70" s="102"/>
-      <c r="W70" s="102"/>
-      <c r="X70" s="102"/>
-      <c r="Y70" s="102"/>
-      <c r="Z70" s="102"/>
-      <c r="AA70" s="102"/>
-      <c r="AB70" s="102"/>
+        <v>361.25</v>
+      </c>
+      <c r="K70" s="103"/>
+      <c r="L70" s="103"/>
+      <c r="M70" s="103"/>
+      <c r="N70" s="103"/>
+      <c r="O70" s="103"/>
+      <c r="P70" s="103"/>
+      <c r="Q70" s="103"/>
+      <c r="R70" s="103"/>
+      <c r="S70" s="103"/>
+      <c r="T70" s="103"/>
+      <c r="U70" s="103"/>
+      <c r="V70" s="103"/>
+      <c r="W70" s="103"/>
+      <c r="X70" s="103"/>
+      <c r="Y70" s="103"/>
+      <c r="Z70" s="103"/>
+      <c r="AA70" s="103"/>
+      <c r="AB70" s="103"/>
     </row>
     <row r="71" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="106"/>
-      <c r="B71" s="106"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="107"/>
-      <c r="E71" s="107"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="107"/>
-      <c r="H71" s="107"/>
-      <c r="I71" s="107"/>
-      <c r="J71" s="107"/>
-      <c r="K71" s="102"/>
-      <c r="L71" s="102"/>
-      <c r="M71" s="102"/>
-      <c r="N71" s="102"/>
-      <c r="O71" s="102"/>
-      <c r="P71" s="102"/>
-      <c r="Q71" s="102"/>
-      <c r="R71" s="102"/>
-      <c r="S71" s="102"/>
-      <c r="T71" s="102"/>
-      <c r="U71" s="102"/>
-      <c r="V71" s="102"/>
-      <c r="W71" s="102"/>
-      <c r="X71" s="102"/>
-      <c r="Y71" s="102"/>
-      <c r="Z71" s="102"/>
-      <c r="AA71" s="102"/>
-      <c r="AB71" s="102"/>
+      <c r="A71" s="107"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="103"/>
+      <c r="L71" s="103"/>
+      <c r="M71" s="103"/>
+      <c r="N71" s="103"/>
+      <c r="O71" s="103"/>
+      <c r="P71" s="103"/>
+      <c r="Q71" s="103"/>
+      <c r="R71" s="103"/>
+      <c r="S71" s="103"/>
+      <c r="T71" s="103"/>
+      <c r="U71" s="103"/>
+      <c r="V71" s="103"/>
+      <c r="W71" s="103"/>
+      <c r="X71" s="103"/>
+      <c r="Y71" s="103"/>
+      <c r="Z71" s="103"/>
+      <c r="AA71" s="103"/>
+      <c r="AB71" s="103"/>
     </row>
     <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="136" t="s">
+      <c r="A72" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="136"/>
-      <c r="C72" s="99">
+      <c r="B72" s="126"/>
+      <c r="C72" s="100">
         <f>135*4</f>
         <v>540</v>
       </c>
-      <c r="D72" s="107"/>
-      <c r="E72" s="107"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="107"/>
-      <c r="J72" s="107"/>
-      <c r="K72" s="102"/>
-      <c r="L72" s="102"/>
-      <c r="M72" s="102"/>
-      <c r="N72" s="102"/>
-      <c r="O72" s="102"/>
-      <c r="P72" s="102"/>
-      <c r="Q72" s="102"/>
-      <c r="R72" s="102"/>
-      <c r="S72" s="102"/>
-      <c r="T72" s="102"/>
-      <c r="U72" s="102"/>
-      <c r="V72" s="102"/>
-      <c r="W72" s="102"/>
-      <c r="X72" s="102"/>
-      <c r="Y72" s="102"/>
-      <c r="Z72" s="102"/>
-      <c r="AA72" s="102"/>
-      <c r="AB72" s="102"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="103"/>
+      <c r="L72" s="103"/>
+      <c r="M72" s="103"/>
+      <c r="N72" s="103"/>
+      <c r="O72" s="103"/>
+      <c r="P72" s="103"/>
+      <c r="Q72" s="103"/>
+      <c r="R72" s="103"/>
+      <c r="S72" s="103"/>
+      <c r="T72" s="103"/>
+      <c r="U72" s="103"/>
+      <c r="V72" s="103"/>
+      <c r="W72" s="103"/>
+      <c r="X72" s="103"/>
+      <c r="Y72" s="103"/>
+      <c r="Z72" s="103"/>
+      <c r="AA72" s="103"/>
+      <c r="AB72" s="103"/>
     </row>
     <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="137" t="s">
+      <c r="A73" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="137"/>
-      <c r="C73" s="99">
+      <c r="B73" s="127"/>
+      <c r="C73" s="100">
         <f>C72-J70</f>
-        <v>179</v>
-      </c>
-      <c r="D73" s="107"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="107"/>
-      <c r="J73" s="107"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="102"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="102"/>
-      <c r="O73" s="102"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="102"/>
-      <c r="R73" s="102"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="102"/>
-      <c r="U73" s="102"/>
-      <c r="V73" s="102"/>
-      <c r="W73" s="102"/>
-      <c r="X73" s="102"/>
-      <c r="Y73" s="102"/>
-      <c r="Z73" s="102"/>
-      <c r="AA73" s="102"/>
-      <c r="AB73" s="102"/>
+        <v>178.75</v>
+      </c>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="103"/>
+      <c r="L73" s="103"/>
+      <c r="M73" s="103"/>
+      <c r="N73" s="103"/>
+      <c r="O73" s="103"/>
+      <c r="P73" s="103"/>
+      <c r="Q73" s="103"/>
+      <c r="R73" s="103"/>
+      <c r="S73" s="103"/>
+      <c r="T73" s="103"/>
+      <c r="U73" s="103"/>
+      <c r="V73" s="103"/>
+      <c r="W73" s="103"/>
+      <c r="X73" s="103"/>
+      <c r="Y73" s="103"/>
+      <c r="Z73" s="103"/>
+      <c r="AA73" s="103"/>
+      <c r="AB73" s="103"/>
     </row>
     <row r="74" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="108"/>
-      <c r="B74" s="106"/>
-      <c r="C74" s="109"/>
-      <c r="D74" s="109"/>
-      <c r="E74" s="109"/>
-      <c r="F74" s="109"/>
-      <c r="G74" s="106"/>
-      <c r="H74" s="110"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="111"/>
-      <c r="AA74" s="102"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="112"/>
+      <c r="J74" s="112"/>
+      <c r="AA74" s="103"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="D75" s="112"/>
-      <c r="E75" s="112"/>
-      <c r="F75" s="112"/>
-    </row>
-    <row r="76" spans="1:28" s="114" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="113"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
-      <c r="H76" s="116"/>
-      <c r="I76" s="117"/>
-      <c r="J76" s="117"/>
-      <c r="N76" s="118"/>
-      <c r="R76" s="118"/>
-      <c r="V76" s="118"/>
-      <c r="Z76" s="118"/>
-      <c r="AA76" s="119"/>
-    </row>
-    <row r="77" spans="1:28" s="114" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="N77" s="118"/>
-      <c r="R77" s="118"/>
-      <c r="V77" s="118"/>
-      <c r="Z77" s="118"/>
-      <c r="AA77" s="119"/>
-    </row>
-    <row r="78" spans="1:28" s="114" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="115"/>
-      <c r="H78" s="116"/>
-      <c r="I78" s="117"/>
-      <c r="J78" s="117"/>
-      <c r="N78" s="118"/>
-      <c r="R78" s="118"/>
-      <c r="V78" s="118"/>
-      <c r="Z78" s="118"/>
-      <c r="AA78" s="119"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="113"/>
+    </row>
+    <row r="76" spans="1:28" s="115" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="114"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="H76" s="117"/>
+      <c r="I76" s="118"/>
+      <c r="J76" s="118"/>
+      <c r="N76" s="119"/>
+      <c r="R76" s="119"/>
+      <c r="V76" s="119"/>
+      <c r="Z76" s="119"/>
+      <c r="AA76" s="120"/>
+    </row>
+    <row r="77" spans="1:28" s="115" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="118"/>
+      <c r="J77" s="118"/>
+      <c r="N77" s="119"/>
+      <c r="R77" s="119"/>
+      <c r="V77" s="119"/>
+      <c r="Z77" s="119"/>
+      <c r="AA77" s="120"/>
+    </row>
+    <row r="78" spans="1:28" s="115" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="H78" s="117"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="N78" s="119"/>
+      <c r="R78" s="119"/>
+      <c r="V78" s="119"/>
+      <c r="Z78" s="119"/>
+      <c r="AA78" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5824,11 +5832,14 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">
@@ -6019,30 +6030,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="1"/>
+    <col min="1" max="1025" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="120">
+      <c r="B1" s="121">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6060,7 +6071,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" style="1"/>
+    <col min="1" max="1025" width="10.6640625" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F185482A-C514-4461-91E4-603F876D9AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744D25AF-360D-4A7E-AC64-FE6FDCB65CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -347,6 +347,9 @@
   <si>
     <t>Améliorer le visuel du pied de page</t>
   </si>
+  <si>
+    <t>Corriger les messages de validation (business-new)</t>
+  </si>
 </sst>
 </file>
 
@@ -358,7 +361,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
     <numFmt numFmtId="167" formatCode="\\;;;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -498,8 +501,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +558,11 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -962,7 +977,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -971,8 +986,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
@@ -1334,6 +1350,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1350,42 +1400,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="8" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="9" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="9" borderId="18" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -1394,6 +1421,7 @@
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Satisfaisant" xfId="8" builtinId="26"/>
   </cellStyles>
   <dxfs count="43">
     <dxf>
@@ -2191,8 +2219,8 @@
   </sheetPr>
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2220,22 +2248,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="139"/>
+      <c r="A1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="127"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
       <c r="N1" s="4"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
@@ -2247,20 +2275,20 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="127"/>
       <c r="C2" s="8"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="139" t="s">
+      <c r="F2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="N2" s="4"/>
@@ -2343,78 +2371,78 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131" t="s">
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135" t="s">
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="138" t="s">
+      <c r="K7" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="128" t="s">
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="129" t="s">
+      <c r="AB7" s="141" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
@@ -2427,10 +2455,10 @@
       <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
       <c r="K8" s="22">
         <v>43838</v>
       </c>
@@ -2494,8 +2522,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="129"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="141"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
@@ -3113,8 +3141,8 @@
       </c>
       <c r="K20" s="43"/>
       <c r="L20" s="59"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="48"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="145"/>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="55"/>
@@ -3168,8 +3196,8 @@
       </c>
       <c r="K21" s="43"/>
       <c r="L21" s="59"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="48"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="145"/>
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
@@ -4492,7 +4520,7 @@
       </c>
       <c r="AB45" s="49"/>
     </row>
-    <row r="46" spans="1:28" s="87" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36">
         <v>39</v>
       </c>
@@ -4532,7 +4560,7 @@
       <c r="O46" s="43"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="43"/>
-      <c r="R46" s="86"/>
+      <c r="R46" s="143"/>
       <c r="S46" s="43"/>
       <c r="T46" s="43"/>
       <c r="U46" s="43"/>
@@ -5090,7 +5118,7 @@
       <c r="S57" s="74"/>
       <c r="T57" s="74"/>
       <c r="U57" s="74"/>
-      <c r="V57" s="142"/>
+      <c r="V57" s="126"/>
       <c r="W57" s="74"/>
       <c r="X57" s="74"/>
       <c r="Y57" s="74"/>
@@ -5195,7 +5223,7 @@
       <c r="T59" s="74"/>
       <c r="U59" s="74"/>
       <c r="V59" s="53"/>
-      <c r="W59" s="141"/>
+      <c r="W59" s="125"/>
       <c r="X59" s="74"/>
       <c r="Y59" s="74"/>
       <c r="Z59" s="53"/>
@@ -5247,7 +5275,7 @@
       <c r="T60" s="74"/>
       <c r="U60" s="74"/>
       <c r="V60" s="53"/>
-      <c r="W60" s="142"/>
+      <c r="W60" s="126"/>
       <c r="X60" s="74"/>
       <c r="Y60" s="74"/>
       <c r="Z60" s="53"/>
@@ -5258,20 +5286,34 @@
       <c r="A61" s="36">
         <v>13</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="72" t="e">
+      <c r="B61" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="38">
+        <v>0</v>
+      </c>
+      <c r="D61" s="38">
+        <v>0</v>
+      </c>
+      <c r="E61" s="38">
+        <v>1</v>
+      </c>
+      <c r="F61" s="38">
+        <v>0</v>
+      </c>
+      <c r="G61" s="72">
         <f>VLOOKUP(H61,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H61" s="40"/>
-      <c r="I61" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="41">
+        <v>1</v>
+      </c>
       <c r="J61" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="43"/>
       <c r="L61" s="43"/>
@@ -5285,7 +5327,7 @@
       <c r="T61" s="74"/>
       <c r="U61" s="74"/>
       <c r="V61" s="53"/>
-      <c r="W61" s="74"/>
+      <c r="W61" s="126"/>
       <c r="X61" s="74"/>
       <c r="Y61" s="74"/>
       <c r="Z61" s="53"/>
@@ -5486,10 +5528,10 @@
       <c r="AB66" s="99"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="130" t="s">
+      <c r="A67" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="130"/>
+      <c r="B67" s="142"/>
       <c r="C67" s="100">
         <f>SUM(C10:C66)</f>
         <v>99.5</v>
@@ -5500,7 +5542,7 @@
       </c>
       <c r="E67" s="100">
         <f>SUM(E10:E66)</f>
-        <v>74.75</v>
+        <v>75.75</v>
       </c>
       <c r="F67" s="100">
         <f>SUM(F10:F66)</f>
@@ -5511,7 +5553,7 @@
       <c r="I67" s="102"/>
       <c r="J67" s="100">
         <f t="shared" si="3"/>
-        <v>361.25</v>
+        <v>362.25</v>
       </c>
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
@@ -5536,10 +5578,10 @@
       <c r="AB67" s="104"/>
     </row>
     <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="125" t="s">
+      <c r="A68" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="125"/>
+      <c r="B68" s="137"/>
       <c r="C68" s="100">
         <f>135-C67</f>
         <v>35.5</v>
@@ -5550,7 +5592,7 @@
       </c>
       <c r="E68" s="100">
         <f>135-E67</f>
-        <v>60.25</v>
+        <v>59.25</v>
       </c>
       <c r="F68" s="100">
         <f>135-F67</f>
@@ -5561,7 +5603,7 @@
       <c r="I68" s="100"/>
       <c r="J68" s="100">
         <f t="shared" si="3"/>
-        <v>178.75</v>
+        <v>177.75</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="103"/>
@@ -5583,10 +5625,10 @@
       <c r="AB68" s="103"/>
     </row>
     <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="126" t="s">
+      <c r="A69" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="126"/>
+      <c r="B69" s="138"/>
       <c r="C69" s="100"/>
       <c r="D69" s="100"/>
       <c r="E69" s="100"/>
@@ -5618,10 +5660,10 @@
       <c r="AB69" s="103"/>
     </row>
     <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="125" t="s">
+      <c r="A70" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="125"/>
+      <c r="B70" s="137"/>
       <c r="C70" s="100"/>
       <c r="D70" s="100"/>
       <c r="E70" s="105"/>
@@ -5630,11 +5672,11 @@
       <c r="H70" s="100"/>
       <c r="I70" s="106">
         <f>SUM(I10:I66)</f>
-        <v>386.75</v>
+        <v>387.75</v>
       </c>
       <c r="J70" s="100">
         <f>SUM(J10:J66)</f>
-        <v>361.25</v>
+        <v>362.25</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -5686,10 +5728,10 @@
       <c r="AB71" s="103"/>
     </row>
     <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="126" t="s">
+      <c r="A72" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="126"/>
+      <c r="B72" s="138"/>
       <c r="C72" s="100">
         <f>135*4</f>
         <v>540</v>
@@ -5721,13 +5763,13 @@
       <c r="AB72" s="103"/>
     </row>
     <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="127" t="s">
+      <c r="A73" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="127"/>
+      <c r="B73" s="139"/>
       <c r="C73" s="100">
         <f>C72-J70</f>
-        <v>178.75</v>
+        <v>177.75</v>
       </c>
       <c r="D73" s="108"/>
       <c r="E73" s="108"/>
@@ -5818,11 +5860,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5832,14 +5877,11 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744D25AF-360D-4A7E-AC64-FE6FDCB65CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F185482A-C514-4461-91E4-603F876D9AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -347,9 +347,6 @@
   <si>
     <t>Améliorer le visuel du pied de page</t>
   </si>
-  <si>
-    <t>Corriger les messages de validation (business-new)</t>
-  </si>
 </sst>
 </file>
 
@@ -361,7 +358,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
     <numFmt numFmtId="167" formatCode="\\;;;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -501,15 +498,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,11 +548,6 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -977,7 +962,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -986,9 +971,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
@@ -1350,69 +1334,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="8" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="9" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="9" borderId="18" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -1421,7 +1394,6 @@
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Satisfaisant" xfId="8" builtinId="26"/>
   </cellStyles>
   <dxfs count="43">
     <dxf>
@@ -2219,8 +2191,8 @@
   </sheetPr>
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2248,22 +2220,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="127"/>
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="139"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
       <c r="N1" s="4"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
@@ -2275,20 +2247,20 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="139"/>
       <c r="C2" s="8"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="N2" s="4"/>
@@ -2371,78 +2343,78 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129" t="s">
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="133" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="134" t="s">
+      <c r="H7" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="136" t="s">
+      <c r="K7" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="136"/>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="140" t="s">
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="141" t="s">
+      <c r="AB7" s="129" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
@@ -2455,10 +2427,10 @@
       <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
       <c r="K8" s="22">
         <v>43838</v>
       </c>
@@ -2522,8 +2494,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="141"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="129"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
@@ -3141,8 +3113,8 @@
       </c>
       <c r="K20" s="43"/>
       <c r="L20" s="59"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="145"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="48"/>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="55"/>
@@ -3196,8 +3168,8 @@
       </c>
       <c r="K21" s="43"/>
       <c r="L21" s="59"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="145"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="48"/>
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
@@ -4520,7 +4492,7 @@
       </c>
       <c r="AB45" s="49"/>
     </row>
-    <row r="46" spans="1:28" s="87" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="87" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="36">
         <v>39</v>
       </c>
@@ -4560,7 +4532,7 @@
       <c r="O46" s="43"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="43"/>
-      <c r="R46" s="143"/>
+      <c r="R46" s="86"/>
       <c r="S46" s="43"/>
       <c r="T46" s="43"/>
       <c r="U46" s="43"/>
@@ -5118,7 +5090,7 @@
       <c r="S57" s="74"/>
       <c r="T57" s="74"/>
       <c r="U57" s="74"/>
-      <c r="V57" s="126"/>
+      <c r="V57" s="142"/>
       <c r="W57" s="74"/>
       <c r="X57" s="74"/>
       <c r="Y57" s="74"/>
@@ -5223,7 +5195,7 @@
       <c r="T59" s="74"/>
       <c r="U59" s="74"/>
       <c r="V59" s="53"/>
-      <c r="W59" s="125"/>
+      <c r="W59" s="141"/>
       <c r="X59" s="74"/>
       <c r="Y59" s="74"/>
       <c r="Z59" s="53"/>
@@ -5275,7 +5247,7 @@
       <c r="T60" s="74"/>
       <c r="U60" s="74"/>
       <c r="V60" s="53"/>
-      <c r="W60" s="126"/>
+      <c r="W60" s="142"/>
       <c r="X60" s="74"/>
       <c r="Y60" s="74"/>
       <c r="Z60" s="53"/>
@@ -5286,34 +5258,20 @@
       <c r="A61" s="36">
         <v>13</v>
       </c>
-      <c r="B61" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="38">
-        <v>0</v>
-      </c>
-      <c r="D61" s="38">
-        <v>0</v>
-      </c>
-      <c r="E61" s="38">
-        <v>1</v>
-      </c>
-      <c r="F61" s="38">
-        <v>0</v>
-      </c>
-      <c r="G61" s="72">
+      <c r="B61" s="70"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="72" t="e">
         <f>VLOOKUP(H61,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I61" s="41">
-        <v>1</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H61" s="40"/>
+      <c r="I61" s="41"/>
       <c r="J61" s="41">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="43"/>
       <c r="L61" s="43"/>
@@ -5327,7 +5285,7 @@
       <c r="T61" s="74"/>
       <c r="U61" s="74"/>
       <c r="V61" s="53"/>
-      <c r="W61" s="126"/>
+      <c r="W61" s="74"/>
       <c r="X61" s="74"/>
       <c r="Y61" s="74"/>
       <c r="Z61" s="53"/>
@@ -5528,10 +5486,10 @@
       <c r="AB66" s="99"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="142" t="s">
+      <c r="A67" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="142"/>
+      <c r="B67" s="130"/>
       <c r="C67" s="100">
         <f>SUM(C10:C66)</f>
         <v>99.5</v>
@@ -5542,7 +5500,7 @@
       </c>
       <c r="E67" s="100">
         <f>SUM(E10:E66)</f>
-        <v>75.75</v>
+        <v>74.75</v>
       </c>
       <c r="F67" s="100">
         <f>SUM(F10:F66)</f>
@@ -5553,7 +5511,7 @@
       <c r="I67" s="102"/>
       <c r="J67" s="100">
         <f t="shared" si="3"/>
-        <v>362.25</v>
+        <v>361.25</v>
       </c>
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
@@ -5578,10 +5536,10 @@
       <c r="AB67" s="104"/>
     </row>
     <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="137" t="s">
+      <c r="A68" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="137"/>
+      <c r="B68" s="125"/>
       <c r="C68" s="100">
         <f>135-C67</f>
         <v>35.5</v>
@@ -5592,7 +5550,7 @@
       </c>
       <c r="E68" s="100">
         <f>135-E67</f>
-        <v>59.25</v>
+        <v>60.25</v>
       </c>
       <c r="F68" s="100">
         <f>135-F67</f>
@@ -5603,7 +5561,7 @@
       <c r="I68" s="100"/>
       <c r="J68" s="100">
         <f t="shared" si="3"/>
-        <v>177.75</v>
+        <v>178.75</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="103"/>
@@ -5625,10 +5583,10 @@
       <c r="AB68" s="103"/>
     </row>
     <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="138" t="s">
+      <c r="A69" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="138"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="100"/>
       <c r="D69" s="100"/>
       <c r="E69" s="100"/>
@@ -5660,10 +5618,10 @@
       <c r="AB69" s="103"/>
     </row>
     <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="137" t="s">
+      <c r="A70" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="137"/>
+      <c r="B70" s="125"/>
       <c r="C70" s="100"/>
       <c r="D70" s="100"/>
       <c r="E70" s="105"/>
@@ -5672,11 +5630,11 @@
       <c r="H70" s="100"/>
       <c r="I70" s="106">
         <f>SUM(I10:I66)</f>
-        <v>387.75</v>
+        <v>386.75</v>
       </c>
       <c r="J70" s="100">
         <f>SUM(J10:J66)</f>
-        <v>362.25</v>
+        <v>361.25</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -5728,10 +5686,10 @@
       <c r="AB71" s="103"/>
     </row>
     <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="138" t="s">
+      <c r="A72" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="138"/>
+      <c r="B72" s="126"/>
       <c r="C72" s="100">
         <f>135*4</f>
         <v>540</v>
@@ -5763,13 +5721,13 @@
       <c r="AB72" s="103"/>
     </row>
     <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="139" t="s">
+      <c r="A73" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="139"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="100">
         <f>C72-J70</f>
-        <v>177.75</v>
+        <v>178.75</v>
       </c>
       <c r="D73" s="108"/>
       <c r="E73" s="108"/>
@@ -5860,14 +5818,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5877,11 +5832,14 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F185482A-C514-4461-91E4-603F876D9AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C1B2A-EE6F-4635-8C50-749DA94C5FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -347,6 +347,9 @@
   <si>
     <t>Améliorer le visuel du pied de page</t>
   </si>
+  <si>
+    <t>Corriger les messages de validation (business-new)</t>
+  </si>
 </sst>
 </file>
 
@@ -358,7 +361,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
     <numFmt numFmtId="167" formatCode="\\;;;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -498,8 +501,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +558,11 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -962,7 +977,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -971,8 +986,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
@@ -1334,6 +1350,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1350,42 +1400,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyBorder="1" applyProtection="1">
+    <xf numFmtId="167" fontId="19" fillId="9" borderId="20" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="8" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -1394,6 +1417,7 @@
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Satisfaisant" xfId="8" builtinId="26"/>
   </cellStyles>
   <dxfs count="43">
     <dxf>
@@ -2191,8 +2215,8 @@
   </sheetPr>
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2220,22 +2244,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="139"/>
+      <c r="A1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="127"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
       <c r="N1" s="4"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
@@ -2247,20 +2271,20 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="127"/>
       <c r="C2" s="8"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="139" t="s">
+      <c r="F2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="N2" s="4"/>
@@ -2343,78 +2367,78 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131" t="s">
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135" t="s">
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="138" t="s">
+      <c r="K7" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="128" t="s">
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="129" t="s">
+      <c r="AB7" s="141" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
@@ -2427,10 +2451,10 @@
       <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
       <c r="K8" s="22">
         <v>43838</v>
       </c>
@@ -2494,8 +2518,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="129"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="141"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
@@ -4492,7 +4516,7 @@
       </c>
       <c r="AB45" s="49"/>
     </row>
-    <row r="46" spans="1:28" s="87" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36">
         <v>39</v>
       </c>
@@ -4532,7 +4556,7 @@
       <c r="O46" s="43"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="43"/>
-      <c r="R46" s="86"/>
+      <c r="R46" s="144"/>
       <c r="S46" s="43"/>
       <c r="T46" s="43"/>
       <c r="U46" s="43"/>
@@ -5090,7 +5114,7 @@
       <c r="S57" s="74"/>
       <c r="T57" s="74"/>
       <c r="U57" s="74"/>
-      <c r="V57" s="142"/>
+      <c r="V57" s="126"/>
       <c r="W57" s="74"/>
       <c r="X57" s="74"/>
       <c r="Y57" s="74"/>
@@ -5195,7 +5219,7 @@
       <c r="T59" s="74"/>
       <c r="U59" s="74"/>
       <c r="V59" s="53"/>
-      <c r="W59" s="141"/>
+      <c r="W59" s="125"/>
       <c r="X59" s="74"/>
       <c r="Y59" s="74"/>
       <c r="Z59" s="53"/>
@@ -5247,7 +5271,7 @@
       <c r="T60" s="74"/>
       <c r="U60" s="74"/>
       <c r="V60" s="53"/>
-      <c r="W60" s="142"/>
+      <c r="W60" s="126"/>
       <c r="X60" s="74"/>
       <c r="Y60" s="74"/>
       <c r="Z60" s="53"/>
@@ -5258,20 +5282,34 @@
       <c r="A61" s="36">
         <v>13</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="72" t="e">
+      <c r="B61" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="38">
+        <v>0</v>
+      </c>
+      <c r="D61" s="38">
+        <v>0</v>
+      </c>
+      <c r="E61" s="38">
+        <v>1</v>
+      </c>
+      <c r="F61" s="38">
+        <v>0</v>
+      </c>
+      <c r="G61" s="72">
         <f>VLOOKUP(H61,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H61" s="40"/>
-      <c r="I61" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="41">
+        <v>1</v>
+      </c>
       <c r="J61" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="43"/>
       <c r="L61" s="43"/>
@@ -5285,7 +5323,7 @@
       <c r="T61" s="74"/>
       <c r="U61" s="74"/>
       <c r="V61" s="53"/>
-      <c r="W61" s="74"/>
+      <c r="W61" s="143"/>
       <c r="X61" s="74"/>
       <c r="Y61" s="74"/>
       <c r="Z61" s="53"/>
@@ -5486,10 +5524,10 @@
       <c r="AB66" s="99"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="130" t="s">
+      <c r="A67" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="130"/>
+      <c r="B67" s="142"/>
       <c r="C67" s="100">
         <f>SUM(C10:C66)</f>
         <v>99.5</v>
@@ -5500,7 +5538,7 @@
       </c>
       <c r="E67" s="100">
         <f>SUM(E10:E66)</f>
-        <v>74.75</v>
+        <v>75.75</v>
       </c>
       <c r="F67" s="100">
         <f>SUM(F10:F66)</f>
@@ -5511,7 +5549,7 @@
       <c r="I67" s="102"/>
       <c r="J67" s="100">
         <f t="shared" si="3"/>
-        <v>361.25</v>
+        <v>362.25</v>
       </c>
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
@@ -5536,10 +5574,10 @@
       <c r="AB67" s="104"/>
     </row>
     <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="125" t="s">
+      <c r="A68" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="125"/>
+      <c r="B68" s="137"/>
       <c r="C68" s="100">
         <f>135-C67</f>
         <v>35.5</v>
@@ -5550,7 +5588,7 @@
       </c>
       <c r="E68" s="100">
         <f>135-E67</f>
-        <v>60.25</v>
+        <v>59.25</v>
       </c>
       <c r="F68" s="100">
         <f>135-F67</f>
@@ -5561,7 +5599,7 @@
       <c r="I68" s="100"/>
       <c r="J68" s="100">
         <f t="shared" si="3"/>
-        <v>178.75</v>
+        <v>177.75</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="103"/>
@@ -5583,10 +5621,10 @@
       <c r="AB68" s="103"/>
     </row>
     <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="126" t="s">
+      <c r="A69" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="126"/>
+      <c r="B69" s="138"/>
       <c r="C69" s="100"/>
       <c r="D69" s="100"/>
       <c r="E69" s="100"/>
@@ -5618,10 +5656,10 @@
       <c r="AB69" s="103"/>
     </row>
     <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="125" t="s">
+      <c r="A70" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="125"/>
+      <c r="B70" s="137"/>
       <c r="C70" s="100"/>
       <c r="D70" s="100"/>
       <c r="E70" s="105"/>
@@ -5630,11 +5668,11 @@
       <c r="H70" s="100"/>
       <c r="I70" s="106">
         <f>SUM(I10:I66)</f>
-        <v>386.75</v>
+        <v>387.75</v>
       </c>
       <c r="J70" s="100">
         <f>SUM(J10:J66)</f>
-        <v>361.25</v>
+        <v>362.25</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -5686,10 +5724,10 @@
       <c r="AB71" s="103"/>
     </row>
     <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="126" t="s">
+      <c r="A72" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="126"/>
+      <c r="B72" s="138"/>
       <c r="C72" s="100">
         <f>135*4</f>
         <v>540</v>
@@ -5721,13 +5759,13 @@
       <c r="AB72" s="103"/>
     </row>
     <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="127" t="s">
+      <c r="A73" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="127"/>
+      <c r="B73" s="139"/>
       <c r="C73" s="100">
         <f>C72-J70</f>
-        <v>178.75</v>
+        <v>177.75</v>
       </c>
       <c r="D73" s="108"/>
       <c r="E73" s="108"/>
@@ -5818,11 +5856,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5832,14 +5873,11 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C1B2A-EE6F-4635-8C50-749DA94C5FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8857771F-9887-44D4-873C-6771405DF549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -345,10 +345,13 @@
     <t>Régler un problème d'affichage (user-list)</t>
   </si>
   <si>
-    <t>Améliorer le visuel du pied de page</t>
-  </si>
-  <si>
     <t>Corriger les messages de validation (business-new)</t>
+  </si>
+  <si>
+    <t>Améliorer le visuel (footer)</t>
+  </si>
+  <si>
+    <t>Améliorer le visuel (event-create)</t>
   </si>
 </sst>
 </file>
@@ -1354,35 +1357,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="19" fillId="9" borderId="20" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="8" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1400,12 +1380,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="9" borderId="20" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="8" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2216,7 +2219,7 @@
   <dimension ref="A1:AMK78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2244,22 +2247,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="127"/>
+      <c r="A1" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="143"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
       <c r="N1" s="4"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
@@ -2271,20 +2274,20 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="143"/>
       <c r="C2" s="8"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="N2" s="4"/>
@@ -2367,78 +2370,78 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129" t="s">
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="133" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="134" t="s">
+      <c r="H7" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="136" t="s">
+      <c r="K7" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="136"/>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="140" t="s">
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="141" t="s">
+      <c r="AB7" s="133" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
@@ -2451,10 +2454,10 @@
       <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
       <c r="K8" s="22">
         <v>43838</v>
       </c>
@@ -2518,8 +2521,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="141"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="133"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
@@ -4556,7 +4559,7 @@
       <c r="O46" s="43"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="43"/>
-      <c r="R46" s="144"/>
+      <c r="R46" s="128"/>
       <c r="S46" s="43"/>
       <c r="T46" s="43"/>
       <c r="U46" s="43"/>
@@ -5231,7 +5234,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="38">
         <v>0</v>
@@ -5283,7 +5286,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="38">
         <v>0</v>
@@ -5323,7 +5326,7 @@
       <c r="T61" s="74"/>
       <c r="U61" s="74"/>
       <c r="V61" s="53"/>
-      <c r="W61" s="143"/>
+      <c r="W61" s="127"/>
       <c r="X61" s="74"/>
       <c r="Y61" s="74"/>
       <c r="Z61" s="53"/>
@@ -5334,20 +5337,34 @@
       <c r="A62" s="36">
         <v>14</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="72" t="e">
+      <c r="B62" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="38">
+        <v>0</v>
+      </c>
+      <c r="D62" s="38">
+        <v>0</v>
+      </c>
+      <c r="E62" s="38">
+        <v>3.25</v>
+      </c>
+      <c r="F62" s="38">
+        <v>0</v>
+      </c>
+      <c r="G62" s="72">
         <f>VLOOKUP(H62,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H62" s="40"/>
-      <c r="I62" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" s="41">
+        <v>3</v>
+      </c>
       <c r="J62" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K62" s="43"/>
       <c r="L62" s="43"/>
@@ -5361,7 +5378,7 @@
       <c r="T62" s="74"/>
       <c r="U62" s="74"/>
       <c r="V62" s="53"/>
-      <c r="W62" s="74"/>
+      <c r="W62" s="127"/>
       <c r="X62" s="74"/>
       <c r="Y62" s="74"/>
       <c r="Z62" s="53"/>
@@ -5524,10 +5541,10 @@
       <c r="AB66" s="99"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="142" t="s">
+      <c r="A67" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="142"/>
+      <c r="B67" s="134"/>
       <c r="C67" s="100">
         <f>SUM(C10:C66)</f>
         <v>99.5</v>
@@ -5538,7 +5555,7 @@
       </c>
       <c r="E67" s="100">
         <f>SUM(E10:E66)</f>
-        <v>75.75</v>
+        <v>79</v>
       </c>
       <c r="F67" s="100">
         <f>SUM(F10:F66)</f>
@@ -5549,7 +5566,7 @@
       <c r="I67" s="102"/>
       <c r="J67" s="100">
         <f t="shared" si="3"/>
-        <v>362.25</v>
+        <v>365.5</v>
       </c>
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
@@ -5574,10 +5591,10 @@
       <c r="AB67" s="104"/>
     </row>
     <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="137" t="s">
+      <c r="A68" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="137"/>
+      <c r="B68" s="129"/>
       <c r="C68" s="100">
         <f>135-C67</f>
         <v>35.5</v>
@@ -5588,7 +5605,7 @@
       </c>
       <c r="E68" s="100">
         <f>135-E67</f>
-        <v>59.25</v>
+        <v>56</v>
       </c>
       <c r="F68" s="100">
         <f>135-F67</f>
@@ -5599,7 +5616,7 @@
       <c r="I68" s="100"/>
       <c r="J68" s="100">
         <f t="shared" si="3"/>
-        <v>177.75</v>
+        <v>174.5</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="103"/>
@@ -5621,10 +5638,10 @@
       <c r="AB68" s="103"/>
     </row>
     <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="138" t="s">
+      <c r="A69" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="138"/>
+      <c r="B69" s="130"/>
       <c r="C69" s="100"/>
       <c r="D69" s="100"/>
       <c r="E69" s="100"/>
@@ -5656,10 +5673,10 @@
       <c r="AB69" s="103"/>
     </row>
     <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="137" t="s">
+      <c r="A70" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="137"/>
+      <c r="B70" s="129"/>
       <c r="C70" s="100"/>
       <c r="D70" s="100"/>
       <c r="E70" s="105"/>
@@ -5668,11 +5685,11 @@
       <c r="H70" s="100"/>
       <c r="I70" s="106">
         <f>SUM(I10:I66)</f>
-        <v>387.75</v>
+        <v>390.75</v>
       </c>
       <c r="J70" s="100">
         <f>SUM(J10:J66)</f>
-        <v>362.25</v>
+        <v>365.5</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -5724,10 +5741,10 @@
       <c r="AB71" s="103"/>
     </row>
     <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="138" t="s">
+      <c r="A72" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="138"/>
+      <c r="B72" s="130"/>
       <c r="C72" s="100">
         <f>135*4</f>
         <v>540</v>
@@ -5759,13 +5776,13 @@
       <c r="AB72" s="103"/>
     </row>
     <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="139" t="s">
+      <c r="A73" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="139"/>
+      <c r="B73" s="131"/>
       <c r="C73" s="100">
         <f>C72-J70</f>
-        <v>177.75</v>
+        <v>174.5</v>
       </c>
       <c r="D73" s="108"/>
       <c r="E73" s="108"/>
@@ -5856,14 +5873,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5873,11 +5887,14 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8857771F-9887-44D4-873C-6771405DF549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC91031-07DC-4DE4-8941-6428FBBB0011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Améliorer le visuel (event-create)</t>
+  </si>
+  <si>
+    <t>Améliorer le visuel (administration)</t>
   </si>
 </sst>
 </file>
@@ -1364,6 +1367,36 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="8" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1379,36 +1412,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2218,8 +2221,8 @@
   </sheetPr>
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,22 +2250,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="143"/>
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="144" t="s">
+      <c r="D1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
       <c r="N1" s="4"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
@@ -2274,20 +2277,20 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="143"/>
+      <c r="B2" s="129"/>
       <c r="C2" s="8"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="N2" s="4"/>
@@ -2370,78 +2373,78 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="135" t="s">
+      <c r="K6" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135" t="s">
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="139" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="140" t="s">
+      <c r="H7" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="141" t="s">
+      <c r="I7" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="141" t="s">
+      <c r="J7" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="142" t="s">
+      <c r="K7" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="132" t="s">
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="133" t="s">
+      <c r="AB7" s="143" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
@@ -2454,10 +2457,10 @@
       <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
       <c r="K8" s="22">
         <v>43838</v>
       </c>
@@ -2521,8 +2524,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="133"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="143"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
@@ -5389,20 +5392,34 @@
       <c r="A63" s="36">
         <v>15</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="72" t="e">
+      <c r="B63" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="38">
+        <v>0</v>
+      </c>
+      <c r="D63" s="38">
+        <v>0</v>
+      </c>
+      <c r="E63" s="38">
+        <v>4</v>
+      </c>
+      <c r="F63" s="38">
+        <v>0</v>
+      </c>
+      <c r="G63" s="72">
         <f>VLOOKUP(H63,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H63" s="40"/>
-      <c r="I63" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="41">
+        <v>3</v>
+      </c>
       <c r="J63" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K63" s="43"/>
       <c r="L63" s="43"/>
@@ -5416,7 +5433,7 @@
       <c r="T63" s="74"/>
       <c r="U63" s="74"/>
       <c r="V63" s="53"/>
-      <c r="W63" s="74"/>
+      <c r="W63" s="127"/>
       <c r="X63" s="74"/>
       <c r="Y63" s="74"/>
       <c r="Z63" s="53"/>
@@ -5541,10 +5558,10 @@
       <c r="AB66" s="99"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="134" t="s">
+      <c r="A67" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="134"/>
+      <c r="B67" s="144"/>
       <c r="C67" s="100">
         <f>SUM(C10:C66)</f>
         <v>99.5</v>
@@ -5555,7 +5572,7 @@
       </c>
       <c r="E67" s="100">
         <f>SUM(E10:E66)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F67" s="100">
         <f>SUM(F10:F66)</f>
@@ -5566,7 +5583,7 @@
       <c r="I67" s="102"/>
       <c r="J67" s="100">
         <f t="shared" si="3"/>
-        <v>365.5</v>
+        <v>369.5</v>
       </c>
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
@@ -5591,10 +5608,10 @@
       <c r="AB67" s="104"/>
     </row>
     <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="129" t="s">
+      <c r="A68" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="129"/>
+      <c r="B68" s="139"/>
       <c r="C68" s="100">
         <f>135-C67</f>
         <v>35.5</v>
@@ -5605,7 +5622,7 @@
       </c>
       <c r="E68" s="100">
         <f>135-E67</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F68" s="100">
         <f>135-F67</f>
@@ -5616,7 +5633,7 @@
       <c r="I68" s="100"/>
       <c r="J68" s="100">
         <f t="shared" si="3"/>
-        <v>174.5</v>
+        <v>170.5</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="103"/>
@@ -5638,10 +5655,10 @@
       <c r="AB68" s="103"/>
     </row>
     <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="130" t="s">
+      <c r="A69" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="130"/>
+      <c r="B69" s="140"/>
       <c r="C69" s="100"/>
       <c r="D69" s="100"/>
       <c r="E69" s="100"/>
@@ -5673,10 +5690,10 @@
       <c r="AB69" s="103"/>
     </row>
     <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="129" t="s">
+      <c r="A70" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="129"/>
+      <c r="B70" s="139"/>
       <c r="C70" s="100"/>
       <c r="D70" s="100"/>
       <c r="E70" s="105"/>
@@ -5685,11 +5702,11 @@
       <c r="H70" s="100"/>
       <c r="I70" s="106">
         <f>SUM(I10:I66)</f>
-        <v>390.75</v>
+        <v>393.75</v>
       </c>
       <c r="J70" s="100">
         <f>SUM(J10:J66)</f>
-        <v>365.5</v>
+        <v>369.5</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -5741,10 +5758,10 @@
       <c r="AB71" s="103"/>
     </row>
     <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="130" t="s">
+      <c r="A72" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="130"/>
+      <c r="B72" s="140"/>
       <c r="C72" s="100">
         <f>135*4</f>
         <v>540</v>
@@ -5776,13 +5793,13 @@
       <c r="AB72" s="103"/>
     </row>
     <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="131" t="s">
+      <c r="A73" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="131"/>
+      <c r="B73" s="141"/>
       <c r="C73" s="100">
         <f>C72-J70</f>
-        <v>174.5</v>
+        <v>170.5</v>
       </c>
       <c r="D73" s="108"/>
       <c r="E73" s="108"/>
@@ -5873,11 +5890,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5887,14 +5907,11 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC91031-07DC-4DE4-8941-6428FBBB0011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654CDC8F-ECC5-44F5-B67C-C6F7AC854DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Améliorer le visuel (administration)</t>
+  </si>
+  <si>
+    <t>Améliorer le visuel (user-create, user-login)</t>
   </si>
 </sst>
 </file>
@@ -1367,36 +1370,6 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="8" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1412,6 +1385,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2250,22 +2253,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="129"/>
+      <c r="A1" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="143"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
       <c r="N1" s="4"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
@@ -2277,20 +2280,20 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="143"/>
       <c r="C2" s="8"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="N2" s="4"/>
@@ -2373,78 +2376,78 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131" t="s">
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="138" t="s">
+      <c r="K7" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="142" t="s">
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="143" t="s">
+      <c r="AB7" s="133" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
@@ -2457,10 +2460,10 @@
       <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
       <c r="K8" s="22">
         <v>43838</v>
       </c>
@@ -2524,8 +2527,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="143"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="133"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
@@ -5444,20 +5447,34 @@
       <c r="A64" s="36">
         <v>16</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="72" t="e">
+      <c r="B64" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="38">
+        <v>0</v>
+      </c>
+      <c r="D64" s="38">
+        <v>0</v>
+      </c>
+      <c r="E64" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="F64" s="38">
+        <v>0</v>
+      </c>
+      <c r="G64" s="72">
         <f>VLOOKUP(H64,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="41">
+        <v>1</v>
+      </c>
       <c r="J64" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K64" s="43"/>
       <c r="L64" s="43"/>
@@ -5471,7 +5488,7 @@
       <c r="T64" s="74"/>
       <c r="U64" s="74"/>
       <c r="V64" s="53"/>
-      <c r="W64" s="74"/>
+      <c r="W64" s="127"/>
       <c r="X64" s="74"/>
       <c r="Y64" s="74"/>
       <c r="Z64" s="53"/>
@@ -5558,10 +5575,10 @@
       <c r="AB66" s="99"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="144" t="s">
+      <c r="A67" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="144"/>
+      <c r="B67" s="134"/>
       <c r="C67" s="100">
         <f>SUM(C10:C66)</f>
         <v>99.5</v>
@@ -5572,7 +5589,7 @@
       </c>
       <c r="E67" s="100">
         <f>SUM(E10:E66)</f>
-        <v>83</v>
+        <v>83.75</v>
       </c>
       <c r="F67" s="100">
         <f>SUM(F10:F66)</f>
@@ -5583,7 +5600,7 @@
       <c r="I67" s="102"/>
       <c r="J67" s="100">
         <f t="shared" si="3"/>
-        <v>369.5</v>
+        <v>370.25</v>
       </c>
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
@@ -5608,10 +5625,10 @@
       <c r="AB67" s="104"/>
     </row>
     <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="139" t="s">
+      <c r="A68" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="139"/>
+      <c r="B68" s="129"/>
       <c r="C68" s="100">
         <f>135-C67</f>
         <v>35.5</v>
@@ -5622,7 +5639,7 @@
       </c>
       <c r="E68" s="100">
         <f>135-E67</f>
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="F68" s="100">
         <f>135-F67</f>
@@ -5633,7 +5650,7 @@
       <c r="I68" s="100"/>
       <c r="J68" s="100">
         <f t="shared" si="3"/>
-        <v>170.5</v>
+        <v>169.75</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="103"/>
@@ -5655,10 +5672,10 @@
       <c r="AB68" s="103"/>
     </row>
     <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="140" t="s">
+      <c r="A69" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="140"/>
+      <c r="B69" s="130"/>
       <c r="C69" s="100"/>
       <c r="D69" s="100"/>
       <c r="E69" s="100"/>
@@ -5690,10 +5707,10 @@
       <c r="AB69" s="103"/>
     </row>
     <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="139"/>
+      <c r="B70" s="129"/>
       <c r="C70" s="100"/>
       <c r="D70" s="100"/>
       <c r="E70" s="105"/>
@@ -5702,11 +5719,11 @@
       <c r="H70" s="100"/>
       <c r="I70" s="106">
         <f>SUM(I10:I66)</f>
-        <v>393.75</v>
+        <v>394.75</v>
       </c>
       <c r="J70" s="100">
         <f>SUM(J10:J66)</f>
-        <v>369.5</v>
+        <v>370.25</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -5758,10 +5775,10 @@
       <c r="AB71" s="103"/>
     </row>
     <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="140" t="s">
+      <c r="A72" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="140"/>
+      <c r="B72" s="130"/>
       <c r="C72" s="100">
         <f>135*4</f>
         <v>540</v>
@@ -5793,13 +5810,13 @@
       <c r="AB72" s="103"/>
     </row>
     <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="141" t="s">
+      <c r="A73" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="141"/>
+      <c r="B73" s="131"/>
       <c r="C73" s="100">
         <f>C72-J70</f>
-        <v>170.5</v>
+        <v>169.75</v>
       </c>
       <c r="D73" s="108"/>
       <c r="E73" s="108"/>
@@ -5890,14 +5907,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5907,11 +5921,14 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654CDC8F-ECC5-44F5-B67C-C6F7AC854DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA9EC5C-8CDB-4EB9-AAAC-584E85702F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1370,6 +1370,36 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="8" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1385,36 +1415,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2225,7 +2225,7 @@
   <dimension ref="A1:AMK78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2253,22 +2253,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="143"/>
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="144" t="s">
+      <c r="D1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
       <c r="N1" s="4"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
@@ -2280,20 +2280,20 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="143"/>
+      <c r="B2" s="129"/>
       <c r="C2" s="8"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="N2" s="4"/>
@@ -2376,78 +2376,78 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="135" t="s">
+      <c r="K6" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135" t="s">
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="139" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="140" t="s">
+      <c r="H7" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="141" t="s">
+      <c r="I7" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="141" t="s">
+      <c r="J7" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="142" t="s">
+      <c r="K7" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="132" t="s">
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="133" t="s">
+      <c r="AB7" s="143" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
@@ -2460,10 +2460,10 @@
       <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
       <c r="K8" s="22">
         <v>43838</v>
       </c>
@@ -2527,8 +2527,8 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="133"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="143"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="38">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="F62" s="38">
         <v>0</v>
@@ -5366,11 +5366,11 @@
         <v>2</v>
       </c>
       <c r="I62" s="41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J62" s="41">
         <f t="shared" si="3"/>
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="K62" s="43"/>
       <c r="L62" s="43"/>
@@ -5575,10 +5575,10 @@
       <c r="AB66" s="99"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="134" t="s">
+      <c r="A67" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="134"/>
+      <c r="B67" s="144"/>
       <c r="C67" s="100">
         <f>SUM(C10:C66)</f>
         <v>99.5</v>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="E67" s="100">
         <f>SUM(E10:E66)</f>
-        <v>83.75</v>
+        <v>84.75</v>
       </c>
       <c r="F67" s="100">
         <f>SUM(F10:F66)</f>
@@ -5600,7 +5600,7 @@
       <c r="I67" s="102"/>
       <c r="J67" s="100">
         <f t="shared" si="3"/>
-        <v>370.25</v>
+        <v>371.25</v>
       </c>
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
@@ -5625,10 +5625,10 @@
       <c r="AB67" s="104"/>
     </row>
     <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="129" t="s">
+      <c r="A68" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="129"/>
+      <c r="B68" s="139"/>
       <c r="C68" s="100">
         <f>135-C67</f>
         <v>35.5</v>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="E68" s="100">
         <f>135-E67</f>
-        <v>51.25</v>
+        <v>50.25</v>
       </c>
       <c r="F68" s="100">
         <f>135-F67</f>
@@ -5650,7 +5650,7 @@
       <c r="I68" s="100"/>
       <c r="J68" s="100">
         <f t="shared" si="3"/>
-        <v>169.75</v>
+        <v>168.75</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="103"/>
@@ -5672,10 +5672,10 @@
       <c r="AB68" s="103"/>
     </row>
     <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="130" t="s">
+      <c r="A69" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="130"/>
+      <c r="B69" s="140"/>
       <c r="C69" s="100"/>
       <c r="D69" s="100"/>
       <c r="E69" s="100"/>
@@ -5707,10 +5707,10 @@
       <c r="AB69" s="103"/>
     </row>
     <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="129" t="s">
+      <c r="A70" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="129"/>
+      <c r="B70" s="139"/>
       <c r="C70" s="100"/>
       <c r="D70" s="100"/>
       <c r="E70" s="105"/>
@@ -5719,11 +5719,11 @@
       <c r="H70" s="100"/>
       <c r="I70" s="106">
         <f>SUM(I10:I66)</f>
-        <v>394.75</v>
+        <v>396.75</v>
       </c>
       <c r="J70" s="100">
         <f>SUM(J10:J66)</f>
-        <v>370.25</v>
+        <v>371.25</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -5775,10 +5775,10 @@
       <c r="AB71" s="103"/>
     </row>
     <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="130" t="s">
+      <c r="A72" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="130"/>
+      <c r="B72" s="140"/>
       <c r="C72" s="100">
         <f>135*4</f>
         <v>540</v>
@@ -5810,13 +5810,13 @@
       <c r="AB72" s="103"/>
     </row>
     <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="131" t="s">
+      <c r="A73" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="131"/>
+      <c r="B73" s="141"/>
       <c r="C73" s="100">
         <f>C72-J70</f>
-        <v>169.75</v>
+        <v>168.75</v>
       </c>
       <c r="D73" s="108"/>
       <c r="E73" s="108"/>
@@ -5907,11 +5907,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5921,14 +5924,11 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC91031-07DC-4DE4-8941-6428FBBB0011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC516814-8EFC-8949-8AED-572F1E3C3D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -240,12 +238,6 @@
   </si>
   <si>
     <t>Pages gestion d'entreprises (Create,Edit)</t>
-  </si>
-  <si>
-    <t>Pages gestion d'evenement (Create,Edit,Delete)</t>
-  </si>
-  <si>
-    <t>Babillards de commentaires</t>
   </si>
   <si>
     <t>Nombre d'heures totales accordées au projet par personne</t>
@@ -356,6 +348,18 @@
   <si>
     <t>Améliorer le visuel (administration)</t>
   </si>
+  <si>
+    <t>Correctifs et modifications sur la supression d'entreprise et rejoindre evenement</t>
+  </si>
+  <si>
+    <t>Babillards de commentaires - Repousser au 3 ieme Sprint</t>
+  </si>
+  <si>
+    <t>Pages gestion d'evenement (Create,Edit,Delete) - Edit et Delete repousser 3ieme Sprint</t>
+  </si>
+  <si>
+    <t>Correction et visuel de la messagerie</t>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +371,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
     <numFmt numFmtId="167" formatCode="\\;;;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -514,8 +518,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +595,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAAC4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -994,7 +1026,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
@@ -1367,36 +1399,6 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="8" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1413,19 +1415,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Good" xfId="8" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Satisfaisant" xfId="8" builtinId="26"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1907,6 +1985,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFAAAC4"/>
+      <color rgb="FFFF788F"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1920,7 +2002,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2221,19 +2303,19 @@
   </sheetPr>
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="66.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="8.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="4" customWidth="1"/>
     <col min="9" max="10" width="9.33203125" style="5" customWidth="1"/>
     <col min="11" max="13" width="8" style="2" customWidth="1"/>
     <col min="14" max="14" width="8" style="6" customWidth="1"/>
@@ -2249,23 +2331,23 @@
     <col min="29" max="1025" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="129"/>
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="143"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
       <c r="N1" s="4"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
@@ -2276,21 +2358,21 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="11"/>
     </row>
-    <row r="2" spans="1:28" s="9" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:28" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="143"/>
       <c r="C2" s="8"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="N2" s="4"/>
@@ -2303,7 +2385,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="11"/>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -2321,7 +2403,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -2341,7 +2423,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="11"/>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2365,7 +2447,7 @@
       </c>
       <c r="AA5" s="11"/>
     </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2373,78 +2455,78 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131" t="s">
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="11"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132" t="s">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="138" t="s">
+      <c r="K7" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="142" t="s">
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="143" t="s">
+      <c r="AB7" s="133" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
@@ -2457,10 +2539,10 @@
       <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
       <c r="K8" s="22">
         <v>43838</v>
       </c>
@@ -2524,10 +2606,10 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="143"/>
-    </row>
-    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="133"/>
+    </row>
+    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>25</v>
@@ -2559,7 +2641,7 @@
       <c r="AA9" s="34"/>
       <c r="AB9" s="35"/>
     </row>
-    <row r="10" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="36">
         <v>1</v>
       </c>
@@ -2614,7 +2696,7 @@
       </c>
       <c r="AB10" s="46"/>
     </row>
-    <row r="11" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
         <v>2</v>
       </c>
@@ -2669,7 +2751,7 @@
       </c>
       <c r="AB11" s="49"/>
     </row>
-    <row r="12" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="36">
         <v>3</v>
       </c>
@@ -2723,7 +2805,7 @@
       </c>
       <c r="AB12" s="50"/>
     </row>
-    <row r="13" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="36">
         <v>4</v>
       </c>
@@ -2778,7 +2860,7 @@
       </c>
       <c r="AB13" s="49"/>
     </row>
-    <row r="14" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="36">
         <v>5</v>
       </c>
@@ -2833,7 +2915,7 @@
       </c>
       <c r="AB14" s="49"/>
     </row>
-    <row r="15" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="36">
         <v>6</v>
       </c>
@@ -2888,7 +2970,7 @@
       </c>
       <c r="AB15" s="49"/>
     </row>
-    <row r="16" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="36">
         <v>7</v>
       </c>
@@ -2943,7 +3025,7 @@
       </c>
       <c r="AB16" s="49"/>
     </row>
-    <row r="17" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="36">
         <v>8</v>
       </c>
@@ -2998,7 +3080,7 @@
       </c>
       <c r="AB17" s="49"/>
     </row>
-    <row r="18" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>9</v>
       </c>
@@ -3053,7 +3135,7 @@
       </c>
       <c r="AB18" s="49"/>
     </row>
-    <row r="19" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="36">
         <v>10</v>
       </c>
@@ -3108,7 +3190,7 @@
       </c>
       <c r="AB19" s="49"/>
     </row>
-    <row r="20" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="36">
         <v>11</v>
       </c>
@@ -3163,7 +3245,7 @@
       </c>
       <c r="AB20" s="49"/>
     </row>
-    <row r="21" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="36">
         <v>12</v>
       </c>
@@ -3218,7 +3300,7 @@
       </c>
       <c r="AB21" s="49"/>
     </row>
-    <row r="22" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="36">
         <v>13</v>
       </c>
@@ -3273,7 +3355,7 @@
       </c>
       <c r="AB22" s="49"/>
     </row>
-    <row r="23" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="36">
         <v>14</v>
       </c>
@@ -3328,7 +3410,7 @@
       </c>
       <c r="AB23" s="49"/>
     </row>
-    <row r="24" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="36">
         <v>15</v>
       </c>
@@ -3383,7 +3465,7 @@
       </c>
       <c r="AB24" s="49"/>
     </row>
-    <row r="25" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="36">
         <v>16</v>
       </c>
@@ -3438,7 +3520,7 @@
       </c>
       <c r="AB25" s="49"/>
     </row>
-    <row r="26" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="36">
         <v>17</v>
       </c>
@@ -3493,7 +3575,7 @@
       </c>
       <c r="AB26" s="77"/>
     </row>
-    <row r="27" spans="1:28" s="80" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="36">
         <v>18</v>
       </c>
@@ -3548,7 +3630,7 @@
       </c>
       <c r="AB27" s="49"/>
     </row>
-    <row r="28" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="36">
         <v>19</v>
       </c>
@@ -3603,7 +3685,7 @@
       </c>
       <c r="AB28" s="49"/>
     </row>
-    <row r="29" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="36">
         <v>20</v>
       </c>
@@ -3658,7 +3740,7 @@
       </c>
       <c r="AB29" s="49"/>
     </row>
-    <row r="30" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="36">
         <v>21</v>
       </c>
@@ -3713,7 +3795,7 @@
       </c>
       <c r="AB30" s="49"/>
     </row>
-    <row r="31" spans="1:28" s="80" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="36">
         <v>22</v>
       </c>
@@ -3768,7 +3850,7 @@
       </c>
       <c r="AB31" s="49"/>
     </row>
-    <row r="32" spans="1:28" s="80" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="36">
         <v>23</v>
       </c>
@@ -3823,7 +3905,7 @@
       </c>
       <c r="AB32" s="49"/>
     </row>
-    <row r="33" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="36">
         <v>24</v>
       </c>
@@ -3878,7 +3960,7 @@
       </c>
       <c r="AB33" s="49"/>
     </row>
-    <row r="34" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="36">
         <v>25</v>
       </c>
@@ -3933,7 +4015,7 @@
       </c>
       <c r="AB34" s="49"/>
     </row>
-    <row r="35" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="36">
         <v>27</v>
       </c>
@@ -3986,7 +4068,7 @@
       </c>
       <c r="AB35" s="49"/>
     </row>
-    <row r="36" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="36">
         <v>28</v>
       </c>
@@ -4039,7 +4121,7 @@
       </c>
       <c r="AB36" s="49"/>
     </row>
-    <row r="37" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="36">
         <v>29</v>
       </c>
@@ -4092,7 +4174,7 @@
       </c>
       <c r="AB37" s="49"/>
     </row>
-    <row r="38" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="36">
         <v>30</v>
       </c>
@@ -4145,7 +4227,7 @@
       </c>
       <c r="AB38" s="49"/>
     </row>
-    <row r="39" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="36">
         <v>31</v>
       </c>
@@ -4198,7 +4280,7 @@
       </c>
       <c r="AB39" s="49"/>
     </row>
-    <row r="40" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="36">
         <v>32</v>
       </c>
@@ -4251,7 +4333,7 @@
       </c>
       <c r="AB40" s="49"/>
     </row>
-    <row r="41" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="36">
         <v>33</v>
       </c>
@@ -4306,7 +4388,7 @@
       </c>
       <c r="AB41" s="49"/>
     </row>
-    <row r="42" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="36">
         <v>34</v>
       </c>
@@ -4359,7 +4441,7 @@
       </c>
       <c r="AB42" s="49"/>
     </row>
-    <row r="43" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="36">
         <v>35</v>
       </c>
@@ -4414,7 +4496,7 @@
       </c>
       <c r="AB43" s="49"/>
     </row>
-    <row r="44" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="36">
         <v>36</v>
       </c>
@@ -4469,7 +4551,7 @@
       </c>
       <c r="AB44" s="49"/>
     </row>
-    <row r="45" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="36">
         <v>37</v>
       </c>
@@ -4522,7 +4604,7 @@
       </c>
       <c r="AB45" s="49"/>
     </row>
-    <row r="46" spans="1:28" s="87" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="87" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="36">
         <v>39</v>
       </c>
@@ -4574,7 +4656,7 @@
       <c r="AA46" s="45"/>
       <c r="AB46" s="49"/>
     </row>
-    <row r="47" spans="1:28" s="87" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="87" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="36">
         <v>40</v>
       </c>
@@ -4626,7 +4708,7 @@
       <c r="AA47" s="45"/>
       <c r="AB47" s="49"/>
     </row>
-    <row r="48" spans="1:28" s="47" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" s="47" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="88"/>
       <c r="B48" s="25" t="s">
         <v>64</v>
@@ -4658,7 +4740,7 @@
       <c r="AA48" s="91"/>
       <c r="AB48" s="92"/>
     </row>
-    <row r="49" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="36">
         <v>1</v>
       </c>
@@ -4679,10 +4761,10 @@
       </c>
       <c r="G49" s="72">
         <f>VLOOKUP(H49,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I49" s="41">
         <v>7</v>
@@ -4699,7 +4781,7 @@
       <c r="P49" s="74"/>
       <c r="Q49" s="74"/>
       <c r="R49" s="54"/>
-      <c r="S49" s="69"/>
+      <c r="S49" s="54"/>
       <c r="T49" s="43"/>
       <c r="U49" s="93"/>
       <c r="V49" s="124"/>
@@ -4713,7 +4795,7 @@
       </c>
       <c r="AB49" s="49"/>
     </row>
-    <row r="50" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="36">
         <v>2</v>
       </c>
@@ -4752,7 +4834,7 @@
       <c r="P50" s="74"/>
       <c r="Q50" s="74"/>
       <c r="R50" s="54"/>
-      <c r="S50" s="69"/>
+      <c r="S50" s="54"/>
       <c r="T50" s="43"/>
       <c r="U50" s="93"/>
       <c r="V50" s="124"/>
@@ -4766,7 +4848,7 @@
       </c>
       <c r="AB50" s="49"/>
     </row>
-    <row r="51" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="36">
         <v>3</v>
       </c>
@@ -4805,7 +4887,7 @@
       <c r="P51" s="74"/>
       <c r="Q51" s="74"/>
       <c r="R51" s="94"/>
-      <c r="S51" s="69"/>
+      <c r="S51" s="54"/>
       <c r="T51" s="43"/>
       <c r="U51" s="93"/>
       <c r="V51" s="124"/>
@@ -4816,7 +4898,7 @@
       <c r="AA51" s="95"/>
       <c r="AB51" s="77"/>
     </row>
-    <row r="52" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="36">
         <v>4</v>
       </c>
@@ -4837,10 +4919,10 @@
       </c>
       <c r="G52" s="72">
         <f>VLOOKUP(H52,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I52" s="41">
         <v>8</v>
@@ -4862,18 +4944,18 @@
       <c r="U52" s="93"/>
       <c r="V52" s="124"/>
       <c r="W52" s="74"/>
-      <c r="X52" s="123"/>
+      <c r="X52" s="69"/>
       <c r="Y52" s="74"/>
       <c r="Z52" s="53"/>
       <c r="AA52" s="95"/>
       <c r="AB52" s="77"/>
     </row>
-    <row r="53" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="36">
+    <row r="53" spans="1:28" s="47" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="145">
         <v>5</v>
       </c>
-      <c r="B53" s="70" t="s">
-        <v>68</v>
+      <c r="B53" s="146" t="s">
+        <v>85</v>
       </c>
       <c r="C53" s="38">
         <v>8</v>
@@ -4920,12 +5002,12 @@
       <c r="AA53" s="95"/>
       <c r="AB53" s="77"/>
     </row>
-    <row r="54" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="36">
         <v>6</v>
       </c>
       <c r="B54" s="70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="38">
         <v>0</v>
@@ -4941,10 +5023,10 @@
       </c>
       <c r="G54" s="72">
         <f>VLOOKUP(H54,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I54" s="41">
         <v>8</v>
@@ -4972,12 +5054,12 @@
       <c r="AA54" s="95"/>
       <c r="AB54" s="77"/>
     </row>
-    <row r="55" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="36">
+    <row r="55" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="147">
         <v>7</v>
       </c>
-      <c r="B55" s="70" t="s">
-        <v>69</v>
+      <c r="B55" s="148" t="s">
+        <v>84</v>
       </c>
       <c r="C55" s="38">
         <v>0</v>
@@ -5018,18 +5100,18 @@
       <c r="U55" s="93"/>
       <c r="V55" s="124"/>
       <c r="W55" s="74"/>
-      <c r="X55" s="123"/>
+      <c r="X55" s="69"/>
       <c r="Y55" s="74"/>
       <c r="Z55" s="53"/>
       <c r="AA55" s="95"/>
       <c r="AB55" s="77"/>
     </row>
-    <row r="56" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="36">
         <v>8</v>
       </c>
       <c r="B56" s="70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="38">
         <v>5</v>
@@ -5045,10 +5127,10 @@
       </c>
       <c r="G56" s="72">
         <f>VLOOKUP(H56,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I56" s="41">
         <v>8</v>
@@ -5076,12 +5158,12 @@
       <c r="AA56" s="95"/>
       <c r="AB56" s="77"/>
     </row>
-    <row r="57" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="36">
         <v>9</v>
       </c>
       <c r="B57" s="70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" s="38">
         <v>0</v>
@@ -5128,12 +5210,12 @@
       <c r="AA57" s="95"/>
       <c r="AB57" s="77"/>
     </row>
-    <row r="58" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="36">
         <v>10</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="38">
         <v>0</v>
@@ -5180,12 +5262,12 @@
       <c r="AA58" s="95"/>
       <c r="AB58" s="77"/>
     </row>
-    <row r="59" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="36">
         <v>11</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="38">
         <v>0</v>
@@ -5232,12 +5314,12 @@
       <c r="AA59" s="95"/>
       <c r="AB59" s="77"/>
     </row>
-    <row r="60" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="36">
         <v>12</v>
       </c>
       <c r="B60" s="70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="38">
         <v>0</v>
@@ -5284,12 +5366,12 @@
       <c r="AA60" s="95"/>
       <c r="AB60" s="77"/>
     </row>
-    <row r="61" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="36">
         <v>13</v>
       </c>
       <c r="B61" s="70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="38">
         <v>0</v>
@@ -5336,12 +5418,12 @@
       <c r="AA61" s="95"/>
       <c r="AB61" s="77"/>
     </row>
-    <row r="62" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="36">
         <v>14</v>
       </c>
       <c r="B62" s="70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="38">
         <v>0</v>
@@ -5388,12 +5470,12 @@
       <c r="AA62" s="95"/>
       <c r="AB62" s="77"/>
     </row>
-    <row r="63" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="36">
         <v>15</v>
       </c>
       <c r="B63" s="70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="38">
         <v>0</v>
@@ -5440,24 +5522,38 @@
       <c r="AA63" s="95"/>
       <c r="AB63" s="77"/>
     </row>
-    <row r="64" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="36">
         <v>16</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="72" t="e">
+      <c r="B64" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="38">
+        <v>8</v>
+      </c>
+      <c r="D64" s="38">
+        <v>0</v>
+      </c>
+      <c r="E64" s="38">
+        <v>0</v>
+      </c>
+      <c r="F64" s="38">
+        <v>0</v>
+      </c>
+      <c r="G64" s="72">
         <f>VLOOKUP(H64,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="41">
+        <v>0</v>
+      </c>
       <c r="J64" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K64" s="43"/>
       <c r="L64" s="43"/>
@@ -5472,30 +5568,44 @@
       <c r="U64" s="74"/>
       <c r="V64" s="53"/>
       <c r="W64" s="74"/>
-      <c r="X64" s="74"/>
+      <c r="X64" s="127"/>
       <c r="Y64" s="74"/>
       <c r="Z64" s="53"/>
       <c r="AA64" s="95"/>
       <c r="AB64" s="77"/>
     </row>
-    <row r="65" spans="1:28" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="36">
         <v>17</v>
       </c>
-      <c r="B65" s="70"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="72" t="e">
+      <c r="B65" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="38">
+        <v>2</v>
+      </c>
+      <c r="D65" s="38">
+        <v>0</v>
+      </c>
+      <c r="E65" s="38">
+        <v>0</v>
+      </c>
+      <c r="F65" s="38">
+        <v>5</v>
+      </c>
+      <c r="G65" s="72">
         <f>VLOOKUP(H65,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H65" s="40"/>
-      <c r="I65" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="41">
+        <v>1</v>
+      </c>
       <c r="J65" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="J65" si="4">SUM(C65:F65)</f>
+        <v>7</v>
       </c>
       <c r="K65" s="43"/>
       <c r="L65" s="43"/>
@@ -5510,13 +5620,13 @@
       <c r="U65" s="74"/>
       <c r="V65" s="53"/>
       <c r="W65" s="74"/>
-      <c r="X65" s="74"/>
+      <c r="X65" s="127"/>
       <c r="Y65" s="74"/>
       <c r="Z65" s="53"/>
       <c r="AA65" s="95"/>
       <c r="AB65" s="77"/>
     </row>
-    <row r="66" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36">
         <v>19</v>
       </c>
@@ -5557,14 +5667,14 @@
       </c>
       <c r="AB66" s="99"/>
     </row>
-    <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="144" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="144"/>
+    <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="134"/>
       <c r="C67" s="100">
         <f>SUM(C10:C66)</f>
-        <v>99.5</v>
+        <v>109.5</v>
       </c>
       <c r="D67" s="100">
         <f>SUM(D10:D66)</f>
@@ -5576,14 +5686,14 @@
       </c>
       <c r="F67" s="100">
         <f>SUM(F10:F66)</f>
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G67" s="101"/>
       <c r="H67" s="100"/>
       <c r="I67" s="102"/>
       <c r="J67" s="100">
         <f t="shared" si="3"/>
-        <v>369.5</v>
+        <v>384.5</v>
       </c>
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
@@ -5607,14 +5717,14 @@
       </c>
       <c r="AB67" s="104"/>
     </row>
-    <row r="68" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="139"/>
+    <row r="68" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="129"/>
       <c r="C68" s="100">
         <f>135-C67</f>
-        <v>35.5</v>
+        <v>25.5</v>
       </c>
       <c r="D68" s="100">
         <f>135-D67</f>
@@ -5626,14 +5736,14 @@
       </c>
       <c r="F68" s="100">
         <f>135-F67</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G68" s="101"/>
       <c r="H68" s="100"/>
       <c r="I68" s="100"/>
       <c r="J68" s="100">
         <f t="shared" si="3"/>
-        <v>170.5</v>
+        <v>155.5</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="103"/>
@@ -5654,11 +5764,11 @@
       <c r="AA68" s="103"/>
       <c r="AB68" s="103"/>
     </row>
-    <row r="69" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="140" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="140"/>
+    <row r="69" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="130"/>
       <c r="C69" s="100"/>
       <c r="D69" s="100"/>
       <c r="E69" s="100"/>
@@ -5689,11 +5799,11 @@
       <c r="AA69" s="103"/>
       <c r="AB69" s="103"/>
     </row>
-    <row r="70" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="139"/>
+    <row r="70" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="129"/>
       <c r="C70" s="100"/>
       <c r="D70" s="100"/>
       <c r="E70" s="105"/>
@@ -5702,11 +5812,11 @@
       <c r="H70" s="100"/>
       <c r="I70" s="106">
         <f>SUM(I10:I66)</f>
-        <v>393.75</v>
+        <v>394.75</v>
       </c>
       <c r="J70" s="100">
         <f>SUM(J10:J66)</f>
-        <v>369.5</v>
+        <v>384.5</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -5727,7 +5837,7 @@
       <c r="AA70" s="103"/>
       <c r="AB70" s="103"/>
     </row>
-    <row r="71" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="107"/>
       <c r="B71" s="107"/>
       <c r="C71" s="108"/>
@@ -5757,11 +5867,11 @@
       <c r="AA71" s="103"/>
       <c r="AB71" s="103"/>
     </row>
-    <row r="72" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="140"/>
+    <row r="72" spans="1:28" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="130"/>
       <c r="C72" s="100">
         <f>135*4</f>
         <v>540</v>
@@ -5792,14 +5902,14 @@
       <c r="AA72" s="103"/>
       <c r="AB72" s="103"/>
     </row>
-    <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="141"/>
+    <row r="73" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="131"/>
       <c r="C73" s="100">
         <f>C72-J70</f>
-        <v>170.5</v>
+        <v>155.5</v>
       </c>
       <c r="D73" s="108"/>
       <c r="E73" s="108"/>
@@ -5827,7 +5937,7 @@
       <c r="AA73" s="103"/>
       <c r="AB73" s="103"/>
     </row>
-    <row r="74" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="109"/>
       <c r="B74" s="107"/>
       <c r="C74" s="110"/>
@@ -5840,12 +5950,12 @@
       <c r="J74" s="112"/>
       <c r="AA74" s="103"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D75" s="113"/>
       <c r="E75" s="113"/>
       <c r="F75" s="113"/>
     </row>
-    <row r="76" spans="1:28" s="115" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" s="115" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A76" s="114"/>
       <c r="C76" s="116"/>
       <c r="D76" s="116"/>
@@ -5860,7 +5970,7 @@
       <c r="Z76" s="119"/>
       <c r="AA76" s="120"/>
     </row>
-    <row r="77" spans="1:28" s="115" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" s="115" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="C77" s="116"/>
       <c r="D77" s="116"/>
       <c r="E77" s="116"/>
@@ -5874,7 +5984,7 @@
       <c r="Z77" s="119"/>
       <c r="AA77" s="120"/>
     </row>
-    <row r="78" spans="1:28" s="115" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" s="115" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="C78" s="116"/>
       <c r="D78" s="116"/>
       <c r="E78" s="116"/>
@@ -5890,14 +6000,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -5907,177 +6014,191 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H45 H49 H64:H66 H47">
-    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="En attente">
+  <conditionalFormatting sqref="H9:H45 H49 H66 H47">
+    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F45 C49:F49 C64:F66 C47:F47">
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
+  <conditionalFormatting sqref="C9:F45 C49:F49 C47:F47 C64:F66">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>$H9="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F45 C49:F49 C64:F66 C47:F47">
-    <cfRule type="expression" dxfId="36" priority="22">
+  <conditionalFormatting sqref="C9:F45 C49:F49 C47:F47 C64:F66">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>$H9="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="23">
+    <cfRule type="expression" dxfId="38" priority="26">
       <formula>$H9="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="En attente">
+    <cfRule type="containsText" dxfId="37" priority="27" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="36" priority="28" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:F48">
-    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>$H48="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:F48">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>$H48="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$H48="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H55">
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="En attente">
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F55">
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>$H50="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F55">
-    <cfRule type="expression" dxfId="22" priority="36">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>$H50="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="37">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>$H50="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="20" priority="38" operator="containsText" text="En attente">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="22" priority="42" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="40" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="cellIs" dxfId="17" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="42">
+    <cfRule type="expression" dxfId="19" priority="45">
       <formula>$H46="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="expression" dxfId="15" priority="43">
+    <cfRule type="expression" dxfId="18" priority="46">
       <formula>$H46="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="44">
+    <cfRule type="expression" dxfId="17" priority="47">
       <formula>$H46="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="En attente">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F56">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$H56="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F56">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>$H56="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>$H56="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:H63">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="En attente">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:F63">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$H57="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:F63">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$H57="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>$H57="En attente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:H65">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="En attente">
+      <formula>NOT(ISERROR(SEARCH("En attente",H64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",H64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",H64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6100,12 +6221,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
         <v>6</v>
       </c>
@@ -6113,7 +6234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -6121,7 +6242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6141,7 +6262,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="2"/>
   </cols>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDF28A4-31EE-425E-A700-86D9A9A293D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830DF5A-379C-4D47-B5E8-8D3D9BE70EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="30720" windowHeight="18740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -364,6 +362,9 @@
   </si>
   <si>
     <t>Améliorer le visuel (business-create, business-list, business-edit, business-delete)</t>
+  </si>
+  <si>
+    <t>Ajuster ( - 2 semaines Covid-19)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +539,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,8 +615,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1083,6 +1090,49 @@
       <left/>
       <right style="thin">
         <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1106,7 +1156,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1543,6 +1593,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1559,49 +1639,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="Bad" xfId="10" builtinId="27"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Insatisfaisant" xfId="10" builtinId="27"/>
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
-    <cellStyle name="Neutre" xfId="9" builtinId="28"/>
+    <cellStyle name="Good" xfId="8" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Satisfaisant" xfId="8" builtinId="26"/>
   </cellStyles>
   <dxfs count="52">
     <dxf>
@@ -2493,19 +2555,19 @@
   </sheetPr>
   <dimension ref="A1:AMK80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
     <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
     <col min="11" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="5" customWidth="1"/>
@@ -2521,23 +2583,23 @@
     <col min="29" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="160"/>
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="146"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -2548,21 +2610,21 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -2575,7 +2637,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2593,7 +2655,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2613,7 +2675,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -2637,7 +2699,7 @@
       </c>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2645,78 +2707,78 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="152" t="s">
+      <c r="K6" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="152" t="s">
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="148"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="152"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="148"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="153" t="s">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="156" t="s">
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="157" t="s">
+      <c r="H7" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="158" t="s">
+      <c r="I7" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="158" t="s">
+      <c r="J7" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="159" t="s">
+      <c r="K7" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="149" t="s">
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="155"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="155"/>
+      <c r="U7" s="155"/>
+      <c r="V7" s="155"/>
+      <c r="W7" s="155"/>
+      <c r="X7" s="155"/>
+      <c r="Y7" s="155"/>
+      <c r="Z7" s="155"/>
+      <c r="AA7" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="150" t="s">
+      <c r="AB7" s="160" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="149"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
@@ -2729,10 +2791,10 @@
       <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
@@ -2796,10 +2858,10 @@
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="150"/>
-    </row>
-    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="160"/>
+    </row>
+    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>25</v>
@@ -2831,7 +2893,7 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>1</v>
       </c>
@@ -2886,7 +2948,7 @@
       </c>
       <c r="AB10" s="45"/>
     </row>
-    <row r="11" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <v>2</v>
       </c>
@@ -2941,7 +3003,7 @@
       </c>
       <c r="AB11" s="48"/>
     </row>
-    <row r="12" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>3</v>
       </c>
@@ -2995,7 +3057,7 @@
       </c>
       <c r="AB12" s="49"/>
     </row>
-    <row r="13" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>4</v>
       </c>
@@ -3050,7 +3112,7 @@
       </c>
       <c r="AB13" s="48"/>
     </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>5</v>
       </c>
@@ -3105,7 +3167,7 @@
       </c>
       <c r="AB14" s="48"/>
     </row>
-    <row r="15" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>6</v>
       </c>
@@ -3160,7 +3222,7 @@
       </c>
       <c r="AB15" s="48"/>
     </row>
-    <row r="16" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>7</v>
       </c>
@@ -3215,7 +3277,7 @@
       </c>
       <c r="AB16" s="48"/>
     </row>
-    <row r="17" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>8</v>
       </c>
@@ -3270,7 +3332,7 @@
       </c>
       <c r="AB17" s="48"/>
     </row>
-    <row r="18" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>9</v>
       </c>
@@ -3325,7 +3387,7 @@
       </c>
       <c r="AB18" s="48"/>
     </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>10</v>
       </c>
@@ -3380,7 +3442,7 @@
       </c>
       <c r="AB19" s="48"/>
     </row>
-    <row r="20" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>11</v>
       </c>
@@ -3435,7 +3497,7 @@
       </c>
       <c r="AB20" s="48"/>
     </row>
-    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>12</v>
       </c>
@@ -3490,7 +3552,7 @@
       </c>
       <c r="AB21" s="48"/>
     </row>
-    <row r="22" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>13</v>
       </c>
@@ -3545,7 +3607,7 @@
       </c>
       <c r="AB22" s="48"/>
     </row>
-    <row r="23" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>14</v>
       </c>
@@ -3600,7 +3662,7 @@
       </c>
       <c r="AB23" s="48"/>
     </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>15</v>
       </c>
@@ -3655,7 +3717,7 @@
       </c>
       <c r="AB24" s="48"/>
     </row>
-    <row r="25" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>16</v>
       </c>
@@ -3710,7 +3772,7 @@
       </c>
       <c r="AB25" s="48"/>
     </row>
-    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>17</v>
       </c>
@@ -3765,7 +3827,7 @@
       </c>
       <c r="AB26" s="76"/>
     </row>
-    <row r="27" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <v>18</v>
       </c>
@@ -3820,7 +3882,7 @@
       </c>
       <c r="AB27" s="48"/>
     </row>
-    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>19</v>
       </c>
@@ -3875,7 +3937,7 @@
       </c>
       <c r="AB28" s="48"/>
     </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
         <v>20</v>
       </c>
@@ -3930,7 +3992,7 @@
       </c>
       <c r="AB29" s="48"/>
     </row>
-    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>21</v>
       </c>
@@ -3985,7 +4047,7 @@
       </c>
       <c r="AB30" s="48"/>
     </row>
-    <row r="31" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>22</v>
       </c>
@@ -4040,7 +4102,7 @@
       </c>
       <c r="AB31" s="48"/>
     </row>
-    <row r="32" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>23</v>
       </c>
@@ -4095,7 +4157,7 @@
       </c>
       <c r="AB32" s="48"/>
     </row>
-    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="35">
         <v>24</v>
       </c>
@@ -4150,7 +4212,7 @@
       </c>
       <c r="AB33" s="48"/>
     </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>25</v>
       </c>
@@ -4205,7 +4267,7 @@
       </c>
       <c r="AB34" s="48"/>
     </row>
-    <row r="35" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="35">
         <v>27</v>
       </c>
@@ -4258,7 +4320,7 @@
       </c>
       <c r="AB35" s="48"/>
     </row>
-    <row r="36" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="35">
         <v>28</v>
       </c>
@@ -4311,7 +4373,7 @@
       </c>
       <c r="AB36" s="48"/>
     </row>
-    <row r="37" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
         <v>29</v>
       </c>
@@ -4364,7 +4426,7 @@
       </c>
       <c r="AB37" s="48"/>
     </row>
-    <row r="38" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="35">
         <v>30</v>
       </c>
@@ -4417,7 +4479,7 @@
       </c>
       <c r="AB38" s="48"/>
     </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="35">
         <v>31</v>
       </c>
@@ -4470,7 +4532,7 @@
       </c>
       <c r="AB39" s="48"/>
     </row>
-    <row r="40" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="35">
         <v>32</v>
       </c>
@@ -4523,7 +4585,7 @@
       </c>
       <c r="AB40" s="48"/>
     </row>
-    <row r="41" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="35">
         <v>33</v>
       </c>
@@ -4578,7 +4640,7 @@
       </c>
       <c r="AB41" s="48"/>
     </row>
-    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="35">
         <v>34</v>
       </c>
@@ -4631,7 +4693,7 @@
       </c>
       <c r="AB42" s="48"/>
     </row>
-    <row r="43" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="35">
         <v>35</v>
       </c>
@@ -4686,7 +4748,7 @@
       </c>
       <c r="AB43" s="48"/>
     </row>
-    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="35">
         <v>36</v>
       </c>
@@ -4741,7 +4803,7 @@
       </c>
       <c r="AB44" s="48"/>
     </row>
-    <row r="45" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="35">
         <v>37</v>
       </c>
@@ -4794,7 +4856,7 @@
       </c>
       <c r="AB45" s="48"/>
     </row>
-    <row r="46" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="35">
         <v>39</v>
       </c>
@@ -4846,7 +4908,7 @@
       <c r="AA46" s="44"/>
       <c r="AB46" s="48"/>
     </row>
-    <row r="47" spans="1:28" s="86" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="35">
         <v>40</v>
       </c>
@@ -4898,7 +4960,7 @@
       <c r="AA47" s="44"/>
       <c r="AB47" s="48"/>
     </row>
-    <row r="48" spans="1:28" s="46" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="87"/>
       <c r="B48" s="24" t="s">
         <v>64</v>
@@ -4930,7 +4992,7 @@
       <c r="AA48" s="90"/>
       <c r="AB48" s="91"/>
     </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="35">
         <v>1</v>
       </c>
@@ -4985,7 +5047,7 @@
       </c>
       <c r="AB49" s="48"/>
     </row>
-    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="35">
         <v>2</v>
       </c>
@@ -5038,7 +5100,7 @@
       </c>
       <c r="AB50" s="48"/>
     </row>
-    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="35">
         <v>3</v>
       </c>
@@ -5088,7 +5150,7 @@
       <c r="AA51" s="94"/>
       <c r="AB51" s="76"/>
     </row>
-    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="35">
         <v>4</v>
       </c>
@@ -5140,7 +5202,7 @@
       <c r="AA52" s="94"/>
       <c r="AB52" s="76"/>
     </row>
-    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="143">
         <v>5</v>
       </c>
@@ -5192,7 +5254,7 @@
       <c r="AA53" s="94"/>
       <c r="AB53" s="76"/>
     </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="35">
         <v>6</v>
       </c>
@@ -5244,7 +5306,7 @@
       <c r="AA54" s="94"/>
       <c r="AB54" s="76"/>
     </row>
-    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="35">
         <v>7</v>
       </c>
@@ -5296,7 +5358,7 @@
       <c r="AA55" s="94"/>
       <c r="AB55" s="76"/>
     </row>
-    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="35">
         <v>8</v>
       </c>
@@ -5348,7 +5410,7 @@
       <c r="AA56" s="94"/>
       <c r="AB56" s="76"/>
     </row>
-    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="35">
         <v>9</v>
       </c>
@@ -5400,7 +5462,7 @@
       <c r="AA57" s="94"/>
       <c r="AB57" s="76"/>
     </row>
-    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="35">
         <v>10</v>
       </c>
@@ -5452,7 +5514,7 @@
       <c r="AA58" s="94"/>
       <c r="AB58" s="76"/>
     </row>
-    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="35">
         <v>11</v>
       </c>
@@ -5504,7 +5566,7 @@
       <c r="AA59" s="94"/>
       <c r="AB59" s="76"/>
     </row>
-    <row r="60" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="35">
         <v>12</v>
       </c>
@@ -5556,7 +5618,7 @@
       <c r="AA60" s="94"/>
       <c r="AB60" s="76"/>
     </row>
-    <row r="61" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="35">
         <v>13</v>
       </c>
@@ -5608,7 +5670,7 @@
       <c r="AA61" s="94"/>
       <c r="AB61" s="76"/>
     </row>
-    <row r="62" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="35">
         <v>14</v>
       </c>
@@ -5660,7 +5722,7 @@
       <c r="AA62" s="94"/>
       <c r="AB62" s="76"/>
     </row>
-    <row r="63" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="35">
         <v>15</v>
       </c>
@@ -5712,7 +5774,7 @@
       <c r="AA63" s="94"/>
       <c r="AB63" s="76"/>
     </row>
-    <row r="64" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="143">
         <v>16</v>
       </c>
@@ -5753,13 +5815,13 @@
       <c r="U64" s="73"/>
       <c r="V64" s="52"/>
       <c r="W64" s="73"/>
-      <c r="X64" s="128"/>
+      <c r="X64" s="124"/>
       <c r="Y64" s="73"/>
       <c r="Z64" s="52"/>
       <c r="AA64" s="94"/>
       <c r="AB64" s="76"/>
     </row>
-    <row r="65" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="35">
         <v>17</v>
       </c>
@@ -5780,7 +5842,7 @@
       </c>
       <c r="G65" s="71"/>
       <c r="H65" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I65" s="40">
         <v>3</v>
@@ -5808,7 +5870,7 @@
       <c r="AA65" s="94"/>
       <c r="AB65" s="76"/>
     </row>
-    <row r="66" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="35">
         <v>18</v>
       </c>
@@ -5857,7 +5919,7 @@
       <c r="AA66" s="94"/>
       <c r="AB66" s="76"/>
     </row>
-    <row r="67" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
       <c r="B67" s="69"/>
       <c r="C67" s="37"/>
@@ -5887,7 +5949,7 @@
       <c r="AA67" s="94"/>
       <c r="AB67" s="76"/>
     </row>
-    <row r="68" spans="1:28" s="46" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" s="46" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="135"/>
       <c r="B68" s="136"/>
       <c r="C68" s="137"/>
@@ -5917,11 +5979,11 @@
       <c r="AA68" s="97"/>
       <c r="AB68" s="98"/>
     </row>
-    <row r="69" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="151" t="s">
+    <row r="69" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="151"/>
+      <c r="B69" s="161"/>
       <c r="C69" s="99">
         <f>SUM(C10:C68)</f>
         <v>111</v>
@@ -5967,33 +6029,33 @@
       </c>
       <c r="AB69" s="133"/>
     </row>
-    <row r="70" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="146" t="s">
+    <row r="70" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="146"/>
+      <c r="B70" s="156"/>
       <c r="C70" s="99">
-        <f>135-C69</f>
-        <v>24</v>
+        <f>117-C69</f>
+        <v>6</v>
       </c>
       <c r="D70" s="99">
-        <f>135-D69</f>
-        <v>44.5</v>
+        <f>117-D69</f>
+        <v>26.5</v>
       </c>
       <c r="E70" s="99">
-        <f>135-E69</f>
-        <v>42.5</v>
+        <f>117-E69</f>
+        <v>24.5</v>
       </c>
       <c r="F70" s="99">
-        <f>135-F69</f>
-        <v>27</v>
+        <f>117-F69</f>
+        <v>9</v>
       </c>
       <c r="G70" s="100"/>
       <c r="H70" s="99"/>
       <c r="I70" s="99"/>
       <c r="J70" s="99">
         <f>SUM(C70:F70)</f>
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="K70" s="102"/>
       <c r="L70" s="102"/>
@@ -6014,11 +6076,11 @@
       <c r="AA70" s="102"/>
       <c r="AB70" s="102"/>
     </row>
-    <row r="71" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="147" t="s">
+    <row r="71" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="147"/>
+      <c r="B71" s="157"/>
       <c r="C71" s="99"/>
       <c r="D71" s="99"/>
       <c r="E71" s="99"/>
@@ -6049,11 +6111,11 @@
       <c r="AA71" s="102"/>
       <c r="AB71" s="102"/>
     </row>
-    <row r="72" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="146" t="s">
+    <row r="72" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="146"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="99"/>
       <c r="D72" s="99"/>
       <c r="E72" s="103"/>
@@ -6087,14 +6149,16 @@
       <c r="AA72" s="102"/>
       <c r="AB72" s="102"/>
     </row>
-    <row r="73" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="105"/>
       <c r="B73" s="105"/>
       <c r="C73" s="106"/>
-      <c r="D73" s="106"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="106"/>
-      <c r="G73" s="106"/>
+      <c r="D73" s="165" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="165"/>
+      <c r="F73" s="165"/>
+      <c r="G73" s="165"/>
       <c r="H73" s="106"/>
       <c r="I73" s="106"/>
       <c r="J73" s="106"/>
@@ -6117,16 +6181,18 @@
       <c r="AA73" s="102"/>
       <c r="AB73" s="102"/>
     </row>
-    <row r="74" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="147" t="s">
+    <row r="74" spans="1:28" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="147"/>
-      <c r="C74" s="99">
+      <c r="B74" s="157"/>
+      <c r="C74" s="162">
         <f>135*4</f>
         <v>540</v>
       </c>
-      <c r="D74" s="106"/>
+      <c r="D74" s="163">
+        <v>468</v>
+      </c>
       <c r="E74" s="106"/>
       <c r="F74" s="106"/>
       <c r="G74" s="106"/>
@@ -6152,16 +6218,18 @@
       <c r="AA74" s="102"/>
       <c r="AB74" s="102"/>
     </row>
-    <row r="75" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="148" t="s">
+    <row r="75" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="148"/>
-      <c r="C75" s="99">
+      <c r="B75" s="158"/>
+      <c r="C75" s="162">
         <f>C74-J72</f>
         <v>138</v>
       </c>
-      <c r="D75" s="106"/>
+      <c r="D75" s="164">
+        <v>66</v>
+      </c>
       <c r="E75" s="106"/>
       <c r="F75" s="106"/>
       <c r="G75" s="106"/>
@@ -6187,7 +6255,7 @@
       <c r="AA75" s="102"/>
       <c r="AB75" s="102"/>
     </row>
-    <row r="76" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="107"/>
       <c r="B76" s="105"/>
       <c r="C76" s="108"/>
@@ -6200,12 +6268,12 @@
       <c r="J76" s="110"/>
       <c r="AA76" s="102"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D77" s="111"/>
       <c r="E77" s="111"/>
       <c r="F77" s="111"/>
     </row>
-    <row r="78" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" s="113" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A78" s="112"/>
       <c r="C78" s="114"/>
       <c r="D78" s="114"/>
@@ -6220,7 +6288,7 @@
       <c r="Z78" s="117"/>
       <c r="AA78" s="118"/>
     </row>
-    <row r="79" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" s="113" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="C79" s="114"/>
       <c r="D79" s="114"/>
       <c r="E79" s="114"/>
@@ -6234,7 +6302,7 @@
       <c r="Z79" s="117"/>
       <c r="AA79" s="118"/>
     </row>
-    <row r="80" spans="1:28" s="113" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" s="113" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="C80" s="114"/>
       <c r="D80" s="114"/>
       <c r="E80" s="114"/>
@@ -6249,12 +6317,16 @@
       <c r="AA80" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+  <mergeCells count="23">
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D73:G73"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -6264,14 +6336,11 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="En cours">
@@ -6473,7 +6542,7 @@
       <formula>NOT(ISERROR(SEARCH("Terminé",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H68" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"En attente,En cours,Terminé"</formula1>
       <formula2>0</formula2>
@@ -6481,7 +6550,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31527777777777799" right="0.31527777777777799" top="0.74791666666666701" bottom="0.55138888888888904" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="37" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6493,12 +6562,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>6</v>
       </c>
@@ -6506,7 +6575,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6514,7 +6583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6534,7 +6603,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830DF5A-379C-4D47-B5E8-8D3D9BE70EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="30720" windowHeight="18740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="23160" windowHeight="13080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -366,18 +360,28 @@
   <si>
     <t>Ajuster ( - 2 semaines Covid-19)</t>
   </si>
+  <si>
+    <t>TROISIEME SPRINT</t>
+  </si>
+  <si>
+    <t>Réunion/Présentation du 2019-04-08</t>
+  </si>
+  <si>
+    <t>Améliorer le visuel historique événement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * \-??_)_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
     <numFmt numFmtId="167" formatCode="\\;;;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -622,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -976,21 +980,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1044,58 +1033,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,7 +1093,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1448,29 +1385,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1543,44 +1468,14 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="15" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1593,40 +1488,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
@@ -1639,33 +1510,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="11" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="14" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Bad" xfId="10" builtinId="27"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Excel Built-in 60% - Accent4" xfId="7"/>
+    <cellStyle name="Excel Built-in Bad" xfId="6"/>
+    <cellStyle name="Excel Built-in Good" xfId="4"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="5"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Good" xfId="8" builtinId="26"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1693,6 +1605,268 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1794,23 +1968,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1832,11 +1989,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1852,11 +2009,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1924,247 +2088,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2542,32 +2465,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK80"/>
+  <dimension ref="A1:AMK81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
     <col min="9" max="10" width="9.33203125" style="4" customWidth="1"/>
     <col min="11" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="5" customWidth="1"/>
@@ -2583,23 +2506,23 @@
     <col min="29" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="146"/>
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1">
+      <c r="A1" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="151"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -2610,21 +2533,21 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146" t="s">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1">
+      <c r="A2" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -2637,7 +2560,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2655,7 +2578,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2675,7 +2598,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="16.2" thickBot="1">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -2699,7 +2622,7 @@
       </c>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2707,78 +2630,78 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="148" t="s">
+      <c r="K6" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148" t="s">
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="148"/>
-      <c r="U6" s="148"/>
-      <c r="V6" s="148"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="149" t="s">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A7" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152" t="s">
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="153" t="s">
+      <c r="H7" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="154" t="s">
+      <c r="J7" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="155" t="s">
+      <c r="K7" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
-      <c r="V7" s="155"/>
-      <c r="W7" s="155"/>
-      <c r="X7" s="155"/>
-      <c r="Y7" s="155"/>
-      <c r="Z7" s="155"/>
-      <c r="AA7" s="159" t="s">
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="160" t="s">
+      <c r="AB7" s="140" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="149"/>
-      <c r="B8" s="150"/>
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
@@ -2791,15 +2714,15 @@
       <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="152"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
       <c r="L8" s="22">
-        <f t="shared" ref="L8:Z8" si="0">K8+7</f>
+        <f t="shared" ref="L8:Y8" si="0">K8+7</f>
         <v>43845</v>
       </c>
       <c r="M8" s="22">
@@ -2855,13 +2778,13 @@
         <v>43936</v>
       </c>
       <c r="Z8" s="22">
-        <f t="shared" si="0"/>
+        <f>Y8+7</f>
         <v>43943</v>
       </c>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="160"/>
-    </row>
-    <row r="9" spans="1:28" ht="19" x14ac:dyDescent="0.2">
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="140"/>
+    </row>
+    <row r="9" spans="1:28" ht="18">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>25</v>
@@ -2893,7 +2816,7 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A10" s="35">
         <v>1</v>
       </c>
@@ -2948,7 +2871,7 @@
       </c>
       <c r="AB10" s="45"/>
     </row>
-    <row r="11" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A11" s="35">
         <v>2</v>
       </c>
@@ -3003,7 +2926,7 @@
       </c>
       <c r="AB11" s="48"/>
     </row>
-    <row r="12" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A12" s="35">
         <v>3</v>
       </c>
@@ -3057,7 +2980,7 @@
       </c>
       <c r="AB12" s="49"/>
     </row>
-    <row r="13" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A13" s="35">
         <v>4</v>
       </c>
@@ -3112,7 +3035,7 @@
       </c>
       <c r="AB13" s="48"/>
     </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A14" s="35">
         <v>5</v>
       </c>
@@ -3167,7 +3090,7 @@
       </c>
       <c r="AB14" s="48"/>
     </row>
-    <row r="15" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A15" s="35">
         <v>6</v>
       </c>
@@ -3222,7 +3145,7 @@
       </c>
       <c r="AB15" s="48"/>
     </row>
-    <row r="16" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A16" s="35">
         <v>7</v>
       </c>
@@ -3277,7 +3200,7 @@
       </c>
       <c r="AB16" s="48"/>
     </row>
-    <row r="17" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A17" s="35">
         <v>8</v>
       </c>
@@ -3332,7 +3255,7 @@
       </c>
       <c r="AB17" s="48"/>
     </row>
-    <row r="18" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A18" s="35">
         <v>9</v>
       </c>
@@ -3387,7 +3310,7 @@
       </c>
       <c r="AB18" s="48"/>
     </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A19" s="35">
         <v>10</v>
       </c>
@@ -3442,7 +3365,7 @@
       </c>
       <c r="AB19" s="48"/>
     </row>
-    <row r="20" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A20" s="35">
         <v>11</v>
       </c>
@@ -3497,7 +3420,7 @@
       </c>
       <c r="AB20" s="48"/>
     </row>
-    <row r="21" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" s="46" customFormat="1">
       <c r="A21" s="35">
         <v>12</v>
       </c>
@@ -3552,7 +3475,7 @@
       </c>
       <c r="AB21" s="48"/>
     </row>
-    <row r="22" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A22" s="35">
         <v>13</v>
       </c>
@@ -3607,7 +3530,7 @@
       </c>
       <c r="AB22" s="48"/>
     </row>
-    <row r="23" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A23" s="35">
         <v>14</v>
       </c>
@@ -3662,7 +3585,7 @@
       </c>
       <c r="AB23" s="48"/>
     </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A24" s="35">
         <v>15</v>
       </c>
@@ -3717,7 +3640,7 @@
       </c>
       <c r="AB24" s="48"/>
     </row>
-    <row r="25" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A25" s="35">
         <v>16</v>
       </c>
@@ -3772,7 +3695,7 @@
       </c>
       <c r="AB25" s="48"/>
     </row>
-    <row r="26" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A26" s="35">
         <v>17</v>
       </c>
@@ -3827,7 +3750,7 @@
       </c>
       <c r="AB26" s="76"/>
     </row>
-    <row r="27" spans="1:28" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="79" customFormat="1" ht="15.6">
       <c r="A27" s="35">
         <v>18</v>
       </c>
@@ -3882,7 +3805,7 @@
       </c>
       <c r="AB27" s="48"/>
     </row>
-    <row r="28" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A28" s="35">
         <v>19</v>
       </c>
@@ -3937,7 +3860,7 @@
       </c>
       <c r="AB28" s="48"/>
     </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A29" s="35">
         <v>20</v>
       </c>
@@ -3992,7 +3915,7 @@
       </c>
       <c r="AB29" s="48"/>
     </row>
-    <row r="30" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A30" s="35">
         <v>21</v>
       </c>
@@ -4047,7 +3970,7 @@
       </c>
       <c r="AB30" s="48"/>
     </row>
-    <row r="31" spans="1:28" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" s="79" customFormat="1" ht="15.6">
       <c r="A31" s="35">
         <v>22</v>
       </c>
@@ -4102,7 +4025,7 @@
       </c>
       <c r="AB31" s="48"/>
     </row>
-    <row r="32" spans="1:28" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="79" customFormat="1" ht="15.6">
       <c r="A32" s="35">
         <v>23</v>
       </c>
@@ -4157,7 +4080,7 @@
       </c>
       <c r="AB32" s="48"/>
     </row>
-    <row r="33" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A33" s="35">
         <v>24</v>
       </c>
@@ -4212,7 +4135,7 @@
       </c>
       <c r="AB33" s="48"/>
     </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A34" s="35">
         <v>25</v>
       </c>
@@ -4267,7 +4190,7 @@
       </c>
       <c r="AB34" s="48"/>
     </row>
-    <row r="35" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A35" s="35">
         <v>27</v>
       </c>
@@ -4320,7 +4243,7 @@
       </c>
       <c r="AB35" s="48"/>
     </row>
-    <row r="36" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A36" s="35">
         <v>28</v>
       </c>
@@ -4373,7 +4296,7 @@
       </c>
       <c r="AB36" s="48"/>
     </row>
-    <row r="37" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A37" s="35">
         <v>29</v>
       </c>
@@ -4426,7 +4349,7 @@
       </c>
       <c r="AB37" s="48"/>
     </row>
-    <row r="38" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A38" s="35">
         <v>30</v>
       </c>
@@ -4479,7 +4402,7 @@
       </c>
       <c r="AB38" s="48"/>
     </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A39" s="35">
         <v>31</v>
       </c>
@@ -4532,7 +4455,7 @@
       </c>
       <c r="AB39" s="48"/>
     </row>
-    <row r="40" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A40" s="35">
         <v>32</v>
       </c>
@@ -4585,7 +4508,7 @@
       </c>
       <c r="AB40" s="48"/>
     </row>
-    <row r="41" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A41" s="35">
         <v>33</v>
       </c>
@@ -4640,7 +4563,7 @@
       </c>
       <c r="AB41" s="48"/>
     </row>
-    <row r="42" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="46" customFormat="1">
       <c r="A42" s="35">
         <v>34</v>
       </c>
@@ -4693,7 +4616,7 @@
       </c>
       <c r="AB42" s="48"/>
     </row>
-    <row r="43" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A43" s="35">
         <v>35</v>
       </c>
@@ -4748,7 +4671,7 @@
       </c>
       <c r="AB43" s="48"/>
     </row>
-    <row r="44" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="46" customFormat="1">
       <c r="A44" s="35">
         <v>36</v>
       </c>
@@ -4803,7 +4726,7 @@
       </c>
       <c r="AB44" s="48"/>
     </row>
-    <row r="45" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A45" s="35">
         <v>37</v>
       </c>
@@ -4856,7 +4779,7 @@
       </c>
       <c r="AB45" s="48"/>
     </row>
-    <row r="46" spans="1:28" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" s="86" customFormat="1">
       <c r="A46" s="35">
         <v>39</v>
       </c>
@@ -4896,7 +4819,7 @@
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
       <c r="Q46" s="42"/>
-      <c r="R46" s="125"/>
+      <c r="R46" s="121"/>
       <c r="S46" s="42"/>
       <c r="T46" s="42"/>
       <c r="U46" s="42"/>
@@ -4908,7 +4831,7 @@
       <c r="AA46" s="44"/>
       <c r="AB46" s="48"/>
     </row>
-    <row r="47" spans="1:28" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" s="86" customFormat="1" ht="15.6">
       <c r="A47" s="35">
         <v>40</v>
       </c>
@@ -4960,7 +4883,7 @@
       <c r="AA47" s="44"/>
       <c r="AB47" s="48"/>
     </row>
-    <row r="48" spans="1:28" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="46" customFormat="1" ht="18">
       <c r="A48" s="87"/>
       <c r="B48" s="24" t="s">
         <v>64</v>
@@ -4992,7 +4915,7 @@
       <c r="AA48" s="90"/>
       <c r="AB48" s="91"/>
     </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A49" s="35">
         <v>1</v>
       </c>
@@ -5036,9 +4959,9 @@
       <c r="S49" s="53"/>
       <c r="T49" s="42"/>
       <c r="U49" s="92"/>
-      <c r="V49" s="122"/>
+      <c r="V49" s="118"/>
       <c r="W49" s="73"/>
-      <c r="X49" s="120"/>
+      <c r="X49" s="116"/>
       <c r="Y49" s="73"/>
       <c r="Z49" s="52"/>
       <c r="AA49" s="44">
@@ -5047,7 +4970,7 @@
       </c>
       <c r="AB49" s="48"/>
     </row>
-    <row r="50" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A50" s="35">
         <v>2</v>
       </c>
@@ -5089,9 +5012,9 @@
       <c r="S50" s="53"/>
       <c r="T50" s="42"/>
       <c r="U50" s="92"/>
-      <c r="V50" s="122"/>
+      <c r="V50" s="118"/>
       <c r="W50" s="73"/>
-      <c r="X50" s="121"/>
+      <c r="X50" s="117"/>
       <c r="Y50" s="73"/>
       <c r="Z50" s="52"/>
       <c r="AA50" s="44">
@@ -5100,7 +5023,7 @@
       </c>
       <c r="AB50" s="48"/>
     </row>
-    <row r="51" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A51" s="35">
         <v>3</v>
       </c>
@@ -5142,15 +5065,15 @@
       <c r="S51" s="53"/>
       <c r="T51" s="42"/>
       <c r="U51" s="92"/>
-      <c r="V51" s="122"/>
+      <c r="V51" s="118"/>
       <c r="W51" s="73"/>
-      <c r="X51" s="121"/>
+      <c r="X51" s="117"/>
       <c r="Y51" s="73"/>
       <c r="Z51" s="52"/>
       <c r="AA51" s="94"/>
       <c r="AB51" s="76"/>
     </row>
-    <row r="52" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A52" s="35">
         <v>4</v>
       </c>
@@ -5194,7 +5117,7 @@
       <c r="S52" s="73"/>
       <c r="T52" s="68"/>
       <c r="U52" s="92"/>
-      <c r="V52" s="122"/>
+      <c r="V52" s="118"/>
       <c r="W52" s="53"/>
       <c r="X52" s="68"/>
       <c r="Y52" s="73"/>
@@ -5202,11 +5125,11 @@
       <c r="AA52" s="94"/>
       <c r="AB52" s="76"/>
     </row>
-    <row r="53" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="143">
+    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6">
+      <c r="A53" s="131">
         <v>5</v>
       </c>
-      <c r="B53" s="144" t="s">
+      <c r="B53" s="132" t="s">
         <v>79</v>
       </c>
       <c r="C53" s="37">
@@ -5246,15 +5169,15 @@
       <c r="S53" s="73"/>
       <c r="T53" s="42"/>
       <c r="U53" s="92"/>
-      <c r="V53" s="122"/>
+      <c r="V53" s="118"/>
       <c r="W53" s="73"/>
-      <c r="X53" s="121"/>
+      <c r="X53" s="117"/>
       <c r="Y53" s="73"/>
       <c r="Z53" s="52"/>
       <c r="AA53" s="94"/>
       <c r="AB53" s="76"/>
     </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A54" s="35">
         <v>6</v>
       </c>
@@ -5298,15 +5221,15 @@
       <c r="S54" s="73"/>
       <c r="T54" s="42"/>
       <c r="U54" s="92"/>
-      <c r="V54" s="122"/>
+      <c r="V54" s="118"/>
       <c r="W54" s="73"/>
-      <c r="X54" s="121"/>
+      <c r="X54" s="117"/>
       <c r="Y54" s="73"/>
       <c r="Z54" s="52"/>
       <c r="AA54" s="94"/>
       <c r="AB54" s="76"/>
     </row>
-    <row r="55" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A55" s="35">
         <v>7</v>
       </c>
@@ -5358,7 +5281,7 @@
       <c r="AA55" s="94"/>
       <c r="AB55" s="76"/>
     </row>
-    <row r="56" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A56" s="35">
         <v>8</v>
       </c>
@@ -5402,7 +5325,7 @@
       <c r="S56" s="73"/>
       <c r="T56" s="73"/>
       <c r="U56" s="73"/>
-      <c r="V56" s="123"/>
+      <c r="V56" s="119"/>
       <c r="W56" s="73"/>
       <c r="X56" s="73"/>
       <c r="Y56" s="73"/>
@@ -5410,11 +5333,11 @@
       <c r="AA56" s="94"/>
       <c r="AB56" s="76"/>
     </row>
-    <row r="57" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A57" s="35">
         <v>9</v>
       </c>
-      <c r="B57" s="131" t="s">
+      <c r="B57" s="127" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="37">
@@ -5455,18 +5378,18 @@
       <c r="T57" s="73"/>
       <c r="U57" s="73"/>
       <c r="V57" s="52"/>
-      <c r="W57" s="127"/>
-      <c r="X57" s="128"/>
+      <c r="W57" s="123"/>
+      <c r="X57" s="124"/>
       <c r="Y57" s="73"/>
       <c r="Z57" s="52"/>
       <c r="AA57" s="94"/>
       <c r="AB57" s="76"/>
     </row>
-    <row r="58" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A58" s="35">
         <v>10</v>
       </c>
-      <c r="B58" s="131" t="s">
+      <c r="B58" s="127" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="37">
@@ -5507,18 +5430,18 @@
       <c r="T58" s="73"/>
       <c r="U58" s="73"/>
       <c r="V58" s="52"/>
-      <c r="W58" s="130"/>
-      <c r="X58" s="124"/>
+      <c r="W58" s="126"/>
+      <c r="X58" s="120"/>
       <c r="Y58" s="73"/>
       <c r="Z58" s="52"/>
       <c r="AA58" s="94"/>
       <c r="AB58" s="76"/>
     </row>
-    <row r="59" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A59" s="35">
         <v>11</v>
       </c>
-      <c r="B59" s="131" t="s">
+      <c r="B59" s="127" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="37">
@@ -5559,27 +5482,27 @@
       <c r="T59" s="73"/>
       <c r="U59" s="73"/>
       <c r="V59" s="52"/>
-      <c r="W59" s="129"/>
-      <c r="X59" s="124"/>
+      <c r="W59" s="125"/>
+      <c r="X59" s="120"/>
       <c r="Y59" s="73"/>
       <c r="Z59" s="52"/>
       <c r="AA59" s="94"/>
       <c r="AB59" s="76"/>
     </row>
-    <row r="60" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A60" s="35">
         <v>12</v>
       </c>
-      <c r="B60" s="131" t="s">
+      <c r="B60" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="126">
-        <v>0</v>
-      </c>
-      <c r="D60" s="126">
-        <v>0</v>
-      </c>
-      <c r="E60" s="126">
+      <c r="C60" s="122">
+        <v>0</v>
+      </c>
+      <c r="D60" s="122">
+        <v>0</v>
+      </c>
+      <c r="E60" s="122">
         <v>0.25</v>
       </c>
       <c r="F60" s="37">
@@ -5611,18 +5534,18 @@
       <c r="T60" s="73"/>
       <c r="U60" s="73"/>
       <c r="V60" s="52"/>
-      <c r="W60" s="124"/>
-      <c r="X60" s="124"/>
+      <c r="W60" s="120"/>
+      <c r="X60" s="120"/>
       <c r="Y60" s="73"/>
       <c r="Z60" s="52"/>
       <c r="AA60" s="94"/>
       <c r="AB60" s="76"/>
     </row>
-    <row r="61" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A61" s="35">
         <v>13</v>
       </c>
-      <c r="B61" s="131" t="s">
+      <c r="B61" s="127" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="37">
@@ -5663,14 +5586,14 @@
       <c r="T61" s="73"/>
       <c r="U61" s="73"/>
       <c r="V61" s="52"/>
-      <c r="W61" s="124"/>
-      <c r="X61" s="124"/>
+      <c r="W61" s="120"/>
+      <c r="X61" s="120"/>
       <c r="Y61" s="73"/>
       <c r="Z61" s="52"/>
       <c r="AA61" s="94"/>
       <c r="AB61" s="76"/>
     </row>
-    <row r="62" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A62" s="35">
         <v>14</v>
       </c>
@@ -5716,13 +5639,13 @@
       <c r="U62" s="73"/>
       <c r="V62" s="52"/>
       <c r="W62" s="73"/>
-      <c r="X62" s="124"/>
+      <c r="X62" s="120"/>
       <c r="Y62" s="73"/>
       <c r="Z62" s="52"/>
       <c r="AA62" s="94"/>
       <c r="AB62" s="76"/>
     </row>
-    <row r="63" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A63" s="35">
         <v>15</v>
       </c>
@@ -5768,17 +5691,17 @@
       <c r="U63" s="73"/>
       <c r="V63" s="52"/>
       <c r="W63" s="73"/>
-      <c r="X63" s="124"/>
+      <c r="X63" s="120"/>
       <c r="Y63" s="73"/>
       <c r="Z63" s="52"/>
       <c r="AA63" s="94"/>
       <c r="AB63" s="76"/>
     </row>
-    <row r="64" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="143">
+    <row r="64" spans="1:28" s="46" customFormat="1" ht="15.6">
+      <c r="A64" s="131">
         <v>16</v>
       </c>
-      <c r="B64" s="144" t="s">
+      <c r="B64" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C64" s="37">
@@ -5815,13 +5738,13 @@
       <c r="U64" s="73"/>
       <c r="V64" s="52"/>
       <c r="W64" s="73"/>
-      <c r="X64" s="124"/>
+      <c r="X64" s="120"/>
       <c r="Y64" s="73"/>
       <c r="Z64" s="52"/>
       <c r="AA64" s="94"/>
       <c r="AB64" s="76"/>
     </row>
-    <row r="65" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A65" s="35">
         <v>17</v>
       </c>
@@ -5864,23 +5787,23 @@
       <c r="U65" s="73"/>
       <c r="V65" s="52"/>
       <c r="W65" s="73"/>
-      <c r="X65" s="128"/>
+      <c r="X65" s="124"/>
       <c r="Y65" s="73"/>
       <c r="Z65" s="52"/>
       <c r="AA65" s="94"/>
       <c r="AB65" s="76"/>
     </row>
-    <row r="66" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" s="46" customFormat="1" ht="15.6">
       <c r="A66" s="35">
         <v>18</v>
       </c>
-      <c r="B66" s="69" t="s">
+      <c r="B66" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="145">
-        <v>0</v>
-      </c>
-      <c r="D66" s="145">
+      <c r="C66" s="133">
+        <v>0</v>
+      </c>
+      <c r="D66" s="133">
         <v>1</v>
       </c>
       <c r="E66" s="37">
@@ -5913,15 +5836,17 @@
       <c r="U66" s="73"/>
       <c r="V66" s="52"/>
       <c r="W66" s="73"/>
-      <c r="X66" s="128"/>
+      <c r="X66" s="124"/>
       <c r="Y66" s="73"/>
       <c r="Z66" s="52"/>
       <c r="AA66" s="94"/>
       <c r="AB66" s="76"/>
     </row>
-    <row r="67" spans="1:28" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" s="46" customFormat="1" ht="18">
       <c r="A67" s="35"/>
-      <c r="B67" s="69"/>
+      <c r="B67" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -5943,390 +5868,460 @@
       <c r="U67" s="73"/>
       <c r="V67" s="52"/>
       <c r="W67" s="73"/>
-      <c r="X67" s="141"/>
+      <c r="X67" s="130"/>
       <c r="Y67" s="73"/>
       <c r="Z67" s="52"/>
       <c r="AA67" s="94"/>
       <c r="AB67" s="76"/>
     </row>
-    <row r="68" spans="1:28" s="46" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="135"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="137"/>
-      <c r="G68" s="138"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="96"/>
-      <c r="O68" s="95"/>
-      <c r="P68" s="95"/>
-      <c r="Q68" s="95"/>
-      <c r="R68" s="134"/>
-      <c r="S68" s="95"/>
-      <c r="T68" s="95"/>
-      <c r="U68" s="95"/>
-      <c r="V68" s="96"/>
-      <c r="W68" s="95"/>
-      <c r="X68" s="142"/>
-      <c r="Y68" s="95"/>
-      <c r="Z68" s="96"/>
-      <c r="AA68" s="97"/>
-      <c r="AB68" s="98"/>
-    </row>
-    <row r="69" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="161" t="s">
+    <row r="68" spans="1:28" s="86" customFormat="1">
+      <c r="A68" s="35">
+        <v>39</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="37">
+        <v>3</v>
+      </c>
+      <c r="D68" s="37">
+        <v>3</v>
+      </c>
+      <c r="E68" s="37">
+        <v>3</v>
+      </c>
+      <c r="F68" s="37">
+        <v>3</v>
+      </c>
+      <c r="G68" s="71">
+        <f>VLOOKUP(H68,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" s="40">
+        <v>12</v>
+      </c>
+      <c r="J68" s="40">
+        <f t="shared" ref="J68" si="7">SUM(C68:F68)</f>
+        <v>12</v>
+      </c>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="120"/>
+      <c r="Y68" s="42"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="48"/>
+    </row>
+    <row r="69" spans="1:28" s="86" customFormat="1" ht="15" thickBot="1">
+      <c r="A69" s="35">
+        <v>39</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="37">
+        <v>0</v>
+      </c>
+      <c r="D69" s="37">
+        <v>3</v>
+      </c>
+      <c r="E69" s="37">
+        <v>0</v>
+      </c>
+      <c r="F69" s="37">
+        <v>0</v>
+      </c>
+      <c r="G69" s="71">
+        <f>VLOOKUP(H69,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="40">
+        <v>5</v>
+      </c>
+      <c r="J69" s="40">
+        <f t="shared" ref="J69" si="8">SUM(C69:F69)</f>
+        <v>3</v>
+      </c>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="124"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="44"/>
+      <c r="AB69" s="48"/>
+    </row>
+    <row r="70" spans="1:28" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A70" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="161"/>
-      <c r="C69" s="99">
-        <f>SUM(C10:C68)</f>
+      <c r="B70" s="141"/>
+      <c r="C70" s="95">
+        <f>SUM(C10:C69)</f>
+        <v>114</v>
+      </c>
+      <c r="D70" s="95">
+        <f>SUM(D10:D69)</f>
+        <v>96.5</v>
+      </c>
+      <c r="E70" s="95">
+        <f>SUM(E10:E69)</f>
+        <v>95.5</v>
+      </c>
+      <c r="F70" s="95">
+        <f>SUM(F10:F69)</f>
         <v>111</v>
       </c>
-      <c r="D69" s="99">
-        <f>SUM(D10:D68)</f>
-        <v>90.5</v>
-      </c>
-      <c r="E69" s="99">
-        <f>SUM(E10:E68)</f>
-        <v>92.5</v>
-      </c>
-      <c r="F69" s="99">
-        <f>SUM(F10:F68)</f>
-        <v>108</v>
-      </c>
-      <c r="G69" s="100"/>
-      <c r="H69" s="99"/>
-      <c r="I69" s="101"/>
-      <c r="J69" s="99">
-        <f>SUM(C69:F69)</f>
-        <v>402</v>
-      </c>
-      <c r="K69" s="102"/>
-      <c r="L69" s="102"/>
-      <c r="M69" s="102"/>
-      <c r="N69" s="102"/>
-      <c r="O69" s="102"/>
-      <c r="P69" s="102"/>
-      <c r="Q69" s="102"/>
-      <c r="R69" s="102"/>
-      <c r="S69" s="102"/>
-      <c r="T69" s="102"/>
-      <c r="U69" s="102"/>
-      <c r="V69" s="102"/>
-      <c r="W69" s="102"/>
-      <c r="X69" s="102"/>
-      <c r="Y69" s="102"/>
-      <c r="Z69" s="102"/>
-      <c r="AA69" s="132">
-        <f>SUM(AA10:AA68)</f>
+      <c r="G70" s="96"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="95">
+        <f>SUM(C70:F70)</f>
+        <v>417</v>
+      </c>
+      <c r="K70" s="98"/>
+      <c r="L70" s="98"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="98"/>
+      <c r="O70" s="98"/>
+      <c r="P70" s="98"/>
+      <c r="Q70" s="98"/>
+      <c r="R70" s="98"/>
+      <c r="S70" s="98"/>
+      <c r="T70" s="98"/>
+      <c r="U70" s="98"/>
+      <c r="V70" s="98"/>
+      <c r="W70" s="98"/>
+      <c r="X70" s="98"/>
+      <c r="Y70" s="98"/>
+      <c r="Z70" s="98"/>
+      <c r="AA70" s="128">
+        <f>SUM(AA10:AA69)</f>
         <v>-0.75</v>
       </c>
-      <c r="AB69" s="133"/>
-    </row>
-    <row r="70" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="156" t="s">
+      <c r="AB70" s="129"/>
+    </row>
+    <row r="71" spans="1:28" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A71" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="156"/>
-      <c r="C70" s="99">
-        <f>117-C69</f>
+      <c r="B71" s="136"/>
+      <c r="C71" s="95">
+        <f>117-C70</f>
+        <v>3</v>
+      </c>
+      <c r="D71" s="95">
+        <f>117-D70</f>
+        <v>20.5</v>
+      </c>
+      <c r="E71" s="95">
+        <f>117-E70</f>
+        <v>21.5</v>
+      </c>
+      <c r="F71" s="95">
+        <f>117-F70</f>
         <v>6</v>
       </c>
-      <c r="D70" s="99">
-        <f>117-D69</f>
-        <v>26.5</v>
-      </c>
-      <c r="E70" s="99">
-        <f>117-E69</f>
-        <v>24.5</v>
-      </c>
-      <c r="F70" s="99">
-        <f>117-F69</f>
-        <v>9</v>
-      </c>
-      <c r="G70" s="100"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99">
-        <f>SUM(C70:F70)</f>
-        <v>66</v>
-      </c>
-      <c r="K70" s="102"/>
-      <c r="L70" s="102"/>
-      <c r="M70" s="102"/>
-      <c r="N70" s="102"/>
-      <c r="O70" s="102"/>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="102"/>
-      <c r="R70" s="102"/>
-      <c r="S70" s="102"/>
-      <c r="T70" s="102"/>
-      <c r="U70" s="102"/>
-      <c r="V70" s="102"/>
-      <c r="W70" s="102"/>
-      <c r="X70" s="102"/>
-      <c r="Y70" s="102"/>
-      <c r="Z70" s="102"/>
-      <c r="AA70" s="102"/>
-      <c r="AB70" s="102"/>
-    </row>
-    <row r="71" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="157" t="s">
+      <c r="G71" s="96"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="95">
+        <f>SUM(C71:F71)</f>
+        <v>51</v>
+      </c>
+      <c r="K71" s="98"/>
+      <c r="L71" s="98"/>
+      <c r="M71" s="98"/>
+      <c r="N71" s="98"/>
+      <c r="O71" s="98"/>
+      <c r="P71" s="98"/>
+      <c r="Q71" s="98"/>
+      <c r="R71" s="98"/>
+      <c r="S71" s="98"/>
+      <c r="T71" s="98"/>
+      <c r="U71" s="98"/>
+      <c r="V71" s="98"/>
+      <c r="W71" s="98"/>
+      <c r="X71" s="98"/>
+      <c r="Y71" s="98"/>
+      <c r="Z71" s="98"/>
+      <c r="AA71" s="98"/>
+      <c r="AB71" s="98"/>
+    </row>
+    <row r="72" spans="1:28" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A72" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="157"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="99"/>
-      <c r="J71" s="99">
-        <f>C71+D71+F71+E71</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="102"/>
-      <c r="L71" s="102"/>
-      <c r="M71" s="102"/>
-      <c r="N71" s="102"/>
-      <c r="O71" s="102"/>
-      <c r="P71" s="102"/>
-      <c r="Q71" s="102"/>
-      <c r="R71" s="102"/>
-      <c r="S71" s="102"/>
-      <c r="T71" s="102"/>
-      <c r="U71" s="102"/>
-      <c r="V71" s="102"/>
-      <c r="W71" s="102"/>
-      <c r="X71" s="102"/>
-      <c r="Y71" s="102"/>
-      <c r="Z71" s="102"/>
-      <c r="AA71" s="102"/>
-      <c r="AB71" s="102"/>
-    </row>
-    <row r="72" spans="1:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="156" t="s">
+      <c r="B72" s="137"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="95">
+        <f>C72+D72+F72+E72</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="98"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="98"/>
+      <c r="N72" s="98"/>
+      <c r="O72" s="98"/>
+      <c r="P72" s="98"/>
+      <c r="Q72" s="98"/>
+      <c r="R72" s="98"/>
+      <c r="S72" s="98"/>
+      <c r="T72" s="98"/>
+      <c r="U72" s="98"/>
+      <c r="V72" s="98"/>
+      <c r="W72" s="98"/>
+      <c r="X72" s="98"/>
+      <c r="Y72" s="98"/>
+      <c r="Z72" s="98"/>
+      <c r="AA72" s="98"/>
+      <c r="AB72" s="98"/>
+    </row>
+    <row r="73" spans="1:28" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A73" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="156"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="104">
-        <f>SUM(I10:I68)</f>
-        <v>404.25</v>
-      </c>
-      <c r="J72" s="99">
-        <f>SUM(J10:J68)</f>
-        <v>402</v>
-      </c>
-      <c r="K72" s="102"/>
-      <c r="L72" s="102"/>
-      <c r="M72" s="102"/>
-      <c r="N72" s="102"/>
-      <c r="O72" s="102"/>
-      <c r="P72" s="102"/>
-      <c r="Q72" s="102"/>
-      <c r="R72" s="102"/>
-      <c r="S72" s="102"/>
-      <c r="T72" s="102"/>
-      <c r="U72" s="102"/>
-      <c r="V72" s="102"/>
-      <c r="W72" s="102"/>
-      <c r="X72" s="102"/>
-      <c r="Y72" s="102"/>
-      <c r="Z72" s="102"/>
-      <c r="AA72" s="102"/>
-      <c r="AB72" s="102"/>
-    </row>
-    <row r="73" spans="1:28" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="105"/>
-      <c r="B73" s="105"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="165" t="s">
+      <c r="B73" s="136"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="95"/>
+      <c r="I73" s="100">
+        <f>SUM(I10:I69)</f>
+        <v>421.25</v>
+      </c>
+      <c r="J73" s="95">
+        <f>SUM(J10:J69)</f>
+        <v>417</v>
+      </c>
+      <c r="K73" s="98"/>
+      <c r="L73" s="98"/>
+      <c r="M73" s="98"/>
+      <c r="N73" s="98"/>
+      <c r="O73" s="98"/>
+      <c r="P73" s="98"/>
+      <c r="Q73" s="98"/>
+      <c r="R73" s="98"/>
+      <c r="S73" s="98"/>
+      <c r="T73" s="98"/>
+      <c r="U73" s="98"/>
+      <c r="V73" s="98"/>
+      <c r="W73" s="98"/>
+      <c r="X73" s="98"/>
+      <c r="Y73" s="98"/>
+      <c r="Z73" s="98"/>
+      <c r="AA73" s="98"/>
+      <c r="AB73" s="98"/>
+    </row>
+    <row r="74" spans="1:28" ht="13.95" customHeight="1" thickBot="1">
+      <c r="A74" s="101"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="165"/>
-      <c r="F73" s="165"/>
-      <c r="G73" s="165"/>
-      <c r="H73" s="106"/>
-      <c r="I73" s="106"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="102"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="102"/>
-      <c r="O73" s="102"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="102"/>
-      <c r="R73" s="102"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="102"/>
-      <c r="U73" s="102"/>
-      <c r="V73" s="102"/>
-      <c r="W73" s="102"/>
-      <c r="X73" s="102"/>
-      <c r="Y73" s="102"/>
-      <c r="Z73" s="102"/>
-      <c r="AA73" s="102"/>
-      <c r="AB73" s="102"/>
-    </row>
-    <row r="74" spans="1:28" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="157" t="s">
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="142"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="98"/>
+      <c r="M74" s="98"/>
+      <c r="N74" s="98"/>
+      <c r="O74" s="98"/>
+      <c r="P74" s="98"/>
+      <c r="Q74" s="98"/>
+      <c r="R74" s="98"/>
+      <c r="S74" s="98"/>
+      <c r="T74" s="98"/>
+      <c r="U74" s="98"/>
+      <c r="V74" s="98"/>
+      <c r="W74" s="98"/>
+      <c r="X74" s="98"/>
+      <c r="Y74" s="98"/>
+      <c r="Z74" s="98"/>
+      <c r="AA74" s="98"/>
+      <c r="AB74" s="98"/>
+    </row>
+    <row r="75" spans="1:28" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A75" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="157"/>
-      <c r="C74" s="162">
+      <c r="B75" s="137"/>
+      <c r="C75" s="134">
         <f>135*4</f>
         <v>540</v>
       </c>
-      <c r="D74" s="163">
+      <c r="D75" s="153">
         <v>468</v>
       </c>
-      <c r="E74" s="106"/>
-      <c r="F74" s="106"/>
-      <c r="G74" s="106"/>
-      <c r="H74" s="106"/>
-      <c r="I74" s="106"/>
-      <c r="J74" s="106"/>
-      <c r="K74" s="102"/>
-      <c r="L74" s="102"/>
-      <c r="M74" s="102"/>
-      <c r="N74" s="102"/>
-      <c r="O74" s="102"/>
-      <c r="P74" s="102"/>
-      <c r="Q74" s="102"/>
-      <c r="R74" s="102"/>
-      <c r="S74" s="102"/>
-      <c r="T74" s="102"/>
-      <c r="U74" s="102"/>
-      <c r="V74" s="102"/>
-      <c r="W74" s="102"/>
-      <c r="X74" s="102"/>
-      <c r="Y74" s="102"/>
-      <c r="Z74" s="102"/>
-      <c r="AA74" s="102"/>
-      <c r="AB74" s="102"/>
-    </row>
-    <row r="75" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="158" t="s">
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="102"/>
+      <c r="J75" s="102"/>
+      <c r="K75" s="98"/>
+      <c r="L75" s="98"/>
+      <c r="M75" s="98"/>
+      <c r="N75" s="98"/>
+      <c r="O75" s="98"/>
+      <c r="P75" s="98"/>
+      <c r="Q75" s="98"/>
+      <c r="R75" s="98"/>
+      <c r="S75" s="98"/>
+      <c r="T75" s="98"/>
+      <c r="U75" s="98"/>
+      <c r="V75" s="98"/>
+      <c r="W75" s="98"/>
+      <c r="X75" s="98"/>
+      <c r="Y75" s="98"/>
+      <c r="Z75" s="98"/>
+      <c r="AA75" s="98"/>
+      <c r="AB75" s="98"/>
+    </row>
+    <row r="76" spans="1:28" ht="16.2" thickBot="1">
+      <c r="A76" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="158"/>
-      <c r="C75" s="162">
-        <f>C74-J72</f>
-        <v>138</v>
-      </c>
-      <c r="D75" s="164">
+      <c r="B76" s="138"/>
+      <c r="C76" s="134">
+        <f>C75-J73</f>
+        <v>123</v>
+      </c>
+      <c r="D76" s="135">
         <v>66</v>
       </c>
-      <c r="E75" s="106"/>
-      <c r="F75" s="106"/>
-      <c r="G75" s="106"/>
-      <c r="H75" s="106"/>
-      <c r="I75" s="106"/>
-      <c r="J75" s="106"/>
-      <c r="K75" s="102"/>
-      <c r="L75" s="102"/>
-      <c r="M75" s="102"/>
-      <c r="N75" s="102"/>
-      <c r="O75" s="102"/>
-      <c r="P75" s="102"/>
-      <c r="Q75" s="102"/>
-      <c r="R75" s="102"/>
-      <c r="S75" s="102"/>
-      <c r="T75" s="102"/>
-      <c r="U75" s="102"/>
-      <c r="V75" s="102"/>
-      <c r="W75" s="102"/>
-      <c r="X75" s="102"/>
-      <c r="Y75" s="102"/>
-      <c r="Z75" s="102"/>
-      <c r="AA75" s="102"/>
-      <c r="AB75" s="102"/>
-    </row>
-    <row r="76" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="107"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="108"/>
-      <c r="D76" s="108"/>
-      <c r="E76" s="108"/>
-      <c r="F76" s="108"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="110"/>
-      <c r="J76" s="110"/>
-      <c r="AA76" s="102"/>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="D77" s="111"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="111"/>
-    </row>
-    <row r="78" spans="1:28" s="113" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="112"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="H78" s="115"/>
-      <c r="I78" s="116"/>
-      <c r="J78" s="116"/>
-      <c r="N78" s="117"/>
-      <c r="R78" s="117"/>
-      <c r="V78" s="117"/>
-      <c r="Z78" s="117"/>
-      <c r="AA78" s="118"/>
-    </row>
-    <row r="79" spans="1:28" s="113" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
-      <c r="N79" s="117"/>
-      <c r="R79" s="117"/>
-      <c r="V79" s="117"/>
-      <c r="Z79" s="117"/>
-      <c r="AA79" s="118"/>
-    </row>
-    <row r="80" spans="1:28" s="113" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="C80" s="114"/>
-      <c r="D80" s="114"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114"/>
-      <c r="H80" s="115"/>
-      <c r="I80" s="116"/>
-      <c r="J80" s="116"/>
-      <c r="N80" s="117"/>
-      <c r="R80" s="117"/>
-      <c r="V80" s="117"/>
-      <c r="Z80" s="117"/>
-      <c r="AA80" s="118"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="102"/>
+      <c r="J76" s="102"/>
+      <c r="K76" s="98"/>
+      <c r="L76" s="98"/>
+      <c r="M76" s="98"/>
+      <c r="N76" s="98"/>
+      <c r="O76" s="98"/>
+      <c r="P76" s="98"/>
+      <c r="Q76" s="98"/>
+      <c r="R76" s="98"/>
+      <c r="S76" s="98"/>
+      <c r="T76" s="98"/>
+      <c r="U76" s="98"/>
+      <c r="V76" s="98"/>
+      <c r="W76" s="98"/>
+      <c r="X76" s="98"/>
+      <c r="Y76" s="98"/>
+      <c r="Z76" s="98"/>
+      <c r="AA76" s="98"/>
+      <c r="AB76" s="98"/>
+    </row>
+    <row r="77" spans="1:28" ht="15.6">
+      <c r="A77" s="103"/>
+      <c r="B77" s="101"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="101"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="106"/>
+      <c r="J77" s="106"/>
+      <c r="AA77" s="98"/>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="D78" s="107"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="107"/>
+    </row>
+    <row r="79" spans="1:28" s="109" customFormat="1" ht="13.8">
+      <c r="A79" s="108"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="110"/>
+      <c r="H79" s="111"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="112"/>
+      <c r="N79" s="113"/>
+      <c r="R79" s="113"/>
+      <c r="V79" s="113"/>
+      <c r="Z79" s="113"/>
+      <c r="AA79" s="114"/>
+    </row>
+    <row r="80" spans="1:28" s="109" customFormat="1" ht="13.8">
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="H80" s="111"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="112"/>
+      <c r="N80" s="113"/>
+      <c r="R80" s="113"/>
+      <c r="V80" s="113"/>
+      <c r="Z80" s="113"/>
+      <c r="AA80" s="114"/>
+    </row>
+    <row r="81" spans="3:27" s="109" customFormat="1" ht="13.8">
+      <c r="C81" s="110"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="110"/>
+      <c r="F81" s="110"/>
+      <c r="H81" s="111"/>
+      <c r="I81" s="112"/>
+      <c r="J81" s="112"/>
+      <c r="N81" s="113"/>
+      <c r="R81" s="113"/>
+      <c r="V81" s="113"/>
+      <c r="Z81" s="113"/>
+      <c r="AA81" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -6336,246 +6331,189 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D74:G74"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="34" priority="47" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H45 H49 H47">
-    <cfRule type="containsText" dxfId="50" priority="34" operator="containsText" text="En attente">
+  <conditionalFormatting sqref="H9:H69">
+    <cfRule type="containsText" dxfId="33" priority="48" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="35" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="36" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F45 C47:F47 C56:F64 C49:F54 C66:F68">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+  <conditionalFormatting sqref="C9:F45 C47:F47 C56:F64 C49:F54 C66:F69">
+    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="29" priority="52">
       <formula>$H9="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F45 C47:F47 C56:F64 C49:F54 C66:F68">
-    <cfRule type="expression" dxfId="45" priority="39">
+  <conditionalFormatting sqref="C9:F45 C47:F47 C56:F64 C49:F54 C66:F69">
+    <cfRule type="expression" dxfId="28" priority="53">
       <formula>$H9="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="27" priority="54">
       <formula>$H9="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",H48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",H48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",H48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C48:F48">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="25" priority="59">
       <formula>$H48="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:F48">
-    <cfRule type="expression" dxfId="38" priority="46">
+    <cfRule type="expression" dxfId="24" priority="60">
       <formula>$H48="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="23" priority="61">
       <formula>$H48="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H54">
-    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",H50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="49" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",H50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",H50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="33" priority="55" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",H46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="56" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",H46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",H46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="59">
+    <cfRule type="expression" dxfId="21" priority="73">
       <formula>$H46="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="expression" dxfId="28" priority="60">
+    <cfRule type="expression" dxfId="20" priority="74">
       <formula>$H46="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="61">
+    <cfRule type="expression" dxfId="19" priority="75">
       <formula>$H46="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",H55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",H55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",H55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="29">
+    <cfRule type="expression" dxfId="17" priority="43">
       <formula>$H55="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="16" priority="44">
       <formula>$H55="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="15" priority="45">
       <formula>$H55="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56:H61">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",H56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",H56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",H56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:H64 H66:H68">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",H62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",H62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",H62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C65:F65">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="13" priority="26">
       <formula>$H65="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:F65">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="12" priority="27">
       <formula>$H65="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="11" priority="28">
       <formula>$H65="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",H65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",H65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",H65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C66:F66">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>$H66="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:F66">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>$H66="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>$H66="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",H66)))</formula>
+  <conditionalFormatting sqref="C69:F69">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$H69="En cours"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",H66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",H66)))</formula>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$H69="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H68" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <conditionalFormatting sqref="H69">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="En attente">
+      <formula>NOT(ISERROR(SEARCH("En attente",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",H69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:F69">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>$H69="Terminé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H69">
       <formula1>"En attente,En cours,Terminé"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31527777777777799" right="0.31527777777777799" top="0.74791666666666701" bottom="0.55138888888888904" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup scale="37" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="37" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="119">
+      <c r="B1" s="115">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6583,7 +6521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6598,12 +6536,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84ED095-6FFF-4C57-9AB4-1B719A148389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="23160" windowHeight="13080" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -369,19 +377,24 @@
   <si>
     <t>Améliorer le visuel historique événement</t>
   </si>
+  <si>
+    <t>Améliorer le visuel (business-view)</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * \-??_)_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="[$-C0C]dd/mmm"/>
     <numFmt numFmtId="167" formatCode="\\;;;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -542,6 +555,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -626,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1073,6 +1093,17 @@
       </right>
       <top style="thin">
         <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1093,7 +1124,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1494,6 +1525,39 @@
     <xf numFmtId="164" fontId="2" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="39" fontId="2" fillId="11" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1513,54 +1577,172 @@
     <xf numFmtId="164" fontId="2" fillId="14" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="9" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="11" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="22" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Bad" xfId="10" builtinId="27"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Excel Built-in 60% - Accent4" xfId="7"/>
-    <cellStyle name="Excel Built-in Bad" xfId="6"/>
-    <cellStyle name="Excel Built-in Good" xfId="4"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="5"/>
-    <cellStyle name="Excel Built-in Normal" xfId="3"/>
-    <cellStyle name="Good" xfId="8" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28"/>
+    <cellStyle name="Excel Built-in 60% - Accent4" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Insatisfaisant" xfId="10" builtinId="27"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Neutre" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Satisfaisant" xfId="8" builtinId="26"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1887,207 +2069,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2465,27 +2446,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK81"/>
+  <dimension ref="A1:AMK99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="8.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -2506,23 +2487,23 @@
     <col min="29" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1">
-      <c r="A1" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="151"/>
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -2533,21 +2514,21 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1">
-      <c r="A2" s="151" t="s">
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="151"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -2560,7 +2541,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6">
+    <row r="3" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2578,7 +2559,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6">
+    <row r="4" spans="1:28" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2598,7 +2579,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:28" s="8" customFormat="1" ht="16.2" thickBot="1">
+    <row r="5" spans="1:28" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -2622,7 +2603,7 @@
       </c>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2630,78 +2611,83 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="143" t="s">
+      <c r="K6" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="143" t="s">
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="143"/>
-      <c r="Z6" s="17"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" s="157"/>
+      <c r="Y6" s="157"/>
+      <c r="Z6" s="158"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="144" t="s">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="147" t="s">
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="148" t="s">
+      <c r="H7" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="149" t="s">
+      <c r="I7" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="149" t="s">
+      <c r="J7" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="150" t="s">
+      <c r="K7" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="139" t="s">
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="140" t="s">
+      <c r="AB7" s="151" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="144"/>
-      <c r="B8" s="145"/>
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
@@ -2714,10 +2700,10 @@
       <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
@@ -2781,10 +2767,10 @@
         <f>Y8+7</f>
         <v>43943</v>
       </c>
-      <c r="AA8" s="139"/>
-      <c r="AB8" s="140"/>
-    </row>
-    <row r="9" spans="1:28" ht="18">
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="151"/>
+    </row>
+    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>25</v>
@@ -2816,7 +2802,7 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="10" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>1</v>
       </c>
@@ -2871,7 +2857,7 @@
       </c>
       <c r="AB10" s="45"/>
     </row>
-    <row r="11" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="11" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>2</v>
       </c>
@@ -2926,7 +2912,7 @@
       </c>
       <c r="AB11" s="48"/>
     </row>
-    <row r="12" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="12" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>3</v>
       </c>
@@ -2980,7 +2966,7 @@
       </c>
       <c r="AB12" s="49"/>
     </row>
-    <row r="13" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="13" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>4</v>
       </c>
@@ -3035,7 +3021,7 @@
       </c>
       <c r="AB13" s="48"/>
     </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="14" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>5</v>
       </c>
@@ -3090,7 +3076,7 @@
       </c>
       <c r="AB14" s="48"/>
     </row>
-    <row r="15" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="15" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
         <v>6</v>
       </c>
@@ -3145,7 +3131,7 @@
       </c>
       <c r="AB15" s="48"/>
     </row>
-    <row r="16" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="16" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>7</v>
       </c>
@@ -3200,7 +3186,7 @@
       </c>
       <c r="AB16" s="48"/>
     </row>
-    <row r="17" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="17" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>8</v>
       </c>
@@ -3255,7 +3241,7 @@
       </c>
       <c r="AB17" s="48"/>
     </row>
-    <row r="18" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="18" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>9</v>
       </c>
@@ -3310,7 +3296,7 @@
       </c>
       <c r="AB18" s="48"/>
     </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="19" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>10</v>
       </c>
@@ -3365,7 +3351,7 @@
       </c>
       <c r="AB19" s="48"/>
     </row>
-    <row r="20" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="20" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>11</v>
       </c>
@@ -3420,7 +3406,7 @@
       </c>
       <c r="AB20" s="48"/>
     </row>
-    <row r="21" spans="1:28" s="46" customFormat="1">
+    <row r="21" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35">
         <v>12</v>
       </c>
@@ -3475,7 +3461,7 @@
       </c>
       <c r="AB21" s="48"/>
     </row>
-    <row r="22" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="22" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>13</v>
       </c>
@@ -3530,7 +3516,7 @@
       </c>
       <c r="AB22" s="48"/>
     </row>
-    <row r="23" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="23" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="35">
         <v>14</v>
       </c>
@@ -3585,7 +3571,7 @@
       </c>
       <c r="AB23" s="48"/>
     </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="24" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>15</v>
       </c>
@@ -3640,7 +3626,7 @@
       </c>
       <c r="AB24" s="48"/>
     </row>
-    <row r="25" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="25" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="35">
         <v>16</v>
       </c>
@@ -3695,7 +3681,7 @@
       </c>
       <c r="AB25" s="48"/>
     </row>
-    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="26" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
         <v>17</v>
       </c>
@@ -3750,7 +3736,7 @@
       </c>
       <c r="AB26" s="76"/>
     </row>
-    <row r="27" spans="1:28" s="79" customFormat="1" ht="15.6">
+    <row r="27" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="35">
         <v>18</v>
       </c>
@@ -3805,7 +3791,7 @@
       </c>
       <c r="AB27" s="48"/>
     </row>
-    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="28" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35">
         <v>19</v>
       </c>
@@ -3860,7 +3846,7 @@
       </c>
       <c r="AB28" s="48"/>
     </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="29" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="35">
         <v>20</v>
       </c>
@@ -3915,7 +3901,7 @@
       </c>
       <c r="AB29" s="48"/>
     </row>
-    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="30" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
         <v>21</v>
       </c>
@@ -3970,7 +3956,7 @@
       </c>
       <c r="AB30" s="48"/>
     </row>
-    <row r="31" spans="1:28" s="79" customFormat="1" ht="15.6">
+    <row r="31" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>22</v>
       </c>
@@ -4025,7 +4011,7 @@
       </c>
       <c r="AB31" s="48"/>
     </row>
-    <row r="32" spans="1:28" s="79" customFormat="1" ht="15.6">
+    <row r="32" spans="1:28" s="79" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="35">
         <v>23</v>
       </c>
@@ -4080,7 +4066,7 @@
       </c>
       <c r="AB32" s="48"/>
     </row>
-    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="33" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="35">
         <v>24</v>
       </c>
@@ -4135,7 +4121,7 @@
       </c>
       <c r="AB33" s="48"/>
     </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="34" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="35">
         <v>25</v>
       </c>
@@ -4190,7 +4176,7 @@
       </c>
       <c r="AB34" s="48"/>
     </row>
-    <row r="35" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="35" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="35">
         <v>27</v>
       </c>
@@ -4243,7 +4229,7 @@
       </c>
       <c r="AB35" s="48"/>
     </row>
-    <row r="36" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="36" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="35">
         <v>28</v>
       </c>
@@ -4296,7 +4282,7 @@
       </c>
       <c r="AB36" s="48"/>
     </row>
-    <row r="37" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="37" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="35">
         <v>29</v>
       </c>
@@ -4349,7 +4335,7 @@
       </c>
       <c r="AB37" s="48"/>
     </row>
-    <row r="38" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="38" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="35">
         <v>30</v>
       </c>
@@ -4402,7 +4388,7 @@
       </c>
       <c r="AB38" s="48"/>
     </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="39" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="35">
         <v>31</v>
       </c>
@@ -4455,7 +4441,7 @@
       </c>
       <c r="AB39" s="48"/>
     </row>
-    <row r="40" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="40" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="35">
         <v>32</v>
       </c>
@@ -4508,7 +4494,7 @@
       </c>
       <c r="AB40" s="48"/>
     </row>
-    <row r="41" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="41" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="35">
         <v>33</v>
       </c>
@@ -4563,7 +4549,7 @@
       </c>
       <c r="AB41" s="48"/>
     </row>
-    <row r="42" spans="1:28" s="46" customFormat="1">
+    <row r="42" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35">
         <v>34</v>
       </c>
@@ -4616,7 +4602,7 @@
       </c>
       <c r="AB42" s="48"/>
     </row>
-    <row r="43" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="43" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="35">
         <v>35</v>
       </c>
@@ -4671,7 +4657,7 @@
       </c>
       <c r="AB43" s="48"/>
     </row>
-    <row r="44" spans="1:28" s="46" customFormat="1">
+    <row r="44" spans="1:28" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35">
         <v>36</v>
       </c>
@@ -4726,7 +4712,7 @@
       </c>
       <c r="AB44" s="48"/>
     </row>
-    <row r="45" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="45" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="35">
         <v>37</v>
       </c>
@@ -4779,7 +4765,7 @@
       </c>
       <c r="AB45" s="48"/>
     </row>
-    <row r="46" spans="1:28" s="86" customFormat="1">
+    <row r="46" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="35">
         <v>39</v>
       </c>
@@ -4831,7 +4817,7 @@
       <c r="AA46" s="44"/>
       <c r="AB46" s="48"/>
     </row>
-    <row r="47" spans="1:28" s="86" customFormat="1" ht="15.6">
+    <row r="47" spans="1:28" s="86" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="35">
         <v>40</v>
       </c>
@@ -4883,7 +4869,7 @@
       <c r="AA47" s="44"/>
       <c r="AB47" s="48"/>
     </row>
-    <row r="48" spans="1:28" s="46" customFormat="1" ht="18">
+    <row r="48" spans="1:28" s="46" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="87"/>
       <c r="B48" s="24" t="s">
         <v>64</v>
@@ -4915,7 +4901,7 @@
       <c r="AA48" s="90"/>
       <c r="AB48" s="91"/>
     </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="49" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="35">
         <v>1</v>
       </c>
@@ -4970,7 +4956,7 @@
       </c>
       <c r="AB49" s="48"/>
     </row>
-    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="50" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="35">
         <v>2</v>
       </c>
@@ -5023,7 +5009,7 @@
       </c>
       <c r="AB50" s="48"/>
     </row>
-    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="51" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
         <v>3</v>
       </c>
@@ -5073,7 +5059,7 @@
       <c r="AA51" s="94"/>
       <c r="AB51" s="76"/>
     </row>
-    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="52" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="35">
         <v>4</v>
       </c>
@@ -5125,11 +5111,11 @@
       <c r="AA52" s="94"/>
       <c r="AB52" s="76"/>
     </row>
-    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="53" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="131">
         <v>5</v>
       </c>
-      <c r="B53" s="132" t="s">
+      <c r="B53" s="159" t="s">
         <v>79</v>
       </c>
       <c r="C53" s="37">
@@ -5146,10 +5132,10 @@
       </c>
       <c r="G53" s="71">
         <f>VLOOKUP(H53,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" s="40">
         <v>16</v>
@@ -5177,7 +5163,7 @@
       <c r="AA53" s="94"/>
       <c r="AB53" s="76"/>
     </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="54" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="35">
         <v>6</v>
       </c>
@@ -5229,7 +5215,7 @@
       <c r="AA54" s="94"/>
       <c r="AB54" s="76"/>
     </row>
-    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="55" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="35">
         <v>7</v>
       </c>
@@ -5281,7 +5267,7 @@
       <c r="AA55" s="94"/>
       <c r="AB55" s="76"/>
     </row>
-    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="56" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="35">
         <v>8</v>
       </c>
@@ -5333,7 +5319,7 @@
       <c r="AA56" s="94"/>
       <c r="AB56" s="76"/>
     </row>
-    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="57" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>9</v>
       </c>
@@ -5385,7 +5371,7 @@
       <c r="AA57" s="94"/>
       <c r="AB57" s="76"/>
     </row>
-    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="58" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="35">
         <v>10</v>
       </c>
@@ -5437,7 +5423,7 @@
       <c r="AA58" s="94"/>
       <c r="AB58" s="76"/>
     </row>
-    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="59" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="35">
         <v>11</v>
       </c>
@@ -5489,7 +5475,7 @@
       <c r="AA59" s="94"/>
       <c r="AB59" s="76"/>
     </row>
-    <row r="60" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="60" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="35">
         <v>12</v>
       </c>
@@ -5541,7 +5527,7 @@
       <c r="AA60" s="94"/>
       <c r="AB60" s="76"/>
     </row>
-    <row r="61" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="61" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="35">
         <v>13</v>
       </c>
@@ -5593,7 +5579,7 @@
       <c r="AA61" s="94"/>
       <c r="AB61" s="76"/>
     </row>
-    <row r="62" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="62" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="35">
         <v>14</v>
       </c>
@@ -5645,7 +5631,7 @@
       <c r="AA62" s="94"/>
       <c r="AB62" s="76"/>
     </row>
-    <row r="63" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="63" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="35">
         <v>15</v>
       </c>
@@ -5697,7 +5683,7 @@
       <c r="AA63" s="94"/>
       <c r="AB63" s="76"/>
     </row>
-    <row r="64" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="64" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="131">
         <v>16</v>
       </c>
@@ -5718,7 +5704,7 @@
       </c>
       <c r="G64" s="71"/>
       <c r="H64" s="39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I64" s="40"/>
       <c r="J64" s="40">
@@ -5744,7 +5730,7 @@
       <c r="AA64" s="94"/>
       <c r="AB64" s="76"/>
     </row>
-    <row r="65" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="65" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="35">
         <v>17</v>
       </c>
@@ -5793,7 +5779,7 @@
       <c r="AA65" s="94"/>
       <c r="AB65" s="76"/>
     </row>
-    <row r="66" spans="1:28" s="46" customFormat="1" ht="15.6">
+    <row r="66" spans="1:28" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="35">
         <v>18</v>
       </c>
@@ -5842,7 +5828,7 @@
       <c r="AA66" s="94"/>
       <c r="AB66" s="76"/>
     </row>
-    <row r="67" spans="1:28" s="46" customFormat="1" ht="18">
+    <row r="67" spans="1:28" s="46" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="24" t="s">
         <v>89</v>
@@ -5874,9 +5860,9 @@
       <c r="AA67" s="94"/>
       <c r="AB67" s="76"/>
     </row>
-    <row r="68" spans="1:28" s="86" customFormat="1">
+    <row r="68" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="35">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B68" s="64" t="s">
         <v>90</v>
@@ -5904,7 +5890,7 @@
         <v>12</v>
       </c>
       <c r="J68" s="40">
-        <f t="shared" ref="J68" si="7">SUM(C68:F68)</f>
+        <f t="shared" ref="J68:J70" si="7">SUM(C68:F68)</f>
         <v>12</v>
       </c>
       <c r="K68" s="42"/>
@@ -5926,9 +5912,9 @@
       <c r="AA68" s="44"/>
       <c r="AB68" s="48"/>
     </row>
-    <row r="69" spans="1:28" s="86" customFormat="1" ht="15" thickBot="1">
+    <row r="69" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B69" s="64" t="s">
         <v>91</v>
@@ -5956,7 +5942,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="40">
-        <f t="shared" ref="J69" si="8">SUM(C69:F69)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K69" s="42"/>
@@ -5978,350 +5964,916 @@
       <c r="AA69" s="44"/>
       <c r="AB69" s="48"/>
     </row>
-    <row r="70" spans="1:28" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A70" s="141" t="s">
+    <row r="70" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35">
+        <v>3</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="37">
+        <v>0</v>
+      </c>
+      <c r="D70" s="37">
+        <v>0</v>
+      </c>
+      <c r="E70" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="F70" s="37">
+        <v>0</v>
+      </c>
+      <c r="G70" s="71">
+        <f>VLOOKUP(H70,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="40">
+        <v>1</v>
+      </c>
+      <c r="J70" s="40">
+        <f>SUM(C70:G70)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="155"/>
+      <c r="Y70" s="154"/>
+      <c r="Z70" s="43"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="48"/>
+    </row>
+    <row r="71" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="35"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="155"/>
+      <c r="Y71" s="42"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="48"/>
+    </row>
+    <row r="72" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="35"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="155"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="43"/>
+      <c r="AA72" s="44"/>
+      <c r="AB72" s="48"/>
+    </row>
+    <row r="73" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="155"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="44"/>
+      <c r="AB73" s="48"/>
+    </row>
+    <row r="74" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="35"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="155"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="44"/>
+      <c r="AB74" s="48"/>
+    </row>
+    <row r="75" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="35"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="155"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="44"/>
+      <c r="AB75" s="48"/>
+    </row>
+    <row r="76" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="35"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="155"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="44"/>
+      <c r="AB76" s="48"/>
+    </row>
+    <row r="77" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="35"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="155"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="44"/>
+      <c r="AB77" s="48"/>
+    </row>
+    <row r="78" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="35"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="155"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="43"/>
+      <c r="AA78" s="44"/>
+      <c r="AB78" s="48"/>
+    </row>
+    <row r="79" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="35"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="155"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="44"/>
+      <c r="AB79" s="48"/>
+    </row>
+    <row r="80" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="35"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="155"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="44"/>
+      <c r="AB80" s="48"/>
+    </row>
+    <row r="81" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="35"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="155"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="44"/>
+      <c r="AB81" s="48"/>
+    </row>
+    <row r="82" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="35"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="42"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="155"/>
+      <c r="Y82" s="42"/>
+      <c r="Z82" s="43"/>
+      <c r="AA82" s="44"/>
+      <c r="AB82" s="48"/>
+    </row>
+    <row r="83" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="35"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="155"/>
+      <c r="Y83" s="42"/>
+      <c r="Z83" s="43"/>
+      <c r="AA83" s="44"/>
+      <c r="AB83" s="48"/>
+    </row>
+    <row r="84" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="35"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="155"/>
+      <c r="Y84" s="42"/>
+      <c r="Z84" s="43"/>
+      <c r="AA84" s="44"/>
+      <c r="AB84" s="48"/>
+    </row>
+    <row r="85" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="35"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="42"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="42"/>
+      <c r="U85" s="42"/>
+      <c r="V85" s="43"/>
+      <c r="W85" s="42"/>
+      <c r="X85" s="155"/>
+      <c r="Y85" s="42"/>
+      <c r="Z85" s="43"/>
+      <c r="AA85" s="44"/>
+      <c r="AB85" s="48"/>
+    </row>
+    <row r="86" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="35"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="42"/>
+      <c r="R86" s="42"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="42"/>
+      <c r="U86" s="42"/>
+      <c r="V86" s="43"/>
+      <c r="W86" s="42"/>
+      <c r="X86" s="155"/>
+      <c r="Y86" s="42"/>
+      <c r="Z86" s="43"/>
+      <c r="AA86" s="44"/>
+      <c r="AB86" s="48"/>
+    </row>
+    <row r="87" spans="1:28" s="86" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="35"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="42"/>
+      <c r="X87" s="155"/>
+      <c r="Y87" s="42"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="44"/>
+      <c r="AB87" s="48"/>
+    </row>
+    <row r="88" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="141"/>
-      <c r="C70" s="95">
-        <f>SUM(C10:C69)</f>
+      <c r="B88" s="152"/>
+      <c r="C88" s="95">
+        <f>SUM(C10:C87)</f>
         <v>114</v>
       </c>
-      <c r="D70" s="95">
-        <f>SUM(D10:D69)</f>
+      <c r="D88" s="95">
+        <f>SUM(D10:D87)</f>
         <v>96.5</v>
       </c>
-      <c r="E70" s="95">
-        <f>SUM(E10:E69)</f>
-        <v>95.5</v>
-      </c>
-      <c r="F70" s="95">
-        <f>SUM(F10:F69)</f>
+      <c r="E88" s="95">
+        <f>SUM(E10:E87)</f>
+        <v>96.25</v>
+      </c>
+      <c r="F88" s="95">
+        <f>SUM(F10:F87)</f>
         <v>111</v>
       </c>
-      <c r="G70" s="96"/>
-      <c r="H70" s="95"/>
-      <c r="I70" s="97"/>
-      <c r="J70" s="95">
-        <f>SUM(C70:F70)</f>
-        <v>417</v>
-      </c>
-      <c r="K70" s="98"/>
-      <c r="L70" s="98"/>
-      <c r="M70" s="98"/>
-      <c r="N70" s="98"/>
-      <c r="O70" s="98"/>
-      <c r="P70" s="98"/>
-      <c r="Q70" s="98"/>
-      <c r="R70" s="98"/>
-      <c r="S70" s="98"/>
-      <c r="T70" s="98"/>
-      <c r="U70" s="98"/>
-      <c r="V70" s="98"/>
-      <c r="W70" s="98"/>
-      <c r="X70" s="98"/>
-      <c r="Y70" s="98"/>
-      <c r="Z70" s="98"/>
-      <c r="AA70" s="128">
-        <f>SUM(AA10:AA69)</f>
+      <c r="G88" s="96"/>
+      <c r="H88" s="95"/>
+      <c r="I88" s="97"/>
+      <c r="J88" s="95">
+        <f>SUM(C88:F88)</f>
+        <v>417.75</v>
+      </c>
+      <c r="K88" s="98"/>
+      <c r="L88" s="98"/>
+      <c r="M88" s="98"/>
+      <c r="N88" s="98"/>
+      <c r="O88" s="98"/>
+      <c r="P88" s="98"/>
+      <c r="Q88" s="98"/>
+      <c r="R88" s="98"/>
+      <c r="S88" s="98"/>
+      <c r="T88" s="98"/>
+      <c r="U88" s="98"/>
+      <c r="V88" s="98"/>
+      <c r="W88" s="98"/>
+      <c r="X88" s="98"/>
+      <c r="Y88" s="98"/>
+      <c r="Z88" s="98"/>
+      <c r="AA88" s="128">
+        <f>SUM(AA10:AA87)</f>
         <v>-0.75</v>
       </c>
-      <c r="AB70" s="129"/>
-    </row>
-    <row r="71" spans="1:28" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A71" s="136" t="s">
+      <c r="AB88" s="129"/>
+    </row>
+    <row r="89" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="136"/>
-      <c r="C71" s="95">
-        <f>117-C70</f>
+      <c r="B89" s="147"/>
+      <c r="C89" s="95">
+        <f>117-C88</f>
         <v>3</v>
       </c>
-      <c r="D71" s="95">
-        <f>117-D70</f>
+      <c r="D89" s="95">
+        <f>117-D88</f>
         <v>20.5</v>
       </c>
-      <c r="E71" s="95">
-        <f>117-E70</f>
-        <v>21.5</v>
-      </c>
-      <c r="F71" s="95">
-        <f>117-F70</f>
+      <c r="E89" s="95">
+        <f>117-E88</f>
+        <v>20.75</v>
+      </c>
+      <c r="F89" s="95">
+        <f>117-F88</f>
         <v>6</v>
       </c>
-      <c r="G71" s="96"/>
-      <c r="H71" s="95"/>
-      <c r="I71" s="95"/>
-      <c r="J71" s="95">
-        <f>SUM(C71:F71)</f>
-        <v>51</v>
-      </c>
-      <c r="K71" s="98"/>
-      <c r="L71" s="98"/>
-      <c r="M71" s="98"/>
-      <c r="N71" s="98"/>
-      <c r="O71" s="98"/>
-      <c r="P71" s="98"/>
-      <c r="Q71" s="98"/>
-      <c r="R71" s="98"/>
-      <c r="S71" s="98"/>
-      <c r="T71" s="98"/>
-      <c r="U71" s="98"/>
-      <c r="V71" s="98"/>
-      <c r="W71" s="98"/>
-      <c r="X71" s="98"/>
-      <c r="Y71" s="98"/>
-      <c r="Z71" s="98"/>
-      <c r="AA71" s="98"/>
-      <c r="AB71" s="98"/>
-    </row>
-    <row r="72" spans="1:28" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A72" s="137" t="s">
+      <c r="G89" s="96"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="95"/>
+      <c r="J89" s="95">
+        <f>SUM(C89:F89)</f>
+        <v>50.25</v>
+      </c>
+      <c r="K89" s="98"/>
+      <c r="L89" s="98"/>
+      <c r="M89" s="98"/>
+      <c r="N89" s="98"/>
+      <c r="O89" s="98"/>
+      <c r="P89" s="98"/>
+      <c r="Q89" s="98"/>
+      <c r="R89" s="98"/>
+      <c r="S89" s="98"/>
+      <c r="T89" s="98"/>
+      <c r="U89" s="98"/>
+      <c r="V89" s="98"/>
+      <c r="W89" s="98"/>
+      <c r="X89" s="98"/>
+      <c r="Y89" s="98"/>
+      <c r="Z89" s="98"/>
+      <c r="AA89" s="98"/>
+      <c r="AB89" s="98"/>
+    </row>
+    <row r="90" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="137"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="95"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="95"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="95">
-        <f>C72+D72+F72+E72</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="98"/>
-      <c r="L72" s="98"/>
-      <c r="M72" s="98"/>
-      <c r="N72" s="98"/>
-      <c r="O72" s="98"/>
-      <c r="P72" s="98"/>
-      <c r="Q72" s="98"/>
-      <c r="R72" s="98"/>
-      <c r="S72" s="98"/>
-      <c r="T72" s="98"/>
-      <c r="U72" s="98"/>
-      <c r="V72" s="98"/>
-      <c r="W72" s="98"/>
-      <c r="X72" s="98"/>
-      <c r="Y72" s="98"/>
-      <c r="Z72" s="98"/>
-      <c r="AA72" s="98"/>
-      <c r="AB72" s="98"/>
-    </row>
-    <row r="73" spans="1:28" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A73" s="136" t="s">
+      <c r="B90" s="148"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
+      <c r="E90" s="95"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="95"/>
+      <c r="H90" s="95"/>
+      <c r="I90" s="95"/>
+      <c r="J90" s="95">
+        <f>C90+D90+F90+E90</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="98"/>
+      <c r="L90" s="98"/>
+      <c r="M90" s="98"/>
+      <c r="N90" s="98"/>
+      <c r="O90" s="98"/>
+      <c r="P90" s="98"/>
+      <c r="Q90" s="98"/>
+      <c r="R90" s="98"/>
+      <c r="S90" s="98"/>
+      <c r="T90" s="98"/>
+      <c r="U90" s="98"/>
+      <c r="V90" s="98"/>
+      <c r="W90" s="98"/>
+      <c r="X90" s="98"/>
+      <c r="Y90" s="98"/>
+      <c r="Z90" s="98"/>
+      <c r="AA90" s="98"/>
+      <c r="AB90" s="98"/>
+    </row>
+    <row r="91" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="136"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="95"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="95"/>
-      <c r="I73" s="100">
-        <f>SUM(I10:I69)</f>
-        <v>421.25</v>
-      </c>
-      <c r="J73" s="95">
-        <f>SUM(J10:J69)</f>
-        <v>417</v>
-      </c>
-      <c r="K73" s="98"/>
-      <c r="L73" s="98"/>
-      <c r="M73" s="98"/>
-      <c r="N73" s="98"/>
-      <c r="O73" s="98"/>
-      <c r="P73" s="98"/>
-      <c r="Q73" s="98"/>
-      <c r="R73" s="98"/>
-      <c r="S73" s="98"/>
-      <c r="T73" s="98"/>
-      <c r="U73" s="98"/>
-      <c r="V73" s="98"/>
-      <c r="W73" s="98"/>
-      <c r="X73" s="98"/>
-      <c r="Y73" s="98"/>
-      <c r="Z73" s="98"/>
-      <c r="AA73" s="98"/>
-      <c r="AB73" s="98"/>
-    </row>
-    <row r="74" spans="1:28" ht="13.95" customHeight="1" thickBot="1">
-      <c r="A74" s="101"/>
-      <c r="B74" s="101"/>
-      <c r="C74" s="102"/>
-      <c r="D74" s="142" t="s">
+      <c r="B91" s="147"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="95"/>
+      <c r="H91" s="95"/>
+      <c r="I91" s="100">
+        <f>SUM(I10:I87)</f>
+        <v>422.25</v>
+      </c>
+      <c r="J91" s="95">
+        <f>SUM(J10:J87)</f>
+        <v>417.75</v>
+      </c>
+      <c r="K91" s="98"/>
+      <c r="L91" s="98"/>
+      <c r="M91" s="98"/>
+      <c r="N91" s="98"/>
+      <c r="O91" s="98"/>
+      <c r="P91" s="98"/>
+      <c r="Q91" s="98"/>
+      <c r="R91" s="98"/>
+      <c r="S91" s="98"/>
+      <c r="T91" s="98"/>
+      <c r="U91" s="98"/>
+      <c r="V91" s="98"/>
+      <c r="W91" s="98"/>
+      <c r="X91" s="98"/>
+      <c r="Y91" s="98"/>
+      <c r="Z91" s="98"/>
+      <c r="AA91" s="98"/>
+      <c r="AB91" s="98"/>
+    </row>
+    <row r="92" spans="1:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="101"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="102"/>
-      <c r="I74" s="102"/>
-      <c r="J74" s="102"/>
-      <c r="K74" s="98"/>
-      <c r="L74" s="98"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="98"/>
-      <c r="O74" s="98"/>
-      <c r="P74" s="98"/>
-      <c r="Q74" s="98"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="98"/>
-      <c r="T74" s="98"/>
-      <c r="U74" s="98"/>
-      <c r="V74" s="98"/>
-      <c r="W74" s="98"/>
-      <c r="X74" s="98"/>
-      <c r="Y74" s="98"/>
-      <c r="Z74" s="98"/>
-      <c r="AA74" s="98"/>
-      <c r="AB74" s="98"/>
-    </row>
-    <row r="75" spans="1:28" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A75" s="137" t="s">
+      <c r="E92" s="153"/>
+      <c r="F92" s="153"/>
+      <c r="G92" s="153"/>
+      <c r="H92" s="102"/>
+      <c r="I92" s="102"/>
+      <c r="J92" s="102"/>
+      <c r="K92" s="98"/>
+      <c r="L92" s="98"/>
+      <c r="M92" s="98"/>
+      <c r="N92" s="98"/>
+      <c r="O92" s="98"/>
+      <c r="P92" s="98"/>
+      <c r="Q92" s="98"/>
+      <c r="R92" s="98"/>
+      <c r="S92" s="98"/>
+      <c r="T92" s="98"/>
+      <c r="U92" s="98"/>
+      <c r="V92" s="98"/>
+      <c r="W92" s="98"/>
+      <c r="X92" s="98"/>
+      <c r="Y92" s="98"/>
+      <c r="Z92" s="98"/>
+      <c r="AA92" s="98"/>
+      <c r="AB92" s="98"/>
+    </row>
+    <row r="93" spans="1:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="137"/>
-      <c r="C75" s="134">
+      <c r="B93" s="148"/>
+      <c r="C93" s="134">
         <f>135*4</f>
         <v>540</v>
       </c>
-      <c r="D75" s="153">
+      <c r="D93" s="136">
         <v>468</v>
       </c>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="102"/>
-      <c r="I75" s="102"/>
-      <c r="J75" s="102"/>
-      <c r="K75" s="98"/>
-      <c r="L75" s="98"/>
-      <c r="M75" s="98"/>
-      <c r="N75" s="98"/>
-      <c r="O75" s="98"/>
-      <c r="P75" s="98"/>
-      <c r="Q75" s="98"/>
-      <c r="R75" s="98"/>
-      <c r="S75" s="98"/>
-      <c r="T75" s="98"/>
-      <c r="U75" s="98"/>
-      <c r="V75" s="98"/>
-      <c r="W75" s="98"/>
-      <c r="X75" s="98"/>
-      <c r="Y75" s="98"/>
-      <c r="Z75" s="98"/>
-      <c r="AA75" s="98"/>
-      <c r="AB75" s="98"/>
-    </row>
-    <row r="76" spans="1:28" ht="16.2" thickBot="1">
-      <c r="A76" s="138" t="s">
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="102"/>
+      <c r="I93" s="102"/>
+      <c r="J93" s="102"/>
+      <c r="K93" s="98"/>
+      <c r="L93" s="98"/>
+      <c r="M93" s="98"/>
+      <c r="N93" s="98"/>
+      <c r="O93" s="98"/>
+      <c r="P93" s="98"/>
+      <c r="Q93" s="98"/>
+      <c r="R93" s="98"/>
+      <c r="S93" s="98"/>
+      <c r="T93" s="98"/>
+      <c r="U93" s="98"/>
+      <c r="V93" s="98"/>
+      <c r="W93" s="98"/>
+      <c r="X93" s="98"/>
+      <c r="Y93" s="98"/>
+      <c r="Z93" s="98"/>
+      <c r="AA93" s="98"/>
+      <c r="AB93" s="98"/>
+    </row>
+    <row r="94" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="138"/>
-      <c r="C76" s="134">
-        <f>C75-J73</f>
-        <v>123</v>
-      </c>
-      <c r="D76" s="135">
+      <c r="B94" s="149"/>
+      <c r="C94" s="134">
+        <f>C93-J91</f>
+        <v>122.25</v>
+      </c>
+      <c r="D94" s="135">
         <v>66</v>
       </c>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="102"/>
-      <c r="I76" s="102"/>
-      <c r="J76" s="102"/>
-      <c r="K76" s="98"/>
-      <c r="L76" s="98"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="98"/>
-      <c r="O76" s="98"/>
-      <c r="P76" s="98"/>
-      <c r="Q76" s="98"/>
-      <c r="R76" s="98"/>
-      <c r="S76" s="98"/>
-      <c r="T76" s="98"/>
-      <c r="U76" s="98"/>
-      <c r="V76" s="98"/>
-      <c r="W76" s="98"/>
-      <c r="X76" s="98"/>
-      <c r="Y76" s="98"/>
-      <c r="Z76" s="98"/>
-      <c r="AA76" s="98"/>
-      <c r="AB76" s="98"/>
-    </row>
-    <row r="77" spans="1:28" ht="15.6">
-      <c r="A77" s="103"/>
-      <c r="B77" s="101"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="101"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
-      <c r="AA77" s="98"/>
-    </row>
-    <row r="78" spans="1:28">
-      <c r="D78" s="107"/>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-    </row>
-    <row r="79" spans="1:28" s="109" customFormat="1" ht="13.8">
-      <c r="A79" s="108"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="110"/>
-      <c r="F79" s="110"/>
-      <c r="H79" s="111"/>
-      <c r="I79" s="112"/>
-      <c r="J79" s="112"/>
-      <c r="N79" s="113"/>
-      <c r="R79" s="113"/>
-      <c r="V79" s="113"/>
-      <c r="Z79" s="113"/>
-      <c r="AA79" s="114"/>
-    </row>
-    <row r="80" spans="1:28" s="109" customFormat="1" ht="13.8">
-      <c r="C80" s="110"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="110"/>
-      <c r="F80" s="110"/>
-      <c r="H80" s="111"/>
-      <c r="I80" s="112"/>
-      <c r="J80" s="112"/>
-      <c r="N80" s="113"/>
-      <c r="R80" s="113"/>
-      <c r="V80" s="113"/>
-      <c r="Z80" s="113"/>
-      <c r="AA80" s="114"/>
-    </row>
-    <row r="81" spans="3:27" s="109" customFormat="1" ht="13.8">
-      <c r="C81" s="110"/>
-      <c r="D81" s="110"/>
-      <c r="E81" s="110"/>
-      <c r="F81" s="110"/>
-      <c r="H81" s="111"/>
-      <c r="I81" s="112"/>
-      <c r="J81" s="112"/>
-      <c r="N81" s="113"/>
-      <c r="R81" s="113"/>
-      <c r="V81" s="113"/>
-      <c r="Z81" s="113"/>
-      <c r="AA81" s="114"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="102"/>
+      <c r="J94" s="102"/>
+      <c r="K94" s="98"/>
+      <c r="L94" s="98"/>
+      <c r="M94" s="98"/>
+      <c r="N94" s="98"/>
+      <c r="O94" s="98"/>
+      <c r="P94" s="98"/>
+      <c r="Q94" s="98"/>
+      <c r="R94" s="98"/>
+      <c r="S94" s="98"/>
+      <c r="T94" s="98"/>
+      <c r="U94" s="98"/>
+      <c r="V94" s="98"/>
+      <c r="W94" s="98"/>
+      <c r="X94" s="98"/>
+      <c r="Y94" s="98"/>
+      <c r="Z94" s="98"/>
+      <c r="AA94" s="98"/>
+      <c r="AB94" s="98"/>
+    </row>
+    <row r="95" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="103"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="104"/>
+      <c r="E95" s="104"/>
+      <c r="F95" s="104"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="106"/>
+      <c r="J95" s="106"/>
+      <c r="AA95" s="98"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D96" s="107"/>
+      <c r="E96" s="107"/>
+      <c r="F96" s="107"/>
+    </row>
+    <row r="97" spans="1:27" s="109" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="108"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="110"/>
+      <c r="H97" s="111"/>
+      <c r="I97" s="112"/>
+      <c r="J97" s="112"/>
+      <c r="N97" s="113"/>
+      <c r="R97" s="113"/>
+      <c r="V97" s="113"/>
+      <c r="Z97" s="113"/>
+      <c r="AA97" s="114"/>
+    </row>
+    <row r="98" spans="1:27" s="109" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C98" s="110"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="110"/>
+      <c r="H98" s="111"/>
+      <c r="I98" s="112"/>
+      <c r="J98" s="112"/>
+      <c r="N98" s="113"/>
+      <c r="R98" s="113"/>
+      <c r="V98" s="113"/>
+      <c r="Z98" s="113"/>
+      <c r="AA98" s="114"/>
+    </row>
+    <row r="99" spans="1:27" s="109" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C99" s="110"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="110"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="N99" s="113"/>
+      <c r="R99" s="113"/>
+      <c r="V99" s="113"/>
+      <c r="Z99" s="113"/>
+      <c r="AA99" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+  <mergeCells count="24">
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D92:G92"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -6331,157 +6883,208 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="34" priority="47" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="48" priority="61" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H69">
-    <cfRule type="containsText" dxfId="33" priority="48" operator="containsText" text="En attente">
+  <conditionalFormatting sqref="H9:H68 H70:H87">
+    <cfRule type="containsText" dxfId="47" priority="62" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="46" priority="63" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="45" priority="64" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F45 C47:F47 C56:F64 C49:F54 C66:F69">
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
+  <conditionalFormatting sqref="C9:F45 C47:F47 C56:F64 C49:F54 C66:F68 C70:F87">
+    <cfRule type="cellIs" dxfId="44" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="52">
+    <cfRule type="expression" dxfId="43" priority="66">
       <formula>$H9="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F45 C47:F47 C56:F64 C49:F54 C66:F69">
-    <cfRule type="expression" dxfId="28" priority="53">
+  <conditionalFormatting sqref="C9:F45 C47:F47 C56:F64 C49:F54 C66:F68 C70:F87">
+    <cfRule type="expression" dxfId="42" priority="67">
       <formula>$H9="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="54">
+    <cfRule type="expression" dxfId="41" priority="68">
       <formula>$H9="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:F48">
-    <cfRule type="cellIs" dxfId="26" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="59">
+    <cfRule type="expression" dxfId="39" priority="73">
       <formula>$H48="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:F48">
-    <cfRule type="expression" dxfId="24" priority="60">
+    <cfRule type="expression" dxfId="38" priority="74">
       <formula>$H48="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="61">
+    <cfRule type="expression" dxfId="37" priority="75">
       <formula>$H48="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="cellIs" dxfId="22" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="73">
+    <cfRule type="expression" dxfId="35" priority="87">
       <formula>$H46="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="expression" dxfId="20" priority="74">
+    <cfRule type="expression" dxfId="34" priority="88">
       <formula>$H46="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="75">
+    <cfRule type="expression" dxfId="33" priority="89">
       <formula>$H46="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="cellIs" dxfId="18" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="43">
+    <cfRule type="expression" dxfId="31" priority="57">
       <formula>$H55="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="expression" dxfId="16" priority="44">
+    <cfRule type="expression" dxfId="30" priority="58">
       <formula>$H55="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="45">
+    <cfRule type="expression" dxfId="29" priority="59">
       <formula>$H55="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:F65">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="26">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>$H65="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:F65">
-    <cfRule type="expression" dxfId="12" priority="27">
+    <cfRule type="expression" dxfId="26" priority="41">
       <formula>$H65="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="28">
+    <cfRule type="expression" dxfId="25" priority="42">
       <formula>$H65="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:F66">
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>$H66="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:F66">
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>$H66="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>$H66="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C87:F87">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$H87="En cours"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>$H87="En attente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="En attente">
+      <formula>NOT(ISERROR(SEARCH("En attente",H87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",H87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",H87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:F87">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="25">
+      <formula>$H87="Terminé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="En attente">
+      <formula>NOT(ISERROR(SEARCH("En attente",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",H69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C69:F69">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$H69="Terminé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:F69">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>$H69="En cours"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>$H69="En attente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:F69">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$H69="En cours"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$H69="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="En attente">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="En attente">
       <formula>NOT(ISERROR(SEARCH("En attente",H69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",H69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",H69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:F69">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H69="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H69">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H87" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"En attente,En cours,Terminé"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6493,19 +7096,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="115" t="s">
         <v>6</v>
       </c>
@@ -6513,7 +7116,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6521,7 +7124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6536,12 +7139,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="10.6640625" style="1"/>
   </cols>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84ED095-6FFF-4C57-9AB4-1B719A148389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7206AEBA-7358-46E3-B24D-B3BDC61862A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>Améliorer le visuel (event-search)</t>
   </si>
 </sst>
 </file>
@@ -1528,35 +1531,13 @@
     <xf numFmtId="39" fontId="2" fillId="11" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="19" fillId="9" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="22" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1577,11 +1558,30 @@
     <xf numFmtId="164" fontId="2" fillId="14" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="9" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,8 +1591,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="22" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2459,8 +2462,8 @@
   </sheetPr>
   <dimension ref="A1:AMK99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2488,22 +2491,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="137"/>
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="158"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -2515,20 +2518,20 @@
       <c r="AA1" s="10"/>
     </row>
     <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -2611,83 +2614,83 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139" t="s">
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="156" t="s">
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="X6" s="157"/>
-      <c r="Y6" s="157"/>
-      <c r="Z6" s="158"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="157"/>
       <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143" t="s">
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="144" t="s">
+      <c r="H7" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="145" t="s">
+      <c r="J7" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="146" t="s">
+      <c r="K7" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="150" t="s">
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="154"/>
+      <c r="U7" s="154"/>
+      <c r="V7" s="154"/>
+      <c r="W7" s="154"/>
+      <c r="X7" s="154"/>
+      <c r="Y7" s="154"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="151" t="s">
+      <c r="AB7" s="144" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
@@ -2700,10 +2703,10 @@
       <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
@@ -2767,8 +2770,8 @@
         <f>Y8+7</f>
         <v>43943</v>
       </c>
-      <c r="AA8" s="150"/>
-      <c r="AB8" s="151"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="144"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
@@ -5115,7 +5118,7 @@
       <c r="A53" s="131">
         <v>5</v>
       </c>
-      <c r="B53" s="159" t="s">
+      <c r="B53" s="139" t="s">
         <v>79</v>
       </c>
       <c r="C53" s="37">
@@ -5890,7 +5893,7 @@
         <v>12</v>
       </c>
       <c r="J68" s="40">
-        <f t="shared" ref="J68:J70" si="7">SUM(C68:F68)</f>
+        <f t="shared" ref="J68:J69" si="7">SUM(C68:F68)</f>
         <v>12</v>
       </c>
       <c r="K68" s="42"/>
@@ -6010,23 +6013,45 @@
       <c r="U70" s="42"/>
       <c r="V70" s="43"/>
       <c r="W70" s="42"/>
-      <c r="X70" s="155"/>
-      <c r="Y70" s="154"/>
+      <c r="X70" s="138"/>
+      <c r="Y70" s="137"/>
       <c r="Z70" s="43"/>
       <c r="AA70" s="44"/>
       <c r="AB70" s="48"/>
     </row>
     <row r="71" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="35"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
+      <c r="A71" s="35">
+        <v>4</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="37">
+        <v>0</v>
+      </c>
+      <c r="D71" s="37">
+        <v>0</v>
+      </c>
+      <c r="E71" s="37">
+        <v>1.25</v>
+      </c>
+      <c r="F71" s="37">
+        <v>0</v>
+      </c>
+      <c r="G71" s="71">
+        <f>VLOOKUP(H71,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="40">
+        <v>2</v>
+      </c>
+      <c r="J71" s="40">
+        <f t="shared" ref="J71:J86" si="8">SUM(C71:G71)</f>
+        <v>1.25</v>
+      </c>
       <c r="K71" s="42"/>
       <c r="L71" s="42"/>
       <c r="M71" s="42"/>
@@ -6040,8 +6065,8 @@
       <c r="U71" s="42"/>
       <c r="V71" s="43"/>
       <c r="W71" s="42"/>
-      <c r="X71" s="155"/>
-      <c r="Y71" s="42"/>
+      <c r="X71" s="138"/>
+      <c r="Y71" s="137"/>
       <c r="Z71" s="43"/>
       <c r="AA71" s="44"/>
       <c r="AB71" s="48"/>
@@ -6053,10 +6078,18 @@
       <c r="D72" s="37"/>
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
-      <c r="G72" s="71"/>
+      <c r="G72" s="71" t="e">
+        <f>VLOOKUP(H72,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H72" s="39"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
+      <c r="I72" s="40">
+        <v>3</v>
+      </c>
+      <c r="J72" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K72" s="42"/>
       <c r="L72" s="42"/>
       <c r="M72" s="42"/>
@@ -6070,7 +6103,7 @@
       <c r="U72" s="42"/>
       <c r="V72" s="43"/>
       <c r="W72" s="42"/>
-      <c r="X72" s="155"/>
+      <c r="X72" s="138"/>
       <c r="Y72" s="42"/>
       <c r="Z72" s="43"/>
       <c r="AA72" s="44"/>
@@ -6083,10 +6116,18 @@
       <c r="D73" s="37"/>
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
-      <c r="G73" s="71"/>
+      <c r="G73" s="71" t="e">
+        <f>VLOOKUP(H73,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H73" s="39"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
+      <c r="I73" s="40">
+        <v>4</v>
+      </c>
+      <c r="J73" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K73" s="42"/>
       <c r="L73" s="42"/>
       <c r="M73" s="42"/>
@@ -6100,7 +6141,7 @@
       <c r="U73" s="42"/>
       <c r="V73" s="43"/>
       <c r="W73" s="42"/>
-      <c r="X73" s="155"/>
+      <c r="X73" s="138"/>
       <c r="Y73" s="42"/>
       <c r="Z73" s="43"/>
       <c r="AA73" s="44"/>
@@ -6113,10 +6154,18 @@
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
-      <c r="G74" s="71"/>
+      <c r="G74" s="71" t="e">
+        <f>VLOOKUP(H74,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H74" s="39"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
+      <c r="I74" s="40">
+        <v>5</v>
+      </c>
+      <c r="J74" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K74" s="42"/>
       <c r="L74" s="42"/>
       <c r="M74" s="42"/>
@@ -6130,7 +6179,7 @@
       <c r="U74" s="42"/>
       <c r="V74" s="43"/>
       <c r="W74" s="42"/>
-      <c r="X74" s="155"/>
+      <c r="X74" s="138"/>
       <c r="Y74" s="42"/>
       <c r="Z74" s="43"/>
       <c r="AA74" s="44"/>
@@ -6143,10 +6192,18 @@
       <c r="D75" s="37"/>
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
-      <c r="G75" s="71"/>
+      <c r="G75" s="71" t="e">
+        <f>VLOOKUP(H75,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H75" s="39"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
+      <c r="I75" s="40">
+        <v>6</v>
+      </c>
+      <c r="J75" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K75" s="42"/>
       <c r="L75" s="42"/>
       <c r="M75" s="42"/>
@@ -6160,7 +6217,7 @@
       <c r="U75" s="42"/>
       <c r="V75" s="43"/>
       <c r="W75" s="42"/>
-      <c r="X75" s="155"/>
+      <c r="X75" s="138"/>
       <c r="Y75" s="42"/>
       <c r="Z75" s="43"/>
       <c r="AA75" s="44"/>
@@ -6173,10 +6230,18 @@
       <c r="D76" s="37"/>
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
-      <c r="G76" s="71"/>
+      <c r="G76" s="71" t="e">
+        <f>VLOOKUP(H76,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H76" s="39"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
+      <c r="I76" s="40">
+        <v>7</v>
+      </c>
+      <c r="J76" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K76" s="42"/>
       <c r="L76" s="42"/>
       <c r="M76" s="42"/>
@@ -6190,7 +6255,7 @@
       <c r="U76" s="42"/>
       <c r="V76" s="43"/>
       <c r="W76" s="42"/>
-      <c r="X76" s="155"/>
+      <c r="X76" s="138"/>
       <c r="Y76" s="42"/>
       <c r="Z76" s="43"/>
       <c r="AA76" s="44"/>
@@ -6203,10 +6268,18 @@
       <c r="D77" s="37"/>
       <c r="E77" s="37"/>
       <c r="F77" s="37"/>
-      <c r="G77" s="71"/>
+      <c r="G77" s="71" t="e">
+        <f>VLOOKUP(H77,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H77" s="39"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
+      <c r="I77" s="40">
+        <v>8</v>
+      </c>
+      <c r="J77" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K77" s="42"/>
       <c r="L77" s="42"/>
       <c r="M77" s="42"/>
@@ -6220,7 +6293,7 @@
       <c r="U77" s="42"/>
       <c r="V77" s="43"/>
       <c r="W77" s="42"/>
-      <c r="X77" s="155"/>
+      <c r="X77" s="138"/>
       <c r="Y77" s="42"/>
       <c r="Z77" s="43"/>
       <c r="AA77" s="44"/>
@@ -6233,10 +6306,18 @@
       <c r="D78" s="37"/>
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
-      <c r="G78" s="71"/>
+      <c r="G78" s="71" t="e">
+        <f>VLOOKUP(H78,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H78" s="39"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
+      <c r="I78" s="40">
+        <v>9</v>
+      </c>
+      <c r="J78" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K78" s="42"/>
       <c r="L78" s="42"/>
       <c r="M78" s="42"/>
@@ -6250,7 +6331,7 @@
       <c r="U78" s="42"/>
       <c r="V78" s="43"/>
       <c r="W78" s="42"/>
-      <c r="X78" s="155"/>
+      <c r="X78" s="138"/>
       <c r="Y78" s="42"/>
       <c r="Z78" s="43"/>
       <c r="AA78" s="44"/>
@@ -6263,10 +6344,18 @@
       <c r="D79" s="37"/>
       <c r="E79" s="37"/>
       <c r="F79" s="37"/>
-      <c r="G79" s="71"/>
+      <c r="G79" s="71" t="e">
+        <f>VLOOKUP(H79,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H79" s="39"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
+      <c r="I79" s="40">
+        <v>10</v>
+      </c>
+      <c r="J79" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K79" s="42"/>
       <c r="L79" s="42"/>
       <c r="M79" s="42"/>
@@ -6280,7 +6369,7 @@
       <c r="U79" s="42"/>
       <c r="V79" s="43"/>
       <c r="W79" s="42"/>
-      <c r="X79" s="155"/>
+      <c r="X79" s="138"/>
       <c r="Y79" s="42"/>
       <c r="Z79" s="43"/>
       <c r="AA79" s="44"/>
@@ -6293,10 +6382,18 @@
       <c r="D80" s="37"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
-      <c r="G80" s="71"/>
+      <c r="G80" s="71" t="e">
+        <f>VLOOKUP(H80,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H80" s="39"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
+      <c r="I80" s="40">
+        <v>11</v>
+      </c>
+      <c r="J80" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K80" s="42"/>
       <c r="L80" s="42"/>
       <c r="M80" s="42"/>
@@ -6310,7 +6407,7 @@
       <c r="U80" s="42"/>
       <c r="V80" s="43"/>
       <c r="W80" s="42"/>
-      <c r="X80" s="155"/>
+      <c r="X80" s="138"/>
       <c r="Y80" s="42"/>
       <c r="Z80" s="43"/>
       <c r="AA80" s="44"/>
@@ -6323,10 +6420,18 @@
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
-      <c r="G81" s="71"/>
+      <c r="G81" s="71" t="e">
+        <f>VLOOKUP(H81,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H81" s="39"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
+      <c r="I81" s="40">
+        <v>12</v>
+      </c>
+      <c r="J81" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K81" s="42"/>
       <c r="L81" s="42"/>
       <c r="M81" s="42"/>
@@ -6340,7 +6445,7 @@
       <c r="U81" s="42"/>
       <c r="V81" s="43"/>
       <c r="W81" s="42"/>
-      <c r="X81" s="155"/>
+      <c r="X81" s="138"/>
       <c r="Y81" s="42"/>
       <c r="Z81" s="43"/>
       <c r="AA81" s="44"/>
@@ -6353,10 +6458,18 @@
       <c r="D82" s="37"/>
       <c r="E82" s="37"/>
       <c r="F82" s="37"/>
-      <c r="G82" s="71"/>
+      <c r="G82" s="71" t="e">
+        <f>VLOOKUP(H82,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H82" s="39"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
+      <c r="I82" s="40">
+        <v>13</v>
+      </c>
+      <c r="J82" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K82" s="42"/>
       <c r="L82" s="42"/>
       <c r="M82" s="42"/>
@@ -6370,7 +6483,7 @@
       <c r="U82" s="42"/>
       <c r="V82" s="43"/>
       <c r="W82" s="42"/>
-      <c r="X82" s="155"/>
+      <c r="X82" s="138"/>
       <c r="Y82" s="42"/>
       <c r="Z82" s="43"/>
       <c r="AA82" s="44"/>
@@ -6383,10 +6496,18 @@
       <c r="D83" s="37"/>
       <c r="E83" s="37"/>
       <c r="F83" s="37"/>
-      <c r="G83" s="71"/>
+      <c r="G83" s="71" t="e">
+        <f>VLOOKUP(H83,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H83" s="39"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
+      <c r="I83" s="40">
+        <v>14</v>
+      </c>
+      <c r="J83" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K83" s="42"/>
       <c r="L83" s="42"/>
       <c r="M83" s="42"/>
@@ -6400,7 +6521,7 @@
       <c r="U83" s="42"/>
       <c r="V83" s="43"/>
       <c r="W83" s="42"/>
-      <c r="X83" s="155"/>
+      <c r="X83" s="138"/>
       <c r="Y83" s="42"/>
       <c r="Z83" s="43"/>
       <c r="AA83" s="44"/>
@@ -6413,10 +6534,18 @@
       <c r="D84" s="37"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
-      <c r="G84" s="71"/>
+      <c r="G84" s="71" t="e">
+        <f>VLOOKUP(H84,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H84" s="39"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
+      <c r="I84" s="40">
+        <v>15</v>
+      </c>
+      <c r="J84" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K84" s="42"/>
       <c r="L84" s="42"/>
       <c r="M84" s="42"/>
@@ -6430,7 +6559,7 @@
       <c r="U84" s="42"/>
       <c r="V84" s="43"/>
       <c r="W84" s="42"/>
-      <c r="X84" s="155"/>
+      <c r="X84" s="138"/>
       <c r="Y84" s="42"/>
       <c r="Z84" s="43"/>
       <c r="AA84" s="44"/>
@@ -6443,10 +6572,18 @@
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
-      <c r="G85" s="71"/>
+      <c r="G85" s="71" t="e">
+        <f>VLOOKUP(H85,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H85" s="39"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="40"/>
+      <c r="I85" s="40">
+        <v>16</v>
+      </c>
+      <c r="J85" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K85" s="42"/>
       <c r="L85" s="42"/>
       <c r="M85" s="42"/>
@@ -6460,7 +6597,7 @@
       <c r="U85" s="42"/>
       <c r="V85" s="43"/>
       <c r="W85" s="42"/>
-      <c r="X85" s="155"/>
+      <c r="X85" s="138"/>
       <c r="Y85" s="42"/>
       <c r="Z85" s="43"/>
       <c r="AA85" s="44"/>
@@ -6473,10 +6610,18 @@
       <c r="D86" s="37"/>
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
-      <c r="G86" s="71"/>
+      <c r="G86" s="71" t="e">
+        <f>VLOOKUP(H86,Feuil2!$A$1:$B$3,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="H86" s="39"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
+      <c r="I86" s="40">
+        <v>17</v>
+      </c>
+      <c r="J86" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="K86" s="42"/>
       <c r="L86" s="42"/>
       <c r="M86" s="42"/>
@@ -6490,7 +6635,7 @@
       <c r="U86" s="42"/>
       <c r="V86" s="43"/>
       <c r="W86" s="42"/>
-      <c r="X86" s="155"/>
+      <c r="X86" s="138"/>
       <c r="Y86" s="42"/>
       <c r="Z86" s="43"/>
       <c r="AA86" s="44"/>
@@ -6520,17 +6665,17 @@
       <c r="U87" s="42"/>
       <c r="V87" s="43"/>
       <c r="W87" s="42"/>
-      <c r="X87" s="155"/>
+      <c r="X87" s="138"/>
       <c r="Y87" s="42"/>
       <c r="Z87" s="43"/>
       <c r="AA87" s="44"/>
       <c r="AB87" s="48"/>
     </row>
     <row r="88" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="152" t="s">
+      <c r="A88" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="B88" s="152"/>
+      <c r="B88" s="145"/>
       <c r="C88" s="95">
         <f>SUM(C10:C87)</f>
         <v>114</v>
@@ -6541,7 +6686,7 @@
       </c>
       <c r="E88" s="95">
         <f>SUM(E10:E87)</f>
-        <v>96.25</v>
+        <v>97.5</v>
       </c>
       <c r="F88" s="95">
         <f>SUM(F10:F87)</f>
@@ -6552,7 +6697,7 @@
       <c r="I88" s="97"/>
       <c r="J88" s="95">
         <f>SUM(C88:F88)</f>
-        <v>417.75</v>
+        <v>419</v>
       </c>
       <c r="K88" s="98"/>
       <c r="L88" s="98"/>
@@ -6577,10 +6722,10 @@
       <c r="AB88" s="129"/>
     </row>
     <row r="89" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="147" t="s">
+      <c r="A89" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="B89" s="147"/>
+      <c r="B89" s="140"/>
       <c r="C89" s="95">
         <f>117-C88</f>
         <v>3</v>
@@ -6591,7 +6736,7 @@
       </c>
       <c r="E89" s="95">
         <f>117-E88</f>
-        <v>20.75</v>
+        <v>19.5</v>
       </c>
       <c r="F89" s="95">
         <f>117-F88</f>
@@ -6602,7 +6747,7 @@
       <c r="I89" s="95"/>
       <c r="J89" s="95">
         <f>SUM(C89:F89)</f>
-        <v>50.25</v>
+        <v>49</v>
       </c>
       <c r="K89" s="98"/>
       <c r="L89" s="98"/>
@@ -6624,10 +6769,10 @@
       <c r="AB89" s="98"/>
     </row>
     <row r="90" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="148" t="s">
+      <c r="A90" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="148"/>
+      <c r="B90" s="141"/>
       <c r="C90" s="95"/>
       <c r="D90" s="95"/>
       <c r="E90" s="95"/>
@@ -6659,10 +6804,10 @@
       <c r="AB90" s="98"/>
     </row>
     <row r="91" spans="1:28" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="B91" s="147"/>
+      <c r="B91" s="140"/>
       <c r="C91" s="95"/>
       <c r="D91" s="95"/>
       <c r="E91" s="99"/>
@@ -6671,11 +6816,11 @@
       <c r="H91" s="95"/>
       <c r="I91" s="100">
         <f>SUM(I10:I87)</f>
-        <v>422.25</v>
-      </c>
-      <c r="J91" s="95">
+        <v>574.25</v>
+      </c>
+      <c r="J91" s="95" t="e">
         <f>SUM(J10:J87)</f>
-        <v>417.75</v>
+        <v>#N/A</v>
       </c>
       <c r="K91" s="98"/>
       <c r="L91" s="98"/>
@@ -6700,12 +6845,12 @@
       <c r="A92" s="101"/>
       <c r="B92" s="101"/>
       <c r="C92" s="102"/>
-      <c r="D92" s="153" t="s">
+      <c r="D92" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="E92" s="153"/>
-      <c r="F92" s="153"/>
-      <c r="G92" s="153"/>
+      <c r="E92" s="146"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="146"/>
       <c r="H92" s="102"/>
       <c r="I92" s="102"/>
       <c r="J92" s="102"/>
@@ -6729,10 +6874,10 @@
       <c r="AB92" s="98"/>
     </row>
     <row r="93" spans="1:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="148" t="s">
+      <c r="A93" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="B93" s="148"/>
+      <c r="B93" s="141"/>
       <c r="C93" s="134">
         <f>135*4</f>
         <v>540</v>
@@ -6766,13 +6911,13 @@
       <c r="AB93" s="98"/>
     </row>
     <row r="94" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="149" t="s">
+      <c r="A94" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="B94" s="149"/>
-      <c r="C94" s="134">
+      <c r="B94" s="142"/>
+      <c r="C94" s="134" t="e">
         <f>C93-J91</f>
-        <v>122.25</v>
+        <v>#N/A</v>
       </c>
       <c r="D94" s="135">
         <v>66</v>
@@ -6865,15 +7010,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -6884,11 +7025,15 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:Z7"/>
     <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D92:G92"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="48" priority="61" operator="containsText" text="En cours">

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_Hebdomadaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxbo\Source\Repos\mrjrdg\marque-sans-nom\Semainiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7206AEBA-7358-46E3-B24D-B3BDC61862A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A26535C-A19B-48B4-9F3E-8F492844FE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
   <si>
     <t>UQÀM - Hiver 2020</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>Améliorer le visuel (event-search)</t>
+  </si>
+  <si>
+    <t>Améliorer le visuel (event-board)</t>
   </si>
 </sst>
 </file>
@@ -1539,6 +1542,45 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="22" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1557,45 +1599,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="14" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2462,8 +2465,8 @@
   </sheetPr>
   <dimension ref="A1:AMK99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,22 +2494,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="158"/>
+      <c r="A1" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="140"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
       <c r="N1" s="3"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="8" t="s">
@@ -2518,20 +2521,20 @@
       <c r="AA1" s="10"/>
     </row>
     <row r="2" spans="1:28" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="158"/>
+      <c r="B2" s="140"/>
       <c r="C2" s="7"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="158" t="s">
+      <c r="F2" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="N2" s="3"/>
@@ -2614,83 +2617,83 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="147" t="s">
+      <c r="K6" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147" t="s">
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="155" t="s">
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="157"/>
+      <c r="X6" s="151"/>
+      <c r="Y6" s="151"/>
+      <c r="Z6" s="152"/>
       <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="151" t="s">
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="152" t="s">
+      <c r="H7" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="153" t="s">
+      <c r="I7" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="153" t="s">
+      <c r="J7" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="154" t="s">
+      <c r="K7" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="143" t="s">
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="144" t="s">
+      <c r="AB7" s="157" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
@@ -2703,10 +2706,10 @@
       <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="151"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
       <c r="K8" s="21">
         <v>43838</v>
       </c>
@@ -2770,8 +2773,8 @@
         <f>Y8+7</f>
         <v>43943</v>
       </c>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="144"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="157"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
@@ -6072,23 +6075,37 @@
       <c r="AB71" s="48"/>
     </row>
     <row r="72" spans="1:28" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="71" t="e">
+      <c r="A72" s="35">
+        <v>5</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="37">
+        <v>0</v>
+      </c>
+      <c r="D72" s="37">
+        <v>0</v>
+      </c>
+      <c r="E72" s="37">
+        <v>1</v>
+      </c>
+      <c r="F72" s="37">
+        <v>0</v>
+      </c>
+      <c r="G72" s="71">
         <f>VLOOKUP(H72,Feuil2!$A$1:$B$3,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H72" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>2</v>
+      </c>
       <c r="I72" s="40">
-        <v>3</v>
-      </c>
-      <c r="J72" s="40" t="e">
+        <v>1</v>
+      </c>
+      <c r="J72" s="40">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="K72" s="42"/>
       <c r="L72" s="42"/>
@@ -6104,7 +6121,7 @@
       <c r="V72" s="43"/>
       <c r="W72" s="42"/>
       <c r="X72" s="138"/>
-      <c r="Y72" s="42"/>
+      <c r="Y72" s="137"/>
       <c r="Z72" s="43"/>
       <c r="AA72" s="44"/>
       <c r="AB72" s="48"/>
@@ -6121,9 +6138,7 @@
         <v>#N/A</v>
       </c>
       <c r="H73" s="39"/>
-      <c r="I73" s="40">
-        <v>4</v>
-      </c>
+      <c r="I73" s="40"/>
       <c r="J73" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6159,9 +6174,7 @@
         <v>#N/A</v>
       </c>
       <c r="H74" s="39"/>
-      <c r="I74" s="40">
-        <v>5</v>
-      </c>
+      <c r="I74" s="40"/>
       <c r="J74" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6197,9 +6210,7 @@
         <v>#N/A</v>
       </c>
       <c r="H75" s="39"/>
-      <c r="I75" s="40">
-        <v>6</v>
-      </c>
+      <c r="I75" s="40"/>
       <c r="J75" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6235,9 +6246,7 @@
         <v>#N/A</v>
       </c>
       <c r="H76" s="39"/>
-      <c r="I76" s="40">
-        <v>7</v>
-      </c>
+      <c r="I76" s="40"/>
       <c r="J76" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6273,9 +6282,7 @@
         <v>#N/A</v>
       </c>
       <c r="H77" s="39"/>
-      <c r="I77" s="40">
-        <v>8</v>
-      </c>
+      <c r="I77" s="40"/>
       <c r="J77" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6311,9 +6318,7 @@
         <v>#N/A</v>
       </c>
       <c r="H78" s="39"/>
-      <c r="I78" s="40">
-        <v>9</v>
-      </c>
+      <c r="I78" s="40"/>
       <c r="J78" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6349,9 +6354,7 @@
         <v>#N/A</v>
       </c>
       <c r="H79" s="39"/>
-      <c r="I79" s="40">
-        <v>10</v>
-      </c>
+      <c r="I79" s="40"/>
       <c r="J79" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6387,9 +6390,7 @@
         <v>#N/A</v>
       </c>
       <c r="H80" s="39"/>
-      <c r="I80" s="40">
-        <v>11</v>
-      </c>
+      <c r="I80" s="40"/>
       <c r="J80" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6425,9 +6426,7 @@
         <v>#N/A</v>
       </c>
       <c r="H81" s="39"/>
-      <c r="I81" s="40">
-        <v>12</v>
-      </c>
+      <c r="I81" s="40"/>
       <c r="J81" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6463,9 +6462,7 @@
         <v>#N/A</v>
       </c>
       <c r="H82" s="39"/>
-      <c r="I82" s="40">
-        <v>13</v>
-      </c>
+      <c r="I82" s="40"/>
       <c r="J82" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6501,9 +6498,7 @@
         <v>#N/A</v>
       </c>
       <c r="H83" s="39"/>
-      <c r="I83" s="40">
-        <v>14</v>
-      </c>
+      <c r="I83" s="40"/>
       <c r="J83" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6539,9 +6534,7 @@
         <v>#N/A</v>
       </c>
       <c r="H84" s="39"/>
-      <c r="I84" s="40">
-        <v>15</v>
-      </c>
+      <c r="I84" s="40"/>
       <c r="J84" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6577,9 +6570,7 @@
         <v>#N/A</v>
       </c>
       <c r="H85" s="39"/>
-      <c r="I85" s="40">
-        <v>16</v>
-      </c>
+      <c r="I85" s="40"/>
       <c r="J85" s="40" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -6615,9 +6606,7 @@
         <v>#N/A</v>
       </c>
       <c r="H86" s="39"/>
-      <c r="I86" s="40">
-        <v>17</v>
-      </c>
+      <c r="I86" s="40"/>
    